--- a/Experiment-Data/Answer-Data.xlsx
+++ b/Experiment-Data/Answer-Data.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\iCloudDrive\Documents\01_University\02_Research\Working-Directory\eye-tracking-software\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\www\Desktop\eye-tracking-software\Experiment-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3248773E-4072-4592-86B1-CF84B09D554D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC98698-AA4D-4844-8AC7-8D4142365F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{65F65776-174E-4145-8CCF-AA6B8A50F68A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{65F65776-174E-4145-8CCF-AA6B8A50F68A}"/>
   </bookViews>
   <sheets>
     <sheet name="1st" sheetId="1" r:id="rId1"/>
+    <sheet name="1st-English" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="27">
   <si>
     <t>English</t>
   </si>
@@ -117,6 +118,39 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t xml:space="preserve">注視時間(ms) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">平均注視x座標 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 平均注視y座標</t>
+  </si>
+  <si>
+    <t xml:space="preserve">平均サッケード振幅(px) </t>
+  </si>
+  <si>
+    <t>最大サッケード振幅(px)</t>
+  </si>
+  <si>
+    <t>サッケード数</t>
+  </si>
+  <si>
+    <t>平均速度</t>
+  </si>
+  <si>
+    <t>速度の標準偏差</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 視覚的探索距離(px)</t>
+  </si>
+  <si>
+    <t>視覚的探索の均一性</t>
+  </si>
+  <si>
+    <t>平均視線回転(rad)</t>
+  </si>
 </sst>
 </file>
 
@@ -126,7 +160,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -138,7 +172,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Aptos Narrow"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -171,7 +205,7 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -227,9 +261,6 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -242,14 +273,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -587,21 +621,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C853D4-11AD-448C-900A-323815755F36}">
   <dimension ref="A1:AM37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB9" sqref="AB9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z21" sqref="Z21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="3" customWidth="1"/>
-    <col min="2" max="3" width="4.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="6.25" style="14" customWidth="1"/>
-    <col min="5" max="24" width="4.375" style="2" customWidth="1"/>
-    <col min="25" max="25" width="4.125" style="3" customWidth="1"/>
+    <col min="2" max="3" width="4.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" style="13" customWidth="1"/>
+    <col min="5" max="24" width="4.42578125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="4.140625" style="3" customWidth="1"/>
     <col min="26" max="26" width="10" style="3" customWidth="1"/>
-    <col min="27" max="28" width="4.125" style="3" customWidth="1"/>
-    <col min="29" max="29" width="6.125" style="3" customWidth="1"/>
-    <col min="30" max="39" width="4.375" style="4" customWidth="1"/>
+    <col min="27" max="28" width="4.140625" style="3" customWidth="1"/>
+    <col min="29" max="29" width="6.140625" style="3" customWidth="1"/>
+    <col min="30" max="39" width="4.42578125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -617,28 +651,28 @@
       <c r="D1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
       <c r="Y1" s="5"/>
       <c r="Z1" s="5" t="s">
         <v>10</v>
@@ -649,27 +683,27 @@
       <c r="AB1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AC1" s="15" t="s">
+      <c r="AC1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" s="18" t="s">
+      <c r="AD1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="18"/>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="18"/>
-      <c r="AL1" s="18"/>
-      <c r="AM1" s="18"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="16"/>
     </row>
     <row r="2" spans="1:39" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="12"/>
+      <c r="D2" s="11"/>
       <c r="E2" s="6">
         <v>1</v>
       </c>
@@ -766,7 +800,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:39" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -776,7 +810,7 @@
       <c r="C3" s="3">
         <v>1</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <f>COUNTIF(E3:X3,"○")/20</f>
         <v>0.5</v>
       </c>
@@ -849,7 +883,7 @@
       <c r="AB3" s="3">
         <v>1</v>
       </c>
-      <c r="AC3" s="13">
+      <c r="AC3" s="12">
         <f>(COUNTIF(AD3:AM3,"○")/10)</f>
         <v>0.9</v>
       </c>
@@ -884,11 +918,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:39" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C4" s="3">
         <v>2</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <f t="shared" ref="D4:D30" si="0">COUNTIF(E4:X4,"○")/20</f>
         <v>0.35</v>
       </c>
@@ -955,7 +989,7 @@
       <c r="AB4" s="3">
         <v>2</v>
       </c>
-      <c r="AC4" s="13">
+      <c r="AC4" s="12">
         <f t="shared" ref="AC4:AC36" si="1">(COUNTIF(AD4:AM4,"○")/10)</f>
         <v>0.7</v>
       </c>
@@ -990,89 +1024,89 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.4">
-      <c r="D5" s="13"/>
-      <c r="E5" s="11">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="D5" s="12"/>
+      <c r="E5" s="18">
         <f>(COUNTIF(E3:E4,"○"))/2</f>
         <v>0</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="18">
         <f t="shared" ref="F5:X5" si="2">(COUNTIF(F3:F4,"○"))/2</f>
         <v>0.5</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="18">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="18">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="18">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="18">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="18">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="18">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="18">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="18">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="18">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="R5" s="11">
+      <c r="R5" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S5" s="11">
+      <c r="S5" s="18">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="T5" s="11">
+      <c r="T5" s="18">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="U5" s="11">
+      <c r="U5" s="18">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="V5" s="11">
+      <c r="V5" s="18">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="W5" s="11">
+      <c r="W5" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X5" s="11">
+      <c r="X5" s="18">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="AC5" s="13"/>
+      <c r="AC5" s="12"/>
       <c r="AD5" s="10"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
@@ -1084,14 +1118,14 @@
       <c r="AL5" s="1"/>
       <c r="AM5" s="1"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:39" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1161,7 +1195,7 @@
       <c r="AB6" s="3">
         <v>1</v>
       </c>
-      <c r="AC6" s="13">
+      <c r="AC6" s="12">
         <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
@@ -1196,11 +1230,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:39" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C7" s="3">
         <v>2</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
@@ -1267,7 +1301,7 @@
       <c r="AB7" s="3">
         <v>2</v>
       </c>
-      <c r="AC7" s="13">
+      <c r="AC7" s="12">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
@@ -1302,11 +1336,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:39" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C8" s="3">
         <v>3</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
@@ -1373,7 +1407,7 @@
       <c r="AB8" s="3">
         <v>3</v>
       </c>
-      <c r="AC8" s="13">
+      <c r="AC8" s="12">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
@@ -1408,11 +1442,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:39" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C9" s="3">
         <v>4</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
@@ -1479,7 +1513,7 @@
       <c r="AB9" s="3">
         <v>4</v>
       </c>
-      <c r="AC9" s="13">
+      <c r="AC9" s="12">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
@@ -1514,11 +1548,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:39" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C10" s="3">
         <v>5</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <f t="shared" si="0"/>
         <v>0.55000000000000004</v>
       </c>
@@ -1585,7 +1619,7 @@
       <c r="AB10" s="3">
         <v>5</v>
       </c>
-      <c r="AC10" s="13">
+      <c r="AC10" s="12">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
@@ -1620,11 +1654,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:39" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C11" s="3">
         <v>6</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
@@ -1691,7 +1725,7 @@
       <c r="AB11" s="3">
         <v>6</v>
       </c>
-      <c r="AC11" s="13">
+      <c r="AC11" s="12">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
@@ -1726,11 +1760,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:39" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C12" s="3">
         <v>7</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <f t="shared" si="0"/>
         <v>0.55000000000000004</v>
       </c>
@@ -1797,7 +1831,7 @@
       <c r="AB12" s="3">
         <v>7</v>
       </c>
-      <c r="AC12" s="13">
+      <c r="AC12" s="12">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
@@ -1832,11 +1866,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:39" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C13" s="3">
         <v>8</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="12">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
@@ -1903,7 +1937,7 @@
       <c r="AB13" s="3">
         <v>8</v>
       </c>
-      <c r="AC13" s="13">
+      <c r="AC13" s="12">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
@@ -1938,11 +1972,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:39" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C14" s="3">
         <v>9</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="12">
         <f t="shared" si="0"/>
         <v>0.65</v>
       </c>
@@ -2009,7 +2043,7 @@
       <c r="AB14" s="3">
         <v>9</v>
       </c>
-      <c r="AC14" s="13">
+      <c r="AC14" s="12">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
@@ -2044,11 +2078,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:39" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C15" s="3">
         <v>10</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="12">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
@@ -2115,7 +2149,7 @@
       <c r="AB15" s="3">
         <v>10</v>
       </c>
-      <c r="AC15" s="13">
+      <c r="AC15" s="12">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
@@ -2150,89 +2184,89 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.4">
-      <c r="D16" s="13"/>
-      <c r="E16" s="11">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="D16" s="12"/>
+      <c r="E16" s="18">
         <f>(COUNTIF(E6:E15,"○"))/10</f>
         <v>0.6</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="18">
         <f t="shared" ref="F16:X16" si="3">(COUNTIF(F6:F15,"○"))/10</f>
         <v>0.4</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="18">
         <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="18">
         <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="18">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="18">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M16" s="11">
+      <c r="M16" s="18">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="N16" s="11">
+      <c r="N16" s="18">
         <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
-      <c r="O16" s="11">
+      <c r="O16" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="P16" s="11">
+      <c r="P16" s="18">
         <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
-      <c r="Q16" s="11">
+      <c r="Q16" s="18">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="R16" s="11">
+      <c r="R16" s="18">
         <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
-      <c r="S16" s="11">
+      <c r="S16" s="18">
         <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
-      <c r="T16" s="11">
+      <c r="T16" s="18">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="U16" s="11">
+      <c r="U16" s="18">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V16" s="11">
+      <c r="V16" s="18">
         <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
-      <c r="W16" s="11">
+      <c r="W16" s="18">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="X16" s="11">
+      <c r="X16" s="18">
         <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
-      <c r="AC16" s="13"/>
+      <c r="AC16" s="12"/>
       <c r="AD16" s="10"/>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
@@ -2244,14 +2278,14 @@
       <c r="AL16" s="1"/>
       <c r="AM16" s="1"/>
     </row>
-    <row r="17" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:39" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="12">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
@@ -2321,7 +2355,7 @@
       <c r="AB17" s="3">
         <v>1</v>
       </c>
-      <c r="AC17" s="13">
+      <c r="AC17" s="12">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
@@ -2356,11 +2390,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:39" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C18" s="3">
         <v>2</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="12">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
@@ -2427,7 +2461,7 @@
       <c r="AB18" s="3">
         <v>2</v>
       </c>
-      <c r="AC18" s="13">
+      <c r="AC18" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2462,11 +2496,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:39" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C19" s="3">
         <v>3</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="12">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
@@ -2533,7 +2567,7 @@
       <c r="AB19" s="3">
         <v>3</v>
       </c>
-      <c r="AC19" s="13">
+      <c r="AC19" s="12">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
@@ -2568,11 +2602,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:39" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C20" s="3">
         <v>4</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="12">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
@@ -2639,7 +2673,7 @@
       <c r="AB20" s="3">
         <v>4</v>
       </c>
-      <c r="AC20" s="13">
+      <c r="AC20" s="12">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
@@ -2674,11 +2708,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:39" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C21" s="3">
         <v>5</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="12">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
@@ -2745,7 +2779,7 @@
       <c r="AB21" s="3">
         <v>5</v>
       </c>
-      <c r="AC21" s="13">
+      <c r="AC21" s="12">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
@@ -2780,11 +2814,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:39" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C22" s="3">
         <v>6</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="12">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
@@ -2851,7 +2885,7 @@
       <c r="AB22" s="3">
         <v>6</v>
       </c>
-      <c r="AC22" s="13">
+      <c r="AC22" s="12">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
@@ -2886,11 +2920,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:39" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C23" s="3">
         <v>7</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="12">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
@@ -2957,7 +2991,7 @@
       <c r="AB23" s="3">
         <v>7</v>
       </c>
-      <c r="AC23" s="13">
+      <c r="AC23" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2992,11 +3026,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:39" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C24" s="3">
         <v>8</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="12">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
@@ -3063,7 +3097,7 @@
       <c r="AB24" s="3">
         <v>8</v>
       </c>
-      <c r="AC24" s="13">
+      <c r="AC24" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3098,11 +3132,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:39" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C25" s="3">
         <v>9</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="12">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
@@ -3169,7 +3203,7 @@
       <c r="AB25" s="3">
         <v>9</v>
       </c>
-      <c r="AC25" s="13">
+      <c r="AC25" s="12">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
@@ -3204,11 +3238,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:39" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C26" s="3">
         <v>10</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="12">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
@@ -3275,7 +3309,7 @@
       <c r="AB26" s="3">
         <v>10</v>
       </c>
-      <c r="AC26" s="13">
+      <c r="AC26" s="12">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
@@ -3310,11 +3344,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:39" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C27" s="3">
         <v>11</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="12">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
@@ -3381,7 +3415,7 @@
       <c r="AB27" s="3">
         <v>11</v>
       </c>
-      <c r="AC27" s="13">
+      <c r="AC27" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3416,11 +3450,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:39" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C28" s="3">
         <v>12</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="12">
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
@@ -3487,7 +3521,7 @@
       <c r="AB28" s="3">
         <v>12</v>
       </c>
-      <c r="AC28" s="13">
+      <c r="AC28" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3522,11 +3556,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:39" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C29" s="3">
         <v>13</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="12">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
@@ -3593,7 +3627,7 @@
       <c r="AB29" s="3">
         <v>13</v>
       </c>
-      <c r="AC29" s="13">
+      <c r="AC29" s="12">
         <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
@@ -3628,11 +3662,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:39" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C30" s="3">
         <v>14</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="12">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
@@ -3699,7 +3733,7 @@
       <c r="AB30" s="3">
         <v>14</v>
       </c>
-      <c r="AC30" s="13">
+      <c r="AC30" s="12">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
@@ -3734,85 +3768,85 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:39" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D31" s="5"/>
-      <c r="E31" s="16">
+      <c r="E31" s="17">
         <f>(COUNTIF(E17:E30,"○"))/14</f>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F31" s="17">
         <f t="shared" ref="F31:X31" si="4">(COUNTIF(F17:F30,"○"))/14</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="G31" s="16">
+      <c r="G31" s="17">
         <f t="shared" si="4"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="H31" s="16">
+      <c r="H31" s="17">
         <f t="shared" si="4"/>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="I31" s="16">
+      <c r="I31" s="17">
         <f t="shared" si="4"/>
         <v>0.35714285714285715</v>
       </c>
-      <c r="J31" s="16">
+      <c r="J31" s="17">
         <f t="shared" si="4"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="K31" s="16">
+      <c r="K31" s="17">
         <f t="shared" si="4"/>
         <v>0.35714285714285715</v>
       </c>
-      <c r="L31" s="16">
+      <c r="L31" s="17">
         <f t="shared" si="4"/>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="M31" s="16">
+      <c r="M31" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N31" s="16">
+      <c r="N31" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O31" s="16">
+      <c r="O31" s="17">
         <f t="shared" si="4"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="P31" s="16">
+      <c r="P31" s="17">
         <f>(COUNTIF(P17:P30,"○"))/14</f>
         <v>0</v>
       </c>
-      <c r="Q31" s="16">
+      <c r="Q31" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R31" s="16">
+      <c r="R31" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S31" s="16">
+      <c r="S31" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T31" s="16">
+      <c r="T31" s="17">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="U31" s="16">
+      <c r="U31" s="17">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V31" s="16">
+      <c r="V31" s="17">
         <f t="shared" si="4"/>
         <v>0.35714285714285715</v>
       </c>
-      <c r="W31" s="16">
+      <c r="W31" s="17">
         <f t="shared" si="4"/>
         <v>0.7857142857142857</v>
       </c>
-      <c r="X31" s="16">
+      <c r="X31" s="17">
         <f t="shared" si="4"/>
         <v>7.1428571428571425E-2</v>
       </c>
@@ -3822,7 +3856,7 @@
       <c r="AB31" s="3">
         <v>1</v>
       </c>
-      <c r="AC31" s="13">
+      <c r="AC31" s="12">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
@@ -3857,11 +3891,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="2:39" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:39" ht="16.5" x14ac:dyDescent="0.3">
       <c r="AB32" s="3">
         <v>2</v>
       </c>
-      <c r="AC32" s="13">
+      <c r="AC32" s="12">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
@@ -3896,14 +3930,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="27:39" x14ac:dyDescent="0.4">
+    <row r="33" spans="27:39" x14ac:dyDescent="0.25">
       <c r="AA33" s="3" t="s">
         <v>7</v>
       </c>
       <c r="AB33" s="3">
         <v>1</v>
       </c>
-      <c r="AC33" s="13">
+      <c r="AC33" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3938,11 +3972,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="27:39" x14ac:dyDescent="0.4">
+    <row r="34" spans="27:39" ht="16.5" x14ac:dyDescent="0.3">
       <c r="AB34" s="3">
         <v>2</v>
       </c>
-      <c r="AC34" s="13">
+      <c r="AC34" s="12">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
@@ -3977,11 +4011,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="27:39" x14ac:dyDescent="0.4">
+    <row r="35" spans="27:39" ht="16.5" x14ac:dyDescent="0.3">
       <c r="AB35" s="3">
         <v>3</v>
       </c>
-      <c r="AC35" s="13">
+      <c r="AC35" s="12">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
@@ -4016,14 +4050,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="27:39" x14ac:dyDescent="0.4">
+    <row r="36" spans="27:39" x14ac:dyDescent="0.25">
       <c r="AA36" s="3" t="s">
         <v>6</v>
       </c>
       <c r="AB36" s="3">
         <v>1</v>
       </c>
-      <c r="AC36" s="13">
+      <c r="AC36" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -4058,44 +4092,44 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="27:39" x14ac:dyDescent="0.4">
-      <c r="AD37" s="16">
+    <row r="37" spans="27:39" x14ac:dyDescent="0.25">
+      <c r="AD37" s="17">
         <f>(COUNTIF(AD3:AD36,"○")/32)</f>
         <v>1</v>
       </c>
-      <c r="AE37" s="16">
+      <c r="AE37" s="17">
         <f t="shared" ref="AE37:AM37" si="5">(COUNTIF(AE3:AE36,"○")/32)</f>
         <v>0.9375</v>
       </c>
-      <c r="AF37" s="16">
+      <c r="AF37" s="17">
         <f t="shared" si="5"/>
         <v>0.9375</v>
       </c>
-      <c r="AG37" s="16">
+      <c r="AG37" s="17">
         <f t="shared" si="5"/>
         <v>0.96875</v>
       </c>
-      <c r="AH37" s="16">
+      <c r="AH37" s="17">
         <f t="shared" si="5"/>
         <v>0.59375</v>
       </c>
-      <c r="AI37" s="16">
+      <c r="AI37" s="17">
         <f t="shared" si="5"/>
         <v>0.875</v>
       </c>
-      <c r="AJ37" s="16">
+      <c r="AJ37" s="17">
         <f t="shared" si="5"/>
         <v>0.5625</v>
       </c>
-      <c r="AK37" s="16">
+      <c r="AK37" s="17">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AL37" s="16">
+      <c r="AL37" s="17">
         <f t="shared" si="5"/>
         <v>0.875</v>
       </c>
-      <c r="AM37" s="16">
+      <c r="AM37" s="17">
         <f t="shared" si="5"/>
         <v>0.9375</v>
       </c>
@@ -4109,4 +4143,2028 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88CCFB4E-3D94-4A97-83BE-04827B31FA43}">
+  <dimension ref="A1:AH29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AI5" sqref="AI5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="23" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12">
+        <f>COUNTIF(D3:W3,"○")/20</f>
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="12">
+        <f>COUNTIF(D4:W4,"○")/20</f>
+        <v>0.35</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="W4" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12">
+        <f>COUNTIF(D5:W5,"○")/20</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="U5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="W5" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="12">
+        <f>COUNTIF(D6:W6,"○")/20</f>
+        <v>0.9</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="U6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="W6" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="12">
+        <f>COUNTIF(D7:W7,"○")/20</f>
+        <v>0.95</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="T7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="U7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="V7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="W7" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="12">
+        <f>COUNTIF(D8:W8,"○")/20</f>
+        <v>0.7</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="U8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="V8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="W8" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3">
+        <v>5</v>
+      </c>
+      <c r="C9" s="12">
+        <f>COUNTIF(D9:W9,"○")/20</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="T9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="U9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="V9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="W9" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3">
+        <v>6</v>
+      </c>
+      <c r="C10" s="12">
+        <f>COUNTIF(D10:W10,"○")/20</f>
+        <v>0.85</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="R10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="T10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="U10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="V10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="W10" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3">
+        <v>7</v>
+      </c>
+      <c r="C11" s="12">
+        <f>COUNTIF(D11:W11,"○")/20</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="T11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="U11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="V11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="W11" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3">
+        <v>8</v>
+      </c>
+      <c r="C12" s="12">
+        <f>COUNTIF(D12:W12,"○")/20</f>
+        <v>0.75</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="U12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="V12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="W12" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3">
+        <v>9</v>
+      </c>
+      <c r="C13" s="12">
+        <f>COUNTIF(D13:W13,"○")/20</f>
+        <v>0.65</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="U13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="V13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="W13" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3">
+        <v>10</v>
+      </c>
+      <c r="C14" s="12">
+        <f>COUNTIF(D14:W14,"○")/20</f>
+        <v>0.9</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="T14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="U14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="V14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="W14" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="12">
+        <f>COUNTIF(D15:W15,"○")/20</f>
+        <v>0.2</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="U15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="V15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="W15" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+      <c r="C16" s="12">
+        <f>COUNTIF(D16:W16,"○")/20</f>
+        <v>0.2</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="U16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="V16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="W16" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3">
+        <v>3</v>
+      </c>
+      <c r="C17" s="12">
+        <f>COUNTIF(D17:W17,"○")/20</f>
+        <v>0.2</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="U17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="V17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="W17" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3">
+        <v>4</v>
+      </c>
+      <c r="C18" s="12">
+        <f>COUNTIF(D18:W18,"○")/20</f>
+        <v>0.3</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="T18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="U18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="V18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="W18" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3">
+        <v>5</v>
+      </c>
+      <c r="C19" s="12">
+        <f>COUNTIF(D19:W19,"○")/20</f>
+        <v>0.25</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="T19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="U19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="V19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="W19" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3">
+        <v>6</v>
+      </c>
+      <c r="C20" s="12">
+        <f>COUNTIF(D20:W20,"○")/20</f>
+        <v>0.2</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="T20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="U20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="V20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="W20" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3">
+        <v>7</v>
+      </c>
+      <c r="C21" s="12">
+        <f>COUNTIF(D21:W21,"○")/20</f>
+        <v>0.25</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="T21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="U21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="V21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="W21" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3">
+        <v>8</v>
+      </c>
+      <c r="C22" s="12">
+        <f>COUNTIF(D22:W22,"○")/20</f>
+        <v>0.25</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="T22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="U22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="V22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="W22" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3">
+        <v>9</v>
+      </c>
+      <c r="C23" s="12">
+        <f>COUNTIF(D23:W23,"○")/20</f>
+        <v>0.2</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="U23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="V23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="W23" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3">
+        <v>10</v>
+      </c>
+      <c r="C24" s="12">
+        <f>COUNTIF(D24:W24,"○")/20</f>
+        <v>0.1</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="T24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="U24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="V24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="W24" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3">
+        <v>11</v>
+      </c>
+      <c r="C25" s="12">
+        <f>COUNTIF(D25:W25,"○")/20</f>
+        <v>0.05</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="U25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="V25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="W25" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3">
+        <v>12</v>
+      </c>
+      <c r="C26" s="12">
+        <f>COUNTIF(D26:W26,"○")/20</f>
+        <v>0.15</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="U26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="V26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="W26" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3">
+        <v>13</v>
+      </c>
+      <c r="C27" s="12">
+        <f>COUNTIF(D27:W27,"○")/20</f>
+        <v>0.1</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="T27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="U27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="V27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="W27" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3">
+        <v>14</v>
+      </c>
+      <c r="C28" s="12">
+        <f>COUNTIF(D28:W28,"○")/20</f>
+        <v>0.1</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="U28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="V28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="W28" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="17">
+        <f>(COUNTIF(D15:D28,"○"))/14</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="E29" s="17">
+        <f t="shared" ref="E29:W29" si="0">(COUNTIF(E15:E28,"○"))/14</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="F29" s="17">
+        <f t="shared" si="0"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="G29" s="17">
+        <f t="shared" si="0"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="H29" s="17">
+        <f t="shared" si="0"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="I29" s="17">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="J29" s="17">
+        <f t="shared" si="0"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="K29" s="17">
+        <f t="shared" si="0"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="L29" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="17">
+        <f t="shared" si="0"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="O29" s="17">
+        <f>(COUNTIF(O15:O28,"○"))/14</f>
+        <v>0</v>
+      </c>
+      <c r="P29" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S29" s="17">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="T29" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U29" s="17">
+        <f t="shared" si="0"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="V29" s="17">
+        <f t="shared" si="0"/>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="W29" s="17">
+        <f t="shared" si="0"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:W1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Experiment-Data/Answer-Data.xlsx
+++ b/Experiment-Data/Answer-Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\www\Desktop\eye-tracking-software\Experiment-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72AEB27-B230-4491-A721-666521AFF80A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27A6608-FD1C-455B-85CE-6C48855A7FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{65F65776-174E-4145-8CCF-AA6B8A50F68A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="32">
   <si>
     <t>English</t>
   </si>
@@ -171,9 +171,6 @@
   <si>
     <t>クラスタ
 数</t>
-  </si>
-  <si>
-    <t>NaN</t>
   </si>
 </sst>
 </file>
@@ -650,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C853D4-11AD-448C-900A-323815755F36}">
-  <dimension ref="A1:AX39"/>
+  <dimension ref="A1:AW39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB38" sqref="AB38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,15 +661,15 @@
     <col min="7" max="26" width="4.42578125" style="2" customWidth="1"/>
     <col min="27" max="27" width="4.140625" style="3" customWidth="1"/>
     <col min="28" max="28" width="10" style="3" customWidth="1"/>
-    <col min="29" max="32" width="4.28515625" style="3" customWidth="1"/>
-    <col min="33" max="33" width="6.140625" style="3" customWidth="1"/>
-    <col min="34" max="43" width="4.42578125" style="4" customWidth="1"/>
-    <col min="45" max="45" width="10" style="3" customWidth="1"/>
-    <col min="46" max="49" width="4.28515625" style="3" customWidth="1"/>
-    <col min="50" max="50" width="6.140625" style="3" customWidth="1"/>
+    <col min="29" max="31" width="4.28515625" style="3" customWidth="1"/>
+    <col min="32" max="32" width="6.140625" style="3" customWidth="1"/>
+    <col min="33" max="42" width="4.42578125" style="4" customWidth="1"/>
+    <col min="44" max="44" width="10" style="3" customWidth="1"/>
+    <col min="45" max="48" width="4.28515625" style="3" customWidth="1"/>
+    <col min="49" max="49" width="6.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:49" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -724,17 +721,15 @@
         <v>8</v>
       </c>
       <c r="AE1" s="5">
-        <v>2</v>
-      </c>
-      <c r="AF1" s="5">
-        <v>4</v>
-      </c>
-      <c r="AG1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="AH1" s="20" t="s">
+      <c r="AG1" s="20" t="s">
         <v>15</v>
       </c>
+      <c r="AH1" s="20"/>
       <c r="AI1" s="20"/>
       <c r="AJ1" s="20"/>
       <c r="AK1" s="20"/>
@@ -743,27 +738,26 @@
       <c r="AN1" s="20"/>
       <c r="AO1" s="20"/>
       <c r="AP1" s="20"/>
-      <c r="AQ1" s="20"/>
+      <c r="AR1" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="AS1" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU1" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="AU1" s="5">
+        <v>2</v>
+      </c>
       <c r="AV1" s="5">
-        <v>2</v>
-      </c>
-      <c r="AW1" s="5">
         <v>4</v>
       </c>
-      <c r="AX1" s="14" t="s">
+      <c r="AW1" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:50" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:49" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -836,45 +830,44 @@
       <c r="AD2" s="5"/>
       <c r="AE2" s="5"/>
       <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
+      <c r="AG2" s="7">
+        <v>1</v>
+      </c>
       <c r="AH2" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI2" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ2" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK2" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL2" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM2" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN2" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO2" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP2" s="7">
-        <v>9</v>
-      </c>
-      <c r="AQ2" s="7">
         <v>10</v>
       </c>
+      <c r="AR2" s="5"/>
       <c r="AS2" s="5"/>
       <c r="AT2" s="5"/>
       <c r="AU2" s="5"/>
       <c r="AV2" s="5"/>
       <c r="AW2" s="5"/>
-      <c r="AX2" s="5"/>
-    </row>
-    <row r="3" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -963,16 +956,16 @@
       <c r="AD3" s="3">
         <v>1</v>
       </c>
-      <c r="AE3" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="12">
-        <f>(COUNTIF(AH3:AQ3,"○")/10)</f>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="12">
+        <f>(COUNTIF(AG3:AP3,"○")/10)</f>
         <v>0.9</v>
       </c>
+      <c r="AG3" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="AH3" s="10" t="s">
         <v>12</v>
       </c>
@@ -988,11 +981,11 @@
       <c r="AL3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AM3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN3" s="9" t="s">
-        <v>11</v>
+      <c r="AM3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN3" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="AO3" s="10" t="s">
         <v>12</v>
@@ -1000,30 +993,27 @@
       <c r="AP3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AQ3" s="10" t="s">
-        <v>12</v>
+      <c r="AR3" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="AS3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AT3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AU3" s="3">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AT3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU3">
+        <v>2</v>
       </c>
       <c r="AV3">
-        <v>2</v>
-      </c>
-      <c r="AW3">
         <v>3</v>
       </c>
-      <c r="AX3" s="12">
-        <f>(F3+AG3)/2</f>
+      <c r="AW3" s="12">
+        <f>(F3+AF3)/2</f>
         <v>0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C4" s="3">
         <v>2</v>
       </c>
@@ -1100,16 +1090,16 @@
       <c r="AD4" s="3">
         <v>2</v>
       </c>
-      <c r="AE4" s="3">
-        <v>2</v>
-      </c>
-      <c r="AF4" s="3">
-        <v>2</v>
-      </c>
-      <c r="AG4" s="12">
-        <f t="shared" ref="AG4:AG36" si="1">(COUNTIF(AH4:AQ4,"○")/10)</f>
+      <c r="AE4">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="12">
+        <f t="shared" ref="AF4:AF36" si="1">(COUNTIF(AG4:AP4,"○")/10)</f>
         <v>0.7</v>
       </c>
+      <c r="AG4" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="AH4" s="10" t="s">
         <v>12</v>
       </c>
@@ -1122,122 +1112,120 @@
       <c r="AK4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AL4" s="10" t="s">
-        <v>12</v>
+      <c r="AL4" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="AM4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AN4" s="9" t="s">
-        <v>11</v>
+      <c r="AN4" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="AO4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AP4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AQ4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AU4" s="3">
+      <c r="AP4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT4" s="3">
+        <v>2</v>
+      </c>
+      <c r="AU4">
         <v>2</v>
       </c>
       <c r="AV4">
-        <v>2</v>
-      </c>
-      <c r="AW4">
         <v>4</v>
       </c>
-      <c r="AX4" s="12">
-        <f t="shared" ref="AX4:AX30" si="2">(F4+AG4)/2</f>
+      <c r="AW4" s="12">
+        <f>(F4+AF4)/2</f>
         <v>0.52499999999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="F5" s="12"/>
       <c r="G5" s="16">
         <f>(COUNTIF(G3:G4,"○"))/2</f>
         <v>0</v>
       </c>
       <c r="H5" s="16">
-        <f t="shared" ref="H5:Z5" si="3">(COUNTIF(H3:H4,"○"))/2</f>
+        <f t="shared" ref="H5:Z5" si="2">(COUNTIF(H3:H4,"○"))/2</f>
         <v>0.5</v>
       </c>
       <c r="I5" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="J5" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="K5" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="L5" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="M5" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N5" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="O5" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="P5" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="Q5" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="R5" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S5" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="T5" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U5" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="V5" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="W5" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="X5" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="Y5" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z5" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="10"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1"/>
@@ -1246,10 +1234,9 @@
       <c r="AN5" s="1"/>
       <c r="AO5" s="1"/>
       <c r="AP5" s="1"/>
-      <c r="AQ5" s="1"/>
-      <c r="AX5" s="12"/>
-    </row>
-    <row r="6" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AW5" s="12"/>
+    </row>
+    <row r="6" spans="1:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1332,16 +1319,16 @@
       <c r="AD6" s="3">
         <v>1</v>
       </c>
-      <c r="AE6" s="3">
-        <v>2</v>
-      </c>
-      <c r="AF6" s="3">
-        <v>2</v>
-      </c>
-      <c r="AG6" s="12">
+      <c r="AE6">
+        <v>2</v>
+      </c>
+      <c r="AF6" s="12">
         <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
+      <c r="AG6" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="AH6" s="10" t="s">
         <v>12</v>
       </c>
@@ -1354,42 +1341,39 @@
       <c r="AK6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AL6" s="10" t="s">
-        <v>12</v>
+      <c r="AL6" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="AM6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AN6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AQ6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AT6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AU6" s="3">
-        <v>1</v>
+      <c r="AN6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU6">
+        <v>2</v>
       </c>
       <c r="AV6">
-        <v>2</v>
-      </c>
-      <c r="AW6">
         <v>3</v>
       </c>
-      <c r="AX6" s="12">
-        <f t="shared" si="2"/>
+      <c r="AW6" s="12">
+        <f>(F6+AF6)/2</f>
         <v>0.85</v>
       </c>
     </row>
-    <row r="7" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C7" s="3">
         <v>2</v>
       </c>
@@ -1466,16 +1450,16 @@
       <c r="AD7" s="3">
         <v>2</v>
       </c>
-      <c r="AE7" s="3">
-        <v>2</v>
-      </c>
-      <c r="AF7" s="3">
+      <c r="AE7">
         <v>3</v>
       </c>
-      <c r="AG7" s="12">
+      <c r="AF7" s="12">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
+      <c r="AG7" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="AH7" s="10" t="s">
         <v>12</v>
       </c>
@@ -1485,11 +1469,11 @@
       <c r="AJ7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AK7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL7" s="9" t="s">
-        <v>11</v>
+      <c r="AK7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL7" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="AM7" s="10" t="s">
         <v>12</v>
@@ -1503,24 +1487,21 @@
       <c r="AP7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AQ7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU7" s="3">
+      <c r="AT7" s="3">
+        <v>2</v>
+      </c>
+      <c r="AU7">
         <v>2</v>
       </c>
       <c r="AV7">
-        <v>2</v>
-      </c>
-      <c r="AW7">
         <v>4</v>
       </c>
-      <c r="AX7" s="12">
-        <f t="shared" si="2"/>
+      <c r="AW7" s="12">
+        <f>(F7+AF7)/2</f>
         <v>0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C8" s="3">
         <v>3</v>
       </c>
@@ -1597,30 +1578,30 @@
       <c r="AD8" s="3">
         <v>3</v>
       </c>
-      <c r="AE8" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF8" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG8" s="12">
+      <c r="AE8">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="12">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="AH8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI8" s="9" t="s">
-        <v>11</v>
+      <c r="AG8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI8" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="AJ8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AK8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL8" s="9" t="s">
-        <v>11</v>
+      <c r="AK8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL8" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="AM8" s="10" t="s">
         <v>12</v>
@@ -1634,24 +1615,21 @@
       <c r="AP8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AQ8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU8" s="3">
+      <c r="AT8" s="3">
         <v>3</v>
       </c>
+      <c r="AU8">
+        <v>2</v>
+      </c>
       <c r="AV8">
-        <v>2</v>
-      </c>
-      <c r="AW8">
         <v>3</v>
       </c>
-      <c r="AX8" s="12">
-        <f t="shared" si="2"/>
+      <c r="AW8" s="12">
+        <f>(F8+AF8)/2</f>
         <v>0.875</v>
       </c>
     </row>
-    <row r="9" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C9" s="3">
         <v>4</v>
       </c>
@@ -1728,16 +1706,16 @@
       <c r="AD9" s="3">
         <v>4</v>
       </c>
-      <c r="AE9" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF9" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG9" s="12">
+      <c r="AE9">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="12">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
+      <c r="AG9" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="AH9" s="10" t="s">
         <v>12</v>
       </c>
@@ -1750,11 +1728,11 @@
       <c r="AK9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AL9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM9" s="9" t="s">
-        <v>11</v>
+      <c r="AL9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM9" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="AN9" s="10" t="s">
         <v>12</v>
@@ -1765,24 +1743,21 @@
       <c r="AP9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AQ9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU9" s="3">
+      <c r="AT9" s="3">
         <v>4</v>
       </c>
+      <c r="AU9">
+        <v>2</v>
+      </c>
       <c r="AV9">
-        <v>2</v>
-      </c>
-      <c r="AW9">
         <v>3</v>
       </c>
-      <c r="AX9" s="12">
-        <f t="shared" si="2"/>
+      <c r="AW9" s="12">
+        <f>(F9+AF9)/2</f>
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C10" s="3">
         <v>5</v>
       </c>
@@ -1859,36 +1834,36 @@
       <c r="AD10" s="3">
         <v>5</v>
       </c>
-      <c r="AE10" s="3">
-        <v>2</v>
-      </c>
-      <c r="AF10" s="3">
-        <v>2</v>
-      </c>
-      <c r="AG10" s="12">
+      <c r="AE10">
+        <v>2</v>
+      </c>
+      <c r="AF10" s="12">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="AH10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ10" s="10" t="s">
-        <v>12</v>
+      <c r="AG10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AH10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ10" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="AK10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AL10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AM10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN10" s="9" t="s">
-        <v>11</v>
+      <c r="AL10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN10" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="AO10" s="10" t="s">
         <v>12</v>
@@ -1896,24 +1871,21 @@
       <c r="AP10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AQ10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU10" s="3">
+      <c r="AT10" s="3">
         <v>5</v>
       </c>
+      <c r="AU10">
+        <v>2</v>
+      </c>
       <c r="AV10">
-        <v>2</v>
-      </c>
-      <c r="AW10">
         <v>4</v>
       </c>
-      <c r="AX10" s="12">
-        <f t="shared" si="2"/>
+      <c r="AW10" s="12">
+        <f>(F10+AF10)/2</f>
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C11" s="3">
         <v>6</v>
       </c>
@@ -1990,16 +1962,16 @@
       <c r="AD11" s="3">
         <v>6</v>
       </c>
-      <c r="AE11" s="3">
-        <v>2</v>
-      </c>
-      <c r="AF11" s="3">
-        <v>2</v>
-      </c>
-      <c r="AG11" s="12">
+      <c r="AE11">
+        <v>2</v>
+      </c>
+      <c r="AF11" s="12">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
+      <c r="AG11" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="AH11" s="10" t="s">
         <v>12</v>
       </c>
@@ -2009,17 +1981,17 @@
       <c r="AJ11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AK11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AM11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN11" s="9" t="s">
-        <v>11</v>
+      <c r="AK11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN11" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="AO11" s="10" t="s">
         <v>12</v>
@@ -2027,24 +1999,21 @@
       <c r="AP11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AQ11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU11" s="3">
+      <c r="AT11" s="3">
         <v>6</v>
       </c>
+      <c r="AU11">
+        <v>2</v>
+      </c>
       <c r="AV11">
-        <v>2</v>
-      </c>
-      <c r="AW11">
         <v>4</v>
       </c>
-      <c r="AX11" s="12">
-        <f t="shared" si="2"/>
+      <c r="AW11" s="12">
+        <f>(F11+AF11)/2</f>
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C12" s="3">
         <v>7</v>
       </c>
@@ -2121,16 +2090,16 @@
       <c r="AD12" s="3">
         <v>7</v>
       </c>
-      <c r="AE12" s="3">
-        <v>2</v>
-      </c>
-      <c r="AF12" s="3">
+      <c r="AE12">
         <v>3</v>
       </c>
-      <c r="AG12" s="12">
+      <c r="AF12" s="12">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
+      <c r="AG12" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="AH12" s="10" t="s">
         <v>12</v>
       </c>
@@ -2140,14 +2109,14 @@
       <c r="AJ12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AK12" s="10" t="s">
-        <v>12</v>
+      <c r="AK12" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="AL12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AM12" s="9" t="s">
-        <v>11</v>
+      <c r="AM12" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="AN12" s="10" t="s">
         <v>12</v>
@@ -2158,24 +2127,21 @@
       <c r="AP12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AQ12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU12" s="3">
+      <c r="AT12" s="3">
         <v>7</v>
       </c>
+      <c r="AU12">
+        <v>2</v>
+      </c>
       <c r="AV12">
-        <v>2</v>
-      </c>
-      <c r="AW12">
         <v>4</v>
       </c>
-      <c r="AX12" s="12">
-        <f t="shared" si="2"/>
+      <c r="AW12" s="12">
+        <f>(F12+AF12)/2</f>
         <v>0.67500000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C13" s="3">
         <v>8</v>
       </c>
@@ -2252,16 +2218,16 @@
       <c r="AD13" s="3">
         <v>8</v>
       </c>
-      <c r="AE13" s="3">
-        <v>2</v>
-      </c>
-      <c r="AF13" s="3">
+      <c r="AE13">
         <v>3</v>
       </c>
-      <c r="AG13" s="12">
+      <c r="AF13" s="12">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
+      <c r="AG13" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="AH13" s="10" t="s">
         <v>12</v>
       </c>
@@ -2277,11 +2243,11 @@
       <c r="AL13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AM13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN13" s="9" t="s">
-        <v>11</v>
+      <c r="AM13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN13" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="AO13" s="10" t="s">
         <v>12</v>
@@ -2289,24 +2255,21 @@
       <c r="AP13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AQ13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU13" s="3">
+      <c r="AT13" s="3">
         <v>8</v>
       </c>
+      <c r="AU13">
+        <v>2</v>
+      </c>
       <c r="AV13">
-        <v>2</v>
-      </c>
-      <c r="AW13">
         <v>4</v>
       </c>
-      <c r="AX13" s="12">
-        <f t="shared" si="2"/>
+      <c r="AW13" s="12">
+        <f>(F13+AF13)/2</f>
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C14" s="3">
         <v>9</v>
       </c>
@@ -2383,16 +2346,16 @@
       <c r="AD14" s="3">
         <v>9</v>
       </c>
-      <c r="AE14" s="3">
-        <v>2</v>
-      </c>
-      <c r="AF14" s="3">
-        <v>2</v>
-      </c>
-      <c r="AG14" s="12">
+      <c r="AE14">
+        <v>2</v>
+      </c>
+      <c r="AF14" s="12">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
+      <c r="AG14" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="AH14" s="10" t="s">
         <v>12</v>
       </c>
@@ -2402,17 +2365,17 @@
       <c r="AJ14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AK14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AM14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN14" s="9" t="s">
-        <v>11</v>
+      <c r="AK14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN14" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="AO14" s="10" t="s">
         <v>12</v>
@@ -2420,24 +2383,21 @@
       <c r="AP14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AQ14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU14" s="3">
+      <c r="AT14" s="3">
         <v>9</v>
       </c>
+      <c r="AU14">
+        <v>2</v>
+      </c>
       <c r="AV14">
-        <v>2</v>
-      </c>
-      <c r="AW14">
         <v>4</v>
       </c>
-      <c r="AX14" s="12">
-        <f t="shared" si="2"/>
+      <c r="AW14" s="12">
+        <f>(F14+AF14)/2</f>
         <v>0.72500000000000009</v>
       </c>
     </row>
-    <row r="15" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C15" s="3">
         <v>10</v>
       </c>
@@ -2514,16 +2474,16 @@
       <c r="AD15" s="3">
         <v>10</v>
       </c>
-      <c r="AE15" s="3">
-        <v>2</v>
-      </c>
-      <c r="AF15" s="3">
+      <c r="AE15">
         <v>3</v>
       </c>
-      <c r="AG15" s="12">
+      <c r="AF15" s="12">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
+      <c r="AG15" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="AH15" s="10" t="s">
         <v>12</v>
       </c>
@@ -2539,11 +2499,11 @@
       <c r="AL15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AM15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN15" s="9" t="s">
-        <v>11</v>
+      <c r="AM15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN15" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="AO15" s="10" t="s">
         <v>12</v>
@@ -2551,107 +2511,105 @@
       <c r="AP15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AQ15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU15" s="3">
+      <c r="AT15" s="3">
         <v>10</v>
       </c>
+      <c r="AU15">
+        <v>2</v>
+      </c>
       <c r="AV15">
-        <v>2</v>
-      </c>
-      <c r="AW15">
         <v>4</v>
       </c>
-      <c r="AX15" s="12">
-        <f t="shared" si="2"/>
+      <c r="AW15" s="12">
+        <f>(F15+AF15)/2</f>
         <v>0.9</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="F16" s="12"/>
       <c r="G16" s="16">
         <f>(COUNTIF(G6:G15,"○"))/10</f>
         <v>0.6</v>
       </c>
       <c r="H16" s="16">
-        <f t="shared" ref="H16:Z16" si="4">(COUNTIF(H6:H15,"○"))/10</f>
+        <f t="shared" ref="H16:Z16" si="3">(COUNTIF(H6:H15,"○"))/10</f>
         <v>0.4</v>
       </c>
       <c r="I16" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
       <c r="J16" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
       <c r="K16" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L16" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
       <c r="M16" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="N16" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O16" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
       <c r="P16" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
       <c r="Q16" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R16" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="S16" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
       <c r="T16" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="U16" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
       <c r="V16" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
       <c r="W16" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="X16" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
       <c r="Y16" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
       <c r="Z16" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
-      <c r="AG16" s="12"/>
-      <c r="AH16" s="10"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
@@ -2660,10 +2618,9 @@
       <c r="AN16" s="1"/>
       <c r="AO16" s="1"/>
       <c r="AP16" s="1"/>
-      <c r="AQ16" s="1"/>
-      <c r="AX16" s="12"/>
-    </row>
-    <row r="17" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AW16" s="12"/>
+    </row>
+    <row r="17" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>3</v>
       </c>
@@ -2746,16 +2703,16 @@
       <c r="AD17" s="3">
         <v>1</v>
       </c>
-      <c r="AE17" s="3">
-        <v>2</v>
-      </c>
-      <c r="AF17" s="3">
-        <v>2</v>
-      </c>
-      <c r="AG17" s="12">
+      <c r="AE17">
+        <v>2</v>
+      </c>
+      <c r="AF17" s="12">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
+      <c r="AG17" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="AH17" s="10" t="s">
         <v>12</v>
       </c>
@@ -2765,17 +2722,17 @@
       <c r="AJ17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AK17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AM17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN17" s="9" t="s">
-        <v>11</v>
+      <c r="AK17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN17" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="AO17" s="10" t="s">
         <v>12</v>
@@ -2783,27 +2740,24 @@
       <c r="AP17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AQ17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AT17" s="3" t="s">
+      <c r="AS17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AU17" s="3">
-        <v>1</v>
+      <c r="AT17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU17">
+        <v>2</v>
       </c>
       <c r="AV17">
-        <v>2</v>
-      </c>
-      <c r="AW17">
         <v>4</v>
       </c>
-      <c r="AX17" s="12">
-        <f t="shared" si="2"/>
+      <c r="AW17" s="12">
+        <f>(F17+AF17)/2</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C18" s="3">
         <v>2</v>
       </c>
@@ -2880,16 +2834,16 @@
       <c r="AD18" s="3">
         <v>2</v>
       </c>
-      <c r="AE18" s="3">
-        <v>2</v>
-      </c>
-      <c r="AF18" s="3">
+      <c r="AE18">
         <v>3</v>
       </c>
-      <c r="AG18" s="12">
+      <c r="AF18" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="AG18" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="AH18" s="10" t="s">
         <v>12</v>
       </c>
@@ -2917,24 +2871,21 @@
       <c r="AP18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AQ18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU18" s="3">
+      <c r="AT18" s="3">
+        <v>2</v>
+      </c>
+      <c r="AU18">
         <v>2</v>
       </c>
       <c r="AV18">
-        <v>2</v>
-      </c>
-      <c r="AW18">
         <v>4</v>
       </c>
-      <c r="AX18" s="12">
-        <f t="shared" si="2"/>
+      <c r="AW18" s="12">
+        <f>(F18+AF18)/2</f>
         <v>0.6</v>
       </c>
     </row>
-    <row r="19" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C19" s="3">
         <v>3</v>
       </c>
@@ -3011,30 +2962,30 @@
       <c r="AD19" s="3">
         <v>3</v>
       </c>
-      <c r="AE19" s="3">
-        <v>2</v>
-      </c>
-      <c r="AF19" s="3">
+      <c r="AE19">
         <v>3</v>
       </c>
-      <c r="AG19" s="12">
+      <c r="AF19" s="12">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
+      <c r="AG19" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="AH19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AI19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ19" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL19" s="9" t="s">
-        <v>11</v>
+      <c r="AI19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL19" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="AM19" s="10" t="s">
         <v>12</v>
@@ -3048,24 +2999,21 @@
       <c r="AP19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AQ19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU19" s="3">
+      <c r="AT19" s="3">
         <v>3</v>
       </c>
+      <c r="AU19">
+        <v>2</v>
+      </c>
       <c r="AV19">
-        <v>2</v>
-      </c>
-      <c r="AW19">
         <v>3</v>
       </c>
-      <c r="AX19" s="12">
-        <f t="shared" si="2"/>
+      <c r="AW19" s="12">
+        <f>(F19+AF19)/2</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C20" s="3">
         <v>4</v>
       </c>
@@ -3142,16 +3090,16 @@
       <c r="AD20" s="3">
         <v>4</v>
       </c>
-      <c r="AE20" s="3">
-        <v>2</v>
-      </c>
-      <c r="AF20" s="3">
+      <c r="AE20">
         <v>3</v>
       </c>
-      <c r="AG20" s="12">
+      <c r="AF20" s="12">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
+      <c r="AG20" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="AH20" s="10" t="s">
         <v>12</v>
       </c>
@@ -3167,11 +3115,11 @@
       <c r="AL20" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AM20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN20" s="9" t="s">
-        <v>11</v>
+      <c r="AM20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN20" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="AO20" s="10" t="s">
         <v>12</v>
@@ -3179,24 +3127,21 @@
       <c r="AP20" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AQ20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU20" s="3">
+      <c r="AT20" s="3">
         <v>4</v>
       </c>
+      <c r="AU20">
+        <v>2</v>
+      </c>
       <c r="AV20">
-        <v>2</v>
-      </c>
-      <c r="AW20">
         <v>4</v>
       </c>
-      <c r="AX20" s="12">
-        <f t="shared" si="2"/>
+      <c r="AW20" s="12">
+        <f>(F20+AF20)/2</f>
         <v>0.6</v>
       </c>
     </row>
-    <row r="21" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C21" s="3">
         <v>5</v>
       </c>
@@ -3273,16 +3218,16 @@
       <c r="AD21" s="3">
         <v>5</v>
       </c>
-      <c r="AE21" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF21" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG21" s="12">
+      <c r="AE21">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="12">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
+      <c r="AG21" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="AH21" s="10" t="s">
         <v>12</v>
       </c>
@@ -3292,11 +3237,11 @@
       <c r="AJ21" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AK21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL21" s="9" t="s">
-        <v>11</v>
+      <c r="AK21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL21" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="AM21" s="10" t="s">
         <v>12</v>
@@ -3310,24 +3255,21 @@
       <c r="AP21" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AQ21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU21" s="3">
+      <c r="AT21" s="3">
         <v>5</v>
       </c>
+      <c r="AU21">
+        <v>2</v>
+      </c>
       <c r="AV21">
-        <v>2</v>
-      </c>
-      <c r="AW21">
         <v>3</v>
       </c>
-      <c r="AX21" s="12">
-        <f t="shared" si="2"/>
+      <c r="AW21" s="12">
+        <f>(F21+AF21)/2</f>
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="22" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C22" s="3">
         <v>6</v>
       </c>
@@ -3404,16 +3346,16 @@
       <c r="AD22" s="3">
         <v>6</v>
       </c>
-      <c r="AE22" s="3">
-        <v>2</v>
-      </c>
-      <c r="AF22" s="3">
-        <v>4</v>
-      </c>
-      <c r="AG22" s="12">
+      <c r="AE22">
+        <v>3</v>
+      </c>
+      <c r="AF22" s="12">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
+      <c r="AG22" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="AH22" s="10" t="s">
         <v>12</v>
       </c>
@@ -3423,11 +3365,11 @@
       <c r="AJ22" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AK22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL22" s="9" t="s">
-        <v>11</v>
+      <c r="AK22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL22" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="AM22" s="10" t="s">
         <v>12</v>
@@ -3441,24 +3383,21 @@
       <c r="AP22" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AQ22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU22" s="3">
+      <c r="AT22" s="3">
         <v>6</v>
       </c>
+      <c r="AU22">
+        <v>2</v>
+      </c>
       <c r="AV22">
-        <v>2</v>
-      </c>
-      <c r="AW22">
         <v>4</v>
       </c>
-      <c r="AX22" s="12">
-        <f t="shared" si="2"/>
+      <c r="AW22" s="12">
+        <f>(F22+AF22)/2</f>
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="23" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C23" s="3">
         <v>7</v>
       </c>
@@ -3535,16 +3474,16 @@
       <c r="AD23" s="3">
         <v>7</v>
       </c>
-      <c r="AE23" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF23" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG23" s="12">
+      <c r="AE23">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="AG23" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="AH23" s="10" t="s">
         <v>12</v>
       </c>
@@ -3572,24 +3511,21 @@
       <c r="AP23" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AQ23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU23" s="3">
+      <c r="AT23" s="3">
         <v>7</v>
       </c>
+      <c r="AU23">
+        <v>2</v>
+      </c>
       <c r="AV23">
-        <v>2</v>
-      </c>
-      <c r="AW23">
         <v>3</v>
       </c>
-      <c r="AX23" s="12">
-        <f t="shared" si="2"/>
+      <c r="AW23" s="12">
+        <f>(F23+AF23)/2</f>
         <v>0.625</v>
       </c>
     </row>
-    <row r="24" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C24" s="3">
         <v>8</v>
       </c>
@@ -3666,16 +3602,16 @@
       <c r="AD24" s="3">
         <v>8</v>
       </c>
-      <c r="AE24" s="3">
-        <v>2</v>
-      </c>
-      <c r="AF24" s="3">
+      <c r="AE24">
         <v>3</v>
       </c>
-      <c r="AG24" s="12">
+      <c r="AF24" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="AG24" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="AH24" s="10" t="s">
         <v>12</v>
       </c>
@@ -3703,24 +3639,21 @@
       <c r="AP24" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AQ24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU24" s="3">
+      <c r="AT24" s="3">
         <v>8</v>
       </c>
+      <c r="AU24">
+        <v>2</v>
+      </c>
       <c r="AV24">
-        <v>2</v>
-      </c>
-      <c r="AW24">
         <v>4</v>
       </c>
-      <c r="AX24" s="12">
-        <f t="shared" si="2"/>
+      <c r="AW24" s="12">
+        <f>(F24+AF24)/2</f>
         <v>0.625</v>
       </c>
     </row>
-    <row r="25" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C25" s="3">
         <v>9</v>
       </c>
@@ -3797,16 +3730,16 @@
       <c r="AD25" s="3">
         <v>9</v>
       </c>
-      <c r="AE25" s="3">
-        <v>2</v>
-      </c>
-      <c r="AF25" s="3">
+      <c r="AE25">
         <v>3</v>
       </c>
-      <c r="AG25" s="12">
+      <c r="AF25" s="12">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
+      <c r="AG25" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="AH25" s="10" t="s">
         <v>12</v>
       </c>
@@ -3822,11 +3755,11 @@
       <c r="AL25" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AM25" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN25" s="9" t="s">
-        <v>11</v>
+      <c r="AM25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN25" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="AO25" s="10" t="s">
         <v>12</v>
@@ -3834,24 +3767,21 @@
       <c r="AP25" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AQ25" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU25" s="3">
+      <c r="AT25" s="3">
         <v>9</v>
       </c>
+      <c r="AU25">
+        <v>2</v>
+      </c>
       <c r="AV25">
-        <v>2</v>
-      </c>
-      <c r="AW25">
         <v>4</v>
       </c>
-      <c r="AX25" s="12">
-        <f t="shared" si="2"/>
+      <c r="AW25" s="12">
+        <f>(F25+AF25)/2</f>
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="26" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C26" s="3">
         <v>10</v>
       </c>
@@ -3928,24 +3858,24 @@
       <c r="AD26" s="3">
         <v>10</v>
       </c>
-      <c r="AE26" s="3">
-        <v>2</v>
-      </c>
-      <c r="AF26" s="3">
-        <v>2</v>
-      </c>
-      <c r="AG26" s="12">
+      <c r="AE26">
+        <v>2</v>
+      </c>
+      <c r="AF26" s="12">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
+      <c r="AG26" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="AH26" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AI26" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ26" s="9" t="s">
-        <v>11</v>
+      <c r="AI26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ26" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="AK26" s="10" t="s">
         <v>12</v>
@@ -3965,24 +3895,21 @@
       <c r="AP26" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AQ26" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU26" s="3">
+      <c r="AT26" s="3">
         <v>10</v>
       </c>
+      <c r="AU26">
+        <v>2</v>
+      </c>
       <c r="AV26">
-        <v>2</v>
-      </c>
-      <c r="AW26">
         <v>3</v>
       </c>
-      <c r="AX26" s="12">
-        <f t="shared" si="2"/>
+      <c r="AW26" s="12">
+        <f>(F26+AF26)/2</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C27" s="3">
         <v>11</v>
       </c>
@@ -4059,16 +3986,16 @@
       <c r="AD27" s="3">
         <v>11</v>
       </c>
-      <c r="AE27" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF27" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG27" s="12">
+      <c r="AE27">
+        <v>1</v>
+      </c>
+      <c r="AF27" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="AG27" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="AH27" s="10" t="s">
         <v>12</v>
       </c>
@@ -4096,24 +4023,21 @@
       <c r="AP27" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AQ27" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU27" s="3">
-        <v>11</v>
+      <c r="AT27" s="3">
+        <v>11</v>
+      </c>
+      <c r="AU27">
+        <v>2</v>
       </c>
       <c r="AV27">
-        <v>2</v>
-      </c>
-      <c r="AW27">
         <v>4</v>
       </c>
-      <c r="AX27" s="12">
-        <f t="shared" si="2"/>
+      <c r="AW27" s="12">
+        <f>(F27+AF27)/2</f>
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="28" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C28" s="3">
         <v>12</v>
       </c>
@@ -4190,16 +4114,16 @@
       <c r="AD28" s="3">
         <v>12</v>
       </c>
-      <c r="AE28" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF28" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG28" s="12">
+      <c r="AE28">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="AG28" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="AH28" s="10" t="s">
         <v>12</v>
       </c>
@@ -4227,24 +4151,21 @@
       <c r="AP28" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AQ28" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU28" s="3">
-        <v>12</v>
+      <c r="AT28" s="3">
+        <v>12</v>
+      </c>
+      <c r="AU28">
+        <v>2</v>
       </c>
       <c r="AV28">
-        <v>2</v>
-      </c>
-      <c r="AW28">
         <v>4</v>
       </c>
-      <c r="AX28" s="12">
-        <f t="shared" si="2"/>
+      <c r="AW28" s="12">
+        <f>(F28+AF28)/2</f>
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="29" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C29" s="3">
         <v>13</v>
       </c>
@@ -4321,16 +4242,16 @@
       <c r="AD29" s="3">
         <v>13</v>
       </c>
-      <c r="AE29" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF29" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG29" s="12">
+      <c r="AE29">
+        <v>1</v>
+      </c>
+      <c r="AF29" s="12">
         <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
+      <c r="AG29" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="AH29" s="10" t="s">
         <v>12</v>
       </c>
@@ -4340,42 +4261,39 @@
       <c r="AJ29" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AK29" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL29" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AM29" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN29" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO29" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP29" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AQ29" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU29" s="3">
+      <c r="AK29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT29" s="3">
         <v>13</v>
       </c>
+      <c r="AU29">
+        <v>2</v>
+      </c>
       <c r="AV29">
-        <v>2</v>
-      </c>
-      <c r="AW29">
         <v>4</v>
       </c>
-      <c r="AX29" s="12">
-        <f t="shared" si="2"/>
+      <c r="AW29" s="12">
+        <f>(F29+AF29)/2</f>
         <v>0.39999999999999997</v>
       </c>
     </row>
-    <row r="30" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C30" s="3">
         <v>14</v>
       </c>
@@ -4452,16 +4370,16 @@
       <c r="AD30" s="3">
         <v>14</v>
       </c>
-      <c r="AE30" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF30" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG30" s="12">
+      <c r="AE30">
+        <v>1</v>
+      </c>
+      <c r="AF30" s="12">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
+      <c r="AG30" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="AH30" s="10" t="s">
         <v>12</v>
       </c>
@@ -4471,11 +4389,11 @@
       <c r="AJ30" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AK30" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL30" s="9" t="s">
-        <v>11</v>
+      <c r="AK30" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL30" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="AM30" s="10" t="s">
         <v>12</v>
@@ -4489,67 +4407,64 @@
       <c r="AP30" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AQ30" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU30" s="3">
+      <c r="AT30" s="3">
         <v>14</v>
       </c>
+      <c r="AU30">
+        <v>2</v>
+      </c>
       <c r="AV30">
-        <v>2</v>
-      </c>
-      <c r="AW30">
         <v>4</v>
       </c>
-      <c r="AX30" s="12">
-        <f t="shared" si="2"/>
+      <c r="AW30" s="12">
+        <f>(F30+AF30)/2</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="F31" s="5"/>
       <c r="G31" s="15">
         <f>(COUNTIF(G17:G30,"○"))/14</f>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="H31" s="15">
-        <f t="shared" ref="H31:Z31" si="5">(COUNTIF(H17:H30,"○"))/14</f>
+        <f t="shared" ref="H31:Z31" si="4">(COUNTIF(H17:H30,"○"))/14</f>
         <v>0.14285714285714285</v>
       </c>
       <c r="I31" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="J31" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="K31" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.35714285714285715</v>
       </c>
       <c r="L31" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="M31" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.35714285714285715</v>
       </c>
       <c r="N31" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="O31" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P31" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q31" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="R31" s="15">
@@ -4557,35 +4472,35 @@
         <v>0</v>
       </c>
       <c r="S31" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T31" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U31" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V31" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="W31" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="X31" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.35714285714285715</v>
       </c>
       <c r="Y31" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.7857142857142857</v>
       </c>
       <c r="Z31" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="AC31" s="3" t="s">
@@ -4594,16 +4509,16 @@
       <c r="AD31" s="3">
         <v>1</v>
       </c>
-      <c r="AE31" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF31" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG31" s="12">
+      <c r="AE31">
+        <v>1</v>
+      </c>
+      <c r="AF31" s="12">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
+      <c r="AG31" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="AH31" s="10" t="s">
         <v>12</v>
       </c>
@@ -4619,11 +4534,11 @@
       <c r="AL31" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AM31" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN31" s="9" t="s">
-        <v>11</v>
+      <c r="AM31" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN31" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="AO31" s="10" t="s">
         <v>12</v>
@@ -4631,41 +4546,38 @@
       <c r="AP31" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AQ31" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AT31" s="3" t="s">
+      <c r="AS31" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AU31" s="3">
+      <c r="AT31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU31">
         <v>1</v>
       </c>
       <c r="AV31">
-        <v>1</v>
-      </c>
-      <c r="AW31">
-        <v>2</v>
-      </c>
-      <c r="AX31" s="12">
-        <f>AG31</f>
+        <v>2</v>
+      </c>
+      <c r="AW31" s="12">
+        <f>AF31</f>
         <v>0.9</v>
       </c>
     </row>
-    <row r="32" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="F32" s="12"/>
       <c r="AD32" s="3">
         <v>2</v>
       </c>
-      <c r="AE32" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF32" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG32" s="12">
+      <c r="AE32">
+        <v>1</v>
+      </c>
+      <c r="AF32" s="12">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
+      <c r="AG32" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="AH32" s="10" t="s">
         <v>12</v>
       </c>
@@ -4675,11 +4587,11 @@
       <c r="AJ32" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AK32" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL32" s="9" t="s">
-        <v>11</v>
+      <c r="AK32" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL32" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="AM32" s="10" t="s">
         <v>12</v>
@@ -4687,46 +4599,43 @@
       <c r="AN32" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AO32" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP32" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AQ32" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU32" s="3">
-        <v>2</v>
+      <c r="AO32" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP32" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT32" s="3">
+        <v>2</v>
+      </c>
+      <c r="AU32">
+        <v>1</v>
       </c>
       <c r="AV32">
-        <v>1</v>
-      </c>
-      <c r="AW32">
-        <v>2</v>
-      </c>
-      <c r="AX32" s="12">
-        <f t="shared" ref="AX32:AX36" si="6">AG32</f>
+        <v>2</v>
+      </c>
+      <c r="AW32" s="12">
+        <f t="shared" ref="AW32:AW36" si="5">AF32</f>
         <v>0.8</v>
       </c>
     </row>
-    <row r="33" spans="29:50" x14ac:dyDescent="0.25">
+    <row r="33" spans="29:49" x14ac:dyDescent="0.25">
       <c r="AC33" s="3" t="s">
         <v>7</v>
       </c>
       <c r="AD33" s="3">
         <v>1</v>
       </c>
-      <c r="AE33" s="3">
-        <v>2</v>
-      </c>
-      <c r="AF33" s="3">
+      <c r="AE33">
         <v>3</v>
       </c>
-      <c r="AG33" s="12">
+      <c r="AF33" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="AG33" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="AH33" s="10" t="s">
         <v>12</v>
       </c>
@@ -4754,40 +4663,37 @@
       <c r="AP33" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AQ33" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AT33" s="3" t="s">
+      <c r="AS33" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AU33" s="3">
+      <c r="AT33" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU33">
         <v>1</v>
       </c>
       <c r="AV33">
-        <v>1</v>
-      </c>
-      <c r="AW33">
-        <v>2</v>
-      </c>
-      <c r="AX33" s="12">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="29:50" ht="16.5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="AW33" s="12">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="29:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="AD34" s="3">
         <v>2</v>
       </c>
-      <c r="AE34" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF34" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG34" s="12">
+      <c r="AE34">
+        <v>1</v>
+      </c>
+      <c r="AF34" s="12">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
+      <c r="AG34" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="AH34" s="10" t="s">
         <v>12</v>
       </c>
@@ -4803,11 +4709,11 @@
       <c r="AL34" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AM34" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN34" s="9" t="s">
-        <v>11</v>
+      <c r="AM34" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN34" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="AO34" s="10" t="s">
         <v>12</v>
@@ -4815,37 +4721,34 @@
       <c r="AP34" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AQ34" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU34" s="3">
-        <v>2</v>
+      <c r="AT34" s="3">
+        <v>2</v>
+      </c>
+      <c r="AU34">
+        <v>1</v>
       </c>
       <c r="AV34">
-        <v>1</v>
-      </c>
-      <c r="AW34">
-        <v>2</v>
-      </c>
-      <c r="AX34" s="12">
-        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AW34" s="12">
+        <f t="shared" si="5"/>
         <v>0.9</v>
       </c>
     </row>
-    <row r="35" spans="29:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="29:49" ht="16.5" x14ac:dyDescent="0.3">
       <c r="AD35" s="3">
         <v>3</v>
       </c>
-      <c r="AE35" s="3">
-        <v>2</v>
-      </c>
-      <c r="AF35" s="3">
-        <v>2</v>
-      </c>
-      <c r="AG35" s="12">
+      <c r="AE35">
+        <v>2</v>
+      </c>
+      <c r="AF35" s="12">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
+      <c r="AG35" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="AH35" s="10" t="s">
         <v>12</v>
       </c>
@@ -4867,46 +4770,43 @@
       <c r="AN35" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AO35" s="10" t="s">
-        <v>12</v>
+      <c r="AO35" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="AP35" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AQ35" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AU35" s="3">
+      <c r="AT35" s="3">
         <v>3</v>
       </c>
+      <c r="AU35">
+        <v>1</v>
+      </c>
       <c r="AV35">
         <v>1</v>
       </c>
-      <c r="AW35">
-        <v>1</v>
-      </c>
-      <c r="AX35" s="12">
-        <f t="shared" si="6"/>
+      <c r="AW35" s="12">
+        <f t="shared" si="5"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="36" spans="29:50" x14ac:dyDescent="0.25">
+    <row r="36" spans="29:49" x14ac:dyDescent="0.25">
       <c r="AC36" s="3" t="s">
         <v>6</v>
       </c>
       <c r="AD36" s="3">
         <v>1</v>
       </c>
-      <c r="AE36" s="3">
-        <v>2</v>
-      </c>
-      <c r="AF36" s="3">
+      <c r="AE36">
         <v>3</v>
       </c>
-      <c r="AG36" s="12">
+      <c r="AF36" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="AG36" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="AH36" s="10" t="s">
         <v>12</v>
       </c>
@@ -4934,78 +4834,75 @@
       <c r="AP36" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AQ36" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AT36" s="3" t="s">
+      <c r="AS36" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AU36" s="3">
+      <c r="AT36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU36">
         <v>1</v>
       </c>
       <c r="AV36">
         <v>1</v>
       </c>
-      <c r="AW36">
-        <v>1</v>
-      </c>
-      <c r="AX36" s="12">
+      <c r="AW36" s="12">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="29:49" x14ac:dyDescent="0.25">
+      <c r="AG37" s="15">
+        <f>(COUNTIF(AG3:AG36,"○")/32)</f>
+        <v>1</v>
+      </c>
+      <c r="AH37" s="15">
+        <f t="shared" ref="AH37:AP37" si="6">(COUNTIF(AH3:AH36,"○")/32)</f>
+        <v>0.9375</v>
+      </c>
+      <c r="AI37" s="15">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="29:50" x14ac:dyDescent="0.25">
-      <c r="AH37" s="15">
-        <f>(COUNTIF(AH3:AH36,"○")/32)</f>
-        <v>1</v>
-      </c>
-      <c r="AI37" s="15">
-        <f t="shared" ref="AI37:AQ37" si="7">(COUNTIF(AI3:AI36,"○")/32)</f>
         <v>0.9375</v>
       </c>
       <c r="AJ37" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
+        <v>0.96875</v>
+      </c>
+      <c r="AK37" s="15">
+        <f t="shared" si="6"/>
+        <v>0.59375</v>
+      </c>
+      <c r="AL37" s="15">
+        <f t="shared" si="6"/>
+        <v>0.875</v>
+      </c>
+      <c r="AM37" s="15">
+        <f t="shared" si="6"/>
+        <v>0.5625</v>
+      </c>
+      <c r="AN37" s="15">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AO37" s="15">
+        <f t="shared" si="6"/>
+        <v>0.875</v>
+      </c>
+      <c r="AP37" s="15">
+        <f t="shared" si="6"/>
         <v>0.9375</v>
       </c>
-      <c r="AK37" s="15">
-        <f t="shared" si="7"/>
-        <v>0.96875</v>
-      </c>
-      <c r="AL37" s="15">
-        <f t="shared" si="7"/>
-        <v>0.59375</v>
-      </c>
-      <c r="AM37" s="15">
-        <f t="shared" si="7"/>
-        <v>0.875</v>
-      </c>
-      <c r="AN37" s="15">
-        <f t="shared" si="7"/>
-        <v>0.5625</v>
-      </c>
-      <c r="AO37" s="15">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AP37" s="15">
-        <f t="shared" si="7"/>
-        <v>0.875</v>
-      </c>
-      <c r="AQ37" s="15">
-        <f t="shared" si="7"/>
-        <v>0.9375</v>
-      </c>
-    </row>
-    <row r="38" spans="29:50" x14ac:dyDescent="0.25">
-      <c r="AX38" s="12"/>
-    </row>
-    <row r="39" spans="29:50" x14ac:dyDescent="0.25">
-      <c r="AG39" s="12"/>
+    </row>
+    <row r="38" spans="29:49" x14ac:dyDescent="0.25">
+      <c r="AW38" s="12"/>
+    </row>
+    <row r="39" spans="29:49" x14ac:dyDescent="0.25">
+      <c r="AF39" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="G1:Z1"/>
-    <mergeCell ref="AH1:AQ1"/>
+    <mergeCell ref="AG1:AP1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5015,11 +4912,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88CCFB4E-3D94-4A97-83BE-04827B31FA43}">
-  <dimension ref="A1:Z29"/>
+  <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5625,7 +5520,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
@@ -5706,881 +5601,654 @@
         <v>2</v>
       </c>
       <c r="D11" s="12">
-        <v>0.86</v>
+        <v>0.76</v>
       </c>
       <c r="E11">
-        <v>2167.9</v>
+        <v>2648.125</v>
       </c>
       <c r="F11">
-        <v>250630.62105300001</v>
+        <v>55486.696429000003</v>
       </c>
       <c r="G11">
-        <v>714.95</v>
+        <v>708.5</v>
       </c>
       <c r="H11">
-        <v>5170.9973680000003</v>
+        <v>3474</v>
       </c>
       <c r="I11">
-        <v>475.85</v>
+        <v>503.375</v>
       </c>
       <c r="J11">
-        <v>17190.344736999999</v>
+        <v>33555.696429000003</v>
       </c>
       <c r="K11">
-        <v>260.65306299999997</v>
+        <v>267.79143699999997</v>
       </c>
       <c r="L11">
-        <v>1835.207633</v>
+        <v>2273.0406410000001</v>
       </c>
       <c r="M11">
-        <v>1056.411304</v>
+        <v>1209.3295149999999</v>
       </c>
       <c r="N11">
-        <v>34679.796719999998</v>
+        <v>20713.141038000002</v>
       </c>
       <c r="O11">
-        <v>319.25</v>
+        <v>374.5</v>
       </c>
       <c r="P11">
-        <v>4776.6184210000001</v>
+        <v>1853.4285709999999</v>
       </c>
       <c r="Q11">
-        <v>1060.408426</v>
+        <v>1045.4341790000001</v>
       </c>
       <c r="R11">
-        <v>23698.880735999999</v>
+        <v>21069.456459000001</v>
       </c>
       <c r="S11">
-        <v>1993.3181139999999</v>
+        <v>2077.987709</v>
       </c>
       <c r="T11">
-        <v>111216.08438499999</v>
+        <v>103616.614068</v>
       </c>
       <c r="U11">
-        <v>127671.448353</v>
+        <v>151747.92726200001</v>
       </c>
       <c r="V11" s="18">
-        <v>998679300</v>
+        <v>337635700</v>
       </c>
       <c r="W11">
-        <v>826.87913200000003</v>
+        <v>686.14610900000002</v>
       </c>
       <c r="X11">
-        <v>24907.053950000001</v>
+        <v>7382.4387580000002</v>
       </c>
       <c r="Y11">
-        <v>4.3660000000000001E-3</v>
+        <v>9.4352000000000005E-2</v>
       </c>
       <c r="Z11">
-        <v>3.2160000000000001E-2</v>
+        <v>3.3871999999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <v>4</v>
-      </c>
+      <c r="B12" s="3"/>
       <c r="C12" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" s="12">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="E12">
-        <v>1830.25</v>
+        <v>1847.75</v>
       </c>
       <c r="F12">
-        <v>118833.295455</v>
+        <v>118063.11363599999</v>
       </c>
       <c r="G12">
-        <v>772.5</v>
+        <v>719.25</v>
       </c>
       <c r="H12">
-        <v>6660.0909089999996</v>
+        <v>6670.568182</v>
       </c>
       <c r="I12">
-        <v>423.08333299999998</v>
+        <v>457.5</v>
       </c>
       <c r="J12">
-        <v>4160.992424</v>
+        <v>7420.4545449999996</v>
       </c>
       <c r="K12">
-        <v>378.01879700000001</v>
+        <v>255.894147</v>
       </c>
       <c r="L12">
-        <v>4584.8516010000003</v>
+        <v>1661.658381</v>
       </c>
       <c r="M12">
-        <v>1295.7533490000001</v>
+        <v>954.46582999999998</v>
       </c>
       <c r="N12">
-        <v>23940.556202</v>
+        <v>18376.15987</v>
       </c>
       <c r="O12">
-        <v>247.5</v>
+        <v>282.41666700000002</v>
       </c>
       <c r="P12">
-        <v>2958.272727</v>
+        <v>3370.992424</v>
       </c>
       <c r="Q12">
-        <v>1392.8550399999999</v>
+        <v>1070.391257</v>
       </c>
       <c r="R12">
-        <v>20620.633055999999</v>
+        <v>27254.802844000002</v>
       </c>
       <c r="S12">
-        <v>2700.9950840000001</v>
+        <v>1936.871717</v>
       </c>
       <c r="T12">
-        <v>191521.769967</v>
+        <v>117473.039372</v>
       </c>
       <c r="U12">
-        <v>140455.03805800001</v>
+        <v>111620.462413</v>
       </c>
       <c r="V12" s="18">
-        <v>855042200</v>
+        <v>807493900</v>
       </c>
       <c r="W12">
-        <v>1071.5283179999999</v>
+        <v>920.70114699999999</v>
       </c>
       <c r="X12">
-        <v>21250.853659</v>
+        <v>14316.348910000001</v>
       </c>
       <c r="Y12">
-        <v>-4.5433000000000001E-2</v>
+        <v>-5.5625000000000001E-2</v>
       </c>
       <c r="Z12">
-        <v>1.6001999999999999E-2</v>
+        <v>2.4178999999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
-      <c r="C13" s="3">
-        <v>2</v>
-      </c>
-      <c r="D13" s="12">
-        <v>0.76</v>
-      </c>
-      <c r="E13">
-        <v>2648.125</v>
-      </c>
-      <c r="F13">
-        <v>55486.696429000003</v>
-      </c>
-      <c r="G13">
-        <v>708.5</v>
-      </c>
-      <c r="H13">
-        <v>3474</v>
-      </c>
-      <c r="I13">
-        <v>503.375</v>
-      </c>
-      <c r="J13">
-        <v>33555.696429000003</v>
-      </c>
-      <c r="K13">
-        <v>267.79143699999997</v>
-      </c>
-      <c r="L13">
-        <v>2273.0406410000001</v>
-      </c>
-      <c r="M13">
-        <v>1209.3295149999999</v>
-      </c>
-      <c r="N13">
-        <v>20713.141038000002</v>
-      </c>
-      <c r="O13">
-        <v>374.5</v>
-      </c>
-      <c r="P13">
-        <v>1853.4285709999999</v>
-      </c>
-      <c r="Q13">
-        <v>1045.4341790000001</v>
-      </c>
-      <c r="R13">
-        <v>21069.456459000001</v>
-      </c>
-      <c r="S13">
-        <v>2077.987709</v>
-      </c>
-      <c r="T13">
-        <v>103616.614068</v>
-      </c>
-      <c r="U13">
-        <v>151747.92726200001</v>
-      </c>
-      <c r="V13" s="18">
-        <v>337635700</v>
-      </c>
-      <c r="W13">
-        <v>686.14610900000002</v>
-      </c>
-      <c r="X13">
-        <v>7382.4387580000002</v>
-      </c>
-      <c r="Y13">
-        <v>9.4352000000000005E-2</v>
-      </c>
-      <c r="Z13">
-        <v>3.3871999999999999E-2</v>
-      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
       <c r="C14" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14" s="12">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="E14">
-        <v>1897.727273</v>
+        <v>1739.833333</v>
       </c>
       <c r="F14">
-        <v>96899.418181999994</v>
+        <v>178983.76666699999</v>
       </c>
       <c r="G14">
-        <v>712.09090900000001</v>
+        <v>752</v>
       </c>
       <c r="H14">
-        <v>6661.0909089999996</v>
+        <v>14627.2</v>
       </c>
       <c r="I14">
-        <v>452.454545</v>
+        <v>432.66666700000002</v>
       </c>
       <c r="J14">
-        <v>7826.4727270000003</v>
+        <v>2790.666667</v>
       </c>
       <c r="K14">
-        <v>264.54445399999997</v>
+        <v>307.72950600000001</v>
       </c>
       <c r="L14">
-        <v>840.09712400000001</v>
+        <v>4890.5534399999997</v>
       </c>
       <c r="M14">
-        <v>980.94243300000005</v>
+        <v>1112.6261919999999</v>
       </c>
       <c r="N14">
-        <v>10960.436761999999</v>
+        <v>37055.747754999997</v>
       </c>
       <c r="O14">
-        <v>288.90909099999999</v>
+        <v>249.66666699999999</v>
       </c>
       <c r="P14">
-        <v>3151.6909089999999</v>
+        <v>4420.6666670000004</v>
       </c>
       <c r="Q14">
-        <v>1101.6214869999999</v>
+        <v>1211.0714700000001</v>
       </c>
       <c r="R14">
-        <v>17105.962804999999</v>
+        <v>71898.080390999996</v>
       </c>
       <c r="S14">
-        <v>2013.9289679999999</v>
+        <v>2251.2261530000001</v>
       </c>
       <c r="T14">
-        <v>50841.120057</v>
+        <v>175012.62764200001</v>
       </c>
       <c r="U14">
-        <v>116905.84852499999</v>
+        <v>114600.766343</v>
       </c>
       <c r="V14" s="18">
-        <v>519497200</v>
+        <v>510096100</v>
       </c>
       <c r="W14">
-        <v>917.81769599999996</v>
+        <v>1025.3733279999999</v>
       </c>
       <c r="X14">
-        <v>15638.235188000001</v>
+        <v>76444.986667999998</v>
       </c>
       <c r="Y14">
-        <v>-9.3839000000000006E-2</v>
+        <v>2.0501999999999999E-2</v>
       </c>
       <c r="Z14">
-        <v>7.3210000000000003E-3</v>
+        <v>7.541E-3</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3">
+        <v>2</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0.65</v>
+      </c>
+      <c r="E15">
+        <v>3385.0576919999999</v>
+      </c>
+      <c r="F15">
+        <v>592731.926538</v>
+      </c>
+      <c r="G15">
+        <v>827.61538499999995</v>
+      </c>
+      <c r="H15">
+        <v>1930.886154</v>
+      </c>
+      <c r="I15">
+        <v>410.90384599999999</v>
+      </c>
+      <c r="J15">
+        <v>2171.8803849999999</v>
+      </c>
+      <c r="K15">
+        <v>371.539221</v>
+      </c>
+      <c r="L15">
+        <v>1035.578855</v>
+      </c>
+      <c r="M15">
+        <v>1222.5497009999999</v>
+      </c>
+      <c r="N15">
+        <v>15536.642760999999</v>
+      </c>
+      <c r="O15">
+        <v>498.94230800000003</v>
+      </c>
+      <c r="P15">
+        <v>16900.946538</v>
+      </c>
+      <c r="Q15">
+        <v>1245.3258940000001</v>
+      </c>
+      <c r="R15">
+        <v>12740.419583999999</v>
+      </c>
+      <c r="S15">
+        <v>2578.3067820000001</v>
+      </c>
+      <c r="T15">
+        <v>49049.371189999998</v>
+      </c>
+      <c r="U15">
+        <v>193914.33996899999</v>
+      </c>
+      <c r="V15" s="18">
+        <v>1004123000</v>
+      </c>
+      <c r="W15">
+        <v>722.09551699999997</v>
+      </c>
+      <c r="X15">
+        <v>4047.1366130000001</v>
+      </c>
+      <c r="Y15">
+        <v>-0.116019</v>
+      </c>
+      <c r="Z15">
+        <v>5.2220000000000001E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
         <v>4</v>
       </c>
-      <c r="D15" s="12">
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="12">
         <v>0.9</v>
       </c>
-      <c r="E15">
-        <v>1298</v>
-      </c>
-      <c r="F15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15">
-        <v>798</v>
-      </c>
-      <c r="H15" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15">
-        <v>513</v>
-      </c>
-      <c r="J15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15">
-        <v>160.740771</v>
-      </c>
-      <c r="L15" t="s">
-        <v>32</v>
-      </c>
-      <c r="M15">
-        <v>663.22319000000005</v>
-      </c>
-      <c r="N15" t="s">
-        <v>32</v>
-      </c>
-      <c r="O15">
-        <v>211</v>
-      </c>
-      <c r="P15" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q15">
-        <v>726.85872099999995</v>
-      </c>
-      <c r="R15" t="s">
-        <v>32</v>
-      </c>
-      <c r="S15">
-        <v>1089.241955</v>
-      </c>
-      <c r="T15" t="s">
-        <v>32</v>
-      </c>
-      <c r="U15">
-        <v>53481.215179999999</v>
-      </c>
-      <c r="V15" t="s">
-        <v>32</v>
-      </c>
-      <c r="W15">
-        <v>952.41910600000006</v>
-      </c>
-      <c r="X15" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y15">
-        <v>0.364732</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="12"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="3">
-        <v>2</v>
-      </c>
+      <c r="E16">
+        <v>2178</v>
+      </c>
+      <c r="F16">
+        <v>302642</v>
+      </c>
+      <c r="G16">
+        <v>654</v>
+      </c>
+      <c r="H16">
+        <v>10368</v>
+      </c>
+      <c r="I16">
+        <v>395.5</v>
+      </c>
+      <c r="J16">
+        <v>1104.5</v>
+      </c>
+      <c r="K16">
+        <v>229.304495</v>
+      </c>
+      <c r="L16">
+        <v>106.140266</v>
+      </c>
+      <c r="M16">
+        <v>989.65582400000005</v>
+      </c>
+      <c r="N16">
+        <v>1239.699991</v>
+      </c>
+      <c r="O16">
+        <v>311.5</v>
+      </c>
+      <c r="P16">
+        <v>7320.5</v>
+      </c>
+      <c r="Q16">
+        <v>930.86591499999997</v>
+      </c>
+      <c r="R16">
+        <v>1374.7302589999999</v>
+      </c>
+      <c r="S16">
+        <v>1828.920476</v>
+      </c>
+      <c r="T16">
+        <v>1718.9084230000001</v>
+      </c>
+      <c r="U16">
+        <v>114951.28943</v>
+      </c>
+      <c r="V16" s="18">
+        <v>1191293000</v>
+      </c>
+      <c r="W16">
+        <v>713.24588500000004</v>
+      </c>
+      <c r="X16">
+        <v>45534.539232000003</v>
+      </c>
+      <c r="Y16">
+        <v>6.3261999999999999E-2</v>
+      </c>
+      <c r="Z16">
+        <v>6.6000000000000005E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
       <c r="C17" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="12">
         <v>0.9</v>
       </c>
       <c r="E17">
-        <v>1739.833333</v>
+        <v>1520.75</v>
       </c>
       <c r="F17">
-        <v>178983.76666699999</v>
+        <v>5435.5833329999996</v>
       </c>
       <c r="G17">
-        <v>752</v>
+        <v>801</v>
       </c>
       <c r="H17">
-        <v>14627.2</v>
+        <v>11318.666667</v>
       </c>
       <c r="I17">
-        <v>432.66666700000002</v>
+        <v>451.25</v>
       </c>
       <c r="J17">
-        <v>2790.666667</v>
+        <v>2901.583333</v>
       </c>
       <c r="K17">
-        <v>307.72950600000001</v>
+        <v>346.94201199999998</v>
       </c>
       <c r="L17">
-        <v>4890.5534399999997</v>
+        <v>1965.059966</v>
       </c>
       <c r="M17">
-        <v>1112.6261919999999</v>
+        <v>1174.1113760000001</v>
       </c>
       <c r="N17">
-        <v>37055.747754999997</v>
+        <v>46224.634835999997</v>
       </c>
       <c r="O17">
-        <v>249.66666699999999</v>
+        <v>218.75</v>
       </c>
       <c r="P17">
-        <v>4420.6666670000004</v>
+        <v>1104.25</v>
       </c>
       <c r="Q17">
-        <v>1211.0714700000001</v>
+        <v>1351.174248</v>
       </c>
       <c r="R17">
-        <v>71898.080390999996</v>
+        <v>40856.737567999997</v>
       </c>
       <c r="S17">
-        <v>2251.2261530000001</v>
+        <v>2462.378991</v>
       </c>
       <c r="T17">
-        <v>175012.62764200001</v>
+        <v>112772.65829599999</v>
       </c>
       <c r="U17">
-        <v>114600.766343</v>
+        <v>114425.5048</v>
       </c>
       <c r="V17" s="18">
-        <v>510096100</v>
+        <v>452939500</v>
       </c>
       <c r="W17">
-        <v>1025.3733279999999</v>
+        <v>1181.4370489999999</v>
       </c>
       <c r="X17">
-        <v>76444.986667999998</v>
+        <v>14806.590716000001</v>
       </c>
       <c r="Y17">
-        <v>2.0501999999999999E-2</v>
+        <v>-8.7799999999999998E-4</v>
       </c>
       <c r="Z17">
-        <v>7.541E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+        <v>1.0717000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" s="12">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
       <c r="E18">
-        <v>3385.0576919999999</v>
+        <v>2825.5625</v>
       </c>
       <c r="F18">
-        <v>592731.926538</v>
+        <v>206296.388393</v>
       </c>
       <c r="G18">
-        <v>827.61538499999995</v>
+        <v>824.3125</v>
       </c>
       <c r="H18">
-        <v>1930.886154</v>
+        <v>1045.8526790000001</v>
       </c>
       <c r="I18">
-        <v>410.90384599999999</v>
+        <v>434.75</v>
       </c>
       <c r="J18">
-        <v>2171.8803849999999</v>
+        <v>1249.9285709999999</v>
       </c>
       <c r="K18">
-        <v>371.539221</v>
+        <v>409.11131799999998</v>
       </c>
       <c r="L18">
-        <v>1035.578855</v>
+        <v>397.60211299999997</v>
       </c>
       <c r="M18">
-        <v>1222.5497009999999</v>
+        <v>1292.983442</v>
       </c>
       <c r="N18">
-        <v>15536.642760999999</v>
+        <v>13186.836364999999</v>
       </c>
       <c r="O18">
-        <v>498.94230800000003</v>
+        <v>390.5625</v>
       </c>
       <c r="P18">
-        <v>16900.946538</v>
+        <v>6146.2455360000004</v>
       </c>
       <c r="Q18">
-        <v>1245.3258940000001</v>
+        <v>1384.809481</v>
       </c>
       <c r="R18">
-        <v>12740.419583999999</v>
+        <v>3838.774077</v>
       </c>
       <c r="S18">
-        <v>2578.3067820000001</v>
+        <v>2837.7939270000002</v>
       </c>
       <c r="T18">
-        <v>49049.371189999998</v>
+        <v>17968.547284</v>
       </c>
       <c r="U18">
-        <v>193914.33996899999</v>
+        <v>199541.78588800001</v>
       </c>
       <c r="V18" s="18">
-        <v>1004123000</v>
+        <v>1000363000</v>
       </c>
       <c r="W18">
-        <v>722.09551699999997</v>
+        <v>779.69089099999997</v>
       </c>
       <c r="X18">
-        <v>4047.1366130000001</v>
+        <v>3312.2219260000002</v>
       </c>
       <c r="Y18">
-        <v>-0.116019</v>
+        <v>-0.16553899999999999</v>
       </c>
       <c r="Z18">
-        <v>5.2220000000000001E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
+        <v>1.2329999999999999E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3">
         <v>4</v>
       </c>
-      <c r="C19" s="3">
-        <v>1</v>
-      </c>
       <c r="D19" s="12">
-        <v>0.9</v>
+        <v>0.63</v>
       </c>
       <c r="E19">
-        <v>2178</v>
+        <v>3633.7222219999999</v>
       </c>
       <c r="F19">
-        <v>302642</v>
+        <v>573937.15359500004</v>
       </c>
       <c r="G19">
-        <v>654</v>
+        <v>829.08333300000004</v>
       </c>
       <c r="H19">
-        <v>10368</v>
+        <v>2401.4779410000001</v>
       </c>
       <c r="I19">
-        <v>395.5</v>
+        <v>400.30555600000002</v>
       </c>
       <c r="J19">
-        <v>1104.5</v>
+        <v>2292.7393790000001</v>
       </c>
       <c r="K19">
-        <v>229.304495</v>
+        <v>354.84051199999999</v>
       </c>
       <c r="L19">
-        <v>106.140266</v>
+        <v>399.63016699999997</v>
       </c>
       <c r="M19">
-        <v>989.65582400000005</v>
+        <v>1191.245815</v>
       </c>
       <c r="N19">
-        <v>1239.699991</v>
+        <v>14046.007121000001</v>
       </c>
       <c r="O19">
-        <v>311.5</v>
+        <v>547.11111100000005</v>
       </c>
       <c r="P19">
-        <v>7320.5</v>
+        <v>14339.19281</v>
       </c>
       <c r="Q19">
-        <v>930.86591499999997</v>
+        <v>1183.3331889999999</v>
       </c>
       <c r="R19">
-        <v>1374.7302589999999</v>
+        <v>3930.4696720000002</v>
       </c>
       <c r="S19">
-        <v>1828.920476</v>
+        <v>2462.9791620000001</v>
       </c>
       <c r="T19">
-        <v>1718.9084230000001</v>
+        <v>18963.384773000002</v>
       </c>
       <c r="U19">
-        <v>114951.28943</v>
+        <v>191413.252894</v>
       </c>
       <c r="V19" s="18">
-        <v>1191293000</v>
+        <v>1043211000</v>
       </c>
       <c r="W19">
-        <v>713.24588500000004</v>
+        <v>696.49757299999999</v>
       </c>
       <c r="X19">
-        <v>45534.539232000003</v>
+        <v>2332.9682459999999</v>
       </c>
       <c r="Y19">
-        <v>6.3261999999999999E-2</v>
+        <v>-9.4009999999999996E-2</v>
       </c>
       <c r="Z19">
-        <v>6.6000000000000005E-5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+        <v>5.5040000000000002E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
-      <c r="C20" s="3">
-        <v>2</v>
-      </c>
-      <c r="D20" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="E20">
-        <v>1520.75</v>
-      </c>
-      <c r="F20">
-        <v>5435.5833329999996</v>
-      </c>
-      <c r="G20">
-        <v>801</v>
-      </c>
-      <c r="H20">
-        <v>11318.666667</v>
-      </c>
-      <c r="I20">
-        <v>451.25</v>
-      </c>
-      <c r="J20">
-        <v>2901.583333</v>
-      </c>
-      <c r="K20">
-        <v>346.94201199999998</v>
-      </c>
-      <c r="L20">
-        <v>1965.059966</v>
-      </c>
-      <c r="M20">
-        <v>1174.1113760000001</v>
-      </c>
-      <c r="N20">
-        <v>46224.634835999997</v>
-      </c>
-      <c r="O20">
-        <v>218.75</v>
-      </c>
-      <c r="P20">
-        <v>1104.25</v>
-      </c>
-      <c r="Q20">
-        <v>1351.174248</v>
-      </c>
-      <c r="R20">
-        <v>40856.737567999997</v>
-      </c>
-      <c r="S20">
-        <v>2462.378991</v>
-      </c>
-      <c r="T20">
-        <v>112772.65829599999</v>
-      </c>
-      <c r="U20">
-        <v>114425.5048</v>
-      </c>
-      <c r="V20" s="18">
-        <v>452939500</v>
-      </c>
-      <c r="W20">
-        <v>1181.4370489999999</v>
-      </c>
-      <c r="X20">
-        <v>14806.590716000001</v>
-      </c>
-      <c r="Y20">
-        <v>-8.7799999999999998E-4</v>
-      </c>
-      <c r="Z20">
-        <v>1.0717000000000001E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
-      <c r="C21" s="3">
-        <v>3</v>
-      </c>
-      <c r="D21" s="12">
-        <v>0.68</v>
-      </c>
-      <c r="E21">
-        <v>2825.5625</v>
-      </c>
-      <c r="F21">
-        <v>206296.388393</v>
-      </c>
-      <c r="G21">
-        <v>824.3125</v>
-      </c>
-      <c r="H21">
-        <v>1045.8526790000001</v>
-      </c>
-      <c r="I21">
-        <v>434.75</v>
-      </c>
-      <c r="J21">
-        <v>1249.9285709999999</v>
-      </c>
-      <c r="K21">
-        <v>409.11131799999998</v>
-      </c>
-      <c r="L21">
-        <v>397.60211299999997</v>
-      </c>
-      <c r="M21">
-        <v>1292.983442</v>
-      </c>
-      <c r="N21">
-        <v>13186.836364999999</v>
-      </c>
-      <c r="O21">
-        <v>390.5625</v>
-      </c>
-      <c r="P21">
-        <v>6146.2455360000004</v>
-      </c>
-      <c r="Q21">
-        <v>1384.809481</v>
-      </c>
-      <c r="R21">
-        <v>3838.774077</v>
-      </c>
-      <c r="S21">
-        <v>2837.7939270000002</v>
-      </c>
-      <c r="T21">
-        <v>17968.547284</v>
-      </c>
-      <c r="U21">
-        <v>199541.78588800001</v>
-      </c>
-      <c r="V21" s="18">
-        <v>1000363000</v>
-      </c>
-      <c r="W21">
-        <v>779.69089099999997</v>
-      </c>
-      <c r="X21">
-        <v>3312.2219260000002</v>
-      </c>
-      <c r="Y21">
-        <v>-0.16553899999999999</v>
-      </c>
-      <c r="Z21">
-        <v>1.2329999999999999E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
-      <c r="C22" s="3">
-        <v>4</v>
-      </c>
-      <c r="D22" s="12">
-        <v>0.63</v>
-      </c>
-      <c r="E22">
-        <v>3633.7222219999999</v>
-      </c>
-      <c r="F22">
-        <v>573937.15359500004</v>
-      </c>
-      <c r="G22">
-        <v>829.08333300000004</v>
-      </c>
-      <c r="H22">
-        <v>2401.4779410000001</v>
-      </c>
-      <c r="I22">
-        <v>400.30555600000002</v>
-      </c>
-      <c r="J22">
-        <v>2292.7393790000001</v>
-      </c>
-      <c r="K22">
-        <v>354.84051199999999</v>
-      </c>
-      <c r="L22">
-        <v>399.63016699999997</v>
-      </c>
-      <c r="M22">
-        <v>1191.245815</v>
-      </c>
-      <c r="N22">
-        <v>14046.007121000001</v>
-      </c>
-      <c r="O22">
-        <v>547.11111100000005</v>
-      </c>
-      <c r="P22">
-        <v>14339.19281</v>
-      </c>
-      <c r="Q22">
-        <v>1183.3331889999999</v>
-      </c>
-      <c r="R22">
-        <v>3930.4696720000002</v>
-      </c>
-      <c r="S22">
-        <v>2462.9791620000001</v>
-      </c>
-      <c r="T22">
-        <v>18963.384773000002</v>
-      </c>
-      <c r="U22">
-        <v>191413.252894</v>
-      </c>
-      <c r="V22" s="18">
-        <v>1043211000</v>
-      </c>
-      <c r="W22">
-        <v>696.49757299999999</v>
-      </c>
-      <c r="X22">
-        <v>2332.9682459999999</v>
-      </c>
-      <c r="Y22">
-        <v>-9.4009999999999996E-2</v>
-      </c>
-      <c r="Z22">
-        <v>5.5040000000000002E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="5"/>
+      <c r="D26" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="S1:T1"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="W1:X1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Experiment-Data/Answer-Data.xlsx
+++ b/Experiment-Data/Answer-Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\www\Desktop\eye-tracking-software\Experiment-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27A6608-FD1C-455B-85CE-6C48855A7FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E956E7-4010-409F-A437-DDBF143504AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{65F65776-174E-4145-8CCF-AA6B8A50F68A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="30">
   <si>
     <t>English</t>
   </si>
@@ -122,19 +122,10 @@
     <t xml:space="preserve">注視時間(ms) </t>
   </si>
   <si>
-    <t xml:space="preserve">平均注視x座標 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 平均注視y座標</t>
-  </si>
-  <si>
     <t>サッケード数</t>
   </si>
   <si>
     <t>平均速度</t>
-  </si>
-  <si>
-    <t>速度の標準偏差</t>
   </si>
   <si>
     <t>平均視線回転(rad)</t>
@@ -171,6 +162,9 @@
   <si>
     <t>クラスタ
 数</t>
+  </si>
+  <si>
+    <t>正答率</t>
   </si>
 </sst>
 </file>
@@ -310,7 +304,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -649,9 +643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C853D4-11AD-448C-900A-323815755F36}">
   <dimension ref="A1:AW39"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB38" sqref="AB38"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -683,7 +675,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>14</v>
@@ -956,8 +948,8 @@
       <c r="AD3" s="3">
         <v>1</v>
       </c>
-      <c r="AE3">
-        <v>1</v>
+      <c r="AE3" s="3">
+        <v>2</v>
       </c>
       <c r="AF3" s="12">
         <f>(COUNTIF(AG3:AP3,"○")/10)</f>
@@ -994,7 +986,7 @@
         <v>12</v>
       </c>
       <c r="AR3" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AS3" s="3" t="s">
         <v>1</v>
@@ -1021,7 +1013,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" s="12">
         <f t="shared" ref="F4:F30" si="0">COUNTIF(G4:Z4,"○")/20</f>
@@ -1090,8 +1082,8 @@
       <c r="AD4" s="3">
         <v>2</v>
       </c>
-      <c r="AE4">
-        <v>2</v>
+      <c r="AE4" s="3">
+        <v>1</v>
       </c>
       <c r="AF4" s="12">
         <f t="shared" ref="AF4:AF36" si="1">(COUNTIF(AG4:AP4,"○")/10)</f>
@@ -1247,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="12">
         <f t="shared" si="0"/>
@@ -1319,8 +1311,8 @@
       <c r="AD6" s="3">
         <v>1</v>
       </c>
-      <c r="AE6">
-        <v>2</v>
+      <c r="AE6" s="3">
+        <v>1</v>
       </c>
       <c r="AF6" s="12">
         <f t="shared" si="1"/>
@@ -1369,7 +1361,7 @@
         <v>3</v>
       </c>
       <c r="AW6" s="12">
-        <f>(F6+AF6)/2</f>
+        <f t="shared" ref="AW6:AW15" si="3">(F6+AF6)/2</f>
         <v>0.85</v>
       </c>
     </row>
@@ -1381,7 +1373,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" s="12">
         <f t="shared" si="0"/>
@@ -1450,8 +1442,8 @@
       <c r="AD7" s="3">
         <v>2</v>
       </c>
-      <c r="AE7">
-        <v>3</v>
+      <c r="AE7" s="3">
+        <v>1</v>
       </c>
       <c r="AF7" s="12">
         <f t="shared" si="1"/>
@@ -1497,7 +1489,7 @@
         <v>4</v>
       </c>
       <c r="AW7" s="12">
-        <f>(F7+AF7)/2</f>
+        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
     </row>
@@ -1509,7 +1501,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" s="12">
         <f t="shared" si="0"/>
@@ -1578,8 +1570,8 @@
       <c r="AD8" s="3">
         <v>3</v>
       </c>
-      <c r="AE8">
-        <v>1</v>
+      <c r="AE8" s="3">
+        <v>2</v>
       </c>
       <c r="AF8" s="12">
         <f t="shared" si="1"/>
@@ -1625,7 +1617,7 @@
         <v>3</v>
       </c>
       <c r="AW8" s="12">
-        <f>(F8+AF8)/2</f>
+        <f t="shared" si="3"/>
         <v>0.875</v>
       </c>
     </row>
@@ -1637,7 +1629,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" s="12">
         <f t="shared" si="0"/>
@@ -1706,8 +1698,8 @@
       <c r="AD9" s="3">
         <v>4</v>
       </c>
-      <c r="AE9">
-        <v>1</v>
+      <c r="AE9" s="3">
+        <v>2</v>
       </c>
       <c r="AF9" s="12">
         <f t="shared" si="1"/>
@@ -1753,7 +1745,7 @@
         <v>3</v>
       </c>
       <c r="AW9" s="12">
-        <f>(F9+AF9)/2</f>
+        <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
     </row>
@@ -1765,7 +1757,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F10" s="12">
         <f t="shared" si="0"/>
@@ -1834,8 +1826,8 @@
       <c r="AD10" s="3">
         <v>5</v>
       </c>
-      <c r="AE10">
-        <v>2</v>
+      <c r="AE10" s="3">
+        <v>1</v>
       </c>
       <c r="AF10" s="12">
         <f t="shared" si="1"/>
@@ -1881,7 +1873,7 @@
         <v>4</v>
       </c>
       <c r="AW10" s="12">
-        <f>(F10+AF10)/2</f>
+        <f t="shared" si="3"/>
         <v>0.57499999999999996</v>
       </c>
     </row>
@@ -1893,7 +1885,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" s="12">
         <f t="shared" si="0"/>
@@ -1962,8 +1954,8 @@
       <c r="AD11" s="3">
         <v>6</v>
       </c>
-      <c r="AE11">
-        <v>2</v>
+      <c r="AE11" s="3">
+        <v>1</v>
       </c>
       <c r="AF11" s="12">
         <f t="shared" si="1"/>
@@ -2009,7 +2001,7 @@
         <v>4</v>
       </c>
       <c r="AW11" s="12">
-        <f>(F11+AF11)/2</f>
+        <f t="shared" si="3"/>
         <v>0.82499999999999996</v>
       </c>
     </row>
@@ -2018,10 +2010,10 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F12" s="12">
         <f t="shared" si="0"/>
@@ -2090,8 +2082,8 @@
       <c r="AD12" s="3">
         <v>7</v>
       </c>
-      <c r="AE12">
-        <v>3</v>
+      <c r="AE12" s="3">
+        <v>1</v>
       </c>
       <c r="AF12" s="12">
         <f t="shared" si="1"/>
@@ -2134,10 +2126,10 @@
         <v>2</v>
       </c>
       <c r="AV12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW12" s="12">
-        <f>(F12+AF12)/2</f>
+        <f t="shared" si="3"/>
         <v>0.67500000000000004</v>
       </c>
     </row>
@@ -2146,10 +2138,10 @@
         <v>8</v>
       </c>
       <c r="D13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" s="12">
         <f t="shared" si="0"/>
@@ -2218,7 +2210,7 @@
       <c r="AD13" s="3">
         <v>8</v>
       </c>
-      <c r="AE13">
+      <c r="AE13" s="3">
         <v>3</v>
       </c>
       <c r="AF13" s="12">
@@ -2262,10 +2254,10 @@
         <v>2</v>
       </c>
       <c r="AV13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW13" s="12">
-        <f>(F13+AF13)/2</f>
+        <f t="shared" si="3"/>
         <v>0.82499999999999996</v>
       </c>
     </row>
@@ -2274,10 +2266,10 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F14" s="12">
         <f t="shared" si="0"/>
@@ -2346,8 +2338,8 @@
       <c r="AD14" s="3">
         <v>9</v>
       </c>
-      <c r="AE14">
-        <v>2</v>
+      <c r="AE14" s="3">
+        <v>1</v>
       </c>
       <c r="AF14" s="12">
         <f t="shared" si="1"/>
@@ -2390,10 +2382,10 @@
         <v>2</v>
       </c>
       <c r="AV14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW14" s="12">
-        <f>(F14+AF14)/2</f>
+        <f t="shared" si="3"/>
         <v>0.72500000000000009</v>
       </c>
     </row>
@@ -2402,10 +2394,10 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F15" s="12">
         <f t="shared" si="0"/>
@@ -2474,8 +2466,8 @@
       <c r="AD15" s="3">
         <v>10</v>
       </c>
-      <c r="AE15">
-        <v>3</v>
+      <c r="AE15" s="3">
+        <v>1</v>
       </c>
       <c r="AF15" s="12">
         <f t="shared" si="1"/>
@@ -2518,10 +2510,10 @@
         <v>2</v>
       </c>
       <c r="AV15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW15" s="12">
-        <f>(F15+AF15)/2</f>
+        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
     </row>
@@ -2532,79 +2524,79 @@
         <v>0.6</v>
       </c>
       <c r="H16" s="16">
-        <f t="shared" ref="H16:Z16" si="3">(COUNTIF(H6:H15,"○"))/10</f>
+        <f t="shared" ref="H16:Z16" si="4">(COUNTIF(H6:H15,"○"))/10</f>
         <v>0.4</v>
       </c>
       <c r="I16" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
       <c r="J16" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
       <c r="K16" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L16" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.7</v>
       </c>
       <c r="M16" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="N16" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O16" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.7</v>
       </c>
       <c r="P16" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
       <c r="Q16" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="R16" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
       <c r="S16" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.7</v>
       </c>
       <c r="T16" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
       <c r="U16" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
       <c r="V16" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.7</v>
       </c>
       <c r="W16" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="X16" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
       <c r="Y16" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.7</v>
       </c>
       <c r="Z16" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
       <c r="AF16" s="12"/>
@@ -2631,7 +2623,7 @@
         <v>2</v>
       </c>
       <c r="E17" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F17" s="12">
         <f t="shared" si="0"/>
@@ -2703,8 +2695,8 @@
       <c r="AD17" s="3">
         <v>1</v>
       </c>
-      <c r="AE17">
-        <v>2</v>
+      <c r="AE17" s="3">
+        <v>1</v>
       </c>
       <c r="AF17" s="12">
         <f t="shared" si="1"/>
@@ -2753,7 +2745,7 @@
         <v>4</v>
       </c>
       <c r="AW17" s="12">
-        <f>(F17+AF17)/2</f>
+        <f t="shared" ref="AW17:AW30" si="5">(F17+AF17)/2</f>
         <v>0.5</v>
       </c>
     </row>
@@ -2765,7 +2757,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F18" s="12">
         <f t="shared" si="0"/>
@@ -2834,7 +2826,7 @@
       <c r="AD18" s="3">
         <v>2</v>
       </c>
-      <c r="AE18">
+      <c r="AE18" s="3">
         <v>3</v>
       </c>
       <c r="AF18" s="12">
@@ -2881,7 +2873,7 @@
         <v>4</v>
       </c>
       <c r="AW18" s="12">
-        <f>(F18+AF18)/2</f>
+        <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
     </row>
@@ -2962,7 +2954,7 @@
       <c r="AD19" s="3">
         <v>3</v>
       </c>
-      <c r="AE19">
+      <c r="AE19" s="3">
         <v>3</v>
       </c>
       <c r="AF19" s="12">
@@ -3009,7 +3001,7 @@
         <v>3</v>
       </c>
       <c r="AW19" s="12">
-        <f>(F19+AF19)/2</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
@@ -3018,10 +3010,10 @@
         <v>4</v>
       </c>
       <c r="D20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F20" s="12">
         <f t="shared" si="0"/>
@@ -3090,7 +3082,7 @@
       <c r="AD20" s="3">
         <v>4</v>
       </c>
-      <c r="AE20">
+      <c r="AE20" s="3">
         <v>3</v>
       </c>
       <c r="AF20" s="12">
@@ -3137,7 +3129,7 @@
         <v>4</v>
       </c>
       <c r="AW20" s="12">
-        <f>(F20+AF20)/2</f>
+        <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
     </row>
@@ -3218,8 +3210,8 @@
       <c r="AD21" s="3">
         <v>5</v>
       </c>
-      <c r="AE21">
-        <v>1</v>
+      <c r="AE21" s="3">
+        <v>2</v>
       </c>
       <c r="AF21" s="12">
         <f t="shared" si="1"/>
@@ -3265,7 +3257,7 @@
         <v>3</v>
       </c>
       <c r="AW21" s="12">
-        <f>(F21+AF21)/2</f>
+        <f t="shared" si="5"/>
         <v>0.57499999999999996</v>
       </c>
     </row>
@@ -3277,7 +3269,7 @@
         <v>2</v>
       </c>
       <c r="E22" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F22" s="12">
         <f t="shared" si="0"/>
@@ -3346,7 +3338,7 @@
       <c r="AD22" s="3">
         <v>6</v>
       </c>
-      <c r="AE22">
+      <c r="AE22" s="3">
         <v>3</v>
       </c>
       <c r="AF22" s="12">
@@ -3393,7 +3385,7 @@
         <v>4</v>
       </c>
       <c r="AW22" s="12">
-        <f>(F22+AF22)/2</f>
+        <f t="shared" si="5"/>
         <v>0.55000000000000004</v>
       </c>
     </row>
@@ -3474,8 +3466,8 @@
       <c r="AD23" s="3">
         <v>7</v>
       </c>
-      <c r="AE23">
-        <v>1</v>
+      <c r="AE23" s="3">
+        <v>3</v>
       </c>
       <c r="AF23" s="12">
         <f t="shared" si="1"/>
@@ -3521,7 +3513,7 @@
         <v>3</v>
       </c>
       <c r="AW23" s="12">
-        <f>(F23+AF23)/2</f>
+        <f t="shared" si="5"/>
         <v>0.625</v>
       </c>
     </row>
@@ -3533,7 +3525,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24" s="12">
         <f t="shared" si="0"/>
@@ -3602,7 +3594,7 @@
       <c r="AD24" s="3">
         <v>8</v>
       </c>
-      <c r="AE24">
+      <c r="AE24" s="3">
         <v>3</v>
       </c>
       <c r="AF24" s="12">
@@ -3646,10 +3638,10 @@
         <v>2</v>
       </c>
       <c r="AV24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW24" s="12">
-        <f>(F24+AF24)/2</f>
+        <f t="shared" si="5"/>
         <v>0.625</v>
       </c>
     </row>
@@ -3658,10 +3650,10 @@
         <v>9</v>
       </c>
       <c r="D25" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F25" s="12">
         <f t="shared" si="0"/>
@@ -3730,7 +3722,7 @@
       <c r="AD25" s="3">
         <v>9</v>
       </c>
-      <c r="AE25">
+      <c r="AE25" s="3">
         <v>3</v>
       </c>
       <c r="AF25" s="12">
@@ -3774,10 +3766,10 @@
         <v>2</v>
       </c>
       <c r="AV25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW25" s="12">
-        <f>(F25+AF25)/2</f>
+        <f t="shared" si="5"/>
         <v>0.55000000000000004</v>
       </c>
     </row>
@@ -3858,8 +3850,8 @@
       <c r="AD26" s="3">
         <v>10</v>
       </c>
-      <c r="AE26">
-        <v>2</v>
+      <c r="AE26" s="3">
+        <v>1</v>
       </c>
       <c r="AF26" s="12">
         <f t="shared" si="1"/>
@@ -3905,7 +3897,7 @@
         <v>3</v>
       </c>
       <c r="AW26" s="12">
-        <f>(F26+AF26)/2</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
@@ -3917,7 +3909,7 @@
         <v>2</v>
       </c>
       <c r="E27" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F27" s="12">
         <f t="shared" si="0"/>
@@ -3986,8 +3978,8 @@
       <c r="AD27" s="3">
         <v>11</v>
       </c>
-      <c r="AE27">
-        <v>1</v>
+      <c r="AE27" s="3">
+        <v>3</v>
       </c>
       <c r="AF27" s="12">
         <f t="shared" si="1"/>
@@ -4033,7 +4025,7 @@
         <v>4</v>
       </c>
       <c r="AW27" s="12">
-        <f>(F27+AF27)/2</f>
+        <f t="shared" si="5"/>
         <v>0.52500000000000002</v>
       </c>
     </row>
@@ -4114,8 +4106,8 @@
       <c r="AD28" s="3">
         <v>12</v>
       </c>
-      <c r="AE28">
-        <v>1</v>
+      <c r="AE28" s="3">
+        <v>3</v>
       </c>
       <c r="AF28" s="12">
         <f t="shared" si="1"/>
@@ -4161,7 +4153,7 @@
         <v>4</v>
       </c>
       <c r="AW28" s="12">
-        <f>(F28+AF28)/2</f>
+        <f t="shared" si="5"/>
         <v>0.57499999999999996</v>
       </c>
     </row>
@@ -4173,7 +4165,7 @@
         <v>2</v>
       </c>
       <c r="E29" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F29" s="12">
         <f t="shared" si="0"/>
@@ -4242,8 +4234,8 @@
       <c r="AD29" s="3">
         <v>13</v>
       </c>
-      <c r="AE29">
-        <v>1</v>
+      <c r="AE29" s="3">
+        <v>2</v>
       </c>
       <c r="AF29" s="12">
         <f t="shared" si="1"/>
@@ -4289,7 +4281,7 @@
         <v>4</v>
       </c>
       <c r="AW29" s="12">
-        <f>(F29+AF29)/2</f>
+        <f t="shared" si="5"/>
         <v>0.39999999999999997</v>
       </c>
     </row>
@@ -4301,7 +4293,7 @@
         <v>2</v>
       </c>
       <c r="E30" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F30" s="12">
         <f t="shared" si="0"/>
@@ -4370,8 +4362,8 @@
       <c r="AD30" s="3">
         <v>14</v>
       </c>
-      <c r="AE30">
-        <v>1</v>
+      <c r="AE30" s="3">
+        <v>2</v>
       </c>
       <c r="AF30" s="12">
         <f t="shared" si="1"/>
@@ -4417,7 +4409,7 @@
         <v>4</v>
       </c>
       <c r="AW30" s="12">
-        <f>(F30+AF30)/2</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
@@ -4428,43 +4420,43 @@
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="H31" s="15">
-        <f t="shared" ref="H31:Z31" si="4">(COUNTIF(H17:H30,"○"))/14</f>
+        <f t="shared" ref="H31:Z31" si="6">(COUNTIF(H17:H30,"○"))/14</f>
         <v>0.14285714285714285</v>
       </c>
       <c r="I31" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="J31" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="K31" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.35714285714285715</v>
       </c>
       <c r="L31" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="M31" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.35714285714285715</v>
       </c>
       <c r="N31" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="O31" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P31" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q31" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="R31" s="15">
@@ -4472,35 +4464,35 @@
         <v>0</v>
       </c>
       <c r="S31" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T31" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U31" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V31" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="W31" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X31" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.35714285714285715</v>
       </c>
       <c r="Y31" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.7857142857142857</v>
       </c>
       <c r="Z31" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="AC31" s="3" t="s">
@@ -4509,8 +4501,8 @@
       <c r="AD31" s="3">
         <v>1</v>
       </c>
-      <c r="AE31">
-        <v>1</v>
+      <c r="AE31" s="3">
+        <v>2</v>
       </c>
       <c r="AF31" s="12">
         <f t="shared" si="1"/>
@@ -4556,7 +4548,7 @@
         <v>1</v>
       </c>
       <c r="AV31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW31" s="12">
         <f>AF31</f>
@@ -4568,8 +4560,8 @@
       <c r="AD32" s="3">
         <v>2</v>
       </c>
-      <c r="AE32">
-        <v>1</v>
+      <c r="AE32" s="3">
+        <v>3</v>
       </c>
       <c r="AF32" s="12">
         <f t="shared" si="1"/>
@@ -4615,7 +4607,7 @@
         <v>2</v>
       </c>
       <c r="AW32" s="12">
-        <f t="shared" ref="AW32:AW36" si="5">AF32</f>
+        <f t="shared" ref="AW32:AW36" si="7">AF32</f>
         <v>0.8</v>
       </c>
     </row>
@@ -4626,7 +4618,7 @@
       <c r="AD33" s="3">
         <v>1</v>
       </c>
-      <c r="AE33">
+      <c r="AE33" s="3">
         <v>3</v>
       </c>
       <c r="AF33" s="12">
@@ -4676,7 +4668,7 @@
         <v>2</v>
       </c>
       <c r="AW33" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -4684,8 +4676,8 @@
       <c r="AD34" s="3">
         <v>2</v>
       </c>
-      <c r="AE34">
-        <v>1</v>
+      <c r="AE34" s="3">
+        <v>2</v>
       </c>
       <c r="AF34" s="12">
         <f t="shared" si="1"/>
@@ -4728,10 +4720,10 @@
         <v>1</v>
       </c>
       <c r="AV34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW34" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.9</v>
       </c>
     </row>
@@ -4739,8 +4731,8 @@
       <c r="AD35" s="3">
         <v>3</v>
       </c>
-      <c r="AE35">
-        <v>2</v>
+      <c r="AE35" s="3">
+        <v>1</v>
       </c>
       <c r="AF35" s="12">
         <f t="shared" si="1"/>
@@ -4783,10 +4775,10 @@
         <v>1</v>
       </c>
       <c r="AV35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW35" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.8</v>
       </c>
     </row>
@@ -4797,7 +4789,7 @@
       <c r="AD36" s="3">
         <v>1</v>
       </c>
-      <c r="AE36">
+      <c r="AE36" s="3">
         <v>3</v>
       </c>
       <c r="AF36" s="12">
@@ -4844,10 +4836,10 @@
         <v>1</v>
       </c>
       <c r="AV36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW36" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -4857,43 +4849,47 @@
         <v>1</v>
       </c>
       <c r="AH37" s="15">
-        <f t="shared" ref="AH37:AP37" si="6">(COUNTIF(AH3:AH36,"○")/32)</f>
+        <f t="shared" ref="AH37:AP37" si="8">(COUNTIF(AH3:AH36,"○")/32)</f>
         <v>0.9375</v>
       </c>
       <c r="AI37" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.9375</v>
       </c>
       <c r="AJ37" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.96875</v>
       </c>
       <c r="AK37" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.59375</v>
       </c>
       <c r="AL37" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.875</v>
       </c>
       <c r="AM37" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="AN37" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AO37" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.875</v>
       </c>
       <c r="AP37" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.9375</v>
       </c>
+      <c r="AU37"/>
+      <c r="AV37"/>
     </row>
     <row r="38" spans="29:49" x14ac:dyDescent="0.25">
+      <c r="AU38"/>
+      <c r="AV38"/>
       <c r="AW38" s="12"/>
     </row>
     <row r="39" spans="29:49" x14ac:dyDescent="0.25">
@@ -4912,148 +4908,121 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88CCFB4E-3D94-4A97-83BE-04827B31FA43}">
-  <dimension ref="A1:Z26"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="3" customWidth="1"/>
     <col min="2" max="3" width="8.5703125" customWidth="1"/>
     <col min="4" max="4" width="5.7109375" style="3" customWidth="1"/>
-    <col min="5" max="27" width="10" customWidth="1"/>
+    <col min="5" max="21" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:20" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C1" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="21"/>
       <c r="G1" s="21" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H1" s="21"/>
       <c r="I1" s="21" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J1" s="21"/>
       <c r="K1" s="21" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="L1" s="21"/>
       <c r="M1" s="21" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N1" s="21"/>
       <c r="O1" s="21" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="P1" s="21"/>
       <c r="Q1" s="21" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="R1" s="21"/>
       <c r="S1" s="21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="T1" s="21"/>
-      <c r="U1" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" s="21"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S2" t="s">
-        <v>23</v>
-      </c>
-      <c r="T2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U2" t="s">
-        <v>23</v>
-      </c>
-      <c r="V2" t="s">
-        <v>24</v>
-      </c>
-      <c r="W2" t="s">
-        <v>23</v>
-      </c>
-      <c r="X2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="E2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -5064,1191 +5033,975 @@
         <v>1</v>
       </c>
       <c r="D3" s="12">
-        <v>0.45</v>
+        <v>0.52</v>
       </c>
       <c r="E3">
-        <v>3965.9</v>
+        <v>4115.8571430000002</v>
       </c>
       <c r="F3" s="18">
-        <v>1252931</v>
+        <v>936546.9</v>
       </c>
       <c r="G3">
-        <v>851.8</v>
+        <v>242.50248099999999</v>
       </c>
       <c r="H3">
-        <v>3703.9555559999999</v>
+        <v>3546.0511310000002</v>
       </c>
       <c r="I3">
-        <v>508.2</v>
+        <v>1140.055169</v>
       </c>
       <c r="J3">
-        <v>5359.2888890000004</v>
+        <v>44413.767576999999</v>
       </c>
       <c r="K3">
-        <v>270.64907799999997</v>
+        <v>637.14285700000005</v>
       </c>
       <c r="L3">
-        <v>1909.3490609999999</v>
+        <v>31479.516484</v>
       </c>
       <c r="M3">
-        <v>1155.758601</v>
+        <v>983.46531900000002</v>
       </c>
       <c r="N3">
-        <v>52776.063038</v>
+        <v>44613.387073999998</v>
       </c>
       <c r="O3">
-        <v>602.29999999999995</v>
-      </c>
-      <c r="P3">
-        <v>30431.122222000002</v>
+        <v>218988.75994300001</v>
+      </c>
+      <c r="P3" s="18">
+        <v>3097454000</v>
       </c>
       <c r="Q3">
-        <v>1098.5083360000001</v>
+        <v>474.34010899999998</v>
       </c>
       <c r="R3">
-        <v>19029.524135</v>
+        <v>13002.227987</v>
       </c>
       <c r="S3">
-        <v>2009.786785</v>
+        <v>-8.9724999999999999E-2</v>
       </c>
       <c r="T3">
-        <v>113430.540313</v>
-      </c>
-      <c r="U3">
-        <v>239607.33085</v>
-      </c>
-      <c r="V3" s="18">
-        <v>5305183000</v>
-      </c>
-      <c r="W3">
-        <v>504.957266</v>
-      </c>
-      <c r="X3">
-        <v>14337.141594999999</v>
-      </c>
-      <c r="Y3">
-        <v>-6.7067000000000002E-2</v>
-      </c>
-      <c r="Z3">
-        <v>8.8509999999999995E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+        <v>7.7279999999999996E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="3">
         <v>2</v>
       </c>
       <c r="D4" s="12">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
       <c r="E4">
-        <v>5542.5</v>
+        <v>5893.0833329999996</v>
       </c>
       <c r="F4" s="18">
-        <v>2180026</v>
+        <v>2426282</v>
       </c>
       <c r="G4">
-        <v>870.375</v>
+        <v>162.79395500000001</v>
       </c>
       <c r="H4">
-        <v>10508.65</v>
+        <v>1491.469531</v>
       </c>
       <c r="I4">
-        <v>455.5625</v>
+        <v>971.40089599999999</v>
       </c>
       <c r="J4">
-        <v>10126.929167</v>
+        <v>72044.690277999995</v>
       </c>
       <c r="K4">
-        <v>165.12946299999999</v>
+        <v>978.91666699999996</v>
       </c>
       <c r="L4">
-        <v>1190.295079</v>
+        <v>47826.628788000002</v>
       </c>
       <c r="M4">
-        <v>1003.749819</v>
+        <v>703.63727300000005</v>
       </c>
       <c r="N4">
-        <v>62432.321122000001</v>
+        <v>17100.484279</v>
       </c>
       <c r="O4">
-        <v>915.25</v>
-      </c>
-      <c r="P4">
-        <v>54234.733332999996</v>
+        <v>234286.59085800001</v>
+      </c>
+      <c r="P4" s="18">
+        <v>5330295000</v>
       </c>
       <c r="Q4">
-        <v>701.69239800000003</v>
+        <v>318.52510999999998</v>
       </c>
       <c r="R4">
-        <v>8918.2566079999997</v>
+        <v>7164.4943400000002</v>
       </c>
       <c r="S4">
-        <v>1319.6715690000001</v>
+        <v>0.10261199999999999</v>
       </c>
       <c r="T4">
-        <v>63549.171466</v>
-      </c>
-      <c r="U4">
-        <v>217575.52631300001</v>
-      </c>
-      <c r="V4" s="18">
-        <v>3311904000</v>
-      </c>
-      <c r="W4">
-        <v>338.34313700000001</v>
-      </c>
-      <c r="X4">
-        <v>6989.7978839999996</v>
-      </c>
-      <c r="Y4">
-        <v>4.0367E-2</v>
-      </c>
-      <c r="Z4">
-        <v>2.4764999999999999E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+        <v>1.6605000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
       </c>
       <c r="D5" s="12">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="E5">
-        <v>4848.3999999999996</v>
+        <v>4540.5</v>
       </c>
       <c r="F5" s="18">
-        <v>648161.30000000005</v>
+        <v>232199</v>
       </c>
       <c r="G5">
-        <v>814</v>
+        <v>304.34769</v>
       </c>
       <c r="H5">
-        <v>1980.5</v>
+        <v>1301.720761</v>
       </c>
       <c r="I5">
-        <v>490.6</v>
+        <v>1284.720399</v>
       </c>
       <c r="J5">
-        <v>2990.3</v>
+        <v>7237.9947759999995</v>
       </c>
       <c r="K5">
-        <v>295.57636200000002</v>
+        <v>670</v>
       </c>
       <c r="L5">
-        <v>1360.9715779999999</v>
+        <v>17562</v>
       </c>
       <c r="M5">
-        <v>1239.0536729999999</v>
+        <v>1184.946228</v>
       </c>
       <c r="N5">
-        <v>15855.745697</v>
+        <v>16789.575968000001</v>
       </c>
       <c r="O5">
-        <v>715.4</v>
-      </c>
-      <c r="P5">
-        <v>23477.3</v>
+        <v>292023.93030000001</v>
+      </c>
+      <c r="P5" s="18">
+        <v>352503200</v>
       </c>
       <c r="Q5">
-        <v>1157.398512</v>
+        <v>428.31832700000001</v>
       </c>
       <c r="R5">
-        <v>16386.565287000001</v>
+        <v>2947.9414470000002</v>
       </c>
       <c r="S5">
-        <v>2180.8117929999999</v>
+        <v>-0.13603100000000001</v>
       </c>
       <c r="T5">
-        <v>38054.472474000002</v>
-      </c>
-      <c r="U5">
-        <v>303143.85025999998</v>
-      </c>
-      <c r="V5" s="18">
-        <v>882640500</v>
-      </c>
-      <c r="W5">
-        <v>409.072227</v>
-      </c>
-      <c r="X5">
-        <v>4063.017824</v>
-      </c>
-      <c r="Y5">
-        <v>-0.101822</v>
-      </c>
-      <c r="Z5">
-        <v>1.1126E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+        <v>7.0330000000000002E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="3">
         <v>2</v>
       </c>
       <c r="D6" s="12">
-        <v>0.63</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E6">
-        <v>3083.4</v>
+        <v>4658</v>
       </c>
       <c r="F6" s="18">
-        <v>223918.3</v>
+        <v>562532.4</v>
       </c>
       <c r="G6">
-        <v>889.6</v>
+        <v>197.15180699999999</v>
       </c>
       <c r="H6">
-        <v>2781.3</v>
+        <v>1810.023921</v>
       </c>
       <c r="I6">
-        <v>525.79999999999995</v>
+        <v>1075.9517760000001</v>
       </c>
       <c r="J6">
-        <v>8293.7000000000007</v>
+        <v>20597.129810999999</v>
       </c>
       <c r="K6">
-        <v>245.72179499999999</v>
+        <v>741.33333300000004</v>
       </c>
       <c r="L6">
-        <v>1381.640138</v>
+        <v>25177.866666999998</v>
       </c>
       <c r="M6">
-        <v>1072.4635290000001</v>
+        <v>809.86246200000005</v>
       </c>
       <c r="N6">
-        <v>85545.223685999998</v>
+        <v>20325.219766999999</v>
       </c>
       <c r="O6">
-        <v>489.2</v>
-      </c>
-      <c r="P6">
-        <v>13013.7</v>
+        <v>207619.90669999999</v>
+      </c>
+      <c r="P6" s="18">
+        <v>825517800</v>
       </c>
       <c r="Q6">
-        <v>1039.6181590000001</v>
+        <v>407.97479700000002</v>
       </c>
       <c r="R6">
-        <v>17759.731789000001</v>
+        <v>5390.6843959999997</v>
       </c>
       <c r="S6">
-        <v>1838.7617769999999</v>
+        <v>-0.10356</v>
       </c>
       <c r="T6">
-        <v>144040.35956899999</v>
-      </c>
-      <c r="U6">
-        <v>176070.81143999999</v>
-      </c>
-      <c r="V6" s="18">
-        <v>961799000</v>
-      </c>
-      <c r="W6">
-        <v>600.84230400000001</v>
-      </c>
-      <c r="X6">
-        <v>5210.6991820000003</v>
-      </c>
-      <c r="Y6">
-        <v>-3.2313000000000001E-2</v>
-      </c>
-      <c r="Z6">
-        <v>5.7679999999999997E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+        <v>6.0879999999999997E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="3">
         <v>3</v>
       </c>
       <c r="D7" s="12">
-        <v>0.38</v>
+        <v>0.73</v>
       </c>
       <c r="E7">
-        <v>4675.8571430000002</v>
+        <v>2878</v>
       </c>
       <c r="F7" s="18">
-        <v>671024.1</v>
+        <v>17296.669999999998</v>
       </c>
       <c r="G7">
-        <v>813.71428600000002</v>
+        <v>248.68328299999999</v>
       </c>
       <c r="H7">
-        <v>10202.571429</v>
+        <v>1783.7174399999999</v>
       </c>
       <c r="I7">
-        <v>522.42857100000003</v>
+        <v>1091.545026</v>
       </c>
       <c r="J7">
-        <v>9318.2857139999996</v>
+        <v>111632.94137299999</v>
       </c>
       <c r="K7">
-        <v>149.75370799999999</v>
+        <v>448</v>
       </c>
       <c r="L7">
-        <v>283.15125499999999</v>
+        <v>6035.3333329999996</v>
       </c>
       <c r="M7">
-        <v>942.283005</v>
+        <v>1042.3886930000001</v>
       </c>
       <c r="N7">
-        <v>49961.361427999997</v>
+        <v>23628.470001000002</v>
       </c>
       <c r="O7">
-        <v>821.42857100000003</v>
-      </c>
-      <c r="P7">
-        <v>25950.619048</v>
+        <v>163006.86945</v>
+      </c>
+      <c r="P7" s="18">
+        <v>144621400</v>
       </c>
       <c r="Q7">
-        <v>680.85039800000004</v>
+        <v>619.90985899999998</v>
       </c>
       <c r="R7">
-        <v>5559.8107650000002</v>
+        <v>4523.7880590000004</v>
       </c>
       <c r="S7">
-        <v>1190.6082919999999</v>
+        <v>-2.2665000000000001E-2</v>
       </c>
       <c r="T7">
-        <v>17959.077970999999</v>
-      </c>
-      <c r="U7">
-        <v>180272.13355699999</v>
-      </c>
-      <c r="V7" s="18">
-        <v>1158697000</v>
-      </c>
-      <c r="W7">
-        <v>390.27466399999997</v>
-      </c>
-      <c r="X7">
-        <v>6449.8400970000002</v>
-      </c>
-      <c r="Y7">
-        <v>0.147725</v>
-      </c>
-      <c r="Z7">
-        <v>1.5845999999999999E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+        <v>7.071E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="3">
         <v>4</v>
       </c>
       <c r="D8" s="12">
-        <v>0.45</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E8">
-        <v>6216.5555560000003</v>
+        <v>4866.7142860000004</v>
       </c>
       <c r="F8" s="18">
-        <v>2415951</v>
+        <v>733688.9</v>
       </c>
       <c r="G8">
-        <v>914.44444399999998</v>
+        <v>145.52927700000001</v>
       </c>
       <c r="H8">
-        <v>7057.7777779999997</v>
+        <v>420.443713</v>
       </c>
       <c r="I8">
-        <v>403.55555600000002</v>
+        <v>870.55149100000006</v>
       </c>
       <c r="J8">
-        <v>5044.2777779999997</v>
+        <v>32476.618552</v>
       </c>
       <c r="K8">
-        <v>177.08838399999999</v>
+        <v>862.14285700000005</v>
       </c>
       <c r="L8">
-        <v>1651.6849400000001</v>
+        <v>31243.476190000001</v>
       </c>
       <c r="M8">
-        <v>1051.557341</v>
+        <v>666.38609099999996</v>
       </c>
       <c r="N8">
-        <v>73712.428924000007</v>
+        <v>7118.7096579999998</v>
       </c>
       <c r="O8">
-        <v>988.22222199999999</v>
-      </c>
-      <c r="P8">
-        <v>68534.444443999993</v>
+        <v>183805.85800000001</v>
+      </c>
+      <c r="P8" s="18">
+        <v>1103119000</v>
       </c>
       <c r="Q8">
-        <v>717.90284299999996</v>
+        <v>358.820696</v>
       </c>
       <c r="R8">
-        <v>11876.156901</v>
+        <v>7524.05584</v>
       </c>
       <c r="S8">
-        <v>1420.0541169999999</v>
+        <v>0.19308700000000001</v>
       </c>
       <c r="T8">
-        <v>79773.986787999995</v>
-      </c>
-      <c r="U8">
-        <v>246589.27623300001</v>
-      </c>
-      <c r="V8" s="18">
-        <v>3176175000</v>
-      </c>
-      <c r="W8">
-        <v>297.95194900000001</v>
-      </c>
-      <c r="X8">
-        <v>4073.3387619999999</v>
-      </c>
-      <c r="Y8">
-        <v>-4.3132999999999998E-2</v>
-      </c>
-      <c r="Z8">
-        <v>1.6619999999999999E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+        <v>3.5469999999999998E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="C9" s="3">
+        <v>5</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0.38</v>
+      </c>
+      <c r="E9">
+        <v>7330</v>
+      </c>
+      <c r="F9" s="18">
+        <v>1147322</v>
+      </c>
+      <c r="G9">
+        <v>186.96450300000001</v>
+      </c>
+      <c r="H9">
+        <v>2218.985463</v>
+      </c>
+      <c r="I9">
+        <v>1112.5900630000001</v>
+      </c>
+      <c r="J9">
+        <v>106691.439973</v>
+      </c>
+      <c r="K9">
+        <v>1142.4000000000001</v>
+      </c>
+      <c r="L9">
+        <v>27386.3</v>
+      </c>
+      <c r="M9">
+        <v>755.78892599999995</v>
+      </c>
+      <c r="N9">
+        <v>30520.135163999999</v>
+      </c>
+      <c r="O9">
+        <v>304959.61686000001</v>
+      </c>
+      <c r="P9" s="18">
+        <v>2300754000</v>
+      </c>
+      <c r="Q9">
+        <v>262.111289</v>
+      </c>
+      <c r="R9">
+        <v>1596.591762</v>
+      </c>
+      <c r="S9">
+        <v>-2.4052E-2</v>
+      </c>
+      <c r="T9">
+        <v>5.9639999999999997E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B11" s="3">
         <v>3</v>
       </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="12">
-        <v>0.89</v>
-      </c>
-      <c r="E10">
-        <v>1830.25</v>
-      </c>
-      <c r="F10">
-        <v>118833.295455</v>
-      </c>
-      <c r="G10">
-        <v>772.5</v>
-      </c>
-      <c r="H10">
-        <v>6660.0909089999996</v>
-      </c>
-      <c r="I10">
-        <v>423.08333299999998</v>
-      </c>
-      <c r="J10">
-        <v>4160.992424</v>
-      </c>
-      <c r="K10">
-        <v>378.01879700000001</v>
-      </c>
-      <c r="L10">
-        <v>4584.8516010000003</v>
-      </c>
-      <c r="M10">
-        <v>1295.7533490000001</v>
-      </c>
-      <c r="N10">
-        <v>23940.556202</v>
-      </c>
-      <c r="O10">
-        <v>247.5</v>
-      </c>
-      <c r="P10">
-        <v>2958.272727</v>
-      </c>
-      <c r="Q10">
-        <v>1392.8550399999999</v>
-      </c>
-      <c r="R10">
-        <v>20620.633055999999</v>
-      </c>
-      <c r="S10">
-        <v>2700.9950840000001</v>
-      </c>
-      <c r="T10">
-        <v>191521.769967</v>
-      </c>
-      <c r="U10">
-        <v>140455.03805800001</v>
-      </c>
-      <c r="V10" s="18">
-        <v>855042200</v>
-      </c>
-      <c r="W10">
-        <v>1071.5283179999999</v>
-      </c>
-      <c r="X10">
-        <v>21250.853659</v>
-      </c>
-      <c r="Y10">
-        <v>-4.5433000000000001E-2</v>
-      </c>
-      <c r="Z10">
-        <v>1.6001999999999999E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
       <c r="C11" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="12">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="E11">
-        <v>2648.125</v>
+        <v>2546.818182</v>
       </c>
       <c r="F11">
-        <v>55486.696429000003</v>
+        <v>70872.363635999995</v>
       </c>
       <c r="G11">
-        <v>708.5</v>
+        <v>262.931535</v>
       </c>
       <c r="H11">
-        <v>3474</v>
+        <v>1894.8620980000001</v>
       </c>
       <c r="I11">
-        <v>503.375</v>
+        <v>1157.2266589999999</v>
       </c>
       <c r="J11">
-        <v>33555.696429000003</v>
+        <v>23833.804942999999</v>
       </c>
       <c r="K11">
-        <v>267.79143699999997</v>
+        <v>366.09090900000001</v>
       </c>
       <c r="L11">
-        <v>2273.0406410000001</v>
+        <v>1657.2909090000001</v>
       </c>
       <c r="M11">
-        <v>1209.3295149999999</v>
+        <v>1041.261037</v>
       </c>
       <c r="N11">
-        <v>20713.141038000002</v>
+        <v>16317.290198999999</v>
       </c>
       <c r="O11">
-        <v>374.5</v>
-      </c>
-      <c r="P11">
-        <v>1853.4285709999999</v>
+        <v>146219.52908199999</v>
+      </c>
+      <c r="P11" s="18">
+        <v>376688400</v>
       </c>
       <c r="Q11">
-        <v>1045.4341790000001</v>
+        <v>721.48805400000003</v>
       </c>
       <c r="R11">
-        <v>21069.456459000001</v>
+        <v>9255.9127289999997</v>
       </c>
       <c r="S11">
-        <v>2077.987709</v>
+        <v>4.9418999999999998E-2</v>
       </c>
       <c r="T11">
-        <v>103616.614068</v>
-      </c>
-      <c r="U11">
-        <v>151747.92726200001</v>
-      </c>
-      <c r="V11" s="18">
-        <v>337635700</v>
-      </c>
-      <c r="W11">
-        <v>686.14610900000002</v>
-      </c>
-      <c r="X11">
-        <v>7382.4387580000002</v>
-      </c>
-      <c r="Y11">
-        <v>9.4352000000000005E-2</v>
-      </c>
-      <c r="Z11">
-        <v>3.3871999999999999E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+        <v>2.9637E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0.86</v>
+      </c>
+      <c r="E12">
+        <v>1802.25</v>
+      </c>
+      <c r="F12">
+        <v>152468.785714</v>
+      </c>
+      <c r="G12">
+        <v>407.75812999999999</v>
+      </c>
+      <c r="H12">
+        <v>4160.325366</v>
+      </c>
+      <c r="I12">
+        <v>1367.7705920000001</v>
+      </c>
+      <c r="J12">
+        <v>14891.410141</v>
+      </c>
+      <c r="K12">
+        <v>234.125</v>
+      </c>
+      <c r="L12">
+        <v>3675.5535709999999</v>
+      </c>
+      <c r="M12">
+        <v>1441.1302860000001</v>
+      </c>
+      <c r="N12">
+        <v>17020.043723999999</v>
+      </c>
+      <c r="O12">
+        <v>142994.662125</v>
+      </c>
+      <c r="P12" s="18">
+        <v>1160857000</v>
+      </c>
+      <c r="Q12">
+        <v>1096.0547859999999</v>
+      </c>
+      <c r="R12">
+        <v>29728.744718999998</v>
+      </c>
+      <c r="S12">
+        <v>-8.8401999999999994E-2</v>
+      </c>
+      <c r="T12">
+        <v>1.8419999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3">
         <v>3</v>
       </c>
-      <c r="D12" s="12">
-        <v>0.92</v>
-      </c>
-      <c r="E12">
-        <v>1847.75</v>
-      </c>
-      <c r="F12">
-        <v>118063.11363599999</v>
-      </c>
-      <c r="G12">
-        <v>719.25</v>
-      </c>
-      <c r="H12">
-        <v>6670.568182</v>
-      </c>
-      <c r="I12">
-        <v>457.5</v>
-      </c>
-      <c r="J12">
-        <v>7420.4545449999996</v>
-      </c>
-      <c r="K12">
-        <v>255.894147</v>
-      </c>
-      <c r="L12">
-        <v>1661.658381</v>
-      </c>
-      <c r="M12">
-        <v>954.46582999999998</v>
-      </c>
-      <c r="N12">
-        <v>18376.15987</v>
-      </c>
-      <c r="O12">
-        <v>282.41666700000002</v>
-      </c>
-      <c r="P12">
-        <v>3370.992424</v>
-      </c>
-      <c r="Q12">
-        <v>1070.391257</v>
-      </c>
-      <c r="R12">
-        <v>27254.802844000002</v>
-      </c>
-      <c r="S12">
-        <v>1936.871717</v>
-      </c>
-      <c r="T12">
-        <v>117473.039372</v>
-      </c>
-      <c r="U12">
-        <v>111620.462413</v>
-      </c>
-      <c r="V12" s="18">
-        <v>807493900</v>
-      </c>
-      <c r="W12">
-        <v>920.70114699999999</v>
-      </c>
-      <c r="X12">
-        <v>14316.348910000001</v>
-      </c>
-      <c r="Y12">
-        <v>-5.5625000000000001E-2</v>
-      </c>
-      <c r="Z12">
-        <v>2.4178999999999999E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="12"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="3">
-        <v>2</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="12">
+      <c r="D13" s="12">
+        <v>0.94</v>
+      </c>
+      <c r="E13">
+        <v>1760.6153850000001</v>
+      </c>
+      <c r="F13">
+        <v>71317.923076999999</v>
+      </c>
+      <c r="G13">
+        <v>276.53653100000002</v>
+      </c>
+      <c r="H13">
+        <v>2172.665845</v>
+      </c>
+      <c r="I13">
+        <v>1000.431406</v>
+      </c>
+      <c r="J13">
+        <v>28250.252324000001</v>
+      </c>
+      <c r="K13">
+        <v>265.76923099999999</v>
+      </c>
+      <c r="L13">
+        <v>1957.025641</v>
+      </c>
+      <c r="M13">
+        <v>1149.1934839999999</v>
+      </c>
+      <c r="N13">
+        <v>37911.612609000003</v>
+      </c>
+      <c r="O13">
+        <v>114347.485143</v>
+      </c>
+      <c r="P13" s="18">
+        <v>873159500</v>
+      </c>
+      <c r="Q13">
+        <v>976.23965899999996</v>
+      </c>
+      <c r="R13">
+        <v>11061.338453</v>
+      </c>
+      <c r="S13">
+        <v>-2.2637000000000001E-2</v>
+      </c>
+      <c r="T13">
+        <v>2.4237999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="12"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="12">
         <v>0.9</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>1739.833333</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>178983.76666699999</v>
       </c>
-      <c r="G14">
-        <v>752</v>
-      </c>
-      <c r="H14">
-        <v>14627.2</v>
-      </c>
-      <c r="I14">
-        <v>432.66666700000002</v>
-      </c>
-      <c r="J14">
-        <v>2790.666667</v>
-      </c>
-      <c r="K14">
+      <c r="G15">
         <v>307.72950600000001</v>
       </c>
-      <c r="L14">
+      <c r="H15">
         <v>4890.5534399999997</v>
       </c>
-      <c r="M14">
+      <c r="I15">
         <v>1112.6261919999999</v>
       </c>
-      <c r="N14">
+      <c r="J15">
         <v>37055.747754999997</v>
       </c>
-      <c r="O14">
+      <c r="K15">
         <v>249.66666699999999</v>
       </c>
-      <c r="P14">
+      <c r="L15">
         <v>4420.6666670000004</v>
       </c>
-      <c r="Q14">
+      <c r="M15">
         <v>1211.0714700000001</v>
       </c>
-      <c r="R14">
+      <c r="N15">
         <v>71898.080390999996</v>
       </c>
-      <c r="S14">
-        <v>2251.2261530000001</v>
-      </c>
-      <c r="T14">
-        <v>175012.62764200001</v>
-      </c>
-      <c r="U14">
+      <c r="O15">
         <v>114600.766343</v>
       </c>
-      <c r="V14" s="18">
+      <c r="P15" s="18">
         <v>510096100</v>
       </c>
-      <c r="W14">
+      <c r="Q15">
         <v>1025.3733279999999</v>
       </c>
-      <c r="X14">
+      <c r="R15">
         <v>76444.986667999998</v>
       </c>
-      <c r="Y14">
+      <c r="S15">
         <v>2.0501999999999999E-2</v>
       </c>
-      <c r="Z14">
+      <c r="T15">
         <v>7.541E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3">
-        <v>2</v>
-      </c>
-      <c r="D15" s="12">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3">
+        <v>2</v>
+      </c>
+      <c r="D16" s="12">
         <v>0.65</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>3385.0576919999999</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>592731.926538</v>
       </c>
-      <c r="G15">
-        <v>827.61538499999995</v>
-      </c>
-      <c r="H15">
-        <v>1930.886154</v>
-      </c>
-      <c r="I15">
-        <v>410.90384599999999</v>
-      </c>
-      <c r="J15">
-        <v>2171.8803849999999</v>
-      </c>
-      <c r="K15">
+      <c r="G16">
         <v>371.539221</v>
       </c>
-      <c r="L15">
+      <c r="H16">
         <v>1035.578855</v>
       </c>
-      <c r="M15">
+      <c r="I16">
         <v>1222.5497009999999</v>
       </c>
-      <c r="N15">
+      <c r="J16">
         <v>15536.642760999999</v>
       </c>
-      <c r="O15">
+      <c r="K16">
         <v>498.94230800000003</v>
       </c>
-      <c r="P15">
+      <c r="L16">
         <v>16900.946538</v>
       </c>
-      <c r="Q15">
+      <c r="M16">
         <v>1245.3258940000001</v>
       </c>
-      <c r="R15">
+      <c r="N16">
         <v>12740.419583999999</v>
       </c>
-      <c r="S15">
-        <v>2578.3067820000001</v>
-      </c>
-      <c r="T15">
-        <v>49049.371189999998</v>
-      </c>
-      <c r="U15">
+      <c r="O16">
         <v>193914.33996899999</v>
       </c>
-      <c r="V15" s="18">
+      <c r="P16" s="18">
         <v>1004123000</v>
       </c>
-      <c r="W15">
+      <c r="Q16">
         <v>722.09551699999997</v>
       </c>
-      <c r="X15">
+      <c r="R16">
         <v>4047.1366130000001</v>
       </c>
-      <c r="Y15">
+      <c r="S16">
         <v>-0.116019</v>
       </c>
-      <c r="Z15">
+      <c r="T16">
         <v>5.2220000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
         <v>4</v>
       </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-      <c r="D16" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="E16">
-        <v>2178</v>
-      </c>
-      <c r="F16">
-        <v>302642</v>
-      </c>
-      <c r="G16">
-        <v>654</v>
-      </c>
-      <c r="H16">
-        <v>10368</v>
-      </c>
-      <c r="I16">
-        <v>395.5</v>
-      </c>
-      <c r="J16">
-        <v>1104.5</v>
-      </c>
-      <c r="K16">
-        <v>229.304495</v>
-      </c>
-      <c r="L16">
-        <v>106.140266</v>
-      </c>
-      <c r="M16">
-        <v>989.65582400000005</v>
-      </c>
-      <c r="N16">
-        <v>1239.699991</v>
-      </c>
-      <c r="O16">
-        <v>311.5</v>
-      </c>
-      <c r="P16">
-        <v>7320.5</v>
-      </c>
-      <c r="Q16">
-        <v>930.86591499999997</v>
-      </c>
-      <c r="R16">
-        <v>1374.7302589999999</v>
-      </c>
-      <c r="S16">
-        <v>1828.920476</v>
-      </c>
-      <c r="T16">
-        <v>1718.9084230000001</v>
-      </c>
-      <c r="U16">
-        <v>114951.28943</v>
-      </c>
-      <c r="V16" s="18">
-        <v>1191293000</v>
-      </c>
-      <c r="W16">
-        <v>713.24588500000004</v>
-      </c>
-      <c r="X16">
-        <v>45534.539232000003</v>
-      </c>
-      <c r="Y16">
-        <v>6.3261999999999999E-2</v>
-      </c>
-      <c r="Z16">
-        <v>6.6000000000000005E-5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
       <c r="C17" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="12">
         <v>0.9</v>
       </c>
       <c r="E17">
-        <v>1520.75</v>
+        <v>1565</v>
       </c>
       <c r="F17">
-        <v>5435.5833329999996</v>
+        <v>6962</v>
       </c>
       <c r="G17">
-        <v>801</v>
+        <v>384.50730299999998</v>
       </c>
       <c r="H17">
-        <v>11318.666667</v>
+        <v>164.46562700000001</v>
       </c>
       <c r="I17">
-        <v>451.25</v>
+        <v>1354.8641970000001</v>
       </c>
       <c r="J17">
-        <v>2901.583333</v>
+        <v>7984.0180710000004</v>
       </c>
       <c r="K17">
-        <v>346.94201199999998</v>
+        <v>229</v>
       </c>
       <c r="L17">
-        <v>1965.059966</v>
+        <v>512</v>
       </c>
       <c r="M17">
-        <v>1174.1113760000001</v>
+        <v>1491.7993309999999</v>
       </c>
       <c r="N17">
-        <v>46224.634835999997</v>
+        <v>13548.603668</v>
       </c>
       <c r="O17">
-        <v>218.75</v>
-      </c>
-      <c r="P17">
-        <v>1104.25</v>
+        <v>130313.86195000001</v>
+      </c>
+      <c r="P17" s="18">
+        <v>17599700</v>
       </c>
       <c r="Q17">
-        <v>1351.174248</v>
+        <v>1282.490675</v>
       </c>
       <c r="R17">
-        <v>40856.737567999997</v>
+        <v>3519.1975929999999</v>
       </c>
       <c r="S17">
-        <v>2462.378991</v>
+        <v>3.9810999999999999E-2</v>
       </c>
       <c r="T17">
-        <v>112772.65829599999</v>
-      </c>
-      <c r="U17">
-        <v>114425.5048</v>
-      </c>
-      <c r="V17" s="18">
-        <v>452939500</v>
-      </c>
-      <c r="W17">
-        <v>1181.4370489999999</v>
-      </c>
-      <c r="X17">
-        <v>14806.590716000001</v>
-      </c>
-      <c r="Y17">
-        <v>-8.7799999999999998E-4</v>
-      </c>
-      <c r="Z17">
-        <v>1.0717000000000001E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+        <v>1.9769999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="12">
-        <v>0.68</v>
+        <v>0.9</v>
       </c>
       <c r="E18">
-        <v>2825.5625</v>
+        <v>1827.25</v>
       </c>
       <c r="F18">
-        <v>206296.388393</v>
+        <v>265418.91666699998</v>
       </c>
       <c r="G18">
-        <v>824.3125</v>
+        <v>269.34060799999997</v>
       </c>
       <c r="H18">
-        <v>1045.8526790000001</v>
+        <v>2201.2705380000002</v>
       </c>
       <c r="I18">
-        <v>434.75</v>
+        <v>991.50719000000004</v>
       </c>
       <c r="J18">
-        <v>1249.9285709999999</v>
+        <v>418.98952400000002</v>
       </c>
       <c r="K18">
-        <v>409.11131799999998</v>
+        <v>260</v>
       </c>
       <c r="L18">
-        <v>397.60211299999997</v>
+        <v>6770</v>
       </c>
       <c r="M18">
-        <v>1292.983442</v>
+        <v>1070.7075400000001</v>
       </c>
       <c r="N18">
-        <v>13186.836364999999</v>
+        <v>36505.800989000003</v>
       </c>
       <c r="O18">
-        <v>390.5625</v>
-      </c>
-      <c r="P18">
-        <v>6146.2455360000004</v>
+        <v>106744.21854</v>
+      </c>
+      <c r="P18" s="18">
+        <v>597392200</v>
       </c>
       <c r="Q18">
-        <v>1384.809481</v>
+        <v>896.81465400000002</v>
       </c>
       <c r="R18">
-        <v>3838.774077</v>
+        <v>60125.914872000001</v>
       </c>
       <c r="S18">
-        <v>2837.7939270000002</v>
+        <v>1.0847000000000001E-2</v>
       </c>
       <c r="T18">
-        <v>17968.547284</v>
-      </c>
-      <c r="U18">
-        <v>199541.78588800001</v>
-      </c>
-      <c r="V18" s="18">
-        <v>1000363000</v>
-      </c>
-      <c r="W18">
-        <v>779.69089099999997</v>
-      </c>
-      <c r="X18">
-        <v>3312.2219260000002</v>
-      </c>
-      <c r="Y18">
-        <v>-0.16553899999999999</v>
-      </c>
-      <c r="Z18">
-        <v>1.2329999999999999E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+        <v>5.6049999999999997E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="3">
+        <v>3</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0.69</v>
+      </c>
+      <c r="E19">
+        <v>2974.9285709999999</v>
+      </c>
+      <c r="F19">
+        <v>234136.725275</v>
+      </c>
+      <c r="G19">
+        <v>389.93349599999999</v>
+      </c>
+      <c r="H19">
+        <v>886.51278300000001</v>
+      </c>
+      <c r="I19">
+        <v>1261.4699169999999</v>
+      </c>
+      <c r="J19">
+        <v>11103.441892999999</v>
+      </c>
+      <c r="K19">
+        <v>420.07142900000002</v>
+      </c>
+      <c r="L19">
+        <v>7869.8791209999999</v>
+      </c>
+      <c r="M19">
+        <v>1309.901597</v>
+      </c>
+      <c r="N19">
+        <v>11153.346777000001</v>
+      </c>
+      <c r="O19">
+        <v>190384.07129299999</v>
+      </c>
+      <c r="P19" s="18">
+        <v>774363500</v>
+      </c>
+      <c r="Q19">
+        <v>758.05282499999998</v>
+      </c>
+      <c r="R19">
+        <v>3250.556998</v>
+      </c>
+      <c r="S19">
+        <v>-0.16040399999999999</v>
+      </c>
+      <c r="T19">
+        <v>1.9319999999999999E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3">
         <v>4</v>
       </c>
-      <c r="D19" s="12">
-        <v>0.63</v>
-      </c>
-      <c r="E19">
-        <v>3633.7222219999999</v>
-      </c>
-      <c r="F19">
-        <v>573937.15359500004</v>
-      </c>
-      <c r="G19">
-        <v>829.08333300000004</v>
-      </c>
-      <c r="H19">
-        <v>2401.4779410000001</v>
-      </c>
-      <c r="I19">
-        <v>400.30555600000002</v>
-      </c>
-      <c r="J19">
-        <v>2292.7393790000001</v>
-      </c>
-      <c r="K19">
-        <v>354.84051199999999</v>
-      </c>
-      <c r="L19">
-        <v>399.63016699999997</v>
-      </c>
-      <c r="M19">
-        <v>1191.245815</v>
-      </c>
-      <c r="N19">
-        <v>14046.007121000001</v>
-      </c>
-      <c r="O19">
-        <v>547.11111100000005</v>
-      </c>
-      <c r="P19">
-        <v>14339.19281</v>
-      </c>
-      <c r="Q19">
-        <v>1183.3331889999999</v>
-      </c>
-      <c r="R19">
-        <v>3930.4696720000002</v>
-      </c>
-      <c r="S19">
-        <v>2462.9791620000001</v>
-      </c>
-      <c r="T19">
-        <v>18963.384773000002</v>
-      </c>
-      <c r="U19">
-        <v>191413.252894</v>
-      </c>
-      <c r="V19" s="18">
-        <v>1043211000</v>
-      </c>
-      <c r="W19">
-        <v>696.49757299999999</v>
-      </c>
-      <c r="X19">
-        <v>2332.9682459999999</v>
-      </c>
-      <c r="Y19">
-        <v>-9.4009999999999996E-2</v>
-      </c>
-      <c r="Z19">
-        <v>5.5040000000000002E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="D20" s="12">
+        <v>0.59</v>
+      </c>
+      <c r="E20">
+        <v>3863.541667</v>
+      </c>
+      <c r="F20">
+        <v>606570.47537899995</v>
+      </c>
+      <c r="G20">
+        <v>350.07923299999999</v>
+      </c>
+      <c r="H20">
+        <v>372.86738300000002</v>
+      </c>
+      <c r="I20">
+        <v>1177.142781</v>
+      </c>
+      <c r="J20">
+        <v>18011.172585</v>
+      </c>
+      <c r="K20">
+        <v>590.95833300000004</v>
+      </c>
+      <c r="L20">
+        <v>11956.657197</v>
+      </c>
+      <c r="M20">
+        <v>1169.987574</v>
+      </c>
+      <c r="N20">
+        <v>4275.1210730000003</v>
+      </c>
+      <c r="O20">
+        <v>198032.98675800001</v>
+      </c>
+      <c r="P20" s="18">
+        <v>1332574000</v>
+      </c>
+      <c r="Q20">
+        <v>680.14532499999996</v>
+      </c>
+      <c r="R20">
+        <v>1791.1235859999999</v>
+      </c>
+      <c r="S20">
+        <v>-6.4236000000000001E-2</v>
+      </c>
+      <c r="T20">
+        <v>4.1510000000000002E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
+  <mergeCells count="8">
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="I1:J1"/>
+    <mergeCell ref="S1:T1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Experiment-Data/Answer-Data.xlsx
+++ b/Experiment-Data/Answer-Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\www\Desktop\eye-tracking-software\Experiment-Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\eye-tracking-software\Experiment-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E956E7-4010-409F-A437-DDBF143504AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB628298-4D44-4C47-BD2A-C14BF7353D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{65F65776-174E-4145-8CCF-AA6B8A50F68A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{65F65776-174E-4145-8CCF-AA6B8A50F68A}"/>
   </bookViews>
   <sheets>
     <sheet name="1st" sheetId="1" r:id="rId1"/>
@@ -175,7 +175,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -187,7 +187,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="Aptos Narrow"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -645,20 +645,20 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10" style="3" customWidth="1"/>
-    <col min="2" max="5" width="4.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" style="13" customWidth="1"/>
-    <col min="7" max="26" width="4.42578125" style="2" customWidth="1"/>
-    <col min="27" max="27" width="4.140625" style="3" customWidth="1"/>
+    <col min="2" max="5" width="4.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="6.25" style="13" customWidth="1"/>
+    <col min="7" max="26" width="4.375" style="2" customWidth="1"/>
+    <col min="27" max="27" width="4.125" style="3" customWidth="1"/>
     <col min="28" max="28" width="10" style="3" customWidth="1"/>
-    <col min="29" max="31" width="4.28515625" style="3" customWidth="1"/>
-    <col min="32" max="32" width="6.140625" style="3" customWidth="1"/>
-    <col min="33" max="42" width="4.42578125" style="4" customWidth="1"/>
+    <col min="29" max="31" width="4.25" style="3" customWidth="1"/>
+    <col min="32" max="32" width="6.125" style="3" customWidth="1"/>
+    <col min="33" max="42" width="4.375" style="4" customWidth="1"/>
     <col min="44" max="44" width="10" style="3" customWidth="1"/>
-    <col min="45" max="48" width="4.28515625" style="3" customWidth="1"/>
-    <col min="49" max="49" width="6.140625" style="3" customWidth="1"/>
+    <col min="45" max="48" width="4.25" style="3" customWidth="1"/>
+    <col min="49" max="49" width="6.125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:49" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -859,7 +859,7 @@
       <c r="AV2" s="5"/>
       <c r="AW2" s="5"/>
     </row>
-    <row r="3" spans="1:49" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:49" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.4">
       <c r="C4" s="3">
         <v>2</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>0.52499999999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.4">
       <c r="F5" s="12"/>
       <c r="G5" s="16">
         <f>(COUNTIF(G3:G4,"○"))/2</f>
@@ -1228,7 +1228,7 @@
       <c r="AP5" s="1"/>
       <c r="AW5" s="12"/>
     </row>
-    <row r="6" spans="1:49" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="7" spans="1:49" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.4">
       <c r="C7" s="3">
         <v>2</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:49" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.4">
       <c r="C8" s="3">
         <v>3</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="9" spans="1:49" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.4">
       <c r="C9" s="3">
         <v>4</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:49" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.4">
       <c r="C10" s="3">
         <v>5</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:49" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.4">
       <c r="C11" s="3">
         <v>6</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:49" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.4">
       <c r="C12" s="3">
         <v>7</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>0.67500000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:49" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.4">
       <c r="C13" s="3">
         <v>8</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:49" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.4">
       <c r="C14" s="3">
         <v>9</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>0.72500000000000009</v>
       </c>
     </row>
-    <row r="15" spans="1:49" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.4">
       <c r="C15" s="3">
         <v>10</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.4">
       <c r="F16" s="12"/>
       <c r="G16" s="16">
         <f>(COUNTIF(G6:G15,"○"))/10</f>
@@ -2612,7 +2612,7 @@
       <c r="AP16" s="1"/>
       <c r="AW16" s="12"/>
     </row>
-    <row r="17" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:49" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>3</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:49" x14ac:dyDescent="0.4">
       <c r="C18" s="3">
         <v>2</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="19" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:49" x14ac:dyDescent="0.4">
       <c r="C19" s="3">
         <v>3</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:49" x14ac:dyDescent="0.4">
       <c r="C20" s="3">
         <v>4</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="21" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:49" x14ac:dyDescent="0.4">
       <c r="C21" s="3">
         <v>5</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="22" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:49" x14ac:dyDescent="0.4">
       <c r="C22" s="3">
         <v>6</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="23" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:49" x14ac:dyDescent="0.4">
       <c r="C23" s="3">
         <v>7</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="24" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:49" x14ac:dyDescent="0.4">
       <c r="C24" s="3">
         <v>8</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="25" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:49" x14ac:dyDescent="0.4">
       <c r="C25" s="3">
         <v>9</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="26" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:49" x14ac:dyDescent="0.4">
       <c r="C26" s="3">
         <v>10</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:49" x14ac:dyDescent="0.4">
       <c r="C27" s="3">
         <v>11</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="28" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:49" x14ac:dyDescent="0.4">
       <c r="C28" s="3">
         <v>12</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="29" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:49" x14ac:dyDescent="0.4">
       <c r="C29" s="3">
         <v>13</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>0.39999999999999997</v>
       </c>
     </row>
-    <row r="30" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:49" x14ac:dyDescent="0.4">
       <c r="C30" s="3">
         <v>14</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:49" x14ac:dyDescent="0.4">
       <c r="F31" s="5"/>
       <c r="G31" s="15">
         <f>(COUNTIF(G17:G30,"○"))/14</f>
@@ -4555,7 +4555,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="32" spans="2:49" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:49" x14ac:dyDescent="0.4">
       <c r="F32" s="12"/>
       <c r="AD32" s="3">
         <v>2</v>
@@ -4611,7 +4611,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="33" spans="29:49" x14ac:dyDescent="0.25">
+    <row r="33" spans="29:49" x14ac:dyDescent="0.4">
       <c r="AC33" s="3" t="s">
         <v>7</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="29:49" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="29:49" x14ac:dyDescent="0.4">
       <c r="AD34" s="3">
         <v>2</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="35" spans="29:49" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="29:49" x14ac:dyDescent="0.4">
       <c r="AD35" s="3">
         <v>3</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="36" spans="29:49" x14ac:dyDescent="0.25">
+    <row r="36" spans="29:49" x14ac:dyDescent="0.4">
       <c r="AC36" s="3" t="s">
         <v>6</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="29:49" x14ac:dyDescent="0.25">
+    <row r="37" spans="29:49" x14ac:dyDescent="0.4">
       <c r="AG37" s="15">
         <f>(COUNTIF(AG3:AG36,"○")/32)</f>
         <v>1</v>
@@ -4887,12 +4887,12 @@
       <c r="AU37"/>
       <c r="AV37"/>
     </row>
-    <row r="38" spans="29:49" x14ac:dyDescent="0.25">
+    <row r="38" spans="29:49" x14ac:dyDescent="0.4">
       <c r="AU38"/>
       <c r="AV38"/>
       <c r="AW38" s="12"/>
     </row>
-    <row r="39" spans="29:49" x14ac:dyDescent="0.25">
+    <row r="39" spans="29:49" x14ac:dyDescent="0.4">
       <c r="AF39" s="12"/>
     </row>
   </sheetData>
@@ -4911,18 +4911,18 @@
   <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10" style="3" customWidth="1"/>
-    <col min="2" max="3" width="8.5703125" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" style="3" customWidth="1"/>
+    <col min="2" max="3" width="8.625" customWidth="1"/>
+    <col min="4" max="4" width="5.75" style="3" customWidth="1"/>
     <col min="5" max="21" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -4968,7 +4968,7 @@
       </c>
       <c r="T1" s="21"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -5022,7 +5022,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>7.7279999999999996E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B4" s="3"/>
       <c r="C4" s="3">
         <v>2</v>
@@ -5141,7 +5141,7 @@
         <v>1.6605000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B5" s="3">
         <v>5</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>7.0330000000000002E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B6" s="3"/>
       <c r="C6" s="3">
         <v>2</v>
@@ -5257,7 +5257,7 @@
         <v>6.0879999999999997E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B7" s="3"/>
       <c r="C7" s="3">
         <v>3</v>
@@ -5314,7 +5314,7 @@
         <v>7.071E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B8" s="3"/>
       <c r="C8" s="3">
         <v>4</v>
@@ -5371,7 +5371,7 @@
         <v>3.5469999999999998E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B9" s="3"/>
       <c r="C9" s="3">
         <v>5</v>
@@ -5428,12 +5428,12 @@
         <v>5.9639999999999997E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="12"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>2.9637E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B12" s="3"/>
       <c r="C12" s="3">
         <v>2</v>
@@ -5552,7 +5552,7 @@
         <v>1.8419999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B13" s="3"/>
       <c r="C13" s="3">
         <v>3</v>
@@ -5609,12 +5609,12 @@
         <v>2.4237999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="12"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>27</v>
       </c>
@@ -5676,7 +5676,7 @@
         <v>7.541E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B16" s="3"/>
       <c r="C16" s="3">
         <v>2</v>
@@ -5733,7 +5733,7 @@
         <v>5.2220000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B17" s="3">
         <v>4</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>1.9769999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B18" s="3"/>
       <c r="C18" s="3">
         <v>2</v>
@@ -5849,7 +5849,7 @@
         <v>5.6049999999999997E-3</v>
       </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B19" s="3"/>
       <c r="C19" s="3">
         <v>3</v>
@@ -5906,7 +5906,7 @@
         <v>1.9319999999999999E-3</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B20" s="3"/>
       <c r="C20" s="3">
         <v>4</v>
@@ -5963,31 +5963,31 @@
         <v>4.1510000000000002E-3</v>
       </c>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="5"/>
@@ -6003,6 +6003,7 @@
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
   </mergeCells>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Experiment-Data/Answer-Data.xlsx
+++ b/Experiment-Data/Answer-Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\eye-tracking-software\Experiment-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB628298-4D44-4C47-BD2A-C14BF7353D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA19F7CB-9A2B-44D4-AFFC-D942F0E62E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{65F65776-174E-4145-8CCF-AA6B8A50F68A}"/>
   </bookViews>
@@ -641,27 +641,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C853D4-11AD-448C-900A-323815755F36}">
-  <dimension ref="A1:AW39"/>
+  <dimension ref="A1:AX39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10" style="3" customWidth="1"/>
-    <col min="2" max="5" width="4.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="6.25" style="13" customWidth="1"/>
-    <col min="7" max="26" width="4.375" style="2" customWidth="1"/>
-    <col min="27" max="27" width="4.125" style="3" customWidth="1"/>
-    <col min="28" max="28" width="10" style="3" customWidth="1"/>
-    <col min="29" max="31" width="4.25" style="3" customWidth="1"/>
-    <col min="32" max="32" width="6.125" style="3" customWidth="1"/>
-    <col min="33" max="42" width="4.375" style="4" customWidth="1"/>
-    <col min="44" max="44" width="10" style="3" customWidth="1"/>
-    <col min="45" max="48" width="4.25" style="3" customWidth="1"/>
-    <col min="49" max="49" width="6.125" style="3" customWidth="1"/>
+    <col min="2" max="6" width="4.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6.25" style="13" customWidth="1"/>
+    <col min="8" max="27" width="4.375" style="2" customWidth="1"/>
+    <col min="28" max="28" width="4.125" style="3" customWidth="1"/>
+    <col min="29" max="29" width="10" style="3" customWidth="1"/>
+    <col min="30" max="32" width="4.25" style="3" customWidth="1"/>
+    <col min="33" max="33" width="6.125" style="3" customWidth="1"/>
+    <col min="34" max="43" width="4.375" style="4" customWidth="1"/>
+    <col min="45" max="45" width="10" style="3" customWidth="1"/>
+    <col min="46" max="49" width="4.25" style="3" customWidth="1"/>
+    <col min="50" max="50" width="6.125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:50" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -675,15 +677,17 @@
         <v>2</v>
       </c>
       <c r="E1" s="5">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5">
         <v>5</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="19"/>
       <c r="I1" s="19"/>
       <c r="J1" s="19"/>
       <c r="K1" s="19"/>
@@ -702,26 +706,26 @@
       <c r="X1" s="19"/>
       <c r="Y1" s="19"/>
       <c r="Z1" s="19"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5" t="s">
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AE1" s="5">
+      <c r="AF1" s="5">
         <v>3</v>
       </c>
-      <c r="AF1" s="14" t="s">
+      <c r="AG1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="AG1" s="20" t="s">
+      <c r="AH1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="AH1" s="20"/>
       <c r="AI1" s="20"/>
       <c r="AJ1" s="20"/>
       <c r="AK1" s="20"/>
@@ -730,136 +734,138 @@
       <c r="AN1" s="20"/>
       <c r="AO1" s="20"/>
       <c r="AP1" s="20"/>
-      <c r="AR1" s="5" t="s">
+      <c r="AQ1" s="20"/>
+      <c r="AS1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AU1" s="5">
-        <v>2</v>
-      </c>
       <c r="AV1" s="5">
+        <v>2</v>
+      </c>
+      <c r="AW1" s="5">
         <v>4</v>
       </c>
-      <c r="AW1" s="14" t="s">
+      <c r="AX1" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:49" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:50" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="6">
-        <v>1</v>
-      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="11"/>
       <c r="H2" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" s="6">
+        <v>2</v>
+      </c>
+      <c r="J2" s="6">
         <v>3</v>
       </c>
-      <c r="J2" s="6">
+      <c r="K2" s="6">
         <v>4</v>
       </c>
-      <c r="K2" s="6">
+      <c r="L2" s="6">
         <v>5</v>
       </c>
-      <c r="L2" s="6">
+      <c r="M2" s="6">
         <v>6</v>
       </c>
-      <c r="M2" s="6">
+      <c r="N2" s="6">
         <v>7</v>
       </c>
-      <c r="N2" s="6">
+      <c r="O2" s="6">
         <v>8</v>
       </c>
-      <c r="O2" s="6">
+      <c r="P2" s="6">
         <v>9</v>
       </c>
-      <c r="P2" s="6">
+      <c r="Q2" s="6">
         <v>10</v>
       </c>
-      <c r="Q2" s="6">
-        <v>11</v>
-      </c>
       <c r="R2" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S2" s="6">
+        <v>12</v>
+      </c>
+      <c r="T2" s="6">
         <v>13</v>
       </c>
-      <c r="T2" s="6">
+      <c r="U2" s="6">
         <v>14</v>
       </c>
-      <c r="U2" s="6">
+      <c r="V2" s="6">
         <v>15</v>
       </c>
-      <c r="V2" s="6">
+      <c r="W2" s="6">
         <v>16</v>
       </c>
-      <c r="W2" s="6">
+      <c r="X2" s="6">
         <v>17</v>
       </c>
-      <c r="X2" s="6">
+      <c r="Y2" s="6">
         <v>18</v>
       </c>
-      <c r="Y2" s="6">
+      <c r="Z2" s="6">
         <v>19</v>
       </c>
-      <c r="Z2" s="6">
+      <c r="AA2" s="6">
         <v>20</v>
       </c>
-      <c r="AA2" s="5"/>
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
       <c r="AD2" s="5"/>
       <c r="AE2" s="5"/>
       <c r="AF2" s="5"/>
-      <c r="AG2" s="7">
-        <v>1</v>
-      </c>
+      <c r="AG2" s="5"/>
       <c r="AH2" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI2" s="7">
+        <v>2</v>
+      </c>
+      <c r="AJ2" s="7">
         <v>3</v>
       </c>
-      <c r="AJ2" s="7">
+      <c r="AK2" s="7">
         <v>4</v>
       </c>
-      <c r="AK2" s="7">
+      <c r="AL2" s="7">
         <v>5</v>
       </c>
-      <c r="AL2" s="7">
+      <c r="AM2" s="7">
         <v>6</v>
       </c>
-      <c r="AM2" s="7">
+      <c r="AN2" s="7">
         <v>7</v>
       </c>
-      <c r="AN2" s="7">
+      <c r="AO2" s="7">
         <v>8</v>
       </c>
-      <c r="AO2" s="7">
+      <c r="AP2" s="7">
         <v>9</v>
       </c>
-      <c r="AP2" s="7">
+      <c r="AQ2" s="7">
         <v>10</v>
       </c>
-      <c r="AR2" s="5"/>
       <c r="AS2" s="5"/>
       <c r="AT2" s="5"/>
       <c r="AU2" s="5"/>
       <c r="AV2" s="5"/>
       <c r="AW2" s="5"/>
-    </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.4">
+      <c r="AX2" s="5"/>
+    </row>
+    <row r="3" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -875,30 +881,30 @@
       <c r="E3" s="3">
         <v>1</v>
       </c>
-      <c r="F3" s="12">
-        <f>COUNTIF(G3:Z3,"○")/20</f>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="12">
+        <f>COUNTIF(H3:AA3,"○")/20</f>
         <v>0.5</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>12</v>
+      <c r="H3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>12</v>
+      <c r="L3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="N3" s="10" t="s">
         <v>12</v>
@@ -909,8 +915,8 @@
       <c r="P3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="9" t="s">
-        <v>11</v>
+      <c r="Q3" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="R3" s="9" t="s">
         <v>11</v>
@@ -921,43 +927,43 @@
       <c r="T3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="U3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="W3" s="10" t="s">
-        <v>12</v>
+      <c r="U3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="X3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Y3" s="9" t="s">
-        <v>11</v>
+      <c r="Y3" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="Z3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AA3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="3">
+      <c r="AD3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="AE3" s="3">
-        <v>2</v>
-      </c>
-      <c r="AF3" s="12">
-        <f>(COUNTIF(AG3:AP3,"○")/10)</f>
+        <v>1</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="12">
+        <f>(COUNTIF(AH3:AQ3,"○")/10)</f>
         <v>0.9</v>
       </c>
-      <c r="AG3" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="AH3" s="10" t="s">
         <v>12</v>
       </c>
@@ -973,11 +979,11 @@
       <c r="AL3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AM3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN3" s="10" t="s">
-        <v>12</v>
+      <c r="AM3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN3" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="AO3" s="10" t="s">
         <v>12</v>
@@ -985,27 +991,30 @@
       <c r="AP3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AR3" s="3" t="s">
+      <c r="AQ3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AS3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT3" s="3">
-        <v>1</v>
-      </c>
-      <c r="AU3">
-        <v>2</v>
+      <c r="AT3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="3">
+        <v>1</v>
       </c>
       <c r="AV3">
+        <v>2</v>
+      </c>
+      <c r="AW3">
         <v>3</v>
       </c>
-      <c r="AW3" s="12">
-        <f>(F3+AF3)/2</f>
+      <c r="AX3" s="12">
+        <f>(G3+AG3)/2</f>
         <v>0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.4">
       <c r="C4" s="3">
         <v>2</v>
       </c>
@@ -1013,35 +1022,35 @@
         <v>2</v>
       </c>
       <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3">
         <v>4</v>
       </c>
-      <c r="F4" s="12">
-        <f t="shared" ref="F4:F30" si="0">COUNTIF(G4:Z4,"○")/20</f>
+      <c r="G4" s="12">
+        <f t="shared" ref="G4:G30" si="0">COUNTIF(H4:AA4,"○")/20</f>
         <v>0.35</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="H4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>11</v>
+      <c r="I4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="10" t="s">
-        <v>12</v>
+      <c r="L4" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="M4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="9" t="s">
-        <v>11</v>
+      <c r="N4" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="O4" s="9" t="s">
         <v>11</v>
@@ -1049,26 +1058,26 @@
       <c r="P4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="S4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>11</v>
+      <c r="Q4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="U4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="V4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="W4" s="9" t="s">
-        <v>11</v>
+      <c r="V4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="W4" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="X4" s="9" t="s">
         <v>11</v>
@@ -1076,22 +1085,22 @@
       <c r="Y4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD4" s="3">
-        <v>2</v>
+      <c r="Z4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA4" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="AE4" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="12">
-        <f t="shared" ref="AF4:AF36" si="1">(COUNTIF(AG4:AP4,"○")/10)</f>
+        <v>2</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="12">
+        <f t="shared" ref="AG4:AG36" si="1">(COUNTIF(AH4:AQ4,"○")/10)</f>
         <v>0.7</v>
       </c>
-      <c r="AG4" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="AH4" s="10" t="s">
         <v>12</v>
       </c>
@@ -1104,47 +1113,46 @@
       <c r="AK4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AL4" s="9" t="s">
-        <v>11</v>
+      <c r="AL4" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="AM4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AN4" s="10" t="s">
-        <v>12</v>
+      <c r="AN4" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="AO4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AP4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AT4" s="3">
-        <v>2</v>
-      </c>
-      <c r="AU4">
+      <c r="AP4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU4" s="3">
         <v>2</v>
       </c>
       <c r="AV4">
+        <v>2</v>
+      </c>
+      <c r="AW4">
         <v>4</v>
       </c>
-      <c r="AW4" s="12">
-        <f>(F4+AF4)/2</f>
+      <c r="AX4" s="12">
+        <f>(G4+AG4)/2</f>
         <v>0.52499999999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.4">
-      <c r="F5" s="12"/>
-      <c r="G5" s="16">
-        <f>(COUNTIF(G3:G4,"○"))/2</f>
+    <row r="5" spans="1:50" x14ac:dyDescent="0.4">
+      <c r="G5" s="12"/>
+      <c r="H5" s="16">
+        <f>(COUNTIF(H3:H4,"○"))/2</f>
         <v>0</v>
       </c>
-      <c r="H5" s="16">
-        <f t="shared" ref="H5:Z5" si="2">(COUNTIF(H3:H4,"○"))/2</f>
-        <v>0.5</v>
-      </c>
       <c r="I5" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="I5:AA5" si="2">(COUNTIF(I3:I4,"○"))/2</f>
         <v>0.5</v>
       </c>
       <c r="J5" s="16">
@@ -1161,11 +1169,11 @@
       </c>
       <c r="M5" s="16">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N5" s="16">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O5" s="16">
         <f t="shared" si="2"/>
@@ -1181,19 +1189,19 @@
       </c>
       <c r="R5" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S5" s="16">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T5" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U5" s="16">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V5" s="16">
         <f t="shared" si="2"/>
@@ -1209,15 +1217,18 @@
       </c>
       <c r="Y5" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Z5" s="16">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="16">
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="1"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="10"/>
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1"/>
@@ -1226,9 +1237,10 @@
       <c r="AN5" s="1"/>
       <c r="AO5" s="1"/>
       <c r="AP5" s="1"/>
-      <c r="AW5" s="12"/>
-    </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.4">
+      <c r="AQ5" s="1"/>
+      <c r="AX5" s="12"/>
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1239,15 +1251,15 @@
         <v>1</v>
       </c>
       <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
         <v>3</v>
       </c>
-      <c r="F6" s="12">
+      <c r="G6" s="12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="H6" s="10" t="s">
         <v>12</v>
       </c>
@@ -1305,22 +1317,22 @@
       <c r="Z6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AC6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD6" s="3">
-        <v>1</v>
+      <c r="AA6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="AE6" s="3">
         <v>1</v>
       </c>
-      <c r="AF6" s="12">
+      <c r="AF6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="12">
         <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
-      <c r="AG6" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="AH6" s="10" t="s">
         <v>12</v>
       </c>
@@ -1333,39 +1345,42 @@
       <c r="AK6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AL6" s="9" t="s">
-        <v>11</v>
+      <c r="AL6" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="AM6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AN6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AP6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AS6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT6" s="3">
-        <v>1</v>
-      </c>
-      <c r="AU6">
-        <v>2</v>
+      <c r="AN6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU6" s="3">
+        <v>1</v>
       </c>
       <c r="AV6">
+        <v>2</v>
+      </c>
+      <c r="AW6">
         <v>3</v>
       </c>
-      <c r="AW6" s="12">
-        <f t="shared" ref="AW6:AW15" si="3">(F6+AF6)/2</f>
+      <c r="AX6" s="12">
+        <f t="shared" ref="AX6:AX15" si="3">(G6+AG6)/2</f>
         <v>0.85</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.4">
       <c r="C7" s="3">
         <v>2</v>
       </c>
@@ -1373,20 +1388,20 @@
         <v>2</v>
       </c>
       <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3">
         <v>4</v>
       </c>
-      <c r="F7" s="12">
+      <c r="G7" s="12">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="G7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>12</v>
+      <c r="H7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="J7" s="10" t="s">
         <v>12</v>
@@ -1436,22 +1451,22 @@
       <c r="Y7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Z7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD7" s="3">
-        <v>2</v>
+      <c r="Z7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA7" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="AE7" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="12">
+        <v>2</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="12">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="AG7" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="AH7" s="10" t="s">
         <v>12</v>
       </c>
@@ -1461,11 +1476,11 @@
       <c r="AJ7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AK7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AL7" s="10" t="s">
-        <v>12</v>
+      <c r="AK7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL7" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="AM7" s="10" t="s">
         <v>12</v>
@@ -1479,21 +1494,24 @@
       <c r="AP7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AT7" s="3">
-        <v>2</v>
-      </c>
-      <c r="AU7">
+      <c r="AQ7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU7" s="3">
         <v>2</v>
       </c>
       <c r="AV7">
+        <v>2</v>
+      </c>
+      <c r="AW7">
         <v>4</v>
       </c>
-      <c r="AW7" s="12">
+      <c r="AX7" s="12">
         <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.4">
       <c r="C8" s="3">
         <v>3</v>
       </c>
@@ -1501,20 +1519,20 @@
         <v>1</v>
       </c>
       <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
         <v>3</v>
       </c>
-      <c r="F8" s="12">
+      <c r="G8" s="12">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>12</v>
+      <c r="H8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="J8" s="10" t="s">
         <v>12</v>
@@ -1567,33 +1585,33 @@
       <c r="Z8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AA8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE8" s="3">
         <v>3</v>
       </c>
-      <c r="AE8" s="3">
-        <v>2</v>
-      </c>
-      <c r="AF8" s="12">
+      <c r="AF8" s="3">
+        <v>2</v>
+      </c>
+      <c r="AG8" s="12">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="AG8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AI8" s="10" t="s">
-        <v>12</v>
+      <c r="AH8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI8" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="AJ8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AK8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AL8" s="10" t="s">
-        <v>12</v>
+      <c r="AK8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL8" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="AM8" s="10" t="s">
         <v>12</v>
@@ -1607,21 +1625,24 @@
       <c r="AP8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AT8" s="3">
+      <c r="AQ8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU8" s="3">
         <v>3</v>
       </c>
-      <c r="AU8">
-        <v>2</v>
-      </c>
       <c r="AV8">
+        <v>2</v>
+      </c>
+      <c r="AW8">
         <v>3</v>
       </c>
-      <c r="AW8" s="12">
+      <c r="AX8" s="12">
         <f t="shared" si="3"/>
         <v>0.875</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.4">
       <c r="C9" s="3">
         <v>4</v>
       </c>
@@ -1629,35 +1650,35 @@
         <v>1</v>
       </c>
       <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
         <v>3</v>
       </c>
-      <c r="F9" s="12">
+      <c r="G9" s="12">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="H9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>12</v>
+      <c r="I9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="L9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>12</v>
+      <c r="M9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="O9" s="10" t="s">
         <v>12</v>
@@ -1680,34 +1701,34 @@
       <c r="U9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="V9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="W9" s="10" t="s">
-        <v>12</v>
+      <c r="V9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="X9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Y9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD9" s="3">
+      <c r="Y9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE9" s="3">
         <v>4</v>
       </c>
-      <c r="AE9" s="3">
-        <v>2</v>
-      </c>
-      <c r="AF9" s="12">
+      <c r="AF9" s="3">
+        <v>2</v>
+      </c>
+      <c r="AG9" s="12">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="AG9" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="AH9" s="10" t="s">
         <v>12</v>
       </c>
@@ -1720,11 +1741,11 @@
       <c r="AK9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AL9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AM9" s="10" t="s">
-        <v>12</v>
+      <c r="AL9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM9" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="AN9" s="10" t="s">
         <v>12</v>
@@ -1735,21 +1756,24 @@
       <c r="AP9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AT9" s="3">
+      <c r="AQ9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU9" s="3">
         <v>4</v>
       </c>
-      <c r="AU9">
-        <v>2</v>
-      </c>
       <c r="AV9">
+        <v>2</v>
+      </c>
+      <c r="AW9">
         <v>3</v>
       </c>
-      <c r="AW9" s="12">
+      <c r="AX9" s="12">
         <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.4">
       <c r="C10" s="3">
         <v>5</v>
       </c>
@@ -1757,59 +1781,59 @@
         <v>2</v>
       </c>
       <c r="E10" s="3">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3">
         <v>5</v>
       </c>
-      <c r="F10" s="12">
+      <c r="G10" s="12">
         <f t="shared" si="0"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>11</v>
+      <c r="H10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>11</v>
+      <c r="K10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="M10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>11</v>
+      <c r="N10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="P10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Q10" s="10" t="s">
-        <v>12</v>
+      <c r="Q10" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="R10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="S10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="T10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="U10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="V10" s="10" t="s">
-        <v>12</v>
+      <c r="S10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="T10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="U10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="V10" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="W10" s="10" t="s">
         <v>12</v>
@@ -1823,39 +1847,39 @@
       <c r="Z10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AA10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE10" s="3">
         <v>5</v>
       </c>
-      <c r="AE10" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF10" s="12">
+      <c r="AF10" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="12">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="AG10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AI10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ10" s="9" t="s">
-        <v>11</v>
+      <c r="AH10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ10" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="AK10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AL10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN10" s="10" t="s">
-        <v>12</v>
+      <c r="AL10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN10" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="AO10" s="10" t="s">
         <v>12</v>
@@ -1863,21 +1887,24 @@
       <c r="AP10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AT10" s="3">
+      <c r="AQ10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU10" s="3">
         <v>5</v>
       </c>
-      <c r="AU10">
-        <v>2</v>
-      </c>
       <c r="AV10">
+        <v>2</v>
+      </c>
+      <c r="AW10">
         <v>4</v>
       </c>
-      <c r="AW10" s="12">
+      <c r="AX10" s="12">
         <f t="shared" si="3"/>
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.4">
       <c r="C11" s="3">
         <v>6</v>
       </c>
@@ -1885,44 +1912,44 @@
         <v>2</v>
       </c>
       <c r="E11" s="3">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3">
         <v>5</v>
       </c>
-      <c r="F11" s="12">
+      <c r="G11" s="12">
         <f t="shared" si="0"/>
         <v>0.85</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="H11" s="10" t="s">
         <v>12</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>12</v>
+      <c r="J11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="L11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="N11" s="10" t="s">
-        <v>12</v>
+      <c r="M11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="O11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="P11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q11" s="10" t="s">
-        <v>12</v>
+      <c r="P11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="R11" s="10" t="s">
         <v>12</v>
@@ -1951,19 +1978,19 @@
       <c r="Z11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AD11" s="3">
+      <c r="AA11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE11" s="3">
         <v>6</v>
       </c>
-      <c r="AE11" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF11" s="12">
+      <c r="AF11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="12">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="AG11" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="AH11" s="10" t="s">
         <v>12</v>
       </c>
@@ -1973,17 +2000,17 @@
       <c r="AJ11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AK11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AL11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN11" s="10" t="s">
-        <v>12</v>
+      <c r="AK11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN11" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="AO11" s="10" t="s">
         <v>12</v>
@@ -1991,21 +2018,24 @@
       <c r="AP11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AT11" s="3">
+      <c r="AQ11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU11" s="3">
         <v>6</v>
       </c>
-      <c r="AU11">
-        <v>2</v>
-      </c>
       <c r="AV11">
+        <v>2</v>
+      </c>
+      <c r="AW11">
         <v>4</v>
       </c>
-      <c r="AW11" s="12">
+      <c r="AX11" s="12">
         <f t="shared" si="3"/>
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.4">
       <c r="C12" s="3">
         <v>7</v>
       </c>
@@ -2013,17 +2043,17 @@
         <v>1</v>
       </c>
       <c r="E12" s="3">
-        <v>2</v>
-      </c>
-      <c r="F12" s="12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+      <c r="G12" s="12">
         <f t="shared" si="0"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="G12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>11</v>
+      <c r="H12" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>11</v>
@@ -2031,67 +2061,67 @@
       <c r="J12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>11</v>
+      <c r="K12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="M12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" s="10" t="s">
-        <v>12</v>
+      <c r="N12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="Q12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="R12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="S12" s="10" t="s">
-        <v>12</v>
+      <c r="R12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="T12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="U12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="V12" s="10" t="s">
-        <v>12</v>
+      <c r="U12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="V12" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="W12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="X12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y12" s="10" t="s">
-        <v>12</v>
+      <c r="X12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y12" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="Z12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AA12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE12" s="3">
         <v>7</v>
       </c>
-      <c r="AE12" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF12" s="12">
+      <c r="AF12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="12">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="AG12" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="AH12" s="10" t="s">
         <v>12</v>
       </c>
@@ -2101,14 +2131,14 @@
       <c r="AJ12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AK12" s="9" t="s">
-        <v>11</v>
+      <c r="AK12" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="AL12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AM12" s="10" t="s">
-        <v>12</v>
+      <c r="AM12" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="AN12" s="10" t="s">
         <v>12</v>
@@ -2119,21 +2149,24 @@
       <c r="AP12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AT12" s="3">
+      <c r="AQ12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU12" s="3">
         <v>7</v>
       </c>
-      <c r="AU12">
-        <v>2</v>
-      </c>
       <c r="AV12">
+        <v>2</v>
+      </c>
+      <c r="AW12">
         <v>3</v>
       </c>
-      <c r="AW12" s="12">
+      <c r="AX12" s="12">
         <f t="shared" si="3"/>
         <v>0.67500000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.4">
       <c r="C13" s="3">
         <v>8</v>
       </c>
@@ -2141,20 +2174,20 @@
         <v>1</v>
       </c>
       <c r="E13" s="3">
-        <v>2</v>
-      </c>
-      <c r="F13" s="12">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2</v>
+      </c>
+      <c r="G13" s="12">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="H13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="10" t="s">
-        <v>12</v>
+      <c r="I13" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="J13" s="10" t="s">
         <v>12</v>
@@ -2183,43 +2216,43 @@
       <c r="R13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="S13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="T13" s="10" t="s">
-        <v>12</v>
+      <c r="S13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="T13" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="U13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="V13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="W13" s="10" t="s">
-        <v>12</v>
+      <c r="V13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="W13" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="X13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Y13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD13" s="3">
+      <c r="Y13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE13" s="3">
         <v>8</v>
       </c>
-      <c r="AE13" s="3">
+      <c r="AF13" s="3">
         <v>3</v>
       </c>
-      <c r="AF13" s="12">
+      <c r="AG13" s="12">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="AG13" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="AH13" s="10" t="s">
         <v>12</v>
       </c>
@@ -2235,11 +2268,11 @@
       <c r="AL13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AM13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN13" s="10" t="s">
-        <v>12</v>
+      <c r="AM13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN13" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="AO13" s="10" t="s">
         <v>12</v>
@@ -2247,21 +2280,24 @@
       <c r="AP13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AT13" s="3">
+      <c r="AQ13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU13" s="3">
         <v>8</v>
       </c>
-      <c r="AU13">
-        <v>2</v>
-      </c>
       <c r="AV13">
+        <v>2</v>
+      </c>
+      <c r="AW13">
         <v>3</v>
       </c>
-      <c r="AW13" s="12">
+      <c r="AX13" s="12">
         <f t="shared" si="3"/>
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.4">
       <c r="C14" s="3">
         <v>9</v>
       </c>
@@ -2269,20 +2305,20 @@
         <v>1</v>
       </c>
       <c r="E14" s="3">
-        <v>2</v>
-      </c>
-      <c r="F14" s="12">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2</v>
+      </c>
+      <c r="G14" s="12">
         <f t="shared" si="0"/>
         <v>0.65</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="H14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="10" t="s">
-        <v>12</v>
+      <c r="I14" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="J14" s="10" t="s">
         <v>12</v>
@@ -2290,11 +2326,11 @@
       <c r="K14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>12</v>
+      <c r="L14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="N14" s="10" t="s">
         <v>12</v>
@@ -2311,43 +2347,43 @@
       <c r="R14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="S14" s="9" t="s">
-        <v>11</v>
+      <c r="S14" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="T14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="U14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="V14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="W14" s="10" t="s">
-        <v>12</v>
+      <c r="U14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="V14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="W14" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="X14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Y14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD14" s="3">
+      <c r="Y14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE14" s="3">
         <v>9</v>
       </c>
-      <c r="AE14" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF14" s="12">
+      <c r="AF14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG14" s="12">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="AG14" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="AH14" s="10" t="s">
         <v>12</v>
       </c>
@@ -2357,17 +2393,17 @@
       <c r="AJ14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AK14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AL14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN14" s="10" t="s">
-        <v>12</v>
+      <c r="AK14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN14" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="AO14" s="10" t="s">
         <v>12</v>
@@ -2375,21 +2411,24 @@
       <c r="AP14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AT14" s="3">
+      <c r="AQ14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU14" s="3">
         <v>9</v>
       </c>
-      <c r="AU14">
-        <v>2</v>
-      </c>
       <c r="AV14">
+        <v>2</v>
+      </c>
+      <c r="AW14">
         <v>3</v>
       </c>
-      <c r="AW14" s="12">
+      <c r="AX14" s="12">
         <f t="shared" si="3"/>
         <v>0.72500000000000009</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.4">
       <c r="C15" s="3">
         <v>10</v>
       </c>
@@ -2397,15 +2436,15 @@
         <v>1</v>
       </c>
       <c r="E15" s="3">
-        <v>2</v>
-      </c>
-      <c r="F15" s="12">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2</v>
+      </c>
+      <c r="G15" s="12">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="G15" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="H15" s="10" t="s">
         <v>12</v>
       </c>
@@ -2421,17 +2460,17 @@
       <c r="L15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="N15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="P15" s="10" t="s">
-        <v>12</v>
+      <c r="M15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="Q15" s="10" t="s">
         <v>12</v>
@@ -2463,19 +2502,19 @@
       <c r="Z15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AA15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE15" s="3">
         <v>10</v>
       </c>
-      <c r="AE15" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF15" s="12">
+      <c r="AF15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="12">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="AG15" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="AH15" s="10" t="s">
         <v>12</v>
       </c>
@@ -2491,11 +2530,11 @@
       <c r="AL15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AM15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN15" s="10" t="s">
-        <v>12</v>
+      <c r="AM15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN15" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="AO15" s="10" t="s">
         <v>12</v>
@@ -2503,105 +2542,107 @@
       <c r="AP15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AT15" s="3">
+      <c r="AQ15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU15" s="3">
         <v>10</v>
       </c>
-      <c r="AU15">
-        <v>2</v>
-      </c>
       <c r="AV15">
+        <v>2</v>
+      </c>
+      <c r="AW15">
         <v>3</v>
       </c>
-      <c r="AW15" s="12">
+      <c r="AX15" s="12">
         <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.4">
-      <c r="F16" s="12"/>
-      <c r="G16" s="16">
-        <f>(COUNTIF(G6:G15,"○"))/10</f>
+    <row r="16" spans="1:50" x14ac:dyDescent="0.4">
+      <c r="G16" s="12"/>
+      <c r="H16" s="16">
+        <f>(COUNTIF(H6:H15,"○"))/10</f>
         <v>0.6</v>
       </c>
-      <c r="H16" s="16">
-        <f t="shared" ref="H16:Z16" si="4">(COUNTIF(H6:H15,"○"))/10</f>
+      <c r="I16" s="16">
+        <f t="shared" ref="I16:AA16" si="4">(COUNTIF(I6:I15,"○"))/10</f>
         <v>0.4</v>
       </c>
-      <c r="I16" s="16">
+      <c r="J16" s="16">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="J16" s="16">
+      <c r="K16" s="16">
         <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
-      <c r="K16" s="16">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
       <c r="L16" s="16">
         <f t="shared" si="4"/>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="M16" s="16">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="N16" s="16">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O16" s="16">
         <f t="shared" si="4"/>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="P16" s="16">
         <f t="shared" si="4"/>
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="Q16" s="16">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="R16" s="16">
         <f t="shared" si="4"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="S16" s="16">
         <f t="shared" si="4"/>
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="T16" s="16">
         <f t="shared" si="4"/>
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="U16" s="16">
         <f t="shared" si="4"/>
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="V16" s="16">
         <f t="shared" si="4"/>
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="W16" s="16">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="X16" s="16">
         <f t="shared" si="4"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="Y16" s="16">
         <f t="shared" si="4"/>
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="Z16" s="16">
         <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="AA16" s="16">
+        <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
-      <c r="AF16" s="12"/>
-      <c r="AG16" s="10"/>
-      <c r="AH16" s="1"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="10"/>
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
@@ -2610,9 +2651,10 @@
       <c r="AN16" s="1"/>
       <c r="AO16" s="1"/>
       <c r="AP16" s="1"/>
-      <c r="AW16" s="12"/>
-    </row>
-    <row r="17" spans="2:49" x14ac:dyDescent="0.4">
+      <c r="AQ16" s="1"/>
+      <c r="AX16" s="12"/>
+    </row>
+    <row r="17" spans="2:50" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>3</v>
       </c>
@@ -2623,32 +2665,32 @@
         <v>2</v>
       </c>
       <c r="E17" s="3">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3">
         <v>4</v>
       </c>
-      <c r="F17" s="12">
+      <c r="G17" s="12">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="H17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="10" t="s">
-        <v>12</v>
+      <c r="I17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="L17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="M17" s="9" t="s">
-        <v>11</v>
+      <c r="M17" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="N17" s="9" t="s">
         <v>11</v>
@@ -2683,28 +2725,28 @@
       <c r="X17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Y17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC17" s="3" t="s">
+      <c r="Y17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AD17" s="3">
-        <v>1</v>
-      </c>
       <c r="AE17" s="3">
         <v>1</v>
       </c>
-      <c r="AF17" s="12">
+      <c r="AF17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG17" s="12">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="AG17" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="AH17" s="10" t="s">
         <v>12</v>
       </c>
@@ -2714,17 +2756,17 @@
       <c r="AJ17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AK17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AL17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN17" s="10" t="s">
-        <v>12</v>
+      <c r="AK17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN17" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="AO17" s="10" t="s">
         <v>12</v>
@@ -2732,24 +2774,27 @@
       <c r="AP17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AS17" s="3" t="s">
+      <c r="AQ17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AT17" s="3">
-        <v>1</v>
-      </c>
-      <c r="AU17">
-        <v>2</v>
+      <c r="AU17" s="3">
+        <v>1</v>
       </c>
       <c r="AV17">
+        <v>2</v>
+      </c>
+      <c r="AW17">
         <v>4</v>
       </c>
-      <c r="AW17" s="12">
-        <f t="shared" ref="AW17:AW30" si="5">(F17+AF17)/2</f>
+      <c r="AX17" s="12">
+        <f t="shared" ref="AX17:AX30" si="5">(G17+AG17)/2</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="2:49" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C18" s="3">
         <v>2</v>
       </c>
@@ -2757,15 +2802,15 @@
         <v>2</v>
       </c>
       <c r="E18" s="3">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3">
         <v>4</v>
       </c>
-      <c r="F18" s="12">
+      <c r="G18" s="12">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="H18" s="9" t="s">
         <v>11</v>
       </c>
@@ -2775,17 +2820,17 @@
       <c r="J18" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N18" s="9" t="s">
-        <v>11</v>
+      <c r="K18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="O18" s="9" t="s">
         <v>11</v>
@@ -2814,28 +2859,28 @@
       <c r="W18" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="X18" s="10" t="s">
-        <v>12</v>
+      <c r="X18" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="Y18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Z18" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD18" s="3">
-        <v>2</v>
+      <c r="Z18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA18" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="AE18" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF18" s="3">
         <v>3</v>
       </c>
-      <c r="AF18" s="12">
+      <c r="AG18" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AG18" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="AH18" s="10" t="s">
         <v>12</v>
       </c>
@@ -2863,21 +2908,24 @@
       <c r="AP18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AT18" s="3">
-        <v>2</v>
-      </c>
-      <c r="AU18">
+      <c r="AQ18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU18" s="3">
         <v>2</v>
       </c>
       <c r="AV18">
+        <v>2</v>
+      </c>
+      <c r="AW18">
         <v>4</v>
       </c>
-      <c r="AW18" s="12">
+      <c r="AX18" s="12">
         <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="19" spans="2:49" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C19" s="3">
         <v>3</v>
       </c>
@@ -2887,13 +2935,13 @@
       <c r="E19" s="3">
         <v>1</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="12">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="G19" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="H19" s="9" t="s">
         <v>11</v>
       </c>
@@ -2903,17 +2951,17 @@
       <c r="J19" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N19" s="9" t="s">
-        <v>11</v>
+      <c r="K19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="O19" s="9" t="s">
         <v>11</v>
@@ -2942,42 +2990,42 @@
       <c r="W19" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="X19" s="10" t="s">
-        <v>12</v>
+      <c r="X19" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="Y19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Z19" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD19" s="3">
-        <v>3</v>
+      <c r="Z19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA19" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="AE19" s="3">
         <v>3</v>
       </c>
-      <c r="AF19" s="12">
+      <c r="AF19" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG19" s="12">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="AG19" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="AH19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AI19" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK19" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AL19" s="10" t="s">
-        <v>12</v>
+      <c r="AI19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL19" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="AM19" s="10" t="s">
         <v>12</v>
@@ -2991,21 +3039,24 @@
       <c r="AP19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AT19" s="3">
+      <c r="AQ19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU19" s="3">
         <v>3</v>
       </c>
-      <c r="AU19">
-        <v>2</v>
-      </c>
       <c r="AV19">
+        <v>2</v>
+      </c>
+      <c r="AW19">
         <v>3</v>
       </c>
-      <c r="AW19" s="12">
+      <c r="AX19" s="12">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="2:49" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C20" s="3">
         <v>4</v>
       </c>
@@ -3013,29 +3064,29 @@
         <v>2</v>
       </c>
       <c r="E20" s="3">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3">
         <v>5</v>
       </c>
-      <c r="F20" s="12">
+      <c r="G20" s="12">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>12</v>
+      <c r="H20" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="9" t="s">
-        <v>11</v>
+      <c r="J20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="M20" s="9" t="s">
         <v>11</v>
@@ -3049,11 +3100,11 @@
       <c r="P20" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Q20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="R20" s="9" t="s">
-        <v>11</v>
+      <c r="Q20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="S20" s="9" t="s">
         <v>11</v>
@@ -3064,34 +3115,34 @@
       <c r="U20" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="V20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="W20" s="9" t="s">
-        <v>11</v>
+      <c r="V20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="W20" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="X20" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Y20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD20" s="3">
+      <c r="Y20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE20" s="3">
         <v>4</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>3</v>
       </c>
-      <c r="AF20" s="12">
+      <c r="AG20" s="12">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="AG20" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="AH20" s="10" t="s">
         <v>12</v>
       </c>
@@ -3107,11 +3158,11 @@
       <c r="AL20" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AM20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN20" s="10" t="s">
-        <v>12</v>
+      <c r="AM20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN20" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="AO20" s="10" t="s">
         <v>12</v>
@@ -3119,21 +3170,24 @@
       <c r="AP20" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AT20" s="3">
+      <c r="AQ20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU20" s="3">
         <v>4</v>
       </c>
-      <c r="AU20">
-        <v>2</v>
-      </c>
       <c r="AV20">
+        <v>2</v>
+      </c>
+      <c r="AW20">
         <v>4</v>
       </c>
-      <c r="AW20" s="12">
+      <c r="AX20" s="12">
         <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="21" spans="2:49" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C21" s="3">
         <v>5</v>
       </c>
@@ -3141,35 +3195,35 @@
         <v>1</v>
       </c>
       <c r="E21" s="3">
-        <v>2</v>
-      </c>
-      <c r="F21" s="12">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2</v>
+      </c>
+      <c r="G21" s="12">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="H21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L21" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N21" s="9" t="s">
-        <v>11</v>
+      <c r="I21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="O21" s="9" t="s">
         <v>11</v>
@@ -3192,34 +3246,34 @@
       <c r="U21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="V21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="W21" s="9" t="s">
-        <v>11</v>
+      <c r="V21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="W21" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="X21" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Y21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z21" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD21" s="3">
+      <c r="Y21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE21" s="3">
         <v>5</v>
       </c>
-      <c r="AE21" s="3">
-        <v>2</v>
-      </c>
-      <c r="AF21" s="12">
+      <c r="AF21" s="3">
+        <v>2</v>
+      </c>
+      <c r="AG21" s="12">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="AG21" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="AH21" s="10" t="s">
         <v>12</v>
       </c>
@@ -3229,11 +3283,11 @@
       <c r="AJ21" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AK21" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AL21" s="10" t="s">
-        <v>12</v>
+      <c r="AK21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL21" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="AM21" s="10" t="s">
         <v>12</v>
@@ -3247,21 +3301,24 @@
       <c r="AP21" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AT21" s="3">
+      <c r="AQ21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU21" s="3">
         <v>5</v>
       </c>
-      <c r="AU21">
-        <v>2</v>
-      </c>
       <c r="AV21">
+        <v>2</v>
+      </c>
+      <c r="AW21">
         <v>3</v>
       </c>
-      <c r="AW21" s="12">
+      <c r="AX21" s="12">
         <f t="shared" si="5"/>
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="22" spans="2:49" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C22" s="3">
         <v>6</v>
       </c>
@@ -3269,15 +3326,15 @@
         <v>2</v>
       </c>
       <c r="E22" s="3">
+        <v>2</v>
+      </c>
+      <c r="F22" s="3">
         <v>4</v>
       </c>
-      <c r="F22" s="12">
+      <c r="G22" s="12">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="H22" s="9" t="s">
         <v>11</v>
       </c>
@@ -3320,14 +3377,14 @@
       <c r="U22" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="V22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="W22" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="X22" s="10" t="s">
-        <v>12</v>
+      <c r="V22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="W22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="X22" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="Y22" s="10" t="s">
         <v>12</v>
@@ -3335,19 +3392,19 @@
       <c r="Z22" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AA22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE22" s="3">
         <v>6</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>3</v>
       </c>
-      <c r="AF22" s="12">
+      <c r="AG22" s="12">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="AG22" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="AH22" s="10" t="s">
         <v>12</v>
       </c>
@@ -3357,11 +3414,11 @@
       <c r="AJ22" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AK22" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AL22" s="10" t="s">
-        <v>12</v>
+      <c r="AK22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL22" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="AM22" s="10" t="s">
         <v>12</v>
@@ -3375,21 +3432,24 @@
       <c r="AP22" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AT22" s="3">
+      <c r="AQ22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU22" s="3">
         <v>6</v>
       </c>
-      <c r="AU22">
-        <v>2</v>
-      </c>
       <c r="AV22">
+        <v>2</v>
+      </c>
+      <c r="AW22">
         <v>4</v>
       </c>
-      <c r="AW22" s="12">
+      <c r="AX22" s="12">
         <f t="shared" si="5"/>
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="23" spans="2:49" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C23" s="3">
         <v>7</v>
       </c>
@@ -3399,21 +3459,21 @@
       <c r="E23" s="3">
         <v>1</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="12">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="G23" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="H23" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>11</v>
+      <c r="I23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="K23" s="9" t="s">
         <v>11</v>
@@ -3433,11 +3493,11 @@
       <c r="P23" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Q23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="R23" s="9" t="s">
-        <v>11</v>
+      <c r="Q23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R23" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="S23" s="9" t="s">
         <v>11</v>
@@ -3448,34 +3508,34 @@
       <c r="U23" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="V23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="W23" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="X23" s="10" t="s">
-        <v>12</v>
+      <c r="V23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="W23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="X23" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="Y23" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Z23" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD23" s="3">
+      <c r="Z23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE23" s="3">
         <v>7</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>3</v>
       </c>
-      <c r="AF23" s="12">
+      <c r="AG23" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AG23" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="AH23" s="10" t="s">
         <v>12</v>
       </c>
@@ -3503,21 +3563,24 @@
       <c r="AP23" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AT23" s="3">
+      <c r="AQ23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU23" s="3">
         <v>7</v>
       </c>
-      <c r="AU23">
-        <v>2</v>
-      </c>
       <c r="AV23">
+        <v>2</v>
+      </c>
+      <c r="AW23">
         <v>3</v>
       </c>
-      <c r="AW23" s="12">
+      <c r="AX23" s="12">
         <f t="shared" si="5"/>
         <v>0.625</v>
       </c>
     </row>
-    <row r="24" spans="2:49" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C24" s="3">
         <v>8</v>
       </c>
@@ -3525,23 +3588,23 @@
         <v>1</v>
       </c>
       <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
         <v>3</v>
       </c>
-      <c r="F24" s="12">
+      <c r="G24" s="12">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="G24" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="H24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>11</v>
+      <c r="I24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="K24" s="9" t="s">
         <v>11</v>
@@ -3549,11 +3612,11 @@
       <c r="L24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N24" s="9" t="s">
-        <v>11</v>
+      <c r="M24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="O24" s="9" t="s">
         <v>11</v>
@@ -3561,11 +3624,11 @@
       <c r="P24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Q24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="R24" s="9" t="s">
-        <v>11</v>
+      <c r="Q24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R24" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="S24" s="9" t="s">
         <v>11</v>
@@ -3576,34 +3639,34 @@
       <c r="U24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="V24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="W24" s="9" t="s">
-        <v>11</v>
+      <c r="V24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="W24" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="X24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Y24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z24" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD24" s="3">
+      <c r="Y24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE24" s="3">
         <v>8</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>3</v>
       </c>
-      <c r="AF24" s="12">
+      <c r="AG24" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AG24" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="AH24" s="10" t="s">
         <v>12</v>
       </c>
@@ -3631,21 +3694,24 @@
       <c r="AP24" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AT24" s="3">
+      <c r="AQ24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU24" s="3">
         <v>8</v>
       </c>
-      <c r="AU24">
-        <v>2</v>
-      </c>
       <c r="AV24">
+        <v>2</v>
+      </c>
+      <c r="AW24">
         <v>3</v>
       </c>
-      <c r="AW24" s="12">
+      <c r="AX24" s="12">
         <f t="shared" si="5"/>
         <v>0.625</v>
       </c>
     </row>
-    <row r="25" spans="2:49" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C25" s="3">
         <v>9</v>
       </c>
@@ -3653,20 +3719,20 @@
         <v>1</v>
       </c>
       <c r="E25" s="3">
-        <v>2</v>
-      </c>
-      <c r="F25" s="12">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
+        <v>2</v>
+      </c>
+      <c r="G25" s="12">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="G25" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="H25" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I25" s="9" t="s">
-        <v>11</v>
+      <c r="I25" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>11</v>
@@ -3674,14 +3740,14 @@
       <c r="K25" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L25" s="10" t="s">
-        <v>12</v>
+      <c r="L25" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="M25" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N25" s="9" t="s">
-        <v>11</v>
+      <c r="N25" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="O25" s="9" t="s">
         <v>11</v>
@@ -3719,19 +3785,19 @@
       <c r="Z25" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AD25" s="3">
+      <c r="AA25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE25" s="3">
         <v>9</v>
       </c>
-      <c r="AE25" s="3">
+      <c r="AF25" s="3">
         <v>3</v>
       </c>
-      <c r="AF25" s="12">
+      <c r="AG25" s="12">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="AG25" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="AH25" s="10" t="s">
         <v>12</v>
       </c>
@@ -3747,11 +3813,11 @@
       <c r="AL25" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AM25" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN25" s="10" t="s">
-        <v>12</v>
+      <c r="AM25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN25" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="AO25" s="10" t="s">
         <v>12</v>
@@ -3759,21 +3825,24 @@
       <c r="AP25" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AT25" s="3">
+      <c r="AQ25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU25" s="3">
         <v>9</v>
       </c>
-      <c r="AU25">
-        <v>2</v>
-      </c>
       <c r="AV25">
+        <v>2</v>
+      </c>
+      <c r="AW25">
         <v>3</v>
       </c>
-      <c r="AW25" s="12">
+      <c r="AX25" s="12">
         <f t="shared" si="5"/>
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="26" spans="2:49" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C26" s="3">
         <v>10</v>
       </c>
@@ -3783,13 +3852,13 @@
       <c r="E26" s="3">
         <v>1</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="12">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="G26" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="H26" s="9" t="s">
         <v>11</v>
       </c>
@@ -3808,11 +3877,11 @@
       <c r="M26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N26" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O26" s="9" t="s">
-        <v>11</v>
+      <c r="N26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O26" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="P26" s="9" t="s">
         <v>11</v>
@@ -3832,11 +3901,11 @@
       <c r="U26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="V26" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="W26" s="9" t="s">
-        <v>11</v>
+      <c r="V26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="W26" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="X26" s="9" t="s">
         <v>11</v>
@@ -3847,27 +3916,27 @@
       <c r="Z26" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AA26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE26" s="3">
         <v>10</v>
       </c>
-      <c r="AE26" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF26" s="12">
+      <c r="AF26" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG26" s="12">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="AG26" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="AH26" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AI26" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ26" s="10" t="s">
-        <v>12</v>
+      <c r="AI26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ26" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="AK26" s="10" t="s">
         <v>12</v>
@@ -3887,21 +3956,24 @@
       <c r="AP26" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AT26" s="3">
+      <c r="AQ26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU26" s="3">
         <v>10</v>
       </c>
-      <c r="AU26">
-        <v>2</v>
-      </c>
       <c r="AV26">
+        <v>2</v>
+      </c>
+      <c r="AW26">
         <v>3</v>
       </c>
-      <c r="AW26" s="12">
+      <c r="AX26" s="12">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="2:49" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C27" s="3">
         <v>11</v>
       </c>
@@ -3909,23 +3981,23 @@
         <v>2</v>
       </c>
       <c r="E27" s="3">
+        <v>2</v>
+      </c>
+      <c r="F27" s="3">
         <v>4</v>
       </c>
-      <c r="F27" s="12">
+      <c r="G27" s="12">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="G27" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="H27" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I27" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>11</v>
+      <c r="I27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="K27" s="9" t="s">
         <v>11</v>
@@ -3975,19 +4047,19 @@
       <c r="Z27" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AA27" s="9" t="s">
         <v>11</v>
       </c>
       <c r="AE27" s="3">
+        <v>11</v>
+      </c>
+      <c r="AF27" s="3">
         <v>3</v>
       </c>
-      <c r="AF27" s="12">
+      <c r="AG27" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AG27" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="AH27" s="10" t="s">
         <v>12</v>
       </c>
@@ -4015,21 +4087,24 @@
       <c r="AP27" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AT27" s="3">
-        <v>11</v>
-      </c>
-      <c r="AU27">
-        <v>2</v>
+      <c r="AQ27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU27" s="3">
+        <v>11</v>
       </c>
       <c r="AV27">
+        <v>2</v>
+      </c>
+      <c r="AW27">
         <v>4</v>
       </c>
-      <c r="AW27" s="12">
+      <c r="AX27" s="12">
         <f t="shared" si="5"/>
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="28" spans="2:49" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C28" s="3">
         <v>12</v>
       </c>
@@ -4037,26 +4112,26 @@
         <v>2</v>
       </c>
       <c r="E28" s="3">
+        <v>2</v>
+      </c>
+      <c r="F28" s="3">
         <v>4</v>
       </c>
-      <c r="F28" s="12">
+      <c r="G28" s="12">
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
-      <c r="G28" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="H28" s="9" t="s">
         <v>11</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J28" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>11</v>
+      <c r="J28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="L28" s="9" t="s">
         <v>11</v>
@@ -4073,11 +4148,11 @@
       <c r="P28" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Q28" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="R28" s="9" t="s">
-        <v>11</v>
+      <c r="Q28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R28" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="S28" s="9" t="s">
         <v>11</v>
@@ -4097,25 +4172,25 @@
       <c r="X28" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Y28" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z28" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD28" s="3">
-        <v>12</v>
+      <c r="Y28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA28" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="AE28" s="3">
+        <v>12</v>
+      </c>
+      <c r="AF28" s="3">
         <v>3</v>
       </c>
-      <c r="AF28" s="12">
+      <c r="AG28" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AG28" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="AH28" s="10" t="s">
         <v>12</v>
       </c>
@@ -4143,21 +4218,24 @@
       <c r="AP28" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AT28" s="3">
-        <v>12</v>
-      </c>
-      <c r="AU28">
-        <v>2</v>
+      <c r="AQ28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU28" s="3">
+        <v>12</v>
       </c>
       <c r="AV28">
+        <v>2</v>
+      </c>
+      <c r="AW28">
         <v>4</v>
       </c>
-      <c r="AW28" s="12">
+      <c r="AX28" s="12">
         <f t="shared" si="5"/>
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="29" spans="2:49" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C29" s="3">
         <v>13</v>
       </c>
@@ -4165,15 +4243,15 @@
         <v>2</v>
       </c>
       <c r="E29" s="3">
+        <v>3</v>
+      </c>
+      <c r="F29" s="3">
         <v>5</v>
       </c>
-      <c r="F29" s="12">
+      <c r="G29" s="12">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="G29" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="H29" s="9" t="s">
         <v>11</v>
       </c>
@@ -4216,34 +4294,34 @@
       <c r="U29" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="V29" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="W29" s="9" t="s">
-        <v>11</v>
+      <c r="V29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="W29" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="X29" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Y29" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z29" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD29" s="3">
+      <c r="Y29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE29" s="3">
         <v>13</v>
       </c>
-      <c r="AE29" s="3">
-        <v>2</v>
-      </c>
-      <c r="AF29" s="12">
+      <c r="AF29" s="3">
+        <v>2</v>
+      </c>
+      <c r="AG29" s="12">
         <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
-      <c r="AG29" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="AH29" s="10" t="s">
         <v>12</v>
       </c>
@@ -4253,39 +4331,42 @@
       <c r="AJ29" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AK29" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AL29" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM29" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN29" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO29" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AP29" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AT29" s="3">
+      <c r="AK29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU29" s="3">
         <v>13</v>
       </c>
-      <c r="AU29">
-        <v>2</v>
-      </c>
       <c r="AV29">
+        <v>2</v>
+      </c>
+      <c r="AW29">
         <v>4</v>
       </c>
-      <c r="AW29" s="12">
+      <c r="AX29" s="12">
         <f t="shared" si="5"/>
         <v>0.39999999999999997</v>
       </c>
     </row>
-    <row r="30" spans="2:49" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C30" s="3">
         <v>14</v>
       </c>
@@ -4293,15 +4374,15 @@
         <v>2</v>
       </c>
       <c r="E30" s="3">
+        <v>3</v>
+      </c>
+      <c r="F30" s="3">
         <v>5</v>
       </c>
-      <c r="F30" s="12">
+      <c r="G30" s="12">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="G30" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="H30" s="9" t="s">
         <v>11</v>
       </c>
@@ -4350,28 +4431,28 @@
       <c r="W30" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="X30" s="10" t="s">
-        <v>12</v>
+      <c r="X30" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="Y30" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Z30" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD30" s="3">
+      <c r="Z30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA30" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE30" s="3">
         <v>14</v>
       </c>
-      <c r="AE30" s="3">
-        <v>2</v>
-      </c>
-      <c r="AF30" s="12">
+      <c r="AF30" s="3">
+        <v>2</v>
+      </c>
+      <c r="AG30" s="12">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="AG30" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="AH30" s="10" t="s">
         <v>12</v>
       </c>
@@ -4381,11 +4462,11 @@
       <c r="AJ30" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AK30" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AL30" s="10" t="s">
-        <v>12</v>
+      <c r="AK30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL30" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="AM30" s="10" t="s">
         <v>12</v>
@@ -4399,57 +4480,56 @@
       <c r="AP30" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AT30" s="3">
+      <c r="AQ30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU30" s="3">
         <v>14</v>
       </c>
-      <c r="AU30">
-        <v>2</v>
-      </c>
       <c r="AV30">
+        <v>2</v>
+      </c>
+      <c r="AW30">
         <v>4</v>
       </c>
-      <c r="AW30" s="12">
+      <c r="AX30" s="12">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="2:49" x14ac:dyDescent="0.4">
-      <c r="F31" s="5"/>
-      <c r="G31" s="15">
-        <f>(COUNTIF(G17:G30,"○"))/14</f>
+    <row r="31" spans="2:50" x14ac:dyDescent="0.4">
+      <c r="G31" s="5"/>
+      <c r="H31" s="15">
+        <f>(COUNTIF(H17:H30,"○"))/14</f>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="H31" s="15">
-        <f t="shared" ref="H31:Z31" si="6">(COUNTIF(H17:H30,"○"))/14</f>
+      <c r="I31" s="15">
+        <f t="shared" ref="I31:AA31" si="6">(COUNTIF(I17:I30,"○"))/14</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="I31" s="15">
+      <c r="J31" s="15">
         <f t="shared" si="6"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="J31" s="15">
+      <c r="K31" s="15">
         <f t="shared" si="6"/>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="K31" s="15">
+      <c r="L31" s="15">
         <f t="shared" si="6"/>
         <v>0.35714285714285715</v>
       </c>
-      <c r="L31" s="15">
+      <c r="M31" s="15">
         <f t="shared" si="6"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="M31" s="15">
+      <c r="N31" s="15">
         <f t="shared" si="6"/>
         <v>0.35714285714285715</v>
       </c>
-      <c r="N31" s="15">
+      <c r="O31" s="15">
         <f t="shared" si="6"/>
         <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="O31" s="15">
-        <f t="shared" si="6"/>
-        <v>0</v>
       </c>
       <c r="P31" s="15">
         <f t="shared" si="6"/>
@@ -4457,14 +4537,14 @@
       </c>
       <c r="Q31" s="15">
         <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="15">
+        <f t="shared" si="6"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="R31" s="15">
-        <f>(COUNTIF(R17:R30,"○"))/14</f>
-        <v>0</v>
-      </c>
       <c r="S31" s="15">
-        <f t="shared" si="6"/>
+        <f>(COUNTIF(S17:S30,"○"))/14</f>
         <v>0</v>
       </c>
       <c r="T31" s="15">
@@ -4477,40 +4557,41 @@
       </c>
       <c r="V31" s="15">
         <f t="shared" si="6"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W31" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X31" s="15">
         <f t="shared" si="6"/>
-        <v>0.35714285714285715</v>
+        <v>0</v>
       </c>
       <c r="Y31" s="15">
         <f t="shared" si="6"/>
-        <v>0.7857142857142857</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="Z31" s="15">
         <f t="shared" si="6"/>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="AA31" s="15">
+        <f t="shared" si="6"/>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="AC31" s="3" t="s">
+      <c r="AD31" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AD31" s="3">
-        <v>1</v>
-      </c>
       <c r="AE31" s="3">
-        <v>2</v>
-      </c>
-      <c r="AF31" s="12">
+        <v>1</v>
+      </c>
+      <c r="AF31" s="3">
+        <v>2</v>
+      </c>
+      <c r="AG31" s="12">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="AG31" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="AH31" s="10" t="s">
         <v>12</v>
       </c>
@@ -4526,11 +4607,11 @@
       <c r="AL31" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AM31" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN31" s="10" t="s">
-        <v>12</v>
+      <c r="AM31" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN31" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="AO31" s="10" t="s">
         <v>12</v>
@@ -4538,38 +4619,38 @@
       <c r="AP31" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AS31" s="3" t="s">
+      <c r="AQ31" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT31" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AT31" s="3">
-        <v>1</v>
-      </c>
-      <c r="AU31">
+      <c r="AU31" s="3">
         <v>1</v>
       </c>
       <c r="AV31">
         <v>1</v>
       </c>
-      <c r="AW31" s="12">
-        <f>AF31</f>
+      <c r="AW31">
+        <v>1</v>
+      </c>
+      <c r="AX31" s="12">
+        <f>AG31</f>
         <v>0.9</v>
       </c>
     </row>
-    <row r="32" spans="2:49" x14ac:dyDescent="0.4">
-      <c r="F32" s="12"/>
-      <c r="AD32" s="3">
-        <v>2</v>
-      </c>
+    <row r="32" spans="2:50" x14ac:dyDescent="0.4">
+      <c r="G32" s="12"/>
       <c r="AE32" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF32" s="3">
         <v>3</v>
       </c>
-      <c r="AF32" s="12">
+      <c r="AG32" s="12">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="AG32" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="AH32" s="10" t="s">
         <v>12</v>
       </c>
@@ -4579,11 +4660,11 @@
       <c r="AJ32" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AK32" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AL32" s="10" t="s">
-        <v>12</v>
+      <c r="AK32" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL32" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="AM32" s="10" t="s">
         <v>12</v>
@@ -4591,43 +4672,43 @@
       <c r="AN32" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AO32" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AP32" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AT32" s="3">
-        <v>2</v>
-      </c>
-      <c r="AU32">
-        <v>1</v>
+      <c r="AO32" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP32" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ32" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU32" s="3">
+        <v>2</v>
       </c>
       <c r="AV32">
-        <v>2</v>
-      </c>
-      <c r="AW32" s="12">
-        <f t="shared" ref="AW32:AW36" si="7">AF32</f>
+        <v>1</v>
+      </c>
+      <c r="AW32">
+        <v>2</v>
+      </c>
+      <c r="AX32" s="12">
+        <f t="shared" ref="AX32:AX36" si="7">AG32</f>
         <v>0.8</v>
       </c>
     </row>
-    <row r="33" spans="29:49" x14ac:dyDescent="0.4">
-      <c r="AC33" s="3" t="s">
+    <row r="33" spans="30:50" x14ac:dyDescent="0.4">
+      <c r="AD33" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AD33" s="3">
-        <v>1</v>
-      </c>
       <c r="AE33" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF33" s="3">
         <v>3</v>
       </c>
-      <c r="AF33" s="12">
+      <c r="AG33" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AG33" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="AH33" s="10" t="s">
         <v>12</v>
       </c>
@@ -4655,37 +4736,37 @@
       <c r="AP33" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AS33" s="3" t="s">
+      <c r="AQ33" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT33" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AT33" s="3">
-        <v>1</v>
-      </c>
-      <c r="AU33">
+      <c r="AU33" s="3">
         <v>1</v>
       </c>
       <c r="AV33">
-        <v>2</v>
-      </c>
-      <c r="AW33" s="12">
+        <v>1</v>
+      </c>
+      <c r="AW33">
+        <v>2</v>
+      </c>
+      <c r="AX33" s="12">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="29:49" x14ac:dyDescent="0.4">
-      <c r="AD34" s="3">
-        <v>2</v>
-      </c>
+    <row r="34" spans="30:50" x14ac:dyDescent="0.4">
       <c r="AE34" s="3">
         <v>2</v>
       </c>
-      <c r="AF34" s="12">
+      <c r="AF34" s="3">
+        <v>2</v>
+      </c>
+      <c r="AG34" s="12">
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-      <c r="AG34" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="AH34" s="10" t="s">
         <v>12</v>
       </c>
@@ -4701,11 +4782,11 @@
       <c r="AL34" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AM34" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN34" s="10" t="s">
-        <v>12</v>
+      <c r="AM34" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN34" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="AO34" s="10" t="s">
         <v>12</v>
@@ -4713,34 +4794,34 @@
       <c r="AP34" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AT34" s="3">
-        <v>2</v>
-      </c>
-      <c r="AU34">
-        <v>1</v>
+      <c r="AQ34" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU34" s="3">
+        <v>2</v>
       </c>
       <c r="AV34">
         <v>1</v>
       </c>
-      <c r="AW34" s="12">
+      <c r="AW34">
+        <v>1</v>
+      </c>
+      <c r="AX34" s="12">
         <f t="shared" si="7"/>
         <v>0.9</v>
       </c>
     </row>
-    <row r="35" spans="29:49" x14ac:dyDescent="0.4">
-      <c r="AD35" s="3">
+    <row r="35" spans="30:50" x14ac:dyDescent="0.4">
+      <c r="AE35" s="3">
         <v>3</v>
       </c>
-      <c r="AE35" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF35" s="12">
+      <c r="AF35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG35" s="12">
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="AG35" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="AH35" s="10" t="s">
         <v>12</v>
       </c>
@@ -4762,43 +4843,43 @@
       <c r="AN35" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AO35" s="9" t="s">
-        <v>11</v>
+      <c r="AO35" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="AP35" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AT35" s="3">
+      <c r="AQ35" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU35" s="3">
         <v>3</v>
       </c>
-      <c r="AU35">
-        <v>1</v>
-      </c>
       <c r="AV35">
-        <v>2</v>
-      </c>
-      <c r="AW35" s="12">
+        <v>1</v>
+      </c>
+      <c r="AW35">
+        <v>2</v>
+      </c>
+      <c r="AX35" s="12">
         <f t="shared" si="7"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="36" spans="29:49" x14ac:dyDescent="0.4">
-      <c r="AC36" s="3" t="s">
+    <row r="36" spans="30:50" x14ac:dyDescent="0.4">
+      <c r="AD36" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AD36" s="3">
-        <v>1</v>
-      </c>
       <c r="AE36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF36" s="3">
         <v>3</v>
       </c>
-      <c r="AF36" s="12">
+      <c r="AG36" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AG36" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="AH36" s="10" t="s">
         <v>12</v>
       </c>
@@ -4826,79 +4907,82 @@
       <c r="AP36" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AS36" s="3" t="s">
+      <c r="AQ36" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT36" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AT36" s="3">
-        <v>1</v>
-      </c>
-      <c r="AU36">
+      <c r="AU36" s="3">
         <v>1</v>
       </c>
       <c r="AV36">
-        <v>2</v>
-      </c>
-      <c r="AW36" s="12">
+        <v>1</v>
+      </c>
+      <c r="AW36">
+        <v>2</v>
+      </c>
+      <c r="AX36" s="12">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="29:49" x14ac:dyDescent="0.4">
-      <c r="AG37" s="15">
-        <f>(COUNTIF(AG3:AG36,"○")/32)</f>
-        <v>1</v>
-      </c>
+    <row r="37" spans="30:50" x14ac:dyDescent="0.4">
       <c r="AH37" s="15">
-        <f t="shared" ref="AH37:AP37" si="8">(COUNTIF(AH3:AH36,"○")/32)</f>
+        <f>(COUNTIF(AH3:AH36,"○")/32)</f>
+        <v>1</v>
+      </c>
+      <c r="AI37" s="15">
+        <f t="shared" ref="AI37:AQ37" si="8">(COUNTIF(AI3:AI36,"○")/32)</f>
         <v>0.9375</v>
       </c>
-      <c r="AI37" s="15">
+      <c r="AJ37" s="15">
         <f t="shared" si="8"/>
         <v>0.9375</v>
       </c>
-      <c r="AJ37" s="15">
+      <c r="AK37" s="15">
         <f t="shared" si="8"/>
         <v>0.96875</v>
       </c>
-      <c r="AK37" s="15">
+      <c r="AL37" s="15">
         <f t="shared" si="8"/>
         <v>0.59375</v>
       </c>
-      <c r="AL37" s="15">
+      <c r="AM37" s="15">
         <f t="shared" si="8"/>
         <v>0.875</v>
       </c>
-      <c r="AM37" s="15">
+      <c r="AN37" s="15">
         <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
-      <c r="AN37" s="15">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
       <c r="AO37" s="15">
         <f t="shared" si="8"/>
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AP37" s="15">
         <f t="shared" si="8"/>
+        <v>0.875</v>
+      </c>
+      <c r="AQ37" s="15">
+        <f t="shared" si="8"/>
         <v>0.9375</v>
       </c>
-      <c r="AU37"/>
       <c r="AV37"/>
-    </row>
-    <row r="38" spans="29:49" x14ac:dyDescent="0.4">
-      <c r="AU38"/>
+      <c r="AW37"/>
+    </row>
+    <row r="38" spans="30:50" x14ac:dyDescent="0.4">
       <c r="AV38"/>
-      <c r="AW38" s="12"/>
-    </row>
-    <row r="39" spans="29:49" x14ac:dyDescent="0.4">
-      <c r="AF39" s="12"/>
+      <c r="AW38"/>
+      <c r="AX38" s="12"/>
+    </row>
+    <row r="39" spans="30:50" x14ac:dyDescent="0.4">
+      <c r="AG39" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="G1:Z1"/>
-    <mergeCell ref="AG1:AP1"/>
+    <mergeCell ref="H1:AA1"/>
+    <mergeCell ref="AH1:AQ1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4908,10 +4992,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88CCFB4E-3D94-4A97-83BE-04827B31FA43}">
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5143,61 +5227,61 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B5" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
       </c>
       <c r="D5" s="12">
-        <v>0.26</v>
+        <v>0.52</v>
       </c>
       <c r="E5">
-        <v>4540.5</v>
+        <v>4115.8571430000002</v>
       </c>
       <c r="F5" s="18">
-        <v>232199</v>
+        <v>937000</v>
       </c>
       <c r="G5">
-        <v>304.34769</v>
+        <v>242.50248099999999</v>
       </c>
       <c r="H5">
-        <v>1301.720761</v>
+        <v>3546.0511310000002</v>
       </c>
       <c r="I5">
-        <v>1284.720399</v>
+        <v>1140.055169</v>
       </c>
       <c r="J5">
-        <v>7237.9947759999995</v>
+        <v>44413.76758</v>
       </c>
       <c r="K5">
-        <v>670</v>
+        <v>637.14285700000005</v>
       </c>
       <c r="L5">
-        <v>17562</v>
+        <v>31479.516479999998</v>
       </c>
       <c r="M5">
-        <v>1184.946228</v>
+        <v>983.46531900000002</v>
       </c>
       <c r="N5">
-        <v>16789.575968000001</v>
+        <v>44613.387069999997</v>
       </c>
       <c r="O5">
-        <v>292023.93030000001</v>
+        <v>218988.7599</v>
       </c>
       <c r="P5" s="18">
-        <v>352503200</v>
+        <v>3100000000</v>
       </c>
       <c r="Q5">
-        <v>428.31832700000001</v>
+        <v>474.34010899999998</v>
       </c>
       <c r="R5">
-        <v>2947.9414470000002</v>
+        <v>13002.227989999999</v>
       </c>
       <c r="S5">
-        <v>-0.13603100000000001</v>
+        <v>-8.9724999999999999E-2</v>
       </c>
       <c r="T5">
-        <v>7.0330000000000002E-3</v>
+        <v>7.7279999999999996E-3</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.4">
@@ -5206,55 +5290,55 @@
         <v>2</v>
       </c>
       <c r="D6" s="12">
-        <v>0.55000000000000004</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E6">
-        <v>4658</v>
+        <v>4866.7142860000004</v>
       </c>
       <c r="F6" s="18">
-        <v>562532.4</v>
+        <v>734000</v>
       </c>
       <c r="G6">
-        <v>197.15180699999999</v>
+        <v>145.52927700000001</v>
       </c>
       <c r="H6">
-        <v>1810.023921</v>
+        <v>420.443713</v>
       </c>
       <c r="I6">
-        <v>1075.9517760000001</v>
+        <v>870.55149100000006</v>
       </c>
       <c r="J6">
-        <v>20597.129810999999</v>
+        <v>32476.618549999999</v>
       </c>
       <c r="K6">
-        <v>741.33333300000004</v>
+        <v>862.14285700000005</v>
       </c>
       <c r="L6">
-        <v>25177.866666999998</v>
+        <v>31243.476190000001</v>
       </c>
       <c r="M6">
-        <v>809.86246200000005</v>
+        <v>666.38609099999996</v>
       </c>
       <c r="N6">
-        <v>20325.219766999999</v>
+        <v>7118.7096579999998</v>
       </c>
       <c r="O6">
-        <v>207619.90669999999</v>
+        <v>183805.85800000001</v>
       </c>
       <c r="P6" s="18">
-        <v>825517800</v>
+        <v>1100000000</v>
       </c>
       <c r="Q6">
-        <v>407.97479700000002</v>
+        <v>358.820696</v>
       </c>
       <c r="R6">
-        <v>5390.6843959999997</v>
+        <v>7524.05584</v>
       </c>
       <c r="S6">
-        <v>-0.10356</v>
+        <v>0.19308700000000001</v>
       </c>
       <c r="T6">
-        <v>6.0879999999999997E-3</v>
+        <v>3.5469999999999998E-3</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.4">
@@ -5263,734 +5347,907 @@
         <v>3</v>
       </c>
       <c r="D7" s="12">
-        <v>0.73</v>
+        <v>0.38</v>
       </c>
       <c r="E7">
-        <v>2878</v>
+        <v>7330</v>
       </c>
       <c r="F7" s="18">
-        <v>17296.669999999998</v>
+        <v>1150000</v>
       </c>
       <c r="G7">
-        <v>248.68328299999999</v>
+        <v>186.96450300000001</v>
       </c>
       <c r="H7">
-        <v>1783.7174399999999</v>
+        <v>2218.985463</v>
       </c>
       <c r="I7">
-        <v>1091.545026</v>
+        <v>1112.5900630000001</v>
       </c>
       <c r="J7">
-        <v>111632.94137299999</v>
+        <v>106691.44</v>
       </c>
       <c r="K7">
-        <v>448</v>
+        <v>1142.4000000000001</v>
       </c>
       <c r="L7">
-        <v>6035.3333329999996</v>
+        <v>27386.3</v>
       </c>
       <c r="M7">
-        <v>1042.3886930000001</v>
+        <v>755.78892599999995</v>
       </c>
       <c r="N7">
-        <v>23628.470001000002</v>
+        <v>30520.135160000002</v>
       </c>
       <c r="O7">
-        <v>163006.86945</v>
+        <v>304959.61690000002</v>
       </c>
       <c r="P7" s="18">
-        <v>144621400</v>
+        <v>2300000000</v>
       </c>
       <c r="Q7">
-        <v>619.90985899999998</v>
+        <v>262.111289</v>
       </c>
       <c r="R7">
-        <v>4523.7880590000004</v>
+        <v>1596.591762</v>
       </c>
       <c r="S7">
-        <v>-2.2665000000000001E-2</v>
+        <v>-2.4052E-2</v>
       </c>
       <c r="T7">
-        <v>7.071E-3</v>
+        <v>5.9639999999999997E-3</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B8" s="3"/>
+      <c r="B8" s="3">
+        <v>5</v>
+      </c>
       <c r="C8" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D8" s="12">
-        <v>0.28999999999999998</v>
+        <v>0.26</v>
       </c>
       <c r="E8">
-        <v>4866.7142860000004</v>
+        <v>4540.5</v>
       </c>
       <c r="F8" s="18">
-        <v>733688.9</v>
+        <v>232199</v>
       </c>
       <c r="G8">
-        <v>145.52927700000001</v>
+        <v>304.34769</v>
       </c>
       <c r="H8">
-        <v>420.443713</v>
+        <v>1301.720761</v>
       </c>
       <c r="I8">
-        <v>870.55149100000006</v>
+        <v>1284.720399</v>
       </c>
       <c r="J8">
-        <v>32476.618552</v>
+        <v>7237.9947759999995</v>
       </c>
       <c r="K8">
-        <v>862.14285700000005</v>
+        <v>670</v>
       </c>
       <c r="L8">
-        <v>31243.476190000001</v>
+        <v>17562</v>
       </c>
       <c r="M8">
-        <v>666.38609099999996</v>
+        <v>1184.946228</v>
       </c>
       <c r="N8">
-        <v>7118.7096579999998</v>
+        <v>16789.575968000001</v>
       </c>
       <c r="O8">
-        <v>183805.85800000001</v>
+        <v>292023.93030000001</v>
       </c>
       <c r="P8" s="18">
-        <v>1103119000</v>
+        <v>352503200</v>
       </c>
       <c r="Q8">
-        <v>358.820696</v>
+        <v>428.31832700000001</v>
       </c>
       <c r="R8">
-        <v>7524.05584</v>
+        <v>2947.9414470000002</v>
       </c>
       <c r="S8">
-        <v>0.19308700000000001</v>
+        <v>-0.13603100000000001</v>
       </c>
       <c r="T8">
-        <v>3.5469999999999998E-3</v>
+        <v>7.0330000000000002E-3</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B9" s="3"/>
       <c r="C9" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" s="12">
-        <v>0.38</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E9">
-        <v>7330</v>
+        <v>4658</v>
       </c>
       <c r="F9" s="18">
-        <v>1147322</v>
+        <v>562532.4</v>
       </c>
       <c r="G9">
-        <v>186.96450300000001</v>
+        <v>197.15180699999999</v>
       </c>
       <c r="H9">
-        <v>2218.985463</v>
+        <v>1810.023921</v>
       </c>
       <c r="I9">
-        <v>1112.5900630000001</v>
+        <v>1075.9517760000001</v>
       </c>
       <c r="J9">
-        <v>106691.439973</v>
+        <v>20597.129810999999</v>
       </c>
       <c r="K9">
-        <v>1142.4000000000001</v>
+        <v>741.33333300000004</v>
       </c>
       <c r="L9">
-        <v>27386.3</v>
+        <v>25177.866666999998</v>
       </c>
       <c r="M9">
-        <v>755.78892599999995</v>
+        <v>809.86246200000005</v>
       </c>
       <c r="N9">
-        <v>30520.135163999999</v>
+        <v>20325.219766999999</v>
       </c>
       <c r="O9">
-        <v>304959.61686000001</v>
+        <v>207619.90669999999</v>
       </c>
       <c r="P9" s="18">
-        <v>2300754000</v>
+        <v>825517800</v>
       </c>
       <c r="Q9">
-        <v>262.111289</v>
+        <v>407.97479700000002</v>
       </c>
       <c r="R9">
-        <v>1596.591762</v>
+        <v>5390.6843959999997</v>
       </c>
       <c r="S9">
-        <v>-2.4052E-2</v>
+        <v>-0.10356</v>
       </c>
       <c r="T9">
-        <v>5.9639999999999997E-3</v>
+        <v>6.0879999999999997E-3</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="12"/>
+      <c r="C10" s="3">
+        <v>3</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0.73</v>
+      </c>
+      <c r="E10">
+        <v>2878</v>
+      </c>
+      <c r="F10" s="18">
+        <v>17296.669999999998</v>
+      </c>
+      <c r="G10">
+        <v>248.68328299999999</v>
+      </c>
+      <c r="H10">
+        <v>1783.7174399999999</v>
+      </c>
+      <c r="I10">
+        <v>1091.545026</v>
+      </c>
+      <c r="J10">
+        <v>111632.94137299999</v>
+      </c>
+      <c r="K10">
+        <v>448</v>
+      </c>
+      <c r="L10">
+        <v>6035.3333329999996</v>
+      </c>
+      <c r="M10">
+        <v>1042.3886930000001</v>
+      </c>
+      <c r="N10">
+        <v>23628.470001000002</v>
+      </c>
+      <c r="O10">
+        <v>163006.86945</v>
+      </c>
+      <c r="P10" s="18">
+        <v>144621400</v>
+      </c>
+      <c r="Q10">
+        <v>619.90985899999998</v>
+      </c>
+      <c r="R10">
+        <v>4523.7880590000004</v>
+      </c>
+      <c r="S10">
+        <v>-2.2665000000000001E-2</v>
+      </c>
+      <c r="T10">
+        <v>7.071E-3</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3">
         <v>4</v>
       </c>
-      <c r="B11" s="3">
-        <v>3</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
       <c r="D11" s="12">
-        <v>0.79</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E11">
-        <v>2546.818182</v>
-      </c>
-      <c r="F11">
-        <v>70872.363635999995</v>
+        <v>4866.7142860000004</v>
+      </c>
+      <c r="F11" s="18">
+        <v>733688.9</v>
       </c>
       <c r="G11">
-        <v>262.931535</v>
+        <v>145.52927700000001</v>
       </c>
       <c r="H11">
-        <v>1894.8620980000001</v>
+        <v>420.443713</v>
       </c>
       <c r="I11">
-        <v>1157.2266589999999</v>
+        <v>870.55149100000006</v>
       </c>
       <c r="J11">
-        <v>23833.804942999999</v>
+        <v>32476.618552</v>
       </c>
       <c r="K11">
-        <v>366.09090900000001</v>
+        <v>862.14285700000005</v>
       </c>
       <c r="L11">
-        <v>1657.2909090000001</v>
+        <v>31243.476190000001</v>
       </c>
       <c r="M11">
-        <v>1041.261037</v>
+        <v>666.38609099999996</v>
       </c>
       <c r="N11">
-        <v>16317.290198999999</v>
+        <v>7118.7096579999998</v>
       </c>
       <c r="O11">
-        <v>146219.52908199999</v>
+        <v>183805.85800000001</v>
       </c>
       <c r="P11" s="18">
-        <v>376688400</v>
+        <v>1103119000</v>
       </c>
       <c r="Q11">
-        <v>721.48805400000003</v>
+        <v>358.820696</v>
       </c>
       <c r="R11">
-        <v>9255.9127289999997</v>
+        <v>7524.05584</v>
       </c>
       <c r="S11">
-        <v>4.9418999999999998E-2</v>
+        <v>0.19308700000000001</v>
       </c>
       <c r="T11">
-        <v>2.9637E-2</v>
+        <v>3.5469999999999998E-3</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B12" s="3"/>
       <c r="C12" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" s="12">
-        <v>0.86</v>
+        <v>0.38</v>
       </c>
       <c r="E12">
-        <v>1802.25</v>
-      </c>
-      <c r="F12">
-        <v>152468.785714</v>
+        <v>7330</v>
+      </c>
+      <c r="F12" s="18">
+        <v>1147322</v>
       </c>
       <c r="G12">
-        <v>407.75812999999999</v>
+        <v>186.96450300000001</v>
       </c>
       <c r="H12">
-        <v>4160.325366</v>
+        <v>2218.985463</v>
       </c>
       <c r="I12">
-        <v>1367.7705920000001</v>
+        <v>1112.5900630000001</v>
       </c>
       <c r="J12">
-        <v>14891.410141</v>
+        <v>106691.439973</v>
       </c>
       <c r="K12">
-        <v>234.125</v>
+        <v>1142.4000000000001</v>
       </c>
       <c r="L12">
-        <v>3675.5535709999999</v>
+        <v>27386.3</v>
       </c>
       <c r="M12">
-        <v>1441.1302860000001</v>
+        <v>755.78892599999995</v>
       </c>
       <c r="N12">
-        <v>17020.043723999999</v>
+        <v>30520.135163999999</v>
       </c>
       <c r="O12">
-        <v>142994.662125</v>
+        <v>304959.61686000001</v>
       </c>
       <c r="P12" s="18">
-        <v>1160857000</v>
+        <v>2300754000</v>
       </c>
       <c r="Q12">
-        <v>1096.0547859999999</v>
+        <v>262.111289</v>
       </c>
       <c r="R12">
-        <v>29728.744718999998</v>
+        <v>1596.591762</v>
       </c>
       <c r="S12">
-        <v>-8.8401999999999994E-2</v>
+        <v>-2.4052E-2</v>
       </c>
       <c r="T12">
-        <v>1.8419999999999999E-2</v>
+        <v>5.9639999999999997E-3</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B13" s="3"/>
-      <c r="C13" s="3">
+      <c r="C13" s="3"/>
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3">
         <v>3</v>
       </c>
-      <c r="D13" s="12">
-        <v>0.94</v>
-      </c>
-      <c r="E13">
-        <v>1760.6153850000001</v>
-      </c>
-      <c r="F13">
-        <v>71317.923076999999</v>
-      </c>
-      <c r="G13">
-        <v>276.53653100000002</v>
-      </c>
-      <c r="H13">
-        <v>2172.665845</v>
-      </c>
-      <c r="I13">
-        <v>1000.431406</v>
-      </c>
-      <c r="J13">
-        <v>28250.252324000001</v>
-      </c>
-      <c r="K13">
-        <v>265.76923099999999</v>
-      </c>
-      <c r="L13">
-        <v>1957.025641</v>
-      </c>
-      <c r="M13">
-        <v>1149.1934839999999</v>
-      </c>
-      <c r="N13">
-        <v>37911.612609000003</v>
-      </c>
-      <c r="O13">
-        <v>114347.485143</v>
-      </c>
-      <c r="P13" s="18">
-        <v>873159500</v>
-      </c>
-      <c r="Q13">
-        <v>976.23965899999996</v>
-      </c>
-      <c r="R13">
-        <v>11061.338453</v>
-      </c>
-      <c r="S13">
-        <v>-2.2637000000000001E-2</v>
-      </c>
-      <c r="T13">
-        <v>2.4237999999999999E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="12"/>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0.79</v>
+      </c>
+      <c r="E14">
+        <v>2546.818182</v>
+      </c>
+      <c r="F14">
+        <v>70872.363635999995</v>
+      </c>
+      <c r="G14">
+        <v>262.931535</v>
+      </c>
+      <c r="H14">
+        <v>1894.8620980000001</v>
+      </c>
+      <c r="I14">
+        <v>1157.2266589999999</v>
+      </c>
+      <c r="J14">
+        <v>23833.804942999999</v>
+      </c>
+      <c r="K14">
+        <v>366.09090900000001</v>
+      </c>
+      <c r="L14">
+        <v>1657.2909090000001</v>
+      </c>
+      <c r="M14">
+        <v>1041.261037</v>
+      </c>
+      <c r="N14">
+        <v>16317.290198999999</v>
+      </c>
+      <c r="O14">
+        <v>146219.52908199999</v>
+      </c>
+      <c r="P14" s="18">
+        <v>376688400</v>
+      </c>
+      <c r="Q14">
+        <v>721.48805400000003</v>
+      </c>
+      <c r="R14">
+        <v>9255.9127289999997</v>
+      </c>
+      <c r="S14">
+        <v>4.9418999999999998E-2</v>
+      </c>
+      <c r="T14">
+        <v>2.9637E-2</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="3">
-        <v>2</v>
-      </c>
+      <c r="B15" s="3"/>
       <c r="C15" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" s="12">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="E15">
-        <v>1739.833333</v>
+        <v>1802.25</v>
       </c>
       <c r="F15">
-        <v>178983.76666699999</v>
+        <v>152468.785714</v>
       </c>
       <c r="G15">
-        <v>307.72950600000001</v>
+        <v>407.75812999999999</v>
       </c>
       <c r="H15">
-        <v>4890.5534399999997</v>
+        <v>4160.325366</v>
       </c>
       <c r="I15">
-        <v>1112.6261919999999</v>
+        <v>1367.7705920000001</v>
       </c>
       <c r="J15">
-        <v>37055.747754999997</v>
+        <v>14891.410141</v>
       </c>
       <c r="K15">
-        <v>249.66666699999999</v>
+        <v>234.125</v>
       </c>
       <c r="L15">
-        <v>4420.6666670000004</v>
+        <v>3675.5535709999999</v>
       </c>
       <c r="M15">
-        <v>1211.0714700000001</v>
+        <v>1441.1302860000001</v>
       </c>
       <c r="N15">
-        <v>71898.080390999996</v>
+        <v>17020.043723999999</v>
       </c>
       <c r="O15">
-        <v>114600.766343</v>
+        <v>142994.662125</v>
       </c>
       <c r="P15" s="18">
-        <v>510096100</v>
+        <v>1160857000</v>
       </c>
       <c r="Q15">
-        <v>1025.3733279999999</v>
+        <v>1096.0547859999999</v>
       </c>
       <c r="R15">
-        <v>76444.986667999998</v>
+        <v>29728.744718999998</v>
       </c>
       <c r="S15">
-        <v>2.0501999999999999E-2</v>
+        <v>-8.8401999999999994E-2</v>
       </c>
       <c r="T15">
-        <v>7.541E-3</v>
+        <v>1.8419999999999999E-2</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B16" s="3"/>
       <c r="C16" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" s="12">
-        <v>0.65</v>
+        <v>0.94</v>
       </c>
       <c r="E16">
-        <v>3385.0576919999999</v>
+        <v>1760.6153850000001</v>
       </c>
       <c r="F16">
-        <v>592731.926538</v>
+        <v>71317.923076999999</v>
       </c>
       <c r="G16">
-        <v>371.539221</v>
+        <v>276.53653100000002</v>
       </c>
       <c r="H16">
-        <v>1035.578855</v>
+        <v>2172.665845</v>
       </c>
       <c r="I16">
-        <v>1222.5497009999999</v>
+        <v>1000.431406</v>
       </c>
       <c r="J16">
-        <v>15536.642760999999</v>
+        <v>28250.252324000001</v>
       </c>
       <c r="K16">
-        <v>498.94230800000003</v>
+        <v>265.76923099999999</v>
       </c>
       <c r="L16">
-        <v>16900.946538</v>
+        <v>1957.025641</v>
       </c>
       <c r="M16">
-        <v>1245.3258940000001</v>
+        <v>1149.1934839999999</v>
       </c>
       <c r="N16">
-        <v>12740.419583999999</v>
+        <v>37911.612609000003</v>
       </c>
       <c r="O16">
-        <v>193914.33996899999</v>
+        <v>114347.485143</v>
       </c>
       <c r="P16" s="18">
-        <v>1004123000</v>
+        <v>873159500</v>
       </c>
       <c r="Q16">
-        <v>722.09551699999997</v>
+        <v>976.23965899999996</v>
       </c>
       <c r="R16">
-        <v>4047.1366130000001</v>
+        <v>11061.338453</v>
       </c>
       <c r="S16">
-        <v>-0.116019</v>
+        <v>-2.2637000000000001E-2</v>
       </c>
       <c r="T16">
-        <v>5.2220000000000001E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B17" s="3">
-        <v>4</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1</v>
-      </c>
-      <c r="D17" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="E17">
-        <v>1565</v>
-      </c>
-      <c r="F17">
-        <v>6962</v>
-      </c>
-      <c r="G17">
-        <v>384.50730299999998</v>
-      </c>
-      <c r="H17">
-        <v>164.46562700000001</v>
-      </c>
-      <c r="I17">
-        <v>1354.8641970000001</v>
-      </c>
-      <c r="J17">
-        <v>7984.0180710000004</v>
-      </c>
-      <c r="K17">
-        <v>229</v>
-      </c>
-      <c r="L17">
-        <v>512</v>
-      </c>
-      <c r="M17">
-        <v>1491.7993309999999</v>
-      </c>
-      <c r="N17">
-        <v>13548.603668</v>
-      </c>
-      <c r="O17">
-        <v>130313.86195000001</v>
-      </c>
-      <c r="P17" s="18">
-        <v>17599700</v>
-      </c>
-      <c r="Q17">
-        <v>1282.490675</v>
-      </c>
-      <c r="R17">
-        <v>3519.1975929999999</v>
-      </c>
-      <c r="S17">
-        <v>3.9810999999999999E-2</v>
-      </c>
-      <c r="T17">
-        <v>1.9769999999999999E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B18" s="3"/>
+        <v>2.4237999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="12"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
       <c r="C18" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="12">
         <v>0.9</v>
       </c>
       <c r="E18">
-        <v>1827.25</v>
+        <v>1739.833333</v>
       </c>
       <c r="F18">
-        <v>265418.91666699998</v>
+        <v>178983.76666699999</v>
       </c>
       <c r="G18">
-        <v>269.34060799999997</v>
+        <v>307.72950600000001</v>
       </c>
       <c r="H18">
-        <v>2201.2705380000002</v>
+        <v>4890.5534399999997</v>
       </c>
       <c r="I18">
-        <v>991.50719000000004</v>
+        <v>1112.6261919999999</v>
       </c>
       <c r="J18">
-        <v>418.98952400000002</v>
+        <v>37055.747754999997</v>
       </c>
       <c r="K18">
-        <v>260</v>
+        <v>249.66666699999999</v>
       </c>
       <c r="L18">
-        <v>6770</v>
+        <v>4420.6666670000004</v>
       </c>
       <c r="M18">
-        <v>1070.7075400000001</v>
+        <v>1211.0714700000001</v>
       </c>
       <c r="N18">
-        <v>36505.800989000003</v>
+        <v>71898.080390999996</v>
       </c>
       <c r="O18">
-        <v>106744.21854</v>
+        <v>114600.766343</v>
       </c>
       <c r="P18" s="18">
-        <v>597392200</v>
+        <v>510096100</v>
       </c>
       <c r="Q18">
-        <v>896.81465400000002</v>
+        <v>1025.3733279999999</v>
       </c>
       <c r="R18">
-        <v>60125.914872000001</v>
+        <v>76444.986667999998</v>
       </c>
       <c r="S18">
-        <v>1.0847000000000001E-2</v>
+        <v>2.0501999999999999E-2</v>
       </c>
       <c r="T18">
-        <v>5.6049999999999997E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.4">
+        <v>7.541E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B19" s="3"/>
       <c r="C19" s="3">
+        <v>2</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0.65</v>
+      </c>
+      <c r="E19">
+        <v>3385.0576919999999</v>
+      </c>
+      <c r="F19">
+        <v>592731.926538</v>
+      </c>
+      <c r="G19">
+        <v>371.539221</v>
+      </c>
+      <c r="H19">
+        <v>1035.578855</v>
+      </c>
+      <c r="I19">
+        <v>1222.5497009999999</v>
+      </c>
+      <c r="J19">
+        <v>15536.642760999999</v>
+      </c>
+      <c r="K19">
+        <v>498.94230800000003</v>
+      </c>
+      <c r="L19">
+        <v>16900.946538</v>
+      </c>
+      <c r="M19">
+        <v>1245.3258940000001</v>
+      </c>
+      <c r="N19">
+        <v>12740.419583999999</v>
+      </c>
+      <c r="O19">
+        <v>193914.33996899999</v>
+      </c>
+      <c r="P19" s="18">
+        <v>1004123000</v>
+      </c>
+      <c r="Q19">
+        <v>722.09551699999997</v>
+      </c>
+      <c r="R19">
+        <v>4047.1366130000001</v>
+      </c>
+      <c r="S19">
+        <v>-0.116019</v>
+      </c>
+      <c r="T19">
+        <v>5.2220000000000001E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B20" s="3">
+        <v>4</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="E20">
+        <v>1565</v>
+      </c>
+      <c r="F20">
+        <v>6962</v>
+      </c>
+      <c r="G20">
+        <v>384.50730299999998</v>
+      </c>
+      <c r="H20">
+        <v>164.46562700000001</v>
+      </c>
+      <c r="I20">
+        <v>1354.8641970000001</v>
+      </c>
+      <c r="J20">
+        <v>7984.0180710000004</v>
+      </c>
+      <c r="K20">
+        <v>229</v>
+      </c>
+      <c r="L20">
+        <v>512</v>
+      </c>
+      <c r="M20">
+        <v>1491.7993309999999</v>
+      </c>
+      <c r="N20">
+        <v>13548.603668</v>
+      </c>
+      <c r="O20">
+        <v>130313.86195000001</v>
+      </c>
+      <c r="P20" s="18">
+        <v>17599700</v>
+      </c>
+      <c r="Q20">
+        <v>1282.490675</v>
+      </c>
+      <c r="R20">
+        <v>3519.1975929999999</v>
+      </c>
+      <c r="S20">
+        <v>3.9810999999999999E-2</v>
+      </c>
+      <c r="T20">
+        <v>1.9769999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3">
+        <v>2</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="E21">
+        <v>1827.25</v>
+      </c>
+      <c r="F21">
+        <v>265418.91666699998</v>
+      </c>
+      <c r="G21">
+        <v>269.34060799999997</v>
+      </c>
+      <c r="H21">
+        <v>2201.2705380000002</v>
+      </c>
+      <c r="I21">
+        <v>991.50719000000004</v>
+      </c>
+      <c r="J21">
+        <v>418.98952400000002</v>
+      </c>
+      <c r="K21">
+        <v>260</v>
+      </c>
+      <c r="L21">
+        <v>6770</v>
+      </c>
+      <c r="M21">
+        <v>1070.7075400000001</v>
+      </c>
+      <c r="N21">
+        <v>36505.800989000003</v>
+      </c>
+      <c r="O21">
+        <v>106744.21854</v>
+      </c>
+      <c r="P21" s="18">
+        <v>597392200</v>
+      </c>
+      <c r="Q21">
+        <v>896.81465400000002</v>
+      </c>
+      <c r="R21">
+        <v>60125.914872000001</v>
+      </c>
+      <c r="S21">
+        <v>1.0847000000000001E-2</v>
+      </c>
+      <c r="T21">
+        <v>5.6049999999999997E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3">
         <v>3</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D22" s="12">
         <v>0.69</v>
       </c>
-      <c r="E19">
+      <c r="E22">
         <v>2974.9285709999999</v>
       </c>
-      <c r="F19">
+      <c r="F22">
         <v>234136.725275</v>
       </c>
-      <c r="G19">
+      <c r="G22">
         <v>389.93349599999999</v>
       </c>
-      <c r="H19">
+      <c r="H22">
         <v>886.51278300000001</v>
       </c>
-      <c r="I19">
+      <c r="I22">
         <v>1261.4699169999999</v>
       </c>
-      <c r="J19">
+      <c r="J22">
         <v>11103.441892999999</v>
       </c>
-      <c r="K19">
+      <c r="K22">
         <v>420.07142900000002</v>
       </c>
-      <c r="L19">
+      <c r="L22">
         <v>7869.8791209999999</v>
       </c>
-      <c r="M19">
+      <c r="M22">
         <v>1309.901597</v>
       </c>
-      <c r="N19">
+      <c r="N22">
         <v>11153.346777000001</v>
       </c>
-      <c r="O19">
+      <c r="O22">
         <v>190384.07129299999</v>
       </c>
-      <c r="P19" s="18">
+      <c r="P22" s="18">
         <v>774363500</v>
       </c>
-      <c r="Q19">
+      <c r="Q22">
         <v>758.05282499999998</v>
       </c>
-      <c r="R19">
+      <c r="R22">
         <v>3250.556998</v>
       </c>
-      <c r="S19">
+      <c r="S22">
         <v>-0.16040399999999999</v>
       </c>
-      <c r="T19">
+      <c r="T22">
         <v>1.9319999999999999E-3</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3">
         <v>4</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D23" s="12">
         <v>0.59</v>
       </c>
-      <c r="E20">
+      <c r="E23">
         <v>3863.541667</v>
       </c>
-      <c r="F20">
+      <c r="F23">
         <v>606570.47537899995</v>
       </c>
-      <c r="G20">
+      <c r="G23">
         <v>350.07923299999999</v>
       </c>
-      <c r="H20">
+      <c r="H23">
         <v>372.86738300000002</v>
       </c>
-      <c r="I20">
+      <c r="I23">
         <v>1177.142781</v>
       </c>
-      <c r="J20">
+      <c r="J23">
         <v>18011.172585</v>
       </c>
-      <c r="K20">
+      <c r="K23">
         <v>590.95833300000004</v>
       </c>
-      <c r="L20">
+      <c r="L23">
         <v>11956.657197</v>
       </c>
-      <c r="M20">
+      <c r="M23">
         <v>1169.987574</v>
       </c>
-      <c r="N20">
+      <c r="N23">
         <v>4275.1210730000003</v>
       </c>
-      <c r="O20">
+      <c r="O23">
         <v>198032.98675800001</v>
       </c>
-      <c r="P20" s="18">
+      <c r="P23" s="18">
         <v>1332574000</v>
       </c>
-      <c r="Q20">
+      <c r="Q23">
         <v>680.14532499999996</v>
       </c>
-      <c r="R20">
+      <c r="R23">
         <v>1791.1235859999999</v>
       </c>
-      <c r="S20">
+      <c r="S23">
         <v>-6.4236000000000001E-2</v>
       </c>
-      <c r="T20">
+      <c r="T23">
         <v>4.1510000000000002E-3</v>
       </c>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Experiment-Data/Answer-Data.xlsx
+++ b/Experiment-Data/Answer-Data.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\eye-tracking-software\Experiment-Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\www\Desktop\eye-tracking-software\Experiment-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA19F7CB-9A2B-44D4-AFFC-D942F0E62E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA9A6C3-DE59-42C7-948E-FFC9A2829662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{65F65776-174E-4145-8CCF-AA6B8A50F68A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{65F65776-174E-4145-8CCF-AA6B8A50F68A}"/>
   </bookViews>
   <sheets>
     <sheet name="1st" sheetId="1" r:id="rId1"/>
-    <sheet name="1st-Features" sheetId="2" r:id="rId2"/>
+    <sheet name="2nd" sheetId="3" r:id="rId2"/>
+    <sheet name="1st-Features" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="30">
   <si>
     <t>English</t>
   </si>
@@ -175,7 +176,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -187,7 +188,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Aptos Narrow"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -644,23 +645,23 @@
   <dimension ref="A1:AX39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="3" customWidth="1"/>
-    <col min="2" max="6" width="4.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="6.25" style="13" customWidth="1"/>
-    <col min="8" max="27" width="4.375" style="2" customWidth="1"/>
-    <col min="28" max="28" width="4.125" style="3" customWidth="1"/>
+    <col min="2" max="6" width="4.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" style="13" customWidth="1"/>
+    <col min="8" max="27" width="4.42578125" style="2" customWidth="1"/>
+    <col min="28" max="28" width="4.140625" style="3" customWidth="1"/>
     <col min="29" max="29" width="10" style="3" customWidth="1"/>
-    <col min="30" max="32" width="4.25" style="3" customWidth="1"/>
-    <col min="33" max="33" width="6.125" style="3" customWidth="1"/>
-    <col min="34" max="43" width="4.375" style="4" customWidth="1"/>
+    <col min="30" max="32" width="4.28515625" style="3" customWidth="1"/>
+    <col min="33" max="33" width="6.140625" style="3" customWidth="1"/>
+    <col min="34" max="43" width="4.42578125" style="4" customWidth="1"/>
     <col min="45" max="45" width="10" style="3" customWidth="1"/>
-    <col min="46" max="49" width="4.25" style="3" customWidth="1"/>
-    <col min="50" max="50" width="6.125" style="3" customWidth="1"/>
+    <col min="46" max="49" width="4.28515625" style="3" customWidth="1"/>
+    <col min="50" max="50" width="6.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -865,7 +866,7 @@
       <c r="AW2" s="5"/>
       <c r="AX2" s="5"/>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1014,7 +1015,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C4" s="3">
         <v>2</v>
       </c>
@@ -1145,7 +1146,7 @@
         <v>0.52499999999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="G5" s="12"/>
       <c r="H5" s="16">
         <f>(COUNTIF(H3:H4,"○"))/2</f>
@@ -1240,7 +1241,7 @@
       <c r="AQ5" s="1"/>
       <c r="AX5" s="12"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1380,7 +1381,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C7" s="3">
         <v>2</v>
       </c>
@@ -1511,7 +1512,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C8" s="3">
         <v>3</v>
       </c>
@@ -1642,7 +1643,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C9" s="3">
         <v>4</v>
       </c>
@@ -1773,7 +1774,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C10" s="3">
         <v>5</v>
       </c>
@@ -1904,7 +1905,7 @@
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C11" s="3">
         <v>6</v>
       </c>
@@ -2035,7 +2036,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C12" s="3">
         <v>7</v>
       </c>
@@ -2166,7 +2167,7 @@
         <v>0.67500000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C13" s="3">
         <v>8</v>
       </c>
@@ -2297,7 +2298,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C14" s="3">
         <v>9</v>
       </c>
@@ -2428,7 +2429,7 @@
         <v>0.72500000000000009</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C15" s="3">
         <v>10</v>
       </c>
@@ -2559,7 +2560,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="G16" s="12"/>
       <c r="H16" s="16">
         <f>(COUNTIF(H6:H15,"○"))/10</f>
@@ -2654,7 +2655,7 @@
       <c r="AQ16" s="1"/>
       <c r="AX16" s="12"/>
     </row>
-    <row r="17" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>3</v>
       </c>
@@ -2794,7 +2795,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C18" s="3">
         <v>2</v>
       </c>
@@ -2925,7 +2926,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="19" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C19" s="3">
         <v>3</v>
       </c>
@@ -3056,7 +3057,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C20" s="3">
         <v>4</v>
       </c>
@@ -3187,7 +3188,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="21" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C21" s="3">
         <v>5</v>
       </c>
@@ -3318,7 +3319,7 @@
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="22" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C22" s="3">
         <v>6</v>
       </c>
@@ -3449,7 +3450,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="23" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C23" s="3">
         <v>7</v>
       </c>
@@ -3580,7 +3581,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="24" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C24" s="3">
         <v>8</v>
       </c>
@@ -3711,7 +3712,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="25" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C25" s="3">
         <v>9</v>
       </c>
@@ -3842,7 +3843,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="26" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C26" s="3">
         <v>10</v>
       </c>
@@ -3973,7 +3974,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C27" s="3">
         <v>11</v>
       </c>
@@ -4104,7 +4105,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="28" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C28" s="3">
         <v>12</v>
       </c>
@@ -4235,7 +4236,7 @@
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="29" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C29" s="3">
         <v>13</v>
       </c>
@@ -4366,7 +4367,7 @@
         <v>0.39999999999999997</v>
       </c>
     </row>
-    <row r="30" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C30" s="3">
         <v>14</v>
       </c>
@@ -4497,7 +4498,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="G31" s="5"/>
       <c r="H31" s="15">
         <f>(COUNTIF(H17:H30,"○"))/14</f>
@@ -4639,7 +4640,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="32" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="G32" s="12"/>
       <c r="AE32" s="3">
         <v>2</v>
@@ -4695,7 +4696,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="33" spans="30:50" x14ac:dyDescent="0.4">
+    <row r="33" spans="30:50" x14ac:dyDescent="0.25">
       <c r="AD33" s="3" t="s">
         <v>7</v>
       </c>
@@ -4756,7 +4757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="30:50" x14ac:dyDescent="0.4">
+    <row r="34" spans="30:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="AE34" s="3">
         <v>2</v>
       </c>
@@ -4811,7 +4812,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="35" spans="30:50" x14ac:dyDescent="0.4">
+    <row r="35" spans="30:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="AE35" s="3">
         <v>3</v>
       </c>
@@ -4866,7 +4867,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="36" spans="30:50" x14ac:dyDescent="0.4">
+    <row r="36" spans="30:50" x14ac:dyDescent="0.25">
       <c r="AD36" s="3" t="s">
         <v>6</v>
       </c>
@@ -4927,7 +4928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="30:50" x14ac:dyDescent="0.4">
+    <row r="37" spans="30:50" x14ac:dyDescent="0.25">
       <c r="AH37" s="15">
         <f>(COUNTIF(AH3:AH36,"○")/32)</f>
         <v>1</v>
@@ -4971,12 +4972,12 @@
       <c r="AV37"/>
       <c r="AW37"/>
     </row>
-    <row r="38" spans="30:50" x14ac:dyDescent="0.4">
+    <row r="38" spans="30:50" x14ac:dyDescent="0.25">
       <c r="AV38"/>
       <c r="AW38"/>
       <c r="AX38" s="12"/>
     </row>
-    <row r="39" spans="30:50" x14ac:dyDescent="0.4">
+    <row r="39" spans="30:50" x14ac:dyDescent="0.25">
       <c r="AG39" s="12"/>
     </row>
   </sheetData>
@@ -4991,22 +4992,2912 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8CCB7AF-21A6-41ED-886C-DD886AE34E4A}">
+  <dimension ref="A1:AX39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" style="3" customWidth="1"/>
+    <col min="2" max="6" width="4.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" style="13" customWidth="1"/>
+    <col min="8" max="27" width="4.42578125" style="2" customWidth="1"/>
+    <col min="28" max="28" width="4.140625" style="3" customWidth="1"/>
+    <col min="29" max="29" width="10" style="3" customWidth="1"/>
+    <col min="30" max="32" width="4.28515625" style="3" customWidth="1"/>
+    <col min="33" max="33" width="6.140625" style="3" customWidth="1"/>
+    <col min="34" max="43" width="4.42578125" style="4" customWidth="1"/>
+    <col min="45" max="45" width="10" style="3" customWidth="1"/>
+    <col min="46" max="49" width="4.28515625" style="3" customWidth="1"/>
+    <col min="50" max="50" width="6.140625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:50" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF1" s="5">
+        <v>3</v>
+      </c>
+      <c r="AG1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH1" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="20"/>
+      <c r="AO1" s="20"/>
+      <c r="AP1" s="20"/>
+      <c r="AQ1" s="20"/>
+      <c r="AS1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AV1" s="5">
+        <v>2</v>
+      </c>
+      <c r="AW1" s="5">
+        <v>4</v>
+      </c>
+      <c r="AX1" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="6">
+        <v>1</v>
+      </c>
+      <c r="I2" s="6">
+        <v>2</v>
+      </c>
+      <c r="J2" s="6">
+        <v>3</v>
+      </c>
+      <c r="K2" s="6">
+        <v>4</v>
+      </c>
+      <c r="L2" s="6">
+        <v>5</v>
+      </c>
+      <c r="M2" s="6">
+        <v>6</v>
+      </c>
+      <c r="N2" s="6">
+        <v>7</v>
+      </c>
+      <c r="O2" s="6">
+        <v>8</v>
+      </c>
+      <c r="P2" s="6">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>10</v>
+      </c>
+      <c r="R2" s="6">
+        <v>11</v>
+      </c>
+      <c r="S2" s="6">
+        <v>12</v>
+      </c>
+      <c r="T2" s="6">
+        <v>13</v>
+      </c>
+      <c r="U2" s="6">
+        <v>14</v>
+      </c>
+      <c r="V2" s="6">
+        <v>15</v>
+      </c>
+      <c r="W2" s="6">
+        <v>16</v>
+      </c>
+      <c r="X2" s="6">
+        <v>17</v>
+      </c>
+      <c r="Y2" s="6">
+        <v>18</v>
+      </c>
+      <c r="Z2" s="6">
+        <v>19</v>
+      </c>
+      <c r="AA2" s="6">
+        <v>20</v>
+      </c>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="7">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="7">
+        <v>2</v>
+      </c>
+      <c r="AJ2" s="7">
+        <v>3</v>
+      </c>
+      <c r="AK2" s="7">
+        <v>4</v>
+      </c>
+      <c r="AL2" s="7">
+        <v>5</v>
+      </c>
+      <c r="AM2" s="7">
+        <v>6</v>
+      </c>
+      <c r="AN2" s="7">
+        <v>7</v>
+      </c>
+      <c r="AO2" s="7">
+        <v>8</v>
+      </c>
+      <c r="AP2" s="7">
+        <v>9</v>
+      </c>
+      <c r="AQ2" s="7">
+        <v>10</v>
+      </c>
+      <c r="AS2" s="5"/>
+      <c r="AT2" s="5"/>
+      <c r="AU2" s="5"/>
+      <c r="AV2" s="5"/>
+      <c r="AW2" s="5"/>
+      <c r="AX2" s="5"/>
+    </row>
+    <row r="3" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="12">
+        <f>COUNTIF(H3:AA3,"○")/20</f>
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="W3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="12">
+        <f>(COUNTIF(AH3:AQ3,"○")/10)</f>
+        <v>0.9</v>
+      </c>
+      <c r="AH3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV3"/>
+      <c r="AW3"/>
+      <c r="AX3" s="12">
+        <f>(G3+AG3)/2</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="G4" s="12">
+        <f t="shared" ref="G4:G30" si="0">COUNTIF(H4:AA4,"○")/20</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="10"/>
+      <c r="AE4" s="3">
+        <v>2</v>
+      </c>
+      <c r="AG4" s="12">
+        <f t="shared" ref="AG4:AG36" si="1">(COUNTIF(AH4:AQ4,"○")/10)</f>
+        <v>0.7</v>
+      </c>
+      <c r="AH4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU4" s="3">
+        <v>2</v>
+      </c>
+      <c r="AV4"/>
+      <c r="AW4"/>
+      <c r="AX4" s="12">
+        <f>(G4+AG4)/2</f>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="G5" s="12"/>
+      <c r="H5" s="16">
+        <f>(COUNTIF(H3:H4,"○"))/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="16">
+        <f t="shared" ref="I5:AA5" si="2">(COUNTIF(I3:I4,"○"))/2</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="16">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="16">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="M5" s="16">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="N5" s="16">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="O5" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R5" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S5" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T5" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U5" s="16">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="V5" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W5" s="16">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="X5" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="16">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z5" s="16">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="AA5" s="16">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AX5" s="12"/>
+    </row>
+    <row r="6" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AD6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="12">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="AH6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV6"/>
+      <c r="AW6"/>
+      <c r="AX6" s="12">
+        <f t="shared" ref="AX6:AX15" si="3">(G6+AG6)/2</f>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="G7" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="9"/>
+      <c r="AE7" s="3">
+        <v>2</v>
+      </c>
+      <c r="AG7" s="12">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="AH7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU7" s="3">
+        <v>2</v>
+      </c>
+      <c r="AV7"/>
+      <c r="AW7"/>
+      <c r="AX7" s="12">
+        <f t="shared" si="3"/>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+      <c r="G8" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AE8" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG8" s="12">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="AH8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU8" s="3">
+        <v>3</v>
+      </c>
+      <c r="AV8"/>
+      <c r="AW8"/>
+      <c r="AX8" s="12">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C9" s="3">
+        <v>4</v>
+      </c>
+      <c r="G9" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="10"/>
+      <c r="AE9" s="3">
+        <v>4</v>
+      </c>
+      <c r="AG9" s="12">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="AH9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU9" s="3">
+        <v>4</v>
+      </c>
+      <c r="AV9"/>
+      <c r="AW9"/>
+      <c r="AX9" s="12">
+        <f t="shared" si="3"/>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C10" s="3">
+        <v>5</v>
+      </c>
+      <c r="G10" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AE10" s="3">
+        <v>5</v>
+      </c>
+      <c r="AG10" s="12">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="AH10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU10" s="3">
+        <v>5</v>
+      </c>
+      <c r="AV10"/>
+      <c r="AW10"/>
+      <c r="AX10" s="12">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C11" s="3">
+        <v>6</v>
+      </c>
+      <c r="G11" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AE11" s="3">
+        <v>6</v>
+      </c>
+      <c r="AG11" s="12">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="AH11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU11" s="3">
+        <v>6</v>
+      </c>
+      <c r="AV11"/>
+      <c r="AW11"/>
+      <c r="AX11" s="12">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C12" s="3">
+        <v>7</v>
+      </c>
+      <c r="G12" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AE12" s="3">
+        <v>7</v>
+      </c>
+      <c r="AG12" s="12">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="AH12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU12" s="3">
+        <v>7</v>
+      </c>
+      <c r="AV12"/>
+      <c r="AW12"/>
+      <c r="AX12" s="12">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C13" s="3">
+        <v>8</v>
+      </c>
+      <c r="G13" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="10"/>
+      <c r="AE13" s="3">
+        <v>8</v>
+      </c>
+      <c r="AG13" s="12">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="AH13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU13" s="3">
+        <v>8</v>
+      </c>
+      <c r="AV13"/>
+      <c r="AW13"/>
+      <c r="AX13" s="12">
+        <f t="shared" si="3"/>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C14" s="3">
+        <v>9</v>
+      </c>
+      <c r="G14" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="10"/>
+      <c r="AE14" s="3">
+        <v>9</v>
+      </c>
+      <c r="AG14" s="12">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="AH14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU14" s="3">
+        <v>9</v>
+      </c>
+      <c r="AV14"/>
+      <c r="AW14"/>
+      <c r="AX14" s="12">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C15" s="3">
+        <v>10</v>
+      </c>
+      <c r="G15" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AE15" s="3">
+        <v>10</v>
+      </c>
+      <c r="AG15" s="12">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="AH15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU15" s="3">
+        <v>10</v>
+      </c>
+      <c r="AV15"/>
+      <c r="AW15"/>
+      <c r="AX15" s="12">
+        <f t="shared" si="3"/>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="G16" s="12"/>
+      <c r="H16" s="16">
+        <f>(COUNTIF(H6:H15,"○"))/10</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="16">
+        <f t="shared" ref="I16:AA16" si="4">(COUNTIF(I6:I15,"○"))/10</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="1"/>
+      <c r="AO16" s="1"/>
+      <c r="AP16" s="1"/>
+      <c r="AQ16" s="1"/>
+      <c r="AX16" s="12"/>
+    </row>
+    <row r="17" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="9"/>
+      <c r="AD17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG17" s="12">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="AH17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV17"/>
+      <c r="AW17"/>
+      <c r="AX17" s="12">
+        <f t="shared" ref="AX17:AX30" si="5">(G17+AG17)/2</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C18" s="3">
+        <v>2</v>
+      </c>
+      <c r="G18" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="9"/>
+      <c r="AE18" s="3">
+        <v>2</v>
+      </c>
+      <c r="AG18" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AH18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU18" s="3">
+        <v>2</v>
+      </c>
+      <c r="AV18"/>
+      <c r="AW18"/>
+      <c r="AX18" s="12">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C19" s="3">
+        <v>3</v>
+      </c>
+      <c r="G19" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="9"/>
+      <c r="AE19" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG19" s="12">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="AH19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU19" s="3">
+        <v>3</v>
+      </c>
+      <c r="AV19"/>
+      <c r="AW19"/>
+      <c r="AX19" s="12">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C20" s="3">
+        <v>4</v>
+      </c>
+      <c r="G20" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="9"/>
+      <c r="AE20" s="3">
+        <v>4</v>
+      </c>
+      <c r="AG20" s="12">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="AH20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU20" s="3">
+        <v>4</v>
+      </c>
+      <c r="AV20"/>
+      <c r="AW20"/>
+      <c r="AX20" s="12">
+        <f t="shared" si="5"/>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="21" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C21" s="3">
+        <v>5</v>
+      </c>
+      <c r="G21" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="9"/>
+      <c r="AE21" s="3">
+        <v>5</v>
+      </c>
+      <c r="AG21" s="12">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="AH21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU21" s="3">
+        <v>5</v>
+      </c>
+      <c r="AV21"/>
+      <c r="AW21"/>
+      <c r="AX21" s="12">
+        <f t="shared" si="5"/>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C22" s="3">
+        <v>6</v>
+      </c>
+      <c r="G22" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AE22" s="3">
+        <v>6</v>
+      </c>
+      <c r="AG22" s="12">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="AH22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU22" s="3">
+        <v>6</v>
+      </c>
+      <c r="AV22"/>
+      <c r="AW22"/>
+      <c r="AX22" s="12">
+        <f t="shared" si="5"/>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="23" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C23" s="3">
+        <v>7</v>
+      </c>
+      <c r="G23" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="9"/>
+      <c r="AE23" s="3">
+        <v>7</v>
+      </c>
+      <c r="AG23" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AH23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU23" s="3">
+        <v>7</v>
+      </c>
+      <c r="AV23"/>
+      <c r="AW23"/>
+      <c r="AX23" s="12">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C24" s="3">
+        <v>8</v>
+      </c>
+      <c r="G24" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="9"/>
+      <c r="AE24" s="3">
+        <v>8</v>
+      </c>
+      <c r="AG24" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AH24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU24" s="3">
+        <v>8</v>
+      </c>
+      <c r="AV24"/>
+      <c r="AW24"/>
+      <c r="AX24" s="12">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C25" s="3">
+        <v>9</v>
+      </c>
+      <c r="G25" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="9"/>
+      <c r="AE25" s="3">
+        <v>9</v>
+      </c>
+      <c r="AG25" s="12">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="AH25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU25" s="3">
+        <v>9</v>
+      </c>
+      <c r="AV25"/>
+      <c r="AW25"/>
+      <c r="AX25" s="12">
+        <f t="shared" si="5"/>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="26" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C26" s="3">
+        <v>10</v>
+      </c>
+      <c r="G26" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
+      <c r="AE26" s="3">
+        <v>10</v>
+      </c>
+      <c r="AG26" s="12">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="AH26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU26" s="3">
+        <v>10</v>
+      </c>
+      <c r="AV26"/>
+      <c r="AW26"/>
+      <c r="AX26" s="12">
+        <f t="shared" si="5"/>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="27" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C27" s="3">
+        <v>11</v>
+      </c>
+      <c r="G27" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="9"/>
+      <c r="AE27" s="3">
+        <v>11</v>
+      </c>
+      <c r="AG27" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AH27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU27" s="3">
+        <v>11</v>
+      </c>
+      <c r="AV27"/>
+      <c r="AW27"/>
+      <c r="AX27" s="12">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C28" s="3">
+        <v>12</v>
+      </c>
+      <c r="G28" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="9"/>
+      <c r="AE28" s="3">
+        <v>12</v>
+      </c>
+      <c r="AG28" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AH28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU28" s="3">
+        <v>12</v>
+      </c>
+      <c r="AV28"/>
+      <c r="AW28"/>
+      <c r="AX28" s="12">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C29" s="3">
+        <v>13</v>
+      </c>
+      <c r="G29" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="10"/>
+      <c r="AA29" s="9"/>
+      <c r="AE29" s="3">
+        <v>13</v>
+      </c>
+      <c r="AG29" s="12">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="AH29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU29" s="3">
+        <v>13</v>
+      </c>
+      <c r="AV29"/>
+      <c r="AW29"/>
+      <c r="AX29" s="12">
+        <f t="shared" si="5"/>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="30" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C30" s="3">
+        <v>14</v>
+      </c>
+      <c r="G30" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="9"/>
+      <c r="AE30" s="3">
+        <v>14</v>
+      </c>
+      <c r="AG30" s="12">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="AH30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL30" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU30" s="3">
+        <v>14</v>
+      </c>
+      <c r="AV30"/>
+      <c r="AW30"/>
+      <c r="AX30" s="12">
+        <f t="shared" si="5"/>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="31" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="G31" s="5"/>
+      <c r="H31" s="15">
+        <f>(COUNTIF(H17:H30,"○"))/14</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="15">
+        <f t="shared" ref="I31:AA31" si="6">(COUNTIF(I17:I30,"○"))/14</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="15">
+        <f>(COUNTIF(S17:S30,"○"))/14</f>
+        <v>0</v>
+      </c>
+      <c r="T31" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V31" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W31" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X31" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y31" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z31" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG31" s="12">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="AH31" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI31" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ31" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK31" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL31" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM31" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN31" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO31" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP31" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ31" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AU31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV31"/>
+      <c r="AW31"/>
+      <c r="AX31" s="12">
+        <f>AG31</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="32" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="G32" s="12"/>
+      <c r="AE32" s="3">
+        <v>2</v>
+      </c>
+      <c r="AG32" s="12">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="AH32" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI32" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ32" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK32" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL32" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM32" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN32" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO32" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP32" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ32" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU32" s="3">
+        <v>2</v>
+      </c>
+      <c r="AV32"/>
+      <c r="AW32"/>
+      <c r="AX32" s="12">
+        <f t="shared" ref="AX32:AX36" si="7">AG32</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="33" spans="30:50" x14ac:dyDescent="0.25">
+      <c r="AD33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE33" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG33" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AH33" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI33" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ33" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK33" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL33" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM33" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN33" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO33" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP33" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ33" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU33" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV33"/>
+      <c r="AW33"/>
+      <c r="AX33" s="12">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="30:50" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AE34" s="3">
+        <v>2</v>
+      </c>
+      <c r="AG34" s="12">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="AH34" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI34" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ34" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK34" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL34" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM34" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN34" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO34" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP34" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ34" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU34" s="3">
+        <v>2</v>
+      </c>
+      <c r="AV34"/>
+      <c r="AW34"/>
+      <c r="AX34" s="12">
+        <f t="shared" si="7"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="35" spans="30:50" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="AE35" s="3">
+        <v>3</v>
+      </c>
+      <c r="AG35" s="12">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="AH35" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI35" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ35" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK35" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL35" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM35" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN35" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO35" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP35" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ35" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU35" s="3">
+        <v>3</v>
+      </c>
+      <c r="AV35"/>
+      <c r="AW35"/>
+      <c r="AX35" s="12">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="36" spans="30:50" x14ac:dyDescent="0.25">
+      <c r="AD36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG36" s="12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AH36" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI36" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ36" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK36" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL36" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM36" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN36" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO36" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP36" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AQ36" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AT36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV36"/>
+      <c r="AW36"/>
+      <c r="AX36" s="12">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="30:50" x14ac:dyDescent="0.25">
+      <c r="AH37" s="15">
+        <f>(COUNTIF(AH3:AH36,"○")/32)</f>
+        <v>1</v>
+      </c>
+      <c r="AI37" s="15">
+        <f t="shared" ref="AI37:AQ37" si="8">(COUNTIF(AI3:AI36,"○")/32)</f>
+        <v>0.9375</v>
+      </c>
+      <c r="AJ37" s="15">
+        <f t="shared" si="8"/>
+        <v>0.9375</v>
+      </c>
+      <c r="AK37" s="15">
+        <f t="shared" si="8"/>
+        <v>0.96875</v>
+      </c>
+      <c r="AL37" s="15">
+        <f t="shared" si="8"/>
+        <v>0.59375</v>
+      </c>
+      <c r="AM37" s="15">
+        <f t="shared" si="8"/>
+        <v>0.875</v>
+      </c>
+      <c r="AN37" s="15">
+        <f t="shared" si="8"/>
+        <v>0.5625</v>
+      </c>
+      <c r="AO37" s="15">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AP37" s="15">
+        <f t="shared" si="8"/>
+        <v>0.875</v>
+      </c>
+      <c r="AQ37" s="15">
+        <f t="shared" si="8"/>
+        <v>0.9375</v>
+      </c>
+      <c r="AV37"/>
+      <c r="AW37"/>
+    </row>
+    <row r="38" spans="30:50" x14ac:dyDescent="0.25">
+      <c r="AV38"/>
+      <c r="AW38"/>
+      <c r="AX38" s="12"/>
+    </row>
+    <row r="39" spans="30:50" x14ac:dyDescent="0.25">
+      <c r="AG39" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H1:AA1"/>
+    <mergeCell ref="AH1:AQ1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88CCFB4E-3D94-4A97-83BE-04827B31FA43}">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="3" customWidth="1"/>
-    <col min="2" max="3" width="8.625" customWidth="1"/>
-    <col min="4" max="4" width="5.75" style="3" customWidth="1"/>
+    <col min="2" max="3" width="8.5703125" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" style="3" customWidth="1"/>
     <col min="5" max="21" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -5052,7 +7943,7 @@
       </c>
       <c r="T1" s="21"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -5106,7 +7997,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -5168,7 +8059,7 @@
         <v>7.7279999999999996E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="3">
         <v>2</v>
@@ -5225,7 +8116,7 @@
         <v>1.6605000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -5284,7 +8175,7 @@
         <v>7.7279999999999996E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="3">
         <v>2</v>
@@ -5341,7 +8232,7 @@
         <v>3.5469999999999998E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="3">
         <v>3</v>
@@ -5398,7 +8289,7 @@
         <v>5.9639999999999997E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>5</v>
       </c>
@@ -5457,7 +8348,7 @@
         <v>7.0330000000000002E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="3">
         <v>2</v>
@@ -5514,7 +8405,7 @@
         <v>6.0879999999999997E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="3">
         <v>3</v>
@@ -5571,7 +8462,7 @@
         <v>7.071E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="3">
         <v>4</v>
@@ -5628,7 +8519,7 @@
         <v>3.5469999999999998E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="3">
         <v>5</v>
@@ -5685,12 +8576,12 @@
         <v>5.9639999999999997E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="12"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
@@ -5752,7 +8643,7 @@
         <v>2.9637E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3">
         <v>2</v>
@@ -5809,7 +8700,7 @@
         <v>1.8419999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="3">
         <v>3</v>
@@ -5866,12 +8757,12 @@
         <v>2.4237999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="12"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
@@ -5933,7 +8824,7 @@
         <v>7.541E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="3">
         <v>2</v>
@@ -5990,7 +8881,7 @@
         <v>5.2220000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <v>4</v>
       </c>
@@ -6049,7 +8940,7 @@
         <v>1.9769999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="3">
         <v>2</v>
@@ -6106,7 +8997,7 @@
         <v>5.6049999999999997E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="3">
         <v>3</v>
@@ -6163,7 +9054,7 @@
         <v>1.9319999999999999E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="3">
         <v>4</v>
@@ -6220,31 +9111,31 @@
         <v>4.1510000000000002E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="5"/>

--- a/Experiment-Data/Answer-Data.xlsx
+++ b/Experiment-Data/Answer-Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\www\Desktop\eye-tracking-software\Experiment-Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\eye-tracking-software\Experiment-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA9A6C3-DE59-42C7-948E-FFC9A2829662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93E7A11-1ADB-4B52-88E1-F9928BEDEA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{65F65776-174E-4145-8CCF-AA6B8A50F68A}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="30">
   <si>
     <t>English</t>
   </si>
@@ -176,7 +176,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -188,7 +188,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="Aptos Narrow"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -648,20 +648,20 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10" style="3" customWidth="1"/>
-    <col min="2" max="6" width="4.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" style="13" customWidth="1"/>
-    <col min="8" max="27" width="4.42578125" style="2" customWidth="1"/>
-    <col min="28" max="28" width="4.140625" style="3" customWidth="1"/>
+    <col min="2" max="6" width="4.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6.25" style="13" customWidth="1"/>
+    <col min="8" max="27" width="4.375" style="2" customWidth="1"/>
+    <col min="28" max="28" width="4.125" style="3" customWidth="1"/>
     <col min="29" max="29" width="10" style="3" customWidth="1"/>
-    <col min="30" max="32" width="4.28515625" style="3" customWidth="1"/>
-    <col min="33" max="33" width="6.140625" style="3" customWidth="1"/>
-    <col min="34" max="43" width="4.42578125" style="4" customWidth="1"/>
+    <col min="30" max="32" width="4.25" style="3" customWidth="1"/>
+    <col min="33" max="33" width="6.125" style="3" customWidth="1"/>
+    <col min="34" max="43" width="4.375" style="4" customWidth="1"/>
     <col min="45" max="45" width="10" style="3" customWidth="1"/>
-    <col min="46" max="49" width="4.28515625" style="3" customWidth="1"/>
-    <col min="50" max="50" width="6.140625" style="3" customWidth="1"/>
+    <col min="46" max="49" width="4.25" style="3" customWidth="1"/>
+    <col min="50" max="50" width="6.125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -866,7 +866,7 @@
       <c r="AW2" s="5"/>
       <c r="AX2" s="5"/>
     </row>
-    <row r="3" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.4">
       <c r="C4" s="3">
         <v>2</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>0.52499999999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.4">
       <c r="G5" s="12"/>
       <c r="H5" s="16">
         <f>(COUNTIF(H3:H4,"○"))/2</f>
@@ -1241,7 +1241,7 @@
       <c r="AQ5" s="1"/>
       <c r="AX5" s="12"/>
     </row>
-    <row r="6" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="7" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.4">
       <c r="C7" s="3">
         <v>2</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.4">
       <c r="C8" s="3">
         <v>3</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="9" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.4">
       <c r="C9" s="3">
         <v>4</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.4">
       <c r="C10" s="3">
         <v>5</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.4">
       <c r="C11" s="3">
         <v>6</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.4">
       <c r="C12" s="3">
         <v>7</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>0.67500000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.4">
       <c r="C13" s="3">
         <v>8</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.4">
       <c r="C14" s="3">
         <v>9</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>0.72500000000000009</v>
       </c>
     </row>
-    <row r="15" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.4">
       <c r="C15" s="3">
         <v>10</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.4">
       <c r="G16" s="12"/>
       <c r="H16" s="16">
         <f>(COUNTIF(H6:H15,"○"))/10</f>
@@ -2655,7 +2655,7 @@
       <c r="AQ16" s="1"/>
       <c r="AX16" s="12"/>
     </row>
-    <row r="17" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:50" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C18" s="3">
         <v>2</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="19" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C19" s="3">
         <v>3</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C20" s="3">
         <v>4</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="21" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C21" s="3">
         <v>5</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="22" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C22" s="3">
         <v>6</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="23" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C23" s="3">
         <v>7</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="24" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C24" s="3">
         <v>8</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="25" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C25" s="3">
         <v>9</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="26" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C26" s="3">
         <v>10</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C27" s="3">
         <v>11</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="28" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C28" s="3">
         <v>12</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="29" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C29" s="3">
         <v>13</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>0.39999999999999997</v>
       </c>
     </row>
-    <row r="30" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C30" s="3">
         <v>14</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:50" x14ac:dyDescent="0.4">
       <c r="G31" s="5"/>
       <c r="H31" s="15">
         <f>(COUNTIF(H17:H30,"○"))/14</f>
@@ -4640,7 +4640,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="32" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:50" x14ac:dyDescent="0.4">
       <c r="G32" s="12"/>
       <c r="AE32" s="3">
         <v>2</v>
@@ -4696,7 +4696,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="33" spans="30:50" x14ac:dyDescent="0.25">
+    <row r="33" spans="30:50" x14ac:dyDescent="0.4">
       <c r="AD33" s="3" t="s">
         <v>7</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="30:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="30:50" x14ac:dyDescent="0.4">
       <c r="AE34" s="3">
         <v>2</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="35" spans="30:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="30:50" x14ac:dyDescent="0.4">
       <c r="AE35" s="3">
         <v>3</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="36" spans="30:50" x14ac:dyDescent="0.25">
+    <row r="36" spans="30:50" x14ac:dyDescent="0.4">
       <c r="AD36" s="3" t="s">
         <v>6</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="30:50" x14ac:dyDescent="0.25">
+    <row r="37" spans="30:50" x14ac:dyDescent="0.4">
       <c r="AH37" s="15">
         <f>(COUNTIF(AH3:AH36,"○")/32)</f>
         <v>1</v>
@@ -4972,12 +4972,12 @@
       <c r="AV37"/>
       <c r="AW37"/>
     </row>
-    <row r="38" spans="30:50" x14ac:dyDescent="0.25">
+    <row r="38" spans="30:50" x14ac:dyDescent="0.4">
       <c r="AV38"/>
       <c r="AW38"/>
       <c r="AX38" s="12"/>
     </row>
-    <row r="39" spans="30:50" x14ac:dyDescent="0.25">
+    <row r="39" spans="30:50" x14ac:dyDescent="0.4">
       <c r="AG39" s="12"/>
     </row>
   </sheetData>
@@ -4993,26 +4993,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8CCB7AF-21A6-41ED-886C-DD886AE34E4A}">
-  <dimension ref="A1:AX39"/>
+  <dimension ref="A1:AX40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AX36" sqref="AX36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10" style="3" customWidth="1"/>
-    <col min="2" max="6" width="4.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" style="13" customWidth="1"/>
-    <col min="8" max="27" width="4.42578125" style="2" customWidth="1"/>
-    <col min="28" max="28" width="4.140625" style="3" customWidth="1"/>
+    <col min="2" max="6" width="4.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6.25" style="13" customWidth="1"/>
+    <col min="8" max="27" width="4.375" style="2" customWidth="1"/>
+    <col min="28" max="28" width="4.125" style="3" customWidth="1"/>
     <col min="29" max="29" width="10" style="3" customWidth="1"/>
-    <col min="30" max="32" width="4.28515625" style="3" customWidth="1"/>
-    <col min="33" max="33" width="6.140625" style="3" customWidth="1"/>
-    <col min="34" max="43" width="4.42578125" style="4" customWidth="1"/>
+    <col min="30" max="32" width="4.25" style="3" customWidth="1"/>
+    <col min="33" max="33" width="6.125" style="3" customWidth="1"/>
+    <col min="34" max="43" width="4.375" style="4" customWidth="1"/>
     <col min="45" max="45" width="10" style="3" customWidth="1"/>
-    <col min="46" max="49" width="4.28515625" style="3" customWidth="1"/>
-    <col min="50" max="50" width="6.140625" style="3" customWidth="1"/>
+    <col min="46" max="49" width="4.25" style="3" customWidth="1"/>
+    <col min="50" max="50" width="6.125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5217,7 +5217,7 @@
       <c r="AW2" s="5"/>
       <c r="AX2" s="5"/>
     </row>
-    <row r="3" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -5302,19 +5302,19 @@
       </c>
       <c r="AG3" s="12">
         <f>(COUNTIF(AH3:AQ3,"○")/10)</f>
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AH3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AI3" s="10" t="s">
-        <v>12</v>
+      <c r="AI3" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="AJ3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AK3" s="10" t="s">
-        <v>12</v>
+      <c r="AK3" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="AL3" s="10" t="s">
         <v>12</v>
@@ -5322,8 +5322,8 @@
       <c r="AM3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AN3" s="9" t="s">
-        <v>11</v>
+      <c r="AN3" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="AO3" s="10" t="s">
         <v>12</v>
@@ -5347,10 +5347,10 @@
       <c r="AW3"/>
       <c r="AX3" s="12">
         <f>(G3+AG3)/2</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:50" x14ac:dyDescent="0.4">
       <c r="C4" s="3">
         <v>2</v>
       </c>
@@ -5382,39 +5382,19 @@
         <v>2</v>
       </c>
       <c r="AG4" s="12">
-        <f t="shared" ref="AG4:AG36" si="1">(COUNTIF(AH4:AQ4,"○")/10)</f>
-        <v>0.7</v>
-      </c>
-      <c r="AH4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AQ4" s="9" t="s">
-        <v>11</v>
-      </c>
+        <f t="shared" ref="AG4:AG37" si="1">(COUNTIF(AH4:AQ4,"○")/10)</f>
+        <v>0</v>
+      </c>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="9"/>
+      <c r="AN4" s="9"/>
+      <c r="AO4" s="10"/>
+      <c r="AP4" s="10"/>
+      <c r="AQ4" s="9"/>
       <c r="AU4" s="3">
         <v>2</v>
       </c>
@@ -5422,10 +5402,10 @@
       <c r="AW4"/>
       <c r="AX4" s="12">
         <f>(G4+AG4)/2</f>
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50" x14ac:dyDescent="0.4">
       <c r="G5" s="12"/>
       <c r="H5" s="16">
         <f>(COUNTIF(H3:H4,"○"))/2</f>
@@ -5520,7 +5500,7 @@
       <c r="AQ5" s="1"/>
       <c r="AX5" s="12"/>
     </row>
-    <row r="6" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -5529,28 +5509,68 @@
       </c>
       <c r="G6" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
+        <v>0.9</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="U6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="W6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="X6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA6" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="AD6" s="3" t="s">
         <v>2</v>
       </c>
@@ -5559,7 +5579,7 @@
       </c>
       <c r="AG6" s="12">
         <f t="shared" si="1"/>
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="AH6" s="10" t="s">
         <v>12</v>
@@ -5579,14 +5599,14 @@
       <c r="AM6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AN6" s="9" t="s">
-        <v>11</v>
+      <c r="AN6" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="AO6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AP6" s="9" t="s">
-        <v>11</v>
+      <c r="AP6" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="AQ6" s="10" t="s">
         <v>12</v>
@@ -5601,58 +5621,98 @@
       <c r="AW6"/>
       <c r="AX6" s="12">
         <f t="shared" ref="AX6:AX15" si="3">(G6+AG6)/2</f>
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.4">
       <c r="C7" s="3">
         <v>2</v>
       </c>
       <c r="G7" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="9"/>
+        <v>0.8</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="T7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="U7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="V7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="W7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="X7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA7" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="AE7" s="3">
         <v>2</v>
       </c>
       <c r="AG7" s="12">
         <f t="shared" si="1"/>
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AH7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AI7" s="10" t="s">
-        <v>12</v>
+      <c r="AI7" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="AJ7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AK7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL7" s="9" t="s">
-        <v>11</v>
+      <c r="AK7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL7" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="AM7" s="10" t="s">
         <v>12</v>
@@ -5676,43 +5736,83 @@
       <c r="AW7"/>
       <c r="AX7" s="12">
         <f t="shared" si="3"/>
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.4">
       <c r="C8" s="3">
         <v>3</v>
       </c>
       <c r="G8" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
+        <v>0.9</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="T8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="V8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="W8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="X8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA8" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="AE8" s="3">
         <v>3</v>
       </c>
       <c r="AG8" s="12">
         <f t="shared" si="1"/>
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="AH8" s="10" t="s">
         <v>12</v>
@@ -5723,14 +5823,14 @@
       <c r="AJ8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AK8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AM8" s="10" t="s">
-        <v>12</v>
+      <c r="AK8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM8" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="AN8" s="10" t="s">
         <v>12</v>
@@ -5751,10 +5851,10 @@
       <c r="AW8"/>
       <c r="AX8" s="12">
         <f t="shared" si="3"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50" x14ac:dyDescent="0.4">
       <c r="C9" s="3">
         <v>4</v>
       </c>
@@ -5787,38 +5887,18 @@
       </c>
       <c r="AG9" s="12">
         <f t="shared" si="1"/>
-        <v>0.9</v>
-      </c>
-      <c r="AH9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AQ9" s="10" t="s">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="10"/>
+      <c r="AJ9" s="10"/>
+      <c r="AK9" s="10"/>
+      <c r="AL9" s="10"/>
+      <c r="AM9" s="9"/>
+      <c r="AN9" s="10"/>
+      <c r="AO9" s="10"/>
+      <c r="AP9" s="10"/>
+      <c r="AQ9" s="10"/>
       <c r="AU9" s="3">
         <v>4</v>
       </c>
@@ -5826,10 +5906,10 @@
       <c r="AW9"/>
       <c r="AX9" s="12">
         <f t="shared" si="3"/>
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.4">
       <c r="C10" s="3">
         <v>5</v>
       </c>
@@ -5862,38 +5942,18 @@
       </c>
       <c r="AG10" s="12">
         <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-      <c r="AH10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AL10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AM10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AQ10" s="10" t="s">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="9"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="9"/>
+      <c r="AL10" s="9"/>
+      <c r="AM10" s="10"/>
+      <c r="AN10" s="9"/>
+      <c r="AO10" s="10"/>
+      <c r="AP10" s="10"/>
+      <c r="AQ10" s="10"/>
       <c r="AU10" s="3">
         <v>5</v>
       </c>
@@ -5901,10 +5961,10 @@
       <c r="AW10"/>
       <c r="AX10" s="12">
         <f t="shared" si="3"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.4">
       <c r="C11" s="3">
         <v>6</v>
       </c>
@@ -5937,38 +5997,18 @@
       </c>
       <c r="AG11" s="12">
         <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="AH11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AM11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AQ11" s="10" t="s">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="9"/>
+      <c r="AM11" s="10"/>
+      <c r="AN11" s="9"/>
+      <c r="AO11" s="10"/>
+      <c r="AP11" s="10"/>
+      <c r="AQ11" s="10"/>
       <c r="AU11" s="3">
         <v>6</v>
       </c>
@@ -5976,10 +6016,10 @@
       <c r="AW11"/>
       <c r="AX11" s="12">
         <f t="shared" si="3"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.4">
       <c r="C12" s="3">
         <v>7</v>
       </c>
@@ -6012,38 +6052,18 @@
       </c>
       <c r="AG12" s="12">
         <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="AH12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AM12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AQ12" s="10" t="s">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="10"/>
+      <c r="AJ12" s="10"/>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="9"/>
+      <c r="AM12" s="9"/>
+      <c r="AN12" s="10"/>
+      <c r="AO12" s="10"/>
+      <c r="AP12" s="10"/>
+      <c r="AQ12" s="10"/>
       <c r="AU12" s="3">
         <v>7</v>
       </c>
@@ -6051,37 +6071,77 @@
       <c r="AW12"/>
       <c r="AX12" s="12">
         <f t="shared" si="3"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.4">
       <c r="C13" s="3">
         <v>8</v>
       </c>
       <c r="G13" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="10"/>
+        <v>0.75</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="T13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="U13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="V13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="W13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="X13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA13" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="AE13" s="3">
         <v>8</v>
       </c>
@@ -6092,8 +6152,8 @@
       <c r="AH13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AI13" s="10" t="s">
-        <v>12</v>
+      <c r="AI13" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="AJ13" s="10" t="s">
         <v>12</v>
@@ -6107,8 +6167,8 @@
       <c r="AM13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AN13" s="9" t="s">
-        <v>11</v>
+      <c r="AN13" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="AO13" s="10" t="s">
         <v>12</v>
@@ -6126,43 +6186,83 @@
       <c r="AW13"/>
       <c r="AX13" s="12">
         <f t="shared" si="3"/>
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+        <v>0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.4">
       <c r="C14" s="3">
         <v>9</v>
       </c>
       <c r="G14" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="10"/>
+        <v>0.7</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="T14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="U14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="V14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="W14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="X14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA14" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="AE14" s="3">
         <v>9</v>
       </c>
       <c r="AG14" s="12">
         <f t="shared" si="1"/>
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AH14" s="10" t="s">
         <v>12</v>
@@ -6176,14 +6276,14 @@
       <c r="AK14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AL14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AM14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN14" s="9" t="s">
-        <v>11</v>
+      <c r="AL14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN14" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="AO14" s="10" t="s">
         <v>12</v>
@@ -6201,10 +6301,10 @@
       <c r="AW14"/>
       <c r="AX14" s="12">
         <f t="shared" si="3"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.4">
       <c r="C15" s="3">
         <v>10</v>
       </c>
@@ -6237,38 +6337,18 @@
       </c>
       <c r="AG15" s="12">
         <f t="shared" si="1"/>
-        <v>0.9</v>
-      </c>
-      <c r="AH15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AQ15" s="10" t="s">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="10"/>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="10"/>
+      <c r="AM15" s="10"/>
+      <c r="AN15" s="9"/>
+      <c r="AO15" s="10"/>
+      <c r="AP15" s="10"/>
+      <c r="AQ15" s="10"/>
       <c r="AU15" s="3">
         <v>10</v>
       </c>
@@ -6276,90 +6356,90 @@
       <c r="AW15"/>
       <c r="AX15" s="12">
         <f t="shared" si="3"/>
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50" x14ac:dyDescent="0.4">
       <c r="G16" s="12"/>
       <c r="H16" s="16">
         <f>(COUNTIF(H6:H15,"○"))/10</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I16" s="16">
         <f t="shared" ref="I16:AA16" si="4">(COUNTIF(I6:I15,"○"))/10</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J16" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K16" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="L16" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M16" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N16" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O16" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="P16" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q16" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R16" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S16" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T16" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U16" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="V16" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W16" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="X16" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y16" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Z16" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AA16" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AG16" s="12"/>
       <c r="AH16" s="10"/>
@@ -6374,7 +6454,7 @@
       <c r="AQ16" s="1"/>
       <c r="AX16" s="12"/>
     </row>
-    <row r="17" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:50" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>3</v>
       </c>
@@ -6383,28 +6463,68 @@
       </c>
       <c r="G17" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="10"/>
-      <c r="AA17" s="9"/>
+        <v>0.85</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="U17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="V17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="W17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="X17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA17" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="AD17" s="3" t="s">
         <v>3</v>
       </c>
@@ -6413,7 +6533,7 @@
       </c>
       <c r="AG17" s="12">
         <f t="shared" si="1"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AH17" s="10" t="s">
         <v>12</v>
@@ -6427,14 +6547,14 @@
       <c r="AK17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AL17" s="9" t="s">
-        <v>11</v>
+      <c r="AL17" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="AM17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AN17" s="9" t="s">
-        <v>11</v>
+      <c r="AN17" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="AO17" s="10" t="s">
         <v>12</v>
@@ -6455,43 +6575,83 @@
       <c r="AW17"/>
       <c r="AX17" s="12">
         <f t="shared" ref="AX17:AX30" si="5">(G17+AG17)/2</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="18" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C18" s="3">
         <v>2</v>
       </c>
       <c r="G18" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="10"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="9"/>
+        <v>0.75</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="U18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="V18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="W18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="X18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA18" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="AE18" s="3">
         <v>2</v>
       </c>
       <c r="AG18" s="12">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AH18" s="10" t="s">
         <v>12</v>
@@ -6502,8 +6662,8 @@
       <c r="AJ18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AK18" s="10" t="s">
-        <v>12</v>
+      <c r="AK18" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="AL18" s="10" t="s">
         <v>12</v>
@@ -6514,8 +6674,8 @@
       <c r="AN18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AO18" s="10" t="s">
-        <v>12</v>
+      <c r="AO18" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="AP18" s="10" t="s">
         <v>12</v>
@@ -6530,37 +6690,77 @@
       <c r="AW18"/>
       <c r="AX18" s="12">
         <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C19" s="3">
         <v>3</v>
       </c>
       <c r="G19" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="10"/>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="9"/>
+        <v>0.9</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="R19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="T19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="U19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="V19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="W19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="X19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA19" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="AE19" s="3">
         <v>3</v>
       </c>
@@ -6574,14 +6774,14 @@
       <c r="AI19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AJ19" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL19" s="9" t="s">
-        <v>11</v>
+      <c r="AJ19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL19" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="AM19" s="10" t="s">
         <v>12</v>
@@ -6589,8 +6789,8 @@
       <c r="AN19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AO19" s="10" t="s">
-        <v>12</v>
+      <c r="AO19" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="AP19" s="10" t="s">
         <v>12</v>
@@ -6605,10 +6805,10 @@
       <c r="AW19"/>
       <c r="AX19" s="12">
         <f t="shared" si="5"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="20" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+        <v>0.85000000000000009</v>
+      </c>
+    </row>
+    <row r="20" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C20" s="3">
         <v>4</v>
       </c>
@@ -6616,7 +6816,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H20" s="9"/>
+      <c r="H20" s="10"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="9"/>
@@ -6641,38 +6841,18 @@
       </c>
       <c r="AG20" s="12">
         <f t="shared" si="1"/>
-        <v>0.9</v>
-      </c>
-      <c r="AH20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AQ20" s="10" t="s">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AH20" s="10"/>
+      <c r="AI20" s="10"/>
+      <c r="AJ20" s="10"/>
+      <c r="AK20" s="10"/>
+      <c r="AL20" s="10"/>
+      <c r="AM20" s="10"/>
+      <c r="AN20" s="9"/>
+      <c r="AO20" s="10"/>
+      <c r="AP20" s="10"/>
+      <c r="AQ20" s="10"/>
       <c r="AU20" s="3">
         <v>4</v>
       </c>
@@ -6680,43 +6860,83 @@
       <c r="AW20"/>
       <c r="AX20" s="12">
         <f t="shared" si="5"/>
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="21" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C21" s="3">
         <v>5</v>
       </c>
       <c r="G21" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="10"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="9"/>
+        <v>0.9</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="U21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="V21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="W21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="X21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA21" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="AE21" s="3">
         <v>5</v>
       </c>
       <c r="AG21" s="12">
         <f t="shared" si="1"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AH21" s="10" t="s">
         <v>12</v>
@@ -6730,8 +6950,8 @@
       <c r="AK21" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AL21" s="9" t="s">
-        <v>11</v>
+      <c r="AL21" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="AM21" s="10" t="s">
         <v>12</v>
@@ -6755,58 +6975,98 @@
       <c r="AW21"/>
       <c r="AX21" s="12">
         <f t="shared" si="5"/>
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="22" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="22" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C22" s="3">
         <v>6</v>
       </c>
       <c r="G22" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="10"/>
+        <v>0.9</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="R22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="T22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="U22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="V22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="W22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="X22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA22" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="AE22" s="3">
         <v>6</v>
       </c>
       <c r="AG22" s="12">
         <f t="shared" si="1"/>
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AH22" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AI22" s="10" t="s">
-        <v>12</v>
+      <c r="AI22" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="AJ22" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AK22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL22" s="9" t="s">
-        <v>11</v>
+      <c r="AK22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL22" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="AM22" s="10" t="s">
         <v>12</v>
@@ -6830,10 +7090,10 @@
       <c r="AW22"/>
       <c r="AX22" s="12">
         <f t="shared" si="5"/>
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="23" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+        <v>0.85000000000000009</v>
+      </c>
+    </row>
+    <row r="23" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C23" s="3">
         <v>7</v>
       </c>
@@ -6866,38 +7126,18 @@
       </c>
       <c r="AG23" s="12">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AH23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AQ23" s="10" t="s">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AH23" s="10"/>
+      <c r="AI23" s="10"/>
+      <c r="AJ23" s="10"/>
+      <c r="AK23" s="10"/>
+      <c r="AL23" s="10"/>
+      <c r="AM23" s="10"/>
+      <c r="AN23" s="10"/>
+      <c r="AO23" s="10"/>
+      <c r="AP23" s="10"/>
+      <c r="AQ23" s="10"/>
       <c r="AU23" s="3">
         <v>7</v>
       </c>
@@ -6905,43 +7145,83 @@
       <c r="AW23"/>
       <c r="AX23" s="12">
         <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="24" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C24" s="3">
         <v>8</v>
       </c>
       <c r="G24" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="10"/>
-      <c r="AA24" s="9"/>
+        <v>0.95</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="R24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="T24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="U24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="V24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="W24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="X24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA24" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="AE24" s="3">
         <v>8</v>
       </c>
       <c r="AG24" s="12">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AH24" s="10" t="s">
         <v>12</v>
@@ -6964,8 +7244,8 @@
       <c r="AN24" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AO24" s="10" t="s">
-        <v>12</v>
+      <c r="AO24" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="AP24" s="10" t="s">
         <v>12</v>
@@ -6980,43 +7260,83 @@
       <c r="AW24"/>
       <c r="AX24" s="12">
         <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C25" s="3">
         <v>9</v>
       </c>
       <c r="G25" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="9"/>
-      <c r="AA25" s="9"/>
+        <v>0.45</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="R25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="U25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="V25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="W25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="X25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA25" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="AE25" s="3">
         <v>9</v>
       </c>
       <c r="AG25" s="12">
         <f t="shared" si="1"/>
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AH25" s="10" t="s">
         <v>12</v>
@@ -7024,11 +7344,11 @@
       <c r="AI25" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AJ25" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK25" s="10" t="s">
-        <v>12</v>
+      <c r="AJ25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK25" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="AL25" s="10" t="s">
         <v>12</v>
@@ -7036,8 +7356,8 @@
       <c r="AM25" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AN25" s="9" t="s">
-        <v>11</v>
+      <c r="AN25" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="AO25" s="10" t="s">
         <v>12</v>
@@ -7055,37 +7375,77 @@
       <c r="AW25"/>
       <c r="AX25" s="12">
         <f t="shared" si="5"/>
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="26" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="26" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C26" s="3">
         <v>10</v>
       </c>
       <c r="G26" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
-      <c r="AA26" s="9"/>
+        <v>0.45</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="R26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="T26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="U26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="V26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="W26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="X26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA26" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="AE26" s="3">
         <v>10</v>
       </c>
@@ -7099,8 +7459,8 @@
       <c r="AI26" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AJ26" s="9" t="s">
-        <v>11</v>
+      <c r="AJ26" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="AK26" s="10" t="s">
         <v>12</v>
@@ -7114,8 +7474,8 @@
       <c r="AN26" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AO26" s="10" t="s">
-        <v>12</v>
+      <c r="AO26" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="AP26" s="10" t="s">
         <v>12</v>
@@ -7130,67 +7490,107 @@
       <c r="AW26"/>
       <c r="AX26" s="12">
         <f t="shared" si="5"/>
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="27" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+        <v>0.67500000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C27" s="3">
         <v>11</v>
       </c>
       <c r="G27" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
-      <c r="AA27" s="9"/>
+        <v>0.85</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="R27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="T27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="U27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="V27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="W27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="X27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA27" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="AE27" s="3">
         <v>11</v>
       </c>
       <c r="AG27" s="12">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AH27" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AI27" s="10" t="s">
-        <v>12</v>
+      <c r="AI27" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="AJ27" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AK27" s="10" t="s">
-        <v>12</v>
+      <c r="AK27" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="AL27" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AM27" s="10" t="s">
-        <v>12</v>
+      <c r="AM27" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="AN27" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AO27" s="10" t="s">
-        <v>12</v>
+      <c r="AO27" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="AP27" s="10" t="s">
         <v>12</v>
@@ -7205,43 +7605,83 @@
       <c r="AW27"/>
       <c r="AX27" s="12">
         <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="28" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+        <v>0.72499999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C28" s="3">
         <v>12</v>
       </c>
       <c r="G28" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="10"/>
-      <c r="AA28" s="9"/>
+        <v>0.7</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="R28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="T28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="U28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="V28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="W28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="X28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA28" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="AE28" s="3">
         <v>12</v>
       </c>
       <c r="AG28" s="12">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AH28" s="10" t="s">
         <v>12</v>
@@ -7264,8 +7704,8 @@
       <c r="AN28" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AO28" s="10" t="s">
-        <v>12</v>
+      <c r="AO28" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="AP28" s="10" t="s">
         <v>12</v>
@@ -7280,10 +7720,10 @@
       <c r="AW28"/>
       <c r="AX28" s="12">
         <f t="shared" si="5"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="29" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="29" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C29" s="3">
         <v>13</v>
       </c>
@@ -7316,38 +7756,18 @@
       </c>
       <c r="AG29" s="12">
         <f t="shared" si="1"/>
-        <v>0.7</v>
-      </c>
-      <c r="AH29" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI29" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ29" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK29" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL29" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AM29" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN29" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO29" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP29" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AQ29" s="10" t="s">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AH29" s="10"/>
+      <c r="AI29" s="10"/>
+      <c r="AJ29" s="10"/>
+      <c r="AK29" s="10"/>
+      <c r="AL29" s="9"/>
+      <c r="AM29" s="10"/>
+      <c r="AN29" s="9"/>
+      <c r="AO29" s="10"/>
+      <c r="AP29" s="9"/>
+      <c r="AQ29" s="10"/>
       <c r="AU29" s="3">
         <v>13</v>
       </c>
@@ -7355,37 +7775,77 @@
       <c r="AW29"/>
       <c r="AX29" s="12">
         <f t="shared" si="5"/>
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="30" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C30" s="3">
         <v>14</v>
       </c>
       <c r="G30" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="9"/>
-      <c r="X30" s="9"/>
-      <c r="Y30" s="10"/>
-      <c r="Z30" s="10"/>
-      <c r="AA30" s="9"/>
+        <v>0.8</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O30" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="R30" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="T30" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="U30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="V30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="W30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="X30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA30" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="AE30" s="3">
         <v>14</v>
       </c>
@@ -7396,8 +7856,8 @@
       <c r="AH30" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AI30" s="10" t="s">
-        <v>12</v>
+      <c r="AI30" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="AJ30" s="10" t="s">
         <v>12</v>
@@ -7405,8 +7865,8 @@
       <c r="AK30" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AL30" s="9" t="s">
-        <v>11</v>
+      <c r="AL30" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="AM30" s="10" t="s">
         <v>12</v>
@@ -7430,90 +7890,90 @@
       <c r="AW30"/>
       <c r="AX30" s="12">
         <f t="shared" si="5"/>
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="31" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+        <v>0.85000000000000009</v>
+      </c>
+    </row>
+    <row r="31" spans="2:50" x14ac:dyDescent="0.4">
       <c r="G31" s="5"/>
       <c r="H31" s="15">
         <f>(COUNTIF(H17:H30,"○"))/14</f>
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="I31" s="15">
         <f t="shared" ref="I31:AA31" si="6">(COUNTIF(I17:I30,"○"))/14</f>
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="J31" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="K31" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L31" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="M31" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="N31" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="O31" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P31" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="Q31" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="R31" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="S31" s="15">
         <f>(COUNTIF(S17:S30,"○"))/14</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T31" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="U31" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="V31" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="W31" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="X31" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="Y31" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Z31" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA31" s="15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AD31" s="3" t="s">
         <v>5</v>
@@ -7523,7 +7983,7 @@
       </c>
       <c r="AG31" s="12">
         <f t="shared" si="1"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AH31" s="10" t="s">
         <v>12</v>
@@ -7543,8 +8003,8 @@
       <c r="AM31" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AN31" s="9" t="s">
-        <v>11</v>
+      <c r="AN31" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="AO31" s="10" t="s">
         <v>12</v>
@@ -7565,10 +8025,10 @@
       <c r="AW31"/>
       <c r="AX31" s="12">
         <f>AG31</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="32" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:50" x14ac:dyDescent="0.4">
       <c r="G32" s="12"/>
       <c r="AE32" s="3">
         <v>2</v>
@@ -7580,17 +8040,17 @@
       <c r="AH32" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AI32" s="10" t="s">
-        <v>12</v>
+      <c r="AI32" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="AJ32" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AK32" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL32" s="9" t="s">
-        <v>11</v>
+      <c r="AK32" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL32" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="AM32" s="10" t="s">
         <v>12</v>
@@ -7601,8 +8061,8 @@
       <c r="AO32" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AP32" s="9" t="s">
-        <v>11</v>
+      <c r="AP32" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="AQ32" s="10" t="s">
         <v>12</v>
@@ -7613,11 +8073,11 @@
       <c r="AV32"/>
       <c r="AW32"/>
       <c r="AX32" s="12">
-        <f t="shared" ref="AX32:AX36" si="7">AG32</f>
+        <f t="shared" ref="AX32:AX37" si="7">AG32</f>
         <v>0.8</v>
       </c>
     </row>
-    <row r="33" spans="30:50" x14ac:dyDescent="0.25">
+    <row r="33" spans="30:50" x14ac:dyDescent="0.4">
       <c r="AD33" s="3" t="s">
         <v>7</v>
       </c>
@@ -7626,38 +8086,18 @@
       </c>
       <c r="AG33" s="12">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AH33" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI33" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ33" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK33" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL33" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM33" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN33" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO33" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP33" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AQ33" s="10" t="s">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AH33" s="10"/>
+      <c r="AI33" s="10"/>
+      <c r="AJ33" s="10"/>
+      <c r="AK33" s="10"/>
+      <c r="AL33" s="10"/>
+      <c r="AM33" s="10"/>
+      <c r="AN33" s="10"/>
+      <c r="AO33" s="10"/>
+      <c r="AP33" s="10"/>
+      <c r="AQ33" s="10"/>
       <c r="AT33" s="3" t="s">
         <v>7</v>
       </c>
@@ -7668,47 +8108,27 @@
       <c r="AW33"/>
       <c r="AX33" s="12">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="30:50" ht="16.5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="30:50" x14ac:dyDescent="0.4">
       <c r="AE34" s="3">
         <v>2</v>
       </c>
       <c r="AG34" s="12">
         <f t="shared" si="1"/>
-        <v>0.9</v>
-      </c>
-      <c r="AH34" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI34" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ34" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK34" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL34" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM34" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN34" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO34" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP34" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AQ34" s="10" t="s">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AH34" s="10"/>
+      <c r="AI34" s="10"/>
+      <c r="AJ34" s="10"/>
+      <c r="AK34" s="10"/>
+      <c r="AL34" s="10"/>
+      <c r="AM34" s="10"/>
+      <c r="AN34" s="9"/>
+      <c r="AO34" s="10"/>
+      <c r="AP34" s="10"/>
+      <c r="AQ34" s="10"/>
       <c r="AU34" s="3">
         <v>2</v>
       </c>
@@ -7716,47 +8136,27 @@
       <c r="AW34"/>
       <c r="AX34" s="12">
         <f t="shared" si="7"/>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="35" spans="30:50" ht="16.5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="30:50" x14ac:dyDescent="0.4">
       <c r="AE35" s="3">
         <v>3</v>
       </c>
       <c r="AG35" s="12">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="AH35" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI35" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AJ35" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK35" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL35" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AM35" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AN35" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AO35" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP35" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="AQ35" s="9" t="s">
-        <v>11</v>
-      </c>
+        <f>(COUNTIF(AH35:AQ35,"○")/10)</f>
+        <v>0</v>
+      </c>
+      <c r="AH35" s="10"/>
+      <c r="AI35" s="10"/>
+      <c r="AJ35" s="10"/>
+      <c r="AK35" s="10"/>
+      <c r="AL35" s="10"/>
+      <c r="AM35" s="10"/>
+      <c r="AN35" s="10"/>
+      <c r="AO35" s="10"/>
+      <c r="AP35" s="9"/>
+      <c r="AQ35" s="9"/>
       <c r="AU35" s="3">
         <v>3</v>
       </c>
@@ -7764,31 +8164,28 @@
       <c r="AW35"/>
       <c r="AX35" s="12">
         <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="30:50" x14ac:dyDescent="0.4">
+      <c r="AE36" s="3">
+        <v>4</v>
+      </c>
+      <c r="AG36" s="12">
+        <f>(COUNTIF(AH36:AQ36,"○")/10)</f>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="36" spans="30:50" x14ac:dyDescent="0.25">
-      <c r="AD36" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE36" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG36" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
       <c r="AH36" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AI36" s="10" t="s">
-        <v>12</v>
+      <c r="AI36" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="AJ36" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AK36" s="10" t="s">
-        <v>12</v>
+      <c r="AK36" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="AL36" s="10" t="s">
         <v>12</v>
@@ -7808,76 +8205,108 @@
       <c r="AQ36" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="AT36" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="AU36" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AV36"/>
       <c r="AW36"/>
       <c r="AX36" s="12">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="30:50" x14ac:dyDescent="0.25">
-      <c r="AH37" s="15">
-        <f>(COUNTIF(AH3:AH36,"○")/32)</f>
-        <v>1</v>
-      </c>
-      <c r="AI37" s="15">
-        <f t="shared" ref="AI37:AQ37" si="8">(COUNTIF(AI3:AI36,"○")/32)</f>
-        <v>0.9375</v>
-      </c>
-      <c r="AJ37" s="15">
-        <f t="shared" si="8"/>
-        <v>0.9375</v>
-      </c>
-      <c r="AK37" s="15">
-        <f t="shared" si="8"/>
-        <v>0.96875</v>
-      </c>
-      <c r="AL37" s="15">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="37" spans="30:50" x14ac:dyDescent="0.4">
+      <c r="AD37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE37" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG37" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH37" s="10"/>
+      <c r="AI37" s="10"/>
+      <c r="AJ37" s="10"/>
+      <c r="AK37" s="10"/>
+      <c r="AL37" s="10"/>
+      <c r="AM37" s="10"/>
+      <c r="AN37" s="10"/>
+      <c r="AO37" s="10"/>
+      <c r="AP37" s="10"/>
+      <c r="AQ37" s="10"/>
+      <c r="AT37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU37" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV37"/>
+      <c r="AW37"/>
+      <c r="AX37" s="12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="30:50" x14ac:dyDescent="0.4">
+      <c r="AH38" s="15">
+        <f>(COUNTIF(AH3:AH37,"○")/32)</f>
+        <v>0.625</v>
+      </c>
+      <c r="AI38" s="15">
+        <f t="shared" ref="AI38:AQ38" si="8">(COUNTIF(AI3:AI37,"○")/32)</f>
+        <v>0.34375</v>
+      </c>
+      <c r="AJ38" s="15">
         <f t="shared" si="8"/>
         <v>0.59375</v>
       </c>
-      <c r="AM37" s="15">
+      <c r="AK38" s="15">
         <f t="shared" si="8"/>
-        <v>0.875</v>
-      </c>
-      <c r="AN37" s="15">
+        <v>0.3125</v>
+      </c>
+      <c r="AL38" s="15">
         <f t="shared" si="8"/>
-        <v>0.5625</v>
-      </c>
-      <c r="AO37" s="15">
+        <v>0.625</v>
+      </c>
+      <c r="AM38" s="15">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AP37" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="AN38" s="15">
         <f t="shared" si="8"/>
-        <v>0.875</v>
-      </c>
-      <c r="AQ37" s="15">
+        <v>0.625</v>
+      </c>
+      <c r="AO38" s="15">
         <f t="shared" si="8"/>
-        <v>0.9375</v>
-      </c>
-      <c r="AV37"/>
-      <c r="AW37"/>
-    </row>
-    <row r="38" spans="30:50" x14ac:dyDescent="0.25">
+        <v>0.4375</v>
+      </c>
+      <c r="AP38" s="15">
+        <f t="shared" si="8"/>
+        <v>0.625</v>
+      </c>
+      <c r="AQ38" s="15">
+        <f t="shared" si="8"/>
+        <v>0.625</v>
+      </c>
       <c r="AV38"/>
       <c r="AW38"/>
-      <c r="AX38" s="12"/>
-    </row>
-    <row r="39" spans="30:50" x14ac:dyDescent="0.25">
-      <c r="AG39" s="12"/>
+    </row>
+    <row r="39" spans="30:50" x14ac:dyDescent="0.4">
+      <c r="AV39"/>
+      <c r="AW39"/>
+      <c r="AX39" s="12"/>
+    </row>
+    <row r="40" spans="30:50" x14ac:dyDescent="0.4">
+      <c r="AG40" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="H1:AA1"/>
     <mergeCell ref="AH1:AQ1"/>
   </mergeCells>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7889,15 +8318,15 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10" style="3" customWidth="1"/>
-    <col min="2" max="3" width="8.5703125" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" style="3" customWidth="1"/>
+    <col min="2" max="3" width="8.625" customWidth="1"/>
+    <col min="4" max="4" width="5.75" style="3" customWidth="1"/>
     <col min="5" max="21" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -7943,7 +8372,7 @@
       </c>
       <c r="T1" s="21"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -7997,7 +8426,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -8059,7 +8488,7 @@
         <v>7.7279999999999996E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B4" s="3"/>
       <c r="C4" s="3">
         <v>2</v>
@@ -8116,7 +8545,7 @@
         <v>1.6605000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -8175,7 +8604,7 @@
         <v>7.7279999999999996E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B6" s="3"/>
       <c r="C6" s="3">
         <v>2</v>
@@ -8232,7 +8661,7 @@
         <v>3.5469999999999998E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B7" s="3"/>
       <c r="C7" s="3">
         <v>3</v>
@@ -8289,7 +8718,7 @@
         <v>5.9639999999999997E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B8" s="3">
         <v>5</v>
       </c>
@@ -8348,7 +8777,7 @@
         <v>7.0330000000000002E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B9" s="3"/>
       <c r="C9" s="3">
         <v>2</v>
@@ -8405,7 +8834,7 @@
         <v>6.0879999999999997E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B10" s="3"/>
       <c r="C10" s="3">
         <v>3</v>
@@ -8462,7 +8891,7 @@
         <v>7.071E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B11" s="3"/>
       <c r="C11" s="3">
         <v>4</v>
@@ -8519,7 +8948,7 @@
         <v>3.5469999999999998E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B12" s="3"/>
       <c r="C12" s="3">
         <v>5</v>
@@ -8576,12 +9005,12 @@
         <v>5.9639999999999997E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="12"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
@@ -8643,7 +9072,7 @@
         <v>2.9637E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B15" s="3"/>
       <c r="C15" s="3">
         <v>2</v>
@@ -8700,7 +9129,7 @@
         <v>1.8419999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B16" s="3"/>
       <c r="C16" s="3">
         <v>3</v>
@@ -8757,12 +9186,12 @@
         <v>2.4237999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="12"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
@@ -8824,7 +9253,7 @@
         <v>7.541E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B19" s="3"/>
       <c r="C19" s="3">
         <v>2</v>
@@ -8881,7 +9310,7 @@
         <v>5.2220000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B20" s="3">
         <v>4</v>
       </c>
@@ -8940,7 +9369,7 @@
         <v>1.9769999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B21" s="3"/>
       <c r="C21" s="3">
         <v>2</v>
@@ -8997,7 +9426,7 @@
         <v>5.6049999999999997E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B22" s="3"/>
       <c r="C22" s="3">
         <v>3</v>
@@ -9054,7 +9483,7 @@
         <v>1.9319999999999999E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B23" s="3"/>
       <c r="C23" s="3">
         <v>4</v>
@@ -9111,31 +9540,31 @@
         <v>4.1510000000000002E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="5"/>

--- a/Experiment-Data/Answer-Data.xlsx
+++ b/Experiment-Data/Answer-Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\eye-tracking-software\Experiment-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93E7A11-1ADB-4B52-88E1-F9928BEDEA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D73BD0F-D6D5-4E86-AA23-FA8B29497E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{65F65776-174E-4145-8CCF-AA6B8A50F68A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{65F65776-174E-4145-8CCF-AA6B8A50F68A}"/>
   </bookViews>
   <sheets>
     <sheet name="1st" sheetId="1" r:id="rId1"/>
@@ -644,7 +644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C853D4-11AD-448C-900A-323815755F36}">
   <dimension ref="A1:AX39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4995,7 +4995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8CCB7AF-21A6-41ED-886C-DD886AE34E4A}">
   <dimension ref="A1:AX40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="AX36" sqref="AX36"/>
     </sheetView>
   </sheetViews>
@@ -8316,7 +8316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88CCFB4E-3D94-4A97-83BE-04827B31FA43}">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>

--- a/Experiment-Data/Answer-Data.xlsx
+++ b/Experiment-Data/Answer-Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\eye-tracking-software\Experiment-Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\www\Desktop\eye-tracking-software\Experiment-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D73BD0F-D6D5-4E86-AA23-FA8B29497E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2587BF61-8A40-4709-9831-751664A54DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{65F65776-174E-4145-8CCF-AA6B8A50F68A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{65F65776-174E-4145-8CCF-AA6B8A50F68A}"/>
   </bookViews>
   <sheets>
     <sheet name="1st" sheetId="1" r:id="rId1"/>
@@ -176,7 +176,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -188,7 +188,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Aptos Narrow"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -648,20 +648,20 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="3" customWidth="1"/>
-    <col min="2" max="6" width="4.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="6.25" style="13" customWidth="1"/>
-    <col min="8" max="27" width="4.375" style="2" customWidth="1"/>
-    <col min="28" max="28" width="4.125" style="3" customWidth="1"/>
+    <col min="2" max="6" width="4.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" style="13" customWidth="1"/>
+    <col min="8" max="27" width="4.42578125" style="2" customWidth="1"/>
+    <col min="28" max="28" width="4.140625" style="3" customWidth="1"/>
     <col min="29" max="29" width="10" style="3" customWidth="1"/>
-    <col min="30" max="32" width="4.25" style="3" customWidth="1"/>
-    <col min="33" max="33" width="6.125" style="3" customWidth="1"/>
-    <col min="34" max="43" width="4.375" style="4" customWidth="1"/>
+    <col min="30" max="32" width="4.28515625" style="3" customWidth="1"/>
+    <col min="33" max="33" width="6.140625" style="3" customWidth="1"/>
+    <col min="34" max="43" width="4.42578125" style="4" customWidth="1"/>
     <col min="45" max="45" width="10" style="3" customWidth="1"/>
-    <col min="46" max="49" width="4.25" style="3" customWidth="1"/>
-    <col min="50" max="50" width="6.125" style="3" customWidth="1"/>
+    <col min="46" max="49" width="4.28515625" style="3" customWidth="1"/>
+    <col min="50" max="50" width="6.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -866,7 +866,7 @@
       <c r="AW2" s="5"/>
       <c r="AX2" s="5"/>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C4" s="3">
         <v>2</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>0.52499999999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="G5" s="12"/>
       <c r="H5" s="16">
         <f>(COUNTIF(H3:H4,"○"))/2</f>
@@ -1241,7 +1241,7 @@
       <c r="AQ5" s="1"/>
       <c r="AX5" s="12"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C7" s="3">
         <v>2</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C8" s="3">
         <v>3</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C9" s="3">
         <v>4</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C10" s="3">
         <v>5</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C11" s="3">
         <v>6</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C12" s="3">
         <v>7</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>0.67500000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C13" s="3">
         <v>8</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C14" s="3">
         <v>9</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>0.72500000000000009</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C15" s="3">
         <v>10</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="G16" s="12"/>
       <c r="H16" s="16">
         <f>(COUNTIF(H6:H15,"○"))/10</f>
@@ -2655,7 +2655,7 @@
       <c r="AQ16" s="1"/>
       <c r="AX16" s="12"/>
     </row>
-    <row r="17" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C18" s="3">
         <v>2</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="19" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C19" s="3">
         <v>3</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C20" s="3">
         <v>4</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="21" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C21" s="3">
         <v>5</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="22" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C22" s="3">
         <v>6</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="23" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C23" s="3">
         <v>7</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="24" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C24" s="3">
         <v>8</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="25" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C25" s="3">
         <v>9</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="26" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C26" s="3">
         <v>10</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C27" s="3">
         <v>11</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="28" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C28" s="3">
         <v>12</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="29" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C29" s="3">
         <v>13</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>0.39999999999999997</v>
       </c>
     </row>
-    <row r="30" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C30" s="3">
         <v>14</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="G31" s="5"/>
       <c r="H31" s="15">
         <f>(COUNTIF(H17:H30,"○"))/14</f>
@@ -4640,7 +4640,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="32" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="G32" s="12"/>
       <c r="AE32" s="3">
         <v>2</v>
@@ -4696,7 +4696,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="33" spans="30:50" x14ac:dyDescent="0.4">
+    <row r="33" spans="30:50" x14ac:dyDescent="0.25">
       <c r="AD33" s="3" t="s">
         <v>7</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="30:50" x14ac:dyDescent="0.4">
+    <row r="34" spans="30:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="AE34" s="3">
         <v>2</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="35" spans="30:50" x14ac:dyDescent="0.4">
+    <row r="35" spans="30:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="AE35" s="3">
         <v>3</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="36" spans="30:50" x14ac:dyDescent="0.4">
+    <row r="36" spans="30:50" x14ac:dyDescent="0.25">
       <c r="AD36" s="3" t="s">
         <v>6</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="30:50" x14ac:dyDescent="0.4">
+    <row r="37" spans="30:50" x14ac:dyDescent="0.25">
       <c r="AH37" s="15">
         <f>(COUNTIF(AH3:AH36,"○")/32)</f>
         <v>1</v>
@@ -4972,12 +4972,12 @@
       <c r="AV37"/>
       <c r="AW37"/>
     </row>
-    <row r="38" spans="30:50" x14ac:dyDescent="0.4">
+    <row r="38" spans="30:50" x14ac:dyDescent="0.25">
       <c r="AV38"/>
       <c r="AW38"/>
       <c r="AX38" s="12"/>
     </row>
-    <row r="39" spans="30:50" x14ac:dyDescent="0.4">
+    <row r="39" spans="30:50" x14ac:dyDescent="0.25">
       <c r="AG39" s="12"/>
     </row>
   </sheetData>
@@ -4995,24 +4995,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8CCB7AF-21A6-41ED-886C-DD886AE34E4A}">
   <dimension ref="A1:AX40"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AX36" sqref="AX36"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AZ10" sqref="AZ10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="3" customWidth="1"/>
-    <col min="2" max="6" width="4.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="6.25" style="13" customWidth="1"/>
-    <col min="8" max="27" width="4.375" style="2" customWidth="1"/>
-    <col min="28" max="28" width="4.125" style="3" customWidth="1"/>
+    <col min="2" max="6" width="4.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" style="13" customWidth="1"/>
+    <col min="8" max="27" width="4.42578125" style="2" customWidth="1"/>
+    <col min="28" max="28" width="4.140625" style="3" customWidth="1"/>
     <col min="29" max="29" width="10" style="3" customWidth="1"/>
-    <col min="30" max="32" width="4.25" style="3" customWidth="1"/>
-    <col min="33" max="33" width="6.125" style="3" customWidth="1"/>
-    <col min="34" max="43" width="4.375" style="4" customWidth="1"/>
+    <col min="30" max="32" width="4.28515625" style="3" customWidth="1"/>
+    <col min="33" max="33" width="6.140625" style="3" customWidth="1"/>
+    <col min="34" max="43" width="4.42578125" style="4" customWidth="1"/>
     <col min="45" max="45" width="10" style="3" customWidth="1"/>
-    <col min="46" max="49" width="4.25" style="3" customWidth="1"/>
-    <col min="50" max="50" width="6.125" style="3" customWidth="1"/>
+    <col min="46" max="49" width="4.28515625" style="3" customWidth="1"/>
+    <col min="50" max="50" width="6.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5217,7 +5217,7 @@
       <c r="AW2" s="5"/>
       <c r="AX2" s="5"/>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C4" s="3">
         <v>2</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="G5" s="12"/>
       <c r="H5" s="16">
         <f>(COUNTIF(H3:H4,"○"))/2</f>
@@ -5500,7 +5500,7 @@
       <c r="AQ5" s="1"/>
       <c r="AX5" s="12"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C7" s="3">
         <v>2</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C8" s="3">
         <v>3</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C9" s="3">
         <v>4</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C10" s="3">
         <v>5</v>
       </c>
@@ -5964,7 +5964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C11" s="3">
         <v>6</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C12" s="3">
         <v>7</v>
       </c>
@@ -6074,7 +6074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C13" s="3">
         <v>8</v>
       </c>
@@ -6189,7 +6189,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C14" s="3">
         <v>9</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C15" s="3">
         <v>10</v>
       </c>
@@ -6359,7 +6359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="G16" s="12"/>
       <c r="H16" s="16">
         <f>(COUNTIF(H6:H15,"○"))/10</f>
@@ -6454,7 +6454,7 @@
       <c r="AQ16" s="1"/>
       <c r="AX16" s="12"/>
     </row>
-    <row r="17" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>3</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="18" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C18" s="3">
         <v>2</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="19" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C19" s="3">
         <v>3</v>
       </c>
@@ -6808,7 +6808,7 @@
         <v>0.85000000000000009</v>
       </c>
     </row>
-    <row r="20" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C20" s="3">
         <v>4</v>
       </c>
@@ -6863,7 +6863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C21" s="3">
         <v>5</v>
       </c>
@@ -6978,7 +6978,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="22" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C22" s="3">
         <v>6</v>
       </c>
@@ -7093,7 +7093,7 @@
         <v>0.85000000000000009</v>
       </c>
     </row>
-    <row r="23" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C23" s="3">
         <v>7</v>
       </c>
@@ -7148,7 +7148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C24" s="3">
         <v>8</v>
       </c>
@@ -7263,7 +7263,7 @@
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="25" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C25" s="3">
         <v>9</v>
       </c>
@@ -7378,7 +7378,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="26" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C26" s="3">
         <v>10</v>
       </c>
@@ -7493,7 +7493,7 @@
         <v>0.67500000000000004</v>
       </c>
     </row>
-    <row r="27" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C27" s="3">
         <v>11</v>
       </c>
@@ -7608,7 +7608,7 @@
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="28" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C28" s="3">
         <v>12</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="29" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C29" s="3">
         <v>13</v>
       </c>
@@ -7778,7 +7778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C30" s="3">
         <v>14</v>
       </c>
@@ -7893,7 +7893,7 @@
         <v>0.85000000000000009</v>
       </c>
     </row>
-    <row r="31" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:50" x14ac:dyDescent="0.25">
       <c r="G31" s="5"/>
       <c r="H31" s="15">
         <f>(COUNTIF(H17:H30,"○"))/14</f>
@@ -8028,7 +8028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="G32" s="12"/>
       <c r="AE32" s="3">
         <v>2</v>
@@ -8077,7 +8077,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="33" spans="30:50" x14ac:dyDescent="0.4">
+    <row r="33" spans="30:50" x14ac:dyDescent="0.25">
       <c r="AD33" s="3" t="s">
         <v>7</v>
       </c>
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="30:50" x14ac:dyDescent="0.4">
+    <row r="34" spans="30:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="AE34" s="3">
         <v>2</v>
       </c>
@@ -8139,7 +8139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="30:50" x14ac:dyDescent="0.4">
+    <row r="35" spans="30:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="AE35" s="3">
         <v>3</v>
       </c>
@@ -8167,7 +8167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="30:50" x14ac:dyDescent="0.4">
+    <row r="36" spans="30:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="AE36" s="3">
         <v>4</v>
       </c>
@@ -8215,7 +8215,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="37" spans="30:50" x14ac:dyDescent="0.4">
+    <row r="37" spans="30:50" x14ac:dyDescent="0.25">
       <c r="AD37" s="3" t="s">
         <v>6</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="30:50" x14ac:dyDescent="0.4">
+    <row r="38" spans="30:50" x14ac:dyDescent="0.25">
       <c r="AH38" s="15">
         <f>(COUNTIF(AH3:AH37,"○")/32)</f>
         <v>0.625</v>
@@ -8293,12 +8293,12 @@
       <c r="AV38"/>
       <c r="AW38"/>
     </row>
-    <row r="39" spans="30:50" x14ac:dyDescent="0.4">
+    <row r="39" spans="30:50" x14ac:dyDescent="0.25">
       <c r="AV39"/>
       <c r="AW39"/>
       <c r="AX39" s="12"/>
     </row>
-    <row r="40" spans="30:50" x14ac:dyDescent="0.4">
+    <row r="40" spans="30:50" x14ac:dyDescent="0.25">
       <c r="AG40" s="12"/>
     </row>
   </sheetData>
@@ -8316,17 +8316,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88CCFB4E-3D94-4A97-83BE-04827B31FA43}">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="3" customWidth="1"/>
-    <col min="2" max="3" width="8.625" customWidth="1"/>
-    <col min="4" max="4" width="5.75" style="3" customWidth="1"/>
+    <col min="2" max="3" width="8.5703125" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" style="3" customWidth="1"/>
     <col min="5" max="21" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -8372,7 +8372,7 @@
       </c>
       <c r="T1" s="21"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -8426,7 +8426,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -8488,7 +8488,7 @@
         <v>7.7279999999999996E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="3">
         <v>2</v>
@@ -8545,7 +8545,7 @@
         <v>1.6605000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -8604,7 +8604,7 @@
         <v>7.7279999999999996E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="3">
         <v>2</v>
@@ -8661,7 +8661,7 @@
         <v>3.5469999999999998E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="3">
         <v>3</v>
@@ -8718,7 +8718,7 @@
         <v>5.9639999999999997E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>5</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>7.0330000000000002E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="3">
         <v>2</v>
@@ -8834,7 +8834,7 @@
         <v>6.0879999999999997E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="3">
         <v>3</v>
@@ -8891,7 +8891,7 @@
         <v>7.071E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="3">
         <v>4</v>
@@ -8948,7 +8948,7 @@
         <v>3.5469999999999998E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="3">
         <v>5</v>
@@ -9005,12 +9005,12 @@
         <v>5.9639999999999997E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="12"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
@@ -9072,7 +9072,7 @@
         <v>2.9637E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3">
         <v>2</v>
@@ -9129,7 +9129,7 @@
         <v>1.8419999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="3">
         <v>3</v>
@@ -9186,12 +9186,12 @@
         <v>2.4237999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="12"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
@@ -9253,7 +9253,7 @@
         <v>7.541E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="3">
         <v>2</v>
@@ -9310,7 +9310,7 @@
         <v>5.2220000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <v>4</v>
       </c>
@@ -9369,7 +9369,7 @@
         <v>1.9769999999999999E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="3">
         <v>2</v>
@@ -9426,7 +9426,7 @@
         <v>5.6049999999999997E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="3">
         <v>3</v>
@@ -9483,7 +9483,7 @@
         <v>1.9319999999999999E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="3">
         <v>4</v>
@@ -9540,31 +9540,31 @@
         <v>4.1510000000000002E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="5"/>

--- a/Experiment-Data/Answer-Data.xlsx
+++ b/Experiment-Data/Answer-Data.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\www\Desktop\eye-tracking-software\Experiment-Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\eye-tracking-software\Experiment-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A7508B-86C8-42C6-8A40-439979953893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0B7A31-2822-430E-AD49-FDC18F000B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{65F65776-174E-4145-8CCF-AA6B8A50F68A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{65F65776-174E-4145-8CCF-AA6B8A50F68A}"/>
   </bookViews>
   <sheets>
-    <sheet name="1st" sheetId="1" r:id="rId1"/>
-    <sheet name="1st-Features" sheetId="2" r:id="rId2"/>
-    <sheet name="2nd" sheetId="3" r:id="rId3"/>
+    <sheet name="1st-Scores" sheetId="1" r:id="rId1"/>
+    <sheet name="1st-E-Data" sheetId="2" r:id="rId2"/>
+    <sheet name="2nd-Scores" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -176,13 +176,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -194,7 +194,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="Aptos Narrow"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -244,6 +244,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -271,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -320,36 +326,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -357,8 +350,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -694,30 +690,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C853D4-11AD-448C-900A-323815755F36}">
-  <dimension ref="A1:BB44"/>
+  <dimension ref="A1:BB42"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T35" sqref="T35"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10" style="3" customWidth="1"/>
-    <col min="2" max="3" width="4.28515625" style="3" customWidth="1"/>
-    <col min="4" max="7" width="5.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" style="13" customWidth="1"/>
-    <col min="9" max="28" width="4.42578125" style="2" customWidth="1"/>
-    <col min="29" max="29" width="4.140625" style="3" customWidth="1"/>
+    <col min="2" max="3" width="4.25" style="3" customWidth="1"/>
+    <col min="4" max="7" width="5.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="6.25" style="13" customWidth="1"/>
+    <col min="9" max="28" width="4.375" style="2" customWidth="1"/>
+    <col min="29" max="29" width="4.125" style="3" customWidth="1"/>
     <col min="30" max="30" width="10" style="3" customWidth="1"/>
-    <col min="31" max="32" width="4.28515625" style="3" customWidth="1"/>
-    <col min="33" max="35" width="5.7109375" style="3" customWidth="1"/>
-    <col min="36" max="36" width="6.140625" style="3" customWidth="1"/>
-    <col min="37" max="46" width="4.42578125" style="4" customWidth="1"/>
-    <col min="47" max="47" width="4.140625" customWidth="1"/>
+    <col min="31" max="32" width="4.25" style="3" customWidth="1"/>
+    <col min="33" max="35" width="5.75" style="3" customWidth="1"/>
+    <col min="36" max="36" width="6.125" style="3" customWidth="1"/>
+    <col min="37" max="46" width="4.375" style="4" customWidth="1"/>
+    <col min="47" max="47" width="4.125" customWidth="1"/>
     <col min="48" max="48" width="10" style="3" customWidth="1"/>
-    <col min="49" max="50" width="4.28515625" style="3" customWidth="1"/>
-    <col min="51" max="53" width="5.7109375" style="3" customWidth="1"/>
-    <col min="54" max="54" width="6.140625" style="3" customWidth="1"/>
+    <col min="49" max="50" width="4.25" style="3" customWidth="1"/>
+    <col min="51" max="53" width="5.75" style="3" customWidth="1"/>
+    <col min="54" max="54" width="6.125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -745,28 +741,28 @@
       <c r="H1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
       <c r="AC1" s="5"/>
       <c r="AD1" s="5" t="s">
         <v>10</v>
@@ -789,18 +785,18 @@
       <c r="AJ1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="AK1" s="19" t="s">
+      <c r="AK1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="19"/>
-      <c r="AO1" s="19"/>
-      <c r="AP1" s="19"/>
-      <c r="AQ1" s="19"/>
-      <c r="AR1" s="19"/>
-      <c r="AS1" s="19"/>
-      <c r="AT1" s="19"/>
+      <c r="AL1" s="23"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
+      <c r="AO1" s="23"/>
+      <c r="AP1" s="23"/>
+      <c r="AQ1" s="23"/>
+      <c r="AR1" s="23"/>
+      <c r="AS1" s="23"/>
+      <c r="AT1" s="23"/>
       <c r="AV1" s="5" t="s">
         <v>10</v>
       </c>
@@ -938,7 +934,7 @@
       <c r="BA2" s="5"/>
       <c r="BB2" s="5"/>
     </row>
-    <row r="3" spans="1:54" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1099,7 +1095,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:54" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.4">
       <c r="C4" s="3">
         <v>2</v>
       </c>
@@ -1242,7 +1238,7 @@
         <v>0.52499999999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.4">
       <c r="H5" s="12"/>
       <c r="I5" s="16">
         <f>(COUNTIF(I3:I4,"○"))/2</f>
@@ -1337,7 +1333,7 @@
       <c r="AT5" s="1"/>
       <c r="BB5" s="12"/>
     </row>
-    <row r="6" spans="1:54" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1485,11 +1481,11 @@
         <v>2</v>
       </c>
       <c r="BB6" s="12">
-        <f>(H6+AJ6)/2</f>
+        <f t="shared" ref="BB6:BB15" si="3">(H6+AJ6)/2</f>
         <v>0.85</v>
       </c>
     </row>
-    <row r="7" spans="1:54" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.4">
       <c r="C7" s="3">
         <v>2</v>
       </c>
@@ -1628,11 +1624,11 @@
         <v>3</v>
       </c>
       <c r="BB7" s="12">
-        <f>(H7+AJ7)/2</f>
+        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:54" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.4">
       <c r="C8" s="3">
         <v>3</v>
       </c>
@@ -1771,11 +1767,11 @@
         <v>1</v>
       </c>
       <c r="BB8" s="12">
-        <f>(H8+AJ8)/2</f>
+        <f t="shared" si="3"/>
         <v>0.875</v>
       </c>
     </row>
-    <row r="9" spans="1:54" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.4">
       <c r="C9" s="3">
         <v>4</v>
       </c>
@@ -1914,11 +1910,11 @@
         <v>2</v>
       </c>
       <c r="BB9" s="12">
-        <f>(H9+AJ9)/2</f>
+        <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:54" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.4">
       <c r="C10" s="3">
         <v>5</v>
       </c>
@@ -2057,11 +2053,11 @@
         <v>4</v>
       </c>
       <c r="BB10" s="12">
-        <f>(H10+AJ10)/2</f>
+        <f t="shared" si="3"/>
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:54" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.4">
       <c r="C11" s="3">
         <v>6</v>
       </c>
@@ -2200,11 +2196,11 @@
         <v>4</v>
       </c>
       <c r="BB11" s="12">
-        <f>(H11+AJ11)/2</f>
+        <f t="shared" si="3"/>
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:54" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.4">
       <c r="C12" s="3">
         <v>7</v>
       </c>
@@ -2343,11 +2339,11 @@
         <v>3</v>
       </c>
       <c r="BB12" s="12">
-        <f>(H12+AJ12)/2</f>
+        <f t="shared" si="3"/>
         <v>0.67500000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:54" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.4">
       <c r="C13" s="3">
         <v>8</v>
       </c>
@@ -2486,11 +2482,11 @@
         <v>3</v>
       </c>
       <c r="BB13" s="12">
-        <f>(H13+AJ13)/2</f>
+        <f t="shared" si="3"/>
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:54" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.4">
       <c r="C14" s="3">
         <v>9</v>
       </c>
@@ -2629,11 +2625,11 @@
         <v>4</v>
       </c>
       <c r="BB14" s="12">
-        <f>(H14+AJ14)/2</f>
+        <f t="shared" si="3"/>
         <v>0.72500000000000009</v>
       </c>
     </row>
-    <row r="15" spans="1:54" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.4">
       <c r="C15" s="3">
         <v>10</v>
       </c>
@@ -2772,90 +2768,90 @@
         <v>3</v>
       </c>
       <c r="BB15" s="12">
-        <f>(H15+AJ15)/2</f>
+        <f t="shared" si="3"/>
         <v>0.9</v>
       </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.4">
       <c r="H16" s="12"/>
       <c r="I16" s="16">
         <f>(COUNTIF(I6:I15,"○"))/10</f>
         <v>0.6</v>
       </c>
       <c r="J16" s="16">
-        <f t="shared" ref="J16:AB16" si="3">(COUNTIF(J6:J15,"○"))/10</f>
+        <f t="shared" ref="J16:AB16" si="4">(COUNTIF(J6:J15,"○"))/10</f>
         <v>0.4</v>
       </c>
       <c r="K16" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
       <c r="L16" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
       <c r="M16" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N16" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.7</v>
       </c>
       <c r="O16" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
       <c r="P16" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q16" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.7</v>
       </c>
       <c r="R16" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
       <c r="S16" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="T16" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
       <c r="U16" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.7</v>
       </c>
       <c r="V16" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
       <c r="W16" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
       <c r="X16" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.7</v>
       </c>
       <c r="Y16" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Z16" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
       <c r="AA16" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.7</v>
       </c>
       <c r="AB16" s="16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.9</v>
       </c>
       <c r="AJ16" s="12"/>
@@ -2871,7 +2867,7 @@
       <c r="AT16" s="1"/>
       <c r="BB16" s="12"/>
     </row>
-    <row r="17" spans="1:54" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>3</v>
       </c>
@@ -3019,11 +3015,11 @@
         <v>3</v>
       </c>
       <c r="BB17" s="12">
-        <f>(H17+AJ17)/2</f>
+        <f t="shared" ref="BB17:BB30" si="5">(H17+AJ17)/2</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:54" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.4">
       <c r="C18" s="3">
         <v>2</v>
       </c>
@@ -3162,11 +3158,11 @@
         <v>3</v>
       </c>
       <c r="BB18" s="12">
-        <f>(H18+AJ18)/2</f>
+        <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="19" spans="1:54" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.4">
       <c r="C19" s="3">
         <v>3</v>
       </c>
@@ -3305,11 +3301,11 @@
         <v>4</v>
       </c>
       <c r="BB19" s="12">
-        <f>(H19+AJ19)/2</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:54" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.4">
       <c r="C20" s="3">
         <v>4</v>
       </c>
@@ -3448,11 +3444,11 @@
         <v>4</v>
       </c>
       <c r="BB20" s="12">
-        <f>(H20+AJ20)/2</f>
+        <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="21" spans="1:54" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.4">
       <c r="C21" s="3">
         <v>5</v>
       </c>
@@ -3591,11 +3587,11 @@
         <v>1</v>
       </c>
       <c r="BB21" s="12">
-        <f>(H21+AJ21)/2</f>
+        <f t="shared" si="5"/>
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:54" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.4">
       <c r="C22" s="3">
         <v>6</v>
       </c>
@@ -3734,11 +3730,11 @@
         <v>3</v>
       </c>
       <c r="BB22" s="12">
-        <f>(H22+AJ22)/2</f>
+        <f t="shared" si="5"/>
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:54" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.4">
       <c r="C23" s="3">
         <v>7</v>
       </c>
@@ -3877,11 +3873,11 @@
         <v>2</v>
       </c>
       <c r="BB23" s="12">
-        <f>(H23+AJ23)/2</f>
+        <f t="shared" si="5"/>
         <v>0.625</v>
       </c>
     </row>
-    <row r="24" spans="1:54" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:54" x14ac:dyDescent="0.4">
       <c r="C24" s="3">
         <v>8</v>
       </c>
@@ -4020,11 +4016,11 @@
         <v>1</v>
       </c>
       <c r="BB24" s="12">
-        <f>(H24+AJ24)/2</f>
+        <f t="shared" si="5"/>
         <v>0.625</v>
       </c>
     </row>
-    <row r="25" spans="1:54" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:54" x14ac:dyDescent="0.4">
       <c r="C25" s="3">
         <v>9</v>
       </c>
@@ -4163,11 +4159,11 @@
         <v>4</v>
       </c>
       <c r="BB25" s="12">
-        <f>(H25+AJ25)/2</f>
+        <f t="shared" si="5"/>
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:54" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.4">
       <c r="C26" s="3">
         <v>10</v>
       </c>
@@ -4306,11 +4302,11 @@
         <v>4</v>
       </c>
       <c r="BB26" s="12">
-        <f>(H26+AJ26)/2</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:54" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:54" x14ac:dyDescent="0.4">
       <c r="C27" s="3">
         <v>11</v>
       </c>
@@ -4449,11 +4445,11 @@
         <v>3</v>
       </c>
       <c r="BB27" s="12">
-        <f>(H27+AJ27)/2</f>
+        <f t="shared" si="5"/>
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:54" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:54" x14ac:dyDescent="0.4">
       <c r="C28" s="3">
         <v>12</v>
       </c>
@@ -4592,11 +4588,11 @@
         <v>3</v>
       </c>
       <c r="BB28" s="12">
-        <f>(H28+AJ28)/2</f>
+        <f t="shared" si="5"/>
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:54" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:54" x14ac:dyDescent="0.4">
       <c r="C29" s="3">
         <v>13</v>
       </c>
@@ -4735,11 +4731,11 @@
         <v>4</v>
       </c>
       <c r="BB29" s="12">
-        <f>(H29+AJ29)/2</f>
+        <f t="shared" si="5"/>
         <v>0.39999999999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:54" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:54" x14ac:dyDescent="0.4">
       <c r="C30" s="3">
         <v>14</v>
       </c>
@@ -4878,54 +4874,54 @@
         <v>3</v>
       </c>
       <c r="BB30" s="12">
-        <f>(H30+AJ30)/2</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:54" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:54" x14ac:dyDescent="0.4">
       <c r="H31" s="5"/>
       <c r="I31" s="15">
         <f>(COUNTIF(I17:I30,"○"))/14</f>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="J31" s="15">
-        <f t="shared" ref="J31:AB31" si="4">(COUNTIF(J17:J30,"○"))/14</f>
+        <f t="shared" ref="J31:AB31" si="6">(COUNTIF(J17:J30,"○"))/14</f>
         <v>0.14285714285714285</v>
       </c>
       <c r="K31" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="L31" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="M31" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.35714285714285715</v>
       </c>
       <c r="N31" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="O31" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.35714285714285715</v>
       </c>
       <c r="P31" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="Q31" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R31" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S31" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="T31" s="15">
@@ -4933,35 +4929,35 @@
         <v>0</v>
       </c>
       <c r="U31" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V31" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W31" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X31" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="Y31" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z31" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.35714285714285715</v>
       </c>
       <c r="AA31" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.7857142857142857</v>
       </c>
       <c r="AB31" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="AE31" s="3" t="s">
@@ -5033,26 +5029,26 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="32" spans="1:54" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="12">
         <f>AVERAGE(H3,H6,H8,H9,H19,H21,H23,H24,H26)</f>
         <v>0.46666666666666667</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="12">
         <f>AVERAGE(H3,H6,H8,H9,H19,H21,H23,H24,H26)</f>
         <v>0.46666666666666667</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="12">
         <f>AVERAGE(H8,H9,H21,H24)</f>
         <v>0.53749999999999998</v>
       </c>
-      <c r="G32" s="21">
+      <c r="G32" s="12">
         <f>AVERAGE(H8,H9,H24,H21)</f>
         <v>0.53749999999999998</v>
       </c>
@@ -5116,27 +5112,27 @@
         <v>1</v>
       </c>
       <c r="BB32" s="12">
-        <f t="shared" ref="BB32:BB36" si="5">AJ32</f>
+        <f t="shared" ref="BB32:BB36" si="7">AJ32</f>
         <v>0.8</v>
       </c>
     </row>
-    <row r="33" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:54" x14ac:dyDescent="0.4">
       <c r="C33" s="3">
         <v>2</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="12">
         <f>AVERAGE(H4,H7,H10,H11,H12,H13,H14,H15,H17,H18,H20,H22,H25,H27,H28,H29,H30)</f>
         <v>0.41176470588235298</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="12">
         <f>AVERAGE(H4,H7,H12,H13,H17,H18,H22,H27,H28)</f>
         <v>0.37222222222222223</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F33" s="12">
         <f>AVERAGE(H3,H6,H19,H23,H26)</f>
         <v>0.41</v>
       </c>
-      <c r="G33" s="21">
+      <c r="G33" s="12">
         <f>AVERAGE(H3,H6,H19,H23,H26)</f>
         <v>0.41</v>
       </c>
@@ -5205,24 +5201,23 @@
         <v>1</v>
       </c>
       <c r="BB33" s="12">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:54" ht="16.5" x14ac:dyDescent="0.3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:54" x14ac:dyDescent="0.4">
       <c r="C34" s="3">
         <v>3</v>
       </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="21">
+      <c r="E34" s="12">
         <f>AVERAGE(H10,H11,H14,H15,H20,H25,H29,H30)</f>
         <v>0.45624999999999999</v>
       </c>
-      <c r="F34" s="21">
+      <c r="F34" s="12">
         <f>AVERAGE(H4,H7,H12,H13,H17,H18,H22,H27,H28)</f>
         <v>0.37222222222222223</v>
       </c>
-      <c r="G34" s="21">
+      <c r="G34" s="12">
         <f>AVERAGE(H4,H7,H12,H13,H17,H18,H22,H27,H28)</f>
         <v>0.37222222222222223</v>
       </c>
@@ -5285,21 +5280,19 @@
         <v>2</v>
       </c>
       <c r="BB34" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.9</v>
       </c>
     </row>
-    <row r="35" spans="1:54" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:54" x14ac:dyDescent="0.4">
       <c r="C35" s="3">
         <v>4</v>
       </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="21">
+      <c r="F35" s="12">
         <f>AVERAGE(H10,H11,H14,H15,H20,H25,H29,H30)</f>
         <v>0.45624999999999999</v>
       </c>
-      <c r="G35" s="21">
+      <c r="G35" s="12">
         <f>AVERAGE(H14,H15,H20,H25)</f>
         <v>0.51250000000000007</v>
       </c>
@@ -5362,18 +5355,15 @@
         <v>3</v>
       </c>
       <c r="BB35" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.8</v>
       </c>
     </row>
-    <row r="36" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:54" x14ac:dyDescent="0.4">
       <c r="C36" s="3">
         <v>5</v>
       </c>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="21">
+      <c r="G36" s="12">
         <f>AVERAGE(H10,H11,H29,H30)</f>
         <v>0.4</v>
       </c>
@@ -5442,27 +5432,27 @@
         <v>1</v>
       </c>
       <c r="BB36" s="12">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:54" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:54" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="23">
+      <c r="D37" s="18">
         <f>_xlfn.STDEV.P(D32:D33)</f>
         <v>2.7450980392156848E-2</v>
       </c>
-      <c r="E37" s="23">
+      <c r="E37" s="18">
         <f>_xlfn.STDEV.P(E32:E34)</f>
         <v>4.2280712005378474E-2</v>
       </c>
-      <c r="F37" s="23">
+      <c r="F37" s="18">
         <f>_xlfn.STDEV.P(F32:F35)</f>
         <v>6.1644873448273775E-2</v>
       </c>
-      <c r="G37" s="26">
+      <c r="G37" s="19">
         <f>_xlfn.STDEV.P(G32:G36)</f>
         <v>6.5800718597149824E-2</v>
       </c>
@@ -5471,61 +5461,61 @@
         <v>1</v>
       </c>
       <c r="AL37" s="15">
-        <f t="shared" ref="AL37:AT37" si="6">(COUNTIF(AL3:AL36,"○")/32)</f>
+        <f t="shared" ref="AL37:AT37" si="8">(COUNTIF(AL3:AL36,"○")/32)</f>
         <v>0.9375</v>
       </c>
       <c r="AM37" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.9375</v>
       </c>
       <c r="AN37" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.96875</v>
       </c>
       <c r="AO37" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.59375</v>
       </c>
       <c r="AP37" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.875</v>
       </c>
       <c r="AQ37" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.5625</v>
       </c>
       <c r="AR37" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AS37" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.875</v>
       </c>
       <c r="AT37" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.9375</v>
       </c>
       <c r="AY37"/>
       <c r="AZ37"/>
       <c r="BA37"/>
     </row>
-    <row r="38" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:54" x14ac:dyDescent="0.4">
       <c r="AD38" s="3" t="s">
         <v>23</v>
       </c>
       <c r="AF38" s="3">
         <v>1</v>
       </c>
-      <c r="AG38" s="21">
+      <c r="AG38" s="12">
         <f>AVERAGE(AJ3,AJ6:AJ7,AJ9:AJ11,AJ14,AJ17,AJ25:AJ26,AJ29,AJ35)</f>
         <v>0.80833333333333324</v>
       </c>
-      <c r="AH38" s="21">
+      <c r="AH38" s="12">
         <f>AVERAGE(AJ3,AJ6,AJ7,AJ9:AJ11,AJ14,AJ17,AJ25:AJ26,AJ29,AJ35)</f>
         <v>0.80833333333333324</v>
       </c>
-      <c r="AI38" s="21">
+      <c r="AI38" s="12">
         <f>AVERAGE(AJ29,AJ26,AJ25,AJ9,AJ11)</f>
         <v>0.84000000000000008</v>
       </c>
@@ -5535,33 +5525,33 @@
       <c r="AX38" s="3">
         <v>1</v>
       </c>
-      <c r="AY38" s="21">
+      <c r="AY38" s="12">
         <f>AVERAGE(BB36,BB31:BB34,BB24,BB23,BB21,BB9,BB8,BB6,BB3)</f>
         <v>0.8041666666666667</v>
       </c>
-      <c r="AZ38" s="21">
+      <c r="AZ38" s="12">
         <f>AVERAGE(BB36,BB31:BB34,BB23:BB24,BB21,BB8:BB9,BB6,BB3)</f>
         <v>0.8041666666666667</v>
       </c>
-      <c r="BA38" s="21">
+      <c r="BA38" s="12">
         <f>AVERAGE(BB36,BB33,BB32,BB24,BB21,BB8)</f>
         <v>0.8125</v>
       </c>
       <c r="BB38" s="12"/>
     </row>
-    <row r="39" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:54" x14ac:dyDescent="0.4">
       <c r="AF39" s="3">
         <v>2</v>
       </c>
-      <c r="AG39" s="21">
+      <c r="AG39" s="12">
         <f>AVERAGE(AJ4,AJ8,AJ12:AJ13,AJ15,AJ18:AJ24,AJ27,AJ28,AJ30,AJ31,AJ32,AJ33,AJ34,AJ36)</f>
         <v>0.90500000000000003</v>
       </c>
-      <c r="AH39" s="21">
+      <c r="AH39" s="12">
         <f>AVERAGE(AJ4,AJ8,AJ20:AJ21,AJ23:AJ24,AJ27:AJ28,AJ30:AJ32,AJ34)</f>
         <v>0.9</v>
       </c>
-      <c r="AI39" s="21">
+      <c r="AI39" s="12">
         <f>AVERAGE(AJ3,AJ6,AJ7,AJ10,AJ14,AJ17,AJ35)</f>
         <v>0.7857142857142857</v>
       </c>
@@ -5569,112 +5559,90 @@
       <c r="AX39" s="3">
         <v>2</v>
       </c>
-      <c r="AY39" s="21">
+      <c r="AY39" s="12">
         <f>AVERAGE(BB35,BB25:BB30,BB22,BB18:BB20,BB17,BB15,BB10:BB14,BB7,BB4)</f>
         <v>0.62749999999999995</v>
       </c>
-      <c r="AZ39" s="21">
+      <c r="AZ39" s="12">
         <f>AVERAGE(BB35,BB30,BB27:BB28,BB22,BB17:BB18,BB15,BB12:BB13,BB7,BB4)</f>
         <v>0.65625</v>
       </c>
-      <c r="BA39" s="21">
+      <c r="BA39" s="12">
         <f>AVERAGE(BB34,BB31,BB23,BB6,BB9,BB3)</f>
         <v>0.79583333333333339</v>
       </c>
     </row>
-    <row r="40" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:54" x14ac:dyDescent="0.4">
       <c r="AF40" s="3">
         <v>3</v>
       </c>
-      <c r="AG40" s="22"/>
-      <c r="AH40" s="21">
+      <c r="AH40" s="12">
         <f>AVERAGE(AJ36,AJ33,AJ22,AJ18:AJ19,AJ15,AJ12,AJ13)</f>
         <v>0.91250000000000009</v>
       </c>
-      <c r="AI40" s="21">
+      <c r="AI40" s="12">
         <f>AVERAGE(AJ4,AJ8,AJ20:AJ21,AJ23,AJ24,AJ27,AJ28,AJ30,AJ31,AJ32,AJ34)</f>
         <v>0.9</v>
       </c>
       <c r="AX40" s="3">
         <v>3</v>
       </c>
-      <c r="AY40" s="22"/>
-      <c r="AZ40" s="21">
+      <c r="AZ40" s="12">
         <f>AVERAGE(BB29,BB25:BB26,BB20,BB19,BB14,BB11,BB10)</f>
         <v>0.58437499999999998</v>
       </c>
-      <c r="BA40" s="21">
+      <c r="BA40" s="12">
         <f>AVERAGE(BB35,BB30,BB28,BB27,BB22,BB18,BB17,BB15,BB13,BB12,BB7,BB4)</f>
         <v>0.65625000000000011</v>
       </c>
     </row>
-    <row r="41" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:54" x14ac:dyDescent="0.4">
       <c r="AF41" s="3">
         <v>4</v>
       </c>
-      <c r="AG41" s="22"/>
-      <c r="AH41" s="22"/>
-      <c r="AI41" s="21">
+      <c r="AI41" s="12">
         <f>AVERAGE(AJ12,AJ13,AJ15,AJ18:AJ19,AJ22,AJ33,AJ36)</f>
         <v>0.91250000000000009</v>
       </c>
       <c r="AX41" s="3">
         <v>4</v>
       </c>
-      <c r="AY41" s="22"/>
-      <c r="AZ41" s="22"/>
-      <c r="BA41" s="21">
+      <c r="BA41" s="12">
         <f>AVERAGE(BB29,BB26,BB25,BB20,BB19,BB14,BB11,BB10)</f>
         <v>0.58437499999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:54" x14ac:dyDescent="0.4">
       <c r="AD42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AG42" s="24">
+      <c r="AG42" s="18">
         <f>_xlfn.STDEV.P(AG38:AG39)</f>
         <v>4.8333333333333395E-2</v>
       </c>
-      <c r="AH42" s="24">
+      <c r="AH42" s="18">
         <f>_xlfn.STDEV.P(AH38:AH40)</f>
         <v>4.643959304805699E-2</v>
       </c>
-      <c r="AI42" s="25">
+      <c r="AI42" s="19">
         <f>_xlfn.STDEV.P(AI38:AI41)</f>
         <v>5.0679927370363392E-2</v>
       </c>
       <c r="AV42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AY42" s="24">
+      <c r="AY42" s="18">
         <f>_xlfn.STDEV.P(AY38:AY39)</f>
         <v>8.8333333333332972E-2</v>
       </c>
-      <c r="AZ42" s="24">
+      <c r="AZ42" s="18">
         <f>_xlfn.STDEV.P(AZ38:AZ40)</f>
         <v>9.1502114510412499E-2</v>
       </c>
-      <c r="BA42" s="25">
+      <c r="BA42" s="19">
         <f>_xlfn.STDEV.P(BA38:BA41)</f>
         <v>9.5556594882409335E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="AG43" s="22"/>
-      <c r="AH43" s="22"/>
-      <c r="AI43" s="22"/>
-      <c r="AY43" s="22"/>
-      <c r="AZ43" s="22"/>
-      <c r="BA43" s="22"/>
-    </row>
-    <row r="44" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="AG44" s="22"/>
-      <c r="AH44" s="22"/>
-      <c r="AI44" s="22"/>
-      <c r="AY44" s="22"/>
-      <c r="AZ44" s="22"/>
-      <c r="BA44" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5689,137 +5657,120 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88CCFB4E-3D94-4A97-83BE-04827B31FA43}">
-  <dimension ref="A1:W40"/>
+  <dimension ref="A1:V40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="10" style="3" customWidth="1"/>
-    <col min="5" max="5" width="3.5703125" customWidth="1"/>
+    <col min="5" max="5" width="3.625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="3.5703125" customWidth="1"/>
+    <col min="9" max="9" width="3.625" customWidth="1"/>
     <col min="10" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="3.5703125" customWidth="1"/>
+    <col min="14" max="14" width="3.625" customWidth="1"/>
     <col min="15" max="19" width="10" customWidth="1"/>
-    <col min="20" max="20" width="3.5703125" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" customWidth="1"/>
+    <col min="20" max="20" width="3.625" customWidth="1"/>
+    <col min="21" max="21" width="9.125" customWidth="1"/>
+    <col min="23" max="23" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-    </row>
-    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D1"/>
+    </row>
+    <row r="2" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="28">
-        <v>2</v>
-      </c>
-      <c r="D2" s="28"/>
+      <c r="C2" s="26">
+        <v>2</v>
+      </c>
+      <c r="D2" s="26"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="28">
+      <c r="F2" s="26">
         <v>3</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="28">
+      <c r="J2" s="26">
         <v>4</v>
       </c>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
       <c r="N2" s="3"/>
-      <c r="O2" s="28">
+      <c r="O2" s="26">
         <v>5</v>
       </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="28" t="s">
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="V2" s="28"/>
-      <c r="W2" s="20"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V2" s="26"/>
+    </row>
+    <row r="3" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3">
-        <v>2</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3">
-        <v>2</v>
-      </c>
-      <c r="H3" s="3">
+      <c r="C3" s="27">
+        <v>1</v>
+      </c>
+      <c r="D3" s="27">
+        <v>2</v>
+      </c>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27">
+        <v>1</v>
+      </c>
+      <c r="G3" s="27">
+        <v>2</v>
+      </c>
+      <c r="H3" s="27">
         <v>3</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3">
-        <v>1</v>
-      </c>
-      <c r="K3" s="3">
-        <v>2</v>
-      </c>
-      <c r="L3" s="3">
+      <c r="I3" s="27"/>
+      <c r="J3" s="27">
+        <v>1</v>
+      </c>
+      <c r="K3" s="27">
+        <v>2</v>
+      </c>
+      <c r="L3" s="27">
         <v>3</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="27">
         <v>4</v>
       </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3">
-        <v>1</v>
-      </c>
-      <c r="P3" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="3">
+      <c r="N3" s="27"/>
+      <c r="O3" s="27">
+        <v>1</v>
+      </c>
+      <c r="P3" s="27">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="27">
         <v>3</v>
       </c>
-      <c r="R3" s="3">
+      <c r="R3" s="27">
         <v>4</v>
       </c>
-      <c r="S3" s="5">
+      <c r="S3" s="27">
         <v>5</v>
       </c>
       <c r="T3" s="8"/>
@@ -5830,65 +5781,65 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="21">
+      <c r="C4" s="12">
         <v>0.47</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="12">
         <v>0.41</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21">
+      <c r="E4" s="12"/>
+      <c r="F4" s="12">
         <v>0.47000000000000003</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="12">
         <v>0.37</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="12">
         <v>0.46</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21">
+      <c r="I4" s="12"/>
+      <c r="J4" s="12">
         <v>0.54</v>
       </c>
-      <c r="K4" s="21">
+      <c r="K4" s="12">
         <v>0.41000000000000003</v>
       </c>
-      <c r="L4" s="21">
+      <c r="L4" s="12">
         <v>0.37</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="12">
         <v>0.46</v>
       </c>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21">
+      <c r="N4" s="12"/>
+      <c r="O4" s="12">
         <v>0.54</v>
       </c>
-      <c r="P4" s="21">
+      <c r="P4" s="12">
         <v>0.41000000000000003</v>
       </c>
-      <c r="Q4" s="21">
+      <c r="Q4" s="12">
         <v>0.37</v>
       </c>
-      <c r="R4" s="21">
+      <c r="R4" s="12">
         <v>0.51</v>
       </c>
-      <c r="S4" s="21">
+      <c r="S4" s="12">
         <v>0.4</v>
       </c>
       <c r="T4" s="8"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
     </row>
-    <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="21" t="s">
         <v>20</v>
       </c>
       <c r="C5">
@@ -5933,16 +5884,16 @@
       <c r="S5">
         <v>8290</v>
       </c>
-      <c r="U5" s="29">
+      <c r="U5" s="24">
         <v>0.432672</v>
       </c>
-      <c r="V5" s="29">
+      <c r="V5" s="24">
         <v>0.31031199999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="31" t="s">
+    <row r="6" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="25"/>
+      <c r="B6" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="17">
@@ -5987,12 +5938,12 @@
       <c r="S6" s="17">
         <v>1305614</v>
       </c>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="31" t="s">
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+    </row>
+    <row r="7" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="25"/>
+      <c r="B7" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C7">
@@ -6051,14 +6002,14 @@
         <f t="shared" si="0"/>
         <v>1142.6346747758007</v>
       </c>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+    </row>
+    <row r="8" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="21" t="s">
         <v>20</v>
       </c>
       <c r="C8">
@@ -6103,16 +6054,16 @@
       <c r="S8">
         <v>171.08226999999999</v>
       </c>
-      <c r="U8" s="29">
+      <c r="U8" s="24">
         <v>-0.383185</v>
       </c>
-      <c r="V8" s="29">
+      <c r="V8" s="24">
         <v>0.373394</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31" t="s">
+    <row r="9" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="25"/>
+      <c r="B9" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C9">
@@ -6157,12 +6108,12 @@
       <c r="S9">
         <v>714.98308499999996</v>
       </c>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="31" t="s">
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+    </row>
+    <row r="10" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="25"/>
+      <c r="B10" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C10">
@@ -6221,14 +6172,14 @@
         <f t="shared" si="1"/>
         <v>26.739167619804473</v>
       </c>
-      <c r="U10" s="29"/>
-      <c r="V10" s="29"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+    </row>
+    <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="21" t="s">
         <v>20</v>
       </c>
       <c r="C11">
@@ -6273,16 +6224,16 @@
       <c r="S11">
         <v>1126.640887</v>
       </c>
-      <c r="U11" s="29">
+      <c r="U11" s="24">
         <v>-0.106474</v>
       </c>
-      <c r="V11" s="29">
+      <c r="V11" s="24">
         <v>0.34509499999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="31" t="s">
+    <row r="12" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="25"/>
+      <c r="B12" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C12">
@@ -6327,12 +6278,12 @@
       <c r="S12">
         <v>140939.082222</v>
       </c>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="31" t="s">
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+    </row>
+    <row r="13" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="25"/>
+      <c r="B13" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C13">
@@ -6391,14 +6342,14 @@
         <f t="shared" si="2"/>
         <v>375.41854272531612</v>
       </c>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+    </row>
+    <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="21" t="s">
         <v>20</v>
       </c>
       <c r="C14">
@@ -6443,16 +6394,16 @@
       <c r="S14">
         <v>1297</v>
       </c>
-      <c r="U14" s="29">
+      <c r="U14" s="24">
         <v>0.47118300000000002</v>
       </c>
-      <c r="V14" s="29">
+      <c r="V14" s="24">
         <v>0.17700099999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="31" t="s">
+    <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="25"/>
+      <c r="B15" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C15">
@@ -6497,12 +6448,12 @@
       <c r="S15">
         <v>11906</v>
       </c>
-      <c r="U15" s="29"/>
-      <c r="V15" s="29"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="31" t="s">
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+    </row>
+    <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="25"/>
+      <c r="B16" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C16">
@@ -6561,14 +6512,14 @@
         <f t="shared" si="3"/>
         <v>109.1146186356347</v>
       </c>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
+    </row>
+    <row r="17" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="21" t="s">
         <v>20</v>
       </c>
       <c r="C17">
@@ -6613,16 +6564,16 @@
       <c r="S17">
         <v>690.60456899999997</v>
       </c>
-      <c r="U17" s="29">
+      <c r="U17" s="24">
         <v>-0.41881600000000002</v>
       </c>
-      <c r="V17" s="29">
+      <c r="V17" s="24">
         <v>0.30126500000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="31" t="s">
+    <row r="18" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="25"/>
+      <c r="B18" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C18">
@@ -6667,12 +6618,12 @@
       <c r="S18">
         <v>5539.0099110000001</v>
       </c>
-      <c r="U18" s="29"/>
-      <c r="V18" s="29"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="31" t="s">
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+    </row>
+    <row r="19" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="25"/>
+      <c r="B19" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C19">
@@ -6731,14 +6682,14 @@
         <f t="shared" si="4"/>
         <v>74.424524929622493</v>
       </c>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
+      <c r="U19" s="24"/>
+      <c r="V19" s="24"/>
+    </row>
+    <row r="20" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="21" t="s">
         <v>20</v>
       </c>
       <c r="C20">
@@ -6783,16 +6734,16 @@
       <c r="S20">
         <v>323105.30287499999</v>
       </c>
-      <c r="U20" s="29">
+      <c r="U20" s="24">
         <v>0.141819</v>
       </c>
-      <c r="V20" s="29">
+      <c r="V20" s="24">
         <v>0.574376</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="31" t="s">
+    <row r="21" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="25"/>
+      <c r="B21" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="17">
@@ -6837,12 +6788,12 @@
       <c r="S21" s="17">
         <v>3904909000</v>
       </c>
-      <c r="U21" s="29"/>
-      <c r="V21" s="29"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="31" t="s">
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
+    </row>
+    <row r="22" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="25"/>
+      <c r="B22" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C22">
@@ -6901,14 +6852,14 @@
         <f t="shared" si="5"/>
         <v>62489.271079122052</v>
       </c>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
+      <c r="U22" s="24"/>
+      <c r="V22" s="24"/>
+    </row>
+    <row r="23" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="21" t="s">
         <v>20</v>
       </c>
       <c r="C23">
@@ -6953,16 +6904,16 @@
       <c r="S23">
         <v>232.03806</v>
       </c>
-      <c r="U23" s="29">
+      <c r="U23" s="24">
         <v>-0.45667099999999999</v>
       </c>
-      <c r="V23" s="29">
+      <c r="V23" s="24">
         <v>-0.16567999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="31" t="s">
+    <row r="24" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="25"/>
+      <c r="B24" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C24">
@@ -7007,12 +6958,12 @@
       <c r="S24">
         <v>143.42356799999999</v>
       </c>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="31" t="s">
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
+    </row>
+    <row r="25" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="25"/>
+      <c r="B25" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C25">
@@ -7071,14 +7022,14 @@
         <f t="shared" si="6"/>
         <v>11.97595791575772</v>
       </c>
-      <c r="U25" s="29"/>
-      <c r="V25" s="29"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
+      <c r="U25" s="24"/>
+      <c r="V25" s="24"/>
+    </row>
+    <row r="26" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="21" t="s">
         <v>20</v>
       </c>
       <c r="C26">
@@ -7123,16 +7074,16 @@
       <c r="S26">
         <v>-3.7527999999999999E-2</v>
       </c>
-      <c r="U26" s="29">
+      <c r="U26" s="24">
         <v>0.168956</v>
       </c>
-      <c r="V26" s="29">
+      <c r="V26" s="24">
         <v>-0.40711900000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="31" t="s">
+    <row r="27" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="25"/>
+      <c r="B27" s="21" t="s">
         <v>30</v>
       </c>
       <c r="C27">
@@ -7177,12 +7128,12 @@
       <c r="S27">
         <v>6.3410000000000003E-3</v>
       </c>
-      <c r="U27" s="29"/>
-      <c r="V27" s="29"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="31" t="s">
+      <c r="U27" s="24"/>
+      <c r="V27" s="24"/>
+    </row>
+    <row r="28" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="25"/>
+      <c r="B28" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C28">
@@ -7241,82 +7192,69 @@
         <f t="shared" si="7"/>
         <v>7.9630396206473816E-2</v>
       </c>
-      <c r="U28" s="29"/>
-      <c r="V28" s="29"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U28" s="24"/>
+      <c r="V28" s="24"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.4">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="12"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.4">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="12"/>
       <c r="P30" s="17"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.4">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.4">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="12"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="V14:V16"/>
-    <mergeCell ref="V11:V13"/>
-    <mergeCell ref="V8:V10"/>
-    <mergeCell ref="V5:V7"/>
-    <mergeCell ref="U17:U19"/>
-    <mergeCell ref="U20:U22"/>
-    <mergeCell ref="U23:U25"/>
-    <mergeCell ref="U26:U28"/>
-    <mergeCell ref="V26:V28"/>
-    <mergeCell ref="V23:V25"/>
-    <mergeCell ref="V20:V22"/>
-    <mergeCell ref="V17:V19"/>
-    <mergeCell ref="U5:U7"/>
-    <mergeCell ref="U8:U10"/>
-    <mergeCell ref="U11:U13"/>
-    <mergeCell ref="U14:U16"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="O2:S2"/>
     <mergeCell ref="J2:M2"/>
@@ -7327,31 +7265,30 @@
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A25"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="U20:U22"/>
+    <mergeCell ref="U23:U25"/>
+    <mergeCell ref="U26:U28"/>
+    <mergeCell ref="V26:V28"/>
+    <mergeCell ref="V23:V25"/>
+    <mergeCell ref="V20:V22"/>
+    <mergeCell ref="V14:V16"/>
+    <mergeCell ref="V11:V13"/>
+    <mergeCell ref="V8:V10"/>
+    <mergeCell ref="V5:V7"/>
+    <mergeCell ref="U17:U19"/>
+    <mergeCell ref="V17:V19"/>
+    <mergeCell ref="U5:U7"/>
+    <mergeCell ref="U8:U10"/>
+    <mergeCell ref="U11:U13"/>
+    <mergeCell ref="U14:U16"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="U5:U28">
-    <cfRule type="colorScale" priority="12">
+  <conditionalFormatting sqref="C4:S4">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V5:V28">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
+        <color rgb="FFFFEF9C"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
@@ -7368,16 +7305,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:S8">
     <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:S4">
-    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7446,7 +7373,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="U5:U28">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V5:V28">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7458,20 +7410,20 @@
       <selection activeCell="AZ10" sqref="AZ10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10" style="3" customWidth="1"/>
-    <col min="2" max="6" width="4.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" style="13" customWidth="1"/>
-    <col min="8" max="27" width="4.42578125" style="2" customWidth="1"/>
-    <col min="28" max="28" width="4.140625" style="3" customWidth="1"/>
+    <col min="2" max="6" width="4.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6.25" style="13" customWidth="1"/>
+    <col min="8" max="27" width="4.375" style="2" customWidth="1"/>
+    <col min="28" max="28" width="4.125" style="3" customWidth="1"/>
     <col min="29" max="29" width="10" style="3" customWidth="1"/>
-    <col min="30" max="32" width="4.28515625" style="3" customWidth="1"/>
-    <col min="33" max="33" width="6.140625" style="3" customWidth="1"/>
-    <col min="34" max="43" width="4.42578125" style="4" customWidth="1"/>
+    <col min="30" max="32" width="4.25" style="3" customWidth="1"/>
+    <col min="33" max="33" width="6.125" style="3" customWidth="1"/>
+    <col min="34" max="43" width="4.375" style="4" customWidth="1"/>
     <col min="45" max="45" width="10" style="3" customWidth="1"/>
-    <col min="46" max="49" width="4.28515625" style="3" customWidth="1"/>
-    <col min="50" max="50" width="6.140625" style="3" customWidth="1"/>
+    <col min="46" max="49" width="4.25" style="3" customWidth="1"/>
+    <col min="50" max="50" width="6.125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7496,28 +7448,28 @@
       <c r="G1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5" t="s">
         <v>10</v>
@@ -7534,18 +7486,18 @@
       <c r="AG1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="AH1" s="19" t="s">
+      <c r="AH1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="19"/>
-      <c r="AO1" s="19"/>
-      <c r="AP1" s="19"/>
-      <c r="AQ1" s="19"/>
+      <c r="AI1" s="23"/>
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
+      <c r="AO1" s="23"/>
+      <c r="AP1" s="23"/>
+      <c r="AQ1" s="23"/>
       <c r="AS1" s="5" t="s">
         <v>10</v>
       </c>
@@ -7676,7 +7628,7 @@
       <c r="AW2" s="5"/>
       <c r="AX2" s="5"/>
     </row>
-    <row r="3" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -7809,7 +7761,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="4" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.4">
       <c r="C4" s="3">
         <v>2</v>
       </c>
@@ -7864,7 +7816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.4">
       <c r="G5" s="12"/>
       <c r="H5" s="16">
         <f>(COUNTIF(H3:H4,"○"))/2</f>
@@ -7959,7 +7911,7 @@
       <c r="AQ5" s="1"/>
       <c r="AX5" s="12"/>
     </row>
-    <row r="6" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -8083,7 +8035,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.4">
       <c r="C7" s="3">
         <v>2</v>
       </c>
@@ -8198,7 +8150,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.4">
       <c r="C8" s="3">
         <v>3</v>
       </c>
@@ -8313,7 +8265,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.4">
       <c r="C9" s="3">
         <v>4</v>
       </c>
@@ -8368,7 +8320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.4">
       <c r="C10" s="3">
         <v>5</v>
       </c>
@@ -8423,7 +8375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.4">
       <c r="C11" s="3">
         <v>6</v>
       </c>
@@ -8478,7 +8430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.4">
       <c r="C12" s="3">
         <v>7</v>
       </c>
@@ -8533,7 +8485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.4">
       <c r="C13" s="3">
         <v>8</v>
       </c>
@@ -8648,7 +8600,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.4">
       <c r="C14" s="3">
         <v>9</v>
       </c>
@@ -8763,7 +8715,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="15" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.4">
       <c r="C15" s="3">
         <v>10</v>
       </c>
@@ -8818,7 +8770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.4">
       <c r="G16" s="12"/>
       <c r="H16" s="16">
         <f>(COUNTIF(H6:H15,"○"))/10</f>
@@ -8913,7 +8865,7 @@
       <c r="AQ16" s="1"/>
       <c r="AX16" s="12"/>
     </row>
-    <row r="17" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:50" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>3</v>
       </c>
@@ -9037,7 +8989,7 @@
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="18" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C18" s="3">
         <v>2</v>
       </c>
@@ -9152,7 +9104,7 @@
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="19" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C19" s="3">
         <v>3</v>
       </c>
@@ -9267,7 +9219,7 @@
         <v>0.85000000000000009</v>
       </c>
     </row>
-    <row r="20" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C20" s="3">
         <v>4</v>
       </c>
@@ -9322,7 +9274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C21" s="3">
         <v>5</v>
       </c>
@@ -9437,7 +9389,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="22" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C22" s="3">
         <v>6</v>
       </c>
@@ -9552,7 +9504,7 @@
         <v>0.85000000000000009</v>
       </c>
     </row>
-    <row r="23" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C23" s="3">
         <v>7</v>
       </c>
@@ -9607,7 +9559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C24" s="3">
         <v>8</v>
       </c>
@@ -9722,7 +9674,7 @@
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="25" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C25" s="3">
         <v>9</v>
       </c>
@@ -9837,7 +9789,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="26" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C26" s="3">
         <v>10</v>
       </c>
@@ -9952,7 +9904,7 @@
         <v>0.67500000000000004</v>
       </c>
     </row>
-    <row r="27" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C27" s="3">
         <v>11</v>
       </c>
@@ -10067,7 +10019,7 @@
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="28" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C28" s="3">
         <v>12</v>
       </c>
@@ -10182,7 +10134,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="29" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C29" s="3">
         <v>13</v>
       </c>
@@ -10237,7 +10189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C30" s="3">
         <v>14</v>
       </c>
@@ -10352,7 +10304,7 @@
         <v>0.85000000000000009</v>
       </c>
     </row>
-    <row r="31" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:50" x14ac:dyDescent="0.4">
       <c r="G31" s="5"/>
       <c r="H31" s="15">
         <f>(COUNTIF(H17:H30,"○"))/14</f>
@@ -10487,7 +10439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:50" x14ac:dyDescent="0.4">
       <c r="G32" s="12"/>
       <c r="AE32" s="3">
         <v>2</v>
@@ -10536,7 +10488,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="33" spans="30:50" x14ac:dyDescent="0.25">
+    <row r="33" spans="30:50" x14ac:dyDescent="0.4">
       <c r="AD33" s="3" t="s">
         <v>7</v>
       </c>
@@ -10570,7 +10522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="30:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="30:50" x14ac:dyDescent="0.4">
       <c r="AE34" s="3">
         <v>2</v>
       </c>
@@ -10598,7 +10550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="30:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="30:50" x14ac:dyDescent="0.4">
       <c r="AE35" s="3">
         <v>3</v>
       </c>
@@ -10626,7 +10578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="30:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="30:50" x14ac:dyDescent="0.4">
       <c r="AE36" s="3">
         <v>4</v>
       </c>
@@ -10674,7 +10626,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="37" spans="30:50" x14ac:dyDescent="0.25">
+    <row r="37" spans="30:50" x14ac:dyDescent="0.4">
       <c r="AD37" s="3" t="s">
         <v>6</v>
       </c>
@@ -10708,7 +10660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="30:50" x14ac:dyDescent="0.25">
+    <row r="38" spans="30:50" x14ac:dyDescent="0.4">
       <c r="AH38" s="15">
         <f>(COUNTIF(AH3:AH37,"○")/32)</f>
         <v>0.625</v>
@@ -10752,12 +10704,12 @@
       <c r="AV38"/>
       <c r="AW38"/>
     </row>
-    <row r="39" spans="30:50" x14ac:dyDescent="0.25">
+    <row r="39" spans="30:50" x14ac:dyDescent="0.4">
       <c r="AV39"/>
       <c r="AW39"/>
       <c r="AX39" s="12"/>
     </row>
-    <row r="40" spans="30:50" x14ac:dyDescent="0.25">
+    <row r="40" spans="30:50" x14ac:dyDescent="0.4">
       <c r="AG40" s="12"/>
     </row>
   </sheetData>

--- a/Experiment-Data/Answer-Data.xlsx
+++ b/Experiment-Data/Answer-Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\eye-tracking-software\Experiment-Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\www\Desktop\eye-tracking-software\Experiment-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA21E86-B18A-407E-99B6-9E1B991AE65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65432E7D-B269-47F1-B8BF-4178D7E6A620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{65F65776-174E-4145-8CCF-AA6B8A50F68A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{65F65776-174E-4145-8CCF-AA6B8A50F68A}"/>
   </bookViews>
   <sheets>
     <sheet name="1st-Scores" sheetId="1" r:id="rId1"/>
@@ -208,13 +208,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -226,7 +226,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Aptos Narrow"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -293,7 +293,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -404,7 +404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -452,10 +452,34 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -464,74 +488,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -539,65 +515,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -627,8 +604,8 @@
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>292474</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>82699</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>228376</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -726,9 +703,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>481853</xdr:colOff>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -743,8 +720,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11743765" y="3070411"/>
-          <a:ext cx="638735" cy="358589"/>
+          <a:off x="10376648" y="3070411"/>
+          <a:ext cx="649940" cy="336177"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -794,13 +771,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>499782</xdr:colOff>
+      <xdr:colOff>499781</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>163605</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>454958</xdr:colOff>
+      <xdr:colOff>543888</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>51547</xdr:rowOff>
     </xdr:to>
@@ -817,8 +794,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13767547" y="4870076"/>
-          <a:ext cx="638735" cy="358589"/>
+          <a:off x="12165105" y="4870076"/>
+          <a:ext cx="649224" cy="358589"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -871,13 +848,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>338418</xdr:colOff>
+      <xdr:colOff>338417</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>80683</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>293594</xdr:colOff>
+      <xdr:colOff>382524</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>203948</xdr:rowOff>
     </xdr:to>
@@ -894,8 +871,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14973300" y="2904565"/>
-          <a:ext cx="638735" cy="358589"/>
+          <a:off x="13213976" y="2904565"/>
+          <a:ext cx="649224" cy="358589"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1059,7 +1036,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>257735</xdr:colOff>
+      <xdr:colOff>346665</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>233082</xdr:rowOff>
     </xdr:to>
@@ -1076,8 +1053,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18265588" y="3874993"/>
-          <a:ext cx="638735" cy="358589"/>
+          <a:off x="16102853" y="3874993"/>
+          <a:ext cx="649224" cy="358589"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1126,14 +1103,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>667870</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>5603</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>116541</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>623046</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>49709</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>4483</xdr:rowOff>
     </xdr:to>
@@ -1150,8 +1127,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15896664" y="3411070"/>
-          <a:ext cx="638735" cy="358589"/>
+          <a:off x="13990544" y="3411070"/>
+          <a:ext cx="649224" cy="358589"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1204,13 +1181,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>136711</xdr:colOff>
+      <xdr:colOff>136710</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>156882</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>91888</xdr:colOff>
+      <xdr:colOff>180816</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:to>
@@ -1227,8 +1204,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17416182" y="1333500"/>
-          <a:ext cx="638735" cy="358589"/>
+          <a:off x="15331886" y="1333500"/>
+          <a:ext cx="649224" cy="358589"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1385,14 +1362,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>649941</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>6723</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>109816</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>605117</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>50829</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>233082</xdr:rowOff>
     </xdr:to>
@@ -1409,8 +1386,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20652441" y="5286934"/>
-          <a:ext cx="638735" cy="358589"/>
+          <a:off x="18193870" y="5286934"/>
+          <a:ext cx="649224" cy="358589"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1460,13 +1437,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>410134</xdr:colOff>
+      <xdr:colOff>410133</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>161364</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>365310</xdr:colOff>
+      <xdr:colOff>454240</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>49306</xdr:rowOff>
     </xdr:to>
@@ -1483,8 +1460,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17678399" y="4632511"/>
-          <a:ext cx="638735" cy="358589"/>
+          <a:off x="15571692" y="4632511"/>
+          <a:ext cx="649224" cy="358589"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1542,8 +1519,8 @@
       <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>540123</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>23935</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>134472</xdr:rowOff>
     </xdr:to>
@@ -1560,8 +1537,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21954564" y="3070412"/>
-          <a:ext cx="638735" cy="358589"/>
+          <a:off x="19377211" y="3070412"/>
+          <a:ext cx="649224" cy="358589"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1614,13 +1591,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>311523</xdr:colOff>
+      <xdr:colOff>311522</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>73958</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>355628</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>197224</xdr:rowOff>
     </xdr:to>
@@ -1637,8 +1614,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18263347" y="2662517"/>
-          <a:ext cx="638735" cy="358589"/>
+          <a:off x="16078198" y="2662517"/>
+          <a:ext cx="649224" cy="358589"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2010,26 +1987,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C853D4-11AD-448C-900A-323815755F36}">
   <dimension ref="A1:BA43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="3" customWidth="1"/>
-    <col min="2" max="3" width="4.25" style="3" customWidth="1"/>
-    <col min="4" max="5" width="5.75" style="3" customWidth="1"/>
-    <col min="6" max="6" width="6.25" style="13" customWidth="1"/>
-    <col min="7" max="26" width="4.375" style="2" customWidth="1"/>
-    <col min="27" max="27" width="4.125" style="3" customWidth="1"/>
+    <col min="2" max="3" width="4.28515625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="5.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" style="13" customWidth="1"/>
+    <col min="7" max="26" width="4.42578125" style="2" customWidth="1"/>
+    <col min="27" max="27" width="4.140625" style="3" customWidth="1"/>
     <col min="28" max="28" width="10" style="3" customWidth="1"/>
-    <col min="29" max="30" width="4.25" style="3" customWidth="1"/>
-    <col min="31" max="33" width="5.75" style="3" customWidth="1"/>
-    <col min="34" max="34" width="6.125" style="3" customWidth="1"/>
-    <col min="35" max="44" width="4.375" style="4" customWidth="1"/>
-    <col min="45" max="45" width="4.125" customWidth="1"/>
+    <col min="29" max="30" width="4.28515625" style="3" customWidth="1"/>
+    <col min="31" max="33" width="5.7109375" style="3" customWidth="1"/>
+    <col min="34" max="34" width="6.140625" style="3" customWidth="1"/>
+    <col min="35" max="44" width="4.42578125" style="4" customWidth="1"/>
+    <col min="45" max="45" width="4.140625" customWidth="1"/>
     <col min="46" max="46" width="10" style="3" customWidth="1"/>
-    <col min="47" max="48" width="4.25" style="3" customWidth="1"/>
-    <col min="49" max="52" width="5.75" style="3" customWidth="1"/>
-    <col min="53" max="53" width="6.125" style="3" customWidth="1"/>
+    <col min="47" max="48" width="4.28515625" style="3" customWidth="1"/>
+    <col min="49" max="52" width="5.7109375" style="3" customWidth="1"/>
+    <col min="53" max="53" width="6.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2051,28 +2028,28 @@
       <c r="F1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
       <c r="AA1" s="5"/>
       <c r="AB1" s="5" t="s">
         <v>10</v>
@@ -2095,18 +2072,18 @@
       <c r="AH1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="AI1" s="20" t="s">
+      <c r="AI1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="AJ1" s="20"/>
-      <c r="AK1" s="20"/>
-      <c r="AL1" s="20"/>
-      <c r="AM1" s="20"/>
-      <c r="AN1" s="20"/>
-      <c r="AO1" s="20"/>
-      <c r="AP1" s="20"/>
-      <c r="AQ1" s="20"/>
-      <c r="AR1" s="20"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="28"/>
+      <c r="AP1" s="28"/>
+      <c r="AQ1" s="28"/>
+      <c r="AR1" s="28"/>
       <c r="AT1" s="5" t="s">
         <v>10</v>
       </c>
@@ -2246,7 +2223,7 @@
       <c r="AZ2" s="5"/>
       <c r="BA2" s="5"/>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -2404,7 +2381,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C4" s="3">
         <v>2</v>
       </c>
@@ -2544,7 +2521,7 @@
         <v>0.52499999999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="F5" s="12"/>
       <c r="G5" s="16">
         <f>(COUNTIF(G3:G4,"○"))/2</f>
@@ -2639,7 +2616,7 @@
       <c r="AR5" s="1"/>
       <c r="BA5" s="12"/>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -2788,7 +2765,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C7" s="3">
         <v>2</v>
       </c>
@@ -2928,7 +2905,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C8" s="3">
         <v>3</v>
       </c>
@@ -3068,7 +3045,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C9" s="3">
         <v>4</v>
       </c>
@@ -3208,7 +3185,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C10" s="3">
         <v>5</v>
       </c>
@@ -3348,7 +3325,7 @@
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C11" s="3">
         <v>6</v>
       </c>
@@ -3488,7 +3465,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C12" s="3">
         <v>7</v>
       </c>
@@ -3628,7 +3605,7 @@
         <v>0.67500000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C13" s="3">
         <v>8</v>
       </c>
@@ -3768,7 +3745,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C14" s="3">
         <v>9</v>
       </c>
@@ -3908,7 +3885,7 @@
         <v>0.72500000000000009</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C15" s="3">
         <v>10</v>
       </c>
@@ -4048,7 +4025,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="F16" s="12"/>
       <c r="G16" s="16">
         <f>(COUNTIF(G6:G15,"○"))/10</f>
@@ -4143,7 +4120,7 @@
       <c r="AR16" s="1"/>
       <c r="BA16" s="12"/>
     </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>3</v>
       </c>
@@ -4292,7 +4269,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C18" s="3">
         <v>2</v>
       </c>
@@ -4432,7 +4409,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C19" s="3">
         <v>3</v>
       </c>
@@ -4572,7 +4549,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C20" s="3">
         <v>4</v>
       </c>
@@ -4712,7 +4689,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C21" s="3">
         <v>5</v>
       </c>
@@ -4852,7 +4829,7 @@
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C22" s="3">
         <v>6</v>
       </c>
@@ -4992,7 +4969,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C23" s="3">
         <v>7</v>
       </c>
@@ -5132,7 +5109,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C24" s="3">
         <v>8</v>
       </c>
@@ -5272,7 +5249,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C25" s="3">
         <v>9</v>
       </c>
@@ -5412,7 +5389,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C26" s="3">
         <v>10</v>
       </c>
@@ -5552,7 +5529,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C27" s="3">
         <v>11</v>
       </c>
@@ -5692,7 +5669,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C28" s="3">
         <v>12</v>
       </c>
@@ -5832,7 +5809,7 @@
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C29" s="3">
         <v>13</v>
       </c>
@@ -5972,7 +5949,7 @@
         <v>0.39999999999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C30" s="3">
         <v>14</v>
       </c>
@@ -6112,7 +6089,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
       <c r="F31" s="5"/>
       <c r="G31" s="15">
         <f>(COUNTIF(G17:G30,"○"))/14</f>
@@ -6266,7 +6243,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="32" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>19</v>
       </c>
@@ -6348,7 +6325,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="33" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:53" x14ac:dyDescent="0.25">
       <c r="C33" s="3">
         <v>2</v>
       </c>
@@ -6432,7 +6409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C34" s="3">
         <v>3</v>
       </c>
@@ -6506,7 +6483,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="35" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>20</v>
       </c>
@@ -6584,7 +6561,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="36" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:53" x14ac:dyDescent="0.25">
       <c r="AC36" s="3" t="s">
         <v>6</v>
       </c>
@@ -6657,7 +6634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:53" x14ac:dyDescent="0.25">
       <c r="AI37" s="15">
         <f>(COUNTIF(AI3:AI36,"○")/32)</f>
         <v>1</v>
@@ -6703,7 +6680,7 @@
       <c r="AY37"/>
       <c r="AZ37"/>
     </row>
-    <row r="38" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:53" x14ac:dyDescent="0.25">
       <c r="AB38" s="3" t="s">
         <v>19</v>
       </c>
@@ -6746,7 +6723,7 @@
       </c>
       <c r="BA38" s="12"/>
     </row>
-    <row r="39" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:53" x14ac:dyDescent="0.25">
       <c r="AD39" s="3">
         <v>2</v>
       </c>
@@ -6783,7 +6760,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="40" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:53" x14ac:dyDescent="0.25">
       <c r="AD40" s="3">
         <v>3</v>
       </c>
@@ -6811,7 +6788,7 @@
         <v>0.66249999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:53" x14ac:dyDescent="0.25">
       <c r="AD41" s="3">
         <v>4</v>
       </c>
@@ -6831,7 +6808,7 @@
         <v>0.60500000000000009</v>
       </c>
     </row>
-    <row r="42" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:53" x14ac:dyDescent="0.25">
       <c r="AB42" s="3" t="s">
         <v>20</v>
       </c>
@@ -6843,7 +6820,7 @@
         <f>_xlfn.STDEV.P(AF38:AF40)</f>
         <v>4.4421195733405125E-2</v>
       </c>
-      <c r="AG42" s="21">
+      <c r="AG42" s="17">
         <f>_xlfn.STDEV.P(AG38:AG41)</f>
         <v>4.4035873594891979E-2</v>
       </c>
@@ -6855,7 +6832,7 @@
         <v>0.65555555555555556</v>
       </c>
     </row>
-    <row r="43" spans="1:53" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:53" x14ac:dyDescent="0.25">
       <c r="AT43" s="3" t="s">
         <v>20</v>
       </c>
@@ -6867,11 +6844,11 @@
         <f>_xlfn.STDEV.P(AX38:AX40)</f>
         <v>5.9802917060030505E-2</v>
       </c>
-      <c r="AY43" s="22">
+      <c r="AY43" s="19">
         <f>_xlfn.STDEV.P(AY38:AY41)</f>
         <v>8.6222082142450432E-2</v>
       </c>
-      <c r="AZ43" s="21">
+      <c r="AZ43" s="17">
         <f>_xlfn.STDEV.P(AZ38:AZ42)</f>
         <v>8.7417648681964957E-2</v>
       </c>
@@ -6889,941 +6866,936 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88CCFB4E-3D94-4A97-83BE-04827B31FA43}">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="4" width="10" style="3" customWidth="1"/>
-    <col min="5" max="5" width="3.625" customWidth="1"/>
+    <col min="5" max="5" width="3.5703125" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="3.625" customWidth="1"/>
-    <col min="10" max="10" width="9.125" customWidth="1"/>
-    <col min="12" max="12" width="9.125" customWidth="1"/>
+    <col min="9" max="9" width="3.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33">
         <v>2</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="52">
+      <c r="D1" s="33"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="41">
         <v>3</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="44" t="s">
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="44"/>
-    </row>
-    <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="42" t="s">
+      <c r="K1" s="33"/>
+    </row>
+    <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="53">
+      <c r="B2" s="34"/>
+      <c r="C2" s="42">
         <v>2</v>
       </c>
-      <c r="D2" s="53">
-        <v>1</v>
-      </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53">
+      <c r="D2" s="42">
+        <v>1</v>
+      </c>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42">
         <v>3</v>
       </c>
-      <c r="G2" s="53">
-        <v>1</v>
-      </c>
-      <c r="H2" s="53">
+      <c r="G2" s="42">
+        <v>1</v>
+      </c>
+      <c r="H2" s="42">
         <v>2</v>
       </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="45">
-        <v>1</v>
-      </c>
-      <c r="K2" s="45">
+      <c r="I2" s="42"/>
+      <c r="J2" s="22">
+        <v>1</v>
+      </c>
+      <c r="K2" s="22">
         <v>2</v>
       </c>
-      <c r="L2" s="27"/>
-    </row>
-    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="24" t="s">
+    </row>
+    <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="56">
         <v>253.8</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="25">
         <v>346.25</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="34">
+      <c r="E3" s="25"/>
+      <c r="F3" s="25">
         <v>191.75</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="25">
         <v>346.25</v>
       </c>
-      <c r="H3" s="34">
+      <c r="H3" s="25">
         <v>295.16666700000002</v>
       </c>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36">
+      <c r="I3" s="25"/>
+      <c r="J3" s="32">
         <v>-0.188448</v>
       </c>
-      <c r="K3" s="48">
+      <c r="K3" s="35">
         <v>0.54788800000000004</v>
       </c>
-      <c r="L3" s="27"/>
-    </row>
-    <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="24"/>
-      <c r="B4" s="56" t="s">
+    </row>
+    <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="38"/>
+      <c r="B4" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="57">
         <v>65.511322174109722</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="22">
         <v>86.712167542969425</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="26">
+      <c r="E4" s="22"/>
+      <c r="F4" s="22">
         <v>28.194266562547782</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="22">
         <v>86.712167542969425</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="22">
         <v>45.984417654244574</v>
       </c>
-      <c r="I4" s="27"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="27"/>
-    </row>
-    <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="29"/>
-      <c r="B5" s="37" t="s">
+      <c r="I4" s="22"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="36"/>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39"/>
+      <c r="B5" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="61">
+      <c r="C5" s="44">
         <f>C4/C3</f>
         <v>0.25812183677742206</v>
       </c>
-      <c r="D5" s="64">
+      <c r="D5" s="45">
         <f t="shared" ref="D5:H5" si="0">D4/D3</f>
         <v>0.25043225283168064</v>
       </c>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64">
+      <c r="E5" s="45"/>
+      <c r="F5" s="45">
         <f t="shared" si="0"/>
         <v>0.14703659224275245</v>
       </c>
-      <c r="G5" s="66">
+      <c r="G5" s="46">
         <f t="shared" si="0"/>
         <v>0.25043225283168064</v>
       </c>
-      <c r="H5" s="64">
+      <c r="H5" s="45">
         <f t="shared" si="0"/>
         <v>0.15579136398299531</v>
       </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="27"/>
-    </row>
-    <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="32" t="s">
+      <c r="I5" s="24"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="37"/>
+    </row>
+    <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="22">
         <v>1094.2942089999999</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="22">
         <v>705.32254799999998</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="26">
+      <c r="E6" s="22"/>
+      <c r="F6" s="22">
         <v>988.09440199999995</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="22">
         <v>705.32254799999998</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="22">
         <v>1165.094081</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="28">
+      <c r="I6" s="22"/>
+      <c r="J6" s="33">
         <v>0.503328</v>
       </c>
-      <c r="K6" s="46">
+      <c r="K6" s="36">
         <v>-4.8842999999999998E-2</v>
       </c>
-      <c r="L6" s="27"/>
-    </row>
-    <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="24"/>
-      <c r="B7" s="57" t="s">
+    </row>
+    <row r="7" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="38"/>
+      <c r="B7" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="22">
         <v>134.88681775473836</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="22">
         <v>88.627474210878873</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="26">
+      <c r="E7" s="22"/>
+      <c r="F7" s="22">
         <v>72.088101854605668</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="22">
         <v>88.627474210878873</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="22">
         <v>120.80618517691882</v>
       </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="27"/>
-    </row>
-    <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="29"/>
-      <c r="B8" s="37" t="s">
+      <c r="I7" s="22"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="36"/>
+    </row>
+    <row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39"/>
+      <c r="B8" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="62">
+      <c r="C8" s="49">
         <f>C7/C6</f>
         <v>0.12326375909272345</v>
       </c>
-      <c r="D8" s="62">
+      <c r="D8" s="49">
         <f t="shared" ref="D8:H8" si="1">D7/D6</f>
         <v>0.12565524023326541</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62">
+      <c r="E8" s="49"/>
+      <c r="F8" s="49">
         <f t="shared" si="1"/>
         <v>7.2956694935921385E-2</v>
       </c>
-      <c r="G8" s="62">
+      <c r="G8" s="49">
         <f t="shared" si="1"/>
         <v>0.12565524023326541</v>
       </c>
-      <c r="H8" s="62">
+      <c r="H8" s="49">
         <f t="shared" si="1"/>
         <v>0.10368792284416285</v>
       </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="27"/>
-    </row>
-    <row r="9" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="32" t="s">
+      <c r="I8" s="22"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="36"/>
+    </row>
+    <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="56">
         <v>938.4</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="25">
         <v>1263</v>
       </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="34">
+      <c r="E9" s="25"/>
+      <c r="F9" s="25">
         <v>728.25</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="25">
         <v>1263</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9" s="25">
         <v>1078.5</v>
       </c>
-      <c r="I9" s="35"/>
-      <c r="J9" s="36">
+      <c r="I9" s="25"/>
+      <c r="J9" s="32">
         <v>-0.221611</v>
       </c>
-      <c r="K9" s="48">
+      <c r="K9" s="35">
         <v>0.53761899999999996</v>
       </c>
-      <c r="L9" s="27"/>
-    </row>
-    <row r="10" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="24"/>
-      <c r="B10" s="57" t="s">
+    </row>
+    <row r="10" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="38"/>
+      <c r="B10" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="50">
+      <c r="C10" s="57">
         <v>278.37592488575586</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="22">
         <v>269.85724621177025</v>
       </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="26">
+      <c r="E10" s="22"/>
+      <c r="F10" s="22">
         <v>151.43838130738192</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="22">
         <v>269.85724621177025</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="22">
         <v>258.54109924729568</v>
       </c>
-      <c r="I10" s="27"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="27"/>
-    </row>
-    <row r="11" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="29"/>
-      <c r="B11" s="58" t="s">
+      <c r="I10" s="22"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="36"/>
+    </row>
+    <row r="11" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="39"/>
+      <c r="B11" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="61">
+      <c r="C11" s="44">
         <f>C10/C9</f>
         <v>0.29664953632326924</v>
       </c>
-      <c r="D11" s="64">
+      <c r="D11" s="45">
         <f t="shared" ref="D11:H11" si="2">D10/D9</f>
         <v>0.21366369454613637</v>
       </c>
-      <c r="E11" s="64"/>
-      <c r="F11" s="66">
+      <c r="E11" s="45"/>
+      <c r="F11" s="46">
         <f t="shared" si="2"/>
         <v>0.20794834371078877</v>
       </c>
-      <c r="G11" s="66">
+      <c r="G11" s="46">
         <f t="shared" si="2"/>
         <v>0.21366369454613637</v>
       </c>
-      <c r="H11" s="66">
+      <c r="H11" s="46">
         <f t="shared" si="2"/>
         <v>0.23972285512034833</v>
       </c>
-      <c r="I11" s="30"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="27"/>
-    </row>
-    <row r="12" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="32" t="s">
+      <c r="I11" s="24"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="37"/>
+    </row>
+    <row r="12" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="22">
         <v>13.253691</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="22">
         <v>14.200787</v>
       </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="26">
+      <c r="E12" s="22"/>
+      <c r="F12" s="22">
         <v>13.59484</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="22">
         <v>14.200787</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="22">
         <v>13.026258</v>
       </c>
-      <c r="I12" s="27"/>
-      <c r="J12" s="28">
+      <c r="I12" s="22"/>
+      <c r="J12" s="33">
         <v>-0.32667400000000002</v>
       </c>
-      <c r="K12" s="46">
+      <c r="K12" s="36">
         <v>-0.13261100000000001</v>
       </c>
-      <c r="L12" s="27"/>
-    </row>
-    <row r="13" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="24"/>
-      <c r="B13" s="57" t="s">
+    </row>
+    <row r="13" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
+      <c r="B13" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="22">
         <v>1.5230019697951807</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="22">
         <v>1.1531448304527927</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="26">
+      <c r="E13" s="22"/>
+      <c r="F13" s="22">
         <v>2.1184756312027759</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="22">
         <v>1.1531448304527927</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="22">
         <v>1.1520512141393715</v>
       </c>
-      <c r="I13" s="27"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="27"/>
-    </row>
-    <row r="14" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="29"/>
-      <c r="B14" s="58" t="s">
+      <c r="I13" s="22"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="36"/>
+    </row>
+    <row r="14" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
+      <c r="B14" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="62">
+      <c r="C14" s="49">
         <f>C13/C12</f>
         <v>0.11491153443936339</v>
       </c>
-      <c r="D14" s="62">
+      <c r="D14" s="49">
         <f t="shared" ref="D14:H14" si="3">D13/D12</f>
         <v>8.1202881956668513E-2</v>
       </c>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62">
+      <c r="E14" s="49"/>
+      <c r="F14" s="49">
         <f t="shared" si="3"/>
         <v>0.15582939050424838</v>
       </c>
-      <c r="G14" s="62">
+      <c r="G14" s="49">
         <f t="shared" si="3"/>
         <v>8.1202881956668513E-2</v>
       </c>
-      <c r="H14" s="62">
+      <c r="H14" s="49">
         <f t="shared" si="3"/>
         <v>8.8440687581911204E-2</v>
       </c>
-      <c r="I14" s="27"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="27"/>
-    </row>
-    <row r="15" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="24" t="s">
+      <c r="I14" s="22"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="36"/>
+    </row>
+    <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="56">
         <v>268.36387200000001</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="25">
         <v>165.67266000000001</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="34">
+      <c r="E15" s="25"/>
+      <c r="F15" s="25">
         <v>235.55205699999999</v>
       </c>
-      <c r="G15" s="34">
+      <c r="G15" s="25">
         <v>165.67266000000001</v>
       </c>
-      <c r="H15" s="34">
+      <c r="H15" s="25">
         <v>290.23841599999997</v>
       </c>
-      <c r="I15" s="35"/>
-      <c r="J15" s="36">
+      <c r="I15" s="25"/>
+      <c r="J15" s="32">
         <v>0.51528499999999999</v>
       </c>
-      <c r="K15" s="48">
+      <c r="K15" s="35">
         <v>1.5509E-2</v>
       </c>
-      <c r="L15" s="27"/>
-    </row>
-    <row r="16" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="24"/>
-      <c r="B16" s="57" t="s">
+    </row>
+    <row r="16" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="38"/>
+      <c r="B16" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="50">
+      <c r="C16" s="57">
         <v>43.472856462395015</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="22">
         <v>30.361587293815848</v>
       </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="26">
+      <c r="E16" s="22"/>
+      <c r="F16" s="22">
         <v>37.031237732487419</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="22">
         <v>30.361587293815848</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="22">
         <v>33.816063239235881</v>
       </c>
-      <c r="I16" s="27"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="27"/>
-    </row>
-    <row r="17" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="24"/>
-      <c r="B17" s="57" t="s">
+      <c r="I16" s="22"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="36"/>
+    </row>
+    <row r="17" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="38"/>
+      <c r="B17" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="61">
+      <c r="C17" s="44">
         <f>C16/C15</f>
         <v>0.16199220907945094</v>
       </c>
-      <c r="D17" s="64">
+      <c r="D17" s="45">
         <f t="shared" ref="D17:H17" si="4">D16/D15</f>
         <v>0.18326250869525393</v>
       </c>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64">
+      <c r="E17" s="45"/>
+      <c r="F17" s="45">
         <f t="shared" si="4"/>
         <v>0.15721041965890123</v>
       </c>
-      <c r="G17" s="64">
+      <c r="G17" s="45">
         <f t="shared" si="4"/>
         <v>0.18326250869525393</v>
       </c>
-      <c r="H17" s="64">
+      <c r="H17" s="45">
         <f t="shared" si="4"/>
         <v>0.11651132784309257</v>
       </c>
-      <c r="I17" s="30"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="27"/>
-    </row>
-    <row r="18" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="32" t="s">
+      <c r="I17" s="24"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="37"/>
+    </row>
+    <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="22">
         <v>1190.853378</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="22">
         <v>1081.2601179999999</v>
       </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="26">
+      <c r="E18" s="22"/>
+      <c r="F18" s="22">
         <v>984.72714299999996</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="22">
         <v>1081.2601179999999</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H18" s="22">
         <v>1328.2708680000001</v>
       </c>
-      <c r="I18" s="27"/>
-      <c r="J18" s="28">
+      <c r="I18" s="22"/>
+      <c r="J18" s="33">
         <v>0.212811</v>
       </c>
-      <c r="K18" s="46">
+      <c r="K18" s="36">
         <v>0.184026</v>
       </c>
-      <c r="L18" s="27"/>
-    </row>
-    <row r="19" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="24"/>
-      <c r="B19" s="57" t="s">
+    </row>
+    <row r="19" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="38"/>
+      <c r="B19" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="22">
         <v>231.59479120437922</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="22">
         <v>249.74559085597488</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="26">
+      <c r="E19" s="22"/>
+      <c r="F19" s="22">
         <v>96.370491526192808</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="22">
         <v>249.74559085597488</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="22">
         <v>185.2619838175118</v>
       </c>
-      <c r="I19" s="27"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="27"/>
-    </row>
-    <row r="20" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="29"/>
-      <c r="B20" s="58" t="s">
+      <c r="I19" s="22"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="36"/>
+    </row>
+    <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="39"/>
+      <c r="B20" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="62">
+      <c r="C20" s="49">
         <f>C19/C18</f>
         <v>0.19447800668234677</v>
       </c>
-      <c r="D20" s="62">
+      <c r="D20" s="49">
         <f t="shared" ref="D20:H20" si="5">D19/D18</f>
         <v>0.23097641973323471</v>
       </c>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62">
+      <c r="E20" s="49"/>
+      <c r="F20" s="49">
         <f t="shared" si="5"/>
         <v>9.7865172308135323E-2</v>
       </c>
-      <c r="G20" s="67">
+      <c r="G20" s="51">
         <f t="shared" si="5"/>
         <v>0.23097641973323471</v>
       </c>
-      <c r="H20" s="62">
+      <c r="H20" s="49">
         <f t="shared" si="5"/>
         <v>0.13947605739216723</v>
       </c>
-      <c r="I20" s="27"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="27"/>
-    </row>
-    <row r="21" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="24" t="s">
+      <c r="I20" s="22"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="36"/>
+    </row>
+    <row r="21" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="49">
+      <c r="C21" s="56">
         <v>434.99150800000001</v>
       </c>
-      <c r="D21" s="34">
+      <c r="D21" s="25">
         <v>368.09227199999998</v>
       </c>
-      <c r="E21" s="35"/>
-      <c r="F21" s="34">
+      <c r="E21" s="25"/>
+      <c r="F21" s="25">
         <v>433.22669400000001</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G21" s="25">
         <v>368.09227199999998</v>
       </c>
-      <c r="H21" s="34">
+      <c r="H21" s="25">
         <v>436.16804999999999</v>
       </c>
-      <c r="I21" s="35"/>
-      <c r="J21" s="36">
+      <c r="I21" s="25"/>
+      <c r="J21" s="32">
         <v>0.42631999999999998</v>
       </c>
-      <c r="K21" s="48">
+      <c r="K21" s="35">
         <v>3.6583999999999998E-2</v>
       </c>
-      <c r="L21" s="27"/>
-    </row>
-    <row r="22" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="24"/>
-      <c r="B22" s="57" t="s">
+    </row>
+    <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="38"/>
+      <c r="B22" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="50">
+      <c r="C22" s="57">
         <v>21.657200003693923</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="22">
         <v>36.445384316810269</v>
       </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="26">
+      <c r="E22" s="22"/>
+      <c r="F22" s="22">
         <v>15.079079448029976</v>
       </c>
-      <c r="G22" s="26">
+      <c r="G22" s="22">
         <v>36.445384316810269</v>
       </c>
-      <c r="H22" s="26">
+      <c r="H22" s="22">
         <v>26.527001828325794</v>
       </c>
-      <c r="I22" s="27"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="27"/>
-    </row>
-    <row r="23" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="24"/>
-      <c r="B23" s="57" t="s">
+      <c r="I22" s="22"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="36"/>
+    </row>
+    <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="38"/>
+      <c r="B23" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="61">
+      <c r="C23" s="44">
         <f>C22/C21</f>
         <v>4.9787638621427807E-2</v>
       </c>
-      <c r="D23" s="64">
+      <c r="D23" s="45">
         <f t="shared" ref="D23:H23" si="6">D22/D21</f>
         <v>9.9011544357579639E-2</v>
       </c>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64">
+      <c r="E23" s="45"/>
+      <c r="F23" s="45">
         <f t="shared" si="6"/>
         <v>3.4806441193187362E-2</v>
       </c>
-      <c r="G23" s="64">
+      <c r="G23" s="45">
         <f t="shared" si="6"/>
         <v>9.9011544357579639E-2</v>
       </c>
-      <c r="H23" s="64">
+      <c r="H23" s="45">
         <f t="shared" si="6"/>
         <v>6.0818305761565515E-2</v>
       </c>
-      <c r="I23" s="30"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="27"/>
-    </row>
-    <row r="24" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="32" t="s">
+      <c r="I23" s="24"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="37"/>
+    </row>
+    <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="22">
         <v>128.13927899999999</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="22">
         <v>121.58060399999999</v>
       </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="26">
+      <c r="E24" s="22"/>
+      <c r="F24" s="22">
         <v>96.286203</v>
       </c>
-      <c r="G24" s="26">
+      <c r="G24" s="22">
         <v>121.58060399999999</v>
       </c>
-      <c r="H24" s="26">
+      <c r="H24" s="22">
         <v>149.374664</v>
       </c>
-      <c r="I24" s="27"/>
-      <c r="J24" s="28">
+      <c r="I24" s="22"/>
+      <c r="J24" s="33">
         <v>0.17419599999999999</v>
       </c>
-      <c r="K24" s="46">
+      <c r="K24" s="36">
         <v>0.53308299999999997</v>
       </c>
-      <c r="L24" s="27"/>
-    </row>
-    <row r="25" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="24"/>
-      <c r="B25" s="57" t="s">
+    </row>
+    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="38"/>
+      <c r="B25" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C25" s="22">
         <v>34.440806872081268</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="22">
         <v>29.470693324046518</v>
       </c>
-      <c r="E25" s="27"/>
-      <c r="F25" s="26">
+      <c r="E25" s="22"/>
+      <c r="F25" s="22">
         <v>14.803775126635774</v>
       </c>
-      <c r="G25" s="26">
+      <c r="G25" s="22">
         <v>29.470693324046518</v>
       </c>
-      <c r="H25" s="26">
+      <c r="H25" s="22">
         <v>25.510562851493496</v>
       </c>
-      <c r="I25" s="27"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="27"/>
-    </row>
-    <row r="26" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="29"/>
-      <c r="B26" s="58" t="s">
+      <c r="I25" s="22"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="36"/>
+    </row>
+    <row r="26" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="39"/>
+      <c r="B26" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="62">
+      <c r="C26" s="49">
         <f>C25/C24</f>
         <v>0.26877634352914748</v>
       </c>
-      <c r="D26" s="62">
+      <c r="D26" s="49">
         <f t="shared" ref="D26:H26" si="7">D25/D24</f>
         <v>0.24239633917303552</v>
       </c>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62">
+      <c r="E26" s="49"/>
+      <c r="F26" s="49">
         <f t="shared" si="7"/>
         <v>0.15374762598786634</v>
       </c>
-      <c r="G26" s="67">
+      <c r="G26" s="51">
         <f t="shared" si="7"/>
         <v>0.24239633917303552</v>
       </c>
-      <c r="H26" s="62">
+      <c r="H26" s="49">
         <f t="shared" si="7"/>
         <v>0.17078239487449826</v>
       </c>
-      <c r="I26" s="27"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="27"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A27" s="38" t="s">
+      <c r="I26" s="22"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="36"/>
+    </row>
+    <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="49">
+      <c r="C27" s="56">
         <v>0.96034200000000003</v>
       </c>
-      <c r="D27" s="34">
+      <c r="D27" s="25">
         <v>0.96548100000000003</v>
       </c>
-      <c r="E27" s="35"/>
-      <c r="F27" s="34">
+      <c r="E27" s="25"/>
+      <c r="F27" s="25">
         <v>0.97439900000000002</v>
       </c>
-      <c r="G27" s="34">
+      <c r="G27" s="25">
         <v>0.96548100000000003</v>
       </c>
-      <c r="H27" s="34">
+      <c r="H27" s="25">
         <v>0.95097100000000001</v>
       </c>
-      <c r="I27" s="35"/>
-      <c r="J27" s="36">
+      <c r="I27" s="25"/>
+      <c r="J27" s="32">
         <v>-0.18006</v>
       </c>
-      <c r="K27" s="48">
+      <c r="K27" s="35">
         <v>-0.26681700000000003</v>
       </c>
-      <c r="L27" s="27"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A28" s="39"/>
-      <c r="B28" s="57" t="s">
+    </row>
+    <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="30"/>
+      <c r="B28" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="50">
+      <c r="C28" s="57">
         <v>1.50996688705415E-2</v>
       </c>
-      <c r="D28" s="26">
+      <c r="D28" s="22">
         <v>7.3484692283495344E-3</v>
       </c>
-      <c r="E28" s="27"/>
-      <c r="F28" s="26">
+      <c r="E28" s="22"/>
+      <c r="F28" s="22">
         <v>7.8102496759066544E-3</v>
       </c>
-      <c r="G28" s="26">
+      <c r="G28" s="22">
         <v>7.3484692283495344E-3</v>
       </c>
-      <c r="H28" s="26">
+      <c r="H28" s="22">
         <v>1.0488088481701515E-2</v>
       </c>
-      <c r="I28" s="27"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="27"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A29" s="40"/>
-      <c r="B29" s="58" t="s">
+      <c r="I28" s="22"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="36"/>
+    </row>
+    <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="31"/>
+      <c r="B29" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="61">
+      <c r="C29" s="44">
         <f>C28/C27</f>
         <v>1.5723220342900236E-2</v>
       </c>
-      <c r="D29" s="64">
+      <c r="D29" s="45">
         <f>D28/D27</f>
         <v>7.6112002497713931E-3</v>
       </c>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64">
+      <c r="E29" s="45"/>
+      <c r="F29" s="45">
         <f>F28/F27</f>
         <v>8.015453295730654E-3</v>
       </c>
-      <c r="G29" s="64">
+      <c r="G29" s="45">
         <f>G28/G27</f>
         <v>7.6112002497713931E-3</v>
       </c>
-      <c r="H29" s="64">
+      <c r="H29" s="45">
         <f>H28/H27</f>
         <v>1.1028820523130058E-2</v>
       </c>
-      <c r="I29" s="41"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="27"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A30" s="42" t="s">
+      <c r="I29" s="24"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="37"/>
+    </row>
+    <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="51">
+      <c r="B30" s="34"/>
+      <c r="C30" s="52">
         <v>0.45</v>
       </c>
-      <c r="D30" s="43">
+      <c r="D30" s="53">
         <v>0.42</v>
       </c>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43">
+      <c r="E30" s="53"/>
+      <c r="F30" s="53">
         <v>0.54</v>
       </c>
-      <c r="G30" s="43">
+      <c r="G30" s="53">
         <v>0.42</v>
       </c>
-      <c r="H30" s="43">
+      <c r="H30" s="53">
         <v>0.39</v>
       </c>
       <c r="I30" s="54"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="27"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
-      <c r="C32" s="65"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C32" s="26"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
-      <c r="C33" s="65"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C33" s="26"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
-      <c r="C34" s="65"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C34" s="26"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
-      <c r="C35" s="65"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C35" s="26"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
-      <c r="C36" s="65"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C36" s="26"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="J27:J29"/>
-    <mergeCell ref="K27:K29"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="J24:J26"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="K6:K8"/>
@@ -7840,6 +7812,11 @@
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="K9:K11"/>
     <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="K27:K29"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A24:A26"/>
@@ -7851,109 +7828,16 @@
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="J18:J20"/>
     <mergeCell ref="J21:J23"/>
-    <mergeCell ref="J24:J26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="J3:J29">
-    <cfRule type="colorScale" priority="16">
+  <conditionalFormatting sqref="C32:C36">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K29">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I30">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3 I3">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9 E9">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12 E12">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15 E15">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18 I18">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21 I21">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24 I24">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
@@ -7968,8 +7852,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30:H30">
-    <cfRule type="colorScale" priority="93">
+  <conditionalFormatting sqref="E9 I9">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7978,8 +7862,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30:H30">
-    <cfRule type="colorScale" priority="94">
+  <conditionalFormatting sqref="E12 I12">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15 I15">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8078,6 +7972,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E30:H30">
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F3:H3">
     <cfRule type="colorScale" priority="114">
       <colorScale>
@@ -8088,8 +7992,80 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32:C36">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="F30:H30">
+    <cfRule type="colorScale" priority="93">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3 E3">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18 E18">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21 E21">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24 E24">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J29">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K29">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8115,1338 +8091,1421 @@
       <selection pane="topRight" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="10" style="3" customWidth="1"/>
-    <col min="5" max="5" width="3.625" customWidth="1"/>
+    <col min="5" max="5" width="3.5703125" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="3.625" customWidth="1"/>
+    <col min="9" max="9" width="3.5703125" customWidth="1"/>
     <col min="10" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="3.625" customWidth="1"/>
-    <col min="15" max="15" width="9.125" customWidth="1"/>
-    <col min="17" max="17" width="9.125" customWidth="1"/>
+    <col min="14" max="14" width="3.5703125" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33">
         <v>2</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="52">
+      <c r="D1" s="33"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="41">
         <v>3</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="44">
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="33">
         <v>4</v>
       </c>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="44" t="s">
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="44"/>
-    </row>
-    <row r="2" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="42" t="s">
+      <c r="P1" s="33"/>
+    </row>
+    <row r="2" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="53">
-        <v>1</v>
-      </c>
-      <c r="D2" s="53">
+      <c r="B2" s="34"/>
+      <c r="C2" s="42">
+        <v>1</v>
+      </c>
+      <c r="D2" s="42">
         <v>2</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53">
+      <c r="E2" s="42"/>
+      <c r="F2" s="42">
         <v>3</v>
       </c>
-      <c r="G2" s="53">
-        <v>1</v>
-      </c>
-      <c r="H2" s="53">
+      <c r="G2" s="42">
+        <v>1</v>
+      </c>
+      <c r="H2" s="42">
         <v>2</v>
       </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53">
+      <c r="I2" s="42"/>
+      <c r="J2" s="42">
         <v>3</v>
       </c>
-      <c r="K2" s="53">
+      <c r="K2" s="42">
         <v>4</v>
       </c>
-      <c r="L2" s="53">
-        <v>1</v>
-      </c>
-      <c r="M2" s="53">
+      <c r="L2" s="42">
+        <v>1</v>
+      </c>
+      <c r="M2" s="42">
         <v>2</v>
       </c>
-      <c r="N2" s="53"/>
-      <c r="O2" s="45">
-        <v>1</v>
-      </c>
-      <c r="P2" s="45">
+      <c r="N2" s="42"/>
+      <c r="O2" s="22">
+        <v>1</v>
+      </c>
+      <c r="P2" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="56">
         <v>128.30000000000001</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="25">
         <v>140.81818200000001</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="34">
+      <c r="E3" s="25"/>
+      <c r="F3" s="25">
         <v>123.714286</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="25">
         <v>128.30000000000001</v>
       </c>
-      <c r="H3" s="34">
+      <c r="H3" s="25">
         <v>170.75</v>
       </c>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34">
+      <c r="I3" s="25"/>
+      <c r="J3" s="25">
         <v>122</v>
       </c>
-      <c r="K3" s="34">
+      <c r="K3" s="25">
         <v>125.42857100000001</v>
       </c>
-      <c r="L3" s="34">
+      <c r="L3" s="25">
         <v>128.30000000000001</v>
       </c>
-      <c r="M3" s="34">
+      <c r="M3" s="25">
         <v>170.75</v>
       </c>
-      <c r="N3" s="35"/>
-      <c r="O3" s="36">
+      <c r="N3" s="25"/>
+      <c r="O3" s="32">
         <v>0.19814899999999999</v>
       </c>
-      <c r="P3" s="48">
+      <c r="P3" s="35">
         <v>0.554253</v>
       </c>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-    </row>
-    <row r="4" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="24"/>
-      <c r="B4" s="57" t="s">
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+    </row>
+    <row r="4" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="38"/>
+      <c r="B4" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="57">
         <v>28.975276823526642</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="22">
         <v>29.77636705509925</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="26">
+      <c r="E4" s="22"/>
+      <c r="F4" s="22">
         <v>19.632894564989648</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="22">
         <v>28.975276823526642</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="22">
         <v>18.304956405301816</v>
       </c>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26">
+      <c r="I4" s="22"/>
+      <c r="J4" s="22">
         <v>18.165902124584949</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4" s="22">
         <v>22.322314261742665</v>
       </c>
-      <c r="L4" s="26">
+      <c r="L4" s="22">
         <v>28.975276823526642</v>
       </c>
-      <c r="M4" s="26">
+      <c r="M4" s="22">
         <v>18.304956405301816</v>
       </c>
-      <c r="N4" s="27"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="46"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-    </row>
-    <row r="5" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="29"/>
-      <c r="B5" s="58" t="s">
+      <c r="N4" s="22"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="36"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+    </row>
+    <row r="5" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39"/>
+      <c r="B5" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="59">
+      <c r="C5" s="44">
         <f>C4/C3</f>
         <v>0.22584003759568697</v>
       </c>
-      <c r="D5" s="63">
+      <c r="D5" s="45">
         <f t="shared" ref="D5:M5" si="0">D4/D3</f>
         <v>0.21145257403691839</v>
       </c>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63">
+      <c r="E5" s="45"/>
+      <c r="F5" s="45">
         <f t="shared" si="0"/>
         <v>0.15869545223734022</v>
       </c>
-      <c r="G5" s="69">
+      <c r="G5" s="46">
         <f t="shared" si="0"/>
         <v>0.22584003759568697</v>
       </c>
-      <c r="H5" s="63">
+      <c r="H5" s="45">
         <f t="shared" si="0"/>
         <v>0.1072032585962039</v>
       </c>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63">
+      <c r="I5" s="45"/>
+      <c r="J5" s="45">
         <f t="shared" si="0"/>
         <v>0.14890083708676188</v>
       </c>
-      <c r="K5" s="63">
+      <c r="K5" s="45">
         <f t="shared" si="0"/>
         <v>0.1779683375468151</v>
       </c>
-      <c r="L5" s="63">
+      <c r="L5" s="45">
         <f t="shared" si="0"/>
         <v>0.22584003759568697</v>
       </c>
-      <c r="M5" s="63">
+      <c r="M5" s="45">
         <f t="shared" si="0"/>
         <v>0.1072032585962039</v>
       </c>
-      <c r="N5" s="30"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="47"/>
-    </row>
-    <row r="6" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="32" t="s">
+      <c r="N5" s="24"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="37"/>
+    </row>
+    <row r="6" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="22">
         <v>1366.710169</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="22">
         <v>1089.1624409999999</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="26">
+      <c r="E6" s="22"/>
+      <c r="F6" s="22">
         <v>1102.016901</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="22">
         <v>1366.710169</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="22">
         <v>1066.667138</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26">
+      <c r="I6" s="22"/>
+      <c r="J6" s="22">
         <v>1243.835259</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="22">
         <v>960.19854199999997</v>
       </c>
-      <c r="L6" s="26">
+      <c r="L6" s="22">
         <v>1366.710169</v>
       </c>
-      <c r="M6" s="26">
+      <c r="M6" s="22">
         <v>1066.667138</v>
       </c>
-      <c r="N6" s="27"/>
-      <c r="O6" s="28">
+      <c r="N6" s="22"/>
+      <c r="O6" s="33">
         <v>0.38675100000000001</v>
       </c>
-      <c r="P6" s="46">
+      <c r="P6" s="36">
         <v>-0.30294199999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="24"/>
-      <c r="B7" s="57" t="s">
+    <row r="7" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="38"/>
+      <c r="B7" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="22">
         <v>143.57499805328223</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="22">
         <v>173.54413924128929</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="26">
+      <c r="E7" s="22"/>
+      <c r="F7" s="22">
         <v>188.04967717866467</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="22">
         <v>143.57499805328223</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="22">
         <v>154.17636012048021</v>
       </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26">
+      <c r="I7" s="22"/>
+      <c r="J7" s="22">
         <v>137.68491709334035</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="22">
         <v>103.60001727316458</v>
       </c>
-      <c r="L7" s="26">
+      <c r="L7" s="22">
         <v>143.57499805328223</v>
       </c>
-      <c r="M7" s="26">
+      <c r="M7" s="22">
         <v>154.17636012048021</v>
       </c>
-      <c r="N7" s="27"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="46"/>
-    </row>
-    <row r="8" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="29"/>
-      <c r="B8" s="58" t="s">
+      <c r="N7" s="22"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="36"/>
+    </row>
+    <row r="8" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39"/>
+      <c r="B8" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="60">
+      <c r="C8" s="49">
         <f>C7/C6</f>
         <v>0.10505153273157671</v>
       </c>
-      <c r="D8" s="60">
+      <c r="D8" s="49">
         <f t="shared" ref="D8:M8" si="1">D7/D6</f>
         <v>0.15933724181854092</v>
       </c>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60">
+      <c r="E8" s="49"/>
+      <c r="F8" s="49">
         <f t="shared" si="1"/>
         <v>0.17064137311144983</v>
       </c>
-      <c r="G8" s="60">
+      <c r="G8" s="49">
         <f t="shared" si="1"/>
         <v>0.10505153273157671</v>
       </c>
-      <c r="H8" s="60">
+      <c r="H8" s="49">
         <f t="shared" si="1"/>
         <v>0.14454027374421674</v>
       </c>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60">
+      <c r="I8" s="49"/>
+      <c r="J8" s="49">
         <f t="shared" si="1"/>
         <v>0.11069385282101925</v>
       </c>
-      <c r="K8" s="60">
+      <c r="K8" s="49">
         <f t="shared" si="1"/>
         <v>0.10789437053026121</v>
       </c>
-      <c r="L8" s="60">
+      <c r="L8" s="49">
         <f t="shared" si="1"/>
         <v>0.10505153273157671</v>
       </c>
-      <c r="M8" s="60">
+      <c r="M8" s="49">
         <f t="shared" si="1"/>
         <v>0.14454027374421674</v>
       </c>
-      <c r="N8" s="27"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="46"/>
-    </row>
-    <row r="9" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="32" t="s">
+      <c r="N8" s="22"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="36"/>
+    </row>
+    <row r="9" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="56">
         <v>463.1</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="25">
         <v>539.63636399999996</v>
       </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="34">
+      <c r="E9" s="25"/>
+      <c r="F9" s="25">
         <v>497.57142900000002</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="25">
         <v>463.1</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9" s="25">
         <v>613.25</v>
       </c>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34">
+      <c r="I9" s="25"/>
+      <c r="J9" s="25">
         <v>512</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9" s="25">
         <v>483.14285699999999</v>
       </c>
-      <c r="L9" s="34">
+      <c r="L9" s="25">
         <v>463.1</v>
       </c>
-      <c r="M9" s="34">
+      <c r="M9" s="25">
         <v>613.25</v>
       </c>
-      <c r="N9" s="35"/>
-      <c r="O9" s="36">
+      <c r="N9" s="25"/>
+      <c r="O9" s="32">
         <v>0.173847</v>
       </c>
-      <c r="P9" s="48">
+      <c r="P9" s="35">
         <v>0.57918999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="24"/>
-      <c r="B10" s="57" t="s">
+    <row r="10" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="38"/>
+      <c r="B10" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="50">
+      <c r="C10" s="57">
         <v>96.395539315883283</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="22">
         <v>94.563934256142289</v>
       </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="26">
+      <c r="E10" s="22"/>
+      <c r="F10" s="22">
         <v>88.64250958202841</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="22">
         <v>96.395539315883283</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="22">
         <v>50.024993753123049</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26">
+      <c r="I10" s="22"/>
+      <c r="J10" s="22">
         <v>89.442719099991592</v>
       </c>
-      <c r="K10" s="26">
+      <c r="K10" s="22">
         <v>92.405679067901445</v>
       </c>
-      <c r="L10" s="26">
+      <c r="L10" s="22">
         <v>96.395539315883283</v>
       </c>
-      <c r="M10" s="26">
+      <c r="M10" s="22">
         <v>50.024993753123049</v>
       </c>
-      <c r="N10" s="27"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="46"/>
-    </row>
-    <row r="11" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="29"/>
-      <c r="B11" s="58" t="s">
+      <c r="N10" s="22"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="36"/>
+    </row>
+    <row r="11" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="39"/>
+      <c r="B11" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="59">
+      <c r="C11" s="44">
         <f>C10/C9</f>
         <v>0.20815275170780237</v>
       </c>
-      <c r="D11" s="63">
+      <c r="D11" s="45">
         <f t="shared" ref="D11:M11" si="2">D10/D9</f>
         <v>0.17523640096304238</v>
       </c>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63">
+      <c r="E11" s="45"/>
+      <c r="F11" s="45">
         <f t="shared" si="2"/>
         <v>0.17815032056840308</v>
       </c>
-      <c r="G11" s="69">
+      <c r="G11" s="46">
         <f t="shared" si="2"/>
         <v>0.20815275170780237</v>
       </c>
-      <c r="H11" s="63">
+      <c r="H11" s="45">
         <f t="shared" si="2"/>
         <v>8.1573573180795833E-2</v>
       </c>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63">
+      <c r="I11" s="45"/>
+      <c r="J11" s="45">
         <f t="shared" si="2"/>
         <v>0.17469281074217108</v>
       </c>
-      <c r="K11" s="63">
+      <c r="K11" s="45">
         <f t="shared" si="2"/>
         <v>0.19125953686178879</v>
       </c>
-      <c r="L11" s="63">
+      <c r="L11" s="45">
         <f t="shared" si="2"/>
         <v>0.20815275170780237</v>
       </c>
-      <c r="M11" s="63">
+      <c r="M11" s="45">
         <f t="shared" si="2"/>
         <v>8.1573573180795833E-2</v>
       </c>
-      <c r="N11" s="30"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="47"/>
-    </row>
-    <row r="12" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="32" t="s">
+      <c r="N11" s="24"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="37"/>
+    </row>
+    <row r="12" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="22">
         <v>11.677288000000001</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="22">
         <v>13.091585</v>
       </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="26">
+      <c r="E12" s="22"/>
+      <c r="F12" s="22">
         <v>13.477240999999999</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="22">
         <v>11.677288000000001</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="22">
         <v>12.416684999999999</v>
       </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26">
+      <c r="I12" s="22"/>
+      <c r="J12" s="22">
         <v>14.109659000000001</v>
       </c>
-      <c r="K12" s="26">
+      <c r="K12" s="22">
         <v>12.844823999999999</v>
       </c>
-      <c r="L12" s="26">
+      <c r="L12" s="22">
         <v>11.677288000000001</v>
       </c>
-      <c r="M12" s="26">
+      <c r="M12" s="22">
         <v>12.416684999999999</v>
       </c>
-      <c r="N12" s="27"/>
-      <c r="O12" s="28">
+      <c r="N12" s="22"/>
+      <c r="O12" s="33">
         <v>-0.25663200000000003</v>
       </c>
-      <c r="P12" s="46">
+      <c r="P12" s="36">
         <v>0.23480300000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="24"/>
-      <c r="B13" s="57" t="s">
+    <row r="13" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
+      <c r="B13" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="22">
         <v>1.1684275758471296</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="22">
         <v>1.0887028979478286</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="26">
+      <c r="E13" s="22"/>
+      <c r="F13" s="22">
         <v>1.1250608872412196</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="22">
         <v>1.1684275758471296</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="22">
         <v>0.62217280557735732</v>
       </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26">
+      <c r="I13" s="22"/>
+      <c r="J13" s="22">
         <v>0.28630054138963829</v>
       </c>
-      <c r="K13" s="26">
+      <c r="K13" s="22">
         <v>1.3142659548204085</v>
       </c>
-      <c r="L13" s="26">
+      <c r="L13" s="22">
         <v>1.1684275758471296</v>
       </c>
-      <c r="M13" s="26">
+      <c r="M13" s="22">
         <v>0.62217280557735732</v>
       </c>
-      <c r="N13" s="27"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="46"/>
-    </row>
-    <row r="14" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="29"/>
-      <c r="B14" s="58" t="s">
+      <c r="N13" s="22"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="36"/>
+    </row>
+    <row r="14" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
+      <c r="B14" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="60">
+      <c r="C14" s="49">
         <f>C13/C12</f>
         <v>0.10005984059373457</v>
       </c>
-      <c r="D14" s="60">
+      <c r="D14" s="49">
         <f t="shared" ref="D14:M14" si="3">D13/D12</f>
         <v>8.3160510965465881E-2</v>
       </c>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60">
+      <c r="E14" s="49"/>
+      <c r="F14" s="49">
         <f t="shared" si="3"/>
         <v>8.3478576011308217E-2</v>
       </c>
-      <c r="G14" s="60">
+      <c r="G14" s="49">
         <f t="shared" si="3"/>
         <v>0.10005984059373457</v>
       </c>
-      <c r="H14" s="60">
+      <c r="H14" s="49">
         <f t="shared" si="3"/>
         <v>5.0107802974574726E-2</v>
       </c>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60">
+      <c r="I14" s="49"/>
+      <c r="J14" s="49">
         <f t="shared" si="3"/>
         <v>2.0291102810467514E-2</v>
       </c>
-      <c r="K14" s="60">
+      <c r="K14" s="49">
         <f t="shared" si="3"/>
         <v>0.10231872035151347</v>
       </c>
-      <c r="L14" s="60">
+      <c r="L14" s="49">
         <f t="shared" si="3"/>
         <v>0.10005984059373457</v>
       </c>
-      <c r="M14" s="60">
+      <c r="M14" s="49">
         <f t="shared" si="3"/>
         <v>5.0107802974574726E-2</v>
       </c>
-      <c r="N14" s="27"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="46"/>
-    </row>
-    <row r="15" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="24" t="s">
+      <c r="N14" s="22"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="36"/>
+    </row>
+    <row r="15" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="56">
         <v>378.75748499999997</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="25">
         <v>265.230729</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="34">
+      <c r="E15" s="25"/>
+      <c r="F15" s="25">
         <v>261.733789</v>
       </c>
-      <c r="G15" s="34">
+      <c r="G15" s="25">
         <v>378.75748499999997</v>
       </c>
-      <c r="H15" s="34">
+      <c r="H15" s="25">
         <v>271.35037599999998</v>
       </c>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34">
+      <c r="I15" s="25"/>
+      <c r="J15" s="25">
         <v>283.28275100000002</v>
       </c>
-      <c r="K15" s="34">
+      <c r="K15" s="25">
         <v>240.18482700000001</v>
       </c>
-      <c r="L15" s="34">
+      <c r="L15" s="25">
         <v>378.75748499999997</v>
       </c>
-      <c r="M15" s="34">
+      <c r="M15" s="25">
         <v>271.35037599999998</v>
       </c>
-      <c r="N15" s="35"/>
-      <c r="O15" s="36">
+      <c r="N15" s="25"/>
+      <c r="O15" s="32">
         <v>0.423954</v>
       </c>
-      <c r="P15" s="48">
+      <c r="P15" s="35">
         <v>-0.33226099999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="24"/>
-      <c r="B16" s="57" t="s">
+    <row r="16" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="38"/>
+      <c r="B16" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="50">
+      <c r="C16" s="57">
         <v>59.875043390380938</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="22">
         <v>44.937308119200907</v>
       </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="26">
+      <c r="E16" s="22"/>
+      <c r="F16" s="22">
         <v>41.173804876401697</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="22">
         <v>59.875043390380938</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="22">
         <v>53.314599041913468</v>
       </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26">
+      <c r="I16" s="22"/>
+      <c r="J16" s="22">
         <v>32.485510231486288</v>
       </c>
-      <c r="K16" s="26">
+      <c r="K16" s="22">
         <v>39.17016236882354</v>
       </c>
-      <c r="L16" s="26">
+      <c r="L16" s="22">
         <v>59.875043390380938</v>
       </c>
-      <c r="M16" s="26">
+      <c r="M16" s="22">
         <v>53.314599041913468</v>
       </c>
-      <c r="N16" s="27"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="46"/>
-    </row>
-    <row r="17" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="24"/>
-      <c r="B17" s="57" t="s">
+      <c r="N16" s="22"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="36"/>
+    </row>
+    <row r="17" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="38"/>
+      <c r="B17" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="59">
+      <c r="C17" s="44">
         <f>C16/C15</f>
         <v>0.15808279905116843</v>
       </c>
-      <c r="D17" s="63">
+      <c r="D17" s="45">
         <f t="shared" ref="D17:M17" si="4">D16/D15</f>
         <v>0.16942723148493441</v>
       </c>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63">
+      <c r="E17" s="45"/>
+      <c r="F17" s="45">
         <f t="shared" si="4"/>
         <v>0.15731176717271952</v>
       </c>
-      <c r="G17" s="63">
+      <c r="G17" s="45">
         <f t="shared" si="4"/>
         <v>0.15808279905116843</v>
       </c>
-      <c r="H17" s="63">
+      <c r="H17" s="45">
         <f t="shared" si="4"/>
         <v>0.19647881026674335</v>
       </c>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63">
+      <c r="I17" s="45"/>
+      <c r="J17" s="45">
         <f t="shared" si="4"/>
         <v>0.11467521448733137</v>
       </c>
-      <c r="K17" s="63">
+      <c r="K17" s="45">
         <f t="shared" si="4"/>
         <v>0.16308341729189887</v>
       </c>
-      <c r="L17" s="63">
+      <c r="L17" s="45">
         <f t="shared" si="4"/>
         <v>0.15808279905116843</v>
       </c>
-      <c r="M17" s="63">
+      <c r="M17" s="45">
         <f t="shared" si="4"/>
         <v>0.19647881026674335</v>
       </c>
-      <c r="N17" s="30"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="47"/>
-    </row>
-    <row r="18" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="32" t="s">
+      <c r="N17" s="24"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="37"/>
+    </row>
+    <row r="18" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="22">
         <v>1403.525261</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="22">
         <v>1094.616162</v>
       </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="26">
+      <c r="E18" s="22"/>
+      <c r="F18" s="22">
         <v>1043.927291</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="22">
         <v>1403.525261</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H18" s="22">
         <v>1183.321686</v>
       </c>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26">
+      <c r="I18" s="22"/>
+      <c r="J18" s="22">
         <v>1088.6568130000001</v>
       </c>
-      <c r="K18" s="26">
+      <c r="K18" s="22">
         <v>999.19776999999999</v>
       </c>
-      <c r="L18" s="26">
+      <c r="L18" s="22">
         <v>1403.525261</v>
       </c>
-      <c r="M18" s="26">
+      <c r="M18" s="22">
         <v>1183.321686</v>
       </c>
-      <c r="N18" s="27"/>
-      <c r="O18" s="28">
+      <c r="N18" s="22"/>
+      <c r="O18" s="33">
         <v>0.415715</v>
       </c>
-      <c r="P18" s="46">
+      <c r="P18" s="36">
         <v>-1.6017E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="24"/>
-      <c r="B19" s="57" t="s">
+    <row r="19" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="38"/>
+      <c r="B19" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="22">
         <v>136.08673893881064</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="22">
         <v>188.79859251858846</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="26">
+      <c r="E19" s="22"/>
+      <c r="F19" s="22">
         <v>192.96260099822453</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="22">
         <v>136.08673893881064</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="22">
         <v>153.79639008117195</v>
       </c>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26">
+      <c r="I19" s="22"/>
+      <c r="J19" s="22">
         <v>231.16891650695601</v>
       </c>
-      <c r="K19" s="26">
+      <c r="K19" s="22">
         <v>150.22467662471436</v>
       </c>
-      <c r="L19" s="26">
+      <c r="L19" s="22">
         <v>136.08673893881064</v>
       </c>
-      <c r="M19" s="26">
+      <c r="M19" s="22">
         <v>153.79639008117195</v>
       </c>
-      <c r="N19" s="27"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="46"/>
-    </row>
-    <row r="20" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="29"/>
-      <c r="B20" s="58" t="s">
+      <c r="N19" s="22"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="36"/>
+    </row>
+    <row r="20" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="39"/>
+      <c r="B20" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="60">
+      <c r="C20" s="49">
         <f>C19/C18</f>
         <v>9.696066235519693E-2</v>
       </c>
-      <c r="D20" s="60">
+      <c r="D20" s="49">
         <f t="shared" ref="D20:M20" si="5">D19/D18</f>
         <v>0.17247926631526245</v>
       </c>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60">
+      <c r="E20" s="49"/>
+      <c r="F20" s="49">
         <f t="shared" si="5"/>
         <v>0.184842950904542</v>
       </c>
-      <c r="G20" s="60">
+      <c r="G20" s="49">
         <f t="shared" si="5"/>
         <v>9.696066235519693E-2</v>
       </c>
-      <c r="H20" s="60">
+      <c r="H20" s="49">
         <f t="shared" si="5"/>
         <v>0.12997005962178568</v>
       </c>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60">
+      <c r="I20" s="49"/>
+      <c r="J20" s="49">
         <f t="shared" si="5"/>
         <v>0.21234324145726538</v>
       </c>
-      <c r="K20" s="60">
+      <c r="K20" s="49">
         <f t="shared" si="5"/>
         <v>0.15034528812520706</v>
       </c>
-      <c r="L20" s="60">
+      <c r="L20" s="49">
         <f t="shared" si="5"/>
         <v>9.696066235519693E-2</v>
       </c>
-      <c r="M20" s="60">
+      <c r="M20" s="49">
         <f t="shared" si="5"/>
         <v>0.12997005962178568</v>
       </c>
-      <c r="N20" s="27"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="46"/>
-    </row>
-    <row r="21" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="24" t="s">
+      <c r="N20" s="22"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="36"/>
+    </row>
+    <row r="21" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="57" t="s">
+      <c r="B21" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="49">
+      <c r="C21" s="56">
         <v>546.92753400000004</v>
       </c>
-      <c r="D21" s="34">
+      <c r="D21" s="25">
         <v>477.85879199999999</v>
       </c>
-      <c r="E21" s="35"/>
-      <c r="F21" s="34">
+      <c r="E21" s="25"/>
+      <c r="F21" s="25">
         <v>461.823306</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G21" s="25">
         <v>546.92753400000004</v>
       </c>
-      <c r="H21" s="34">
+      <c r="H21" s="25">
         <v>505.92089199999998</v>
       </c>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34">
+      <c r="I21" s="25"/>
+      <c r="J21" s="25">
         <v>491.34676300000001</v>
       </c>
-      <c r="K21" s="34">
+      <c r="K21" s="25">
         <v>432.29984899999999</v>
       </c>
-      <c r="L21" s="34">
+      <c r="L21" s="25">
         <v>546.92753400000004</v>
       </c>
-      <c r="M21" s="34">
+      <c r="M21" s="25">
         <v>505.92089199999998</v>
       </c>
-      <c r="N21" s="35"/>
-      <c r="O21" s="36">
+      <c r="N21" s="25"/>
+      <c r="O21" s="32">
         <v>0.425207</v>
       </c>
-      <c r="P21" s="48">
+      <c r="P21" s="35">
         <v>-3.3320000000000002E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="24"/>
-      <c r="B22" s="57" t="s">
+    <row r="22" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="38"/>
+      <c r="B22" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="50">
+      <c r="C22" s="57">
         <v>40.105464839595115</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="22">
         <v>46.097422715375316</v>
       </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="26">
+      <c r="E22" s="22"/>
+      <c r="F22" s="22">
         <v>46.034183450996501</v>
       </c>
-      <c r="G22" s="26">
+      <c r="G22" s="22">
         <v>40.105464839595115</v>
       </c>
-      <c r="H22" s="26">
+      <c r="H22" s="22">
         <v>32.017303868377176</v>
       </c>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26">
+      <c r="I22" s="22"/>
+      <c r="J22" s="22">
         <v>19.390982079306866</v>
       </c>
-      <c r="K22" s="26">
+      <c r="K22" s="22">
         <v>46.70823336415112</v>
       </c>
-      <c r="L22" s="26">
+      <c r="L22" s="22">
         <v>40.105464839595115</v>
       </c>
-      <c r="M22" s="26">
+      <c r="M22" s="22">
         <v>32.017303868377176</v>
       </c>
-      <c r="N22" s="27"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="46"/>
-    </row>
-    <row r="23" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="24"/>
-      <c r="B23" s="57" t="s">
+      <c r="N22" s="22"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="36"/>
+    </row>
+    <row r="23" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="38"/>
+      <c r="B23" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="59">
+      <c r="C23" s="44">
         <f>C22/C21</f>
         <v>7.3328663024661525E-2</v>
       </c>
-      <c r="D23" s="63">
+      <c r="D23" s="45">
         <f t="shared" ref="D23:M23" si="6">D22/D21</f>
         <v>9.6466620447521911E-2</v>
       </c>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63">
+      <c r="E23" s="45"/>
+      <c r="F23" s="45">
         <f t="shared" si="6"/>
         <v>9.967921248867527E-2</v>
       </c>
-      <c r="G23" s="63">
+      <c r="G23" s="45">
         <f t="shared" si="6"/>
         <v>7.3328663024661525E-2</v>
       </c>
-      <c r="H23" s="63">
+      <c r="H23" s="45">
         <f t="shared" si="6"/>
         <v>6.3285198090568623E-2</v>
       </c>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63">
+      <c r="I23" s="45"/>
+      <c r="J23" s="45">
         <f t="shared" si="6"/>
         <v>3.9464963523748432E-2</v>
       </c>
-      <c r="K23" s="63">
+      <c r="K23" s="45">
         <f t="shared" si="6"/>
         <v>0.10804591644479414</v>
       </c>
-      <c r="L23" s="63">
+      <c r="L23" s="45">
         <f t="shared" si="6"/>
         <v>7.3328663024661525E-2</v>
       </c>
-      <c r="M23" s="63">
+      <c r="M23" s="45">
         <f t="shared" si="6"/>
         <v>6.3285198090568623E-2</v>
       </c>
-      <c r="N23" s="30"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="47"/>
-    </row>
-    <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="32" t="s">
+      <c r="N23" s="24"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="37"/>
+    </row>
+    <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="22">
         <v>80.787188999999998</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="22">
         <v>74.792547999999996</v>
       </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="26">
+      <c r="E24" s="22"/>
+      <c r="F24" s="22">
         <v>68.290167999999994</v>
       </c>
-      <c r="G24" s="26">
+      <c r="G24" s="22">
         <v>80.787188999999998</v>
       </c>
-      <c r="H24" s="26">
+      <c r="H24" s="22">
         <v>86.171711999999999</v>
       </c>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26">
+      <c r="I24" s="22"/>
+      <c r="J24" s="22">
         <v>72.520286999999996</v>
       </c>
-      <c r="K24" s="26">
+      <c r="K24" s="22">
         <v>64.060050000000004</v>
       </c>
-      <c r="L24" s="26">
+      <c r="L24" s="22">
         <v>80.787188999999998</v>
       </c>
-      <c r="M24" s="26">
+      <c r="M24" s="22">
         <v>86.171711999999999</v>
       </c>
-      <c r="N24" s="27"/>
-      <c r="O24" s="28">
+      <c r="N24" s="22"/>
+      <c r="O24" s="33">
         <v>0.424012</v>
       </c>
-      <c r="P24" s="46">
+      <c r="P24" s="36">
         <v>0.291018</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="24"/>
-      <c r="B25" s="57" t="s">
+    <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="38"/>
+      <c r="B25" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C25" s="22">
         <v>16.609346495271872</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="22">
         <v>15.056250363221249</v>
       </c>
-      <c r="E25" s="27"/>
-      <c r="F25" s="26">
+      <c r="E25" s="22"/>
+      <c r="F25" s="22">
         <v>14.347422172641329</v>
       </c>
-      <c r="G25" s="26">
+      <c r="G25" s="22">
         <v>16.609346495271872</v>
       </c>
-      <c r="H25" s="26">
+      <c r="H25" s="22">
         <v>8.076926890841591</v>
       </c>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26">
+      <c r="I25" s="22"/>
+      <c r="J25" s="22">
         <v>13.663313580533822</v>
       </c>
-      <c r="K25" s="26">
+      <c r="K25" s="22">
         <v>14.750137524782607</v>
       </c>
-      <c r="L25" s="26">
+      <c r="L25" s="22">
         <v>16.609346495271872</v>
       </c>
-      <c r="M25" s="26">
+      <c r="M25" s="22">
         <v>8.076926890841591</v>
       </c>
-      <c r="N25" s="27"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="46"/>
-    </row>
-    <row r="26" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="29"/>
-      <c r="B26" s="58" t="s">
+      <c r="N25" s="22"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="36"/>
+    </row>
+    <row r="26" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="39"/>
+      <c r="B26" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="60">
+      <c r="C26" s="49">
         <f>C25/C24</f>
         <v>0.20559381630758156</v>
       </c>
-      <c r="D26" s="60">
+      <c r="D26" s="49">
         <f t="shared" ref="D26:M26" si="7">D25/D24</f>
         <v>0.20130682488877435</v>
       </c>
-      <c r="E26" s="60"/>
-      <c r="F26" s="70">
+      <c r="E26" s="49"/>
+      <c r="F26" s="51">
         <f t="shared" si="7"/>
         <v>0.21009499014032781</v>
       </c>
-      <c r="G26" s="70">
+      <c r="G26" s="51">
         <f t="shared" si="7"/>
         <v>0.20559381630758156</v>
       </c>
-      <c r="H26" s="60">
+      <c r="H26" s="49">
         <f t="shared" si="7"/>
         <v>9.3730607218777212E-2</v>
       </c>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60">
+      <c r="I26" s="49"/>
+      <c r="J26" s="49">
         <f t="shared" si="7"/>
         <v>0.18840677754810628</v>
       </c>
-      <c r="K26" s="60">
+      <c r="K26" s="49">
         <f t="shared" si="7"/>
         <v>0.23025485501154941</v>
       </c>
-      <c r="L26" s="60">
+      <c r="L26" s="49">
         <f t="shared" si="7"/>
         <v>0.20559381630758156</v>
       </c>
-      <c r="M26" s="60">
+      <c r="M26" s="49">
         <f t="shared" si="7"/>
         <v>9.3730607218777212E-2</v>
       </c>
-      <c r="N26" s="27"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="46"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A27" s="38" t="s">
+      <c r="N26" s="22"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="36"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="68" t="s">
+      <c r="B27" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="49">
+      <c r="C27" s="56">
         <v>0.97616899999999995</v>
       </c>
-      <c r="D27" s="34">
+      <c r="D27" s="25">
         <v>0.96556699999999995</v>
       </c>
-      <c r="E27" s="35"/>
-      <c r="F27" s="34">
+      <c r="E27" s="25"/>
+      <c r="F27" s="25">
         <v>0.96577500000000005</v>
       </c>
-      <c r="G27" s="34">
+      <c r="G27" s="25">
         <v>0.97616899999999995</v>
       </c>
-      <c r="H27" s="34">
+      <c r="H27" s="25">
         <v>0.96520300000000003</v>
       </c>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34">
+      <c r="I27" s="25"/>
+      <c r="J27" s="25">
         <v>0.95388799999999996</v>
       </c>
-      <c r="K27" s="34">
+      <c r="K27" s="25">
         <v>0.977661</v>
       </c>
-      <c r="L27" s="34">
+      <c r="L27" s="25">
         <v>0.97616899999999995</v>
       </c>
-      <c r="M27" s="34">
+      <c r="M27" s="25">
         <v>0.96520300000000003</v>
       </c>
-      <c r="N27" s="35"/>
-      <c r="O27" s="36">
+      <c r="N27" s="25"/>
+      <c r="O27" s="32">
         <v>-4.3986999999999998E-2</v>
       </c>
-      <c r="P27" s="48">
+      <c r="P27" s="35">
         <v>-0.118243</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A28" s="39"/>
-      <c r="B28" s="57" t="s">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="30"/>
+      <c r="B28" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="50">
+      <c r="C28" s="57">
         <v>7.3484692283495344E-3</v>
       </c>
-      <c r="D28" s="26">
+      <c r="D28" s="22">
         <v>1.5459624833740308E-2</v>
       </c>
-      <c r="E28" s="27"/>
-      <c r="F28" s="26">
+      <c r="E28" s="22"/>
+      <c r="F28" s="22">
         <v>1.6186414056238645E-2</v>
       </c>
-      <c r="G28" s="26">
+      <c r="G28" s="22">
         <v>7.3484692283495344E-3</v>
       </c>
-      <c r="H28" s="26">
+      <c r="H28" s="22">
         <v>1.5132745950421557E-2</v>
       </c>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26">
+      <c r="I28" s="22"/>
+      <c r="J28" s="22">
         <v>1.0392304845413263E-2</v>
       </c>
-      <c r="K28" s="26">
+      <c r="K28" s="22">
         <v>1.1445523142259597E-2</v>
       </c>
-      <c r="L28" s="26">
+      <c r="L28" s="22">
         <v>7.3484692283495344E-3</v>
       </c>
-      <c r="M28" s="26">
+      <c r="M28" s="22">
         <v>1.5132745950421557E-2</v>
       </c>
-      <c r="N28" s="27"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="46"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A29" s="40"/>
-      <c r="B29" s="58" t="s">
+      <c r="N28" s="22"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="36"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="31"/>
+      <c r="B29" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="61">
+      <c r="C29" s="44">
         <f>C28/C27</f>
         <v>7.5278657981861083E-3</v>
       </c>
-      <c r="D29" s="64">
+      <c r="D29" s="45">
         <f t="shared" ref="D29:M29" si="8">D28/D27</f>
         <v>1.6010929157417673E-2</v>
       </c>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64">
+      <c r="E29" s="45"/>
+      <c r="F29" s="45">
         <f t="shared" si="8"/>
         <v>1.676002594417814E-2</v>
       </c>
-      <c r="G29" s="64">
+      <c r="G29" s="45">
         <f t="shared" si="8"/>
         <v>7.5278657981861083E-3</v>
       </c>
-      <c r="H29" s="64">
+      <c r="H29" s="45">
         <f t="shared" si="8"/>
         <v>1.5678303890913681E-2</v>
       </c>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64">
+      <c r="I29" s="45"/>
+      <c r="J29" s="45">
         <f t="shared" si="8"/>
         <v>1.0894680345505199E-2</v>
       </c>
-      <c r="K29" s="64">
+      <c r="K29" s="45">
         <f t="shared" si="8"/>
         <v>1.1707046862112325E-2</v>
       </c>
-      <c r="L29" s="64">
+      <c r="L29" s="45">
         <f t="shared" si="8"/>
         <v>7.5278657981861083E-3</v>
       </c>
-      <c r="M29" s="64">
+      <c r="M29" s="45">
         <f t="shared" si="8"/>
         <v>1.5678303890913681E-2</v>
       </c>
-      <c r="N29" s="41"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="47"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A30" s="42" t="s">
+      <c r="N29" s="24"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="37"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="51">
+      <c r="B30" s="34"/>
+      <c r="C30" s="52">
         <v>0.87</v>
       </c>
-      <c r="D30" s="43">
+      <c r="D30" s="53">
         <v>0.87</v>
       </c>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43">
+      <c r="E30" s="53"/>
+      <c r="F30" s="53">
         <v>0.91</v>
       </c>
-      <c r="G30" s="43">
+      <c r="G30" s="53">
         <v>0.87</v>
       </c>
-      <c r="H30" s="43">
+      <c r="H30" s="53">
         <v>0.8</v>
       </c>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43">
+      <c r="I30" s="53"/>
+      <c r="J30" s="53">
         <v>0.91</v>
       </c>
-      <c r="K30" s="43">
+      <c r="K30" s="53">
         <v>0.9</v>
       </c>
-      <c r="L30" s="43">
+      <c r="L30" s="53">
         <v>0.87</v>
       </c>
-      <c r="M30" s="43">
+      <c r="M30" s="53">
         <v>0.8</v>
       </c>
       <c r="N30" s="54"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="45"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="C31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="O3:O5"/>
+    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="O9:O11"/>
+    <mergeCell ref="P9:P11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="P12:P14"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="O27:O29"/>
     <mergeCell ref="P27:P29"/>
@@ -9463,141 +9522,9 @@
     <mergeCell ref="P15:P17"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="O18:O20"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="O9:O11"/>
-    <mergeCell ref="P9:P11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="O3:O5"/>
-    <mergeCell ref="P3:P5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="O6:O8"/>
-    <mergeCell ref="P6:P8"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="O3:O29">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P29">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N30">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3 N3">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9 N9">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N12 E12">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N15 E15">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N18 E18">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N21 E21">
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N24 E24">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3 E3">
+  <conditionalFormatting sqref="E3 I3">
     <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
@@ -9617,7 +9544,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6 E6">
+  <conditionalFormatting sqref="E6 I6">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -9628,7 +9555,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="colorScale" priority="51">
+    <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9636,9 +9563,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9 I9">
-    <cfRule type="colorScale" priority="54">
+    <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9657,8 +9582,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12 E12">
+  <conditionalFormatting sqref="E12 I12">
     <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12 N12">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9677,8 +9612,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E15 I15">
-    <cfRule type="colorScale" priority="64">
+  <conditionalFormatting sqref="E15 N15">
+    <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9687,17 +9622,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E15 I15">
-    <cfRule type="colorScale" priority="66">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18 E18">
+  <conditionalFormatting sqref="E18 I18">
     <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
@@ -9707,8 +9632,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
-    <cfRule type="colorScale" priority="71">
+  <conditionalFormatting sqref="E18 N18">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9717,8 +9642,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21 E21">
+  <conditionalFormatting sqref="E21 I21">
     <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21 N21">
+    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9737,8 +9672,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24 I24">
-    <cfRule type="colorScale" priority="79">
+  <conditionalFormatting sqref="E24 N24">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9757,38 +9692,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27 E27">
+  <conditionalFormatting sqref="E27 I27">
     <cfRule type="colorScale" priority="82">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I27">
-    <cfRule type="colorScale" priority="84">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30:I30">
-    <cfRule type="colorScale" priority="121">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30:I30">
-    <cfRule type="colorScale" priority="122">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9887,6 +9792,138 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E30:I30">
+    <cfRule type="colorScale" priority="122">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30:I30">
+    <cfRule type="colorScale" priority="121">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9 E9">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15 E15">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24 E24">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3 E3">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N9 E9">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N30">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3:O29">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:P29">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -9897,1861 +9934,1975 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49CEF5C-F3E1-4A78-9556-E0BCACEDD567}">
   <dimension ref="A1:AF38"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="10" style="3" customWidth="1"/>
-    <col min="5" max="5" width="3.625" customWidth="1"/>
+    <col min="5" max="5" width="3.5703125" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="3.625" customWidth="1"/>
+    <col min="9" max="9" width="3.5703125" customWidth="1"/>
     <col min="10" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="3.625" customWidth="1"/>
+    <col min="14" max="14" width="3.5703125" customWidth="1"/>
     <col min="15" max="19" width="10" customWidth="1"/>
-    <col min="20" max="20" width="3.625" customWidth="1"/>
-    <col min="21" max="21" width="9.125" customWidth="1"/>
-    <col min="23" max="23" width="9.125" customWidth="1"/>
+    <col min="20" max="20" width="3.5703125" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33">
         <v>2</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="55">
+      <c r="D1" s="33"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="33">
         <v>3</v>
       </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="52">
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="41">
         <v>4</v>
       </c>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="44">
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="33">
         <v>5</v>
       </c>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="44" t="s">
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="44"/>
-    </row>
-    <row r="2" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="42" t="s">
+      <c r="V1" s="33"/>
+    </row>
+    <row r="2" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="53">
-        <v>1</v>
-      </c>
-      <c r="D2" s="53">
+      <c r="B2" s="34"/>
+      <c r="C2" s="42">
+        <v>1</v>
+      </c>
+      <c r="D2" s="42">
         <v>2</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53">
-        <v>1</v>
-      </c>
-      <c r="G2" s="53">
+      <c r="E2" s="42"/>
+      <c r="F2" s="42">
+        <v>1</v>
+      </c>
+      <c r="G2" s="42">
         <v>2</v>
       </c>
-      <c r="H2" s="53">
+      <c r="H2" s="42">
         <v>3</v>
       </c>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53">
-        <v>1</v>
-      </c>
-      <c r="K2" s="53">
+      <c r="I2" s="42"/>
+      <c r="J2" s="42">
+        <v>1</v>
+      </c>
+      <c r="K2" s="42">
         <v>2</v>
       </c>
-      <c r="L2" s="53">
+      <c r="L2" s="42">
         <v>3</v>
       </c>
-      <c r="M2" s="53">
+      <c r="M2" s="42">
         <v>4</v>
       </c>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53">
-        <v>1</v>
-      </c>
-      <c r="P2" s="53">
+      <c r="N2" s="42"/>
+      <c r="O2" s="42">
+        <v>1</v>
+      </c>
+      <c r="P2" s="42">
         <v>2</v>
       </c>
-      <c r="Q2" s="53">
+      <c r="Q2" s="42">
         <v>3</v>
       </c>
-      <c r="R2" s="53">
+      <c r="R2" s="42">
         <v>5</v>
       </c>
-      <c r="S2" s="53">
+      <c r="S2" s="42">
         <v>4</v>
       </c>
-      <c r="T2" s="53"/>
-      <c r="U2" s="45">
-        <v>1</v>
-      </c>
-      <c r="V2" s="45">
+      <c r="T2" s="42"/>
+      <c r="U2" s="22">
+        <v>1</v>
+      </c>
+      <c r="V2" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="56">
         <v>149.41666699999999</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="25">
         <v>240.92500000000001</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="34">
+      <c r="E3" s="25"/>
+      <c r="F3" s="25">
         <v>149.41666699999999</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="25">
         <v>220.66666699999999</v>
       </c>
-      <c r="H3" s="34">
+      <c r="H3" s="25">
         <v>249.60714300000001</v>
       </c>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34">
+      <c r="I3" s="25"/>
+      <c r="J3" s="25">
         <v>127.4</v>
       </c>
-      <c r="K3" s="34">
+      <c r="K3" s="25">
         <v>165.14285699999999</v>
       </c>
-      <c r="L3" s="34">
+      <c r="L3" s="25">
         <v>220.66666699999999</v>
       </c>
-      <c r="M3" s="34">
+      <c r="M3" s="25">
         <v>249.60714300000001</v>
       </c>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34">
+      <c r="N3" s="25"/>
+      <c r="O3" s="25">
         <v>127.4</v>
       </c>
-      <c r="P3" s="34">
+      <c r="P3" s="25">
         <v>165.14285699999999</v>
       </c>
-      <c r="Q3" s="34">
+      <c r="Q3" s="25">
         <v>220.66666699999999</v>
       </c>
-      <c r="R3" s="34">
+      <c r="R3" s="25">
         <v>221.5</v>
       </c>
-      <c r="S3" s="34">
+      <c r="S3" s="25">
         <v>300.2</v>
       </c>
-      <c r="T3" s="35"/>
-      <c r="U3" s="36">
+      <c r="T3" s="25"/>
+      <c r="U3" s="32">
         <v>-0.33963700000000002</v>
       </c>
-      <c r="V3" s="48">
+      <c r="V3" s="35">
         <v>0.42593500000000001</v>
       </c>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-    </row>
-    <row r="4" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="24"/>
-      <c r="B4" s="57" t="s">
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+    </row>
+    <row r="4" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="38"/>
+      <c r="B4" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="57">
         <v>36.747191198784158</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="22">
         <v>50.274581579561655</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="26">
+      <c r="E4" s="22"/>
+      <c r="F4" s="22">
         <v>36.747191198784158</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="22">
         <v>42.828339531202936</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="22">
         <v>52.134507459071671</v>
       </c>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26">
+      <c r="I4" s="22"/>
+      <c r="J4" s="22">
         <v>16.887125273414657</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4" s="22">
         <v>39.913149762954063</v>
       </c>
-      <c r="L4" s="26">
+      <c r="L4" s="22">
         <v>42.828339531202936</v>
       </c>
-      <c r="M4" s="26">
+      <c r="M4" s="22">
         <v>52.134507459071671</v>
       </c>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26">
+      <c r="N4" s="22"/>
+      <c r="O4" s="22">
         <v>16.887125273414657</v>
       </c>
-      <c r="P4" s="26">
+      <c r="P4" s="22">
         <v>39.913149762954063</v>
       </c>
-      <c r="Q4" s="26">
+      <c r="Q4" s="22">
         <v>42.828339531202936</v>
       </c>
-      <c r="R4" s="26">
+      <c r="R4" s="22">
         <v>27.5</v>
       </c>
-      <c r="S4" s="26">
+      <c r="S4" s="22">
         <v>48.41435737464662</v>
       </c>
-      <c r="T4" s="27"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="46"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-    </row>
-    <row r="5" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="29"/>
-      <c r="B5" s="37" t="s">
+      <c r="T4" s="22"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="36"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
+    </row>
+    <row r="5" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39"/>
+      <c r="B5" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="59">
+      <c r="C5" s="44">
         <f>C4/C3</f>
         <v>0.24593769849506922</v>
       </c>
-      <c r="D5" s="63">
+      <c r="D5" s="45">
         <f t="shared" ref="D5:S5" si="0">D4/D3</f>
         <v>0.20867316210256989</v>
       </c>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63">
+      <c r="E5" s="45"/>
+      <c r="F5" s="45">
         <f t="shared" si="0"/>
         <v>0.24593769849506922</v>
       </c>
-      <c r="G5" s="63">
+      <c r="G5" s="45">
         <f t="shared" si="0"/>
         <v>0.19408613051287416</v>
       </c>
-      <c r="H5" s="63">
+      <c r="H5" s="45">
         <f t="shared" si="0"/>
         <v>0.20886624810681667</v>
       </c>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63">
+      <c r="I5" s="45"/>
+      <c r="J5" s="45">
         <f t="shared" si="0"/>
         <v>0.13255200371597062</v>
       </c>
-      <c r="K5" s="69">
+      <c r="K5" s="46">
         <f t="shared" si="0"/>
         <v>0.24168862334114799</v>
       </c>
-      <c r="L5" s="63">
+      <c r="L5" s="45">
         <f t="shared" si="0"/>
         <v>0.19408613051287416</v>
       </c>
-      <c r="M5" s="69">
+      <c r="M5" s="46">
         <f t="shared" si="0"/>
         <v>0.20886624810681667</v>
       </c>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63">
+      <c r="N5" s="45"/>
+      <c r="O5" s="45">
         <f t="shared" si="0"/>
         <v>0.13255200371597062</v>
       </c>
-      <c r="P5" s="63">
+      <c r="P5" s="45">
         <f t="shared" si="0"/>
         <v>0.24168862334114799</v>
       </c>
-      <c r="Q5" s="63">
+      <c r="Q5" s="45">
         <f t="shared" si="0"/>
         <v>0.19408613051287416</v>
       </c>
-      <c r="R5" s="63">
+      <c r="R5" s="45">
         <f t="shared" si="0"/>
         <v>0.12415349887133183</v>
       </c>
-      <c r="S5" s="63">
+      <c r="S5" s="45">
         <f t="shared" si="0"/>
         <v>0.16127367546517862</v>
       </c>
-      <c r="T5" s="30"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="47"/>
-    </row>
-    <row r="6" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="32" t="s">
+      <c r="T5" s="24"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="37"/>
+    </row>
+    <row r="6" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="22">
         <v>1221.8595760000001</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="22">
         <v>937.91098799999997</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="26">
+      <c r="E6" s="22"/>
+      <c r="F6" s="22">
         <v>1221.8595760000001</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="22">
         <v>803.04398600000002</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="22">
         <v>995.71113300000002</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26">
+      <c r="I6" s="22"/>
+      <c r="J6" s="22">
         <v>1076.885839</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="22">
         <v>1325.412245</v>
       </c>
-      <c r="L6" s="26">
+      <c r="L6" s="22">
         <v>803.04398600000002</v>
       </c>
-      <c r="M6" s="26">
+      <c r="M6" s="22">
         <v>995.71113300000002</v>
       </c>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26">
+      <c r="N6" s="22"/>
+      <c r="O6" s="22">
         <v>1076.885839</v>
       </c>
-      <c r="P6" s="26">
+      <c r="P6" s="22">
         <v>1325.412245</v>
       </c>
-      <c r="Q6" s="26">
+      <c r="Q6" s="22">
         <v>803.04398600000002</v>
       </c>
-      <c r="R6" s="26">
+      <c r="R6" s="22">
         <v>1013.585278</v>
       </c>
-      <c r="S6" s="26">
+      <c r="S6" s="22">
         <v>963.53767200000004</v>
       </c>
-      <c r="T6" s="27"/>
-      <c r="U6" s="28">
+      <c r="T6" s="22"/>
+      <c r="U6" s="33">
         <v>0.461256</v>
       </c>
-      <c r="V6" s="46">
+      <c r="V6" s="36">
         <v>0.161083</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="24"/>
-      <c r="B7" s="57" t="s">
+    <row r="7" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="38"/>
+      <c r="B7" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="22">
         <v>178.48809161958116</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="22">
         <v>126.46529050296765</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="26">
+      <c r="E7" s="22"/>
+      <c r="F7" s="22">
         <v>178.48809161958116</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="22">
         <v>98.075325699178791</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="22">
         <v>87.651158520580893</v>
       </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26">
+      <c r="I7" s="22"/>
+      <c r="J7" s="22">
         <v>136.66551612605133</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="22">
         <v>126.21352681071866</v>
       </c>
-      <c r="L7" s="26">
+      <c r="L7" s="22">
         <v>98.075325699178791</v>
       </c>
-      <c r="M7" s="26">
+      <c r="M7" s="22">
         <v>87.651158520580893</v>
       </c>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26">
+      <c r="N7" s="22"/>
+      <c r="O7" s="22">
         <v>136.66551612605133</v>
       </c>
-      <c r="P7" s="26">
+      <c r="P7" s="22">
         <v>126.21352681071866</v>
       </c>
-      <c r="Q7" s="26">
+      <c r="Q7" s="22">
         <v>98.075325699178791</v>
       </c>
-      <c r="R7" s="26">
+      <c r="R7" s="22">
         <v>95.700951045431097</v>
       </c>
-      <c r="S7" s="26">
+      <c r="S7" s="22">
         <v>68.108429918769971</v>
       </c>
-      <c r="T7" s="27"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="46"/>
-    </row>
-    <row r="8" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="29"/>
-      <c r="B8" s="37" t="s">
+      <c r="T7" s="22"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="36"/>
+    </row>
+    <row r="8" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39"/>
+      <c r="B8" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="60">
+      <c r="C8" s="49">
         <f>C7/C6</f>
         <v>0.14607905452105827</v>
       </c>
-      <c r="D8" s="60">
+      <c r="D8" s="49">
         <f t="shared" ref="D8:S8" si="1">D7/D6</f>
         <v>0.13483719896772087</v>
       </c>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60">
+      <c r="E8" s="49"/>
+      <c r="F8" s="49">
         <f t="shared" si="1"/>
         <v>0.14607905452105827</v>
       </c>
-      <c r="G8" s="60">
+      <c r="G8" s="49">
         <f t="shared" si="1"/>
         <v>0.122129456678577</v>
       </c>
-      <c r="H8" s="60">
+      <c r="H8" s="49">
         <f t="shared" si="1"/>
         <v>8.802870191527816E-2</v>
       </c>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60">
+      <c r="I8" s="49"/>
+      <c r="J8" s="49">
         <f t="shared" si="1"/>
         <v>0.12690808178233581</v>
       </c>
-      <c r="K8" s="60">
+      <c r="K8" s="49">
         <f t="shared" si="1"/>
         <v>9.5225864471109256E-2</v>
       </c>
-      <c r="L8" s="60">
+      <c r="L8" s="49">
         <f t="shared" si="1"/>
         <v>0.122129456678577</v>
       </c>
-      <c r="M8" s="60">
+      <c r="M8" s="49">
         <f t="shared" si="1"/>
         <v>8.802870191527816E-2</v>
       </c>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60">
+      <c r="N8" s="49"/>
+      <c r="O8" s="49">
         <f t="shared" si="1"/>
         <v>0.12690808178233581</v>
       </c>
-      <c r="P8" s="60">
+      <c r="P8" s="49">
         <f t="shared" si="1"/>
         <v>9.5225864471109256E-2</v>
       </c>
-      <c r="Q8" s="60">
+      <c r="Q8" s="49">
         <f t="shared" si="1"/>
         <v>0.122129456678577</v>
       </c>
-      <c r="R8" s="60">
+      <c r="R8" s="49">
         <f t="shared" si="1"/>
         <v>9.4418252832428273E-2</v>
       </c>
-      <c r="S8" s="60">
+      <c r="S8" s="49">
         <f t="shared" si="1"/>
         <v>7.0685798695756613E-2</v>
       </c>
-      <c r="T8" s="27"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="46"/>
-    </row>
-    <row r="9" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="32" t="s">
+      <c r="T8" s="22"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="36"/>
+    </row>
+    <row r="9" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="56">
         <v>580.54166699999996</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="25">
         <v>876.25</v>
       </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="34">
+      <c r="E9" s="25"/>
+      <c r="F9" s="25">
         <v>580.54166699999996</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="25">
         <v>823.58333300000004</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9" s="25">
         <v>898.82142899999997</v>
       </c>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34">
+      <c r="I9" s="25"/>
+      <c r="J9" s="25">
         <v>509.3</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9" s="25">
         <v>631.42857100000003</v>
       </c>
-      <c r="L9" s="34">
+      <c r="L9" s="25">
         <v>823.58333300000004</v>
       </c>
-      <c r="M9" s="34">
+      <c r="M9" s="25">
         <v>898.82142899999997</v>
       </c>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34">
+      <c r="N9" s="25"/>
+      <c r="O9" s="25">
         <v>509.3</v>
       </c>
-      <c r="P9" s="34">
+      <c r="P9" s="25">
         <v>631.42857100000003</v>
       </c>
-      <c r="Q9" s="34">
+      <c r="Q9" s="25">
         <v>823.58333300000004</v>
       </c>
-      <c r="R9" s="34">
+      <c r="R9" s="25">
         <v>816.72222199999999</v>
       </c>
-      <c r="S9" s="34">
+      <c r="S9" s="25">
         <v>1046.5999999999999</v>
       </c>
-      <c r="T9" s="35"/>
-      <c r="U9" s="36">
+      <c r="T9" s="25"/>
+      <c r="U9" s="32">
         <v>-0.36423</v>
       </c>
-      <c r="V9" s="48">
+      <c r="V9" s="35">
         <v>0.41688399999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="24"/>
-      <c r="B10" s="57" t="s">
+    <row r="10" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="38"/>
+      <c r="B10" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="50">
+      <c r="C10" s="57">
         <v>148.58735697225387</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="22">
         <v>163.53596900376382</v>
       </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="26">
+      <c r="E10" s="22"/>
+      <c r="F10" s="22">
         <v>148.58735697225387</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="22">
         <v>155.83658641987768</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="22">
         <v>167.08721894866764</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26">
+      <c r="I10" s="22"/>
+      <c r="J10" s="22">
         <v>81.519629537921716</v>
       </c>
-      <c r="K10" s="26">
+      <c r="K10" s="22">
         <v>169.69345611425328</v>
       </c>
-      <c r="L10" s="26">
+      <c r="L10" s="22">
         <v>155.83658641987768</v>
       </c>
-      <c r="M10" s="26">
+      <c r="M10" s="22">
         <v>167.08721894866764</v>
       </c>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26">
+      <c r="N10" s="22"/>
+      <c r="O10" s="22">
         <v>81.519629537921716</v>
       </c>
-      <c r="P10" s="26">
+      <c r="P10" s="22">
         <v>169.69345611425328</v>
       </c>
-      <c r="Q10" s="26">
+      <c r="Q10" s="22">
         <v>155.83658641987768</v>
       </c>
-      <c r="R10" s="26">
+      <c r="R10" s="22">
         <v>137.07071876954612</v>
       </c>
-      <c r="S10" s="26">
+      <c r="S10" s="22">
         <v>103.40901798199226</v>
       </c>
-      <c r="T10" s="27"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="46"/>
-    </row>
-    <row r="11" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="29"/>
-      <c r="B11" s="58" t="s">
+      <c r="T10" s="22"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="36"/>
+    </row>
+    <row r="11" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="39"/>
+      <c r="B11" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="59">
+      <c r="C11" s="44">
         <f>C10/C9</f>
         <v>0.25594606798869768</v>
       </c>
-      <c r="D11" s="63">
+      <c r="D11" s="45">
         <f t="shared" ref="D11:S11" si="2">D10/D9</f>
         <v>0.18663163367048655</v>
       </c>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63">
+      <c r="E11" s="45"/>
+      <c r="F11" s="45">
         <f t="shared" si="2"/>
         <v>0.25594606798869768</v>
       </c>
-      <c r="G11" s="63">
+      <c r="G11" s="45">
         <f t="shared" si="2"/>
         <v>0.1892177514717599</v>
       </c>
-      <c r="H11" s="63">
+      <c r="H11" s="45">
         <f t="shared" si="2"/>
         <v>0.18589590051781871</v>
       </c>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63">
+      <c r="I11" s="45"/>
+      <c r="J11" s="45">
         <f t="shared" si="2"/>
         <v>0.16006210394251269</v>
       </c>
-      <c r="K11" s="69">
+      <c r="K11" s="46">
         <f t="shared" si="2"/>
         <v>0.26874529267104269</v>
       </c>
-      <c r="L11" s="63">
+      <c r="L11" s="45">
         <f t="shared" si="2"/>
         <v>0.1892177514717599</v>
       </c>
-      <c r="M11" s="63">
+      <c r="M11" s="45">
         <f t="shared" si="2"/>
         <v>0.18589590051781871</v>
       </c>
-      <c r="N11" s="63"/>
-      <c r="O11" s="63">
+      <c r="N11" s="45"/>
+      <c r="O11" s="45">
         <f t="shared" si="2"/>
         <v>0.16006210394251269</v>
       </c>
-      <c r="P11" s="63">
+      <c r="P11" s="45">
         <f t="shared" si="2"/>
         <v>0.26874529267104269</v>
       </c>
-      <c r="Q11" s="63">
+      <c r="Q11" s="45">
         <f t="shared" si="2"/>
         <v>0.1892177514717599</v>
       </c>
-      <c r="R11" s="63">
+      <c r="R11" s="45">
         <f t="shared" si="2"/>
         <v>0.16783027947235912</v>
       </c>
-      <c r="S11" s="63">
+      <c r="S11" s="45">
         <f t="shared" si="2"/>
         <v>9.8804718117707122E-2</v>
       </c>
-      <c r="T11" s="30"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="47"/>
-    </row>
-    <row r="12" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="32" t="s">
+      <c r="T11" s="24"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="37"/>
+    </row>
+    <row r="12" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="22">
         <v>12.571349</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="22">
         <v>13.446584</v>
       </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="26">
+      <c r="E12" s="22"/>
+      <c r="F12" s="22">
         <v>12.571349</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="22">
         <v>13.940250000000001</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="22">
         <v>13.235013</v>
       </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26">
+      <c r="I12" s="22"/>
+      <c r="J12" s="22">
         <v>13.159886999999999</v>
       </c>
-      <c r="K12" s="26">
+      <c r="K12" s="22">
         <v>12.150964999999999</v>
       </c>
-      <c r="L12" s="26">
+      <c r="L12" s="22">
         <v>13.940250000000001</v>
       </c>
-      <c r="M12" s="26">
+      <c r="M12" s="22">
         <v>13.235013</v>
       </c>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26">
+      <c r="N12" s="22"/>
+      <c r="O12" s="22">
         <v>13.159886999999999</v>
       </c>
-      <c r="P12" s="26">
+      <c r="P12" s="22">
         <v>12.150964999999999</v>
       </c>
-      <c r="Q12" s="26">
+      <c r="Q12" s="22">
         <v>13.940250000000001</v>
       </c>
-      <c r="R12" s="26">
+      <c r="R12" s="22">
         <v>13.646381999999999</v>
       </c>
-      <c r="S12" s="26">
+      <c r="S12" s="22">
         <v>12.494548</v>
       </c>
-      <c r="T12" s="27"/>
-      <c r="U12" s="28">
+      <c r="T12" s="22"/>
+      <c r="U12" s="33">
         <v>-0.28797299999999998</v>
       </c>
-      <c r="V12" s="46">
+      <c r="V12" s="36">
         <v>-0.17630399999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="24"/>
-      <c r="B13" s="57" t="s">
+    <row r="13" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
+      <c r="B13" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="22">
         <v>1.290913242630968</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="22">
         <v>0.88016134884463093</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="26">
+      <c r="E13" s="22"/>
+      <c r="F13" s="22">
         <v>1.290913242630968</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="22">
         <v>0.74025401045857231</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="22">
         <v>0.87222990088622854</v>
       </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26">
+      <c r="I13" s="22"/>
+      <c r="J13" s="22">
         <v>1.5020745653928103</v>
       </c>
-      <c r="K13" s="26">
+      <c r="K13" s="22">
         <v>1.0277144545057251</v>
       </c>
-      <c r="L13" s="26">
+      <c r="L13" s="22">
         <v>0.74025401045857231</v>
       </c>
-      <c r="M13" s="26">
+      <c r="M13" s="22">
         <v>0.87222990088622854</v>
       </c>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26">
+      <c r="N13" s="22"/>
+      <c r="O13" s="22">
         <v>1.5020745653928103</v>
       </c>
-      <c r="P13" s="26">
+      <c r="P13" s="22">
         <v>1.0277144545057251</v>
       </c>
-      <c r="Q13" s="26">
+      <c r="Q13" s="22">
         <v>0.74025401045857231</v>
       </c>
-      <c r="R13" s="26">
+      <c r="R13" s="22">
         <v>0.80977712983264716</v>
       </c>
-      <c r="S13" s="26">
+      <c r="S13" s="22">
         <v>0.30815255961941967</v>
       </c>
-      <c r="T13" s="27"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="46"/>
-    </row>
-    <row r="14" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="29"/>
-      <c r="B14" s="58" t="s">
+      <c r="T13" s="22"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="36"/>
+    </row>
+    <row r="14" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
+      <c r="B14" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="60">
+      <c r="C14" s="49">
         <f>C13/C12</f>
         <v>0.10268693062542199</v>
       </c>
-      <c r="D14" s="60">
+      <c r="D14" s="49">
         <f t="shared" ref="D14:S14" si="3">D13/D12</f>
         <v>6.5456129887310477E-2</v>
       </c>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60">
+      <c r="E14" s="49"/>
+      <c r="F14" s="49">
         <f t="shared" si="3"/>
         <v>0.10268693062542199</v>
       </c>
-      <c r="G14" s="60">
+      <c r="G14" s="49">
         <f t="shared" si="3"/>
         <v>5.310191786076808E-2</v>
       </c>
-      <c r="H14" s="60">
+      <c r="H14" s="49">
         <f t="shared" si="3"/>
         <v>6.5903214517902514E-2</v>
       </c>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60">
+      <c r="I14" s="49"/>
+      <c r="J14" s="49">
         <f t="shared" si="3"/>
         <v>0.11414038474591844</v>
       </c>
-      <c r="K14" s="60">
+      <c r="K14" s="49">
         <f t="shared" si="3"/>
         <v>8.4578834232978628E-2</v>
       </c>
-      <c r="L14" s="60">
+      <c r="L14" s="49">
         <f t="shared" si="3"/>
         <v>5.310191786076808E-2</v>
       </c>
-      <c r="M14" s="60">
+      <c r="M14" s="49">
         <f t="shared" si="3"/>
         <v>6.5903214517902514E-2</v>
       </c>
-      <c r="N14" s="60"/>
-      <c r="O14" s="60">
+      <c r="N14" s="49"/>
+      <c r="O14" s="49">
         <f t="shared" si="3"/>
         <v>0.11414038474591844</v>
       </c>
-      <c r="P14" s="60">
+      <c r="P14" s="49">
         <f t="shared" si="3"/>
         <v>8.4578834232978628E-2</v>
       </c>
-      <c r="Q14" s="60">
+      <c r="Q14" s="49">
         <f t="shared" si="3"/>
         <v>5.310191786076808E-2</v>
       </c>
-      <c r="R14" s="60">
+      <c r="R14" s="49">
         <f t="shared" si="3"/>
         <v>5.9340060232276011E-2</v>
       </c>
-      <c r="S14" s="60">
+      <c r="S14" s="49">
         <f t="shared" si="3"/>
         <v>2.4662961766957852E-2</v>
       </c>
-      <c r="T14" s="27"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="46"/>
-    </row>
-    <row r="15" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="24" t="s">
+      <c r="T14" s="22"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="36"/>
+    </row>
+    <row r="15" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="56">
         <v>315.77373299999999</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="25">
         <v>229.13487799999999</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="34">
+      <c r="E15" s="25"/>
+      <c r="F15" s="25">
         <v>315.77373299999999</v>
       </c>
-      <c r="G15" s="34">
+      <c r="G15" s="25">
         <v>188.32451699999999</v>
       </c>
-      <c r="H15" s="34">
+      <c r="H15" s="25">
         <v>246.625033</v>
       </c>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34">
+      <c r="I15" s="25"/>
+      <c r="J15" s="25">
         <v>262.59242799999998</v>
       </c>
-      <c r="K15" s="34">
+      <c r="K15" s="25">
         <v>353.76038</v>
       </c>
-      <c r="L15" s="34">
+      <c r="L15" s="25">
         <v>188.32451699999999</v>
       </c>
-      <c r="M15" s="34">
+      <c r="M15" s="25">
         <v>246.625033</v>
       </c>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34">
+      <c r="N15" s="25"/>
+      <c r="O15" s="25">
         <v>262.59242799999998</v>
       </c>
-      <c r="P15" s="34">
+      <c r="P15" s="25">
         <v>353.76038</v>
       </c>
-      <c r="Q15" s="34">
+      <c r="Q15" s="25">
         <v>188.32451699999999</v>
       </c>
-      <c r="R15" s="34">
+      <c r="R15" s="25">
         <v>241.48659599999999</v>
       </c>
-      <c r="S15" s="34">
+      <c r="S15" s="25">
         <v>255.87422000000001</v>
       </c>
-      <c r="T15" s="35"/>
-      <c r="U15" s="36">
+      <c r="T15" s="25"/>
+      <c r="U15" s="32">
         <v>0.47454000000000002</v>
       </c>
-      <c r="V15" s="48">
+      <c r="V15" s="35">
         <v>0.22032199999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="24"/>
-      <c r="B16" s="57" t="s">
+    <row r="16" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="38"/>
+      <c r="B16" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="50">
+      <c r="C16" s="57">
         <v>57.171905172033583</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="22">
         <v>36.380027391413549</v>
       </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="26">
+      <c r="E16" s="22"/>
+      <c r="F16" s="22">
         <v>57.171905172033583</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="22">
         <v>27.229973999253104</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="22">
         <v>23.474492028582855</v>
       </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26">
+      <c r="I16" s="22"/>
+      <c r="J16" s="22">
         <v>25.416755988914083</v>
       </c>
-      <c r="K16" s="26">
+      <c r="K16" s="22">
         <v>39.005758062111802</v>
       </c>
-      <c r="L16" s="26">
+      <c r="L16" s="22">
         <v>27.229973999253104</v>
       </c>
-      <c r="M16" s="26">
+      <c r="M16" s="22">
         <v>23.474492028582855</v>
       </c>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26">
+      <c r="N16" s="22"/>
+      <c r="O16" s="22">
         <v>25.416755988914083</v>
       </c>
-      <c r="P16" s="26">
+      <c r="P16" s="22">
         <v>39.005758062111802</v>
       </c>
-      <c r="Q16" s="26">
+      <c r="Q16" s="22">
         <v>27.229973999253104</v>
       </c>
-      <c r="R16" s="26">
+      <c r="R16" s="22">
         <v>24.006940121556514</v>
       </c>
-      <c r="S16" s="26">
+      <c r="S16" s="22">
         <v>21.723481534965799</v>
       </c>
-      <c r="T16" s="27"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="46"/>
-    </row>
-    <row r="17" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="24"/>
-      <c r="B17" s="57" t="s">
+      <c r="T16" s="22"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="36"/>
+    </row>
+    <row r="17" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="38"/>
+      <c r="B17" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="59">
+      <c r="C17" s="44">
         <f>C16/C15</f>
         <v>0.18105339107491117</v>
       </c>
-      <c r="D17" s="63">
+      <c r="D17" s="45">
         <f t="shared" ref="D17:S17" si="4">D16/D15</f>
         <v>0.15877123425711537</v>
       </c>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63">
+      <c r="E17" s="45"/>
+      <c r="F17" s="45">
         <f t="shared" si="4"/>
         <v>0.18105339107491117</v>
       </c>
-      <c r="G17" s="63">
+      <c r="G17" s="45">
         <f t="shared" si="4"/>
         <v>0.14459070137561061</v>
       </c>
-      <c r="H17" s="63">
+      <c r="H17" s="45">
         <f t="shared" si="4"/>
         <v>9.5182925038201027E-2</v>
       </c>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63">
+      <c r="I17" s="45"/>
+      <c r="J17" s="45">
         <f t="shared" si="4"/>
         <v>9.6791656113229915E-2</v>
       </c>
-      <c r="K17" s="63">
+      <c r="K17" s="45">
         <f t="shared" si="4"/>
         <v>0.11026039168691475</v>
       </c>
-      <c r="L17" s="63">
+      <c r="L17" s="45">
         <f t="shared" si="4"/>
         <v>0.14459070137561061</v>
       </c>
-      <c r="M17" s="63">
+      <c r="M17" s="45">
         <f t="shared" si="4"/>
         <v>9.5182925038201027E-2</v>
       </c>
-      <c r="N17" s="63"/>
-      <c r="O17" s="63">
+      <c r="N17" s="45"/>
+      <c r="O17" s="45">
         <f t="shared" si="4"/>
         <v>9.6791656113229915E-2</v>
       </c>
-      <c r="P17" s="63">
+      <c r="P17" s="45">
         <f t="shared" si="4"/>
         <v>0.11026039168691475</v>
       </c>
-      <c r="Q17" s="63">
+      <c r="Q17" s="45">
         <f t="shared" si="4"/>
         <v>0.14459070137561061</v>
       </c>
-      <c r="R17" s="63">
+      <c r="R17" s="45">
         <f t="shared" si="4"/>
         <v>9.9413137288814638E-2</v>
       </c>
-      <c r="S17" s="63">
+      <c r="S17" s="45">
         <f t="shared" si="4"/>
         <v>8.4899063043419529E-2</v>
       </c>
-      <c r="T17" s="30"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="47"/>
-    </row>
-    <row r="18" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="32" t="s">
+      <c r="T17" s="24"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="37"/>
+    </row>
+    <row r="18" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="22">
         <v>1189.48963</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="22">
         <v>1139.574038</v>
       </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="26">
+      <c r="E18" s="22"/>
+      <c r="F18" s="22">
         <v>1189.48963</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="22">
         <v>1042.8074019999999</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H18" s="22">
         <v>1181.0454540000001</v>
       </c>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26">
+      <c r="I18" s="22"/>
+      <c r="J18" s="22">
         <v>1017.842254</v>
       </c>
-      <c r="K18" s="26">
+      <c r="K18" s="22">
         <v>1312.0948980000001</v>
       </c>
-      <c r="L18" s="26">
+      <c r="L18" s="22">
         <v>1042.8074019999999</v>
       </c>
-      <c r="M18" s="26">
+      <c r="M18" s="22">
         <v>1181.0454540000001</v>
       </c>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26">
+      <c r="N18" s="22"/>
+      <c r="O18" s="22">
         <v>1017.842254</v>
       </c>
-      <c r="P18" s="26">
+      <c r="P18" s="22">
         <v>1312.0948980000001</v>
       </c>
-      <c r="Q18" s="26">
+      <c r="Q18" s="22">
         <v>1042.8074019999999</v>
       </c>
-      <c r="R18" s="26">
+      <c r="R18" s="22">
         <v>1173.3781120000001</v>
       </c>
-      <c r="S18" s="26">
+      <c r="S18" s="22">
         <v>1194.846669</v>
       </c>
-      <c r="T18" s="27"/>
-      <c r="U18" s="28">
+      <c r="T18" s="22"/>
+      <c r="U18" s="33">
         <v>0.21635299999999999</v>
       </c>
-      <c r="V18" s="46">
+      <c r="V18" s="36">
         <v>0.36393399999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="24"/>
-      <c r="B19" s="57" t="s">
+    <row r="19" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="38"/>
+      <c r="B19" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="22">
         <v>186.47632295280815</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="22">
         <v>187.86547308113856</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="26">
+      <c r="E19" s="22"/>
+      <c r="F19" s="22">
         <v>186.47632295280815</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="22">
         <v>143.2456791180802</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="22">
         <v>193.69239562512513</v>
       </c>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26">
+      <c r="I19" s="22"/>
+      <c r="J19" s="22">
         <v>127.44224664529419</v>
       </c>
-      <c r="K19" s="26">
+      <c r="K19" s="22">
         <v>104.0857275998972</v>
       </c>
-      <c r="L19" s="26">
+      <c r="L19" s="22">
         <v>143.2456791180802</v>
       </c>
-      <c r="M19" s="26">
+      <c r="M19" s="22">
         <v>193.69239562512513</v>
       </c>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26">
+      <c r="N19" s="22"/>
+      <c r="O19" s="22">
         <v>127.44224664529419</v>
       </c>
-      <c r="P19" s="26">
+      <c r="P19" s="22">
         <v>104.0857275998972</v>
       </c>
-      <c r="Q19" s="26">
+      <c r="Q19" s="22">
         <v>143.2456791180802</v>
       </c>
-      <c r="R19" s="26">
+      <c r="R19" s="22">
         <v>163.04365360847382</v>
       </c>
-      <c r="S19" s="26">
+      <c r="S19" s="22">
         <v>261.5197644557673</v>
       </c>
-      <c r="T19" s="27"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="46"/>
-    </row>
-    <row r="20" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="29"/>
-      <c r="B20" s="58" t="s">
+      <c r="T19" s="22"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="36"/>
+    </row>
+    <row r="20" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="39"/>
+      <c r="B20" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="60">
+      <c r="C20" s="49">
         <f>C19/C18</f>
         <v>0.15677002829592399</v>
       </c>
-      <c r="D20" s="60">
+      <c r="D20" s="49">
         <f t="shared" ref="D20:S20" si="5">D19/D18</f>
         <v>0.16485587317419964</v>
       </c>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60">
+      <c r="E20" s="49"/>
+      <c r="F20" s="49">
         <f t="shared" si="5"/>
         <v>0.15677002829592399</v>
       </c>
-      <c r="G20" s="60">
+      <c r="G20" s="49">
         <f t="shared" si="5"/>
         <v>0.13736542226622997</v>
       </c>
-      <c r="H20" s="60">
+      <c r="H20" s="49">
         <f t="shared" si="5"/>
         <v>0.16400079689492214</v>
       </c>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60">
+      <c r="I20" s="49"/>
+      <c r="J20" s="49">
         <f t="shared" si="5"/>
         <v>0.12520824925911769</v>
       </c>
-      <c r="K20" s="60">
+      <c r="K20" s="49">
         <f t="shared" si="5"/>
         <v>7.9327895991786107E-2</v>
       </c>
-      <c r="L20" s="60">
+      <c r="L20" s="49">
         <f t="shared" si="5"/>
         <v>0.13736542226622997</v>
       </c>
-      <c r="M20" s="60">
+      <c r="M20" s="49">
         <f t="shared" si="5"/>
         <v>0.16400079689492214</v>
       </c>
-      <c r="N20" s="60"/>
-      <c r="O20" s="60">
+      <c r="N20" s="49"/>
+      <c r="O20" s="49">
         <f t="shared" si="5"/>
         <v>0.12520824925911769</v>
       </c>
-      <c r="P20" s="60">
+      <c r="P20" s="49">
         <f t="shared" si="5"/>
         <v>7.9327895991786107E-2</v>
       </c>
-      <c r="Q20" s="60">
+      <c r="Q20" s="49">
         <f t="shared" si="5"/>
         <v>0.13736542226622997</v>
       </c>
-      <c r="R20" s="60">
+      <c r="R20" s="49">
         <f t="shared" si="5"/>
         <v>0.13895235639820236</v>
       </c>
-      <c r="S20" s="60">
+      <c r="S20" s="49">
         <f t="shared" si="5"/>
         <v>0.21887307488134888</v>
       </c>
-      <c r="T20" s="27"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="46"/>
-    </row>
-    <row r="21" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="24" t="s">
+      <c r="T20" s="22"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="36"/>
+    </row>
+    <row r="21" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="49">
+      <c r="C21" s="56">
         <v>486.53745800000002</v>
       </c>
-      <c r="D21" s="34">
+      <c r="D21" s="25">
         <v>438.255111</v>
       </c>
-      <c r="E21" s="35"/>
-      <c r="F21" s="34">
+      <c r="E21" s="25"/>
+      <c r="F21" s="25">
         <v>486.53745800000002</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G21" s="25">
         <v>389.96527200000003</v>
       </c>
-      <c r="H21" s="34">
+      <c r="H21" s="25">
         <v>458.95075700000001</v>
       </c>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34">
+      <c r="I21" s="25"/>
+      <c r="J21" s="25">
         <v>466.35075399999999</v>
       </c>
-      <c r="K21" s="34">
+      <c r="K21" s="25">
         <v>500.95653199999998</v>
       </c>
-      <c r="L21" s="34">
+      <c r="L21" s="25">
         <v>389.96527200000003</v>
       </c>
-      <c r="M21" s="34">
+      <c r="M21" s="25">
         <v>458.95075700000001</v>
       </c>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34">
+      <c r="N21" s="25"/>
+      <c r="O21" s="25">
         <v>466.35075399999999</v>
       </c>
-      <c r="P21" s="34">
+      <c r="P21" s="25">
         <v>500.95653199999998</v>
       </c>
-      <c r="Q21" s="34">
+      <c r="Q21" s="25">
         <v>389.96527200000003</v>
       </c>
-      <c r="R21" s="34">
+      <c r="R21" s="25">
         <v>463.345597</v>
       </c>
-      <c r="S21" s="34">
+      <c r="S21" s="25">
         <v>451.04004400000002</v>
       </c>
-      <c r="T21" s="35"/>
-      <c r="U21" s="36">
+      <c r="T21" s="25"/>
+      <c r="U21" s="32">
         <v>0.400617</v>
       </c>
-      <c r="V21" s="48">
+      <c r="V21" s="35">
         <v>0.17532900000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="24"/>
-      <c r="B22" s="57" t="s">
+    <row r="22" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="38"/>
+      <c r="B22" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="50">
+      <c r="C22" s="57">
         <v>44.926858314375821</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="22">
         <v>43.402427858358337</v>
       </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="26">
+      <c r="E22" s="22"/>
+      <c r="F22" s="22">
         <v>44.926858314375821</v>
       </c>
-      <c r="G22" s="26">
+      <c r="G22" s="22">
         <v>37.814419881838724</v>
       </c>
-      <c r="H22" s="26">
+      <c r="H22" s="22">
         <v>25.801318861639611</v>
       </c>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26">
+      <c r="I22" s="22"/>
+      <c r="J22" s="22">
         <v>32.200190403163766</v>
       </c>
-      <c r="K22" s="26">
+      <c r="K22" s="22">
         <v>49.265195016360181</v>
       </c>
-      <c r="L22" s="26">
+      <c r="L22" s="22">
         <v>37.814419881838724</v>
       </c>
-      <c r="M22" s="26">
+      <c r="M22" s="22">
         <v>25.801318861639611</v>
       </c>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26">
+      <c r="N22" s="22"/>
+      <c r="O22" s="22">
         <v>32.200190403163766</v>
       </c>
-      <c r="P22" s="26">
+      <c r="P22" s="22">
         <v>49.265195016360181</v>
       </c>
-      <c r="Q22" s="26">
+      <c r="Q22" s="22">
         <v>37.814419881838724</v>
       </c>
-      <c r="R22" s="26">
+      <c r="R22" s="22">
         <v>25.588617664891551</v>
       </c>
-      <c r="S22" s="26">
+      <c r="S22" s="22">
         <v>27.061307581120317</v>
       </c>
-      <c r="T22" s="27"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="46"/>
-    </row>
-    <row r="23" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="24"/>
-      <c r="B23" s="57" t="s">
+      <c r="T22" s="22"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="36"/>
+    </row>
+    <row r="23" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="38"/>
+      <c r="B23" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="59">
+      <c r="C23" s="44">
         <f>C22/C21</f>
         <v>9.2339978301066022E-2</v>
       </c>
-      <c r="D23" s="63">
+      <c r="D23" s="45">
         <f t="shared" ref="D23:S23" si="6">D22/D21</f>
         <v>9.9034618807579258E-2</v>
       </c>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63">
+      <c r="E23" s="45"/>
+      <c r="F23" s="45">
         <f t="shared" si="6"/>
         <v>9.2339978301066022E-2</v>
       </c>
-      <c r="G23" s="63">
+      <c r="G23" s="45">
         <f t="shared" si="6"/>
         <v>9.6968685667575855E-2</v>
       </c>
-      <c r="H23" s="63">
+      <c r="H23" s="45">
         <f t="shared" si="6"/>
         <v>5.6218054917903992E-2</v>
       </c>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63">
+      <c r="I23" s="45"/>
+      <c r="J23" s="45">
         <f t="shared" si="6"/>
         <v>6.9047149869438759E-2</v>
       </c>
-      <c r="K23" s="63">
+      <c r="K23" s="45">
         <f t="shared" si="6"/>
         <v>9.8342255004991497E-2</v>
       </c>
-      <c r="L23" s="63">
+      <c r="L23" s="45">
         <f t="shared" si="6"/>
         <v>9.6968685667575855E-2</v>
       </c>
-      <c r="M23" s="63">
+      <c r="M23" s="45">
         <f t="shared" si="6"/>
         <v>5.6218054917903992E-2</v>
       </c>
-      <c r="N23" s="63"/>
-      <c r="O23" s="63">
+      <c r="N23" s="45"/>
+      <c r="O23" s="45">
         <f t="shared" si="6"/>
         <v>6.9047149869438759E-2</v>
       </c>
-      <c r="P23" s="63">
+      <c r="P23" s="45">
         <f t="shared" si="6"/>
         <v>9.8342255004991497E-2</v>
       </c>
-      <c r="Q23" s="63">
+      <c r="Q23" s="45">
         <f t="shared" si="6"/>
         <v>9.6968685667575855E-2</v>
       </c>
-      <c r="R23" s="63">
+      <c r="R23" s="45">
         <f t="shared" si="6"/>
         <v>5.5225770635501582E-2</v>
       </c>
-      <c r="S23" s="63">
+      <c r="S23" s="45">
         <f t="shared" si="6"/>
         <v>5.9997572147098131E-2</v>
       </c>
-      <c r="T23" s="30"/>
-      <c r="U23" s="31"/>
-      <c r="V23" s="47"/>
-    </row>
-    <row r="24" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="32" t="s">
+      <c r="T23" s="24"/>
+      <c r="U23" s="34"/>
+      <c r="V23" s="37"/>
+    </row>
+    <row r="24" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="22">
         <v>86.521984000000003</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="22">
         <v>100.91786399999999</v>
       </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="26">
+      <c r="E24" s="22"/>
+      <c r="F24" s="22">
         <v>86.521984000000003</v>
       </c>
-      <c r="G24" s="26">
+      <c r="G24" s="22">
         <v>84.346024</v>
       </c>
-      <c r="H24" s="26">
+      <c r="H24" s="22">
         <v>108.020082</v>
       </c>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26">
+      <c r="I24" s="22"/>
+      <c r="J24" s="22">
         <v>68.896193999999994</v>
       </c>
-      <c r="K24" s="26">
+      <c r="K24" s="22">
         <v>99.111834999999999</v>
       </c>
-      <c r="L24" s="26">
+      <c r="L24" s="22">
         <v>84.346024</v>
       </c>
-      <c r="M24" s="26">
+      <c r="M24" s="22">
         <v>108.020082</v>
       </c>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26">
+      <c r="N24" s="22"/>
+      <c r="O24" s="22">
         <v>68.896193999999994</v>
       </c>
-      <c r="P24" s="26">
+      <c r="P24" s="22">
         <v>99.111834999999999</v>
       </c>
-      <c r="Q24" s="26">
+      <c r="Q24" s="22">
         <v>84.346024</v>
       </c>
-      <c r="R24" s="26">
+      <c r="R24" s="22">
         <v>99.736735999999993</v>
       </c>
-      <c r="S24" s="26">
+      <c r="S24" s="22">
         <v>122.930104</v>
       </c>
-      <c r="T24" s="27"/>
-      <c r="U24" s="28">
+      <c r="T24" s="22"/>
+      <c r="U24" s="33">
         <v>-8.9659000000000003E-2</v>
       </c>
-      <c r="V24" s="46">
+      <c r="V24" s="36">
         <v>0.55726699999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="24"/>
-      <c r="B25" s="57" t="s">
+    <row r="25" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="38"/>
+      <c r="B25" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C25" s="22">
         <v>23.270908942282421</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="22">
         <v>20.277999901370944</v>
       </c>
-      <c r="E25" s="27"/>
-      <c r="F25" s="26">
+      <c r="E25" s="22"/>
+      <c r="F25" s="22">
         <v>23.270908942282421</v>
       </c>
-      <c r="G25" s="26">
+      <c r="G25" s="22">
         <v>15.123147721291359</v>
       </c>
-      <c r="H25" s="26">
+      <c r="H25" s="22">
         <v>18.219313516156419</v>
       </c>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26">
+      <c r="I25" s="22"/>
+      <c r="J25" s="22">
         <v>12.179227684873947</v>
       </c>
-      <c r="K25" s="26">
+      <c r="K25" s="22">
         <v>21.215874787526438</v>
       </c>
-      <c r="L25" s="26">
+      <c r="L25" s="22">
         <v>15.123147721291359</v>
       </c>
-      <c r="M25" s="26">
+      <c r="M25" s="22">
         <v>18.219313516156419</v>
       </c>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26">
+      <c r="N25" s="22"/>
+      <c r="O25" s="22">
         <v>12.179227684873947</v>
       </c>
-      <c r="P25" s="26">
+      <c r="P25" s="22">
         <v>21.215874787526438</v>
       </c>
-      <c r="Q25" s="26">
+      <c r="Q25" s="22">
         <v>15.123147721291359</v>
       </c>
-      <c r="R25" s="26">
+      <c r="R25" s="22">
         <v>13.898165742284123</v>
       </c>
-      <c r="S25" s="26">
+      <c r="S25" s="22">
         <v>16.131675052517018</v>
       </c>
-      <c r="T25" s="27"/>
-      <c r="U25" s="28"/>
-      <c r="V25" s="46"/>
-    </row>
-    <row r="26" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="29"/>
-      <c r="B26" s="58" t="s">
+      <c r="T25" s="22"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="36"/>
+    </row>
+    <row r="26" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="39"/>
+      <c r="B26" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="60">
+      <c r="C26" s="49">
         <f>C25/C24</f>
         <v>0.26895949291087012</v>
       </c>
-      <c r="D26" s="60">
+      <c r="D26" s="49">
         <f t="shared" ref="D26:S26" si="7">D25/D24</f>
         <v>0.20093568271887863</v>
       </c>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60">
+      <c r="E26" s="49"/>
+      <c r="F26" s="49">
         <f t="shared" si="7"/>
         <v>0.26895949291087012</v>
       </c>
-      <c r="G26" s="60">
+      <c r="G26" s="49">
         <f t="shared" si="7"/>
         <v>0.1792988810153204</v>
       </c>
-      <c r="H26" s="60">
+      <c r="H26" s="49">
         <f t="shared" si="7"/>
         <v>0.16866598486896556</v>
       </c>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60">
+      <c r="I26" s="49"/>
+      <c r="J26" s="49">
         <f t="shared" si="7"/>
         <v>0.17677649486521632</v>
       </c>
-      <c r="K26" s="70">
+      <c r="K26" s="51">
         <f t="shared" si="7"/>
         <v>0.21405995346092058</v>
       </c>
-      <c r="L26" s="60">
+      <c r="L26" s="49">
         <f t="shared" si="7"/>
         <v>0.1792988810153204</v>
       </c>
-      <c r="M26" s="60">
+      <c r="M26" s="49">
         <f t="shared" si="7"/>
         <v>0.16866598486896556</v>
       </c>
-      <c r="N26" s="60"/>
-      <c r="O26" s="60">
+      <c r="N26" s="49"/>
+      <c r="O26" s="49">
         <f t="shared" si="7"/>
         <v>0.17677649486521632</v>
       </c>
-      <c r="P26" s="60">
+      <c r="P26" s="49">
         <f t="shared" si="7"/>
         <v>0.21405995346092058</v>
       </c>
-      <c r="Q26" s="60">
+      <c r="Q26" s="49">
         <f t="shared" si="7"/>
         <v>0.1792988810153204</v>
       </c>
-      <c r="R26" s="60">
+      <c r="R26" s="49">
         <f t="shared" si="7"/>
         <v>0.13934851188918118</v>
       </c>
-      <c r="S26" s="60">
+      <c r="S26" s="49">
         <f t="shared" si="7"/>
         <v>0.1312264004309068</v>
       </c>
-      <c r="T26" s="27"/>
-      <c r="U26" s="28"/>
-      <c r="V26" s="46"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A27" s="38" t="s">
+      <c r="T26" s="22"/>
+      <c r="U26" s="33"/>
+      <c r="V26" s="36"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="49">
+      <c r="C27" s="56">
         <v>0.97012900000000002</v>
       </c>
-      <c r="D27" s="34">
+      <c r="D27" s="25">
         <v>0.96546299999999996</v>
       </c>
-      <c r="E27" s="35"/>
-      <c r="F27" s="34">
+      <c r="E27" s="25"/>
+      <c r="F27" s="25">
         <v>0.97012900000000002</v>
       </c>
-      <c r="G27" s="34">
+      <c r="G27" s="25">
         <v>0.97253699999999998</v>
       </c>
-      <c r="H27" s="34">
+      <c r="H27" s="25">
         <v>0.96243100000000004</v>
       </c>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34">
+      <c r="I27" s="25"/>
+      <c r="J27" s="25">
         <v>0.96938000000000002</v>
       </c>
-      <c r="K27" s="34">
+      <c r="K27" s="25">
         <v>0.97066399999999997</v>
       </c>
-      <c r="L27" s="34">
+      <c r="L27" s="25">
         <v>0.97253699999999998</v>
       </c>
-      <c r="M27" s="34">
+      <c r="M27" s="25">
         <v>0.96243100000000004</v>
       </c>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34">
+      <c r="N27" s="25"/>
+      <c r="O27" s="25">
         <v>0.96938000000000002</v>
       </c>
-      <c r="P27" s="34">
+      <c r="P27" s="25">
         <v>0.97066399999999997</v>
       </c>
-      <c r="Q27" s="34">
+      <c r="Q27" s="25">
         <v>0.97253699999999998</v>
       </c>
-      <c r="R27" s="34">
+      <c r="R27" s="25">
         <v>0.95925499999999997</v>
       </c>
-      <c r="S27" s="34">
+      <c r="S27" s="25">
         <v>0.96814999999999996</v>
       </c>
-      <c r="T27" s="35"/>
-      <c r="U27" s="36">
+      <c r="T27" s="25"/>
+      <c r="U27" s="32">
         <v>0.12556899999999999</v>
       </c>
-      <c r="V27" s="48">
+      <c r="V27" s="35">
         <v>-0.25589000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A28" s="39"/>
-      <c r="B28" s="57" t="s">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="30"/>
+      <c r="B28" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="50">
+      <c r="C28" s="57">
         <v>1.1090536506409418E-2</v>
       </c>
-      <c r="D28" s="26">
+      <c r="D28" s="22">
         <v>0.01</v>
       </c>
-      <c r="E28" s="27"/>
-      <c r="F28" s="26">
+      <c r="E28" s="22"/>
+      <c r="F28" s="22">
         <v>1.1090536506409418E-2</v>
       </c>
-      <c r="G28" s="26">
+      <c r="G28" s="22">
         <v>4.2426406871192849E-3</v>
       </c>
-      <c r="H28" s="26">
+      <c r="H28" s="22">
         <v>1.0295630140987E-2</v>
       </c>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26">
+      <c r="I28" s="22"/>
+      <c r="J28" s="22">
         <v>1.2529964086141668E-2</v>
       </c>
-      <c r="K28" s="26">
+      <c r="K28" s="22">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="L28" s="26">
+      <c r="L28" s="22">
         <v>4.2426406871192849E-3</v>
       </c>
-      <c r="M28" s="26">
+      <c r="M28" s="22">
         <v>1.0295630140987E-2</v>
       </c>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26">
+      <c r="N28" s="22"/>
+      <c r="O28" s="22">
         <v>1.2529964086141668E-2</v>
       </c>
-      <c r="P28" s="26">
+      <c r="P28" s="22">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="Q28" s="26">
+      <c r="Q28" s="22">
         <v>4.2426406871192849E-3</v>
       </c>
-      <c r="R28" s="26">
+      <c r="R28" s="22">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="S28" s="26">
+      <c r="S28" s="22">
         <v>6.2449979983983982E-3</v>
       </c>
-      <c r="T28" s="27"/>
-      <c r="U28" s="28"/>
-      <c r="V28" s="46"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A29" s="40"/>
-      <c r="B29" s="58" t="s">
+      <c r="T28" s="22"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="36"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="31"/>
+      <c r="B29" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="61">
+      <c r="C29" s="44">
         <f>C28/C27</f>
         <v>1.1432022448982988E-2</v>
       </c>
-      <c r="D29" s="64">
+      <c r="D29" s="45">
         <f t="shared" ref="D29:S29" si="8">D28/D27</f>
         <v>1.0357724739321963E-2</v>
       </c>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64">
+      <c r="E29" s="45"/>
+      <c r="F29" s="45">
         <f t="shared" si="8"/>
         <v>1.1432022448982988E-2</v>
       </c>
-      <c r="G29" s="64">
+      <c r="G29" s="45">
         <f t="shared" si="8"/>
         <v>4.3624465569117527E-3</v>
       </c>
-      <c r="H29" s="64">
+      <c r="H29" s="45">
         <f t="shared" si="8"/>
         <v>1.0697525475579029E-2</v>
       </c>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64">
+      <c r="I29" s="45"/>
+      <c r="J29" s="45">
         <f t="shared" si="8"/>
         <v>1.2925750568550689E-2</v>
       </c>
-      <c r="K29" s="64">
+      <c r="K29" s="45">
         <f t="shared" si="8"/>
         <v>1.1332448715518448E-2</v>
       </c>
-      <c r="L29" s="64">
+      <c r="L29" s="45">
         <f t="shared" si="8"/>
         <v>4.3624465569117527E-3</v>
       </c>
-      <c r="M29" s="64">
+      <c r="M29" s="45">
         <f t="shared" si="8"/>
         <v>1.0697525475579029E-2</v>
       </c>
-      <c r="N29" s="64"/>
-      <c r="O29" s="64">
+      <c r="N29" s="45"/>
+      <c r="O29" s="45">
         <f t="shared" si="8"/>
         <v>1.2925750568550689E-2</v>
       </c>
-      <c r="P29" s="64">
+      <c r="P29" s="45">
         <f t="shared" si="8"/>
         <v>1.1332448715518448E-2</v>
       </c>
-      <c r="Q29" s="64">
+      <c r="Q29" s="45">
         <f t="shared" si="8"/>
         <v>4.3624465569117527E-3</v>
       </c>
-      <c r="R29" s="64">
+      <c r="R29" s="45">
         <f t="shared" si="8"/>
         <v>1.1467232383464251E-2</v>
       </c>
-      <c r="S29" s="64">
+      <c r="S29" s="45">
         <f t="shared" si="8"/>
         <v>6.4504446608463547E-3</v>
       </c>
-      <c r="T29" s="41"/>
-      <c r="U29" s="31"/>
-      <c r="V29" s="47"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A30" s="42" t="s">
+      <c r="T29" s="24"/>
+      <c r="U29" s="34"/>
+      <c r="V29" s="37"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="51">
+      <c r="B30" s="34"/>
+      <c r="C30" s="52">
         <v>0.78</v>
       </c>
-      <c r="D30" s="43">
+      <c r="D30" s="53">
         <v>0.65</v>
       </c>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43">
+      <c r="E30" s="53"/>
+      <c r="F30" s="53">
         <v>0.78</v>
       </c>
-      <c r="G30" s="43">
+      <c r="G30" s="53">
         <v>0.66</v>
       </c>
-      <c r="H30" s="43">
+      <c r="H30" s="53">
         <v>0.64</v>
       </c>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43">
+      <c r="I30" s="53"/>
+      <c r="J30" s="53">
         <v>0.86</v>
       </c>
-      <c r="K30" s="43">
+      <c r="K30" s="53">
         <v>0.71</v>
       </c>
-      <c r="L30" s="43">
+      <c r="L30" s="53">
         <v>0.66</v>
       </c>
-      <c r="M30" s="43">
+      <c r="M30" s="53">
         <v>0.64</v>
       </c>
-      <c r="N30" s="43"/>
-      <c r="O30" s="43">
+      <c r="N30" s="53"/>
+      <c r="O30" s="53">
         <v>0.87</v>
       </c>
-      <c r="P30" s="43">
+      <c r="P30" s="53">
         <v>0.71</v>
       </c>
-      <c r="Q30" s="43">
+      <c r="Q30" s="53">
         <v>0.66</v>
       </c>
-      <c r="R30" s="43">
+      <c r="R30" s="53">
         <v>0.66</v>
       </c>
-      <c r="S30" s="43">
+      <c r="S30" s="53">
         <v>0.61</v>
       </c>
       <c r="T30" s="54"/>
-      <c r="U30" s="45"/>
-      <c r="V30" s="45"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="U30" s="22"/>
+      <c r="V30" s="22"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="C31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="U3:U5"/>
+    <mergeCell ref="V3:V5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="U6:U8"/>
+    <mergeCell ref="V6:V8"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="U9:U11"/>
+    <mergeCell ref="V9:V11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="U12:U14"/>
+    <mergeCell ref="V12:V14"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="U27:U29"/>
     <mergeCell ref="V27:V29"/>
@@ -11768,162 +11919,9 @@
     <mergeCell ref="V15:V17"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="U18:U20"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="U9:U11"/>
-    <mergeCell ref="V9:V11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="U12:U14"/>
-    <mergeCell ref="V12:V14"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="U3:U5"/>
-    <mergeCell ref="V3:V5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="U6:U8"/>
-    <mergeCell ref="V6:V8"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="U1:V1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="U3:U29">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V3:V29">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T30">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3 T3">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T9 E9">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T12 E12">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T15 E15">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T18 E18">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T21 E21">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T24 E24">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I30">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30 I30">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3 E3">
+  <conditionalFormatting sqref="E3 I3">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -11943,7 +11941,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6 E6">
+  <conditionalFormatting sqref="E6 I6">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -11953,7 +11951,155 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E9 I9">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9 T9">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12 T12">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15 I15">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15 T15">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18 I18">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18 T18">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21 I21">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21 T21">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24 I24">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24 T24">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3 E3">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6 E6">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9 E9">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -11973,7 +12119,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12 I12">
+  <conditionalFormatting sqref="I12 E12">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -11984,17 +12138,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15 E15">
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15 E15">
-    <cfRule type="colorScale" priority="42">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -12004,7 +12148,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18 E18">
-    <cfRule type="colorScale" priority="43">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -12013,7 +12157,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21 I21">
+  <conditionalFormatting sqref="I21 E21">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
@@ -12023,8 +12175,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21 E21">
-    <cfRule type="colorScale" priority="46">
+  <conditionalFormatting sqref="I24 E24">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -12033,8 +12185,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24 E24">
-    <cfRule type="colorScale" priority="47">
+  <conditionalFormatting sqref="I27 E27">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -12042,8 +12194,6 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27 I27">
     <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
@@ -12063,8 +12213,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3 I3">
-    <cfRule type="colorScale" priority="19">
+  <conditionalFormatting sqref="I30 E30">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -12073,88 +12223,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6 I6">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9 E9">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12 I12">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15 I15">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18 I18">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21 I21">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24 I24">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27 I27">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30:M30">
-    <cfRule type="colorScale" priority="10">
+  <conditionalFormatting sqref="I30">
+    <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -12253,6 +12323,60 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J30:M30">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T3 E3">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T30">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U3:U29">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V3:V29">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -12267,20 +12391,20 @@
       <selection activeCell="AZ10" sqref="AZ10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="3" customWidth="1"/>
-    <col min="2" max="6" width="4.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="6.25" style="13" customWidth="1"/>
-    <col min="8" max="27" width="4.375" style="2" customWidth="1"/>
-    <col min="28" max="28" width="4.125" style="3" customWidth="1"/>
+    <col min="2" max="6" width="4.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" style="13" customWidth="1"/>
+    <col min="8" max="27" width="4.42578125" style="2" customWidth="1"/>
+    <col min="28" max="28" width="4.140625" style="3" customWidth="1"/>
     <col min="29" max="29" width="10" style="3" customWidth="1"/>
-    <col min="30" max="32" width="4.25" style="3" customWidth="1"/>
-    <col min="33" max="33" width="6.125" style="3" customWidth="1"/>
-    <col min="34" max="43" width="4.375" style="4" customWidth="1"/>
+    <col min="30" max="32" width="4.28515625" style="3" customWidth="1"/>
+    <col min="33" max="33" width="6.140625" style="3" customWidth="1"/>
+    <col min="34" max="43" width="4.42578125" style="4" customWidth="1"/>
     <col min="45" max="45" width="10" style="3" customWidth="1"/>
-    <col min="46" max="49" width="4.25" style="3" customWidth="1"/>
-    <col min="50" max="50" width="6.125" style="3" customWidth="1"/>
+    <col min="46" max="49" width="4.28515625" style="3" customWidth="1"/>
+    <col min="50" max="50" width="6.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12305,28 +12429,28 @@
       <c r="G1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5" t="s">
         <v>10</v>
@@ -12343,18 +12467,18 @@
       <c r="AG1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="AH1" s="20" t="s">
+      <c r="AH1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="AI1" s="20"/>
-      <c r="AJ1" s="20"/>
-      <c r="AK1" s="20"/>
-      <c r="AL1" s="20"/>
-      <c r="AM1" s="20"/>
-      <c r="AN1" s="20"/>
-      <c r="AO1" s="20"/>
-      <c r="AP1" s="20"/>
-      <c r="AQ1" s="20"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="28"/>
+      <c r="AP1" s="28"/>
+      <c r="AQ1" s="28"/>
       <c r="AS1" s="5" t="s">
         <v>10</v>
       </c>
@@ -12485,7 +12609,7 @@
       <c r="AW2" s="5"/>
       <c r="AX2" s="5"/>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -12618,7 +12742,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C4" s="3">
         <v>2</v>
       </c>
@@ -12673,7 +12797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="G5" s="12"/>
       <c r="H5" s="16">
         <f>(COUNTIF(H3:H4,"○"))/2</f>
@@ -12768,7 +12892,7 @@
       <c r="AQ5" s="1"/>
       <c r="AX5" s="12"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -12892,7 +13016,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C7" s="3">
         <v>2</v>
       </c>
@@ -13007,7 +13131,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C8" s="3">
         <v>3</v>
       </c>
@@ -13122,7 +13246,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C9" s="3">
         <v>4</v>
       </c>
@@ -13177,7 +13301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C10" s="3">
         <v>5</v>
       </c>
@@ -13232,7 +13356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C11" s="3">
         <v>6</v>
       </c>
@@ -13287,7 +13411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C12" s="3">
         <v>7</v>
       </c>
@@ -13342,7 +13466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C13" s="3">
         <v>8</v>
       </c>
@@ -13457,7 +13581,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C14" s="3">
         <v>9</v>
       </c>
@@ -13572,7 +13696,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C15" s="3">
         <v>10</v>
       </c>
@@ -13627,7 +13751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="G16" s="12"/>
       <c r="H16" s="16">
         <f>(COUNTIF(H6:H15,"○"))/10</f>
@@ -13722,7 +13846,7 @@
       <c r="AQ16" s="1"/>
       <c r="AX16" s="12"/>
     </row>
-    <row r="17" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>3</v>
       </c>
@@ -13846,7 +13970,7 @@
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="18" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C18" s="3">
         <v>2</v>
       </c>
@@ -13961,7 +14085,7 @@
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="19" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C19" s="3">
         <v>3</v>
       </c>
@@ -14076,7 +14200,7 @@
         <v>0.85000000000000009</v>
       </c>
     </row>
-    <row r="20" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C20" s="3">
         <v>4</v>
       </c>
@@ -14131,7 +14255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C21" s="3">
         <v>5</v>
       </c>
@@ -14246,7 +14370,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="22" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C22" s="3">
         <v>6</v>
       </c>
@@ -14361,7 +14485,7 @@
         <v>0.85000000000000009</v>
       </c>
     </row>
-    <row r="23" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C23" s="3">
         <v>7</v>
       </c>
@@ -14416,7 +14540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C24" s="3">
         <v>8</v>
       </c>
@@ -14531,7 +14655,7 @@
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="25" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C25" s="3">
         <v>9</v>
       </c>
@@ -14646,7 +14770,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="26" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C26" s="3">
         <v>10</v>
       </c>
@@ -14761,7 +14885,7 @@
         <v>0.67500000000000004</v>
       </c>
     </row>
-    <row r="27" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C27" s="3">
         <v>11</v>
       </c>
@@ -14876,7 +15000,7 @@
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="28" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C28" s="3">
         <v>12</v>
       </c>
@@ -14991,7 +15115,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="29" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C29" s="3">
         <v>13</v>
       </c>
@@ -15046,7 +15170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C30" s="3">
         <v>14</v>
       </c>
@@ -15161,7 +15285,7 @@
         <v>0.85000000000000009</v>
       </c>
     </row>
-    <row r="31" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:50" x14ac:dyDescent="0.25">
       <c r="G31" s="5"/>
       <c r="H31" s="15">
         <f>(COUNTIF(H17:H30,"○"))/14</f>
@@ -15296,7 +15420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:50" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="G32" s="12"/>
       <c r="AE32" s="3">
         <v>2</v>
@@ -15345,7 +15469,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="33" spans="30:50" x14ac:dyDescent="0.4">
+    <row r="33" spans="30:50" x14ac:dyDescent="0.25">
       <c r="AD33" s="3" t="s">
         <v>7</v>
       </c>
@@ -15379,7 +15503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="30:50" x14ac:dyDescent="0.4">
+    <row r="34" spans="30:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="AE34" s="3">
         <v>2</v>
       </c>
@@ -15407,7 +15531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="30:50" x14ac:dyDescent="0.4">
+    <row r="35" spans="30:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="AE35" s="3">
         <v>3</v>
       </c>
@@ -15435,7 +15559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="30:50" x14ac:dyDescent="0.4">
+    <row r="36" spans="30:50" ht="16.5" x14ac:dyDescent="0.3">
       <c r="AE36" s="3">
         <v>4</v>
       </c>
@@ -15483,7 +15607,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="37" spans="30:50" x14ac:dyDescent="0.4">
+    <row r="37" spans="30:50" x14ac:dyDescent="0.25">
       <c r="AD37" s="3" t="s">
         <v>6</v>
       </c>
@@ -15517,7 +15641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="30:50" x14ac:dyDescent="0.4">
+    <row r="38" spans="30:50" x14ac:dyDescent="0.25">
       <c r="AH38" s="15">
         <f>(COUNTIF(AH3:AH37,"○")/32)</f>
         <v>0.625</v>
@@ -15561,12 +15685,12 @@
       <c r="AV38"/>
       <c r="AW38"/>
     </row>
-    <row r="39" spans="30:50" x14ac:dyDescent="0.4">
+    <row r="39" spans="30:50" x14ac:dyDescent="0.25">
       <c r="AV39"/>
       <c r="AW39"/>
       <c r="AX39" s="12"/>
     </row>
-    <row r="40" spans="30:50" x14ac:dyDescent="0.4">
+    <row r="40" spans="30:50" x14ac:dyDescent="0.25">
       <c r="AG40" s="12"/>
     </row>
   </sheetData>

--- a/Experiment-Data/Answer-Data.xlsx
+++ b/Experiment-Data/Answer-Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\www\Desktop\eye-tracking-software\Experiment-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65432E7D-B269-47F1-B8BF-4178D7E6A620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE671995-0E1A-42ED-85FF-2D5EB2688257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{65F65776-174E-4145-8CCF-AA6B8A50F68A}"/>
   </bookViews>
@@ -482,51 +482,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -573,6 +528,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1270,8 +1270,8 @@
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>197224</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>200361</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>336</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1320,8 +1320,8 @@
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>129987</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>229946</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1346</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2028,28 +2028,28 @@
       <c r="F1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
       <c r="AA1" s="5"/>
       <c r="AB1" s="5" t="s">
         <v>10</v>
@@ -2072,18 +2072,18 @@
       <c r="AH1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="AI1" s="28" t="s">
+      <c r="AI1" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="28"/>
-      <c r="AO1" s="28"/>
-      <c r="AP1" s="28"/>
-      <c r="AQ1" s="28"/>
-      <c r="AR1" s="28"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="44"/>
+      <c r="AP1" s="44"/>
+      <c r="AQ1" s="44"/>
+      <c r="AR1" s="44"/>
       <c r="AT1" s="5" t="s">
         <v>10</v>
       </c>
@@ -6886,48 +6886,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45">
         <v>2</v>
       </c>
-      <c r="D1" s="33"/>
+      <c r="D1" s="45"/>
       <c r="E1" s="22"/>
-      <c r="F1" s="41">
+      <c r="F1" s="57">
         <v>3</v>
       </c>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
       <c r="I1" s="22"/>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="33"/>
+      <c r="K1" s="45"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="42">
+      <c r="B2" s="46"/>
+      <c r="C2" s="27">
         <v>2</v>
       </c>
-      <c r="D2" s="42">
-        <v>1</v>
-      </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42">
+      <c r="D2" s="27">
+        <v>1</v>
+      </c>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27">
         <v>3</v>
       </c>
-      <c r="G2" s="42">
-        <v>1</v>
-      </c>
-      <c r="H2" s="42">
+      <c r="G2" s="27">
+        <v>1</v>
+      </c>
+      <c r="H2" s="27">
         <v>2</v>
       </c>
-      <c r="I2" s="42"/>
+      <c r="I2" s="27"/>
       <c r="J2" s="22">
         <v>1</v>
       </c>
@@ -6936,13 +6936,13 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="56">
+      <c r="C3" s="41">
         <v>253.8</v>
       </c>
       <c r="D3" s="25">
@@ -6959,19 +6959,19 @@
         <v>295.16666700000002</v>
       </c>
       <c r="I3" s="25"/>
-      <c r="J3" s="32">
+      <c r="J3" s="50">
         <v>-0.188448</v>
       </c>
-      <c r="K3" s="35">
+      <c r="K3" s="48">
         <v>0.54788800000000004</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="57">
+      <c r="C4" s="42">
         <v>65.511322174109722</v>
       </c>
       <c r="D4" s="22">
@@ -6988,44 +6988,44 @@
         <v>45.984417654244574</v>
       </c>
       <c r="I4" s="22"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="36"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="47"/>
     </row>
     <row r="5" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="29">
         <f>C4/C3</f>
         <v>0.25812183677742206</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="30">
         <f t="shared" ref="D5:H5" si="0">D4/D3</f>
         <v>0.25043225283168064</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45">
+      <c r="E5" s="30"/>
+      <c r="F5" s="30">
         <f t="shared" si="0"/>
         <v>0.14703659224275245</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="31">
         <f t="shared" si="0"/>
         <v>0.25043225283168064</v>
       </c>
-      <c r="H5" s="45">
+      <c r="H5" s="30">
         <f t="shared" si="0"/>
         <v>0.15579136398299531</v>
       </c>
       <c r="I5" s="24"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="37"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="49"/>
     </row>
     <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="22">
@@ -7045,16 +7045,16 @@
         <v>1165.094081</v>
       </c>
       <c r="I6" s="22"/>
-      <c r="J6" s="33">
+      <c r="J6" s="45">
         <v>0.503328</v>
       </c>
-      <c r="K6" s="36">
+      <c r="K6" s="47">
         <v>-4.8842999999999998E-2</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="48" t="s">
+      <c r="A7" s="54"/>
+      <c r="B7" s="33" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="22">
@@ -7074,47 +7074,47 @@
         <v>120.80618517691882</v>
       </c>
       <c r="I7" s="22"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="36"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="47"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="34">
         <f>C7/C6</f>
         <v>0.12326375909272345</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="34">
         <f t="shared" ref="D8:H8" si="1">D7/D6</f>
         <v>0.12565524023326541</v>
       </c>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49">
+      <c r="E8" s="34"/>
+      <c r="F8" s="34">
         <f t="shared" si="1"/>
         <v>7.2956694935921385E-2</v>
       </c>
-      <c r="G8" s="49">
+      <c r="G8" s="34">
         <f t="shared" si="1"/>
         <v>0.12565524023326541</v>
       </c>
-      <c r="H8" s="49">
+      <c r="H8" s="34">
         <f t="shared" si="1"/>
         <v>0.10368792284416285</v>
       </c>
       <c r="I8" s="22"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="36"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="47"/>
     </row>
     <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="56">
+      <c r="C9" s="41">
         <v>938.4</v>
       </c>
       <c r="D9" s="25">
@@ -7131,19 +7131,19 @@
         <v>1078.5</v>
       </c>
       <c r="I9" s="25"/>
-      <c r="J9" s="32">
+      <c r="J9" s="50">
         <v>-0.221611</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9" s="48">
         <v>0.53761899999999996</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
-      <c r="B10" s="48" t="s">
+      <c r="A10" s="54"/>
+      <c r="B10" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="57">
+      <c r="C10" s="42">
         <v>278.37592488575586</v>
       </c>
       <c r="D10" s="22">
@@ -7160,44 +7160,44 @@
         <v>258.54109924729568</v>
       </c>
       <c r="I10" s="22"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="36"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="47"/>
     </row>
     <row r="11" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="50" t="s">
+      <c r="A11" s="55"/>
+      <c r="B11" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="29">
         <f>C10/C9</f>
         <v>0.29664953632326924</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="30">
         <f t="shared" ref="D11:H11" si="2">D10/D9</f>
         <v>0.21366369454613637</v>
       </c>
-      <c r="E11" s="45"/>
-      <c r="F11" s="46">
+      <c r="E11" s="30"/>
+      <c r="F11" s="31">
         <f t="shared" si="2"/>
         <v>0.20794834371078877</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="31">
         <f t="shared" si="2"/>
         <v>0.21366369454613637</v>
       </c>
-      <c r="H11" s="46">
+      <c r="H11" s="31">
         <f t="shared" si="2"/>
         <v>0.23972285512034833</v>
       </c>
       <c r="I11" s="24"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="37"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="49"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="22">
@@ -7217,16 +7217,16 @@
         <v>13.026258</v>
       </c>
       <c r="I12" s="22"/>
-      <c r="J12" s="33">
+      <c r="J12" s="45">
         <v>-0.32667400000000002</v>
       </c>
-      <c r="K12" s="36">
+      <c r="K12" s="47">
         <v>-0.13261100000000001</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="48" t="s">
+      <c r="A13" s="54"/>
+      <c r="B13" s="33" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="22">
@@ -7246,47 +7246,47 @@
         <v>1.1520512141393715</v>
       </c>
       <c r="I13" s="22"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="36"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="47"/>
     </row>
     <row r="14" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
-      <c r="B14" s="50" t="s">
+      <c r="A14" s="55"/>
+      <c r="B14" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C14" s="34">
         <f>C13/C12</f>
         <v>0.11491153443936339</v>
       </c>
-      <c r="D14" s="49">
+      <c r="D14" s="34">
         <f t="shared" ref="D14:H14" si="3">D13/D12</f>
         <v>8.1202881956668513E-2</v>
       </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49">
+      <c r="E14" s="34"/>
+      <c r="F14" s="34">
         <f t="shared" si="3"/>
         <v>0.15582939050424838</v>
       </c>
-      <c r="G14" s="49">
+      <c r="G14" s="34">
         <f t="shared" si="3"/>
         <v>8.1202881956668513E-2</v>
       </c>
-      <c r="H14" s="49">
+      <c r="H14" s="34">
         <f t="shared" si="3"/>
         <v>8.8440687581911204E-2</v>
       </c>
       <c r="I14" s="22"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="36"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="47"/>
     </row>
     <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="56">
+      <c r="C15" s="41">
         <v>268.36387200000001</v>
       </c>
       <c r="D15" s="25">
@@ -7303,19 +7303,19 @@
         <v>290.23841599999997</v>
       </c>
       <c r="I15" s="25"/>
-      <c r="J15" s="32">
+      <c r="J15" s="50">
         <v>0.51528499999999999</v>
       </c>
-      <c r="K15" s="35">
+      <c r="K15" s="48">
         <v>1.5509E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
-      <c r="B16" s="48" t="s">
+      <c r="A16" s="54"/>
+      <c r="B16" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="57">
+      <c r="C16" s="42">
         <v>43.472856462395015</v>
       </c>
       <c r="D16" s="22">
@@ -7332,44 +7332,44 @@
         <v>33.816063239235881</v>
       </c>
       <c r="I16" s="22"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="36"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="47"/>
     </row>
     <row r="17" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="48" t="s">
+      <c r="A17" s="54"/>
+      <c r="B17" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="44">
+      <c r="C17" s="29">
         <f>C16/C15</f>
         <v>0.16199220907945094</v>
       </c>
-      <c r="D17" s="45">
+      <c r="D17" s="30">
         <f t="shared" ref="D17:H17" si="4">D16/D15</f>
         <v>0.18326250869525393</v>
       </c>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45">
+      <c r="E17" s="30"/>
+      <c r="F17" s="30">
         <f t="shared" si="4"/>
         <v>0.15721041965890123</v>
       </c>
-      <c r="G17" s="45">
+      <c r="G17" s="30">
         <f t="shared" si="4"/>
         <v>0.18326250869525393</v>
       </c>
-      <c r="H17" s="45">
+      <c r="H17" s="30">
         <f t="shared" si="4"/>
         <v>0.11651132784309257</v>
       </c>
       <c r="I17" s="24"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="37"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="49"/>
     </row>
     <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="22">
@@ -7389,16 +7389,16 @@
         <v>1328.2708680000001</v>
       </c>
       <c r="I18" s="22"/>
-      <c r="J18" s="33">
+      <c r="J18" s="45">
         <v>0.212811</v>
       </c>
-      <c r="K18" s="36">
+      <c r="K18" s="47">
         <v>0.184026</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="B19" s="48" t="s">
+      <c r="A19" s="54"/>
+      <c r="B19" s="33" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="22">
@@ -7418,47 +7418,47 @@
         <v>185.2619838175118</v>
       </c>
       <c r="I19" s="22"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="36"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="47"/>
     </row>
     <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
-      <c r="B20" s="50" t="s">
+      <c r="A20" s="55"/>
+      <c r="B20" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="49">
+      <c r="C20" s="34">
         <f>C19/C18</f>
         <v>0.19447800668234677</v>
       </c>
-      <c r="D20" s="49">
+      <c r="D20" s="34">
         <f t="shared" ref="D20:H20" si="5">D19/D18</f>
         <v>0.23097641973323471</v>
       </c>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49">
+      <c r="E20" s="34"/>
+      <c r="F20" s="34">
         <f t="shared" si="5"/>
         <v>9.7865172308135323E-2</v>
       </c>
-      <c r="G20" s="51">
+      <c r="G20" s="36">
         <f t="shared" si="5"/>
         <v>0.23097641973323471</v>
       </c>
-      <c r="H20" s="49">
+      <c r="H20" s="34">
         <f t="shared" si="5"/>
         <v>0.13947605739216723</v>
       </c>
       <c r="I20" s="22"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="36"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="47"/>
     </row>
     <row r="21" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="56">
+      <c r="C21" s="41">
         <v>434.99150800000001</v>
       </c>
       <c r="D21" s="25">
@@ -7475,19 +7475,19 @@
         <v>436.16804999999999</v>
       </c>
       <c r="I21" s="25"/>
-      <c r="J21" s="32">
+      <c r="J21" s="50">
         <v>0.42631999999999998</v>
       </c>
-      <c r="K21" s="35">
+      <c r="K21" s="48">
         <v>3.6583999999999998E-2</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="38"/>
-      <c r="B22" s="48" t="s">
+      <c r="A22" s="54"/>
+      <c r="B22" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="57">
+      <c r="C22" s="42">
         <v>21.657200003693923</v>
       </c>
       <c r="D22" s="22">
@@ -7504,44 +7504,44 @@
         <v>26.527001828325794</v>
       </c>
       <c r="I22" s="22"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="36"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="47"/>
     </row>
     <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
-      <c r="B23" s="48" t="s">
+      <c r="A23" s="54"/>
+      <c r="B23" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="44">
+      <c r="C23" s="29">
         <f>C22/C21</f>
         <v>4.9787638621427807E-2</v>
       </c>
-      <c r="D23" s="45">
+      <c r="D23" s="30">
         <f t="shared" ref="D23:H23" si="6">D22/D21</f>
         <v>9.9011544357579639E-2</v>
       </c>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45">
+      <c r="E23" s="30"/>
+      <c r="F23" s="30">
         <f t="shared" si="6"/>
         <v>3.4806441193187362E-2</v>
       </c>
-      <c r="G23" s="45">
+      <c r="G23" s="30">
         <f t="shared" si="6"/>
         <v>9.9011544357579639E-2</v>
       </c>
-      <c r="H23" s="45">
+      <c r="H23" s="30">
         <f t="shared" si="6"/>
         <v>6.0818305761565515E-2</v>
       </c>
       <c r="I23" s="24"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="37"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="49"/>
     </row>
     <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="22">
@@ -7561,16 +7561,16 @@
         <v>149.374664</v>
       </c>
       <c r="I24" s="22"/>
-      <c r="J24" s="33">
+      <c r="J24" s="45">
         <v>0.17419599999999999</v>
       </c>
-      <c r="K24" s="36">
+      <c r="K24" s="47">
         <v>0.53308299999999997</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
-      <c r="B25" s="48" t="s">
+      <c r="A25" s="54"/>
+      <c r="B25" s="33" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="22">
@@ -7590,47 +7590,47 @@
         <v>25.510562851493496</v>
       </c>
       <c r="I25" s="22"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="36"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="47"/>
     </row>
     <row r="26" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
-      <c r="B26" s="50" t="s">
+      <c r="A26" s="55"/>
+      <c r="B26" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="49">
+      <c r="C26" s="34">
         <f>C25/C24</f>
         <v>0.26877634352914748</v>
       </c>
-      <c r="D26" s="49">
+      <c r="D26" s="34">
         <f t="shared" ref="D26:H26" si="7">D25/D24</f>
         <v>0.24239633917303552</v>
       </c>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49">
+      <c r="E26" s="34"/>
+      <c r="F26" s="34">
         <f t="shared" si="7"/>
         <v>0.15374762598786634</v>
       </c>
-      <c r="G26" s="51">
+      <c r="G26" s="36">
         <f t="shared" si="7"/>
         <v>0.24239633917303552</v>
       </c>
-      <c r="H26" s="49">
+      <c r="H26" s="34">
         <f t="shared" si="7"/>
         <v>0.17078239487449826</v>
       </c>
       <c r="I26" s="22"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="36"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="47"/>
     </row>
     <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="56">
+      <c r="C27" s="41">
         <v>0.96034200000000003</v>
       </c>
       <c r="D27" s="25">
@@ -7647,19 +7647,19 @@
         <v>0.95097100000000001</v>
       </c>
       <c r="I27" s="25"/>
-      <c r="J27" s="32">
+      <c r="J27" s="50">
         <v>-0.18006</v>
       </c>
-      <c r="K27" s="35">
+      <c r="K27" s="48">
         <v>-0.26681700000000003</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="48" t="s">
+      <c r="A28" s="52"/>
+      <c r="B28" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="57">
+      <c r="C28" s="42">
         <v>1.50996688705415E-2</v>
       </c>
       <c r="D28" s="22">
@@ -7676,61 +7676,61 @@
         <v>1.0488088481701515E-2</v>
       </c>
       <c r="I28" s="22"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="36"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="47"/>
     </row>
     <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="50" t="s">
+      <c r="A29" s="53"/>
+      <c r="B29" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="44">
+      <c r="C29" s="29">
         <f>C28/C27</f>
         <v>1.5723220342900236E-2</v>
       </c>
-      <c r="D29" s="45">
+      <c r="D29" s="30">
         <f>D28/D27</f>
         <v>7.6112002497713931E-3</v>
       </c>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45">
+      <c r="E29" s="30"/>
+      <c r="F29" s="30">
         <f>F28/F27</f>
         <v>8.015453295730654E-3</v>
       </c>
-      <c r="G29" s="45">
+      <c r="G29" s="30">
         <f>G28/G27</f>
         <v>7.6112002497713931E-3</v>
       </c>
-      <c r="H29" s="45">
+      <c r="H29" s="30">
         <f>H28/H27</f>
         <v>1.1028820523130058E-2</v>
       </c>
       <c r="I29" s="24"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="37"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="49"/>
     </row>
     <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="34"/>
-      <c r="C30" s="52">
+      <c r="B30" s="46"/>
+      <c r="C30" s="37">
         <v>0.45</v>
       </c>
-      <c r="D30" s="53">
+      <c r="D30" s="38">
         <v>0.42</v>
       </c>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53">
+      <c r="E30" s="38"/>
+      <c r="F30" s="38">
         <v>0.54</v>
       </c>
-      <c r="G30" s="53">
+      <c r="G30" s="38">
         <v>0.42</v>
       </c>
-      <c r="H30" s="53">
+      <c r="H30" s="38">
         <v>0.39</v>
       </c>
-      <c r="I30" s="54"/>
+      <c r="I30" s="39"/>
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
     </row>
@@ -7795,6 +7795,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="K27:K29"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="J18:J20"/>
     <mergeCell ref="J24:J26"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="C1:D1"/>
@@ -7811,23 +7828,6 @@
     <mergeCell ref="K18:K20"/>
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="K9:K11"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="J27:J29"/>
-    <mergeCell ref="K27:K29"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="J21:J23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C32:C36">
@@ -7842,6 +7842,16 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E3 I3">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E6">
     <cfRule type="colorScale" priority="36">
       <colorScale>
@@ -7852,8 +7862,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E9 I9">
-    <cfRule type="colorScale" priority="30">
+  <conditionalFormatting sqref="E18 I18">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7862,8 +7872,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12 I12">
-    <cfRule type="colorScale" priority="31">
+  <conditionalFormatting sqref="E21 I21">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7872,8 +7882,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E15 I15">
-    <cfRule type="colorScale" priority="32">
+  <conditionalFormatting sqref="E24 I24">
+    <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8002,8 +8012,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3 E3">
-    <cfRule type="colorScale" priority="28">
+  <conditionalFormatting sqref="I9 E9">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8012,8 +8022,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I18 E18">
-    <cfRule type="colorScale" priority="33">
+  <conditionalFormatting sqref="I12 E12">
+    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8022,18 +8032,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21 E21">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24 E24">
-    <cfRule type="colorScale" priority="35">
+  <conditionalFormatting sqref="I15 E15">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8107,68 +8107,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45">
         <v>2</v>
       </c>
-      <c r="D1" s="33"/>
+      <c r="D1" s="45"/>
       <c r="E1" s="22"/>
-      <c r="F1" s="41">
+      <c r="F1" s="57">
         <v>3</v>
       </c>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
       <c r="I1" s="22"/>
-      <c r="J1" s="33">
+      <c r="J1" s="45">
         <v>4</v>
       </c>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
       <c r="N1" s="22"/>
-      <c r="O1" s="33" t="s">
+      <c r="O1" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="33"/>
+      <c r="P1" s="45"/>
     </row>
     <row r="2" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="42">
-        <v>1</v>
-      </c>
-      <c r="D2" s="42">
+      <c r="B2" s="46"/>
+      <c r="C2" s="27">
+        <v>1</v>
+      </c>
+      <c r="D2" s="27">
         <v>2</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42">
+      <c r="E2" s="27"/>
+      <c r="F2" s="27">
         <v>3</v>
       </c>
-      <c r="G2" s="42">
-        <v>1</v>
-      </c>
-      <c r="H2" s="42">
+      <c r="G2" s="27">
+        <v>1</v>
+      </c>
+      <c r="H2" s="27">
         <v>2</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42">
+      <c r="I2" s="27"/>
+      <c r="J2" s="27">
         <v>3</v>
       </c>
-      <c r="K2" s="42">
+      <c r="K2" s="27">
         <v>4</v>
       </c>
-      <c r="L2" s="42">
-        <v>1</v>
-      </c>
-      <c r="M2" s="42">
+      <c r="L2" s="27">
+        <v>1</v>
+      </c>
+      <c r="M2" s="27">
         <v>2</v>
       </c>
-      <c r="N2" s="42"/>
+      <c r="N2" s="27"/>
       <c r="O2" s="22">
         <v>1</v>
       </c>
@@ -8177,13 +8177,13 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="56">
+      <c r="C3" s="41">
         <v>128.30000000000001</v>
       </c>
       <c r="D3" s="25">
@@ -8213,10 +8213,10 @@
         <v>170.75</v>
       </c>
       <c r="N3" s="25"/>
-      <c r="O3" s="32">
+      <c r="O3" s="50">
         <v>0.19814899999999999</v>
       </c>
-      <c r="P3" s="35">
+      <c r="P3" s="48">
         <v>0.554253</v>
       </c>
       <c r="R3" s="20"/>
@@ -8230,11 +8230,11 @@
       <c r="Z3" s="20"/>
     </row>
     <row r="4" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="48" t="s">
+      <c r="A4" s="54"/>
+      <c r="B4" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="57">
+      <c r="C4" s="42">
         <v>28.975276823526642</v>
       </c>
       <c r="D4" s="22">
@@ -8264,8 +8264,8 @@
         <v>18.304956405301816</v>
       </c>
       <c r="N4" s="22"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="36"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="47"/>
       <c r="R4" s="20"/>
       <c r="S4" s="20"/>
       <c r="T4" s="20"/>
@@ -8277,57 +8277,57 @@
       <c r="Z4" s="20"/>
     </row>
     <row r="5" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="50" t="s">
+      <c r="A5" s="55"/>
+      <c r="B5" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="29">
         <f>C4/C3</f>
         <v>0.22584003759568697</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="30">
         <f t="shared" ref="D5:M5" si="0">D4/D3</f>
         <v>0.21145257403691839</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45">
+      <c r="E5" s="30"/>
+      <c r="F5" s="30">
         <f t="shared" si="0"/>
         <v>0.15869545223734022</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="31">
         <f t="shared" si="0"/>
         <v>0.22584003759568697</v>
       </c>
-      <c r="H5" s="45">
+      <c r="H5" s="30">
         <f t="shared" si="0"/>
         <v>0.1072032585962039</v>
       </c>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45">
+      <c r="I5" s="30"/>
+      <c r="J5" s="30">
         <f t="shared" si="0"/>
         <v>0.14890083708676188</v>
       </c>
-      <c r="K5" s="45">
+      <c r="K5" s="30">
         <f t="shared" si="0"/>
         <v>0.1779683375468151</v>
       </c>
-      <c r="L5" s="45">
+      <c r="L5" s="30">
         <f t="shared" si="0"/>
         <v>0.22584003759568697</v>
       </c>
-      <c r="M5" s="45">
+      <c r="M5" s="30">
         <f t="shared" si="0"/>
         <v>0.1072032585962039</v>
       </c>
       <c r="N5" s="24"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="37"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="49"/>
     </row>
     <row r="6" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="40" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="22">
@@ -8360,16 +8360,16 @@
         <v>1066.667138</v>
       </c>
       <c r="N6" s="22"/>
-      <c r="O6" s="33">
+      <c r="O6" s="45">
         <v>0.38675100000000001</v>
       </c>
-      <c r="P6" s="36">
+      <c r="P6" s="47">
         <v>-0.30294199999999999</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="48" t="s">
+      <c r="A7" s="54"/>
+      <c r="B7" s="33" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="22">
@@ -8402,64 +8402,64 @@
         <v>154.17636012048021</v>
       </c>
       <c r="N7" s="22"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="36"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="47"/>
     </row>
     <row r="8" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="50" t="s">
+      <c r="A8" s="55"/>
+      <c r="B8" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="34">
         <f>C7/C6</f>
         <v>0.10505153273157671</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="34">
         <f t="shared" ref="D8:M8" si="1">D7/D6</f>
         <v>0.15933724181854092</v>
       </c>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49">
+      <c r="E8" s="34"/>
+      <c r="F8" s="34">
         <f t="shared" si="1"/>
         <v>0.17064137311144983</v>
       </c>
-      <c r="G8" s="49">
+      <c r="G8" s="34">
         <f t="shared" si="1"/>
         <v>0.10505153273157671</v>
       </c>
-      <c r="H8" s="49">
+      <c r="H8" s="34">
         <f t="shared" si="1"/>
         <v>0.14454027374421674</v>
       </c>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49">
+      <c r="I8" s="34"/>
+      <c r="J8" s="34">
         <f t="shared" si="1"/>
         <v>0.11069385282101925</v>
       </c>
-      <c r="K8" s="49">
+      <c r="K8" s="34">
         <f t="shared" si="1"/>
         <v>0.10789437053026121</v>
       </c>
-      <c r="L8" s="49">
+      <c r="L8" s="34">
         <f t="shared" si="1"/>
         <v>0.10505153273157671</v>
       </c>
-      <c r="M8" s="49">
+      <c r="M8" s="34">
         <f t="shared" si="1"/>
         <v>0.14454027374421674</v>
       </c>
       <c r="N8" s="22"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="36"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="47"/>
     </row>
     <row r="9" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="56">
+      <c r="C9" s="41">
         <v>463.1</v>
       </c>
       <c r="D9" s="25">
@@ -8489,19 +8489,19 @@
         <v>613.25</v>
       </c>
       <c r="N9" s="25"/>
-      <c r="O9" s="32">
+      <c r="O9" s="50">
         <v>0.173847</v>
       </c>
-      <c r="P9" s="35">
+      <c r="P9" s="48">
         <v>0.57918999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
-      <c r="B10" s="48" t="s">
+      <c r="A10" s="54"/>
+      <c r="B10" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="57">
+      <c r="C10" s="42">
         <v>96.395539315883283</v>
       </c>
       <c r="D10" s="22">
@@ -8531,61 +8531,61 @@
         <v>50.024993753123049</v>
       </c>
       <c r="N10" s="22"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="36"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="47"/>
     </row>
     <row r="11" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="50" t="s">
+      <c r="A11" s="55"/>
+      <c r="B11" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="29">
         <f>C10/C9</f>
         <v>0.20815275170780237</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="30">
         <f t="shared" ref="D11:M11" si="2">D10/D9</f>
         <v>0.17523640096304238</v>
       </c>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45">
+      <c r="E11" s="30"/>
+      <c r="F11" s="30">
         <f t="shared" si="2"/>
         <v>0.17815032056840308</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="31">
         <f t="shared" si="2"/>
         <v>0.20815275170780237</v>
       </c>
-      <c r="H11" s="45">
+      <c r="H11" s="30">
         <f t="shared" si="2"/>
         <v>8.1573573180795833E-2</v>
       </c>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45">
+      <c r="I11" s="30"/>
+      <c r="J11" s="30">
         <f t="shared" si="2"/>
         <v>0.17469281074217108</v>
       </c>
-      <c r="K11" s="45">
+      <c r="K11" s="30">
         <f t="shared" si="2"/>
         <v>0.19125953686178879</v>
       </c>
-      <c r="L11" s="45">
+      <c r="L11" s="30">
         <f t="shared" si="2"/>
         <v>0.20815275170780237</v>
       </c>
-      <c r="M11" s="45">
+      <c r="M11" s="30">
         <f t="shared" si="2"/>
         <v>8.1573573180795833E-2</v>
       </c>
       <c r="N11" s="24"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="37"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="49"/>
     </row>
     <row r="12" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="40" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="22">
@@ -8618,16 +8618,16 @@
         <v>12.416684999999999</v>
       </c>
       <c r="N12" s="22"/>
-      <c r="O12" s="33">
+      <c r="O12" s="45">
         <v>-0.25663200000000003</v>
       </c>
-      <c r="P12" s="36">
+      <c r="P12" s="47">
         <v>0.23480300000000001</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="48" t="s">
+      <c r="A13" s="54"/>
+      <c r="B13" s="33" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="22">
@@ -8660,64 +8660,64 @@
         <v>0.62217280557735732</v>
       </c>
       <c r="N13" s="22"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="36"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="47"/>
     </row>
     <row r="14" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
-      <c r="B14" s="50" t="s">
+      <c r="A14" s="55"/>
+      <c r="B14" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C14" s="34">
         <f>C13/C12</f>
         <v>0.10005984059373457</v>
       </c>
-      <c r="D14" s="49">
+      <c r="D14" s="34">
         <f t="shared" ref="D14:M14" si="3">D13/D12</f>
         <v>8.3160510965465881E-2</v>
       </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49">
+      <c r="E14" s="34"/>
+      <c r="F14" s="34">
         <f t="shared" si="3"/>
         <v>8.3478576011308217E-2</v>
       </c>
-      <c r="G14" s="49">
+      <c r="G14" s="34">
         <f t="shared" si="3"/>
         <v>0.10005984059373457</v>
       </c>
-      <c r="H14" s="49">
+      <c r="H14" s="34">
         <f t="shared" si="3"/>
         <v>5.0107802974574726E-2</v>
       </c>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49">
+      <c r="I14" s="34"/>
+      <c r="J14" s="34">
         <f t="shared" si="3"/>
         <v>2.0291102810467514E-2</v>
       </c>
-      <c r="K14" s="49">
+      <c r="K14" s="34">
         <f t="shared" si="3"/>
         <v>0.10231872035151347</v>
       </c>
-      <c r="L14" s="49">
+      <c r="L14" s="34">
         <f t="shared" si="3"/>
         <v>0.10005984059373457</v>
       </c>
-      <c r="M14" s="49">
+      <c r="M14" s="34">
         <f t="shared" si="3"/>
         <v>5.0107802974574726E-2</v>
       </c>
       <c r="N14" s="22"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="36"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="47"/>
     </row>
     <row r="15" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="56">
+      <c r="C15" s="41">
         <v>378.75748499999997</v>
       </c>
       <c r="D15" s="25">
@@ -8747,19 +8747,19 @@
         <v>271.35037599999998</v>
       </c>
       <c r="N15" s="25"/>
-      <c r="O15" s="32">
+      <c r="O15" s="50">
         <v>0.423954</v>
       </c>
-      <c r="P15" s="35">
+      <c r="P15" s="48">
         <v>-0.33226099999999997</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
-      <c r="B16" s="48" t="s">
+      <c r="A16" s="54"/>
+      <c r="B16" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="57">
+      <c r="C16" s="42">
         <v>59.875043390380938</v>
       </c>
       <c r="D16" s="22">
@@ -8789,61 +8789,61 @@
         <v>53.314599041913468</v>
       </c>
       <c r="N16" s="22"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="36"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="47"/>
     </row>
     <row r="17" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="48" t="s">
+      <c r="A17" s="54"/>
+      <c r="B17" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="44">
+      <c r="C17" s="29">
         <f>C16/C15</f>
         <v>0.15808279905116843</v>
       </c>
-      <c r="D17" s="45">
+      <c r="D17" s="30">
         <f t="shared" ref="D17:M17" si="4">D16/D15</f>
         <v>0.16942723148493441</v>
       </c>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45">
+      <c r="E17" s="30"/>
+      <c r="F17" s="30">
         <f t="shared" si="4"/>
         <v>0.15731176717271952</v>
       </c>
-      <c r="G17" s="45">
+      <c r="G17" s="30">
         <f t="shared" si="4"/>
         <v>0.15808279905116843</v>
       </c>
-      <c r="H17" s="45">
+      <c r="H17" s="30">
         <f t="shared" si="4"/>
         <v>0.19647881026674335</v>
       </c>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45">
+      <c r="I17" s="30"/>
+      <c r="J17" s="30">
         <f t="shared" si="4"/>
         <v>0.11467521448733137</v>
       </c>
-      <c r="K17" s="45">
+      <c r="K17" s="30">
         <f t="shared" si="4"/>
         <v>0.16308341729189887</v>
       </c>
-      <c r="L17" s="45">
+      <c r="L17" s="30">
         <f t="shared" si="4"/>
         <v>0.15808279905116843</v>
       </c>
-      <c r="M17" s="45">
+      <c r="M17" s="30">
         <f t="shared" si="4"/>
         <v>0.19647881026674335</v>
       </c>
       <c r="N17" s="24"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="37"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="49"/>
     </row>
     <row r="18" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="40" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="22">
@@ -8876,16 +8876,16 @@
         <v>1183.321686</v>
       </c>
       <c r="N18" s="22"/>
-      <c r="O18" s="33">
+      <c r="O18" s="45">
         <v>0.415715</v>
       </c>
-      <c r="P18" s="36">
+      <c r="P18" s="47">
         <v>-1.6017E-2</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="B19" s="48" t="s">
+      <c r="A19" s="54"/>
+      <c r="B19" s="33" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="22">
@@ -8918,64 +8918,64 @@
         <v>153.79639008117195</v>
       </c>
       <c r="N19" s="22"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="36"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="47"/>
     </row>
     <row r="20" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
-      <c r="B20" s="50" t="s">
+      <c r="A20" s="55"/>
+      <c r="B20" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="49">
+      <c r="C20" s="34">
         <f>C19/C18</f>
         <v>9.696066235519693E-2</v>
       </c>
-      <c r="D20" s="49">
+      <c r="D20" s="34">
         <f t="shared" ref="D20:M20" si="5">D19/D18</f>
         <v>0.17247926631526245</v>
       </c>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49">
+      <c r="E20" s="34"/>
+      <c r="F20" s="34">
         <f t="shared" si="5"/>
         <v>0.184842950904542</v>
       </c>
-      <c r="G20" s="49">
+      <c r="G20" s="34">
         <f t="shared" si="5"/>
         <v>9.696066235519693E-2</v>
       </c>
-      <c r="H20" s="49">
+      <c r="H20" s="34">
         <f t="shared" si="5"/>
         <v>0.12997005962178568</v>
       </c>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49">
+      <c r="I20" s="34"/>
+      <c r="J20" s="34">
         <f t="shared" si="5"/>
         <v>0.21234324145726538</v>
       </c>
-      <c r="K20" s="49">
+      <c r="K20" s="34">
         <f t="shared" si="5"/>
         <v>0.15034528812520706</v>
       </c>
-      <c r="L20" s="49">
+      <c r="L20" s="34">
         <f t="shared" si="5"/>
         <v>9.696066235519693E-2</v>
       </c>
-      <c r="M20" s="49">
+      <c r="M20" s="34">
         <f t="shared" si="5"/>
         <v>0.12997005962178568</v>
       </c>
       <c r="N20" s="22"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="36"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="47"/>
     </row>
     <row r="21" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="56">
+      <c r="C21" s="41">
         <v>546.92753400000004</v>
       </c>
       <c r="D21" s="25">
@@ -9005,19 +9005,19 @@
         <v>505.92089199999998</v>
       </c>
       <c r="N21" s="25"/>
-      <c r="O21" s="32">
+      <c r="O21" s="50">
         <v>0.425207</v>
       </c>
-      <c r="P21" s="35">
+      <c r="P21" s="48">
         <v>-3.3320000000000002E-2</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="38"/>
-      <c r="B22" s="48" t="s">
+      <c r="A22" s="54"/>
+      <c r="B22" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="57">
+      <c r="C22" s="42">
         <v>40.105464839595115</v>
       </c>
       <c r="D22" s="22">
@@ -9047,61 +9047,61 @@
         <v>32.017303868377176</v>
       </c>
       <c r="N22" s="22"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="36"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="47"/>
     </row>
     <row r="23" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
-      <c r="B23" s="48" t="s">
+      <c r="A23" s="54"/>
+      <c r="B23" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="44">
+      <c r="C23" s="29">
         <f>C22/C21</f>
         <v>7.3328663024661525E-2</v>
       </c>
-      <c r="D23" s="45">
+      <c r="D23" s="30">
         <f t="shared" ref="D23:M23" si="6">D22/D21</f>
         <v>9.6466620447521911E-2</v>
       </c>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45">
+      <c r="E23" s="30"/>
+      <c r="F23" s="30">
         <f t="shared" si="6"/>
         <v>9.967921248867527E-2</v>
       </c>
-      <c r="G23" s="45">
+      <c r="G23" s="30">
         <f t="shared" si="6"/>
         <v>7.3328663024661525E-2</v>
       </c>
-      <c r="H23" s="45">
+      <c r="H23" s="30">
         <f t="shared" si="6"/>
         <v>6.3285198090568623E-2</v>
       </c>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45">
+      <c r="I23" s="30"/>
+      <c r="J23" s="30">
         <f t="shared" si="6"/>
         <v>3.9464963523748432E-2</v>
       </c>
-      <c r="K23" s="45">
+      <c r="K23" s="30">
         <f t="shared" si="6"/>
         <v>0.10804591644479414</v>
       </c>
-      <c r="L23" s="45">
+      <c r="L23" s="30">
         <f t="shared" si="6"/>
         <v>7.3328663024661525E-2</v>
       </c>
-      <c r="M23" s="45">
+      <c r="M23" s="30">
         <f t="shared" si="6"/>
         <v>6.3285198090568623E-2</v>
       </c>
       <c r="N23" s="24"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="37"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="49"/>
     </row>
     <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="40" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="22">
@@ -9134,16 +9134,16 @@
         <v>86.171711999999999</v>
       </c>
       <c r="N24" s="22"/>
-      <c r="O24" s="33">
+      <c r="O24" s="45">
         <v>0.424012</v>
       </c>
-      <c r="P24" s="36">
+      <c r="P24" s="47">
         <v>0.291018</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
-      <c r="B25" s="48" t="s">
+      <c r="A25" s="54"/>
+      <c r="B25" s="33" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="22">
@@ -9176,64 +9176,64 @@
         <v>8.076926890841591</v>
       </c>
       <c r="N25" s="22"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="36"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="47"/>
     </row>
     <row r="26" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
-      <c r="B26" s="50" t="s">
+      <c r="A26" s="55"/>
+      <c r="B26" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="49">
+      <c r="C26" s="34">
         <f>C25/C24</f>
         <v>0.20559381630758156</v>
       </c>
-      <c r="D26" s="49">
+      <c r="D26" s="34">
         <f t="shared" ref="D26:M26" si="7">D25/D24</f>
         <v>0.20130682488877435</v>
       </c>
-      <c r="E26" s="49"/>
-      <c r="F26" s="51">
+      <c r="E26" s="34"/>
+      <c r="F26" s="36">
         <f t="shared" si="7"/>
         <v>0.21009499014032781</v>
       </c>
-      <c r="G26" s="51">
+      <c r="G26" s="36">
         <f t="shared" si="7"/>
         <v>0.20559381630758156</v>
       </c>
-      <c r="H26" s="49">
+      <c r="H26" s="34">
         <f t="shared" si="7"/>
         <v>9.3730607218777212E-2</v>
       </c>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49">
+      <c r="I26" s="34"/>
+      <c r="J26" s="34">
         <f t="shared" si="7"/>
         <v>0.18840677754810628</v>
       </c>
-      <c r="K26" s="49">
+      <c r="K26" s="34">
         <f t="shared" si="7"/>
         <v>0.23025485501154941</v>
       </c>
-      <c r="L26" s="49">
+      <c r="L26" s="34">
         <f t="shared" si="7"/>
         <v>0.20559381630758156</v>
       </c>
-      <c r="M26" s="49">
+      <c r="M26" s="34">
         <f t="shared" si="7"/>
         <v>9.3730607218777212E-2</v>
       </c>
       <c r="N26" s="22"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="36"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="47"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="56">
+      <c r="C27" s="41">
         <v>0.97616899999999995</v>
       </c>
       <c r="D27" s="25">
@@ -9263,19 +9263,19 @@
         <v>0.96520300000000003</v>
       </c>
       <c r="N27" s="25"/>
-      <c r="O27" s="32">
+      <c r="O27" s="50">
         <v>-4.3986999999999998E-2</v>
       </c>
-      <c r="P27" s="35">
+      <c r="P27" s="48">
         <v>-0.118243</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="48" t="s">
+      <c r="A28" s="52"/>
+      <c r="B28" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="57">
+      <c r="C28" s="42">
         <v>7.3484692283495344E-3</v>
       </c>
       <c r="D28" s="22">
@@ -9305,91 +9305,91 @@
         <v>1.5132745950421557E-2</v>
       </c>
       <c r="N28" s="22"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="36"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="47"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="50" t="s">
+      <c r="A29" s="53"/>
+      <c r="B29" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="44">
+      <c r="C29" s="29">
         <f>C28/C27</f>
         <v>7.5278657981861083E-3</v>
       </c>
-      <c r="D29" s="45">
+      <c r="D29" s="30">
         <f t="shared" ref="D29:M29" si="8">D28/D27</f>
         <v>1.6010929157417673E-2</v>
       </c>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45">
+      <c r="E29" s="30"/>
+      <c r="F29" s="30">
         <f t="shared" si="8"/>
         <v>1.676002594417814E-2</v>
       </c>
-      <c r="G29" s="45">
+      <c r="G29" s="30">
         <f t="shared" si="8"/>
         <v>7.5278657981861083E-3</v>
       </c>
-      <c r="H29" s="45">
+      <c r="H29" s="30">
         <f t="shared" si="8"/>
         <v>1.5678303890913681E-2</v>
       </c>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45">
+      <c r="I29" s="30"/>
+      <c r="J29" s="30">
         <f t="shared" si="8"/>
         <v>1.0894680345505199E-2</v>
       </c>
-      <c r="K29" s="45">
+      <c r="K29" s="30">
         <f t="shared" si="8"/>
         <v>1.1707046862112325E-2</v>
       </c>
-      <c r="L29" s="45">
+      <c r="L29" s="30">
         <f t="shared" si="8"/>
         <v>7.5278657981861083E-3</v>
       </c>
-      <c r="M29" s="45">
+      <c r="M29" s="30">
         <f t="shared" si="8"/>
         <v>1.5678303890913681E-2</v>
       </c>
       <c r="N29" s="24"/>
-      <c r="O29" s="34"/>
-      <c r="P29" s="37"/>
+      <c r="O29" s="46"/>
+      <c r="P29" s="49"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="34"/>
-      <c r="C30" s="52">
+      <c r="B30" s="46"/>
+      <c r="C30" s="37">
         <v>0.87</v>
       </c>
-      <c r="D30" s="53">
+      <c r="D30" s="38">
         <v>0.87</v>
       </c>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53">
+      <c r="E30" s="38"/>
+      <c r="F30" s="38">
         <v>0.91</v>
       </c>
-      <c r="G30" s="53">
+      <c r="G30" s="38">
         <v>0.87</v>
       </c>
-      <c r="H30" s="53">
+      <c r="H30" s="38">
         <v>0.8</v>
       </c>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53">
+      <c r="I30" s="38"/>
+      <c r="J30" s="38">
         <v>0.91</v>
       </c>
-      <c r="K30" s="53">
+      <c r="K30" s="38">
         <v>0.9</v>
       </c>
-      <c r="L30" s="53">
+      <c r="L30" s="38">
         <v>0.87</v>
       </c>
-      <c r="M30" s="53">
+      <c r="M30" s="38">
         <v>0.8</v>
       </c>
-      <c r="N30" s="54"/>
+      <c r="N30" s="39"/>
       <c r="O30" s="22"/>
       <c r="P30" s="22"/>
     </row>
@@ -9488,24 +9488,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="O3:O5"/>
-    <mergeCell ref="P3:P5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="O6:O8"/>
-    <mergeCell ref="P6:P8"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="O9:O11"/>
-    <mergeCell ref="P9:P11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="P12:P14"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="O27:O29"/>
     <mergeCell ref="P27:P29"/>
@@ -9522,10 +9504,28 @@
     <mergeCell ref="P15:P17"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="O18:O20"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="O9:O11"/>
+    <mergeCell ref="P9:P11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="O3:O5"/>
+    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="E3 I3">
-    <cfRule type="colorScale" priority="46">
+  <conditionalFormatting sqref="E3 N3">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9536,16 +9536,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
     <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6 I6">
-    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9572,8 +9562,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="colorScale" priority="56">
+  <conditionalFormatting sqref="E9 I9">
+    <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9582,8 +9572,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12 I12">
-    <cfRule type="colorScale" priority="59">
+  <conditionalFormatting sqref="E9 N9">
+    <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9592,8 +9582,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12 N12">
-    <cfRule type="colorScale" priority="36">
+  <conditionalFormatting sqref="E9">
+    <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9612,56 +9602,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E15 N15">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18 I18">
-    <cfRule type="colorScale" priority="69">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18 N18">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21 I21">
-    <cfRule type="colorScale" priority="74">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21 N21">
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E21">
     <cfRule type="colorScale" priority="76">
       <colorScale>
@@ -9672,8 +9612,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24 N24">
-    <cfRule type="colorScale" priority="40">
+  <conditionalFormatting sqref="E24 I24">
+    <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9684,16 +9624,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
     <cfRule type="colorScale" priority="81">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27 I27">
-    <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9812,8 +9742,28 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9 E9">
-    <cfRule type="colorScale" priority="54">
+  <conditionalFormatting sqref="I3 E3">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6 E6">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12 E12">
+    <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9823,6 +9773,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15 E15">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
@@ -9831,7 +9789,9 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="64">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18 E18">
+    <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9850,8 +9810,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24 E24">
-    <cfRule type="colorScale" priority="79">
+  <conditionalFormatting sqref="I21 E21">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27 E27">
+    <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9870,8 +9840,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3 E3">
-    <cfRule type="colorScale" priority="34">
+  <conditionalFormatting sqref="N12 E12">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9880,8 +9850,38 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N9 E9">
-    <cfRule type="colorScale" priority="35">
+  <conditionalFormatting sqref="N15 E15">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N18 E18">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N21 E21">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N24 E24">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9936,7 +9936,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:B1"/>
+      <selection pane="topRight" activeCell="W30" sqref="W30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9957,92 +9957,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45">
         <v>2</v>
       </c>
-      <c r="D1" s="33"/>
+      <c r="D1" s="45"/>
       <c r="E1" s="22"/>
-      <c r="F1" s="33">
+      <c r="F1" s="45">
         <v>3</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
       <c r="I1" s="22"/>
-      <c r="J1" s="41">
+      <c r="J1" s="57">
         <v>4</v>
       </c>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
       <c r="N1" s="22"/>
-      <c r="O1" s="33">
+      <c r="O1" s="45">
         <v>5</v>
       </c>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
       <c r="T1" s="22"/>
-      <c r="U1" s="33" t="s">
+      <c r="U1" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="33"/>
+      <c r="V1" s="45"/>
     </row>
     <row r="2" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="42">
-        <v>1</v>
-      </c>
-      <c r="D2" s="42">
+      <c r="B2" s="46"/>
+      <c r="C2" s="27">
+        <v>1</v>
+      </c>
+      <c r="D2" s="27">
         <v>2</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42">
-        <v>1</v>
-      </c>
-      <c r="G2" s="42">
+      <c r="E2" s="27"/>
+      <c r="F2" s="27">
+        <v>1</v>
+      </c>
+      <c r="G2" s="27">
         <v>2</v>
       </c>
-      <c r="H2" s="42">
+      <c r="H2" s="27">
         <v>3</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42">
-        <v>1</v>
-      </c>
-      <c r="K2" s="42">
+      <c r="I2" s="27"/>
+      <c r="J2" s="27">
+        <v>1</v>
+      </c>
+      <c r="K2" s="27">
         <v>2</v>
       </c>
-      <c r="L2" s="42">
+      <c r="L2" s="27">
         <v>3</v>
       </c>
-      <c r="M2" s="42">
+      <c r="M2" s="27">
         <v>4</v>
       </c>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42">
-        <v>1</v>
-      </c>
-      <c r="P2" s="42">
+      <c r="N2" s="27"/>
+      <c r="O2" s="27">
+        <v>1</v>
+      </c>
+      <c r="P2" s="27">
         <v>2</v>
       </c>
-      <c r="Q2" s="42">
+      <c r="Q2" s="27">
         <v>3</v>
       </c>
-      <c r="R2" s="42">
+      <c r="R2" s="27">
         <v>5</v>
       </c>
-      <c r="S2" s="42">
+      <c r="S2" s="27">
         <v>4</v>
       </c>
-      <c r="T2" s="42"/>
+      <c r="T2" s="27"/>
       <c r="U2" s="22">
         <v>1</v>
       </c>
@@ -10051,13 +10051,13 @@
       </c>
     </row>
     <row r="3" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="56">
+      <c r="C3" s="41">
         <v>149.41666699999999</v>
       </c>
       <c r="D3" s="25">
@@ -10103,10 +10103,10 @@
         <v>300.2</v>
       </c>
       <c r="T3" s="25"/>
-      <c r="U3" s="32">
+      <c r="U3" s="50">
         <v>-0.33963700000000002</v>
       </c>
-      <c r="V3" s="35">
+      <c r="V3" s="48">
         <v>0.42593500000000001</v>
       </c>
       <c r="X3" s="20"/>
@@ -10120,11 +10120,11 @@
       <c r="AF3" s="20"/>
     </row>
     <row r="4" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="48" t="s">
+      <c r="A4" s="54"/>
+      <c r="B4" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="57">
+      <c r="C4" s="42">
         <v>36.747191198784158</v>
       </c>
       <c r="D4" s="22">
@@ -10170,8 +10170,8 @@
         <v>48.41435737464662</v>
       </c>
       <c r="T4" s="22"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="36"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="47"/>
       <c r="X4" s="20"/>
       <c r="Y4" s="20"/>
       <c r="Z4" s="20"/>
@@ -10183,78 +10183,78 @@
       <c r="AF4" s="20"/>
     </row>
     <row r="5" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="29">
         <f>C4/C3</f>
         <v>0.24593769849506922</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="30">
         <f t="shared" ref="D5:S5" si="0">D4/D3</f>
         <v>0.20867316210256989</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45">
+      <c r="E5" s="30"/>
+      <c r="F5" s="30">
         <f t="shared" si="0"/>
         <v>0.24593769849506922</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="30">
         <f t="shared" si="0"/>
         <v>0.19408613051287416</v>
       </c>
-      <c r="H5" s="45">
+      <c r="H5" s="30">
         <f t="shared" si="0"/>
         <v>0.20886624810681667</v>
       </c>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45">
+      <c r="I5" s="30"/>
+      <c r="J5" s="30">
         <f t="shared" si="0"/>
         <v>0.13255200371597062</v>
       </c>
-      <c r="K5" s="46">
+      <c r="K5" s="31">
         <f t="shared" si="0"/>
         <v>0.24168862334114799</v>
       </c>
-      <c r="L5" s="45">
+      <c r="L5" s="30">
         <f t="shared" si="0"/>
         <v>0.19408613051287416</v>
       </c>
-      <c r="M5" s="46">
+      <c r="M5" s="31">
         <f t="shared" si="0"/>
         <v>0.20886624810681667</v>
       </c>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45">
+      <c r="N5" s="30"/>
+      <c r="O5" s="30">
         <f t="shared" si="0"/>
         <v>0.13255200371597062</v>
       </c>
-      <c r="P5" s="45">
+      <c r="P5" s="30">
         <f t="shared" si="0"/>
         <v>0.24168862334114799</v>
       </c>
-      <c r="Q5" s="45">
+      <c r="Q5" s="30">
         <f t="shared" si="0"/>
         <v>0.19408613051287416</v>
       </c>
-      <c r="R5" s="45">
+      <c r="R5" s="30">
         <f t="shared" si="0"/>
         <v>0.12415349887133183</v>
       </c>
-      <c r="S5" s="45">
+      <c r="S5" s="30">
         <f t="shared" si="0"/>
         <v>0.16127367546517862</v>
       </c>
       <c r="T5" s="24"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="37"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="49"/>
     </row>
     <row r="6" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="22">
@@ -10303,16 +10303,16 @@
         <v>963.53767200000004</v>
       </c>
       <c r="T6" s="22"/>
-      <c r="U6" s="33">
+      <c r="U6" s="45">
         <v>0.461256</v>
       </c>
-      <c r="V6" s="36">
+      <c r="V6" s="47">
         <v>0.161083</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="48" t="s">
+      <c r="A7" s="54"/>
+      <c r="B7" s="33" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="22">
@@ -10361,85 +10361,85 @@
         <v>68.108429918769971</v>
       </c>
       <c r="T7" s="22"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="36"/>
+      <c r="U7" s="45"/>
+      <c r="V7" s="47"/>
     </row>
     <row r="8" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="34">
         <f>C7/C6</f>
         <v>0.14607905452105827</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="34">
         <f t="shared" ref="D8:S8" si="1">D7/D6</f>
         <v>0.13483719896772087</v>
       </c>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49">
+      <c r="E8" s="34"/>
+      <c r="F8" s="34">
         <f t="shared" si="1"/>
         <v>0.14607905452105827</v>
       </c>
-      <c r="G8" s="49">
+      <c r="G8" s="34">
         <f t="shared" si="1"/>
         <v>0.122129456678577</v>
       </c>
-      <c r="H8" s="49">
+      <c r="H8" s="34">
         <f t="shared" si="1"/>
         <v>8.802870191527816E-2</v>
       </c>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49">
+      <c r="I8" s="34"/>
+      <c r="J8" s="34">
         <f t="shared" si="1"/>
         <v>0.12690808178233581</v>
       </c>
-      <c r="K8" s="49">
+      <c r="K8" s="34">
         <f t="shared" si="1"/>
         <v>9.5225864471109256E-2</v>
       </c>
-      <c r="L8" s="49">
+      <c r="L8" s="34">
         <f t="shared" si="1"/>
         <v>0.122129456678577</v>
       </c>
-      <c r="M8" s="49">
+      <c r="M8" s="34">
         <f t="shared" si="1"/>
         <v>8.802870191527816E-2</v>
       </c>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49">
+      <c r="N8" s="34"/>
+      <c r="O8" s="34">
         <f t="shared" si="1"/>
         <v>0.12690808178233581</v>
       </c>
-      <c r="P8" s="49">
+      <c r="P8" s="34">
         <f t="shared" si="1"/>
         <v>9.5225864471109256E-2</v>
       </c>
-      <c r="Q8" s="49">
+      <c r="Q8" s="34">
         <f t="shared" si="1"/>
         <v>0.122129456678577</v>
       </c>
-      <c r="R8" s="49">
+      <c r="R8" s="34">
         <f t="shared" si="1"/>
         <v>9.4418252832428273E-2</v>
       </c>
-      <c r="S8" s="49">
+      <c r="S8" s="34">
         <f t="shared" si="1"/>
         <v>7.0685798695756613E-2</v>
       </c>
       <c r="T8" s="22"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="36"/>
+      <c r="U8" s="45"/>
+      <c r="V8" s="47"/>
     </row>
     <row r="9" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="56">
+      <c r="C9" s="41">
         <v>580.54166699999996</v>
       </c>
       <c r="D9" s="25">
@@ -10485,19 +10485,19 @@
         <v>1046.5999999999999</v>
       </c>
       <c r="T9" s="25"/>
-      <c r="U9" s="32">
+      <c r="U9" s="50">
         <v>-0.36423</v>
       </c>
-      <c r="V9" s="35">
+      <c r="V9" s="48">
         <v>0.41688399999999998</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
-      <c r="B10" s="48" t="s">
+      <c r="A10" s="54"/>
+      <c r="B10" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="57">
+      <c r="C10" s="42">
         <v>148.58735697225387</v>
       </c>
       <c r="D10" s="22">
@@ -10543,82 +10543,82 @@
         <v>103.40901798199226</v>
       </c>
       <c r="T10" s="22"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="36"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="47"/>
     </row>
     <row r="11" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="50" t="s">
+      <c r="A11" s="55"/>
+      <c r="B11" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="29">
         <f>C10/C9</f>
         <v>0.25594606798869768</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="30">
         <f t="shared" ref="D11:S11" si="2">D10/D9</f>
         <v>0.18663163367048655</v>
       </c>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45">
+      <c r="E11" s="30"/>
+      <c r="F11" s="30">
         <f t="shared" si="2"/>
         <v>0.25594606798869768</v>
       </c>
-      <c r="G11" s="45">
+      <c r="G11" s="30">
         <f t="shared" si="2"/>
         <v>0.1892177514717599</v>
       </c>
-      <c r="H11" s="45">
+      <c r="H11" s="30">
         <f t="shared" si="2"/>
         <v>0.18589590051781871</v>
       </c>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45">
+      <c r="I11" s="30"/>
+      <c r="J11" s="30">
         <f t="shared" si="2"/>
         <v>0.16006210394251269</v>
       </c>
-      <c r="K11" s="46">
+      <c r="K11" s="31">
         <f t="shared" si="2"/>
         <v>0.26874529267104269</v>
       </c>
-      <c r="L11" s="45">
+      <c r="L11" s="30">
         <f t="shared" si="2"/>
         <v>0.1892177514717599</v>
       </c>
-      <c r="M11" s="45">
+      <c r="M11" s="30">
         <f t="shared" si="2"/>
         <v>0.18589590051781871</v>
       </c>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45">
+      <c r="N11" s="30"/>
+      <c r="O11" s="30">
         <f t="shared" si="2"/>
         <v>0.16006210394251269</v>
       </c>
-      <c r="P11" s="45">
+      <c r="P11" s="30">
         <f t="shared" si="2"/>
         <v>0.26874529267104269</v>
       </c>
-      <c r="Q11" s="45">
+      <c r="Q11" s="30">
         <f t="shared" si="2"/>
         <v>0.1892177514717599</v>
       </c>
-      <c r="R11" s="45">
+      <c r="R11" s="30">
         <f t="shared" si="2"/>
         <v>0.16783027947235912</v>
       </c>
-      <c r="S11" s="45">
+      <c r="S11" s="30">
         <f t="shared" si="2"/>
         <v>9.8804718117707122E-2</v>
       </c>
       <c r="T11" s="24"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="37"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="49"/>
     </row>
     <row r="12" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="22">
@@ -10667,16 +10667,16 @@
         <v>12.494548</v>
       </c>
       <c r="T12" s="22"/>
-      <c r="U12" s="33">
+      <c r="U12" s="45">
         <v>-0.28797299999999998</v>
       </c>
-      <c r="V12" s="36">
+      <c r="V12" s="47">
         <v>-0.17630399999999999</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="48" t="s">
+      <c r="A13" s="54"/>
+      <c r="B13" s="33" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="22">
@@ -10725,85 +10725,85 @@
         <v>0.30815255961941967</v>
       </c>
       <c r="T13" s="22"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="36"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="47"/>
     </row>
     <row r="14" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
-      <c r="B14" s="50" t="s">
+      <c r="A14" s="55"/>
+      <c r="B14" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C14" s="34">
         <f>C13/C12</f>
         <v>0.10268693062542199</v>
       </c>
-      <c r="D14" s="49">
+      <c r="D14" s="34">
         <f t="shared" ref="D14:S14" si="3">D13/D12</f>
         <v>6.5456129887310477E-2</v>
       </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49">
+      <c r="E14" s="34"/>
+      <c r="F14" s="34">
         <f t="shared" si="3"/>
         <v>0.10268693062542199</v>
       </c>
-      <c r="G14" s="49">
+      <c r="G14" s="34">
         <f t="shared" si="3"/>
         <v>5.310191786076808E-2</v>
       </c>
-      <c r="H14" s="49">
+      <c r="H14" s="34">
         <f t="shared" si="3"/>
         <v>6.5903214517902514E-2</v>
       </c>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49">
+      <c r="I14" s="34"/>
+      <c r="J14" s="34">
         <f t="shared" si="3"/>
         <v>0.11414038474591844</v>
       </c>
-      <c r="K14" s="49">
+      <c r="K14" s="34">
         <f t="shared" si="3"/>
         <v>8.4578834232978628E-2</v>
       </c>
-      <c r="L14" s="49">
+      <c r="L14" s="34">
         <f t="shared" si="3"/>
         <v>5.310191786076808E-2</v>
       </c>
-      <c r="M14" s="49">
+      <c r="M14" s="34">
         <f t="shared" si="3"/>
         <v>6.5903214517902514E-2</v>
       </c>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49">
+      <c r="N14" s="34"/>
+      <c r="O14" s="34">
         <f t="shared" si="3"/>
         <v>0.11414038474591844</v>
       </c>
-      <c r="P14" s="49">
+      <c r="P14" s="34">
         <f t="shared" si="3"/>
         <v>8.4578834232978628E-2</v>
       </c>
-      <c r="Q14" s="49">
+      <c r="Q14" s="34">
         <f t="shared" si="3"/>
         <v>5.310191786076808E-2</v>
       </c>
-      <c r="R14" s="49">
+      <c r="R14" s="34">
         <f t="shared" si="3"/>
         <v>5.9340060232276011E-2</v>
       </c>
-      <c r="S14" s="49">
+      <c r="S14" s="34">
         <f t="shared" si="3"/>
         <v>2.4662961766957852E-2</v>
       </c>
       <c r="T14" s="22"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="36"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="47"/>
     </row>
     <row r="15" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="56">
+      <c r="C15" s="41">
         <v>315.77373299999999</v>
       </c>
       <c r="D15" s="25">
@@ -10849,19 +10849,19 @@
         <v>255.87422000000001</v>
       </c>
       <c r="T15" s="25"/>
-      <c r="U15" s="32">
+      <c r="U15" s="50">
         <v>0.47454000000000002</v>
       </c>
-      <c r="V15" s="35">
+      <c r="V15" s="48">
         <v>0.22032199999999999</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
-      <c r="B16" s="48" t="s">
+      <c r="A16" s="54"/>
+      <c r="B16" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="57">
+      <c r="C16" s="42">
         <v>57.171905172033583</v>
       </c>
       <c r="D16" s="22">
@@ -10907,82 +10907,82 @@
         <v>21.723481534965799</v>
       </c>
       <c r="T16" s="22"/>
-      <c r="U16" s="33"/>
-      <c r="V16" s="36"/>
+      <c r="U16" s="45"/>
+      <c r="V16" s="47"/>
     </row>
     <row r="17" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="48" t="s">
+      <c r="A17" s="54"/>
+      <c r="B17" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="44">
+      <c r="C17" s="29">
         <f>C16/C15</f>
         <v>0.18105339107491117</v>
       </c>
-      <c r="D17" s="45">
+      <c r="D17" s="30">
         <f t="shared" ref="D17:S17" si="4">D16/D15</f>
         <v>0.15877123425711537</v>
       </c>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45">
+      <c r="E17" s="30"/>
+      <c r="F17" s="30">
         <f t="shared" si="4"/>
         <v>0.18105339107491117</v>
       </c>
-      <c r="G17" s="45">
+      <c r="G17" s="30">
         <f t="shared" si="4"/>
         <v>0.14459070137561061</v>
       </c>
-      <c r="H17" s="45">
+      <c r="H17" s="30">
         <f t="shared" si="4"/>
         <v>9.5182925038201027E-2</v>
       </c>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45">
+      <c r="I17" s="30"/>
+      <c r="J17" s="30">
         <f t="shared" si="4"/>
         <v>9.6791656113229915E-2</v>
       </c>
-      <c r="K17" s="45">
+      <c r="K17" s="30">
         <f t="shared" si="4"/>
         <v>0.11026039168691475</v>
       </c>
-      <c r="L17" s="45">
+      <c r="L17" s="30">
         <f t="shared" si="4"/>
         <v>0.14459070137561061</v>
       </c>
-      <c r="M17" s="45">
+      <c r="M17" s="30">
         <f t="shared" si="4"/>
         <v>9.5182925038201027E-2</v>
       </c>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45">
+      <c r="N17" s="30"/>
+      <c r="O17" s="30">
         <f t="shared" si="4"/>
         <v>9.6791656113229915E-2</v>
       </c>
-      <c r="P17" s="45">
+      <c r="P17" s="30">
         <f t="shared" si="4"/>
         <v>0.11026039168691475</v>
       </c>
-      <c r="Q17" s="45">
+      <c r="Q17" s="30">
         <f t="shared" si="4"/>
         <v>0.14459070137561061</v>
       </c>
-      <c r="R17" s="45">
+      <c r="R17" s="30">
         <f t="shared" si="4"/>
         <v>9.9413137288814638E-2</v>
       </c>
-      <c r="S17" s="45">
+      <c r="S17" s="30">
         <f t="shared" si="4"/>
         <v>8.4899063043419529E-2</v>
       </c>
       <c r="T17" s="24"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="37"/>
+      <c r="U17" s="46"/>
+      <c r="V17" s="49"/>
     </row>
     <row r="18" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="22">
@@ -11031,16 +11031,16 @@
         <v>1194.846669</v>
       </c>
       <c r="T18" s="22"/>
-      <c r="U18" s="33">
+      <c r="U18" s="45">
         <v>0.21635299999999999</v>
       </c>
-      <c r="V18" s="36">
+      <c r="V18" s="47">
         <v>0.36393399999999998</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="B19" s="48" t="s">
+      <c r="A19" s="54"/>
+      <c r="B19" s="33" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="22">
@@ -11089,85 +11089,85 @@
         <v>261.5197644557673</v>
       </c>
       <c r="T19" s="22"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="36"/>
+      <c r="U19" s="45"/>
+      <c r="V19" s="47"/>
     </row>
     <row r="20" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
-      <c r="B20" s="50" t="s">
+      <c r="A20" s="55"/>
+      <c r="B20" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="49">
+      <c r="C20" s="34">
         <f>C19/C18</f>
         <v>0.15677002829592399</v>
       </c>
-      <c r="D20" s="49">
+      <c r="D20" s="34">
         <f t="shared" ref="D20:S20" si="5">D19/D18</f>
         <v>0.16485587317419964</v>
       </c>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49">
+      <c r="E20" s="34"/>
+      <c r="F20" s="34">
         <f t="shared" si="5"/>
         <v>0.15677002829592399</v>
       </c>
-      <c r="G20" s="49">
+      <c r="G20" s="34">
         <f t="shared" si="5"/>
         <v>0.13736542226622997</v>
       </c>
-      <c r="H20" s="49">
+      <c r="H20" s="34">
         <f t="shared" si="5"/>
         <v>0.16400079689492214</v>
       </c>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49">
+      <c r="I20" s="34"/>
+      <c r="J20" s="34">
         <f t="shared" si="5"/>
         <v>0.12520824925911769</v>
       </c>
-      <c r="K20" s="49">
+      <c r="K20" s="34">
         <f t="shared" si="5"/>
         <v>7.9327895991786107E-2</v>
       </c>
-      <c r="L20" s="49">
+      <c r="L20" s="34">
         <f t="shared" si="5"/>
         <v>0.13736542226622997</v>
       </c>
-      <c r="M20" s="49">
+      <c r="M20" s="34">
         <f t="shared" si="5"/>
         <v>0.16400079689492214</v>
       </c>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49">
+      <c r="N20" s="34"/>
+      <c r="O20" s="34">
         <f t="shared" si="5"/>
         <v>0.12520824925911769</v>
       </c>
-      <c r="P20" s="49">
+      <c r="P20" s="34">
         <f t="shared" si="5"/>
         <v>7.9327895991786107E-2</v>
       </c>
-      <c r="Q20" s="49">
+      <c r="Q20" s="34">
         <f t="shared" si="5"/>
         <v>0.13736542226622997</v>
       </c>
-      <c r="R20" s="49">
+      <c r="R20" s="34">
         <f t="shared" si="5"/>
         <v>0.13895235639820236</v>
       </c>
-      <c r="S20" s="49">
+      <c r="S20" s="34">
         <f t="shared" si="5"/>
         <v>0.21887307488134888</v>
       </c>
       <c r="T20" s="22"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="36"/>
+      <c r="U20" s="45"/>
+      <c r="V20" s="47"/>
     </row>
     <row r="21" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="56">
+      <c r="C21" s="41">
         <v>486.53745800000002</v>
       </c>
       <c r="D21" s="25">
@@ -11213,19 +11213,19 @@
         <v>451.04004400000002</v>
       </c>
       <c r="T21" s="25"/>
-      <c r="U21" s="32">
+      <c r="U21" s="50">
         <v>0.400617</v>
       </c>
-      <c r="V21" s="35">
+      <c r="V21" s="48">
         <v>0.17532900000000001</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="38"/>
-      <c r="B22" s="48" t="s">
+      <c r="A22" s="54"/>
+      <c r="B22" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="57">
+      <c r="C22" s="42">
         <v>44.926858314375821</v>
       </c>
       <c r="D22" s="22">
@@ -11271,82 +11271,82 @@
         <v>27.061307581120317</v>
       </c>
       <c r="T22" s="22"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="36"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="47"/>
     </row>
     <row r="23" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
-      <c r="B23" s="48" t="s">
+      <c r="A23" s="54"/>
+      <c r="B23" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="44">
+      <c r="C23" s="29">
         <f>C22/C21</f>
         <v>9.2339978301066022E-2</v>
       </c>
-      <c r="D23" s="45">
+      <c r="D23" s="30">
         <f t="shared" ref="D23:S23" si="6">D22/D21</f>
         <v>9.9034618807579258E-2</v>
       </c>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45">
+      <c r="E23" s="30"/>
+      <c r="F23" s="30">
         <f t="shared" si="6"/>
         <v>9.2339978301066022E-2</v>
       </c>
-      <c r="G23" s="45">
+      <c r="G23" s="30">
         <f t="shared" si="6"/>
         <v>9.6968685667575855E-2</v>
       </c>
-      <c r="H23" s="45">
+      <c r="H23" s="30">
         <f t="shared" si="6"/>
         <v>5.6218054917903992E-2</v>
       </c>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45">
+      <c r="I23" s="30"/>
+      <c r="J23" s="30">
         <f t="shared" si="6"/>
         <v>6.9047149869438759E-2</v>
       </c>
-      <c r="K23" s="45">
+      <c r="K23" s="30">
         <f t="shared" si="6"/>
         <v>9.8342255004991497E-2</v>
       </c>
-      <c r="L23" s="45">
+      <c r="L23" s="30">
         <f t="shared" si="6"/>
         <v>9.6968685667575855E-2</v>
       </c>
-      <c r="M23" s="45">
+      <c r="M23" s="30">
         <f t="shared" si="6"/>
         <v>5.6218054917903992E-2</v>
       </c>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45">
+      <c r="N23" s="30"/>
+      <c r="O23" s="30">
         <f t="shared" si="6"/>
         <v>6.9047149869438759E-2</v>
       </c>
-      <c r="P23" s="45">
+      <c r="P23" s="30">
         <f t="shared" si="6"/>
         <v>9.8342255004991497E-2</v>
       </c>
-      <c r="Q23" s="45">
+      <c r="Q23" s="30">
         <f t="shared" si="6"/>
         <v>9.6968685667575855E-2</v>
       </c>
-      <c r="R23" s="45">
+      <c r="R23" s="30">
         <f t="shared" si="6"/>
         <v>5.5225770635501582E-2</v>
       </c>
-      <c r="S23" s="45">
+      <c r="S23" s="30">
         <f t="shared" si="6"/>
         <v>5.9997572147098131E-2</v>
       </c>
       <c r="T23" s="24"/>
-      <c r="U23" s="34"/>
-      <c r="V23" s="37"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="49"/>
     </row>
     <row r="24" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="22">
@@ -11395,16 +11395,16 @@
         <v>122.930104</v>
       </c>
       <c r="T24" s="22"/>
-      <c r="U24" s="33">
+      <c r="U24" s="45">
         <v>-8.9659000000000003E-2</v>
       </c>
-      <c r="V24" s="36">
+      <c r="V24" s="47">
         <v>0.55726699999999996</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
-      <c r="B25" s="48" t="s">
+      <c r="A25" s="54"/>
+      <c r="B25" s="33" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="22">
@@ -11453,85 +11453,85 @@
         <v>16.131675052517018</v>
       </c>
       <c r="T25" s="22"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="36"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="47"/>
     </row>
     <row r="26" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
-      <c r="B26" s="50" t="s">
+      <c r="A26" s="55"/>
+      <c r="B26" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="49">
+      <c r="C26" s="34">
         <f>C25/C24</f>
         <v>0.26895949291087012</v>
       </c>
-      <c r="D26" s="49">
+      <c r="D26" s="34">
         <f t="shared" ref="D26:S26" si="7">D25/D24</f>
         <v>0.20093568271887863</v>
       </c>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49">
+      <c r="E26" s="34"/>
+      <c r="F26" s="34">
         <f t="shared" si="7"/>
         <v>0.26895949291087012</v>
       </c>
-      <c r="G26" s="49">
+      <c r="G26" s="34">
         <f t="shared" si="7"/>
         <v>0.1792988810153204</v>
       </c>
-      <c r="H26" s="49">
+      <c r="H26" s="34">
         <f t="shared" si="7"/>
         <v>0.16866598486896556</v>
       </c>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49">
+      <c r="I26" s="34"/>
+      <c r="J26" s="34">
         <f t="shared" si="7"/>
         <v>0.17677649486521632</v>
       </c>
-      <c r="K26" s="51">
+      <c r="K26" s="36">
         <f t="shared" si="7"/>
         <v>0.21405995346092058</v>
       </c>
-      <c r="L26" s="49">
+      <c r="L26" s="34">
         <f t="shared" si="7"/>
         <v>0.1792988810153204</v>
       </c>
-      <c r="M26" s="49">
+      <c r="M26" s="34">
         <f t="shared" si="7"/>
         <v>0.16866598486896556</v>
       </c>
-      <c r="N26" s="49"/>
-      <c r="O26" s="49">
+      <c r="N26" s="34"/>
+      <c r="O26" s="34">
         <f t="shared" si="7"/>
         <v>0.17677649486521632</v>
       </c>
-      <c r="P26" s="49">
+      <c r="P26" s="34">
         <f t="shared" si="7"/>
         <v>0.21405995346092058</v>
       </c>
-      <c r="Q26" s="49">
+      <c r="Q26" s="34">
         <f t="shared" si="7"/>
         <v>0.1792988810153204</v>
       </c>
-      <c r="R26" s="49">
+      <c r="R26" s="34">
         <f t="shared" si="7"/>
         <v>0.13934851188918118</v>
       </c>
-      <c r="S26" s="49">
+      <c r="S26" s="34">
         <f t="shared" si="7"/>
         <v>0.1312264004309068</v>
       </c>
       <c r="T26" s="22"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="36"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="47"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="56">
+      <c r="C27" s="41">
         <v>0.97012900000000002</v>
       </c>
       <c r="D27" s="25">
@@ -11577,19 +11577,19 @@
         <v>0.96814999999999996</v>
       </c>
       <c r="T27" s="25"/>
-      <c r="U27" s="32">
+      <c r="U27" s="50">
         <v>0.12556899999999999</v>
       </c>
-      <c r="V27" s="35">
+      <c r="V27" s="48">
         <v>-0.25589000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="48" t="s">
+      <c r="A28" s="52"/>
+      <c r="B28" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="57">
+      <c r="C28" s="42">
         <v>1.1090536506409418E-2</v>
       </c>
       <c r="D28" s="22">
@@ -11635,128 +11635,128 @@
         <v>6.2449979983983982E-3</v>
       </c>
       <c r="T28" s="22"/>
-      <c r="U28" s="33"/>
-      <c r="V28" s="36"/>
+      <c r="U28" s="45"/>
+      <c r="V28" s="47"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="50" t="s">
+      <c r="A29" s="53"/>
+      <c r="B29" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="44">
+      <c r="C29" s="29">
         <f>C28/C27</f>
         <v>1.1432022448982988E-2</v>
       </c>
-      <c r="D29" s="45">
+      <c r="D29" s="30">
         <f t="shared" ref="D29:S29" si="8">D28/D27</f>
         <v>1.0357724739321963E-2</v>
       </c>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45">
+      <c r="E29" s="30"/>
+      <c r="F29" s="30">
         <f t="shared" si="8"/>
         <v>1.1432022448982988E-2</v>
       </c>
-      <c r="G29" s="45">
+      <c r="G29" s="30">
         <f t="shared" si="8"/>
         <v>4.3624465569117527E-3</v>
       </c>
-      <c r="H29" s="45">
+      <c r="H29" s="30">
         <f t="shared" si="8"/>
         <v>1.0697525475579029E-2</v>
       </c>
-      <c r="I29" s="45"/>
-      <c r="J29" s="45">
+      <c r="I29" s="30"/>
+      <c r="J29" s="30">
         <f t="shared" si="8"/>
         <v>1.2925750568550689E-2</v>
       </c>
-      <c r="K29" s="45">
+      <c r="K29" s="30">
         <f t="shared" si="8"/>
         <v>1.1332448715518448E-2</v>
       </c>
-      <c r="L29" s="45">
+      <c r="L29" s="30">
         <f t="shared" si="8"/>
         <v>4.3624465569117527E-3</v>
       </c>
-      <c r="M29" s="45">
+      <c r="M29" s="30">
         <f t="shared" si="8"/>
         <v>1.0697525475579029E-2</v>
       </c>
-      <c r="N29" s="45"/>
-      <c r="O29" s="45">
+      <c r="N29" s="30"/>
+      <c r="O29" s="30">
         <f t="shared" si="8"/>
         <v>1.2925750568550689E-2</v>
       </c>
-      <c r="P29" s="45">
+      <c r="P29" s="30">
         <f t="shared" si="8"/>
         <v>1.1332448715518448E-2</v>
       </c>
-      <c r="Q29" s="45">
+      <c r="Q29" s="30">
         <f t="shared" si="8"/>
         <v>4.3624465569117527E-3</v>
       </c>
-      <c r="R29" s="45">
+      <c r="R29" s="30">
         <f t="shared" si="8"/>
         <v>1.1467232383464251E-2</v>
       </c>
-      <c r="S29" s="45">
+      <c r="S29" s="30">
         <f t="shared" si="8"/>
         <v>6.4504446608463547E-3</v>
       </c>
       <c r="T29" s="24"/>
-      <c r="U29" s="34"/>
-      <c r="V29" s="37"/>
+      <c r="U29" s="46"/>
+      <c r="V29" s="49"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="34"/>
-      <c r="C30" s="52">
+      <c r="B30" s="46"/>
+      <c r="C30" s="37">
         <v>0.78</v>
       </c>
-      <c r="D30" s="53">
+      <c r="D30" s="38">
         <v>0.65</v>
       </c>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53">
+      <c r="E30" s="38"/>
+      <c r="F30" s="38">
         <v>0.78</v>
       </c>
-      <c r="G30" s="53">
+      <c r="G30" s="38">
         <v>0.66</v>
       </c>
-      <c r="H30" s="53">
+      <c r="H30" s="38">
         <v>0.64</v>
       </c>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53">
+      <c r="I30" s="38"/>
+      <c r="J30" s="38">
         <v>0.86</v>
       </c>
-      <c r="K30" s="53">
+      <c r="K30" s="38">
         <v>0.71</v>
       </c>
-      <c r="L30" s="53">
+      <c r="L30" s="38">
         <v>0.66</v>
       </c>
-      <c r="M30" s="53">
+      <c r="M30" s="38">
         <v>0.64</v>
       </c>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53">
+      <c r="N30" s="38"/>
+      <c r="O30" s="38">
         <v>0.87</v>
       </c>
-      <c r="P30" s="53">
+      <c r="P30" s="38">
         <v>0.71</v>
       </c>
-      <c r="Q30" s="53">
+      <c r="Q30" s="38">
         <v>0.66</v>
       </c>
-      <c r="R30" s="53">
+      <c r="R30" s="38">
         <v>0.66</v>
       </c>
-      <c r="S30" s="53">
+      <c r="S30" s="38">
         <v>0.61</v>
       </c>
-      <c r="T30" s="54"/>
+      <c r="T30" s="39"/>
       <c r="U30" s="22"/>
       <c r="V30" s="22"/>
     </row>
@@ -11884,25 +11884,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="U3:U5"/>
-    <mergeCell ref="V3:V5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="U6:U8"/>
-    <mergeCell ref="V6:V8"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="U9:U11"/>
-    <mergeCell ref="V9:V11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="U12:U14"/>
-    <mergeCell ref="V12:V14"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="U27:U29"/>
     <mergeCell ref="V27:V29"/>
@@ -11919,10 +11900,39 @@
     <mergeCell ref="V15:V17"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="U18:U20"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="U9:U11"/>
+    <mergeCell ref="V9:V11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="U12:U14"/>
+    <mergeCell ref="V12:V14"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="U3:U5"/>
+    <mergeCell ref="V3:V5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="U6:U8"/>
+    <mergeCell ref="V6:V8"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="U1:V1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="E3 I3">
-    <cfRule type="colorScale" priority="33">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3 T3">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11942,7 +11952,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6 I6">
-    <cfRule type="colorScale" priority="35">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11962,27 +11972,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9 I9">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9 T9">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12 T12">
-    <cfRule type="colorScale" priority="27">
+    <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11992,7 +11982,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15 I15">
-    <cfRule type="colorScale" priority="42">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -12008,9 +11998,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15 T15">
-    <cfRule type="colorScale" priority="28">
+    <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -12020,37 +12008,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18 I18">
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18 T18">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21 I21">
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21 T21">
-    <cfRule type="colorScale" priority="30">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -12060,7 +12018,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24 I24">
-    <cfRule type="colorScale" priority="47">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -12069,8 +12027,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24 T24">
-    <cfRule type="colorScale" priority="31">
+  <conditionalFormatting sqref="E30 I30">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -12080,7 +12038,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3 E3">
-    <cfRule type="colorScale" priority="19">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -12090,7 +12048,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6 E6">
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -12100,7 +12058,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9 E9">
-    <cfRule type="colorScale" priority="37">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -12120,14 +12078,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12 E12">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -12136,9 +12086,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15 E15">
-    <cfRule type="colorScale" priority="15">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -12148,7 +12096,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18 E18">
-    <cfRule type="colorScale" priority="14">
+    <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -12174,9 +12122,17 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24 E24">
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -12205,16 +12161,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
     <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I30 E30">
-    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -12333,8 +12279,58 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T3 E3">
-    <cfRule type="colorScale" priority="25">
+  <conditionalFormatting sqref="T9 E9">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T12 E12">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T15 E15">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T18 E18">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T21 E21">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T24 E24">
+    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -12429,28 +12425,28 @@
       <c r="G1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5" t="s">
         <v>10</v>
@@ -12467,18 +12463,18 @@
       <c r="AG1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="AH1" s="28" t="s">
+      <c r="AH1" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="28"/>
-      <c r="AO1" s="28"/>
-      <c r="AP1" s="28"/>
-      <c r="AQ1" s="28"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="44"/>
+      <c r="AP1" s="44"/>
+      <c r="AQ1" s="44"/>
       <c r="AS1" s="5" t="s">
         <v>10</v>
       </c>

--- a/Experiment-Data/Answer-Data.xlsx
+++ b/Experiment-Data/Answer-Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\www\Desktop\eye-tracking-software\Experiment-Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\eye-tracking-software\Experiment-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE671995-0E1A-42ED-85FF-2D5EB2688257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BA7D13-6796-4903-B219-77624808F407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{65F65776-174E-4145-8CCF-AA6B8A50F68A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{65F65776-174E-4145-8CCF-AA6B8A50F68A}"/>
   </bookViews>
   <sheets>
     <sheet name="1st-Scores" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="38">
   <si>
     <t>English</t>
   </si>
@@ -208,13 +208,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -226,7 +226,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="Aptos Narrow"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -293,7 +293,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -452,10 +452,10 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -536,22 +536,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -561,6 +552,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1989,24 +1989,24 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10" style="3" customWidth="1"/>
-    <col min="2" max="3" width="4.28515625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="5.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" style="13" customWidth="1"/>
-    <col min="7" max="26" width="4.42578125" style="2" customWidth="1"/>
-    <col min="27" max="27" width="4.140625" style="3" customWidth="1"/>
+    <col min="2" max="3" width="4.25" style="3" customWidth="1"/>
+    <col min="4" max="5" width="5.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="6.25" style="13" customWidth="1"/>
+    <col min="7" max="26" width="4.375" style="2" customWidth="1"/>
+    <col min="27" max="27" width="4.125" style="3" customWidth="1"/>
     <col min="28" max="28" width="10" style="3" customWidth="1"/>
-    <col min="29" max="30" width="4.28515625" style="3" customWidth="1"/>
-    <col min="31" max="33" width="5.7109375" style="3" customWidth="1"/>
-    <col min="34" max="34" width="6.140625" style="3" customWidth="1"/>
-    <col min="35" max="44" width="4.42578125" style="4" customWidth="1"/>
-    <col min="45" max="45" width="4.140625" customWidth="1"/>
+    <col min="29" max="30" width="4.25" style="3" customWidth="1"/>
+    <col min="31" max="33" width="5.75" style="3" customWidth="1"/>
+    <col min="34" max="34" width="6.125" style="3" customWidth="1"/>
+    <col min="35" max="44" width="4.375" style="4" customWidth="1"/>
+    <col min="45" max="45" width="4.125" customWidth="1"/>
     <col min="46" max="46" width="10" style="3" customWidth="1"/>
-    <col min="47" max="48" width="4.28515625" style="3" customWidth="1"/>
-    <col min="49" max="52" width="5.7109375" style="3" customWidth="1"/>
-    <col min="53" max="53" width="6.140625" style="3" customWidth="1"/>
+    <col min="47" max="48" width="4.25" style="3" customWidth="1"/>
+    <col min="49" max="52" width="5.75" style="3" customWidth="1"/>
+    <col min="53" max="53" width="6.125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2223,7 +2223,7 @@
       <c r="AZ2" s="5"/>
       <c r="BA2" s="5"/>
     </row>
-    <row r="3" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.4">
       <c r="C4" s="3">
         <v>2</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>0.52499999999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.4">
       <c r="F5" s="12"/>
       <c r="G5" s="16">
         <f>(COUNTIF(G3:G4,"○"))/2</f>
@@ -2616,7 +2616,7 @@
       <c r="AR5" s="1"/>
       <c r="BA5" s="12"/>
     </row>
-    <row r="6" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="7" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.4">
       <c r="C7" s="3">
         <v>2</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.4">
       <c r="C8" s="3">
         <v>3</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="9" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.4">
       <c r="C9" s="3">
         <v>4</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.4">
       <c r="C10" s="3">
         <v>5</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.4">
       <c r="C11" s="3">
         <v>6</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.4">
       <c r="C12" s="3">
         <v>7</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>0.67500000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.4">
       <c r="C13" s="3">
         <v>8</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.4">
       <c r="C14" s="3">
         <v>9</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>0.72500000000000009</v>
       </c>
     </row>
-    <row r="15" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.4">
       <c r="C15" s="3">
         <v>10</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.4">
       <c r="F16" s="12"/>
       <c r="G16" s="16">
         <f>(COUNTIF(G6:G15,"○"))/10</f>
@@ -4120,7 +4120,7 @@
       <c r="AR16" s="1"/>
       <c r="BA16" s="12"/>
     </row>
-    <row r="17" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:53" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>3</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.4">
       <c r="C18" s="3">
         <v>2</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="19" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.4">
       <c r="C19" s="3">
         <v>3</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.4">
       <c r="C20" s="3">
         <v>4</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="21" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:53" x14ac:dyDescent="0.4">
       <c r="C21" s="3">
         <v>5</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:53" x14ac:dyDescent="0.4">
       <c r="C22" s="3">
         <v>6</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:53" x14ac:dyDescent="0.4">
       <c r="C23" s="3">
         <v>7</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="24" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:53" x14ac:dyDescent="0.4">
       <c r="C24" s="3">
         <v>8</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="25" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:53" x14ac:dyDescent="0.4">
       <c r="C25" s="3">
         <v>9</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:53" x14ac:dyDescent="0.4">
       <c r="C26" s="3">
         <v>10</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:53" x14ac:dyDescent="0.4">
       <c r="C27" s="3">
         <v>11</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:53" x14ac:dyDescent="0.4">
       <c r="C28" s="3">
         <v>12</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:53" x14ac:dyDescent="0.4">
       <c r="C29" s="3">
         <v>13</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>0.39999999999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:53" x14ac:dyDescent="0.4">
       <c r="C30" s="3">
         <v>14</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:53" x14ac:dyDescent="0.4">
       <c r="F31" s="5"/>
       <c r="G31" s="15">
         <f>(COUNTIF(G17:G30,"○"))/14</f>
@@ -6243,7 +6243,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="32" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:53" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
         <v>19</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="33" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:53" x14ac:dyDescent="0.4">
       <c r="C33" s="3">
         <v>2</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:53" x14ac:dyDescent="0.4">
       <c r="C34" s="3">
         <v>3</v>
       </c>
@@ -6483,7 +6483,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="35" spans="1:53" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:53" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
         <v>20</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="36" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:53" x14ac:dyDescent="0.4">
       <c r="AC36" s="3" t="s">
         <v>6</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:53" x14ac:dyDescent="0.4">
       <c r="AI37" s="15">
         <f>(COUNTIF(AI3:AI36,"○")/32)</f>
         <v>1</v>
@@ -6680,7 +6680,7 @@
       <c r="AY37"/>
       <c r="AZ37"/>
     </row>
-    <row r="38" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:53" x14ac:dyDescent="0.4">
       <c r="AB38" s="3" t="s">
         <v>19</v>
       </c>
@@ -6723,7 +6723,7 @@
       </c>
       <c r="BA38" s="12"/>
     </row>
-    <row r="39" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:53" x14ac:dyDescent="0.4">
       <c r="AD39" s="3">
         <v>2</v>
       </c>
@@ -6760,7 +6760,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="40" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:53" x14ac:dyDescent="0.4">
       <c r="AD40" s="3">
         <v>3</v>
       </c>
@@ -6788,7 +6788,7 @@
         <v>0.66249999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:53" x14ac:dyDescent="0.4">
       <c r="AD41" s="3">
         <v>4</v>
       </c>
@@ -6808,7 +6808,7 @@
         <v>0.60500000000000009</v>
       </c>
     </row>
-    <row r="42" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:53" x14ac:dyDescent="0.4">
       <c r="AB42" s="3" t="s">
         <v>20</v>
       </c>
@@ -6832,7 +6832,7 @@
         <v>0.65555555555555556</v>
       </c>
     </row>
-    <row r="43" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:53" x14ac:dyDescent="0.4">
       <c r="AT43" s="3" t="s">
         <v>20</v>
       </c>
@@ -6873,27 +6873,27 @@
       <selection pane="topRight" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
     <col min="3" max="4" width="10" style="3" customWidth="1"/>
-    <col min="5" max="5" width="3.5703125" customWidth="1"/>
+    <col min="5" max="5" width="3.625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="3.5703125" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="3.625" customWidth="1"/>
+    <col min="10" max="10" width="9.125" customWidth="1"/>
+    <col min="12" max="12" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46">
         <v>2</v>
       </c>
-      <c r="D1" s="45"/>
+      <c r="D1" s="46"/>
       <c r="E1" s="22"/>
       <c r="F1" s="57">
         <v>3</v>
@@ -6901,16 +6901,16 @@
       <c r="G1" s="57"/>
       <c r="H1" s="57"/>
       <c r="I1" s="22"/>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="45"/>
-    </row>
-    <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="K1" s="46"/>
+    </row>
+    <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="27">
         <v>2</v>
       </c>
@@ -6935,7 +6935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="54" t="s">
         <v>23</v>
       </c>
@@ -6959,14 +6959,14 @@
         <v>295.16666700000002</v>
       </c>
       <c r="I3" s="25"/>
-      <c r="J3" s="50">
+      <c r="J3" s="45">
         <v>-0.188448</v>
       </c>
-      <c r="K3" s="48">
+      <c r="K3" s="51">
         <v>0.54788800000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="54"/>
       <c r="B4" s="21" t="s">
         <v>32</v>
@@ -6988,10 +6988,10 @@
         <v>45.984417654244574</v>
       </c>
       <c r="I4" s="22"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="47"/>
-    </row>
-    <row r="5" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="46"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="55"/>
       <c r="B5" s="23" t="s">
         <v>35</v>
@@ -7018,10 +7018,10 @@
         <v>0.15579136398299531</v>
       </c>
       <c r="I5" s="24"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="49"/>
-    </row>
-    <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="47"/>
+      <c r="K5" s="53"/>
+    </row>
+    <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="56" t="s">
         <v>24</v>
       </c>
@@ -7045,14 +7045,14 @@
         <v>1165.094081</v>
       </c>
       <c r="I6" s="22"/>
-      <c r="J6" s="45">
+      <c r="J6" s="46">
         <v>0.503328</v>
       </c>
-      <c r="K6" s="47">
+      <c r="K6" s="52">
         <v>-4.8842999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="54"/>
       <c r="B7" s="33" t="s">
         <v>17</v>
@@ -7074,10 +7074,10 @@
         <v>120.80618517691882</v>
       </c>
       <c r="I7" s="22"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="47"/>
-    </row>
-    <row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="46"/>
+      <c r="K7" s="52"/>
+    </row>
+    <row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="55"/>
       <c r="B8" s="23" t="s">
         <v>34</v>
@@ -7104,10 +7104,10 @@
         <v>0.10368792284416285</v>
       </c>
       <c r="I8" s="22"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="47"/>
-    </row>
-    <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="46"/>
+      <c r="K8" s="52"/>
+    </row>
+    <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="56" t="s">
         <v>25</v>
       </c>
@@ -7131,14 +7131,14 @@
         <v>1078.5</v>
       </c>
       <c r="I9" s="25"/>
-      <c r="J9" s="50">
+      <c r="J9" s="45">
         <v>-0.221611</v>
       </c>
-      <c r="K9" s="48">
+      <c r="K9" s="51">
         <v>0.53761899999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="54"/>
       <c r="B10" s="33" t="s">
         <v>17</v>
@@ -7160,10 +7160,10 @@
         <v>258.54109924729568</v>
       </c>
       <c r="I10" s="22"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="47"/>
-    </row>
-    <row r="11" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J10" s="46"/>
+      <c r="K10" s="52"/>
+    </row>
+    <row r="11" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="55"/>
       <c r="B11" s="35" t="s">
         <v>34</v>
@@ -7190,10 +7190,10 @@
         <v>0.23972285512034833</v>
       </c>
       <c r="I11" s="24"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="49"/>
-    </row>
-    <row r="12" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="47"/>
+      <c r="K11" s="53"/>
+    </row>
+    <row r="12" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="56" t="s">
         <v>26</v>
       </c>
@@ -7217,14 +7217,14 @@
         <v>13.026258</v>
       </c>
       <c r="I12" s="22"/>
-      <c r="J12" s="45">
+      <c r="J12" s="46">
         <v>-0.32667400000000002</v>
       </c>
-      <c r="K12" s="47">
+      <c r="K12" s="52">
         <v>-0.13261100000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="54"/>
       <c r="B13" s="33" t="s">
         <v>17</v>
@@ -7246,10 +7246,10 @@
         <v>1.1520512141393715</v>
       </c>
       <c r="I13" s="22"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="47"/>
-    </row>
-    <row r="14" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="46"/>
+      <c r="K13" s="52"/>
+    </row>
+    <row r="14" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="55"/>
       <c r="B14" s="35" t="s">
         <v>34</v>
@@ -7276,10 +7276,10 @@
         <v>8.8440687581911204E-2</v>
       </c>
       <c r="I14" s="22"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="47"/>
-    </row>
-    <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J14" s="46"/>
+      <c r="K14" s="52"/>
+    </row>
+    <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="54" t="s">
         <v>27</v>
       </c>
@@ -7303,14 +7303,14 @@
         <v>290.23841599999997</v>
       </c>
       <c r="I15" s="25"/>
-      <c r="J15" s="50">
+      <c r="J15" s="45">
         <v>0.51528499999999999</v>
       </c>
-      <c r="K15" s="48">
+      <c r="K15" s="51">
         <v>1.5509E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="54"/>
       <c r="B16" s="33" t="s">
         <v>17</v>
@@ -7332,10 +7332,10 @@
         <v>33.816063239235881</v>
       </c>
       <c r="I16" s="22"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="47"/>
-    </row>
-    <row r="17" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="46"/>
+      <c r="K16" s="52"/>
+    </row>
+    <row r="17" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="54"/>
       <c r="B17" s="33" t="s">
         <v>34</v>
@@ -7362,10 +7362,10 @@
         <v>0.11651132784309257</v>
       </c>
       <c r="I17" s="24"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="49"/>
-    </row>
-    <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J17" s="47"/>
+      <c r="K17" s="53"/>
+    </row>
+    <row r="18" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="56" t="s">
         <v>30</v>
       </c>
@@ -7389,14 +7389,14 @@
         <v>1328.2708680000001</v>
       </c>
       <c r="I18" s="22"/>
-      <c r="J18" s="45">
+      <c r="J18" s="46">
         <v>0.212811</v>
       </c>
-      <c r="K18" s="47">
+      <c r="K18" s="52">
         <v>0.184026</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="54"/>
       <c r="B19" s="33" t="s">
         <v>17</v>
@@ -7418,10 +7418,10 @@
         <v>185.2619838175118</v>
       </c>
       <c r="I19" s="22"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="47"/>
-    </row>
-    <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J19" s="46"/>
+      <c r="K19" s="52"/>
+    </row>
+    <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="55"/>
       <c r="B20" s="35" t="s">
         <v>34</v>
@@ -7448,10 +7448,10 @@
         <v>0.13947605739216723</v>
       </c>
       <c r="I20" s="22"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="47"/>
-    </row>
-    <row r="21" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J20" s="46"/>
+      <c r="K20" s="52"/>
+    </row>
+    <row r="21" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="54" t="s">
         <v>31</v>
       </c>
@@ -7475,14 +7475,14 @@
         <v>436.16804999999999</v>
       </c>
       <c r="I21" s="25"/>
-      <c r="J21" s="50">
+      <c r="J21" s="45">
         <v>0.42631999999999998</v>
       </c>
-      <c r="K21" s="48">
+      <c r="K21" s="51">
         <v>3.6583999999999998E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="54"/>
       <c r="B22" s="33" t="s">
         <v>17</v>
@@ -7504,10 +7504,10 @@
         <v>26.527001828325794</v>
       </c>
       <c r="I22" s="22"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="47"/>
-    </row>
-    <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J22" s="46"/>
+      <c r="K22" s="52"/>
+    </row>
+    <row r="23" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="54"/>
       <c r="B23" s="33" t="s">
         <v>34</v>
@@ -7534,10 +7534,10 @@
         <v>6.0818305761565515E-2</v>
       </c>
       <c r="I23" s="24"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="49"/>
-    </row>
-    <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J23" s="47"/>
+      <c r="K23" s="53"/>
+    </row>
+    <row r="24" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="56" t="s">
         <v>28</v>
       </c>
@@ -7561,14 +7561,14 @@
         <v>149.374664</v>
       </c>
       <c r="I24" s="22"/>
-      <c r="J24" s="45">
+      <c r="J24" s="46">
         <v>0.17419599999999999</v>
       </c>
-      <c r="K24" s="47">
+      <c r="K24" s="52">
         <v>0.53308299999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="54"/>
       <c r="B25" s="33" t="s">
         <v>17</v>
@@ -7590,10 +7590,10 @@
         <v>25.510562851493496</v>
       </c>
       <c r="I25" s="22"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="47"/>
-    </row>
-    <row r="26" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J25" s="46"/>
+      <c r="K25" s="52"/>
+    </row>
+    <row r="26" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="55"/>
       <c r="B26" s="35" t="s">
         <v>34</v>
@@ -7620,11 +7620,11 @@
         <v>0.17078239487449826</v>
       </c>
       <c r="I26" s="22"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="47"/>
-    </row>
-    <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="51" t="s">
+      <c r="J26" s="46"/>
+      <c r="K26" s="52"/>
+    </row>
+    <row r="27" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="48" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="32" t="s">
@@ -7647,15 +7647,15 @@
         <v>0.95097100000000001</v>
       </c>
       <c r="I27" s="25"/>
-      <c r="J27" s="50">
+      <c r="J27" s="45">
         <v>-0.18006</v>
       </c>
-      <c r="K27" s="48">
+      <c r="K27" s="51">
         <v>-0.26681700000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="52"/>
+    <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="49"/>
       <c r="B28" s="33" t="s">
         <v>17</v>
       </c>
@@ -7676,11 +7676,11 @@
         <v>1.0488088481701515E-2</v>
       </c>
       <c r="I28" s="22"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="47"/>
-    </row>
-    <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="52"/>
+    </row>
+    <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="50"/>
       <c r="B29" s="35" t="s">
         <v>34</v>
       </c>
@@ -7706,14 +7706,14 @@
         <v>1.1028820523130058E-2</v>
       </c>
       <c r="I29" s="24"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="49"/>
-    </row>
-    <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="46" t="s">
+      <c r="J29" s="47"/>
+      <c r="K29" s="53"/>
+    </row>
+    <row r="30" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="46"/>
+      <c r="B30" s="47"/>
       <c r="C30" s="37">
         <v>0.45</v>
       </c>
@@ -7734,7 +7734,7 @@
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -7744,7 +7744,7 @@
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B32" s="3"/>
       <c r="C32" s="26"/>
       <c r="E32" s="3"/>
@@ -7755,7 +7755,7 @@
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B33" s="3"/>
       <c r="C33" s="26"/>
       <c r="E33" s="3"/>
@@ -7766,7 +7766,7 @@
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B34" s="3"/>
       <c r="C34" s="26"/>
       <c r="E34" s="3"/>
@@ -7777,24 +7777,41 @@
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B35" s="3"/>
       <c r="C35" s="26"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B36" s="3"/>
       <c r="C36" s="26"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B37" s="3"/>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B38" s="3"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="K3:K5"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K12:K14"/>
     <mergeCell ref="J21:J23"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A27:A29"/>
@@ -7811,23 +7828,6 @@
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="A21:A23"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="K3:K5"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="K15:K17"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="K9:K11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C32:C36">
@@ -7842,16 +7842,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3 I3">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E6">
     <cfRule type="colorScale" priority="36">
       <colorScale>
@@ -7862,8 +7852,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E18 I18">
-    <cfRule type="colorScale" priority="33">
+  <conditionalFormatting sqref="E9 I9">
+    <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7872,8 +7862,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21 I21">
-    <cfRule type="colorScale" priority="34">
+  <conditionalFormatting sqref="E12 I12">
+    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7882,8 +7872,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24 I24">
-    <cfRule type="colorScale" priority="35">
+  <conditionalFormatting sqref="E15 I15">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8012,8 +8002,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9 E9">
-    <cfRule type="colorScale" priority="30">
+  <conditionalFormatting sqref="I3 E3">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8022,8 +8012,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12 E12">
-    <cfRule type="colorScale" priority="31">
+  <conditionalFormatting sqref="I18 E18">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8032,8 +8022,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15 E15">
-    <cfRule type="colorScale" priority="32">
+  <conditionalFormatting sqref="I21 E21">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24 E24">
+    <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8091,30 +8091,30 @@
       <selection pane="topRight" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="10" style="3" customWidth="1"/>
-    <col min="5" max="5" width="3.5703125" customWidth="1"/>
+    <col min="5" max="5" width="3.625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="3.5703125" customWidth="1"/>
+    <col min="9" max="9" width="3.625" customWidth="1"/>
     <col min="10" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="3.5703125" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="3.625" customWidth="1"/>
+    <col min="15" max="15" width="9.125" customWidth="1"/>
+    <col min="17" max="17" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46">
         <v>2</v>
       </c>
-      <c r="D1" s="45"/>
+      <c r="D1" s="46"/>
       <c r="E1" s="22"/>
       <c r="F1" s="57">
         <v>3</v>
@@ -8122,23 +8122,23 @@
       <c r="G1" s="57"/>
       <c r="H1" s="57"/>
       <c r="I1" s="22"/>
-      <c r="J1" s="45">
+      <c r="J1" s="46">
         <v>4</v>
       </c>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
       <c r="N1" s="22"/>
-      <c r="O1" s="45" t="s">
+      <c r="O1" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="45"/>
-    </row>
-    <row r="2" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="P1" s="46"/>
+    </row>
+    <row r="2" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="27">
         <v>1</v>
       </c>
@@ -8176,7 +8176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="54" t="s">
         <v>23</v>
       </c>
@@ -8213,10 +8213,10 @@
         <v>170.75</v>
       </c>
       <c r="N3" s="25"/>
-      <c r="O3" s="50">
+      <c r="O3" s="45">
         <v>0.19814899999999999</v>
       </c>
-      <c r="P3" s="48">
+      <c r="P3" s="51">
         <v>0.554253</v>
       </c>
       <c r="R3" s="20"/>
@@ -8229,7 +8229,7 @@
       <c r="Y3" s="20"/>
       <c r="Z3" s="20"/>
     </row>
-    <row r="4" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="54"/>
       <c r="B4" s="33" t="s">
         <v>17</v>
@@ -8264,8 +8264,8 @@
         <v>18.304956405301816</v>
       </c>
       <c r="N4" s="22"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="47"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="52"/>
       <c r="R4" s="20"/>
       <c r="S4" s="20"/>
       <c r="T4" s="20"/>
@@ -8276,7 +8276,7 @@
       <c r="Y4" s="20"/>
       <c r="Z4" s="20"/>
     </row>
-    <row r="5" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="55"/>
       <c r="B5" s="35" t="s">
         <v>37</v>
@@ -8320,10 +8320,10 @@
         <v>0.1072032585962039</v>
       </c>
       <c r="N5" s="24"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="49"/>
-    </row>
-    <row r="6" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O5" s="47"/>
+      <c r="P5" s="53"/>
+    </row>
+    <row r="6" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="56" t="s">
         <v>24</v>
       </c>
@@ -8360,14 +8360,14 @@
         <v>1066.667138</v>
       </c>
       <c r="N6" s="22"/>
-      <c r="O6" s="45">
+      <c r="O6" s="46">
         <v>0.38675100000000001</v>
       </c>
-      <c r="P6" s="47">
+      <c r="P6" s="52">
         <v>-0.30294199999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="54"/>
       <c r="B7" s="33" t="s">
         <v>17</v>
@@ -8402,10 +8402,10 @@
         <v>154.17636012048021</v>
       </c>
       <c r="N7" s="22"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="47"/>
-    </row>
-    <row r="8" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O7" s="46"/>
+      <c r="P7" s="52"/>
+    </row>
+    <row r="8" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="55"/>
       <c r="B8" s="35" t="s">
         <v>34</v>
@@ -8449,10 +8449,10 @@
         <v>0.14454027374421674</v>
       </c>
       <c r="N8" s="22"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="47"/>
-    </row>
-    <row r="9" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O8" s="46"/>
+      <c r="P8" s="52"/>
+    </row>
+    <row r="9" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="56" t="s">
         <v>25</v>
       </c>
@@ -8489,14 +8489,14 @@
         <v>613.25</v>
       </c>
       <c r="N9" s="25"/>
-      <c r="O9" s="50">
+      <c r="O9" s="45">
         <v>0.173847</v>
       </c>
-      <c r="P9" s="48">
+      <c r="P9" s="51">
         <v>0.57918999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="54"/>
       <c r="B10" s="33" t="s">
         <v>17</v>
@@ -8531,10 +8531,10 @@
         <v>50.024993753123049</v>
       </c>
       <c r="N10" s="22"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="47"/>
-    </row>
-    <row r="11" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O10" s="46"/>
+      <c r="P10" s="52"/>
+    </row>
+    <row r="11" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="55"/>
       <c r="B11" s="35" t="s">
         <v>34</v>
@@ -8578,10 +8578,10 @@
         <v>8.1573573180795833E-2</v>
       </c>
       <c r="N11" s="24"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="49"/>
-    </row>
-    <row r="12" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O11" s="47"/>
+      <c r="P11" s="53"/>
+    </row>
+    <row r="12" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="56" t="s">
         <v>26</v>
       </c>
@@ -8618,14 +8618,14 @@
         <v>12.416684999999999</v>
       </c>
       <c r="N12" s="22"/>
-      <c r="O12" s="45">
+      <c r="O12" s="46">
         <v>-0.25663200000000003</v>
       </c>
-      <c r="P12" s="47">
+      <c r="P12" s="52">
         <v>0.23480300000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="54"/>
       <c r="B13" s="33" t="s">
         <v>17</v>
@@ -8660,10 +8660,10 @@
         <v>0.62217280557735732</v>
       </c>
       <c r="N13" s="22"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="47"/>
-    </row>
-    <row r="14" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O13" s="46"/>
+      <c r="P13" s="52"/>
+    </row>
+    <row r="14" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="55"/>
       <c r="B14" s="35" t="s">
         <v>34</v>
@@ -8707,10 +8707,10 @@
         <v>5.0107802974574726E-2</v>
       </c>
       <c r="N14" s="22"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="47"/>
-    </row>
-    <row r="15" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O14" s="46"/>
+      <c r="P14" s="52"/>
+    </row>
+    <row r="15" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="54" t="s">
         <v>27</v>
       </c>
@@ -8747,14 +8747,14 @@
         <v>271.35037599999998</v>
       </c>
       <c r="N15" s="25"/>
-      <c r="O15" s="50">
+      <c r="O15" s="45">
         <v>0.423954</v>
       </c>
-      <c r="P15" s="48">
+      <c r="P15" s="51">
         <v>-0.33226099999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="54"/>
       <c r="B16" s="33" t="s">
         <v>36</v>
@@ -8789,10 +8789,10 @@
         <v>53.314599041913468</v>
       </c>
       <c r="N16" s="22"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="47"/>
-    </row>
-    <row r="17" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O16" s="46"/>
+      <c r="P16" s="52"/>
+    </row>
+    <row r="17" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="54"/>
       <c r="B17" s="33" t="s">
         <v>34</v>
@@ -8836,10 +8836,10 @@
         <v>0.19647881026674335</v>
       </c>
       <c r="N17" s="24"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="49"/>
-    </row>
-    <row r="18" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O17" s="47"/>
+      <c r="P17" s="53"/>
+    </row>
+    <row r="18" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="56" t="s">
         <v>30</v>
       </c>
@@ -8876,14 +8876,14 @@
         <v>1183.321686</v>
       </c>
       <c r="N18" s="22"/>
-      <c r="O18" s="45">
+      <c r="O18" s="46">
         <v>0.415715</v>
       </c>
-      <c r="P18" s="47">
+      <c r="P18" s="52">
         <v>-1.6017E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="54"/>
       <c r="B19" s="33" t="s">
         <v>17</v>
@@ -8918,10 +8918,10 @@
         <v>153.79639008117195</v>
       </c>
       <c r="N19" s="22"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="47"/>
-    </row>
-    <row r="20" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O19" s="46"/>
+      <c r="P19" s="52"/>
+    </row>
+    <row r="20" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="55"/>
       <c r="B20" s="35" t="s">
         <v>34</v>
@@ -8965,10 +8965,10 @@
         <v>0.12997005962178568</v>
       </c>
       <c r="N20" s="22"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="47"/>
-    </row>
-    <row r="21" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O20" s="46"/>
+      <c r="P20" s="52"/>
+    </row>
+    <row r="21" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="54" t="s">
         <v>31</v>
       </c>
@@ -9005,14 +9005,14 @@
         <v>505.92089199999998</v>
       </c>
       <c r="N21" s="25"/>
-      <c r="O21" s="50">
+      <c r="O21" s="45">
         <v>0.425207</v>
       </c>
-      <c r="P21" s="48">
+      <c r="P21" s="51">
         <v>-3.3320000000000002E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="54"/>
       <c r="B22" s="33" t="s">
         <v>17</v>
@@ -9047,10 +9047,10 @@
         <v>32.017303868377176</v>
       </c>
       <c r="N22" s="22"/>
-      <c r="O22" s="45"/>
-      <c r="P22" s="47"/>
-    </row>
-    <row r="23" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O22" s="46"/>
+      <c r="P22" s="52"/>
+    </row>
+    <row r="23" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="54"/>
       <c r="B23" s="33" t="s">
         <v>34</v>
@@ -9094,10 +9094,10 @@
         <v>6.3285198090568623E-2</v>
       </c>
       <c r="N23" s="24"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="49"/>
-    </row>
-    <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O23" s="47"/>
+      <c r="P23" s="53"/>
+    </row>
+    <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="56" t="s">
         <v>28</v>
       </c>
@@ -9134,14 +9134,14 @@
         <v>86.171711999999999</v>
       </c>
       <c r="N24" s="22"/>
-      <c r="O24" s="45">
+      <c r="O24" s="46">
         <v>0.424012</v>
       </c>
-      <c r="P24" s="47">
+      <c r="P24" s="52">
         <v>0.291018</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="54"/>
       <c r="B25" s="33" t="s">
         <v>17</v>
@@ -9176,10 +9176,10 @@
         <v>8.076926890841591</v>
       </c>
       <c r="N25" s="22"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="47"/>
-    </row>
-    <row r="26" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O25" s="46"/>
+      <c r="P25" s="52"/>
+    </row>
+    <row r="26" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="55"/>
       <c r="B26" s="35" t="s">
         <v>34</v>
@@ -9223,11 +9223,11 @@
         <v>9.3730607218777212E-2</v>
       </c>
       <c r="N26" s="22"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="47"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="51" t="s">
+      <c r="O26" s="46"/>
+      <c r="P26" s="52"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A27" s="48" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="40" t="s">
@@ -9263,15 +9263,15 @@
         <v>0.96520300000000003</v>
       </c>
       <c r="N27" s="25"/>
-      <c r="O27" s="50">
+      <c r="O27" s="45">
         <v>-4.3986999999999998E-2</v>
       </c>
-      <c r="P27" s="48">
+      <c r="P27" s="51">
         <v>-0.118243</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="52"/>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A28" s="49"/>
       <c r="B28" s="33" t="s">
         <v>17</v>
       </c>
@@ -9305,11 +9305,11 @@
         <v>1.5132745950421557E-2</v>
       </c>
       <c r="N28" s="22"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="47"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="52"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A29" s="50"/>
       <c r="B29" s="35" t="s">
         <v>34</v>
       </c>
@@ -9352,14 +9352,14 @@
         <v>1.5678303890913681E-2</v>
       </c>
       <c r="N29" s="24"/>
-      <c r="O29" s="46"/>
-      <c r="P29" s="49"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="46" t="s">
+      <c r="O29" s="47"/>
+      <c r="P29" s="53"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A30" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="46"/>
+      <c r="B30" s="47"/>
       <c r="C30" s="37">
         <v>0.87</v>
       </c>
@@ -9393,7 +9393,7 @@
       <c r="O30" s="22"/>
       <c r="P30" s="22"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="E31" s="3"/>
@@ -9409,7 +9409,7 @@
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="E32" s="3"/>
@@ -9425,7 +9425,7 @@
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="E33" s="3"/>
@@ -9441,7 +9441,7 @@
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="E34" s="3"/>
@@ -9457,7 +9457,7 @@
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="E35" s="3"/>
@@ -9473,21 +9473,39 @@
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="O3:O5"/>
+    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="O9:O11"/>
+    <mergeCell ref="P9:P11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="P12:P14"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="O27:O29"/>
     <mergeCell ref="P27:P29"/>
@@ -9504,28 +9522,10 @@
     <mergeCell ref="P15:P17"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="O18:O20"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="O9:O11"/>
-    <mergeCell ref="P9:P11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="O3:O5"/>
-    <mergeCell ref="P3:P5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="O6:O8"/>
-    <mergeCell ref="P6:P8"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="E3 N3">
-    <cfRule type="colorScale" priority="34">
+  <conditionalFormatting sqref="E3 I3">
+    <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9536,6 +9536,16 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
     <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6 I6">
+    <cfRule type="colorScale" priority="49">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9562,8 +9572,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E9 I9">
-    <cfRule type="colorScale" priority="54">
+  <conditionalFormatting sqref="E9">
+    <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9572,8 +9582,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E9 N9">
-    <cfRule type="colorScale" priority="35">
+  <conditionalFormatting sqref="E12 I12">
+    <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9582,8 +9592,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="colorScale" priority="56">
+  <conditionalFormatting sqref="E12 N12">
+    <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9602,6 +9612,56 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E15 N15">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18 I18">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18 N18">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21 I21">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21 N21">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E21">
     <cfRule type="colorScale" priority="76">
       <colorScale>
@@ -9612,8 +9672,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24 I24">
-    <cfRule type="colorScale" priority="79">
+  <conditionalFormatting sqref="E24 N24">
+    <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9624,6 +9684,16 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
     <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27 I27">
+    <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9742,28 +9812,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3 E3">
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6 E6">
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12 E12">
-    <cfRule type="colorScale" priority="59">
+  <conditionalFormatting sqref="I9 E9">
+    <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9773,14 +9823,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15 E15">
-    <cfRule type="colorScale" priority="64">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
@@ -9789,9 +9831,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18 E18">
-    <cfRule type="colorScale" priority="69">
+    <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9810,18 +9850,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21 E21">
-    <cfRule type="colorScale" priority="74">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I27 E27">
-    <cfRule type="colorScale" priority="82">
+  <conditionalFormatting sqref="I24 E24">
+    <cfRule type="colorScale" priority="79">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9840,8 +9870,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N12 E12">
-    <cfRule type="colorScale" priority="36">
+  <conditionalFormatting sqref="N3 E3">
+    <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9850,38 +9880,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N15 E15">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N18 E18">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N21 E21">
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N24 E24">
-    <cfRule type="colorScale" priority="40">
+  <conditionalFormatting sqref="N9 E9">
+    <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9934,43 +9934,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49CEF5C-F3E1-4A78-9556-E0BCACEDD567}">
   <dimension ref="A1:AF38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="W30" sqref="W30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="10" style="3" customWidth="1"/>
-    <col min="5" max="5" width="3.5703125" customWidth="1"/>
+    <col min="5" max="5" width="3.625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="3.5703125" customWidth="1"/>
+    <col min="9" max="9" width="3.625" customWidth="1"/>
     <col min="10" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="3.5703125" customWidth="1"/>
+    <col min="14" max="14" width="3.625" customWidth="1"/>
     <col min="15" max="19" width="10" customWidth="1"/>
-    <col min="20" max="20" width="3.5703125" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" customWidth="1"/>
+    <col min="20" max="20" width="3.625" customWidth="1"/>
+    <col min="21" max="21" width="9.125" customWidth="1"/>
+    <col min="23" max="23" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46">
         <v>2</v>
       </c>
-      <c r="D1" s="45"/>
+      <c r="D1" s="46"/>
       <c r="E1" s="22"/>
-      <c r="F1" s="45">
+      <c r="F1" s="46">
         <v>3</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
       <c r="I1" s="22"/>
       <c r="J1" s="57">
         <v>4</v>
@@ -9979,24 +9979,24 @@
       <c r="L1" s="57"/>
       <c r="M1" s="57"/>
       <c r="N1" s="22"/>
-      <c r="O1" s="45">
+      <c r="O1" s="46">
         <v>5</v>
       </c>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
       <c r="T1" s="22"/>
-      <c r="U1" s="45" t="s">
+      <c r="U1" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="45"/>
-    </row>
-    <row r="2" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="V1" s="46"/>
+    </row>
+    <row r="2" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="27">
         <v>1</v>
       </c>
@@ -10050,7 +10050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="54" t="s">
         <v>23</v>
       </c>
@@ -10103,10 +10103,10 @@
         <v>300.2</v>
       </c>
       <c r="T3" s="25"/>
-      <c r="U3" s="50">
+      <c r="U3" s="45">
         <v>-0.33963700000000002</v>
       </c>
-      <c r="V3" s="48">
+      <c r="V3" s="51">
         <v>0.42593500000000001</v>
       </c>
       <c r="X3" s="20"/>
@@ -10119,7 +10119,7 @@
       <c r="AE3" s="20"/>
       <c r="AF3" s="20"/>
     </row>
-    <row r="4" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="54"/>
       <c r="B4" s="33" t="s">
         <v>17</v>
@@ -10170,8 +10170,8 @@
         <v>48.41435737464662</v>
       </c>
       <c r="T4" s="22"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="47"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="52"/>
       <c r="X4" s="20"/>
       <c r="Y4" s="20"/>
       <c r="Z4" s="20"/>
@@ -10182,7 +10182,7 @@
       <c r="AE4" s="20"/>
       <c r="AF4" s="20"/>
     </row>
-    <row r="5" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="55"/>
       <c r="B5" s="23" t="s">
         <v>37</v>
@@ -10247,10 +10247,10 @@
         <v>0.16127367546517862</v>
       </c>
       <c r="T5" s="24"/>
-      <c r="U5" s="46"/>
-      <c r="V5" s="49"/>
-    </row>
-    <row r="6" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U5" s="47"/>
+      <c r="V5" s="53"/>
+    </row>
+    <row r="6" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="56" t="s">
         <v>24</v>
       </c>
@@ -10303,14 +10303,14 @@
         <v>963.53767200000004</v>
       </c>
       <c r="T6" s="22"/>
-      <c r="U6" s="45">
+      <c r="U6" s="46">
         <v>0.461256</v>
       </c>
-      <c r="V6" s="47">
+      <c r="V6" s="52">
         <v>0.161083</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="54"/>
       <c r="B7" s="33" t="s">
         <v>17</v>
@@ -10361,10 +10361,10 @@
         <v>68.108429918769971</v>
       </c>
       <c r="T7" s="22"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="47"/>
-    </row>
-    <row r="8" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U7" s="46"/>
+      <c r="V7" s="52"/>
+    </row>
+    <row r="8" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="55"/>
       <c r="B8" s="23" t="s">
         <v>34</v>
@@ -10429,10 +10429,10 @@
         <v>7.0685798695756613E-2</v>
       </c>
       <c r="T8" s="22"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="47"/>
-    </row>
-    <row r="9" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U8" s="46"/>
+      <c r="V8" s="52"/>
+    </row>
+    <row r="9" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="56" t="s">
         <v>25</v>
       </c>
@@ -10485,14 +10485,14 @@
         <v>1046.5999999999999</v>
       </c>
       <c r="T9" s="25"/>
-      <c r="U9" s="50">
+      <c r="U9" s="45">
         <v>-0.36423</v>
       </c>
-      <c r="V9" s="48">
+      <c r="V9" s="51">
         <v>0.41688399999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="54"/>
       <c r="B10" s="33" t="s">
         <v>17</v>
@@ -10543,10 +10543,10 @@
         <v>103.40901798199226</v>
       </c>
       <c r="T10" s="22"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="47"/>
-    </row>
-    <row r="11" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U10" s="46"/>
+      <c r="V10" s="52"/>
+    </row>
+    <row r="11" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="55"/>
       <c r="B11" s="35" t="s">
         <v>34</v>
@@ -10611,10 +10611,10 @@
         <v>9.8804718117707122E-2</v>
       </c>
       <c r="T11" s="24"/>
-      <c r="U11" s="46"/>
-      <c r="V11" s="49"/>
-    </row>
-    <row r="12" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U11" s="47"/>
+      <c r="V11" s="53"/>
+    </row>
+    <row r="12" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="56" t="s">
         <v>26</v>
       </c>
@@ -10667,14 +10667,14 @@
         <v>12.494548</v>
       </c>
       <c r="T12" s="22"/>
-      <c r="U12" s="45">
+      <c r="U12" s="46">
         <v>-0.28797299999999998</v>
       </c>
-      <c r="V12" s="47">
+      <c r="V12" s="52">
         <v>-0.17630399999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="54"/>
       <c r="B13" s="33" t="s">
         <v>17</v>
@@ -10725,10 +10725,10 @@
         <v>0.30815255961941967</v>
       </c>
       <c r="T13" s="22"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="47"/>
-    </row>
-    <row r="14" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U13" s="46"/>
+      <c r="V13" s="52"/>
+    </row>
+    <row r="14" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="55"/>
       <c r="B14" s="35" t="s">
         <v>34</v>
@@ -10793,10 +10793,10 @@
         <v>2.4662961766957852E-2</v>
       </c>
       <c r="T14" s="22"/>
-      <c r="U14" s="45"/>
-      <c r="V14" s="47"/>
-    </row>
-    <row r="15" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U14" s="46"/>
+      <c r="V14" s="52"/>
+    </row>
+    <row r="15" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="54" t="s">
         <v>27</v>
       </c>
@@ -10849,14 +10849,14 @@
         <v>255.87422000000001</v>
       </c>
       <c r="T15" s="25"/>
-      <c r="U15" s="50">
+      <c r="U15" s="45">
         <v>0.47454000000000002</v>
       </c>
-      <c r="V15" s="48">
+      <c r="V15" s="51">
         <v>0.22032199999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="54"/>
       <c r="B16" s="33" t="s">
         <v>17</v>
@@ -10907,10 +10907,10 @@
         <v>21.723481534965799</v>
       </c>
       <c r="T16" s="22"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="47"/>
-    </row>
-    <row r="17" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U16" s="46"/>
+      <c r="V16" s="52"/>
+    </row>
+    <row r="17" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="54"/>
       <c r="B17" s="33" t="s">
         <v>34</v>
@@ -10975,10 +10975,10 @@
         <v>8.4899063043419529E-2</v>
       </c>
       <c r="T17" s="24"/>
-      <c r="U17" s="46"/>
-      <c r="V17" s="49"/>
-    </row>
-    <row r="18" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U17" s="47"/>
+      <c r="V17" s="53"/>
+    </row>
+    <row r="18" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="56" t="s">
         <v>30</v>
       </c>
@@ -11031,14 +11031,14 @@
         <v>1194.846669</v>
       </c>
       <c r="T18" s="22"/>
-      <c r="U18" s="45">
+      <c r="U18" s="46">
         <v>0.21635299999999999</v>
       </c>
-      <c r="V18" s="47">
+      <c r="V18" s="52">
         <v>0.36393399999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="54"/>
       <c r="B19" s="33" t="s">
         <v>17</v>
@@ -11089,10 +11089,10 @@
         <v>261.5197644557673</v>
       </c>
       <c r="T19" s="22"/>
-      <c r="U19" s="45"/>
-      <c r="V19" s="47"/>
-    </row>
-    <row r="20" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U19" s="46"/>
+      <c r="V19" s="52"/>
+    </row>
+    <row r="20" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="55"/>
       <c r="B20" s="35" t="s">
         <v>34</v>
@@ -11157,10 +11157,10 @@
         <v>0.21887307488134888</v>
       </c>
       <c r="T20" s="22"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="47"/>
-    </row>
-    <row r="21" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U20" s="46"/>
+      <c r="V20" s="52"/>
+    </row>
+    <row r="21" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="54" t="s">
         <v>31</v>
       </c>
@@ -11213,14 +11213,14 @@
         <v>451.04004400000002</v>
       </c>
       <c r="T21" s="25"/>
-      <c r="U21" s="50">
+      <c r="U21" s="45">
         <v>0.400617</v>
       </c>
-      <c r="V21" s="48">
+      <c r="V21" s="51">
         <v>0.17532900000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="54"/>
       <c r="B22" s="33" t="s">
         <v>17</v>
@@ -11271,10 +11271,10 @@
         <v>27.061307581120317</v>
       </c>
       <c r="T22" s="22"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="47"/>
-    </row>
-    <row r="23" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U22" s="46"/>
+      <c r="V22" s="52"/>
+    </row>
+    <row r="23" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="54"/>
       <c r="B23" s="33" t="s">
         <v>34</v>
@@ -11339,10 +11339,10 @@
         <v>5.9997572147098131E-2</v>
       </c>
       <c r="T23" s="24"/>
-      <c r="U23" s="46"/>
-      <c r="V23" s="49"/>
-    </row>
-    <row r="24" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U23" s="47"/>
+      <c r="V23" s="53"/>
+    </row>
+    <row r="24" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="56" t="s">
         <v>28</v>
       </c>
@@ -11395,14 +11395,14 @@
         <v>122.930104</v>
       </c>
       <c r="T24" s="22"/>
-      <c r="U24" s="45">
+      <c r="U24" s="46">
         <v>-8.9659000000000003E-2</v>
       </c>
-      <c r="V24" s="47">
+      <c r="V24" s="52">
         <v>0.55726699999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="54"/>
       <c r="B25" s="33" t="s">
         <v>17</v>
@@ -11453,10 +11453,10 @@
         <v>16.131675052517018</v>
       </c>
       <c r="T25" s="22"/>
-      <c r="U25" s="45"/>
-      <c r="V25" s="47"/>
-    </row>
-    <row r="26" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U25" s="46"/>
+      <c r="V25" s="52"/>
+    </row>
+    <row r="26" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="55"/>
       <c r="B26" s="35" t="s">
         <v>34</v>
@@ -11521,11 +11521,11 @@
         <v>0.1312264004309068</v>
       </c>
       <c r="T26" s="22"/>
-      <c r="U26" s="45"/>
-      <c r="V26" s="47"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="51" t="s">
+      <c r="U26" s="46"/>
+      <c r="V26" s="52"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A27" s="48" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="32" t="s">
@@ -11577,15 +11577,15 @@
         <v>0.96814999999999996</v>
       </c>
       <c r="T27" s="25"/>
-      <c r="U27" s="50">
+      <c r="U27" s="45">
         <v>0.12556899999999999</v>
       </c>
-      <c r="V27" s="48">
+      <c r="V27" s="51">
         <v>-0.25589000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="52"/>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A28" s="49"/>
       <c r="B28" s="33" t="s">
         <v>17</v>
       </c>
@@ -11635,11 +11635,11 @@
         <v>6.2449979983983982E-3</v>
       </c>
       <c r="T28" s="22"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="47"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
+      <c r="U28" s="46"/>
+      <c r="V28" s="52"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A29" s="50"/>
       <c r="B29" s="35" t="s">
         <v>34</v>
       </c>
@@ -11703,14 +11703,14 @@
         <v>6.4504446608463547E-3</v>
       </c>
       <c r="T29" s="24"/>
-      <c r="U29" s="46"/>
-      <c r="V29" s="49"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="46" t="s">
+      <c r="U29" s="47"/>
+      <c r="V29" s="53"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A30" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="46"/>
+      <c r="B30" s="47"/>
       <c r="C30" s="37">
         <v>0.78</v>
       </c>
@@ -11760,7 +11760,7 @@
       <c r="U30" s="22"/>
       <c r="V30" s="22"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.4">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="E31" s="3"/>
@@ -11782,7 +11782,7 @@
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.4">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="E32" s="3"/>
@@ -11804,7 +11804,7 @@
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="E33" s="3"/>
@@ -11826,7 +11826,7 @@
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="E34" s="3"/>
@@ -11848,7 +11848,7 @@
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="E35" s="3"/>
@@ -11870,20 +11870,39 @@
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="U3:U5"/>
+    <mergeCell ref="V3:V5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="U6:U8"/>
+    <mergeCell ref="V6:V8"/>
+    <mergeCell ref="V18:V20"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="U9:U11"/>
+    <mergeCell ref="V9:V11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="U12:U14"/>
+    <mergeCell ref="V12:V14"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="U27:U29"/>
     <mergeCell ref="V27:V29"/>
@@ -11900,39 +11919,10 @@
     <mergeCell ref="V15:V17"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="U18:U20"/>
-    <mergeCell ref="V18:V20"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="U9:U11"/>
-    <mergeCell ref="V9:V11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="U12:U14"/>
-    <mergeCell ref="V12:V14"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="U3:U5"/>
-    <mergeCell ref="V3:V5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="U6:U8"/>
-    <mergeCell ref="V6:V8"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="U1:V1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="E3 I3">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3 T3">
-    <cfRule type="colorScale" priority="25">
+    <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11952,7 +11942,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6 I6">
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -11972,6 +11962,142 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9 I9">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9 T9">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12 T12">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15 T15">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18 I18">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18 T18">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21 I21">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21 T21">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24 I24">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24 T24">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3 E3">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6 E6">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9 E9">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -11981,7 +12107,35 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E15 I15">
+  <conditionalFormatting sqref="I9">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12 E12">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15 E15">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -12007,7 +12161,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E18 I18">
+  <conditionalFormatting sqref="I18 E18">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -12017,122 +12171,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24 I24">
+  <conditionalFormatting sqref="I24 E24">
     <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30 I30">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3 E3">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6 E6">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9 E9">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12 E12">
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18 E18">
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I21 E21">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="45">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24 E24">
-    <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -12161,6 +12201,16 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
     <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30 E30">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -12279,58 +12329,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T9 E9">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T12 E12">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T15 E15">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T18 E18">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T21 E21">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T24 E24">
-    <cfRule type="colorScale" priority="31">
+  <conditionalFormatting sqref="T3 E3">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -12383,24 +12383,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8CCB7AF-21A6-41ED-886C-DD886AE34E4A}">
   <dimension ref="A1:AX40"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AZ10" sqref="AZ10"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AC9" sqref="AC9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10" style="3" customWidth="1"/>
-    <col min="2" max="6" width="4.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" style="13" customWidth="1"/>
-    <col min="8" max="27" width="4.42578125" style="2" customWidth="1"/>
-    <col min="28" max="28" width="4.140625" style="3" customWidth="1"/>
+    <col min="2" max="6" width="4.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6.25" style="13" customWidth="1"/>
+    <col min="8" max="27" width="4.375" style="2" customWidth="1"/>
+    <col min="28" max="28" width="4.125" style="3" customWidth="1"/>
     <col min="29" max="29" width="10" style="3" customWidth="1"/>
-    <col min="30" max="32" width="4.28515625" style="3" customWidth="1"/>
-    <col min="33" max="33" width="6.140625" style="3" customWidth="1"/>
-    <col min="34" max="43" width="4.42578125" style="4" customWidth="1"/>
+    <col min="30" max="32" width="4.25" style="3" customWidth="1"/>
+    <col min="33" max="33" width="6.125" style="3" customWidth="1"/>
+    <col min="34" max="43" width="4.375" style="4" customWidth="1"/>
     <col min="45" max="45" width="10" style="3" customWidth="1"/>
-    <col min="46" max="49" width="4.28515625" style="3" customWidth="1"/>
-    <col min="50" max="50" width="6.140625" style="3" customWidth="1"/>
+    <col min="46" max="49" width="4.25" style="3" customWidth="1"/>
+    <col min="50" max="50" width="6.125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12605,7 +12605,7 @@
       <c r="AW2" s="5"/>
       <c r="AX2" s="5"/>
     </row>
-    <row r="3" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -12738,7 +12738,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="4" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.4">
       <c r="C4" s="3">
         <v>2</v>
       </c>
@@ -12793,7 +12793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.4">
       <c r="G5" s="12"/>
       <c r="H5" s="16">
         <f>(COUNTIF(H3:H4,"○"))/2</f>
@@ -12888,7 +12888,7 @@
       <c r="AQ5" s="1"/>
       <c r="AX5" s="12"/>
     </row>
-    <row r="6" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -13012,7 +13012,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.4">
       <c r="C7" s="3">
         <v>2</v>
       </c>
@@ -13127,7 +13127,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.4">
       <c r="C8" s="3">
         <v>3</v>
       </c>
@@ -13242,34 +13242,74 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.4">
       <c r="C9" s="3">
         <v>4</v>
       </c>
       <c r="G9" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="10"/>
+        <v>0.75</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="T9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="U9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="V9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="X9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA9" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="AE9" s="3">
         <v>4</v>
       </c>
@@ -13294,37 +13334,77 @@
       <c r="AW9"/>
       <c r="AX9" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.4">
       <c r="C10" s="3">
         <v>5</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
+        <v>0.65</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="T10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="V10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="W10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="X10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA10" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="AE10" s="3">
         <v>5</v>
       </c>
@@ -13349,37 +13429,77 @@
       <c r="AW10"/>
       <c r="AX10" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.4">
       <c r="C11" s="3">
         <v>6</v>
       </c>
       <c r="G11" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
+        <v>0.95</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="R11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="T11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="U11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="V11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="W11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="X11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA11" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="AE11" s="3">
         <v>6</v>
       </c>
@@ -13404,37 +13524,77 @@
       <c r="AW11"/>
       <c r="AX11" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+        <v>0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.4">
       <c r="C12" s="3">
         <v>7</v>
       </c>
       <c r="G12" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="10"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="U12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="V12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="W12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="X12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA12" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="AE12" s="3">
         <v>7</v>
       </c>
@@ -13459,10 +13619,10 @@
       <c r="AW12"/>
       <c r="AX12" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.4">
       <c r="C13" s="3">
         <v>8</v>
       </c>
@@ -13577,7 +13737,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.4">
       <c r="C14" s="3">
         <v>9</v>
       </c>
@@ -13692,7 +13852,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="15" spans="1:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.4">
       <c r="C15" s="3">
         <v>10</v>
       </c>
@@ -13747,87 +13907,87 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.4">
       <c r="G16" s="12"/>
       <c r="H16" s="16">
         <f>(COUNTIF(H6:H15,"○"))/10</f>
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="I16" s="16">
         <f t="shared" ref="I16:AA16" si="4">(COUNTIF(I6:I15,"○"))/10</f>
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="J16" s="16">
         <f t="shared" si="4"/>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="K16" s="16">
         <f t="shared" si="4"/>
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="L16" s="16">
         <f t="shared" si="4"/>
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="M16" s="16">
         <f t="shared" si="4"/>
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="N16" s="16">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="O16" s="16">
         <f t="shared" si="4"/>
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="P16" s="16">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="Q16" s="16">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="R16" s="16">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="S16" s="16">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="T16" s="16">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="U16" s="16">
         <f t="shared" si="4"/>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="V16" s="16">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="W16" s="16">
         <f t="shared" si="4"/>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="X16" s="16">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="Y16" s="16">
         <f t="shared" si="4"/>
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="Z16" s="16">
         <f t="shared" si="4"/>
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AA16" s="16">
         <f t="shared" si="4"/>
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AG16" s="12"/>
       <c r="AH16" s="10"/>
@@ -13842,7 +14002,7 @@
       <c r="AQ16" s="1"/>
       <c r="AX16" s="12"/>
     </row>
-    <row r="17" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:50" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>3</v>
       </c>
@@ -13966,7 +14126,7 @@
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="18" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C18" s="3">
         <v>2</v>
       </c>
@@ -14081,7 +14241,7 @@
         <v>0.77500000000000002</v>
       </c>
     </row>
-    <row r="19" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C19" s="3">
         <v>3</v>
       </c>
@@ -14196,7 +14356,7 @@
         <v>0.85000000000000009</v>
       </c>
     </row>
-    <row r="20" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C20" s="3">
         <v>4</v>
       </c>
@@ -14251,7 +14411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C21" s="3">
         <v>5</v>
       </c>
@@ -14366,7 +14526,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="22" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C22" s="3">
         <v>6</v>
       </c>
@@ -14481,7 +14641,7 @@
         <v>0.85000000000000009</v>
       </c>
     </row>
-    <row r="23" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C23" s="3">
         <v>7</v>
       </c>
@@ -14536,7 +14696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C24" s="3">
         <v>8</v>
       </c>
@@ -14651,7 +14811,7 @@
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="25" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C25" s="3">
         <v>9</v>
       </c>
@@ -14766,7 +14926,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="26" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C26" s="3">
         <v>10</v>
       </c>
@@ -14881,7 +15041,7 @@
         <v>0.67500000000000004</v>
       </c>
     </row>
-    <row r="27" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C27" s="3">
         <v>11</v>
       </c>
@@ -14996,7 +15156,7 @@
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="28" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C28" s="3">
         <v>12</v>
       </c>
@@ -15111,34 +15271,74 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="29" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C29" s="3">
         <v>13</v>
       </c>
       <c r="G29" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="10"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="9"/>
-      <c r="Z29" s="10"/>
-      <c r="AA29" s="9"/>
+        <v>0.6</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="R29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="T29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="U29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="V29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="W29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="X29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA29" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="AE29" s="3">
         <v>13</v>
       </c>
@@ -15163,10 +15363,10 @@
       <c r="AW29"/>
       <c r="AX29" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:50" x14ac:dyDescent="0.4">
       <c r="C30" s="3">
         <v>14</v>
       </c>
@@ -15281,15 +15481,15 @@
         <v>0.85000000000000009</v>
       </c>
     </row>
-    <row r="31" spans="2:50" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:50" x14ac:dyDescent="0.4">
       <c r="G31" s="5"/>
       <c r="H31" s="15">
         <f>(COUNTIF(H17:H30,"○"))/14</f>
-        <v>0.5714285714285714</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="I31" s="15">
         <f t="shared" ref="I31:AA31" si="6">(COUNTIF(I17:I30,"○"))/14</f>
-        <v>0.7142857142857143</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="J31" s="15">
         <f t="shared" si="6"/>
@@ -15305,11 +15505,11 @@
       </c>
       <c r="M31" s="15">
         <f t="shared" si="6"/>
-        <v>0.7857142857142857</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N31" s="15">
         <f t="shared" si="6"/>
-        <v>0.6428571428571429</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="O31" s="15">
         <f t="shared" si="6"/>
@@ -15321,7 +15521,7 @@
       </c>
       <c r="Q31" s="15">
         <f t="shared" si="6"/>
-        <v>0.7142857142857143</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="R31" s="15">
         <f t="shared" si="6"/>
@@ -15329,27 +15529,27 @@
       </c>
       <c r="S31" s="15">
         <f>(COUNTIF(S17:S30,"○"))/14</f>
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="T31" s="15">
         <f t="shared" si="6"/>
-        <v>0.5714285714285714</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="U31" s="15">
         <f t="shared" si="6"/>
-        <v>0.6428571428571429</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="V31" s="15">
         <f t="shared" si="6"/>
-        <v>0.7142857142857143</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="W31" s="15">
         <f t="shared" si="6"/>
-        <v>0.7142857142857143</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="X31" s="15">
         <f t="shared" si="6"/>
-        <v>0.7857142857142857</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="Y31" s="15">
         <f t="shared" si="6"/>
@@ -15361,7 +15561,7 @@
       </c>
       <c r="AA31" s="15">
         <f t="shared" si="6"/>
-        <v>0.5714285714285714</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="AD31" s="3" t="s">
         <v>5</v>
@@ -15416,7 +15616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:50" x14ac:dyDescent="0.4">
       <c r="G32" s="12"/>
       <c r="AE32" s="3">
         <v>2</v>
@@ -15465,7 +15665,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="33" spans="30:50" x14ac:dyDescent="0.25">
+    <row r="33" spans="30:50" x14ac:dyDescent="0.4">
       <c r="AD33" s="3" t="s">
         <v>7</v>
       </c>
@@ -15499,7 +15699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="30:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="30:50" x14ac:dyDescent="0.4">
       <c r="AE34" s="3">
         <v>2</v>
       </c>
@@ -15527,7 +15727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="30:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="30:50" x14ac:dyDescent="0.4">
       <c r="AE35" s="3">
         <v>3</v>
       </c>
@@ -15555,7 +15755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="30:50" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="30:50" x14ac:dyDescent="0.4">
       <c r="AE36" s="3">
         <v>4</v>
       </c>
@@ -15603,7 +15803,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="37" spans="30:50" x14ac:dyDescent="0.25">
+    <row r="37" spans="30:50" x14ac:dyDescent="0.4">
       <c r="AD37" s="3" t="s">
         <v>6</v>
       </c>
@@ -15637,7 +15837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="30:50" x14ac:dyDescent="0.25">
+    <row r="38" spans="30:50" x14ac:dyDescent="0.4">
       <c r="AH38" s="15">
         <f>(COUNTIF(AH3:AH37,"○")/32)</f>
         <v>0.625</v>
@@ -15681,12 +15881,12 @@
       <c r="AV38"/>
       <c r="AW38"/>
     </row>
-    <row r="39" spans="30:50" x14ac:dyDescent="0.25">
+    <row r="39" spans="30:50" x14ac:dyDescent="0.4">
       <c r="AV39"/>
       <c r="AW39"/>
       <c r="AX39" s="12"/>
     </row>
-    <row r="40" spans="30:50" x14ac:dyDescent="0.25">
+    <row r="40" spans="30:50" x14ac:dyDescent="0.4">
       <c r="AG40" s="12"/>
     </row>
   </sheetData>

--- a/Experiment-Data/Answer-Data.xlsx
+++ b/Experiment-Data/Answer-Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\eye-tracking-software\Experiment-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FAB7D36-9DA4-48FC-939F-540D06FF5BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A077BE28-FA90-4C0B-BBAD-7FA5E44C13D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{65F65776-174E-4145-8CCF-AA6B8A50F68A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="8" xr2:uid="{65F65776-174E-4145-8CCF-AA6B8A50F68A}"/>
   </bookViews>
   <sheets>
     <sheet name="1st-Scores" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <sheet name="2nd-E-Data" sheetId="6" r:id="rId6"/>
     <sheet name="2nd-J-Data" sheetId="7" r:id="rId7"/>
     <sheet name="2nd-All-Data" sheetId="8" r:id="rId8"/>
+    <sheet name="2nd-E-Data-wScores" sheetId="9" r:id="rId9"/>
+    <sheet name="2nd-J-Data-wScores" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="39">
   <si>
     <t>English</t>
   </si>
@@ -205,15 +207,23 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>得点率(％)</t>
+    <rPh sb="0" eb="3">
+      <t>トクテンリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="180" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,6 +314,21 @@
       <sz val="11"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -413,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -530,57 +555,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -593,35 +567,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -630,35 +591,129 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -721,56 +776,6 @@
         <a:xfrm>
           <a:off x="9271467" y="526677"/>
           <a:ext cx="7706566" cy="6145081"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>392906</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>83344</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>569119</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>47149</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E3D2A5B-3240-C56E-EDB9-407FCFCF33D4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17145000" y="1035844"/>
-          <a:ext cx="7772400" cy="5440680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1014,56 +1019,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>481853</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>168086</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>51547</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>196325</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2969F82-5258-3D9E-90DC-1922D1B58156}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20495559" y="874057"/>
-          <a:ext cx="7772400" cy="5440680"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>515470</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -1089,7 +1044,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1387,56 +1342,6 @@
         <a:xfrm>
           <a:off x="16528677" y="571500"/>
           <a:ext cx="7772400" cy="6217920"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>560293</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>201707</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>129987</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>1346</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22CCEFC9-4A9A-82D5-0547-98FD19166612}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="24664146" y="907678"/>
-          <a:ext cx="7772400" cy="5440680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1755,56 +1660,6 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>67236</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>298077</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>95475</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="図 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B4DE6BB-9949-34E4-C070-787AE5C20918}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16371795" y="773207"/>
-          <a:ext cx="7772400" cy="5440680"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -1831,7 +1686,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8034618" y="470647"/>
+          <a:off x="7944971" y="470647"/>
           <a:ext cx="7772400" cy="6217920"/>
           <a:chOff x="8079441" y="481853"/>
           <a:chExt cx="7772400" cy="6217920"/>
@@ -1851,7 +1706,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2403,56 +2258,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>437029</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>6723</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>196327</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="図 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92E137DE-B7FD-172A-DC81-30927706924D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15318441" y="874059"/>
-          <a:ext cx="7772400" cy="5440680"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2659,25 +2464,350 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>448235</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>6723</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>21067</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="11" name="グループ化 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{777546E7-D747-949D-041D-CD6A09852F65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7888941" y="627529"/>
+          <a:ext cx="7772400" cy="6217920"/>
+          <a:chOff x="8258735" y="638735"/>
+          <a:chExt cx="7772400" cy="6217920"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="10" name="図 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B542BCB6-88F2-295B-23A6-42CE78B11498}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8258735" y="638735"/>
+            <a:ext cx="7772400" cy="6217920"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="四角形: 角を丸くする 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBB96263-2085-BDD8-8E67-950E74CEE09B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9838765" y="3496234"/>
+            <a:ext cx="918882" cy="336178"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" kern="1200">
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t>86.25</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" kern="1200">
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t>％</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="四角形: 角を丸くする 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D35D760C-4689-DEAA-9014-B830DC297BA4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13352928" y="5183841"/>
+            <a:ext cx="806107" cy="358589"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" kern="1200">
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t>90</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" kern="1200">
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t>％</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="四角形: 角を丸くする 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00CF1CC0-DA2A-D64E-5C9A-33A0F2F8935F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13830299" y="2960595"/>
+            <a:ext cx="727666" cy="358589"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" kern="1200">
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t>79</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" kern="1200">
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t>％</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="四角形: 角を丸くする 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E583BD73-5143-3260-C544-D3F068FF7A9D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12729882" y="4022911"/>
+            <a:ext cx="930089" cy="358588"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" kern="1200">
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t>61.67</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" kern="1200">
+                <a:latin typeface="+mj-lt"/>
+              </a:rPr>
+              <a:t>％</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>593912</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>33617</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>560295</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>112060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>163606</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>61856</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>118784</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>211568</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="図 9">
+        <xdr:cNvPr id="19" name="図 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFE38B40-5937-B971-F427-3060A0E70190}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79CE7522-56D5-9CEC-3B45-B671D1EDA0D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2686,7 +2816,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2699,14 +2829,319 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14713324" y="739588"/>
-          <a:ext cx="7772400" cy="5440680"/>
+          <a:off x="8303560" y="582707"/>
+          <a:ext cx="7772400" cy="6217920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>537884</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>212912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>89649</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>78443</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="四角形: 角を丸くする 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40DE860B-6C2F-C597-8534-B48EBCD600AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11710149" y="5154706"/>
+          <a:ext cx="918882" cy="336178"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" kern="1200">
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>78</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>％</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>544606</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>62754</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>186020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="四角形: 角を丸くする 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ECA4BB8-75BB-9E1F-AA79-741A8C5AA188}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11716871" y="2180666"/>
+          <a:ext cx="912158" cy="358589"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" kern="1200">
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>88.75</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>％</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>136712</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>35861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>180819</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>159127</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="四角形: 角を丸くする 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A336E01E-6003-6CEB-1285-9FFB401D547E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13359653" y="3095067"/>
+          <a:ext cx="727666" cy="358589"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" kern="1200">
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>90</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>％</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>123266</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>369796</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>201706</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="四角形: 角を丸くする 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00BCF036-C2E0-695A-8946-ED139525F70F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9928413" y="4314265"/>
+          <a:ext cx="930089" cy="358588"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" kern="1200">
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>78.57</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>％</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3031,7 +3466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C853D4-11AD-448C-900A-323815755F36}">
   <dimension ref="A1:BA43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -3072,28 +3507,28 @@
       <c r="F1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
       <c r="AA1" s="5"/>
       <c r="AB1" s="5" t="s">
         <v>10</v>
@@ -3116,18 +3551,18 @@
       <c r="AH1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="AI1" s="41" t="s">
+      <c r="AI1" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-      <c r="AO1" s="41"/>
-      <c r="AP1" s="41"/>
-      <c r="AQ1" s="41"/>
-      <c r="AR1" s="41"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="53"/>
+      <c r="AO1" s="53"/>
+      <c r="AP1" s="53"/>
+      <c r="AQ1" s="53"/>
+      <c r="AR1" s="53"/>
       <c r="AT1" s="5" t="s">
         <v>10</v>
       </c>
@@ -7905,6 +8340,1260 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B82402-5F49-4E2C-A692-338B68D466B2}">
+  <dimension ref="A1:T40"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="24.375" style="3" customWidth="1"/>
+    <col min="2" max="6" width="11.375" customWidth="1"/>
+    <col min="7" max="7" width="2.5" customWidth="1"/>
+    <col min="8" max="8" width="9.125" customWidth="1"/>
+    <col min="10" max="10" width="9.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="66">
+        <v>4</v>
+      </c>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="58"/>
+    </row>
+    <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="59"/>
+      <c r="C2" s="26">
+        <v>2</v>
+      </c>
+      <c r="D2" s="26">
+        <v>3</v>
+      </c>
+      <c r="E2" s="26">
+        <v>4</v>
+      </c>
+      <c r="F2" s="26">
+        <v>1</v>
+      </c>
+      <c r="G2" s="26"/>
+      <c r="H2" s="22">
+        <v>1</v>
+      </c>
+      <c r="I2" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="92">
+        <v>90</v>
+      </c>
+      <c r="D3" s="92">
+        <v>88.75</v>
+      </c>
+      <c r="E3" s="92">
+        <v>78.571428999999995</v>
+      </c>
+      <c r="F3" s="92">
+        <v>78</v>
+      </c>
+      <c r="G3" s="68"/>
+      <c r="H3" s="80">
+        <v>-2.8187E-2</v>
+      </c>
+      <c r="I3" s="81">
+        <v>0.14141599999999999</v>
+      </c>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+    </row>
+    <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="61"/>
+      <c r="B4" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="93">
+        <v>6.324555320336759</v>
+      </c>
+      <c r="D4" s="93">
+        <v>8.3452295954035929</v>
+      </c>
+      <c r="E4" s="93">
+        <v>6.9006556210261643</v>
+      </c>
+      <c r="F4" s="93">
+        <v>13.038404810405298</v>
+      </c>
+      <c r="G4" s="69"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="83"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+    </row>
+    <row r="5" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="62"/>
+      <c r="B5" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="78">
+        <v>7.0272836892630655E-2</v>
+      </c>
+      <c r="D5" s="78">
+        <v>9.4030756004547522E-2</v>
+      </c>
+      <c r="E5" s="78">
+        <v>8.7826525606733777E-2</v>
+      </c>
+      <c r="F5" s="78">
+        <v>0.16715903603083715</v>
+      </c>
+      <c r="G5" s="70"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="85"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+    </row>
+    <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="92">
+        <v>102.242059</v>
+      </c>
+      <c r="D6" s="92">
+        <v>174.26570599999999</v>
+      </c>
+      <c r="E6" s="92">
+        <v>120.40132699999999</v>
+      </c>
+      <c r="F6" s="92">
+        <v>95.840238999999997</v>
+      </c>
+      <c r="G6" s="67"/>
+      <c r="H6" s="82">
+        <v>-0.173153</v>
+      </c>
+      <c r="I6" s="86">
+        <v>0.53786500000000004</v>
+      </c>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+    </row>
+    <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="61"/>
+      <c r="B7" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="74">
+        <v>13.051566112923</v>
+      </c>
+      <c r="D7" s="74">
+        <v>28.052329903236203</v>
+      </c>
+      <c r="E7" s="74">
+        <v>14.236994170118916</v>
+      </c>
+      <c r="F7" s="74">
+        <v>18.939287156595942</v>
+      </c>
+      <c r="G7" s="22"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="86"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+    </row>
+    <row r="8" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="62"/>
+      <c r="B8" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="78">
+        <v>0.12765359227480932</v>
+      </c>
+      <c r="D8" s="78">
+        <v>0.16097447138128373</v>
+      </c>
+      <c r="E8" s="78">
+        <v>0.11824615662349731</v>
+      </c>
+      <c r="F8" s="78">
+        <v>0.19761310441427365</v>
+      </c>
+      <c r="G8" s="67"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="86"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+    </row>
+    <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="92">
+        <v>1434.6332010000001</v>
+      </c>
+      <c r="D9" s="92">
+        <v>1179.510305</v>
+      </c>
+      <c r="E9" s="92">
+        <v>992.29636200000004</v>
+      </c>
+      <c r="F9" s="92">
+        <v>1153.2708809999999</v>
+      </c>
+      <c r="G9" s="25"/>
+      <c r="H9" s="80">
+        <v>0.41355599999999998</v>
+      </c>
+      <c r="I9" s="88">
+        <v>0.167078</v>
+      </c>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+    </row>
+    <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="61"/>
+      <c r="B10" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="74">
+        <v>236.85929703095886</v>
+      </c>
+      <c r="D10" s="74">
+        <v>94.933136780578366</v>
+      </c>
+      <c r="E10" s="74">
+        <v>165.55554747576414</v>
+      </c>
+      <c r="F10" s="74">
+        <v>110.71276122922777</v>
+      </c>
+      <c r="G10" s="67"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="86"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+    </row>
+    <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="62"/>
+      <c r="B11" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="78">
+        <v>0.16510094487277857</v>
+      </c>
+      <c r="D11" s="78">
+        <v>8.0485211852878519E-2</v>
+      </c>
+      <c r="E11" s="78">
+        <v>0.16684082882464921</v>
+      </c>
+      <c r="F11" s="78">
+        <v>9.5998921895286957E-2</v>
+      </c>
+      <c r="G11" s="76"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="89"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+    </row>
+    <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="92">
+        <v>1328.666667</v>
+      </c>
+      <c r="D12" s="92">
+        <v>2696.25</v>
+      </c>
+      <c r="E12" s="92">
+        <v>2087</v>
+      </c>
+      <c r="F12" s="92">
+        <v>1283.2</v>
+      </c>
+      <c r="G12" s="67"/>
+      <c r="H12" s="82">
+        <v>-0.37055300000000002</v>
+      </c>
+      <c r="I12" s="86">
+        <v>0.40938999999999998</v>
+      </c>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+    </row>
+    <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="61"/>
+      <c r="B13" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="74">
+        <v>364.4231972130753</v>
+      </c>
+      <c r="D13" s="74">
+        <v>326.84891660521072</v>
+      </c>
+      <c r="E13" s="74">
+        <v>171.13639784394201</v>
+      </c>
+      <c r="F13" s="74">
+        <v>154.08179645889388</v>
+      </c>
+      <c r="G13" s="22"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="86"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+    </row>
+    <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="62"/>
+      <c r="B14" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="79">
+        <v>0.27427736863144719</v>
+      </c>
+      <c r="D14" s="78">
+        <v>0.12122352029864097</v>
+      </c>
+      <c r="E14" s="78">
+        <v>8.2001148942952573E-2</v>
+      </c>
+      <c r="F14" s="78">
+        <v>0.12007621295113301</v>
+      </c>
+      <c r="G14" s="67"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="86"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+    </row>
+    <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="92">
+        <v>13.721456999999999</v>
+      </c>
+      <c r="D15" s="92">
+        <v>16.096601</v>
+      </c>
+      <c r="E15" s="92">
+        <v>17.231268</v>
+      </c>
+      <c r="F15" s="92">
+        <v>13.066091999999999</v>
+      </c>
+      <c r="G15" s="25"/>
+      <c r="H15" s="80">
+        <v>-0.42402699999999999</v>
+      </c>
+      <c r="I15" s="88">
+        <v>1.4246999999999999E-2</v>
+      </c>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+    </row>
+    <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="61"/>
+      <c r="B16" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="74">
+        <v>1.802960066113501</v>
+      </c>
+      <c r="D16" s="74">
+        <v>2.0160089285516571</v>
+      </c>
+      <c r="E16" s="74">
+        <v>1.7742094013954497</v>
+      </c>
+      <c r="F16" s="74">
+        <v>1.7486649193027233</v>
+      </c>
+      <c r="G16" s="67"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="86"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+    </row>
+    <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="62"/>
+      <c r="B17" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="78">
+        <v>0.13139712977371873</v>
+      </c>
+      <c r="D17" s="78">
+        <v>0.12524438721887043</v>
+      </c>
+      <c r="E17" s="78">
+        <v>0.10296452944701746</v>
+      </c>
+      <c r="F17" s="78">
+        <v>0.13383228277458351</v>
+      </c>
+      <c r="G17" s="24"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="89"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+    </row>
+    <row r="18" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="92">
+        <v>144.017572</v>
+      </c>
+      <c r="D18" s="92">
+        <v>101.81745100000001</v>
+      </c>
+      <c r="E18" s="92">
+        <v>81.711557999999997</v>
+      </c>
+      <c r="F18" s="92">
+        <v>118.336457</v>
+      </c>
+      <c r="G18" s="67"/>
+      <c r="H18" s="82">
+        <v>0.486929</v>
+      </c>
+      <c r="I18" s="86">
+        <v>7.7284000000000005E-2</v>
+      </c>
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="61"/>
+      <c r="B19" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="74">
+        <v>33.324446597055442</v>
+      </c>
+      <c r="D19" s="74">
+        <v>11.37199173408071</v>
+      </c>
+      <c r="E19" s="74">
+        <v>17.278308713528649</v>
+      </c>
+      <c r="F19" s="74">
+        <v>21.499348176165714</v>
+      </c>
+      <c r="G19" s="22"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="86"/>
+      <c r="K19" s="22"/>
+    </row>
+    <row r="20" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="61"/>
+      <c r="B20" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="79">
+        <v>0.23139153184068012</v>
+      </c>
+      <c r="D20" s="78">
+        <v>0.11169000620611402</v>
+      </c>
+      <c r="E20" s="78">
+        <v>0.21145489250772392</v>
+      </c>
+      <c r="F20" s="78">
+        <v>0.18167983663872678</v>
+      </c>
+      <c r="G20" s="67"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="86"/>
+      <c r="K20" s="33"/>
+    </row>
+    <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="92">
+        <v>1343.3503909999999</v>
+      </c>
+      <c r="D21" s="92">
+        <v>1127.292029</v>
+      </c>
+      <c r="E21" s="92">
+        <v>883.62551399999995</v>
+      </c>
+      <c r="F21" s="92">
+        <v>878.05185200000005</v>
+      </c>
+      <c r="G21" s="25"/>
+      <c r="H21" s="80">
+        <v>0.29672999999999999</v>
+      </c>
+      <c r="I21" s="88">
+        <v>0.35155900000000001</v>
+      </c>
+      <c r="K21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+    </row>
+    <row r="22" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="61"/>
+      <c r="B22" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="74">
+        <v>159.16366388406621</v>
+      </c>
+      <c r="D22" s="74">
+        <v>301.58781036043217</v>
+      </c>
+      <c r="E22" s="74">
+        <v>236.87678185926117</v>
+      </c>
+      <c r="F22" s="74">
+        <v>140.42144200228111</v>
+      </c>
+      <c r="G22" s="67"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="86"/>
+      <c r="K22" s="22"/>
+    </row>
+    <row r="23" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="62"/>
+      <c r="B23" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="78">
+        <v>0.11848261254130697</v>
+      </c>
+      <c r="D23" s="79">
+        <v>0.26753299287316451</v>
+      </c>
+      <c r="E23" s="79">
+        <v>0.26807372366033921</v>
+      </c>
+      <c r="F23" s="78">
+        <v>0.15992386062671968</v>
+      </c>
+      <c r="G23" s="24"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="89"/>
+      <c r="K23" s="33"/>
+    </row>
+    <row r="24" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="92">
+        <v>539.63650299999995</v>
+      </c>
+      <c r="D24" s="92">
+        <v>504.36429900000002</v>
+      </c>
+      <c r="E24" s="92">
+        <v>450.18796800000001</v>
+      </c>
+      <c r="F24" s="92">
+        <v>501.741713</v>
+      </c>
+      <c r="G24" s="67"/>
+      <c r="H24" s="82">
+        <v>0.375917</v>
+      </c>
+      <c r="I24" s="86">
+        <v>0.25736399999999998</v>
+      </c>
+      <c r="K24" s="20"/>
+    </row>
+    <row r="25" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="61"/>
+      <c r="B25" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="74">
+        <v>63.274618774039247</v>
+      </c>
+      <c r="D25" s="74">
+        <v>54.545922725718007</v>
+      </c>
+      <c r="E25" s="74">
+        <v>68.718572118460088</v>
+      </c>
+      <c r="F25" s="74">
+        <v>42.916993988395788</v>
+      </c>
+      <c r="G25" s="22"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="86"/>
+      <c r="K25" s="22"/>
+    </row>
+    <row r="26" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="61"/>
+      <c r="B26" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="78">
+        <v>0.11725414871358183</v>
+      </c>
+      <c r="D26" s="78">
+        <v>0.10814786620279404</v>
+      </c>
+      <c r="E26" s="78">
+        <v>0.15264417755043175</v>
+      </c>
+      <c r="F26" s="78">
+        <v>8.5536029547528938E-2</v>
+      </c>
+      <c r="G26" s="67"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="86"/>
+      <c r="K26" s="33"/>
+    </row>
+    <row r="27" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="92">
+        <v>59.254765999999996</v>
+      </c>
+      <c r="D27" s="92">
+        <v>87.517392999999998</v>
+      </c>
+      <c r="E27" s="92">
+        <v>57.598889</v>
+      </c>
+      <c r="F27" s="92">
+        <v>51.586761000000003</v>
+      </c>
+      <c r="G27" s="25"/>
+      <c r="H27" s="80">
+        <v>-9.9143999999999996E-2</v>
+      </c>
+      <c r="I27" s="88">
+        <v>0.54666899999999996</v>
+      </c>
+      <c r="K27" s="20"/>
+    </row>
+    <row r="28" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="61"/>
+      <c r="B28" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="74">
+        <v>6.4139876052265645</v>
+      </c>
+      <c r="D28" s="74">
+        <v>9.8044365467883985</v>
+      </c>
+      <c r="E28" s="74">
+        <v>11.006682197647027</v>
+      </c>
+      <c r="F28" s="74">
+        <v>8.6029711727983837</v>
+      </c>
+      <c r="G28" s="67"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="86"/>
+      <c r="K28" s="22"/>
+    </row>
+    <row r="29" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="62"/>
+      <c r="B29" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="78">
+        <v>0.10824424832302207</v>
+      </c>
+      <c r="D29" s="78">
+        <v>0.11202843469969904</v>
+      </c>
+      <c r="E29" s="78">
+        <v>0.19109191841611783</v>
+      </c>
+      <c r="F29" s="78">
+        <v>0.16676703491421729</v>
+      </c>
+      <c r="G29" s="24"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="89"/>
+      <c r="K29" s="33"/>
+    </row>
+    <row r="30" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="92">
+        <v>0.16664799999999999</v>
+      </c>
+      <c r="D30" s="92">
+        <v>0.15400700000000001</v>
+      </c>
+      <c r="E30" s="92">
+        <v>0.166241</v>
+      </c>
+      <c r="F30" s="92">
+        <v>0.14464199999999999</v>
+      </c>
+      <c r="G30" s="25"/>
+      <c r="H30" s="80">
+        <v>6.9235000000000005E-2</v>
+      </c>
+      <c r="I30" s="88">
+        <v>1.8303E-2</v>
+      </c>
+      <c r="K30" s="20"/>
+    </row>
+    <row r="31" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="64"/>
+      <c r="B31" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="74">
+        <v>2.4979991993593593E-2</v>
+      </c>
+      <c r="D31" s="74">
+        <v>9.746794344808964E-3</v>
+      </c>
+      <c r="E31" s="74">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F31" s="74">
+        <v>1.2165525060596439E-2</v>
+      </c>
+      <c r="G31" s="67"/>
+      <c r="H31" s="82"/>
+      <c r="I31" s="86"/>
+      <c r="K31" s="90"/>
+      <c r="L31" s="91"/>
+      <c r="M31" s="91"/>
+      <c r="N31" s="91"/>
+    </row>
+    <row r="32" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="65"/>
+      <c r="B32" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="78">
+        <v>0.14989674039648598</v>
+      </c>
+      <c r="D32" s="78">
+        <v>6.328799564181474E-2</v>
+      </c>
+      <c r="E32" s="78">
+        <v>7.2184358852509317E-2</v>
+      </c>
+      <c r="F32" s="78">
+        <v>8.4107832169054902E-2</v>
+      </c>
+      <c r="G32" s="24"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="89"/>
+      <c r="K32" s="90"/>
+      <c r="L32" s="91"/>
+      <c r="M32" s="91"/>
+      <c r="N32" s="91"/>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20"/>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="I3:I5"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:H32">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6:I32">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H32">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I32">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:F3">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:F6">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:F9">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:F12">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:F15">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:F18">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:F21">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:F24">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:F27">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30:F30">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7928,26 +9617,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="54">
+      <c r="B1" s="58"/>
+      <c r="C1" s="66">
         <v>3</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
       <c r="F1" s="22"/>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="45"/>
+      <c r="H1" s="58"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="26">
         <v>3</v>
       </c>
@@ -7966,7 +9655,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="61" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="27" t="s">
@@ -7982,15 +9671,15 @@
         <v>295.16666700000002</v>
       </c>
       <c r="F3" s="25"/>
-      <c r="G3" s="47">
+      <c r="G3" s="57">
         <v>-0.188448</v>
       </c>
-      <c r="H3" s="42">
+      <c r="H3" s="55">
         <v>0.54788800000000004</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="51"/>
+      <c r="A4" s="61"/>
       <c r="B4" s="21" t="s">
         <v>32</v>
       </c>
@@ -8004,11 +9693,11 @@
         <v>45.984417654244574</v>
       </c>
       <c r="F4" s="22"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="43"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="54"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="52"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="23" t="s">
         <v>35</v>
       </c>
@@ -8025,11 +9714,11 @@
         <v>0.15579136398299531</v>
       </c>
       <c r="F5" s="24"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="44"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="56"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="60" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="31" t="s">
@@ -8045,15 +9734,15 @@
         <v>1165.094081</v>
       </c>
       <c r="F6" s="22"/>
-      <c r="G6" s="45">
+      <c r="G6" s="58">
         <v>0.503328</v>
       </c>
-      <c r="H6" s="43">
+      <c r="H6" s="54">
         <v>-4.8842999999999998E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="51"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="32" t="s">
         <v>17</v>
       </c>
@@ -8067,11 +9756,11 @@
         <v>120.80618517691882</v>
       </c>
       <c r="F7" s="22"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="43"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="54"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="52"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="23" t="s">
         <v>34</v>
       </c>
@@ -8088,11 +9777,11 @@
         <v>0.10368792284416285</v>
       </c>
       <c r="F8" s="22"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="43"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="54"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="60" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="31" t="s">
@@ -8108,15 +9797,15 @@
         <v>1078.5</v>
       </c>
       <c r="F9" s="25"/>
-      <c r="G9" s="47">
+      <c r="G9" s="57">
         <v>-0.221611</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="55">
         <v>0.53761899999999996</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="51"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="32" t="s">
         <v>17</v>
       </c>
@@ -8130,11 +9819,11 @@
         <v>258.54109924729568</v>
       </c>
       <c r="F10" s="22"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="43"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="54"/>
     </row>
     <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="52"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="34" t="s">
         <v>34</v>
       </c>
@@ -8151,11 +9840,11 @@
         <v>0.23972285512034833</v>
       </c>
       <c r="F11" s="24"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="44"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="56"/>
     </row>
     <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="60" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="31" t="s">
@@ -8171,15 +9860,15 @@
         <v>13.026258</v>
       </c>
       <c r="F12" s="22"/>
-      <c r="G12" s="45">
+      <c r="G12" s="58">
         <v>-0.32667400000000002</v>
       </c>
-      <c r="H12" s="43">
+      <c r="H12" s="54">
         <v>-0.13261100000000001</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="51"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="32" t="s">
         <v>17</v>
       </c>
@@ -8193,11 +9882,11 @@
         <v>1.1520512141393715</v>
       </c>
       <c r="F13" s="22"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="43"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="54"/>
     </row>
     <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="52"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="34" t="s">
         <v>34</v>
       </c>
@@ -8214,11 +9903,11 @@
         <v>8.8440687581911204E-2</v>
       </c>
       <c r="F14" s="22"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="43"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="54"/>
     </row>
     <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="61" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -8234,15 +9923,15 @@
         <v>290.23841599999997</v>
       </c>
       <c r="F15" s="25"/>
-      <c r="G15" s="47">
+      <c r="G15" s="57">
         <v>0.51528499999999999</v>
       </c>
-      <c r="H15" s="42">
+      <c r="H15" s="55">
         <v>1.5509E-2</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="51"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="32" t="s">
         <v>17</v>
       </c>
@@ -8256,11 +9945,11 @@
         <v>33.816063239235881</v>
       </c>
       <c r="F16" s="22"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="43"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="54"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="51"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="32" t="s">
         <v>34</v>
       </c>
@@ -8277,11 +9966,11 @@
         <v>0.11651132784309257</v>
       </c>
       <c r="F17" s="24"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="44"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="56"/>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="60" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="31" t="s">
@@ -8297,15 +9986,15 @@
         <v>1328.2708680000001</v>
       </c>
       <c r="F18" s="22"/>
-      <c r="G18" s="45">
+      <c r="G18" s="58">
         <v>0.212811</v>
       </c>
-      <c r="H18" s="43">
+      <c r="H18" s="54">
         <v>0.184026</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="51"/>
+      <c r="A19" s="61"/>
       <c r="B19" s="32" t="s">
         <v>17</v>
       </c>
@@ -8319,11 +10008,11 @@
         <v>185.2619838175118</v>
       </c>
       <c r="F19" s="22"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="43"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="54"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="52"/>
+      <c r="A20" s="62"/>
       <c r="B20" s="34" t="s">
         <v>34</v>
       </c>
@@ -8340,11 +10029,11 @@
         <v>0.13947605739216723</v>
       </c>
       <c r="F20" s="22"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="43"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="54"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="61" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="27" t="s">
@@ -8360,15 +10049,15 @@
         <v>436.16804999999999</v>
       </c>
       <c r="F21" s="25"/>
-      <c r="G21" s="47">
+      <c r="G21" s="57">
         <v>0.42631999999999998</v>
       </c>
-      <c r="H21" s="42">
+      <c r="H21" s="55">
         <v>3.6583999999999998E-2</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="51"/>
+      <c r="A22" s="61"/>
       <c r="B22" s="32" t="s">
         <v>17</v>
       </c>
@@ -8382,11 +10071,11 @@
         <v>26.527001828325794</v>
       </c>
       <c r="F22" s="22"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="43"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="54"/>
     </row>
     <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="51"/>
+      <c r="A23" s="61"/>
       <c r="B23" s="32" t="s">
         <v>34</v>
       </c>
@@ -8403,11 +10092,11 @@
         <v>6.0818305761565515E-2</v>
       </c>
       <c r="F23" s="24"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="44"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="56"/>
     </row>
     <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="60" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="31" t="s">
@@ -8423,15 +10112,15 @@
         <v>149.374664</v>
       </c>
       <c r="F24" s="22"/>
-      <c r="G24" s="45">
+      <c r="G24" s="58">
         <v>0.17419599999999999</v>
       </c>
-      <c r="H24" s="43">
+      <c r="H24" s="54">
         <v>0.53308299999999997</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="51"/>
+      <c r="A25" s="61"/>
       <c r="B25" s="32" t="s">
         <v>17</v>
       </c>
@@ -8445,11 +10134,11 @@
         <v>25.510562851493496</v>
       </c>
       <c r="F25" s="22"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="43"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="54"/>
     </row>
     <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="52"/>
+      <c r="A26" s="62"/>
       <c r="B26" s="34" t="s">
         <v>34</v>
       </c>
@@ -8466,11 +10155,11 @@
         <v>0.17078239487449826</v>
       </c>
       <c r="F26" s="22"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="43"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="54"/>
     </row>
     <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="63" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="31" t="s">
@@ -8486,15 +10175,15 @@
         <v>0.95097100000000001</v>
       </c>
       <c r="F27" s="25"/>
-      <c r="G27" s="47">
+      <c r="G27" s="57">
         <v>-0.18006</v>
       </c>
-      <c r="H27" s="42">
+      <c r="H27" s="55">
         <v>-0.26681700000000003</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="49"/>
+      <c r="A28" s="64"/>
       <c r="B28" s="32" t="s">
         <v>17</v>
       </c>
@@ -8508,11 +10197,11 @@
         <v>1.0488088481701515E-2</v>
       </c>
       <c r="F28" s="22"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="43"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="54"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="50"/>
+      <c r="A29" s="65"/>
       <c r="B29" s="34" t="s">
         <v>34</v>
       </c>
@@ -8529,14 +10218,14 @@
         <v>1.1028820523130058E-2</v>
       </c>
       <c r="F29" s="24"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="44"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="56"/>
     </row>
     <row r="30" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="46" t="s">
+      <c r="A30" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="46"/>
+      <c r="B30" s="59"/>
       <c r="C30" s="36">
         <v>0.54</v>
       </c>
@@ -8600,9 +10289,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="G21:G23"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="G27:G29"/>
@@ -8621,6 +10307,12 @@
     <mergeCell ref="G18:G20"/>
     <mergeCell ref="G24:G26"/>
     <mergeCell ref="A30:B30"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="G21:G23"/>
     <mergeCell ref="H6:H8"/>
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="G15:G17"/>
@@ -8629,131 +10321,14 @@
     <mergeCell ref="G6:G8"/>
     <mergeCell ref="G9:G11"/>
     <mergeCell ref="G12:G14"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="H18:H20"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C3:E3">
     <cfRule type="colorScale" priority="114">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30:E30">
-    <cfRule type="colorScale" priority="93">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G29">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H29">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
@@ -8838,6 +10413,120 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C30:E30">
+    <cfRule type="colorScale" priority="93">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G29">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H29">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -8864,26 +10553,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="54">
+      <c r="B1" s="58"/>
+      <c r="C1" s="66">
         <v>3</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
       <c r="F1" s="22"/>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="45"/>
+      <c r="H1" s="58"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="26">
         <v>3</v>
       </c>
@@ -8902,7 +10591,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="61" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="32" t="s">
@@ -8918,10 +10607,10 @@
         <v>170.75</v>
       </c>
       <c r="F3" s="25"/>
-      <c r="G3" s="47">
+      <c r="G3" s="57">
         <v>0.19814899999999999</v>
       </c>
-      <c r="H3" s="42">
+      <c r="H3" s="55">
         <v>0.554253</v>
       </c>
       <c r="J3" s="20"/>
@@ -8935,7 +10624,7 @@
       <c r="R3" s="20"/>
     </row>
     <row r="4" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="51"/>
+      <c r="A4" s="61"/>
       <c r="B4" s="32" t="s">
         <v>17</v>
       </c>
@@ -8949,8 +10638,8 @@
         <v>18.304956405301816</v>
       </c>
       <c r="F4" s="22"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="43"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="54"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
@@ -8962,7 +10651,7 @@
       <c r="R4" s="20"/>
     </row>
     <row r="5" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="52"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="34" t="s">
         <v>37</v>
       </c>
@@ -8979,11 +10668,11 @@
         <v>0.1072032585962039</v>
       </c>
       <c r="F5" s="24"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="44"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="56"/>
     </row>
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="60" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="38" t="s">
@@ -8999,15 +10688,15 @@
         <v>1066.667138</v>
       </c>
       <c r="F6" s="22"/>
-      <c r="G6" s="45">
+      <c r="G6" s="58">
         <v>0.38675100000000001</v>
       </c>
-      <c r="H6" s="43">
+      <c r="H6" s="54">
         <v>-0.30294199999999999</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="51"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="32" t="s">
         <v>17</v>
       </c>
@@ -9021,11 +10710,11 @@
         <v>154.17636012048021</v>
       </c>
       <c r="F7" s="22"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="43"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="54"/>
     </row>
     <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="52"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="34" t="s">
         <v>34</v>
       </c>
@@ -9042,11 +10731,11 @@
         <v>0.14454027374421674</v>
       </c>
       <c r="F8" s="22"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="43"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="54"/>
     </row>
     <row r="9" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="60" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="38" t="s">
@@ -9062,15 +10751,15 @@
         <v>613.25</v>
       </c>
       <c r="F9" s="25"/>
-      <c r="G9" s="47">
+      <c r="G9" s="57">
         <v>0.173847</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="55">
         <v>0.57918999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="51"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="32" t="s">
         <v>17</v>
       </c>
@@ -9084,11 +10773,11 @@
         <v>50.024993753123049</v>
       </c>
       <c r="F10" s="22"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="43"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="54"/>
     </row>
     <row r="11" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="52"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="34" t="s">
         <v>34</v>
       </c>
@@ -9105,11 +10794,11 @@
         <v>8.1573573180795833E-2</v>
       </c>
       <c r="F11" s="24"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="44"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="56"/>
     </row>
     <row r="12" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="60" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="38" t="s">
@@ -9125,15 +10814,15 @@
         <v>12.416684999999999</v>
       </c>
       <c r="F12" s="22"/>
-      <c r="G12" s="45">
+      <c r="G12" s="58">
         <v>-0.25663200000000003</v>
       </c>
-      <c r="H12" s="43">
+      <c r="H12" s="54">
         <v>0.23480300000000001</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="51"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="32" t="s">
         <v>17</v>
       </c>
@@ -9147,11 +10836,11 @@
         <v>0.62217280557735732</v>
       </c>
       <c r="F13" s="22"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="43"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="54"/>
     </row>
     <row r="14" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="52"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="34" t="s">
         <v>34</v>
       </c>
@@ -9168,11 +10857,11 @@
         <v>5.0107802974574726E-2</v>
       </c>
       <c r="F14" s="22"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="43"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="54"/>
     </row>
     <row r="15" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="61" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="32" t="s">
@@ -9188,15 +10877,15 @@
         <v>271.35037599999998</v>
       </c>
       <c r="F15" s="25"/>
-      <c r="G15" s="47">
+      <c r="G15" s="57">
         <v>0.423954</v>
       </c>
-      <c r="H15" s="42">
+      <c r="H15" s="55">
         <v>-0.33226099999999997</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="51"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="32" t="s">
         <v>36</v>
       </c>
@@ -9210,11 +10899,11 @@
         <v>53.314599041913468</v>
       </c>
       <c r="F16" s="22"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="43"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="54"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="51"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="32" t="s">
         <v>34</v>
       </c>
@@ -9231,11 +10920,11 @@
         <v>0.19647881026674335</v>
       </c>
       <c r="F17" s="24"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="44"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="56"/>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="60" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="38" t="s">
@@ -9251,15 +10940,15 @@
         <v>1183.321686</v>
       </c>
       <c r="F18" s="22"/>
-      <c r="G18" s="45">
+      <c r="G18" s="58">
         <v>0.415715</v>
       </c>
-      <c r="H18" s="43">
+      <c r="H18" s="54">
         <v>-1.6017E-2</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="51"/>
+      <c r="A19" s="61"/>
       <c r="B19" s="32" t="s">
         <v>17</v>
       </c>
@@ -9273,11 +10962,11 @@
         <v>153.79639008117195</v>
       </c>
       <c r="F19" s="22"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="43"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="54"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="52"/>
+      <c r="A20" s="62"/>
       <c r="B20" s="34" t="s">
         <v>34</v>
       </c>
@@ -9294,11 +10983,11 @@
         <v>0.12997005962178568</v>
       </c>
       <c r="F20" s="22"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="43"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="54"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="61" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="32" t="s">
@@ -9314,15 +11003,15 @@
         <v>505.92089199999998</v>
       </c>
       <c r="F21" s="25"/>
-      <c r="G21" s="47">
+      <c r="G21" s="57">
         <v>0.425207</v>
       </c>
-      <c r="H21" s="42">
+      <c r="H21" s="55">
         <v>-3.3320000000000002E-2</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="51"/>
+      <c r="A22" s="61"/>
       <c r="B22" s="32" t="s">
         <v>17</v>
       </c>
@@ -9336,11 +11025,11 @@
         <v>32.017303868377176</v>
       </c>
       <c r="F22" s="22"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="43"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="54"/>
     </row>
     <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="51"/>
+      <c r="A23" s="61"/>
       <c r="B23" s="32" t="s">
         <v>34</v>
       </c>
@@ -9357,11 +11046,11 @@
         <v>6.3285198090568623E-2</v>
       </c>
       <c r="F23" s="24"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="44"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="56"/>
     </row>
     <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="60" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="38" t="s">
@@ -9377,15 +11066,15 @@
         <v>86.171711999999999</v>
       </c>
       <c r="F24" s="22"/>
-      <c r="G24" s="45">
+      <c r="G24" s="58">
         <v>0.424012</v>
       </c>
-      <c r="H24" s="43">
+      <c r="H24" s="54">
         <v>0.291018</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="51"/>
+      <c r="A25" s="61"/>
       <c r="B25" s="32" t="s">
         <v>17</v>
       </c>
@@ -9399,11 +11088,11 @@
         <v>8.076926890841591</v>
       </c>
       <c r="F25" s="22"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="43"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="54"/>
     </row>
     <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="52"/>
+      <c r="A26" s="62"/>
       <c r="B26" s="34" t="s">
         <v>34</v>
       </c>
@@ -9420,11 +11109,11 @@
         <v>9.3730607218777212E-2</v>
       </c>
       <c r="F26" s="22"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="43"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="54"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="63" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="38" t="s">
@@ -9440,15 +11129,15 @@
         <v>0.96520300000000003</v>
       </c>
       <c r="F27" s="25"/>
-      <c r="G27" s="47">
+      <c r="G27" s="57">
         <v>-4.3986999999999998E-2</v>
       </c>
-      <c r="H27" s="42">
+      <c r="H27" s="55">
         <v>-0.118243</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A28" s="49"/>
+      <c r="A28" s="64"/>
       <c r="B28" s="32" t="s">
         <v>17</v>
       </c>
@@ -9462,11 +11151,11 @@
         <v>1.5132745950421557E-2</v>
       </c>
       <c r="F28" s="22"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="43"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="54"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A29" s="50"/>
+      <c r="A29" s="65"/>
       <c r="B29" s="34" t="s">
         <v>34</v>
       </c>
@@ -9483,14 +11172,14 @@
         <v>1.5678303890913681E-2</v>
       </c>
       <c r="F29" s="24"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="44"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="56"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A30" s="46" t="s">
+      <c r="A30" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="46"/>
+      <c r="B30" s="59"/>
       <c r="C30" s="36">
         <v>0.91</v>
       </c>
@@ -9560,9 +11249,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="H27:H29"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="G21:G23"/>
@@ -9570,30 +11256,133 @@
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="G24:G26"/>
     <mergeCell ref="H24:H26"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="H12:H14"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="H15:H17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H6:H8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="G9:G11"/>
     <mergeCell ref="H9:H11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="H6:H8"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="H3:H5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="C3:E3">
+    <cfRule type="colorScale" priority="194">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:E6">
+    <cfRule type="colorScale" priority="195">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:E9">
+    <cfRule type="colorScale" priority="196">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:E12">
+    <cfRule type="colorScale" priority="197">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:E15">
+    <cfRule type="colorScale" priority="198">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:E18">
+    <cfRule type="colorScale" priority="199">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:E21">
+    <cfRule type="colorScale" priority="200">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:E24">
+    <cfRule type="colorScale" priority="201">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:E27">
+    <cfRule type="colorScale" priority="202">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30:E30">
+    <cfRule type="colorScale" priority="185">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F3">
     <cfRule type="colorScale" priority="34">
       <colorScale>
@@ -9698,106 +11487,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30:E30">
-    <cfRule type="colorScale" priority="185">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:E3">
-    <cfRule type="colorScale" priority="194">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6:E6">
-    <cfRule type="colorScale" priority="195">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9:E9">
-    <cfRule type="colorScale" priority="196">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12:E12">
-    <cfRule type="colorScale" priority="197">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:E15">
-    <cfRule type="colorScale" priority="198">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18:E18">
-    <cfRule type="colorScale" priority="199">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21:E21">
-    <cfRule type="colorScale" priority="200">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24:E24">
-    <cfRule type="colorScale" priority="201">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27:E27">
-    <cfRule type="colorScale" priority="202">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -9824,27 +11513,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="54">
+      <c r="B1" s="58"/>
+      <c r="C1" s="66">
         <v>4</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
       <c r="G1" s="22"/>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="45"/>
+      <c r="I1" s="58"/>
     </row>
     <row r="2" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="26">
         <v>1</v>
       </c>
@@ -9866,7 +11555,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="61" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="27" t="s">
@@ -9885,10 +11574,10 @@
         <v>249.60714300000001</v>
       </c>
       <c r="G3" s="25"/>
-      <c r="H3" s="47">
+      <c r="H3" s="57">
         <v>-0.33963700000000002</v>
       </c>
-      <c r="I3" s="42">
+      <c r="I3" s="55">
         <v>0.42593500000000001</v>
       </c>
       <c r="K3" s="20"/>
@@ -9902,7 +11591,7 @@
       <c r="S3" s="20"/>
     </row>
     <row r="4" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="51"/>
+      <c r="A4" s="61"/>
       <c r="B4" s="32" t="s">
         <v>17</v>
       </c>
@@ -9919,8 +11608,8 @@
         <v>52.134507459071671</v>
       </c>
       <c r="G4" s="22"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="43"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="54"/>
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
       <c r="M4" s="20"/>
@@ -9932,7 +11621,7 @@
       <c r="S4" s="20"/>
     </row>
     <row r="5" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="52"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="23" t="s">
         <v>37</v>
       </c>
@@ -9953,11 +11642,11 @@
         <v>0.20886624810681667</v>
       </c>
       <c r="G5" s="24"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="44"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="56"/>
     </row>
     <row r="6" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="60" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="31" t="s">
@@ -9976,15 +11665,15 @@
         <v>995.71113300000002</v>
       </c>
       <c r="G6" s="22"/>
-      <c r="H6" s="45">
+      <c r="H6" s="58">
         <v>0.461256</v>
       </c>
-      <c r="I6" s="43">
+      <c r="I6" s="54">
         <v>0.161083</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="51"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="32" t="s">
         <v>17</v>
       </c>
@@ -10001,11 +11690,11 @@
         <v>87.651158520580893</v>
       </c>
       <c r="G7" s="22"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="43"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="54"/>
     </row>
     <row r="8" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="52"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="23" t="s">
         <v>34</v>
       </c>
@@ -10026,11 +11715,11 @@
         <v>8.802870191527816E-2</v>
       </c>
       <c r="G8" s="22"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="43"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="54"/>
     </row>
     <row r="9" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="60" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="31" t="s">
@@ -10049,15 +11738,15 @@
         <v>898.82142899999997</v>
       </c>
       <c r="G9" s="25"/>
-      <c r="H9" s="47">
+      <c r="H9" s="57">
         <v>-0.36423</v>
       </c>
-      <c r="I9" s="42">
+      <c r="I9" s="55">
         <v>0.41688399999999998</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="51"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="32" t="s">
         <v>17</v>
       </c>
@@ -10074,11 +11763,11 @@
         <v>167.08721894866764</v>
       </c>
       <c r="G10" s="22"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="43"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="52"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="34" t="s">
         <v>34</v>
       </c>
@@ -10099,11 +11788,11 @@
         <v>0.18589590051781871</v>
       </c>
       <c r="G11" s="24"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="44"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="56"/>
     </row>
     <row r="12" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="60" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="31" t="s">
@@ -10122,15 +11811,15 @@
         <v>13.235013</v>
       </c>
       <c r="G12" s="22"/>
-      <c r="H12" s="45">
+      <c r="H12" s="58">
         <v>-0.28797299999999998</v>
       </c>
-      <c r="I12" s="43">
+      <c r="I12" s="54">
         <v>-0.17630399999999999</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="51"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="32" t="s">
         <v>17</v>
       </c>
@@ -10147,11 +11836,11 @@
         <v>0.87222990088622854</v>
       </c>
       <c r="G13" s="22"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="43"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="54"/>
     </row>
     <row r="14" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="52"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="34" t="s">
         <v>34</v>
       </c>
@@ -10172,11 +11861,11 @@
         <v>6.5903214517902514E-2</v>
       </c>
       <c r="G14" s="22"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="43"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="54"/>
     </row>
     <row r="15" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="61" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -10195,15 +11884,15 @@
         <v>246.625033</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="47">
+      <c r="H15" s="57">
         <v>0.47454000000000002</v>
       </c>
-      <c r="I15" s="42">
+      <c r="I15" s="55">
         <v>0.22032199999999999</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="51"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="32" t="s">
         <v>17</v>
       </c>
@@ -10220,11 +11909,11 @@
         <v>23.474492028582855</v>
       </c>
       <c r="G16" s="22"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="43"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="54"/>
     </row>
     <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="51"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="32" t="s">
         <v>34</v>
       </c>
@@ -10245,11 +11934,11 @@
         <v>9.5182925038201027E-2</v>
       </c>
       <c r="G17" s="24"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="44"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="56"/>
     </row>
     <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="60" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="31" t="s">
@@ -10268,15 +11957,15 @@
         <v>1181.0454540000001</v>
       </c>
       <c r="G18" s="22"/>
-      <c r="H18" s="45">
+      <c r="H18" s="58">
         <v>0.21635299999999999</v>
       </c>
-      <c r="I18" s="43">
+      <c r="I18" s="54">
         <v>0.36393399999999998</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="51"/>
+      <c r="A19" s="61"/>
       <c r="B19" s="32" t="s">
         <v>17</v>
       </c>
@@ -10293,11 +11982,11 @@
         <v>193.69239562512513</v>
       </c>
       <c r="G19" s="22"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="43"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="54"/>
     </row>
     <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="52"/>
+      <c r="A20" s="62"/>
       <c r="B20" s="34" t="s">
         <v>34</v>
       </c>
@@ -10318,11 +12007,11 @@
         <v>0.16400079689492214</v>
       </c>
       <c r="G20" s="22"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="43"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="54"/>
     </row>
     <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="61" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="27" t="s">
@@ -10341,15 +12030,15 @@
         <v>458.95075700000001</v>
       </c>
       <c r="G21" s="25"/>
-      <c r="H21" s="47">
+      <c r="H21" s="57">
         <v>0.400617</v>
       </c>
-      <c r="I21" s="42">
+      <c r="I21" s="55">
         <v>0.17532900000000001</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="51"/>
+      <c r="A22" s="61"/>
       <c r="B22" s="32" t="s">
         <v>17</v>
       </c>
@@ -10366,11 +12055,11 @@
         <v>25.801318861639611</v>
       </c>
       <c r="G22" s="22"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="43"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="54"/>
     </row>
     <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="51"/>
+      <c r="A23" s="61"/>
       <c r="B23" s="32" t="s">
         <v>34</v>
       </c>
@@ -10391,11 +12080,11 @@
         <v>5.6218054917903992E-2</v>
       </c>
       <c r="G23" s="24"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="44"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="56"/>
     </row>
     <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="60" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="31" t="s">
@@ -10414,15 +12103,15 @@
         <v>108.020082</v>
       </c>
       <c r="G24" s="22"/>
-      <c r="H24" s="45">
+      <c r="H24" s="58">
         <v>-8.9659000000000003E-2</v>
       </c>
-      <c r="I24" s="43">
+      <c r="I24" s="54">
         <v>0.55726699999999996</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="51"/>
+      <c r="A25" s="61"/>
       <c r="B25" s="32" t="s">
         <v>17</v>
       </c>
@@ -10439,11 +12128,11 @@
         <v>18.219313516156419</v>
       </c>
       <c r="G25" s="22"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="43"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="54"/>
     </row>
     <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="52"/>
+      <c r="A26" s="62"/>
       <c r="B26" s="34" t="s">
         <v>34</v>
       </c>
@@ -10464,11 +12153,11 @@
         <v>0.16866598486896556</v>
       </c>
       <c r="G26" s="22"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="43"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="54"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="63" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="31" t="s">
@@ -10487,15 +12176,15 @@
         <v>0.96243100000000004</v>
       </c>
       <c r="G27" s="25"/>
-      <c r="H27" s="47">
+      <c r="H27" s="57">
         <v>0.12556899999999999</v>
       </c>
-      <c r="I27" s="42">
+      <c r="I27" s="55">
         <v>-0.25589000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" s="49"/>
+      <c r="A28" s="64"/>
       <c r="B28" s="32" t="s">
         <v>17</v>
       </c>
@@ -10512,11 +12201,11 @@
         <v>1.0295630140987E-2</v>
       </c>
       <c r="G28" s="22"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="43"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="54"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" s="50"/>
+      <c r="A29" s="65"/>
       <c r="B29" s="34" t="s">
         <v>34</v>
       </c>
@@ -10537,14 +12226,14 @@
         <v>1.0697525475579029E-2</v>
       </c>
       <c r="G29" s="24"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="44"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="56"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30" s="46" t="s">
+      <c r="A30" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="46"/>
+      <c r="B30" s="59"/>
       <c r="C30" s="36">
         <v>0.86</v>
       </c>
@@ -10622,9 +12311,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I27:I29"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="H21:H23"/>
@@ -10632,40 +12318,33 @@
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="H24:H26"/>
     <mergeCell ref="I24:I26"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="I12:I14"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="H15:H17"/>
     <mergeCell ref="I15:I17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="H9:H11"/>
     <mergeCell ref="I9:I11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="H1:I1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="I3:I5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C3:F3">
     <cfRule type="colorScale" priority="9">
       <colorScale>
@@ -10758,6 +12437,16 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:F30">
     <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10870,9 +12559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8CCB7AF-21A6-41ED-886C-DD886AE34E4A}">
   <dimension ref="A1:BA44"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AT18" sqref="AT18"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -10916,28 +12603,28 @@
       <c r="G1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5" t="s">
         <v>10</v>
@@ -10960,18 +12647,18 @@
       <c r="AI1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="AJ1" s="41" t="s">
+      <c r="AJ1" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-      <c r="AO1" s="41"/>
-      <c r="AP1" s="41"/>
-      <c r="AQ1" s="41"/>
-      <c r="AR1" s="41"/>
-      <c r="AS1" s="41"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="53"/>
+      <c r="AO1" s="53"/>
+      <c r="AP1" s="53"/>
+      <c r="AQ1" s="53"/>
+      <c r="AR1" s="53"/>
+      <c r="AS1" s="53"/>
       <c r="AU1" s="5" t="s">
         <v>10</v>
       </c>
@@ -15023,7 +16710,7 @@
         <f>_xlfn.STDEV.P(D32:D33)</f>
         <v>6.7361111111111094E-2</v>
       </c>
-      <c r="E36" s="55">
+      <c r="E36" s="17">
         <f>_xlfn.STDEV.P(E32:E34)</f>
         <v>6.1967687798285334E-2</v>
       </c>
@@ -15310,7 +16997,7 @@
         <f>_xlfn.STDEV.P(AY39:AY41)</f>
         <v>8.1020431566028363E-3</v>
       </c>
-      <c r="AZ43" s="56">
+      <c r="AZ43" s="3">
         <f>_xlfn.STDEV.P(AZ39:AZ42)</f>
         <v>3.9236441241287242E-3</v>
       </c>
@@ -15344,34 +17031,33 @@
     <col min="1" max="1" width="24.375" style="3" customWidth="1"/>
     <col min="2" max="2" width="11.375" customWidth="1"/>
     <col min="3" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="3.625" customWidth="1"/>
+    <col min="7" max="7" width="2.5" customWidth="1"/>
     <col min="8" max="8" width="9.125" customWidth="1"/>
     <col min="10" max="10" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="54">
+      <c r="B1" s="58"/>
+      <c r="C1" s="66">
         <v>4</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
       <c r="G1" s="22"/>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="45"/>
-      <c r="K1" s="65"/>
+      <c r="I1" s="58"/>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="26">
         <v>1</v>
       </c>
@@ -15391,64 +17077,63 @@
       <c r="I2" s="22">
         <v>2</v>
       </c>
-      <c r="K2" s="65"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="61" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="59">
+      <c r="C3" s="42">
         <v>263.62193400000001</v>
       </c>
-      <c r="D3" s="60">
+      <c r="D3" s="43">
         <v>199.100291</v>
       </c>
-      <c r="E3" s="60">
+      <c r="E3" s="43">
         <v>373.53688299999999</v>
       </c>
-      <c r="F3" s="60">
+      <c r="F3" s="43">
         <v>241.883015</v>
       </c>
       <c r="G3" s="25"/>
-      <c r="H3" s="47">
+      <c r="H3" s="57">
         <v>0.158581</v>
       </c>
-      <c r="I3" s="42">
+      <c r="I3" s="55">
         <v>0.58016400000000001</v>
       </c>
-      <c r="K3" s="66"/>
+      <c r="K3" s="20"/>
       <c r="L3" s="20"/>
       <c r="N3" s="20"/>
     </row>
     <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="51"/>
+      <c r="A4" s="61"/>
       <c r="B4" s="21" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="39">
         <v>48.007451359137988</v>
       </c>
-      <c r="D4" s="61">
+      <c r="D4" s="22">
         <v>32.365264791130635</v>
       </c>
-      <c r="E4" s="61">
+      <c r="E4" s="22">
         <v>88.273229860473563</v>
       </c>
-      <c r="F4" s="61">
+      <c r="F4" s="22">
         <v>52.414369022244273</v>
       </c>
-      <c r="G4" s="61"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="43"/>
-      <c r="K4" s="61"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="54"/>
+      <c r="K4" s="22"/>
       <c r="L4" s="20"/>
       <c r="N4" s="20"/>
     </row>
     <row r="5" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="52"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="23" t="s">
         <v>35</v>
       </c>
@@ -15469,14 +17154,14 @@
         <v>0.21669305313663415</v>
       </c>
       <c r="G5" s="24"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="44"/>
-      <c r="K5" s="67"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="56"/>
+      <c r="K5" s="33"/>
       <c r="L5" s="20"/>
       <c r="N5" s="20"/>
     </row>
     <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="60" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="31" t="s">
@@ -15495,18 +17180,18 @@
         <v>891.89177099999995</v>
       </c>
       <c r="G6" s="22"/>
-      <c r="H6" s="45">
+      <c r="H6" s="58">
         <v>0.43204500000000001</v>
       </c>
-      <c r="I6" s="43">
+      <c r="I6" s="54">
         <v>-0.113953</v>
       </c>
-      <c r="K6" s="66"/>
+      <c r="K6" s="20"/>
       <c r="L6" s="20"/>
       <c r="N6" s="20"/>
     </row>
     <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="51"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="32" t="s">
         <v>17</v>
       </c>
@@ -15523,12 +17208,12 @@
         <v>43.40069792065561</v>
       </c>
       <c r="G7" s="22"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="43"/>
-      <c r="K7" s="61"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="54"/>
+      <c r="K7" s="22"/>
     </row>
     <row r="8" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="52"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="23" t="s">
         <v>34</v>
       </c>
@@ -15549,72 +17234,72 @@
         <v>4.8661395173535703E-2</v>
       </c>
       <c r="G8" s="22"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="43"/>
-      <c r="K8" s="67"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="54"/>
+      <c r="K8" s="33"/>
     </row>
     <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="60" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="59">
+      <c r="C9" s="42">
         <v>5535.25</v>
       </c>
-      <c r="D9" s="60">
+      <c r="D9" s="43">
         <v>3222.8</v>
       </c>
-      <c r="E9" s="60">
+      <c r="E9" s="43">
         <v>5705.75</v>
       </c>
-      <c r="F9" s="60">
+      <c r="F9" s="43">
         <v>4328.2222220000003</v>
       </c>
       <c r="G9" s="25"/>
-      <c r="H9" s="47">
+      <c r="H9" s="57">
         <v>-4.8184999999999999E-2</v>
       </c>
-      <c r="I9" s="42">
+      <c r="I9" s="55">
         <v>0.60652600000000001</v>
       </c>
-      <c r="K9" s="66"/>
-      <c r="L9" s="57"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="40"/>
     </row>
     <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="51"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="39">
         <v>919.33356296830584</v>
       </c>
-      <c r="D10" s="61">
+      <c r="D10" s="22">
         <v>399.39041050080311</v>
       </c>
-      <c r="E10" s="61">
+      <c r="E10" s="22">
         <v>1800.8098178319665</v>
       </c>
-      <c r="F10" s="61">
+      <c r="F10" s="22">
         <v>741.6098704844751</v>
       </c>
-      <c r="G10" s="61"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="43"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="57"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="54"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="40"/>
     </row>
     <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="52"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="63">
+      <c r="C11" s="44">
         <f>C10/C9</f>
         <v>0.16608708964695468</v>
       </c>
-      <c r="D11" s="58">
+      <c r="D11" s="41">
         <f t="shared" ref="D11:F11" si="2">D10/D9</f>
         <v>0.12392652677820624</v>
       </c>
@@ -15622,18 +17307,18 @@
         <f t="shared" si="2"/>
         <v>0.31561316528624045</v>
       </c>
-      <c r="F11" s="58">
+      <c r="F11" s="41">
         <f t="shared" si="2"/>
         <v>0.17134283602975203</v>
       </c>
       <c r="G11" s="24"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="44"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="57"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="56"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="40"/>
     </row>
     <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="60" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="31" t="s">
@@ -15652,17 +17337,17 @@
         <v>17.504460999999999</v>
       </c>
       <c r="G12" s="22"/>
-      <c r="H12" s="45">
+      <c r="H12" s="58">
         <v>-0.41503400000000001</v>
       </c>
-      <c r="I12" s="43">
+      <c r="I12" s="54">
         <v>9.3484999999999999E-2</v>
       </c>
-      <c r="K12" s="66"/>
-      <c r="L12" s="57"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="40"/>
     </row>
     <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="51"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="32" t="s">
         <v>17</v>
       </c>
@@ -15679,16 +17364,16 @@
         <v>1.0581134154711394</v>
       </c>
       <c r="G13" s="22"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="43"/>
-      <c r="K13" s="61"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="54"/>
+      <c r="K13" s="22"/>
       <c r="N13" s="20"/>
       <c r="O13" s="20"/>
       <c r="P13" s="20"/>
       <c r="Q13" s="20"/>
     </row>
     <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="52"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="34" t="s">
         <v>34</v>
       </c>
@@ -15709,78 +17394,78 @@
         <v>6.0448214627753426E-2</v>
       </c>
       <c r="G14" s="22"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="43"/>
-      <c r="K14" s="67"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="54"/>
+      <c r="K14" s="33"/>
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
       <c r="P14" s="20"/>
       <c r="Q14" s="20"/>
     </row>
     <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="61" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="59">
+      <c r="C15" s="42">
         <v>41.491126000000001</v>
       </c>
-      <c r="D15" s="60">
+      <c r="D15" s="43">
         <v>91.863500999999999</v>
       </c>
-      <c r="E15" s="60">
+      <c r="E15" s="43">
         <v>100.157989</v>
       </c>
-      <c r="F15" s="60">
+      <c r="F15" s="43">
         <v>71.379191000000006</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="47">
+      <c r="H15" s="57">
         <v>0.45529199999999997</v>
       </c>
-      <c r="I15" s="42">
+      <c r="I15" s="55">
         <v>-0.106876</v>
       </c>
-      <c r="K15" s="66"/>
+      <c r="K15" s="20"/>
       <c r="N15" s="20"/>
       <c r="O15" s="20"/>
       <c r="P15" s="20"/>
       <c r="Q15" s="20"/>
     </row>
     <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="51"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="39">
         <v>11.727627381529478</v>
       </c>
-      <c r="D16" s="61">
+      <c r="D16" s="22">
         <v>9.0416556006076672</v>
       </c>
-      <c r="E16" s="61">
+      <c r="E16" s="22">
         <v>17.677443734884292</v>
       </c>
-      <c r="F16" s="61">
+      <c r="F16" s="22">
         <v>6.1831602761047684</v>
       </c>
-      <c r="G16" s="61"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="43"/>
-      <c r="K16" s="61"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="54"/>
+      <c r="K16" s="22"/>
       <c r="N16" s="20"/>
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
       <c r="Q16" s="20"/>
     </row>
     <row r="17" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="51"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="64">
+      <c r="C17" s="45">
         <f>C16/C15</f>
         <v>0.28265387113209406</v>
       </c>
@@ -15797,16 +17482,16 @@
         <v>8.6624129378333359E-2</v>
       </c>
       <c r="G17" s="24"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="44"/>
-      <c r="K17" s="67"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="56"/>
+      <c r="K17" s="33"/>
       <c r="N17" s="20"/>
       <c r="O17" s="20"/>
       <c r="P17" s="20"/>
       <c r="Q17" s="20"/>
     </row>
     <row r="18" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="60" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="31" t="s">
@@ -15825,20 +17510,20 @@
         <v>1073.4092599999999</v>
       </c>
       <c r="G18" s="22"/>
-      <c r="H18" s="45">
+      <c r="H18" s="58">
         <v>0.32833499999999999</v>
       </c>
-      <c r="I18" s="43">
+      <c r="I18" s="54">
         <v>0.116808</v>
       </c>
-      <c r="K18" s="66"/>
+      <c r="K18" s="20"/>
       <c r="N18" s="20"/>
       <c r="O18" s="20"/>
       <c r="P18" s="20"/>
       <c r="Q18" s="20"/>
     </row>
     <row r="19" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="51"/>
+      <c r="A19" s="61"/>
       <c r="B19" s="32" t="s">
         <v>17</v>
       </c>
@@ -15855,12 +17540,12 @@
         <v>187.94482006429439</v>
       </c>
       <c r="G19" s="22"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="43"/>
-      <c r="K19" s="61"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="54"/>
+      <c r="K19" s="22"/>
     </row>
     <row r="20" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="52"/>
+      <c r="A20" s="62"/>
       <c r="B20" s="34" t="s">
         <v>34</v>
       </c>
@@ -15881,62 +17566,62 @@
         <v>0.17509148380580805</v>
       </c>
       <c r="G20" s="22"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="43"/>
-      <c r="K20" s="67"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="54"/>
+      <c r="K20" s="33"/>
     </row>
     <row r="21" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="61" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="59">
+      <c r="C21" s="42">
         <v>345.80624299999999</v>
       </c>
-      <c r="D21" s="60">
+      <c r="D21" s="43">
         <v>445.910281</v>
       </c>
-      <c r="E21" s="60">
+      <c r="E21" s="43">
         <v>441.77686</v>
       </c>
-      <c r="F21" s="60">
+      <c r="F21" s="43">
         <v>421.49141400000002</v>
       </c>
       <c r="G21" s="25"/>
-      <c r="H21" s="47">
+      <c r="H21" s="57">
         <v>0.37108400000000002</v>
       </c>
-      <c r="I21" s="42">
+      <c r="I21" s="55">
         <v>-0.129883</v>
       </c>
-      <c r="K21" s="66"/>
+      <c r="K21" s="20"/>
     </row>
     <row r="22" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="51"/>
+      <c r="A22" s="61"/>
       <c r="B22" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="39">
         <v>36.774510764930646</v>
       </c>
-      <c r="D22" s="61">
+      <c r="D22" s="22">
         <v>16.998288355007983</v>
       </c>
-      <c r="E22" s="61">
+      <c r="E22" s="22">
         <v>26.543509131235833</v>
       </c>
-      <c r="F22" s="61">
+      <c r="F22" s="22">
         <v>24.640221386992447</v>
       </c>
-      <c r="G22" s="61"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="43"/>
-      <c r="K22" s="61"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="54"/>
+      <c r="K22" s="22"/>
     </row>
     <row r="23" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="51"/>
+      <c r="A23" s="61"/>
       <c r="B23" s="32" t="s">
         <v>34</v>
       </c>
@@ -15957,12 +17642,12 @@
         <v>5.8459604557905526E-2</v>
       </c>
       <c r="G23" s="24"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="44"/>
-      <c r="K23" s="67"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="56"/>
+      <c r="K23" s="33"/>
     </row>
     <row r="24" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="60" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="31" t="s">
@@ -15981,16 +17666,16 @@
         <v>98.513227000000001</v>
       </c>
       <c r="G24" s="22"/>
-      <c r="H24" s="45">
+      <c r="H24" s="58">
         <v>0.37252299999999999</v>
       </c>
-      <c r="I24" s="43">
+      <c r="I24" s="54">
         <v>0.35465999999999998</v>
       </c>
-      <c r="K24" s="66"/>
+      <c r="K24" s="20"/>
     </row>
     <row r="25" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="51"/>
+      <c r="A25" s="61"/>
       <c r="B25" s="32" t="s">
         <v>17</v>
       </c>
@@ -16007,12 +17692,12 @@
         <v>18.665223009650862</v>
       </c>
       <c r="G25" s="22"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="43"/>
-      <c r="K25" s="61"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="54"/>
+      <c r="K25" s="22"/>
     </row>
     <row r="26" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="52"/>
+      <c r="A26" s="62"/>
       <c r="B26" s="34" t="s">
         <v>34</v>
       </c>
@@ -16033,62 +17718,62 @@
         <v>0.18946920711115131</v>
       </c>
       <c r="G26" s="22"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="43"/>
-      <c r="K26" s="67"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="54"/>
+      <c r="K26" s="33"/>
     </row>
     <row r="27" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="63" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="59">
+      <c r="C27" s="42">
         <v>0.15260000000000001</v>
       </c>
-      <c r="D27" s="60">
+      <c r="D27" s="43">
         <v>0.14152600000000001</v>
       </c>
-      <c r="E27" s="60">
+      <c r="E27" s="43">
         <v>0.15226400000000001</v>
       </c>
-      <c r="F27" s="60">
+      <c r="F27" s="43">
         <v>0.155247</v>
       </c>
       <c r="G27" s="25"/>
-      <c r="H27" s="47">
+      <c r="H27" s="57">
         <v>-0.14846799999999999</v>
       </c>
-      <c r="I27" s="42">
+      <c r="I27" s="55">
         <v>0.32571699999999998</v>
       </c>
-      <c r="K27" s="66"/>
+      <c r="K27" s="20"/>
     </row>
     <row r="28" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="49"/>
+      <c r="A28" s="64"/>
       <c r="B28" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="39">
         <v>1.3190905958272919E-2</v>
       </c>
-      <c r="D28" s="61">
+      <c r="D28" s="22">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E28" s="61">
+      <c r="E28" s="22">
         <v>1.1532562594670797E-2</v>
       </c>
-      <c r="F28" s="61">
+      <c r="F28" s="22">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="G28" s="61"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="43"/>
-      <c r="K28" s="61"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="54"/>
+      <c r="K28" s="22"/>
     </row>
     <row r="29" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="50"/>
+      <c r="A29" s="65"/>
       <c r="B29" s="34" t="s">
         <v>34</v>
       </c>
@@ -16109,15 +17794,15 @@
         <v>4.5089438121187528E-2</v>
       </c>
       <c r="G29" s="24"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="44"/>
-      <c r="K29" s="67"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="56"/>
+      <c r="K29" s="33"/>
     </row>
     <row r="30" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="46" t="s">
+      <c r="A30" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="46"/>
+      <c r="B30" s="59"/>
       <c r="C30" s="36">
         <v>0.86</v>
       </c>
@@ -16133,7 +17818,7 @@
       <c r="G30" s="37"/>
       <c r="H30" s="22"/>
       <c r="I30" s="22"/>
-      <c r="K30" s="66"/>
+      <c r="K30" s="20"/>
       <c r="L30" s="20"/>
       <c r="M30" s="20"/>
       <c r="N30" s="20"/>
@@ -16152,7 +17837,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
-      <c r="K31" s="66"/>
+      <c r="K31" s="20"/>
       <c r="L31" s="20"/>
       <c r="M31" s="20"/>
       <c r="N31" s="20"/>
@@ -16240,8 +17925,138 @@
     <mergeCell ref="I3:I5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="C3:F3">
+    <cfRule type="colorScale" priority="205">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:F6">
+    <cfRule type="colorScale" priority="207">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:F9">
+    <cfRule type="colorScale" priority="209">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:F12">
+    <cfRule type="colorScale" priority="211">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:F15">
+    <cfRule type="colorScale" priority="213">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:F18">
+    <cfRule type="colorScale" priority="215">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:F21">
+    <cfRule type="colorScale" priority="217">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:F24">
+    <cfRule type="colorScale" priority="219">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:F27">
+    <cfRule type="colorScale" priority="221">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30:F30">
+    <cfRule type="colorScale" priority="203">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G3">
     <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -16272,36 +18087,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
     <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
-    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -16434,106 +18219,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C30:F30">
-    <cfRule type="colorScale" priority="203">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:F3">
-    <cfRule type="colorScale" priority="205">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6:F6">
-    <cfRule type="colorScale" priority="207">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9:F9">
-    <cfRule type="colorScale" priority="209">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12:F12">
-    <cfRule type="colorScale" priority="211">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:F15">
-    <cfRule type="colorScale" priority="213">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18:F18">
-    <cfRule type="colorScale" priority="215">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21:F21">
-    <cfRule type="colorScale" priority="217">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24:F24">
-    <cfRule type="colorScale" priority="219">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27:F27">
-    <cfRule type="colorScale" priority="221">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -16560,26 +18245,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="75">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58">
         <v>3</v>
       </c>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
       <c r="F1" s="22"/>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="45"/>
+      <c r="H1" s="58"/>
     </row>
     <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="26">
         <v>3</v>
       </c>
@@ -16598,92 +18283,92 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="61" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="72">
+      <c r="C3" s="50">
         <v>174.26570599999999</v>
       </c>
-      <c r="D3" s="73">
+      <c r="D3" s="51">
         <v>102.081908</v>
       </c>
-      <c r="E3" s="73">
+      <c r="E3" s="51">
         <v>118.413324</v>
       </c>
       <c r="F3" s="25"/>
-      <c r="G3" s="47">
+      <c r="G3" s="57">
         <v>-0.17044699999999999</v>
       </c>
-      <c r="H3" s="42">
+      <c r="H3" s="55">
         <v>0.55027199999999998</v>
       </c>
       <c r="K3" s="20"/>
       <c r="M3" s="20"/>
     </row>
     <row r="4" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="51"/>
+      <c r="A4" s="61"/>
       <c r="B4" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="69">
+      <c r="C4" s="47">
         <v>28.052329903236203</v>
       </c>
-      <c r="D4" s="71">
+      <c r="D4" s="49">
         <v>17.571559834004493</v>
       </c>
-      <c r="E4" s="71">
+      <c r="E4" s="49">
         <v>14.492490745210086</v>
       </c>
-      <c r="F4" s="61"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="43"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="54"/>
       <c r="K4" s="20"/>
       <c r="M4" s="20"/>
     </row>
     <row r="5" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="52"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="63">
+      <c r="C5" s="44">
         <v>0.16097447138128373</v>
       </c>
-      <c r="D5" s="58">
+      <c r="D5" s="41">
         <v>0.17213196910469672</v>
       </c>
-      <c r="E5" s="58">
+      <c r="E5" s="41">
         <v>0.12238902055658944</v>
       </c>
       <c r="F5" s="24"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="44"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="56"/>
       <c r="K5" s="20"/>
       <c r="M5" s="20"/>
     </row>
     <row r="6" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="60" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="70">
+      <c r="C6" s="48">
         <v>1179.510305</v>
       </c>
-      <c r="D6" s="70">
+      <c r="D6" s="48">
         <v>1291.913325</v>
       </c>
-      <c r="E6" s="70">
+      <c r="E6" s="48">
         <v>969.54470800000001</v>
       </c>
       <c r="F6" s="22"/>
-      <c r="G6" s="45">
+      <c r="G6" s="58">
         <v>0.415829</v>
       </c>
-      <c r="H6" s="43">
+      <c r="H6" s="54">
         <v>0.15626599999999999</v>
       </c>
       <c r="K6" s="20"/>
@@ -16691,68 +18376,68 @@
       <c r="M6" s="20"/>
     </row>
     <row r="7" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="51"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="71">
+      <c r="C7" s="49">
         <v>94.933136880648789</v>
       </c>
-      <c r="D7" s="71">
+      <c r="D7" s="49">
         <v>228.5263495070098</v>
       </c>
-      <c r="E7" s="71">
+      <c r="E7" s="49">
         <v>168.94439925016752</v>
       </c>
       <c r="F7" s="22"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="43"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="54"/>
       <c r="K7" s="20"/>
       <c r="L7" s="20"/>
       <c r="M7" s="20"/>
     </row>
     <row r="8" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="52"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="68">
+      <c r="C8" s="46">
         <v>8.0485211937719181E-2</v>
       </c>
-      <c r="D8" s="68">
+      <c r="D8" s="46">
         <v>0.17688984631148519</v>
       </c>
-      <c r="E8" s="68">
+      <c r="E8" s="46">
         <v>0.17425127263978374</v>
       </c>
       <c r="F8" s="22"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="43"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="54"/>
       <c r="K8" s="20"/>
       <c r="L8" s="20"/>
       <c r="M8" s="20"/>
     </row>
     <row r="9" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="60" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="72">
+      <c r="C9" s="50">
         <v>2696.25</v>
       </c>
-      <c r="D9" s="73">
+      <c r="D9" s="51">
         <v>1356.333333</v>
       </c>
-      <c r="E9" s="73">
+      <c r="E9" s="51">
         <v>2120.166667</v>
       </c>
       <c r="F9" s="25"/>
-      <c r="G9" s="47">
+      <c r="G9" s="57">
         <v>-0.36805300000000002</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="55">
         <v>0.41729500000000003</v>
       </c>
       <c r="J9" s="20"/>
@@ -16761,70 +18446,70 @@
       <c r="M9" s="20"/>
     </row>
     <row r="10" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="51"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="69">
+      <c r="C10" s="47">
         <v>326.84891660521072</v>
       </c>
-      <c r="D10" s="71">
+      <c r="D10" s="49">
         <v>312.32131861433987</v>
       </c>
-      <c r="E10" s="71">
+      <c r="E10" s="49">
         <v>160.95019933818037</v>
       </c>
-      <c r="F10" s="61"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="43"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="54"/>
       <c r="J10" s="20"/>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
     </row>
     <row r="11" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="52"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="63">
+      <c r="C11" s="44">
         <v>0.12122352029864097</v>
       </c>
       <c r="D11" s="30">
         <v>0.23026885133283079</v>
       </c>
-      <c r="E11" s="58">
+      <c r="E11" s="41">
         <v>7.5913937259433559E-2</v>
       </c>
       <c r="F11" s="24"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="44"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="56"/>
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
       <c r="M11" s="20"/>
     </row>
     <row r="12" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="60" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="70">
+      <c r="C12" s="48">
         <v>16.096601</v>
       </c>
-      <c r="D12" s="70">
+      <c r="D12" s="48">
         <v>13.546620000000001</v>
       </c>
-      <c r="E12" s="70">
+      <c r="E12" s="48">
         <v>17.619772999999999</v>
       </c>
       <c r="F12" s="22"/>
-      <c r="G12" s="45">
+      <c r="G12" s="58">
         <v>-0.42366399999999999</v>
       </c>
-      <c r="H12" s="43">
+      <c r="H12" s="54">
         <v>1.5441E-2</v>
       </c>
       <c r="K12" s="20"/>
@@ -16832,68 +18517,68 @@
       <c r="M12" s="20"/>
     </row>
     <row r="13" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="51"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="71">
+      <c r="C13" s="49">
         <v>2.0160089285516571</v>
       </c>
-      <c r="D13" s="71">
+      <c r="D13" s="49">
         <v>1.6963832114236452</v>
       </c>
-      <c r="E13" s="71">
+      <c r="E13" s="49">
         <v>1.5841470891302991</v>
       </c>
       <c r="F13" s="22"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="43"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="54"/>
       <c r="K13" s="20"/>
       <c r="L13" s="20"/>
       <c r="M13" s="20"/>
     </row>
     <row r="14" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="52"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="68">
+      <c r="C14" s="46">
         <v>0.12524438721887043</v>
       </c>
-      <c r="D14" s="68">
+      <c r="D14" s="46">
         <v>0.1252255700258548</v>
       </c>
-      <c r="E14" s="68">
+      <c r="E14" s="46">
         <v>8.9907349494814673E-2</v>
       </c>
       <c r="F14" s="22"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="43"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="54"/>
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
     </row>
     <row r="15" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="61" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="72">
+      <c r="C15" s="50">
         <v>101.81745100000001</v>
       </c>
-      <c r="D15" s="73">
+      <c r="D15" s="51">
         <v>129.81252599999999</v>
       </c>
-      <c r="E15" s="73">
+      <c r="E15" s="51">
         <v>78.336383999999995</v>
       </c>
       <c r="F15" s="25"/>
-      <c r="G15" s="47">
+      <c r="G15" s="57">
         <v>0.48777399999999999</v>
       </c>
-      <c r="H15" s="42">
+      <c r="H15" s="55">
         <v>7.1485999999999994E-2</v>
       </c>
       <c r="M15" s="20"/>
@@ -16901,32 +18586,32 @@
       <c r="O15" s="20"/>
     </row>
     <row r="16" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="51"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="69">
+      <c r="C16" s="47">
         <v>11.37199173408071</v>
       </c>
-      <c r="D16" s="71">
+      <c r="D16" s="49">
         <v>30.220854736423323</v>
       </c>
-      <c r="E16" s="71">
+      <c r="E16" s="49">
         <v>16.203605709841252</v>
       </c>
-      <c r="F16" s="61"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="43"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="54"/>
       <c r="M16" s="20"/>
       <c r="N16" s="20"/>
       <c r="O16" s="20"/>
     </row>
     <row r="17" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="51"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="63">
+      <c r="C17" s="44">
         <v>0.11169000620611402</v>
       </c>
       <c r="D17" s="30">
@@ -16936,33 +18621,33 @@
         <v>0.20684648540633754</v>
       </c>
       <c r="F17" s="24"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="44"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="56"/>
       <c r="M17" s="20"/>
       <c r="N17" s="20"/>
       <c r="O17" s="20"/>
     </row>
     <row r="18" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="60" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="70">
+      <c r="C18" s="48">
         <v>1127.292029</v>
       </c>
-      <c r="D18" s="70">
+      <c r="D18" s="48">
         <v>1142.647297</v>
       </c>
-      <c r="E18" s="70">
+      <c r="E18" s="48">
         <v>820.66210599999999</v>
       </c>
       <c r="F18" s="22"/>
-      <c r="G18" s="45">
+      <c r="G18" s="58">
         <v>0.300064</v>
       </c>
-      <c r="H18" s="43">
+      <c r="H18" s="54">
         <v>0.34484300000000001</v>
       </c>
       <c r="M18" s="20"/>
@@ -16971,226 +18656,226 @@
       <c r="P18" s="20"/>
     </row>
     <row r="19" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="51"/>
+      <c r="A19" s="61"/>
       <c r="B19" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="71">
+      <c r="C19" s="49">
         <v>301.58781038364265</v>
       </c>
-      <c r="D19" s="71">
+      <c r="D19" s="49">
         <v>271.59224872775729</v>
       </c>
-      <c r="E19" s="71">
+      <c r="E19" s="49">
         <v>184.47723291506733</v>
       </c>
       <c r="F19" s="22"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="43"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="54"/>
     </row>
     <row r="20" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="52"/>
+      <c r="A20" s="62"/>
       <c r="B20" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="74">
+      <c r="C20" s="35">
         <v>0.2675329928937541</v>
       </c>
-      <c r="D20" s="74">
+      <c r="D20" s="35">
         <v>0.23768686053939644</v>
       </c>
-      <c r="E20" s="74">
+      <c r="E20" s="35">
         <v>0.22479072881070414</v>
       </c>
       <c r="F20" s="22"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="43"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="54"/>
     </row>
     <row r="21" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="61" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="72">
+      <c r="C21" s="50">
         <v>504.36429900000002</v>
       </c>
-      <c r="D21" s="73">
+      <c r="D21" s="51">
         <v>524.36766699999998</v>
       </c>
-      <c r="E21" s="73">
+      <c r="E21" s="51">
         <v>434.23856000000001</v>
       </c>
       <c r="F21" s="25"/>
-      <c r="G21" s="47">
+      <c r="G21" s="57">
         <v>0.37579400000000002</v>
       </c>
-      <c r="H21" s="42">
+      <c r="H21" s="55">
         <v>0.27063399999999999</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="51"/>
+      <c r="A22" s="61"/>
       <c r="B22" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="69">
+      <c r="C22" s="47">
         <v>54.545922725718007</v>
       </c>
-      <c r="D22" s="71">
+      <c r="D22" s="49">
         <v>53.773366158350179</v>
       </c>
-      <c r="E22" s="71">
+      <c r="E22" s="49">
         <v>59.412692709554918</v>
       </c>
-      <c r="F22" s="61"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="43"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="54"/>
     </row>
     <row r="23" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="51"/>
+      <c r="A23" s="61"/>
       <c r="B23" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="63">
+      <c r="C23" s="44">
         <v>0.10814786620279404</v>
       </c>
-      <c r="D23" s="58">
+      <c r="D23" s="41">
         <v>0.10254897382593611</v>
       </c>
-      <c r="E23" s="58">
+      <c r="E23" s="41">
         <v>0.13682039823813646</v>
       </c>
       <c r="F23" s="24"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="44"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="56"/>
     </row>
     <row r="24" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="60" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="70">
+      <c r="C24" s="48">
         <v>87.517392999999998</v>
       </c>
-      <c r="D24" s="70">
+      <c r="D24" s="48">
         <v>56.281996999999997</v>
       </c>
-      <c r="E24" s="70">
+      <c r="E24" s="48">
         <v>56.878442999999997</v>
       </c>
       <c r="F24" s="22"/>
-      <c r="G24" s="45">
+      <c r="G24" s="58">
         <v>-9.5069000000000001E-2</v>
       </c>
-      <c r="H24" s="43">
+      <c r="H24" s="54">
         <v>0.54855600000000004</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="51"/>
+      <c r="A25" s="61"/>
       <c r="B25" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="71">
+      <c r="C25" s="49">
         <v>9.8044365467883985</v>
       </c>
-      <c r="D25" s="71">
+      <c r="D25" s="49">
         <v>7.9589611131101776</v>
       </c>
-      <c r="E25" s="71">
+      <c r="E25" s="49">
         <v>11.875037178889167</v>
       </c>
       <c r="F25" s="22"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="43"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="54"/>
     </row>
     <row r="26" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="52"/>
+      <c r="A26" s="62"/>
       <c r="B26" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="68">
+      <c r="C26" s="46">
         <v>0.11202843469969904</v>
       </c>
-      <c r="D26" s="68">
+      <c r="D26" s="46">
         <v>0.14141220172251845</v>
       </c>
-      <c r="E26" s="74">
+      <c r="E26" s="35">
         <v>0.20877922377181049</v>
       </c>
       <c r="F26" s="22"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="43"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="54"/>
     </row>
     <row r="27" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="63" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="72">
+      <c r="C27" s="50">
         <v>0.15400700000000001</v>
       </c>
-      <c r="D27" s="73">
+      <c r="D27" s="51">
         <v>0.15798100000000001</v>
       </c>
-      <c r="E27" s="73">
+      <c r="E27" s="51">
         <v>0.16517000000000001</v>
       </c>
       <c r="F27" s="25"/>
-      <c r="G27" s="47">
+      <c r="G27" s="57">
         <v>6.9697999999999996E-2</v>
       </c>
-      <c r="H27" s="42">
+      <c r="H27" s="55">
         <v>1.4989000000000001E-2</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="49"/>
+      <c r="A28" s="64"/>
       <c r="B28" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="69">
+      <c r="C28" s="47">
         <v>9.746794344808964E-3</v>
       </c>
-      <c r="D28" s="71">
+      <c r="D28" s="49">
         <v>2.1886068628239289E-2</v>
       </c>
-      <c r="E28" s="71">
+      <c r="E28" s="49">
         <v>1.2767145334803704E-2</v>
       </c>
-      <c r="F28" s="61"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="43"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="54"/>
     </row>
     <row r="29" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="50"/>
+      <c r="A29" s="65"/>
       <c r="B29" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="63">
+      <c r="C29" s="44">
         <v>6.328799564181474E-2</v>
       </c>
-      <c r="D29" s="58">
+      <c r="D29" s="41">
         <v>0.13853608109987459</v>
       </c>
-      <c r="E29" s="58">
+      <c r="E29" s="41">
         <v>7.729699906038448E-2</v>
       </c>
       <c r="F29" s="24"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="44"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="56"/>
     </row>
     <row r="30" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="46" t="s">
+      <c r="A30" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="46"/>
+      <c r="B30" s="59"/>
       <c r="C30" s="36">
         <v>0.89</v>
       </c>
@@ -17306,120 +18991,6 @@
     <mergeCell ref="H3:H5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G29">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H29">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30:E30">
-    <cfRule type="colorScale" priority="231">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C3:E3">
     <cfRule type="colorScale" priority="9">
       <colorScale>
@@ -17510,6 +19081,120 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C30:E30">
+    <cfRule type="colorScale" priority="231">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G29">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H29">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -17536,25 +19221,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="75">
-        <v>2</v>
-      </c>
-      <c r="D1" s="75"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58">
+        <v>2</v>
+      </c>
+      <c r="D1" s="58"/>
       <c r="E1" s="22"/>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="45"/>
+      <c r="G1" s="58"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="46"/>
+      <c r="B2" s="59"/>
       <c r="C2" s="26">
         <v>1</v>
       </c>
@@ -17570,64 +19255,64 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="61" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="59">
+      <c r="C3" s="42">
         <v>161.144645</v>
       </c>
-      <c r="D3" s="60">
+      <c r="D3" s="43">
         <v>197.27525</v>
       </c>
       <c r="E3" s="25"/>
-      <c r="F3" s="47">
+      <c r="F3" s="57">
         <v>0.15939400000000001</v>
       </c>
-      <c r="G3" s="42">
+      <c r="G3" s="55">
         <v>0.56966499999999998</v>
       </c>
       <c r="J3" s="20"/>
       <c r="L3" s="20"/>
     </row>
     <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="51"/>
+      <c r="A4" s="61"/>
       <c r="B4" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="81">
+      <c r="C4" s="47">
         <v>37.366070010104089</v>
       </c>
-      <c r="D4" s="76">
+      <c r="D4" s="49">
         <v>57.231294280314856</v>
       </c>
-      <c r="E4" s="61"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="43"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="54"/>
       <c r="J4" s="20"/>
       <c r="L4" s="20"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="52"/>
+      <c r="A5" s="62"/>
       <c r="B5" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="82">
+      <c r="C5" s="45">
         <v>0.23187906746826176</v>
       </c>
-      <c r="D5" s="79">
+      <c r="D5" s="30">
         <v>0.29010884173414991</v>
       </c>
       <c r="E5" s="24"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="44"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="56"/>
       <c r="J5" s="20"/>
       <c r="L5" s="20"/>
     </row>
     <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="60" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="31" t="s">
@@ -17640,68 +19325,68 @@
         <v>1135.6276210000001</v>
       </c>
       <c r="E6" s="22"/>
-      <c r="F6" s="45">
+      <c r="F6" s="58">
         <v>0.43130099999999999</v>
       </c>
-      <c r="G6" s="43">
+      <c r="G6" s="54">
         <v>-0.16189600000000001</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="51"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="76">
+      <c r="C7" s="49">
         <v>178.55019614662987</v>
       </c>
-      <c r="D7" s="76">
+      <c r="D7" s="49">
         <v>111.22229129090985</v>
       </c>
       <c r="E7" s="22"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="43"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="54"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="52"/>
+      <c r="A8" s="62"/>
       <c r="B8" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="78">
+      <c r="C8" s="46">
         <v>0.19475443637698259</v>
       </c>
-      <c r="D8" s="78">
+      <c r="D8" s="46">
         <v>9.7939050824574686E-2</v>
       </c>
       <c r="E8" s="22"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="43"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="54"/>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
       <c r="L8" s="20"/>
     </row>
     <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="60" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="59">
+      <c r="C9" s="42">
         <v>3042.333333</v>
       </c>
-      <c r="D9" s="60">
+      <c r="D9" s="43">
         <v>3096.3235289999998</v>
       </c>
       <c r="E9" s="25"/>
-      <c r="F9" s="47">
+      <c r="F9" s="57">
         <v>-3.9958E-2</v>
       </c>
-      <c r="G9" s="42">
+      <c r="G9" s="55">
         <v>0.60186399999999995</v>
       </c>
       <c r="I9" s="20"/>
@@ -17710,45 +19395,45 @@
       <c r="L9" s="20"/>
     </row>
     <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="51"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="81">
+      <c r="C10" s="47">
         <v>860.91869534817283</v>
       </c>
-      <c r="D10" s="76">
+      <c r="D10" s="49">
         <v>851.37027309625978</v>
       </c>
-      <c r="E10" s="61"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="43"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="54"/>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
     </row>
     <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="52"/>
+      <c r="A11" s="62"/>
       <c r="B11" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="82">
+      <c r="C11" s="45">
         <v>0.28297973992850861</v>
       </c>
-      <c r="D11" s="79">
+      <c r="D11" s="30">
         <v>0.27496166505934266</v>
       </c>
       <c r="E11" s="24"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="44"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="56"/>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
     </row>
     <row r="12" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="60" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="31" t="s">
@@ -17761,10 +19446,10 @@
         <v>15.448912</v>
       </c>
       <c r="E12" s="22"/>
-      <c r="F12" s="45">
+      <c r="F12" s="58">
         <v>-0.39849400000000001</v>
       </c>
-      <c r="G12" s="43">
+      <c r="G12" s="54">
         <v>0.14122599999999999</v>
       </c>
       <c r="J12" s="20"/>
@@ -17772,59 +19457,59 @@
       <c r="L12" s="20"/>
     </row>
     <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="51"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="76">
+      <c r="C13" s="49">
         <v>1.6074408231720383</v>
       </c>
-      <c r="D13" s="76">
+      <c r="D13" s="49">
         <v>1.4784468201460614</v>
       </c>
       <c r="E13" s="22"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="43"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="54"/>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
       <c r="L13" s="20"/>
     </row>
     <row r="14" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="52"/>
+      <c r="A14" s="62"/>
       <c r="B14" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="78">
+      <c r="C14" s="46">
         <v>9.1201441709412162E-2</v>
       </c>
-      <c r="D14" s="78">
+      <c r="D14" s="46">
         <v>9.5699090016569538E-2</v>
       </c>
       <c r="E14" s="22"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="43"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="54"/>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
     </row>
     <row r="15" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="61" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="59">
+      <c r="C15" s="42">
         <v>75.185918999999998</v>
       </c>
-      <c r="D15" s="60">
+      <c r="D15" s="43">
         <v>103.277145</v>
       </c>
       <c r="E15" s="25"/>
-      <c r="F15" s="47">
+      <c r="F15" s="57">
         <v>0.460092</v>
       </c>
-      <c r="G15" s="42">
+      <c r="G15" s="55">
         <v>-0.196191</v>
       </c>
       <c r="L15" s="20"/>
@@ -17832,43 +19517,43 @@
       <c r="N15" s="20"/>
     </row>
     <row r="16" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="51"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="81">
+      <c r="C16" s="47">
         <v>15.835558562930453</v>
       </c>
-      <c r="D16" s="76">
+      <c r="D16" s="49">
         <v>15.93045099801007</v>
       </c>
-      <c r="E16" s="61"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="43"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="54"/>
       <c r="L16" s="20"/>
       <c r="M16" s="20"/>
       <c r="N16" s="20"/>
     </row>
     <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="51"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="82">
+      <c r="C17" s="45">
         <v>0.21061867399573123</v>
       </c>
-      <c r="D17" s="77">
+      <c r="D17" s="41">
         <v>0.15424952924492702</v>
       </c>
       <c r="E17" s="24"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="44"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="56"/>
       <c r="L17" s="20"/>
       <c r="M17" s="20"/>
       <c r="N17" s="20"/>
     </row>
     <row r="18" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="60" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="31" t="s">
@@ -17881,10 +19566,10 @@
         <v>1137.3042089999999</v>
       </c>
       <c r="E18" s="22"/>
-      <c r="F18" s="45">
+      <c r="F18" s="58">
         <v>0.378911</v>
       </c>
-      <c r="G18" s="43">
+      <c r="G18" s="54">
         <v>0.17912800000000001</v>
       </c>
       <c r="L18" s="20"/>
@@ -17893,88 +19578,88 @@
       <c r="O18" s="20"/>
     </row>
     <row r="19" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="51"/>
+      <c r="A19" s="61"/>
       <c r="B19" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="76">
+      <c r="C19" s="49">
         <v>132.96391276583282</v>
       </c>
-      <c r="D19" s="76">
+      <c r="D19" s="49">
         <v>170.09358980573018</v>
       </c>
       <c r="E19" s="22"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="43"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="54"/>
     </row>
     <row r="20" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="52"/>
+      <c r="A20" s="62"/>
       <c r="B20" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="78">
+      <c r="C20" s="46">
         <v>0.15927090050704656</v>
       </c>
-      <c r="D20" s="78">
+      <c r="D20" s="46">
         <v>0.1495585688153645</v>
       </c>
       <c r="E20" s="22"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="43"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="54"/>
     </row>
     <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="61" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="59">
+      <c r="C21" s="42">
         <v>417.409288</v>
       </c>
-      <c r="D21" s="60">
+      <c r="D21" s="43">
         <v>487.00357600000001</v>
       </c>
       <c r="E21" s="25"/>
-      <c r="F21" s="47">
+      <c r="F21" s="57">
         <v>0.39992100000000003</v>
       </c>
-      <c r="G21" s="42">
+      <c r="G21" s="55">
         <v>-0.13946700000000001</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="51"/>
+      <c r="A22" s="61"/>
       <c r="B22" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="81">
+      <c r="C22" s="47">
         <v>49.938819509475792</v>
       </c>
-      <c r="D22" s="76">
+      <c r="D22" s="49">
         <v>30.091456960406553</v>
       </c>
-      <c r="E22" s="61"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="43"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="54"/>
     </row>
     <row r="23" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="51"/>
+      <c r="A23" s="61"/>
       <c r="B23" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="83">
+      <c r="C23" s="44">
         <v>0.11963993362187904</v>
       </c>
-      <c r="D23" s="77">
+      <c r="D23" s="41">
         <v>6.178898563243107E-2</v>
       </c>
       <c r="E23" s="24"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="44"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="56"/>
     </row>
     <row r="24" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="60" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="31" t="s">
@@ -17987,99 +19672,99 @@
         <v>93.923160999999993</v>
       </c>
       <c r="E24" s="22"/>
-      <c r="F24" s="45">
+      <c r="F24" s="58">
         <v>0.31768800000000003</v>
       </c>
-      <c r="G24" s="43">
+      <c r="G24" s="54">
         <v>0.41881000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="51"/>
+      <c r="A25" s="61"/>
       <c r="B25" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="76">
+      <c r="C25" s="49">
         <v>17.889772105870996</v>
       </c>
-      <c r="D25" s="76">
+      <c r="D25" s="49">
         <v>23.873093410783614</v>
       </c>
       <c r="E25" s="22"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="43"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="54"/>
     </row>
     <row r="26" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="52"/>
+      <c r="A26" s="62"/>
       <c r="B26" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="80">
+      <c r="C26" s="35">
         <v>0.27450406320859561</v>
       </c>
-      <c r="D26" s="80">
+      <c r="D26" s="35">
         <v>0.2541768521907351</v>
       </c>
       <c r="E26" s="22"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="43"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="54"/>
     </row>
     <row r="27" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="63" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="59">
+      <c r="C27" s="42">
         <v>0.158557</v>
       </c>
-      <c r="D27" s="60">
+      <c r="D27" s="43">
         <v>0.15495100000000001</v>
       </c>
       <c r="E27" s="25"/>
-      <c r="F27" s="47">
+      <c r="F27" s="57">
         <v>-0.10981200000000001</v>
       </c>
-      <c r="G27" s="42">
+      <c r="G27" s="55">
         <v>-4.0695000000000002E-2</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="49"/>
+      <c r="A28" s="64"/>
       <c r="B28" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="81">
+      <c r="C28" s="47">
         <v>1.9235384061671346E-2</v>
       </c>
-      <c r="D28" s="76">
+      <c r="D28" s="49">
         <v>9.1651513899116792E-3</v>
       </c>
-      <c r="E28" s="61"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="43"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="54"/>
     </row>
     <row r="29" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="50"/>
+      <c r="A29" s="65"/>
       <c r="B29" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="83">
+      <c r="C29" s="44">
         <v>0.12131526240829069</v>
       </c>
-      <c r="D29" s="77">
+      <c r="D29" s="41">
         <v>5.9148707590862139E-2</v>
       </c>
       <c r="E29" s="24"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="44"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="56"/>
     </row>
     <row r="30" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="46" t="s">
+      <c r="A30" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="46"/>
+      <c r="B30" s="59"/>
       <c r="C30" s="36">
         <v>0.81</v>
       </c>
@@ -18188,120 +19873,6 @@
     <mergeCell ref="G3:G5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F29">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G29">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30:D30">
-    <cfRule type="colorScale" priority="243">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C3:D3">
     <cfRule type="colorScale" priority="11">
       <colorScale>
@@ -18342,8 +19913,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:D15">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="C15:D15 C18:D18">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -18352,8 +19923,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:D15 C18:D18">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="C15:D15">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -18402,6 +19973,1369 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C30:D30">
+    <cfRule type="colorScale" priority="243">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F29">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G29">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{888AE6E2-33D2-4BB4-A165-A10ABB4CF79E}">
+  <dimension ref="A1:T40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M33" sqref="M33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="24.375" style="3" customWidth="1"/>
+    <col min="2" max="3" width="11.375" customWidth="1"/>
+    <col min="4" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="2.5" customWidth="1"/>
+    <col min="8" max="8" width="9.125" customWidth="1"/>
+    <col min="10" max="10" width="9.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="66">
+        <v>4</v>
+      </c>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="58"/>
+    </row>
+    <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="59"/>
+      <c r="C2" s="26">
+        <v>3</v>
+      </c>
+      <c r="D2" s="26">
+        <v>1</v>
+      </c>
+      <c r="E2" s="26">
+        <v>2</v>
+      </c>
+      <c r="F2" s="26">
+        <v>4</v>
+      </c>
+      <c r="G2" s="26"/>
+      <c r="H2" s="22">
+        <v>1</v>
+      </c>
+      <c r="I2" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="71">
+        <v>90</v>
+      </c>
+      <c r="D3" s="72">
+        <v>86.25</v>
+      </c>
+      <c r="E3" s="72">
+        <v>79</v>
+      </c>
+      <c r="F3" s="72">
+        <v>61.666666999999997</v>
+      </c>
+      <c r="G3" s="68"/>
+      <c r="H3" s="80">
+        <v>-3.8743E-2</v>
+      </c>
+      <c r="I3" s="81">
+        <v>-0.23250999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="61"/>
+      <c r="B4" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="73">
+        <v>4.0824829454634592</v>
+      </c>
+      <c r="D4" s="74">
+        <v>7.5</v>
+      </c>
+      <c r="E4" s="74">
+        <v>11.937336386313323</v>
+      </c>
+      <c r="F4" s="74">
+        <v>13.693063937629153</v>
+      </c>
+      <c r="G4" s="69"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="83"/>
+    </row>
+    <row r="5" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="62"/>
+      <c r="B5" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="75">
+        <v>4.5360921616260659E-2</v>
+      </c>
+      <c r="D5" s="76">
+        <v>8.6956521739130432E-2</v>
+      </c>
+      <c r="E5" s="76">
+        <v>0.15110552387738382</v>
+      </c>
+      <c r="F5" s="77">
+        <v>0.22204968427479879</v>
+      </c>
+      <c r="G5" s="70"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="85"/>
+    </row>
+    <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="74">
+        <v>190.82938899999999</v>
+      </c>
+      <c r="D6" s="74">
+        <v>263.62193400000001</v>
+      </c>
+      <c r="E6" s="74">
+        <v>362.985141</v>
+      </c>
+      <c r="F6" s="74">
+        <v>232.03920600000001</v>
+      </c>
+      <c r="G6" s="67"/>
+      <c r="H6" s="82">
+        <v>0.16178500000000001</v>
+      </c>
+      <c r="I6" s="86">
+        <v>0.55025000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="61"/>
+      <c r="B7" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="74">
+        <v>30.669666659421001</v>
+      </c>
+      <c r="D7" s="74">
+        <v>48.007451359137988</v>
+      </c>
+      <c r="E7" s="74">
+        <v>80.005116336394394</v>
+      </c>
+      <c r="F7" s="74">
+        <v>43.266110456106404</v>
+      </c>
+      <c r="G7" s="22"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="86"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="20"/>
+      <c r="N7" s="20"/>
+    </row>
+    <row r="8" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="62"/>
+      <c r="B8" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="78">
+        <v>0.16071773231648823</v>
+      </c>
+      <c r="D8" s="78">
+        <v>0.18210719658531141</v>
+      </c>
+      <c r="E8" s="79">
+        <v>0.22040879170972563</v>
+      </c>
+      <c r="F8" s="78">
+        <v>0.18646034522332577</v>
+      </c>
+      <c r="G8" s="67"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="86"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+    </row>
+    <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="71">
+        <v>1063.8218529999999</v>
+      </c>
+      <c r="D9" s="72">
+        <v>580.93112599999995</v>
+      </c>
+      <c r="E9" s="72">
+        <v>1067.473</v>
+      </c>
+      <c r="F9" s="72">
+        <v>907.28177800000003</v>
+      </c>
+      <c r="G9" s="25"/>
+      <c r="H9" s="80">
+        <v>0.43143799999999999</v>
+      </c>
+      <c r="I9" s="88">
+        <v>-0.111646</v>
+      </c>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+    </row>
+    <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="61"/>
+      <c r="B10" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="73">
+        <v>109.92774188074637</v>
+      </c>
+      <c r="D10" s="74">
+        <v>160.7876082196635</v>
+      </c>
+      <c r="E10" s="74">
+        <v>136.09373185051544</v>
+      </c>
+      <c r="F10" s="74">
+        <v>73.8296050443181</v>
+      </c>
+      <c r="G10" s="67"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="86"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+    </row>
+    <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="62"/>
+      <c r="B11" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="75">
+        <v>0.10333284804288222</v>
+      </c>
+      <c r="D11" s="77">
+        <v>0.27677568135618114</v>
+      </c>
+      <c r="E11" s="76">
+        <v>0.12749149800558462</v>
+      </c>
+      <c r="F11" s="76">
+        <v>8.1374504409277459E-2</v>
+      </c>
+      <c r="G11" s="24"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="89"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+    </row>
+    <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="74">
+        <v>3060.5</v>
+      </c>
+      <c r="D12" s="74">
+        <v>5535.25</v>
+      </c>
+      <c r="E12" s="74">
+        <v>5546.4</v>
+      </c>
+      <c r="F12" s="74">
+        <v>4213</v>
+      </c>
+      <c r="G12" s="67"/>
+      <c r="H12" s="82">
+        <v>-4.4269999999999997E-2</v>
+      </c>
+      <c r="I12" s="86">
+        <v>0.58257099999999995</v>
+      </c>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+    </row>
+    <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="61"/>
+      <c r="B13" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="74">
+        <v>192.54869513969706</v>
+      </c>
+      <c r="D13" s="74">
+        <v>919.33359016191719</v>
+      </c>
+      <c r="E13" s="74">
+        <v>1599.7341341610486</v>
+      </c>
+      <c r="F13" s="74">
+        <v>720.34991497188366</v>
+      </c>
+      <c r="G13" s="22"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="86"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+    </row>
+    <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="62"/>
+      <c r="B14" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="78">
+        <v>6.2914130089755618E-2</v>
+      </c>
+      <c r="D14" s="78">
+        <v>0.16608709455976103</v>
+      </c>
+      <c r="E14" s="79">
+        <v>0.28842747262387292</v>
+      </c>
+      <c r="F14" s="78">
+        <v>0.1709826524974801</v>
+      </c>
+      <c r="G14" s="67"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="86"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+    </row>
+    <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="71">
+        <v>15.94445</v>
+      </c>
+      <c r="D15" s="72">
+        <v>20.117663</v>
+      </c>
+      <c r="E15" s="72">
+        <v>15.313986999999999</v>
+      </c>
+      <c r="F15" s="72">
+        <v>17.616083</v>
+      </c>
+      <c r="G15" s="25"/>
+      <c r="H15" s="80">
+        <v>-0.41344900000000001</v>
+      </c>
+      <c r="I15" s="88">
+        <v>0.103385</v>
+      </c>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+    </row>
+    <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="61"/>
+      <c r="B16" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="73">
+        <v>2.490306607628868</v>
+      </c>
+      <c r="D16" s="74">
+        <v>0.76595757062646752</v>
+      </c>
+      <c r="E16" s="74">
+        <v>1.5641154049493919</v>
+      </c>
+      <c r="F16" s="74">
+        <v>0.82242324869862471</v>
+      </c>
+      <c r="G16" s="67"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="86"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+    </row>
+    <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="62"/>
+      <c r="B17" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="75">
+        <v>0.15618642271316152</v>
+      </c>
+      <c r="D17" s="76">
+        <v>3.8073884159729066E-2</v>
+      </c>
+      <c r="E17" s="76">
+        <v>0.10213639367392646</v>
+      </c>
+      <c r="F17" s="76">
+        <v>4.6685931753308881E-2</v>
+      </c>
+      <c r="G17" s="24"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="89"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+    </row>
+    <row r="18" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="74">
+        <v>92.454267000000002</v>
+      </c>
+      <c r="D18" s="74">
+        <v>41.491126000000001</v>
+      </c>
+      <c r="E18" s="74">
+        <v>97.073448999999997</v>
+      </c>
+      <c r="F18" s="74">
+        <v>71.908652000000004</v>
+      </c>
+      <c r="G18" s="67"/>
+      <c r="H18" s="82">
+        <v>0.45378299999999999</v>
+      </c>
+      <c r="I18" s="86">
+        <v>-0.11502900000000001</v>
+      </c>
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="61"/>
+      <c r="B19" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="74">
+        <v>10.328375816167807</v>
+      </c>
+      <c r="D19" s="74">
+        <v>11.727627381529478</v>
+      </c>
+      <c r="E19" s="74">
+        <v>16.791096658646211</v>
+      </c>
+      <c r="F19" s="74">
+        <v>7.5276394042222821</v>
+      </c>
+      <c r="G19" s="22"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="86"/>
+      <c r="K19" s="22"/>
+    </row>
+    <row r="20" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="61"/>
+      <c r="B20" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="78">
+        <v>0.11171334921910966</v>
+      </c>
+      <c r="D20" s="79">
+        <v>0.28265387113209406</v>
+      </c>
+      <c r="E20" s="78">
+        <v>0.1729731129533289</v>
+      </c>
+      <c r="F20" s="78">
+        <v>0.10468336138775458</v>
+      </c>
+      <c r="G20" s="67"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="86"/>
+      <c r="K20" s="33"/>
+    </row>
+    <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="71">
+        <v>971.55733299999997</v>
+      </c>
+      <c r="D21" s="72">
+        <v>764.76906899999994</v>
+      </c>
+      <c r="E21" s="72">
+        <v>1199.6913039999999</v>
+      </c>
+      <c r="F21" s="72">
+        <v>1038.939717</v>
+      </c>
+      <c r="G21" s="25"/>
+      <c r="H21" s="80">
+        <v>0.33114399999999999</v>
+      </c>
+      <c r="I21" s="88">
+        <v>0.13273399999999999</v>
+      </c>
+      <c r="K21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+    </row>
+    <row r="22" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="61"/>
+      <c r="B22" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="73">
+        <v>131.12004280429443</v>
+      </c>
+      <c r="D22" s="74">
+        <v>154.72026793216202</v>
+      </c>
+      <c r="E22" s="74">
+        <v>265.79920822681169</v>
+      </c>
+      <c r="F22" s="74">
+        <v>132.59872793507486</v>
+      </c>
+      <c r="G22" s="67"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="86"/>
+      <c r="K22" s="22"/>
+    </row>
+    <row r="23" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="62"/>
+      <c r="B23" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="75">
+        <v>0.13495862606421646</v>
+      </c>
+      <c r="D23" s="77">
+        <v>0.20230978762578855</v>
+      </c>
+      <c r="E23" s="77">
+        <v>0.22155633481762046</v>
+      </c>
+      <c r="F23" s="76">
+        <v>0.12762889488714663</v>
+      </c>
+      <c r="G23" s="24"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="89"/>
+      <c r="K23" s="33"/>
+    </row>
+    <row r="24" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="74">
+        <v>450.27294699999999</v>
+      </c>
+      <c r="D24" s="74">
+        <v>345.80624299999999</v>
+      </c>
+      <c r="E24" s="74">
+        <v>436.86927100000003</v>
+      </c>
+      <c r="F24" s="74">
+        <v>422.738159</v>
+      </c>
+      <c r="G24" s="67"/>
+      <c r="H24" s="82">
+        <v>0.37010599999999999</v>
+      </c>
+      <c r="I24" s="86">
+        <v>-0.12901899999999999</v>
+      </c>
+      <c r="K24" s="20"/>
+    </row>
+    <row r="25" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="61"/>
+      <c r="B25" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="74">
+        <v>16.073893305605832</v>
+      </c>
+      <c r="D25" s="74">
+        <v>36.774510737737899</v>
+      </c>
+      <c r="E25" s="74">
+        <v>25.472349243836934</v>
+      </c>
+      <c r="F25" s="74">
+        <v>24.681994510168746</v>
+      </c>
+      <c r="G25" s="22"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="86"/>
+      <c r="K25" s="22"/>
+    </row>
+    <row r="26" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="61"/>
+      <c r="B26" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="78">
+        <v>3.5698110252237368E-2</v>
+      </c>
+      <c r="D26" s="78">
+        <v>0.10634426498117878</v>
+      </c>
+      <c r="E26" s="78">
+        <v>5.8306571175240504E-2</v>
+      </c>
+      <c r="F26" s="78">
+        <v>5.8386010310861824E-2</v>
+      </c>
+      <c r="G26" s="67"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="86"/>
+      <c r="K26" s="33"/>
+    </row>
+    <row r="27" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="71">
+        <v>94.33614</v>
+      </c>
+      <c r="D27" s="72">
+        <v>71.892623</v>
+      </c>
+      <c r="E27" s="72">
+        <v>166.28830400000001</v>
+      </c>
+      <c r="F27" s="72">
+        <v>97.401615000000007</v>
+      </c>
+      <c r="G27" s="25"/>
+      <c r="H27" s="80">
+        <v>0.37440600000000002</v>
+      </c>
+      <c r="I27" s="88">
+        <v>0.33322099999999999</v>
+      </c>
+      <c r="K27" s="20"/>
+    </row>
+    <row r="28" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="61"/>
+      <c r="B28" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="73">
+        <v>5.1177768610989673</v>
+      </c>
+      <c r="D28" s="74">
+        <v>34.249958248149731</v>
+      </c>
+      <c r="E28" s="74">
+        <v>24.153634716125023</v>
+      </c>
+      <c r="F28" s="74">
+        <v>16.974471862181751</v>
+      </c>
+      <c r="G28" s="67"/>
+      <c r="H28" s="82"/>
+      <c r="I28" s="86"/>
+      <c r="K28" s="22"/>
+    </row>
+    <row r="29" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="62"/>
+      <c r="B29" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="75">
+        <v>5.4250437436797472E-2</v>
+      </c>
+      <c r="D29" s="77">
+        <v>0.47640434885996202</v>
+      </c>
+      <c r="E29" s="76">
+        <v>0.14525155489062549</v>
+      </c>
+      <c r="F29" s="76">
+        <v>0.1742730021692325</v>
+      </c>
+      <c r="G29" s="24"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="89"/>
+      <c r="K29" s="33"/>
+    </row>
+    <row r="30" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="71">
+        <v>0.13997599999999999</v>
+      </c>
+      <c r="D30" s="72">
+        <v>0.15260000000000001</v>
+      </c>
+      <c r="E30" s="72">
+        <v>0.15496699999999999</v>
+      </c>
+      <c r="F30" s="72">
+        <v>0.15324099999999999</v>
+      </c>
+      <c r="G30" s="25"/>
+      <c r="H30" s="80">
+        <v>-0.14335999999999999</v>
+      </c>
+      <c r="I30" s="88">
+        <v>0.349414</v>
+      </c>
+      <c r="K30" s="20"/>
+    </row>
+    <row r="31" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="64"/>
+      <c r="B31" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="73">
+        <v>2.4494897427831783E-3</v>
+      </c>
+      <c r="D31" s="74">
+        <v>1.3190905958272919E-2</v>
+      </c>
+      <c r="E31" s="74">
+        <v>1.1661903789690601E-2</v>
+      </c>
+      <c r="F31" s="74">
+        <v>6.1644140029689766E-3</v>
+      </c>
+      <c r="G31" s="67"/>
+      <c r="H31" s="82"/>
+      <c r="I31" s="86"/>
+      <c r="K31" s="90"/>
+      <c r="L31" s="91"/>
+      <c r="M31" s="91"/>
+      <c r="N31" s="91"/>
+    </row>
+    <row r="32" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="65"/>
+      <c r="B32" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="75">
+        <v>1.7499355195056143E-2</v>
+      </c>
+      <c r="D32" s="76">
+        <v>8.6441061325510604E-2</v>
+      </c>
+      <c r="E32" s="76">
+        <v>7.5254110808692182E-2</v>
+      </c>
+      <c r="F32" s="76">
+        <v>4.022692362337088E-2</v>
+      </c>
+      <c r="G32" s="24"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="89"/>
+      <c r="K32" s="90"/>
+      <c r="L32" s="91"/>
+      <c r="M32" s="91"/>
+      <c r="N32" s="91"/>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20"/>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:H32">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6:I32">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H32">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I32">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:F3">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:F6">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:F9">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:F12">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:F15">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:F18">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:F21">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:F24">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:F27">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30:F30">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Experiment-Data/Answer-Data.xlsx
+++ b/Experiment-Data/Answer-Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\eye-tracking-software\Experiment-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A077BE28-FA90-4C0B-BBAD-7FA5E44C13D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD8ECD9-A3A2-47EA-ACB4-1655B17047B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="8" xr2:uid="{65F65776-174E-4145-8CCF-AA6B8A50F68A}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="21060" windowHeight="15585" firstSheet="8" activeTab="10" xr2:uid="{65F65776-174E-4145-8CCF-AA6B8A50F68A}"/>
   </bookViews>
   <sheets>
     <sheet name="1st-Scores" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="2nd-All-Data" sheetId="8" r:id="rId8"/>
     <sheet name="2nd-E-Data-wScores" sheetId="9" r:id="rId9"/>
     <sheet name="2nd-J-Data-wScores" sheetId="11" r:id="rId10"/>
+    <sheet name="2nd-All-Data-wScores" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="39">
   <si>
     <t>English</t>
   </si>
@@ -219,9 +220,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.000"/>
-    <numFmt numFmtId="180" formatCode="0.000_ "/>
+    <numFmt numFmtId="177" formatCode="0.000_ "/>
+    <numFmt numFmtId="181" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -438,7 +440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -591,73 +593,22 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -669,51 +620,140 @@
     <xf numFmtId="10" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="181" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="181" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="181" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="181" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="181" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2495,8 +2535,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7888941" y="627529"/>
-          <a:ext cx="7772400" cy="6217920"/>
+          <a:off x="7911353" y="627529"/>
+          <a:ext cx="7772399" cy="6217920"/>
           <a:chOff x="8258735" y="638735"/>
           <a:chExt cx="7772400" cy="6217920"/>
         </a:xfrm>
@@ -3147,6 +3187,212 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>627529</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>78440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>186018</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>177949</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18D94109-2C07-FB80-CD4B-88395FA5CB52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6477000" y="784411"/>
+          <a:ext cx="7772400" cy="6217920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>448237</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>11207</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形: 角を丸くする 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95A684A8-205B-4A40-8302-60BFC168149E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9043149" y="3910853"/>
+          <a:ext cx="918882" cy="336178"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" kern="1200">
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>82.71</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>％</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>618565</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>80685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>156883</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>203950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形: 角を丸くする 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6DD8E7C-206F-41D5-83C6-01B95FD7D6B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11947712" y="3845861"/>
+          <a:ext cx="905436" cy="358589"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" kern="1200">
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>78.93</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>％</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -3507,28 +3753,28 @@
       <c r="F1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
       <c r="AA1" s="5"/>
       <c r="AB1" s="5" t="s">
         <v>10</v>
@@ -3551,18 +3797,18 @@
       <c r="AH1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="AI1" s="53" t="s">
+      <c r="AI1" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="53"/>
-      <c r="AN1" s="53"/>
-      <c r="AO1" s="53"/>
-      <c r="AP1" s="53"/>
-      <c r="AQ1" s="53"/>
-      <c r="AR1" s="53"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="65"/>
+      <c r="AL1" s="65"/>
+      <c r="AM1" s="65"/>
+      <c r="AN1" s="65"/>
+      <c r="AO1" s="65"/>
+      <c r="AP1" s="65"/>
+      <c r="AQ1" s="65"/>
+      <c r="AR1" s="65"/>
       <c r="AT1" s="5" t="s">
         <v>10</v>
       </c>
@@ -8349,40 +8595,40 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:B1"/>
+      <selection pane="topRight" activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="24.375" style="3" customWidth="1"/>
-    <col min="2" max="6" width="11.375" customWidth="1"/>
+    <col min="2" max="6" width="10.625" customWidth="1"/>
     <col min="7" max="7" width="2.5" customWidth="1"/>
     <col min="8" max="8" width="9.125" customWidth="1"/>
     <col min="10" max="10" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="66">
+      <c r="B1" s="66"/>
+      <c r="C1" s="78">
         <v>4</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
       <c r="G1" s="22"/>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="58"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="59"/>
+      <c r="B2" s="71"/>
       <c r="C2" s="26">
         <v>2</v>
       </c>
@@ -8404,29 +8650,29 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="75" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="92">
+      <c r="C3" s="88">
         <v>90</v>
       </c>
-      <c r="D3" s="92">
+      <c r="D3" s="89">
         <v>88.75</v>
       </c>
-      <c r="E3" s="92">
+      <c r="E3" s="89">
         <v>78.571428999999995</v>
       </c>
-      <c r="F3" s="92">
+      <c r="F3" s="89">
         <v>78</v>
       </c>
-      <c r="G3" s="68"/>
-      <c r="H3" s="80">
+      <c r="G3" s="52"/>
+      <c r="H3" s="79">
         <v>-2.8187E-2</v>
       </c>
-      <c r="I3" s="81">
+      <c r="I3" s="82">
         <v>0.14141599999999999</v>
       </c>
       <c r="K3" s="20"/>
@@ -8435,24 +8681,24 @@
       <c r="N3" s="20"/>
     </row>
     <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="61"/>
+      <c r="A4" s="75"/>
       <c r="B4" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="93">
+      <c r="C4" s="90">
         <v>6.324555320336759</v>
       </c>
-      <c r="D4" s="93">
+      <c r="D4" s="91">
         <v>8.3452295954035929</v>
       </c>
-      <c r="E4" s="93">
+      <c r="E4" s="91">
         <v>6.9006556210261643</v>
       </c>
-      <c r="F4" s="93">
+      <c r="F4" s="91">
         <v>13.038404810405298</v>
       </c>
-      <c r="G4" s="69"/>
-      <c r="H4" s="82"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="93"/>
       <c r="I4" s="83"/>
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
@@ -8460,51 +8706,51 @@
       <c r="N4" s="20"/>
     </row>
     <row r="5" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="62"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="78">
+      <c r="C5" s="58">
         <v>7.0272836892630655E-2</v>
       </c>
-      <c r="D5" s="78">
+      <c r="D5" s="59">
         <v>9.4030756004547522E-2</v>
       </c>
-      <c r="E5" s="78">
+      <c r="E5" s="59">
         <v>8.7826525606733777E-2</v>
       </c>
-      <c r="F5" s="78">
+      <c r="F5" s="59">
         <v>0.16715903603083715</v>
       </c>
-      <c r="G5" s="70"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="85"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="84"/>
       <c r="K5" s="20"/>
       <c r="L5" s="20"/>
       <c r="M5" s="20"/>
       <c r="N5" s="20"/>
     </row>
     <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="75" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="92">
+      <c r="C6" s="63">
         <v>102.242059</v>
       </c>
-      <c r="D6" s="92">
+      <c r="D6" s="63">
         <v>174.26570599999999</v>
       </c>
-      <c r="E6" s="92">
+      <c r="E6" s="63">
         <v>120.40132699999999</v>
       </c>
-      <c r="F6" s="92">
+      <c r="F6" s="63">
         <v>95.840238999999997</v>
       </c>
-      <c r="G6" s="67"/>
-      <c r="H6" s="82">
+      <c r="G6" s="22"/>
+      <c r="H6" s="80">
         <v>-0.173153</v>
       </c>
       <c r="I6" s="86">
@@ -8516,24 +8762,24 @@
       <c r="N6" s="20"/>
     </row>
     <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="61"/>
+      <c r="A7" s="75"/>
       <c r="B7" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="74">
+      <c r="C7" s="57">
         <v>13.051566112923</v>
       </c>
-      <c r="D7" s="74">
+      <c r="D7" s="57">
         <v>28.052329903236203</v>
       </c>
-      <c r="E7" s="74">
+      <c r="E7" s="57">
         <v>14.236994170118916</v>
       </c>
-      <c r="F7" s="74">
+      <c r="F7" s="57">
         <v>18.939287156595942</v>
       </c>
       <c r="G7" s="22"/>
-      <c r="H7" s="87"/>
+      <c r="H7" s="80"/>
       <c r="I7" s="86"/>
       <c r="K7" s="20"/>
       <c r="L7" s="20"/>
@@ -8541,24 +8787,24 @@
       <c r="N7" s="20"/>
     </row>
     <row r="8" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="62"/>
+      <c r="A8" s="76"/>
       <c r="B8" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="78">
+      <c r="C8" s="61">
         <v>0.12765359227480932</v>
       </c>
-      <c r="D8" s="78">
+      <c r="D8" s="61">
         <v>0.16097447138128373</v>
       </c>
-      <c r="E8" s="78">
+      <c r="E8" s="61">
         <v>0.11824615662349731</v>
       </c>
-      <c r="F8" s="78">
+      <c r="F8" s="61">
         <v>0.19761310441427365</v>
       </c>
-      <c r="G8" s="67"/>
-      <c r="H8" s="82"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="80"/>
       <c r="I8" s="86"/>
       <c r="K8" s="20"/>
       <c r="L8" s="20"/>
@@ -8566,29 +8812,29 @@
       <c r="N8" s="20"/>
     </row>
     <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="77" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="92">
+      <c r="C9" s="88">
         <v>1434.6332010000001</v>
       </c>
-      <c r="D9" s="92">
+      <c r="D9" s="89">
         <v>1179.510305</v>
       </c>
-      <c r="E9" s="92">
+      <c r="E9" s="89">
         <v>992.29636200000004</v>
       </c>
-      <c r="F9" s="92">
+      <c r="F9" s="89">
         <v>1153.2708809999999</v>
       </c>
       <c r="G9" s="25"/>
-      <c r="H9" s="80">
+      <c r="H9" s="79">
         <v>0.41355599999999998</v>
       </c>
-      <c r="I9" s="88">
+      <c r="I9" s="85">
         <v>0.167078</v>
       </c>
       <c r="K9" s="20"/>
@@ -8597,24 +8843,24 @@
       <c r="N9" s="20"/>
     </row>
     <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="61"/>
+      <c r="A10" s="75"/>
       <c r="B10" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="74">
+      <c r="C10" s="56">
         <v>236.85929703095886</v>
       </c>
-      <c r="D10" s="74">
+      <c r="D10" s="94">
         <v>94.933136780578366</v>
       </c>
-      <c r="E10" s="74">
+      <c r="E10" s="94">
         <v>165.55554747576414</v>
       </c>
-      <c r="F10" s="74">
+      <c r="F10" s="94">
         <v>110.71276122922777</v>
       </c>
-      <c r="G10" s="67"/>
-      <c r="H10" s="82"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="93"/>
       <c r="I10" s="86"/>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
@@ -8622,25 +8868,25 @@
       <c r="N10" s="20"/>
     </row>
     <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="62"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="78">
+      <c r="C11" s="58">
         <v>0.16510094487277857</v>
       </c>
-      <c r="D11" s="78">
+      <c r="D11" s="59">
         <v>8.0485211852878519E-2</v>
       </c>
-      <c r="E11" s="78">
+      <c r="E11" s="59">
         <v>0.16684082882464921</v>
       </c>
-      <c r="F11" s="78">
+      <c r="F11" s="59">
         <v>9.5998921895286957E-2</v>
       </c>
-      <c r="G11" s="76"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="89"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="87"/>
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
       <c r="M11" s="20"/>
@@ -8648,26 +8894,26 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="77" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="92">
+      <c r="C12" s="63">
         <v>1328.666667</v>
       </c>
-      <c r="D12" s="92">
+      <c r="D12" s="63">
         <v>2696.25</v>
       </c>
-      <c r="E12" s="92">
+      <c r="E12" s="63">
         <v>2087</v>
       </c>
-      <c r="F12" s="92">
+      <c r="F12" s="63">
         <v>1283.2</v>
       </c>
-      <c r="G12" s="67"/>
-      <c r="H12" s="82">
+      <c r="G12" s="22"/>
+      <c r="H12" s="80">
         <v>-0.37055300000000002</v>
       </c>
       <c r="I12" s="86">
@@ -8680,24 +8926,24 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="61"/>
+      <c r="A13" s="75"/>
       <c r="B13" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="74">
+      <c r="C13" s="57">
         <v>364.4231972130753</v>
       </c>
-      <c r="D13" s="74">
+      <c r="D13" s="57">
         <v>326.84891660521072</v>
       </c>
-      <c r="E13" s="74">
+      <c r="E13" s="57">
         <v>171.13639784394201</v>
       </c>
-      <c r="F13" s="74">
+      <c r="F13" s="57">
         <v>154.08179645889388</v>
       </c>
       <c r="G13" s="22"/>
-      <c r="H13" s="87"/>
+      <c r="H13" s="80"/>
       <c r="I13" s="86"/>
       <c r="K13" s="22"/>
       <c r="L13" s="20"/>
@@ -8706,24 +8952,24 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="62"/>
+      <c r="A14" s="76"/>
       <c r="B14" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="79">
+      <c r="C14" s="62">
         <v>0.27427736863144719</v>
       </c>
-      <c r="D14" s="78">
+      <c r="D14" s="61">
         <v>0.12122352029864097</v>
       </c>
-      <c r="E14" s="78">
+      <c r="E14" s="61">
         <v>8.2001148942952573E-2</v>
       </c>
-      <c r="F14" s="78">
+      <c r="F14" s="61">
         <v>0.12007621295113301</v>
       </c>
-      <c r="G14" s="67"/>
-      <c r="H14" s="82"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="80"/>
       <c r="I14" s="86"/>
       <c r="K14" s="46"/>
       <c r="L14" s="20"/>
@@ -8732,29 +8978,29 @@
       <c r="O14" s="20"/>
     </row>
     <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="77" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="92">
+      <c r="C15" s="88">
         <v>13.721456999999999</v>
       </c>
-      <c r="D15" s="92">
+      <c r="D15" s="89">
         <v>16.096601</v>
       </c>
-      <c r="E15" s="92">
+      <c r="E15" s="89">
         <v>17.231268</v>
       </c>
-      <c r="F15" s="92">
+      <c r="F15" s="89">
         <v>13.066091999999999</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="80">
+      <c r="H15" s="79">
         <v>-0.42402699999999999</v>
       </c>
-      <c r="I15" s="88">
+      <c r="I15" s="85">
         <v>1.4246999999999999E-2</v>
       </c>
       <c r="K15" s="20"/>
@@ -8764,24 +9010,24 @@
       <c r="O15" s="20"/>
     </row>
     <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="61"/>
+      <c r="A16" s="75"/>
       <c r="B16" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="74">
+      <c r="C16" s="56">
         <v>1.802960066113501</v>
       </c>
-      <c r="D16" s="74">
+      <c r="D16" s="94">
         <v>2.0160089285516571</v>
       </c>
-      <c r="E16" s="74">
+      <c r="E16" s="94">
         <v>1.7742094013954497</v>
       </c>
-      <c r="F16" s="74">
+      <c r="F16" s="94">
         <v>1.7486649193027233</v>
       </c>
-      <c r="G16" s="67"/>
-      <c r="H16" s="82"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="93"/>
       <c r="I16" s="86"/>
       <c r="K16" s="22"/>
       <c r="L16" s="20"/>
@@ -8792,25 +9038,25 @@
       <c r="Q16" s="20"/>
     </row>
     <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="62"/>
+      <c r="A17" s="76"/>
       <c r="B17" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="78">
+      <c r="C17" s="58">
         <v>0.13139712977371873</v>
       </c>
-      <c r="D17" s="78">
+      <c r="D17" s="59">
         <v>0.12524438721887043</v>
       </c>
-      <c r="E17" s="78">
+      <c r="E17" s="59">
         <v>0.10296452944701746</v>
       </c>
-      <c r="F17" s="78">
+      <c r="F17" s="59">
         <v>0.13383228277458351</v>
       </c>
       <c r="G17" s="24"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="89"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="87"/>
       <c r="K17" s="33"/>
       <c r="L17" s="20"/>
       <c r="M17" s="20"/>
@@ -8818,26 +9064,26 @@
       <c r="O17" s="20"/>
     </row>
     <row r="18" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="75" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="92">
+      <c r="C18" s="63">
         <v>144.017572</v>
       </c>
-      <c r="D18" s="92">
+      <c r="D18" s="63">
         <v>101.81745100000001</v>
       </c>
-      <c r="E18" s="92">
+      <c r="E18" s="63">
         <v>81.711557999999997</v>
       </c>
-      <c r="F18" s="92">
+      <c r="F18" s="63">
         <v>118.336457</v>
       </c>
-      <c r="G18" s="67"/>
-      <c r="H18" s="82">
+      <c r="G18" s="22"/>
+      <c r="H18" s="80">
         <v>0.486929</v>
       </c>
       <c r="I18" s="86">
@@ -8846,73 +9092,73 @@
       <c r="K18" s="20"/>
     </row>
     <row r="19" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="61"/>
+      <c r="A19" s="75"/>
       <c r="B19" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="74">
+      <c r="C19" s="57">
         <v>33.324446597055442</v>
       </c>
-      <c r="D19" s="74">
+      <c r="D19" s="57">
         <v>11.37199173408071</v>
       </c>
-      <c r="E19" s="74">
+      <c r="E19" s="57">
         <v>17.278308713528649</v>
       </c>
-      <c r="F19" s="74">
+      <c r="F19" s="57">
         <v>21.499348176165714</v>
       </c>
       <c r="G19" s="22"/>
-      <c r="H19" s="87"/>
+      <c r="H19" s="80"/>
       <c r="I19" s="86"/>
       <c r="K19" s="22"/>
     </row>
     <row r="20" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="61"/>
+      <c r="A20" s="75"/>
       <c r="B20" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="79">
+      <c r="C20" s="62">
         <v>0.23139153184068012</v>
       </c>
-      <c r="D20" s="78">
+      <c r="D20" s="61">
         <v>0.11169000620611402</v>
       </c>
-      <c r="E20" s="78">
+      <c r="E20" s="61">
         <v>0.21145489250772392</v>
       </c>
-      <c r="F20" s="78">
+      <c r="F20" s="61">
         <v>0.18167983663872678</v>
       </c>
-      <c r="G20" s="67"/>
-      <c r="H20" s="82"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="80"/>
       <c r="I20" s="86"/>
       <c r="K20" s="33"/>
     </row>
     <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="77" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="92">
+      <c r="C21" s="88">
         <v>1343.3503909999999</v>
       </c>
-      <c r="D21" s="92">
+      <c r="D21" s="89">
         <v>1127.292029</v>
       </c>
-      <c r="E21" s="92">
+      <c r="E21" s="89">
         <v>883.62551399999995</v>
       </c>
-      <c r="F21" s="92">
+      <c r="F21" s="89">
         <v>878.05185200000005</v>
       </c>
       <c r="G21" s="25"/>
-      <c r="H21" s="80">
+      <c r="H21" s="79">
         <v>0.29672999999999999</v>
       </c>
-      <c r="I21" s="88">
+      <c r="I21" s="85">
         <v>0.35155900000000001</v>
       </c>
       <c r="K21" s="20"/>
@@ -8922,70 +9168,70 @@
       <c r="Q21" s="20"/>
     </row>
     <row r="22" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="61"/>
+      <c r="A22" s="75"/>
       <c r="B22" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="74">
+      <c r="C22" s="56">
         <v>159.16366388406621</v>
       </c>
-      <c r="D22" s="74">
+      <c r="D22" s="94">
         <v>301.58781036043217</v>
       </c>
-      <c r="E22" s="74">
+      <c r="E22" s="94">
         <v>236.87678185926117</v>
       </c>
-      <c r="F22" s="74">
+      <c r="F22" s="94">
         <v>140.42144200228111</v>
       </c>
-      <c r="G22" s="67"/>
-      <c r="H22" s="82"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="93"/>
       <c r="I22" s="86"/>
       <c r="K22" s="22"/>
     </row>
     <row r="23" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="62"/>
+      <c r="A23" s="76"/>
       <c r="B23" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="78">
+      <c r="C23" s="58">
         <v>0.11848261254130697</v>
       </c>
-      <c r="D23" s="79">
+      <c r="D23" s="60">
         <v>0.26753299287316451</v>
       </c>
-      <c r="E23" s="79">
+      <c r="E23" s="60">
         <v>0.26807372366033921</v>
       </c>
-      <c r="F23" s="78">
+      <c r="F23" s="59">
         <v>0.15992386062671968</v>
       </c>
       <c r="G23" s="24"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="89"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="87"/>
       <c r="K23" s="33"/>
     </row>
     <row r="24" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="61" t="s">
+      <c r="A24" s="75" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="92">
+      <c r="C24" s="63">
         <v>539.63650299999995</v>
       </c>
-      <c r="D24" s="92">
+      <c r="D24" s="63">
         <v>504.36429900000002</v>
       </c>
-      <c r="E24" s="92">
+      <c r="E24" s="63">
         <v>450.18796800000001</v>
       </c>
-      <c r="F24" s="92">
+      <c r="F24" s="63">
         <v>501.741713</v>
       </c>
-      <c r="G24" s="67"/>
-      <c r="H24" s="82">
+      <c r="G24" s="22"/>
+      <c r="H24" s="80">
         <v>0.375917</v>
       </c>
       <c r="I24" s="86">
@@ -8994,198 +9240,192 @@
       <c r="K24" s="20"/>
     </row>
     <row r="25" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="61"/>
+      <c r="A25" s="75"/>
       <c r="B25" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="74">
+      <c r="C25" s="57">
         <v>63.274618774039247</v>
       </c>
-      <c r="D25" s="74">
+      <c r="D25" s="57">
         <v>54.545922725718007</v>
       </c>
-      <c r="E25" s="74">
+      <c r="E25" s="57">
         <v>68.718572118460088</v>
       </c>
-      <c r="F25" s="74">
+      <c r="F25" s="57">
         <v>42.916993988395788</v>
       </c>
       <c r="G25" s="22"/>
-      <c r="H25" s="87"/>
+      <c r="H25" s="80"/>
       <c r="I25" s="86"/>
       <c r="K25" s="22"/>
     </row>
     <row r="26" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="61"/>
+      <c r="A26" s="75"/>
       <c r="B26" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="78">
+      <c r="C26" s="61">
         <v>0.11725414871358183</v>
       </c>
-      <c r="D26" s="78">
+      <c r="D26" s="61">
         <v>0.10814786620279404</v>
       </c>
-      <c r="E26" s="78">
+      <c r="E26" s="61">
         <v>0.15264417755043175</v>
       </c>
-      <c r="F26" s="78">
+      <c r="F26" s="61">
         <v>8.5536029547528938E-2</v>
       </c>
-      <c r="G26" s="67"/>
-      <c r="H26" s="82"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="80"/>
       <c r="I26" s="86"/>
       <c r="K26" s="33"/>
     </row>
     <row r="27" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="60" t="s">
+      <c r="A27" s="77" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="92">
+      <c r="C27" s="88">
         <v>59.254765999999996</v>
       </c>
-      <c r="D27" s="92">
+      <c r="D27" s="89">
         <v>87.517392999999998</v>
       </c>
-      <c r="E27" s="92">
+      <c r="E27" s="89">
         <v>57.598889</v>
       </c>
-      <c r="F27" s="92">
+      <c r="F27" s="89">
         <v>51.586761000000003</v>
       </c>
       <c r="G27" s="25"/>
-      <c r="H27" s="80">
+      <c r="H27" s="79">
         <v>-9.9143999999999996E-2</v>
       </c>
-      <c r="I27" s="88">
+      <c r="I27" s="85">
         <v>0.54666899999999996</v>
       </c>
       <c r="K27" s="20"/>
     </row>
     <row r="28" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="61"/>
+      <c r="A28" s="75"/>
       <c r="B28" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="74">
+      <c r="C28" s="56">
         <v>6.4139876052265645</v>
       </c>
-      <c r="D28" s="74">
+      <c r="D28" s="94">
         <v>9.8044365467883985</v>
       </c>
-      <c r="E28" s="74">
+      <c r="E28" s="94">
         <v>11.006682197647027</v>
       </c>
-      <c r="F28" s="74">
+      <c r="F28" s="94">
         <v>8.6029711727983837</v>
       </c>
-      <c r="G28" s="67"/>
-      <c r="H28" s="82"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="93"/>
       <c r="I28" s="86"/>
       <c r="K28" s="22"/>
     </row>
     <row r="29" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="62"/>
+      <c r="A29" s="76"/>
       <c r="B29" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="78">
+      <c r="C29" s="58">
         <v>0.10824424832302207</v>
       </c>
-      <c r="D29" s="78">
+      <c r="D29" s="59">
         <v>0.11202843469969904</v>
       </c>
-      <c r="E29" s="78">
+      <c r="E29" s="59">
         <v>0.19109191841611783</v>
       </c>
-      <c r="F29" s="78">
+      <c r="F29" s="59">
         <v>0.16676703491421729</v>
       </c>
       <c r="G29" s="24"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="89"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="87"/>
       <c r="K29" s="33"/>
     </row>
     <row r="30" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="63" t="s">
+      <c r="A30" s="67" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="92">
+      <c r="C30" s="88">
         <v>0.16664799999999999</v>
       </c>
-      <c r="D30" s="92">
+      <c r="D30" s="89">
         <v>0.15400700000000001</v>
       </c>
-      <c r="E30" s="92">
+      <c r="E30" s="89">
         <v>0.166241</v>
       </c>
-      <c r="F30" s="92">
+      <c r="F30" s="89">
         <v>0.14464199999999999</v>
       </c>
       <c r="G30" s="25"/>
-      <c r="H30" s="80">
+      <c r="H30" s="79">
         <v>6.9235000000000005E-2</v>
       </c>
-      <c r="I30" s="88">
+      <c r="I30" s="85">
         <v>1.8303E-2</v>
       </c>
       <c r="K30" s="20"/>
     </row>
     <row r="31" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="64"/>
+      <c r="A31" s="68"/>
       <c r="B31" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="74">
+      <c r="C31" s="56">
         <v>2.4979991993593593E-2</v>
       </c>
-      <c r="D31" s="74">
+      <c r="D31" s="94">
         <v>9.746794344808964E-3</v>
       </c>
-      <c r="E31" s="74">
+      <c r="E31" s="94">
         <v>1.2E-2</v>
       </c>
-      <c r="F31" s="74">
+      <c r="F31" s="94">
         <v>1.2165525060596439E-2</v>
       </c>
-      <c r="G31" s="67"/>
-      <c r="H31" s="82"/>
+      <c r="G31" s="95"/>
+      <c r="H31" s="93"/>
       <c r="I31" s="86"/>
-      <c r="K31" s="90"/>
-      <c r="L31" s="91"/>
-      <c r="M31" s="91"/>
-      <c r="N31" s="91"/>
+      <c r="K31" s="22"/>
     </row>
     <row r="32" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="65"/>
+      <c r="A32" s="69"/>
       <c r="B32" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="78">
+      <c r="C32" s="58">
         <v>0.14989674039648598</v>
       </c>
-      <c r="D32" s="78">
+      <c r="D32" s="59">
         <v>6.328799564181474E-2</v>
       </c>
-      <c r="E32" s="78">
+      <c r="E32" s="59">
         <v>7.2184358852509317E-2</v>
       </c>
-      <c r="F32" s="78">
+      <c r="F32" s="59">
         <v>8.4107832169054902E-2</v>
       </c>
       <c r="G32" s="24"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="89"/>
-      <c r="K32" s="90"/>
-      <c r="L32" s="91"/>
-      <c r="M32" s="91"/>
-      <c r="N32" s="91"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="87"/>
+      <c r="K32" s="22"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B33" s="3"/>
@@ -9277,6 +9517,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="H30:H32"/>
     <mergeCell ref="I30:I32"/>
@@ -9293,204 +9551,8 @@
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="H21:H23"/>
     <mergeCell ref="I21:I23"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="I3:I5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27">
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H32">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6:I32">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18">
-    <cfRule type="colorScale" priority="27">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K21">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K24">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K27">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K30">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H32">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I32">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C3:F3">
     <cfRule type="colorScale" priority="10">
       <colorScale>
@@ -9591,6 +9653,1224 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H32">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:H32">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I32">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6:I32">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA21808-5DEF-4C24-9FBE-A672DE17226C}">
+  <dimension ref="A1:R40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="24.375" style="3" customWidth="1"/>
+    <col min="2" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="2.5" customWidth="1"/>
+    <col min="6" max="6" width="9.125" customWidth="1"/>
+    <col min="8" max="8" width="9.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="78">
+        <v>2</v>
+      </c>
+      <c r="D1" s="78"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="66"/>
+    </row>
+    <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="71"/>
+      <c r="C2" s="26">
+        <v>1</v>
+      </c>
+      <c r="D2" s="26">
+        <v>2</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="22">
+        <v>1</v>
+      </c>
+      <c r="G2" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="102">
+        <v>82.714286000000001</v>
+      </c>
+      <c r="D3" s="103">
+        <v>78.933333000000005</v>
+      </c>
+      <c r="E3" s="52"/>
+      <c r="F3" s="79">
+        <v>-0.107658</v>
+      </c>
+      <c r="G3" s="82">
+        <v>-0.17974899999999999</v>
+      </c>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+    </row>
+    <row r="4" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="75"/>
+      <c r="B4" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="104">
+        <v>11.441361894459943</v>
+      </c>
+      <c r="D4" s="101">
+        <v>8.4301048036189918</v>
+      </c>
+      <c r="E4" s="92"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="83"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+    </row>
+    <row r="5" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="76"/>
+      <c r="B5" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="58">
+        <v>0.13832389116506358</v>
+      </c>
+      <c r="D5" s="59">
+        <v>0.10680031468605274</v>
+      </c>
+      <c r="E5" s="53"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="84"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+    </row>
+    <row r="6" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="100">
+        <v>179.56874199999999</v>
+      </c>
+      <c r="D6" s="100">
+        <v>199.31400600000001</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="80">
+        <v>8.9459999999999998E-2</v>
+      </c>
+      <c r="G6" s="86">
+        <v>0.57804800000000001</v>
+      </c>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+    </row>
+    <row r="7" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="75"/>
+      <c r="B7" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="98">
+        <v>27.383532934959288</v>
+      </c>
+      <c r="D7" s="98">
+        <v>61.280775411216851</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="86"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+    </row>
+    <row r="8" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="76"/>
+      <c r="B8" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="97">
+        <v>0.15249610054604765</v>
+      </c>
+      <c r="D8" s="99">
+        <v>0.30745845031691776</v>
+      </c>
+      <c r="E8" s="22"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="86"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+    </row>
+    <row r="9" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="102">
+        <v>894.52434100000005</v>
+      </c>
+      <c r="D9" s="103">
+        <v>1134.6476379999999</v>
+      </c>
+      <c r="E9" s="25"/>
+      <c r="F9" s="79">
+        <v>0.43120000000000003</v>
+      </c>
+      <c r="G9" s="85">
+        <v>-0.11612699999999999</v>
+      </c>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+    </row>
+    <row r="10" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="75"/>
+      <c r="B10" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="96">
+        <v>194.57410212307289</v>
+      </c>
+      <c r="D10" s="98">
+        <v>118.38614924897253</v>
+      </c>
+      <c r="E10" s="95"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="86"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+    </row>
+    <row r="11" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="76"/>
+      <c r="B11" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="105">
+        <v>0.21751683347772968</v>
+      </c>
+      <c r="D11" s="59">
+        <v>0.10433736896297363</v>
+      </c>
+      <c r="E11" s="59"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="87"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+    </row>
+    <row r="12" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="100">
+        <v>3467.1428569999998</v>
+      </c>
+      <c r="D12" s="100">
+        <v>3087.3666669999998</v>
+      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="80">
+        <v>-0.133218</v>
+      </c>
+      <c r="G12" s="86">
+        <v>0.568824</v>
+      </c>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+    </row>
+    <row r="13" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="75"/>
+      <c r="B13" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="98">
+        <v>565.23193722311908</v>
+      </c>
+      <c r="D13" s="98">
+        <v>925.7283708880268</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="86"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+    </row>
+    <row r="14" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="76"/>
+      <c r="B14" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="97">
+        <v>0.16302528062319155</v>
+      </c>
+      <c r="D14" s="99">
+        <v>0.29984399999613875</v>
+      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="86"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+    </row>
+    <row r="15" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="102">
+        <v>18.065335999999999</v>
+      </c>
+      <c r="D15" s="103">
+        <v>15.246575999999999</v>
+      </c>
+      <c r="E15" s="25"/>
+      <c r="F15" s="79">
+        <v>-0.41107500000000002</v>
+      </c>
+      <c r="G15" s="85">
+        <v>9.9495E-2</v>
+      </c>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+    </row>
+    <row r="16" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="75"/>
+      <c r="B16" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="96">
+        <v>1.3801702793496171</v>
+      </c>
+      <c r="D16" s="98">
+        <v>1.4637469043519786</v>
+      </c>
+      <c r="E16" s="95"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="86"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+    </row>
+    <row r="17" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="76"/>
+      <c r="B17" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="58">
+        <v>7.6398815906309037E-2</v>
+      </c>
+      <c r="D17" s="59">
+        <v>9.6004959038145918E-2</v>
+      </c>
+      <c r="E17" s="24"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="87"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+    </row>
+    <row r="18" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="100">
+        <v>72.016434000000004</v>
+      </c>
+      <c r="D18" s="100">
+        <v>104.942342</v>
+      </c>
+      <c r="E18" s="22"/>
+      <c r="F18" s="80">
+        <v>0.46244600000000002</v>
+      </c>
+      <c r="G18" s="86">
+        <v>-0.16514999999999999</v>
+      </c>
+      <c r="I18" s="20"/>
+    </row>
+    <row r="19" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="75"/>
+      <c r="B19" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="98">
+        <v>16.396070016927837</v>
+      </c>
+      <c r="D19" s="98">
+        <v>15.849967192395068</v>
+      </c>
+      <c r="E19" s="22"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="86"/>
+      <c r="I19" s="22"/>
+    </row>
+    <row r="20" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="75"/>
+      <c r="B20" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="99">
+        <v>0.22767122872159756</v>
+      </c>
+      <c r="D20" s="97">
+        <v>0.15103500541654644</v>
+      </c>
+      <c r="E20" s="22"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="86"/>
+      <c r="I20" s="33"/>
+    </row>
+    <row r="21" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="102">
+        <v>866.97677399999998</v>
+      </c>
+      <c r="D21" s="103">
+        <v>1135.4552719999999</v>
+      </c>
+      <c r="E21" s="25"/>
+      <c r="F21" s="79">
+        <v>0.36050900000000002</v>
+      </c>
+      <c r="G21" s="85">
+        <v>0.224194</v>
+      </c>
+      <c r="I21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+    </row>
+    <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="75"/>
+      <c r="B22" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="96">
+        <v>144.07571352590969</v>
+      </c>
+      <c r="D22" s="98">
+        <v>188.32004760778921</v>
+      </c>
+      <c r="E22" s="95"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="86"/>
+      <c r="I22" s="22"/>
+    </row>
+    <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="76"/>
+      <c r="B23" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="58">
+        <v>0.16618174540153216</v>
+      </c>
+      <c r="D23" s="59">
+        <v>0.16585421922968466</v>
+      </c>
+      <c r="E23" s="24"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="87"/>
+      <c r="I23" s="33"/>
+    </row>
+    <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="100">
+        <v>408.65839299999999</v>
+      </c>
+      <c r="D24" s="100">
+        <v>480.64741099999998</v>
+      </c>
+      <c r="E24" s="22"/>
+      <c r="F24" s="80">
+        <v>0.43729000000000001</v>
+      </c>
+      <c r="G24" s="86">
+        <v>-1.1471E-2</v>
+      </c>
+      <c r="I24" s="20"/>
+    </row>
+    <row r="25" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="75"/>
+      <c r="B25" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="98">
+        <v>49.645335490859566</v>
+      </c>
+      <c r="D25" s="98">
+        <v>31.734436657990322</v>
+      </c>
+      <c r="E25" s="22"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="86"/>
+      <c r="I25" s="22"/>
+    </row>
+    <row r="26" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="75"/>
+      <c r="B26" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="97">
+        <v>0.12148370458369509</v>
+      </c>
+      <c r="D26" s="97">
+        <v>6.6024357838453687E-2</v>
+      </c>
+      <c r="E26" s="22"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="86"/>
+      <c r="I26" s="33"/>
+    </row>
+    <row r="27" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="102">
+        <v>70.741919999999993</v>
+      </c>
+      <c r="D27" s="103">
+        <v>94.089098000000007</v>
+      </c>
+      <c r="E27" s="25"/>
+      <c r="F27" s="79">
+        <v>0.259577</v>
+      </c>
+      <c r="G27" s="85">
+        <v>0.42089199999999999</v>
+      </c>
+      <c r="I27" s="20"/>
+    </row>
+    <row r="28" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="75"/>
+      <c r="B28" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="96">
+        <v>20.00782754323917</v>
+      </c>
+      <c r="D28" s="98">
+        <v>26.14754782001555</v>
+      </c>
+      <c r="E28" s="95"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="86"/>
+      <c r="I28" s="22"/>
+    </row>
+    <row r="29" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="76"/>
+      <c r="B29" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="105">
+        <v>0.2828284494291245</v>
+      </c>
+      <c r="D29" s="60">
+        <v>0.27790199264122556</v>
+      </c>
+      <c r="E29" s="24"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="87"/>
+      <c r="I29" s="33"/>
+    </row>
+    <row r="30" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="102">
+        <v>0.15510699999999999</v>
+      </c>
+      <c r="D30" s="103">
+        <v>0.153082</v>
+      </c>
+      <c r="E30" s="25"/>
+      <c r="F30" s="79">
+        <v>-7.2921E-2</v>
+      </c>
+      <c r="G30" s="85">
+        <v>0.178288</v>
+      </c>
+      <c r="I30" s="20"/>
+    </row>
+    <row r="31" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="68"/>
+      <c r="B31" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="96">
+        <v>1.8083141320025125E-2</v>
+      </c>
+      <c r="D31" s="98">
+        <v>8.8317608663278473E-3</v>
+      </c>
+      <c r="E31" s="95"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="86"/>
+      <c r="I31" s="22"/>
+    </row>
+    <row r="32" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="69"/>
+      <c r="B32" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="58">
+        <v>0.11658494664989411</v>
+      </c>
+      <c r="D32" s="59">
+        <v>5.7693006795886174E-2</v>
+      </c>
+      <c r="E32" s="24"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="87"/>
+      <c r="I32" s="22"/>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="G3:G5"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F32">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6:F32">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G32">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6:G32">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:D3">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:D6">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:D9">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:D12">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:D15">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:D18">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:D21">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:D24">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:D27">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30:D30">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -9617,26 +10897,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="66">
+      <c r="B1" s="66"/>
+      <c r="C1" s="78">
         <v>3</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
       <c r="F1" s="22"/>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="58"/>
+      <c r="H1" s="66"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="59"/>
+      <c r="B2" s="71"/>
       <c r="C2" s="26">
         <v>3</v>
       </c>
@@ -9655,7 +10935,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="75" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="27" t="s">
@@ -9671,15 +10951,15 @@
         <v>295.16666700000002</v>
       </c>
       <c r="F3" s="25"/>
-      <c r="G3" s="57">
+      <c r="G3" s="70">
         <v>-0.188448</v>
       </c>
-      <c r="H3" s="55">
+      <c r="H3" s="72">
         <v>0.54788800000000004</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="61"/>
+      <c r="A4" s="75"/>
       <c r="B4" s="21" t="s">
         <v>32</v>
       </c>
@@ -9693,11 +10973,11 @@
         <v>45.984417654244574</v>
       </c>
       <c r="F4" s="22"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="54"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="73"/>
     </row>
     <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="62"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="23" t="s">
         <v>35</v>
       </c>
@@ -9714,11 +10994,11 @@
         <v>0.15579136398299531</v>
       </c>
       <c r="F5" s="24"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="56"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="74"/>
     </row>
     <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="77" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="31" t="s">
@@ -9734,15 +11014,15 @@
         <v>1165.094081</v>
       </c>
       <c r="F6" s="22"/>
-      <c r="G6" s="58">
+      <c r="G6" s="66">
         <v>0.503328</v>
       </c>
-      <c r="H6" s="54">
+      <c r="H6" s="73">
         <v>-4.8842999999999998E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="61"/>
+      <c r="A7" s="75"/>
       <c r="B7" s="32" t="s">
         <v>17</v>
       </c>
@@ -9756,11 +11036,11 @@
         <v>120.80618517691882</v>
       </c>
       <c r="F7" s="22"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="54"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="73"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="62"/>
+      <c r="A8" s="76"/>
       <c r="B8" s="23" t="s">
         <v>34</v>
       </c>
@@ -9777,11 +11057,11 @@
         <v>0.10368792284416285</v>
       </c>
       <c r="F8" s="22"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="54"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="73"/>
     </row>
     <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="77" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="31" t="s">
@@ -9797,15 +11077,15 @@
         <v>1078.5</v>
       </c>
       <c r="F9" s="25"/>
-      <c r="G9" s="57">
+      <c r="G9" s="70">
         <v>-0.221611</v>
       </c>
-      <c r="H9" s="55">
+      <c r="H9" s="72">
         <v>0.53761899999999996</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="61"/>
+      <c r="A10" s="75"/>
       <c r="B10" s="32" t="s">
         <v>17</v>
       </c>
@@ -9819,11 +11099,11 @@
         <v>258.54109924729568</v>
       </c>
       <c r="F10" s="22"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="54"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="73"/>
     </row>
     <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="62"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="34" t="s">
         <v>34</v>
       </c>
@@ -9840,11 +11120,11 @@
         <v>0.23972285512034833</v>
       </c>
       <c r="F11" s="24"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="56"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="74"/>
     </row>
     <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="77" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="31" t="s">
@@ -9860,15 +11140,15 @@
         <v>13.026258</v>
       </c>
       <c r="F12" s="22"/>
-      <c r="G12" s="58">
+      <c r="G12" s="66">
         <v>-0.32667400000000002</v>
       </c>
-      <c r="H12" s="54">
+      <c r="H12" s="73">
         <v>-0.13261100000000001</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="61"/>
+      <c r="A13" s="75"/>
       <c r="B13" s="32" t="s">
         <v>17</v>
       </c>
@@ -9882,11 +11162,11 @@
         <v>1.1520512141393715</v>
       </c>
       <c r="F13" s="22"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="54"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="73"/>
     </row>
     <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="62"/>
+      <c r="A14" s="76"/>
       <c r="B14" s="34" t="s">
         <v>34</v>
       </c>
@@ -9903,11 +11183,11 @@
         <v>8.8440687581911204E-2</v>
       </c>
       <c r="F14" s="22"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="54"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="73"/>
     </row>
     <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="75" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -9923,15 +11203,15 @@
         <v>290.23841599999997</v>
       </c>
       <c r="F15" s="25"/>
-      <c r="G15" s="57">
+      <c r="G15" s="70">
         <v>0.51528499999999999</v>
       </c>
-      <c r="H15" s="55">
+      <c r="H15" s="72">
         <v>1.5509E-2</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="61"/>
+      <c r="A16" s="75"/>
       <c r="B16" s="32" t="s">
         <v>17</v>
       </c>
@@ -9945,11 +11225,11 @@
         <v>33.816063239235881</v>
       </c>
       <c r="F16" s="22"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="54"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="73"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="61"/>
+      <c r="A17" s="75"/>
       <c r="B17" s="32" t="s">
         <v>34</v>
       </c>
@@ -9966,11 +11246,11 @@
         <v>0.11651132784309257</v>
       </c>
       <c r="F17" s="24"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="56"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="74"/>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="77" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="31" t="s">
@@ -9986,15 +11266,15 @@
         <v>1328.2708680000001</v>
       </c>
       <c r="F18" s="22"/>
-      <c r="G18" s="58">
+      <c r="G18" s="66">
         <v>0.212811</v>
       </c>
-      <c r="H18" s="54">
+      <c r="H18" s="73">
         <v>0.184026</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="61"/>
+      <c r="A19" s="75"/>
       <c r="B19" s="32" t="s">
         <v>17</v>
       </c>
@@ -10008,11 +11288,11 @@
         <v>185.2619838175118</v>
       </c>
       <c r="F19" s="22"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="54"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="73"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="62"/>
+      <c r="A20" s="76"/>
       <c r="B20" s="34" t="s">
         <v>34</v>
       </c>
@@ -10029,11 +11309,11 @@
         <v>0.13947605739216723</v>
       </c>
       <c r="F20" s="22"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="54"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="73"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="75" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="27" t="s">
@@ -10049,15 +11329,15 @@
         <v>436.16804999999999</v>
       </c>
       <c r="F21" s="25"/>
-      <c r="G21" s="57">
+      <c r="G21" s="70">
         <v>0.42631999999999998</v>
       </c>
-      <c r="H21" s="55">
+      <c r="H21" s="72">
         <v>3.6583999999999998E-2</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="61"/>
+      <c r="A22" s="75"/>
       <c r="B22" s="32" t="s">
         <v>17</v>
       </c>
@@ -10071,11 +11351,11 @@
         <v>26.527001828325794</v>
       </c>
       <c r="F22" s="22"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="54"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="73"/>
     </row>
     <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="61"/>
+      <c r="A23" s="75"/>
       <c r="B23" s="32" t="s">
         <v>34</v>
       </c>
@@ -10092,11 +11372,11 @@
         <v>6.0818305761565515E-2</v>
       </c>
       <c r="F23" s="24"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="56"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="74"/>
     </row>
     <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="60" t="s">
+      <c r="A24" s="77" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="31" t="s">
@@ -10112,15 +11392,15 @@
         <v>149.374664</v>
       </c>
       <c r="F24" s="22"/>
-      <c r="G24" s="58">
+      <c r="G24" s="66">
         <v>0.17419599999999999</v>
       </c>
-      <c r="H24" s="54">
+      <c r="H24" s="73">
         <v>0.53308299999999997</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="61"/>
+      <c r="A25" s="75"/>
       <c r="B25" s="32" t="s">
         <v>17</v>
       </c>
@@ -10134,11 +11414,11 @@
         <v>25.510562851493496</v>
       </c>
       <c r="F25" s="22"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="54"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="73"/>
     </row>
     <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="62"/>
+      <c r="A26" s="76"/>
       <c r="B26" s="34" t="s">
         <v>34</v>
       </c>
@@ -10155,11 +11435,11 @@
         <v>0.17078239487449826</v>
       </c>
       <c r="F26" s="22"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="54"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="73"/>
     </row>
     <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="63" t="s">
+      <c r="A27" s="67" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="31" t="s">
@@ -10175,15 +11455,15 @@
         <v>0.95097100000000001</v>
       </c>
       <c r="F27" s="25"/>
-      <c r="G27" s="57">
+      <c r="G27" s="70">
         <v>-0.18006</v>
       </c>
-      <c r="H27" s="55">
+      <c r="H27" s="72">
         <v>-0.26681700000000003</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="64"/>
+      <c r="A28" s="68"/>
       <c r="B28" s="32" t="s">
         <v>17</v>
       </c>
@@ -10197,11 +11477,11 @@
         <v>1.0488088481701515E-2</v>
       </c>
       <c r="F28" s="22"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="54"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="73"/>
     </row>
     <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="65"/>
+      <c r="A29" s="69"/>
       <c r="B29" s="34" t="s">
         <v>34</v>
       </c>
@@ -10218,14 +11498,14 @@
         <v>1.1028820523130058E-2</v>
       </c>
       <c r="F29" s="24"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="56"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="74"/>
     </row>
     <row r="30" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="59" t="s">
+      <c r="A30" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="59"/>
+      <c r="B30" s="71"/>
       <c r="C30" s="36">
         <v>0.54</v>
       </c>
@@ -10289,6 +11569,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="A21:A23"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="G27:G29"/>
@@ -10305,22 +11601,6 @@
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="H9:H11"/>
     <mergeCell ref="G18:G20"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G12:G14"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C3:E3">
@@ -10553,26 +11833,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="66">
+      <c r="B1" s="66"/>
+      <c r="C1" s="78">
         <v>3</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
       <c r="F1" s="22"/>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="58"/>
+      <c r="H1" s="66"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="59"/>
+      <c r="B2" s="71"/>
       <c r="C2" s="26">
         <v>3</v>
       </c>
@@ -10591,7 +11871,7 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="75" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="32" t="s">
@@ -10607,10 +11887,10 @@
         <v>170.75</v>
       </c>
       <c r="F3" s="25"/>
-      <c r="G3" s="57">
+      <c r="G3" s="70">
         <v>0.19814899999999999</v>
       </c>
-      <c r="H3" s="55">
+      <c r="H3" s="72">
         <v>0.554253</v>
       </c>
       <c r="J3" s="20"/>
@@ -10624,7 +11904,7 @@
       <c r="R3" s="20"/>
     </row>
     <row r="4" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="61"/>
+      <c r="A4" s="75"/>
       <c r="B4" s="32" t="s">
         <v>17</v>
       </c>
@@ -10638,8 +11918,8 @@
         <v>18.304956405301816</v>
       </c>
       <c r="F4" s="22"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="54"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="73"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
@@ -10651,7 +11931,7 @@
       <c r="R4" s="20"/>
     </row>
     <row r="5" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="62"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="34" t="s">
         <v>37</v>
       </c>
@@ -10668,11 +11948,11 @@
         <v>0.1072032585962039</v>
       </c>
       <c r="F5" s="24"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="56"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="74"/>
     </row>
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="77" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="38" t="s">
@@ -10688,15 +11968,15 @@
         <v>1066.667138</v>
       </c>
       <c r="F6" s="22"/>
-      <c r="G6" s="58">
+      <c r="G6" s="66">
         <v>0.38675100000000001</v>
       </c>
-      <c r="H6" s="54">
+      <c r="H6" s="73">
         <v>-0.30294199999999999</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="61"/>
+      <c r="A7" s="75"/>
       <c r="B7" s="32" t="s">
         <v>17</v>
       </c>
@@ -10710,11 +11990,11 @@
         <v>154.17636012048021</v>
       </c>
       <c r="F7" s="22"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="54"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="73"/>
     </row>
     <row r="8" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="62"/>
+      <c r="A8" s="76"/>
       <c r="B8" s="34" t="s">
         <v>34</v>
       </c>
@@ -10731,11 +12011,11 @@
         <v>0.14454027374421674</v>
       </c>
       <c r="F8" s="22"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="54"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="73"/>
     </row>
     <row r="9" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="77" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="38" t="s">
@@ -10751,15 +12031,15 @@
         <v>613.25</v>
       </c>
       <c r="F9" s="25"/>
-      <c r="G9" s="57">
+      <c r="G9" s="70">
         <v>0.173847</v>
       </c>
-      <c r="H9" s="55">
+      <c r="H9" s="72">
         <v>0.57918999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="61"/>
+      <c r="A10" s="75"/>
       <c r="B10" s="32" t="s">
         <v>17</v>
       </c>
@@ -10773,11 +12053,11 @@
         <v>50.024993753123049</v>
       </c>
       <c r="F10" s="22"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="54"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="73"/>
     </row>
     <row r="11" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="62"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="34" t="s">
         <v>34</v>
       </c>
@@ -10794,11 +12074,11 @@
         <v>8.1573573180795833E-2</v>
       </c>
       <c r="F11" s="24"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="56"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="74"/>
     </row>
     <row r="12" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="77" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="38" t="s">
@@ -10814,15 +12094,15 @@
         <v>12.416684999999999</v>
       </c>
       <c r="F12" s="22"/>
-      <c r="G12" s="58">
+      <c r="G12" s="66">
         <v>-0.25663200000000003</v>
       </c>
-      <c r="H12" s="54">
+      <c r="H12" s="73">
         <v>0.23480300000000001</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="61"/>
+      <c r="A13" s="75"/>
       <c r="B13" s="32" t="s">
         <v>17</v>
       </c>
@@ -10836,11 +12116,11 @@
         <v>0.62217280557735732</v>
       </c>
       <c r="F13" s="22"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="54"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="73"/>
     </row>
     <row r="14" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="62"/>
+      <c r="A14" s="76"/>
       <c r="B14" s="34" t="s">
         <v>34</v>
       </c>
@@ -10857,11 +12137,11 @@
         <v>5.0107802974574726E-2</v>
       </c>
       <c r="F14" s="22"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="54"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="73"/>
     </row>
     <row r="15" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="75" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="32" t="s">
@@ -10877,15 +12157,15 @@
         <v>271.35037599999998</v>
       </c>
       <c r="F15" s="25"/>
-      <c r="G15" s="57">
+      <c r="G15" s="70">
         <v>0.423954</v>
       </c>
-      <c r="H15" s="55">
+      <c r="H15" s="72">
         <v>-0.33226099999999997</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="61"/>
+      <c r="A16" s="75"/>
       <c r="B16" s="32" t="s">
         <v>36</v>
       </c>
@@ -10899,11 +12179,11 @@
         <v>53.314599041913468</v>
       </c>
       <c r="F16" s="22"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="54"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="73"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="61"/>
+      <c r="A17" s="75"/>
       <c r="B17" s="32" t="s">
         <v>34</v>
       </c>
@@ -10920,11 +12200,11 @@
         <v>0.19647881026674335</v>
       </c>
       <c r="F17" s="24"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="56"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="74"/>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="77" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="38" t="s">
@@ -10940,15 +12220,15 @@
         <v>1183.321686</v>
       </c>
       <c r="F18" s="22"/>
-      <c r="G18" s="58">
+      <c r="G18" s="66">
         <v>0.415715</v>
       </c>
-      <c r="H18" s="54">
+      <c r="H18" s="73">
         <v>-1.6017E-2</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="61"/>
+      <c r="A19" s="75"/>
       <c r="B19" s="32" t="s">
         <v>17</v>
       </c>
@@ -10962,11 +12242,11 @@
         <v>153.79639008117195</v>
       </c>
       <c r="F19" s="22"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="54"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="73"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="62"/>
+      <c r="A20" s="76"/>
       <c r="B20" s="34" t="s">
         <v>34</v>
       </c>
@@ -10983,11 +12263,11 @@
         <v>0.12997005962178568</v>
       </c>
       <c r="F20" s="22"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="54"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="73"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="75" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="32" t="s">
@@ -11003,15 +12283,15 @@
         <v>505.92089199999998</v>
       </c>
       <c r="F21" s="25"/>
-      <c r="G21" s="57">
+      <c r="G21" s="70">
         <v>0.425207</v>
       </c>
-      <c r="H21" s="55">
+      <c r="H21" s="72">
         <v>-3.3320000000000002E-2</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="61"/>
+      <c r="A22" s="75"/>
       <c r="B22" s="32" t="s">
         <v>17</v>
       </c>
@@ -11025,11 +12305,11 @@
         <v>32.017303868377176</v>
       </c>
       <c r="F22" s="22"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="54"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="73"/>
     </row>
     <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="61"/>
+      <c r="A23" s="75"/>
       <c r="B23" s="32" t="s">
         <v>34</v>
       </c>
@@ -11046,11 +12326,11 @@
         <v>6.3285198090568623E-2</v>
       </c>
       <c r="F23" s="24"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="56"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="74"/>
     </row>
     <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="60" t="s">
+      <c r="A24" s="77" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="38" t="s">
@@ -11066,15 +12346,15 @@
         <v>86.171711999999999</v>
       </c>
       <c r="F24" s="22"/>
-      <c r="G24" s="58">
+      <c r="G24" s="66">
         <v>0.424012</v>
       </c>
-      <c r="H24" s="54">
+      <c r="H24" s="73">
         <v>0.291018</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="61"/>
+      <c r="A25" s="75"/>
       <c r="B25" s="32" t="s">
         <v>17</v>
       </c>
@@ -11088,11 +12368,11 @@
         <v>8.076926890841591</v>
       </c>
       <c r="F25" s="22"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="54"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="73"/>
     </row>
     <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="62"/>
+      <c r="A26" s="76"/>
       <c r="B26" s="34" t="s">
         <v>34</v>
       </c>
@@ -11109,11 +12389,11 @@
         <v>9.3730607218777212E-2</v>
       </c>
       <c r="F26" s="22"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="54"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="73"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A27" s="63" t="s">
+      <c r="A27" s="67" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="38" t="s">
@@ -11129,15 +12409,15 @@
         <v>0.96520300000000003</v>
       </c>
       <c r="F27" s="25"/>
-      <c r="G27" s="57">
+      <c r="G27" s="70">
         <v>-4.3986999999999998E-2</v>
       </c>
-      <c r="H27" s="55">
+      <c r="H27" s="72">
         <v>-0.118243</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A28" s="64"/>
+      <c r="A28" s="68"/>
       <c r="B28" s="32" t="s">
         <v>17</v>
       </c>
@@ -11151,11 +12431,11 @@
         <v>1.5132745950421557E-2</v>
       </c>
       <c r="F28" s="22"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="54"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="73"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A29" s="65"/>
+      <c r="A29" s="69"/>
       <c r="B29" s="34" t="s">
         <v>34</v>
       </c>
@@ -11172,14 +12452,14 @@
         <v>1.5678303890913681E-2</v>
       </c>
       <c r="F29" s="24"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="56"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="74"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A30" s="59" t="s">
+      <c r="A30" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="59"/>
+      <c r="B30" s="71"/>
       <c r="C30" s="36">
         <v>0.91</v>
       </c>
@@ -11249,6 +12529,31 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="H27:H29"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="G21:G23"/>
@@ -11256,31 +12561,6 @@
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="G24:G26"/>
     <mergeCell ref="H24:H26"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="H3:H5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C3:E3">
@@ -11513,27 +12793,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="66">
+      <c r="B1" s="66"/>
+      <c r="C1" s="78">
         <v>4</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
       <c r="G1" s="22"/>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="58"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="59"/>
+      <c r="B2" s="71"/>
       <c r="C2" s="26">
         <v>1</v>
       </c>
@@ -11555,7 +12835,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="75" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="27" t="s">
@@ -11574,10 +12854,10 @@
         <v>249.60714300000001</v>
       </c>
       <c r="G3" s="25"/>
-      <c r="H3" s="57">
+      <c r="H3" s="70">
         <v>-0.33963700000000002</v>
       </c>
-      <c r="I3" s="55">
+      <c r="I3" s="72">
         <v>0.42593500000000001</v>
       </c>
       <c r="K3" s="20"/>
@@ -11591,7 +12871,7 @@
       <c r="S3" s="20"/>
     </row>
     <row r="4" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="61"/>
+      <c r="A4" s="75"/>
       <c r="B4" s="32" t="s">
         <v>17</v>
       </c>
@@ -11608,8 +12888,8 @@
         <v>52.134507459071671</v>
       </c>
       <c r="G4" s="22"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="54"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="73"/>
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
       <c r="M4" s="20"/>
@@ -11621,7 +12901,7 @@
       <c r="S4" s="20"/>
     </row>
     <row r="5" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="62"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="23" t="s">
         <v>37</v>
       </c>
@@ -11642,11 +12922,11 @@
         <v>0.20886624810681667</v>
       </c>
       <c r="G5" s="24"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="56"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="74"/>
     </row>
     <row r="6" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="77" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="31" t="s">
@@ -11665,15 +12945,15 @@
         <v>995.71113300000002</v>
       </c>
       <c r="G6" s="22"/>
-      <c r="H6" s="58">
+      <c r="H6" s="66">
         <v>0.461256</v>
       </c>
-      <c r="I6" s="54">
+      <c r="I6" s="73">
         <v>0.161083</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="61"/>
+      <c r="A7" s="75"/>
       <c r="B7" s="32" t="s">
         <v>17</v>
       </c>
@@ -11690,11 +12970,11 @@
         <v>87.651158520580893</v>
       </c>
       <c r="G7" s="22"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="54"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="73"/>
     </row>
     <row r="8" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="62"/>
+      <c r="A8" s="76"/>
       <c r="B8" s="23" t="s">
         <v>34</v>
       </c>
@@ -11715,11 +12995,11 @@
         <v>8.802870191527816E-2</v>
       </c>
       <c r="G8" s="22"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="54"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="73"/>
     </row>
     <row r="9" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="77" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="31" t="s">
@@ -11738,15 +13018,15 @@
         <v>898.82142899999997</v>
       </c>
       <c r="G9" s="25"/>
-      <c r="H9" s="57">
+      <c r="H9" s="70">
         <v>-0.36423</v>
       </c>
-      <c r="I9" s="55">
+      <c r="I9" s="72">
         <v>0.41688399999999998</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="61"/>
+      <c r="A10" s="75"/>
       <c r="B10" s="32" t="s">
         <v>17</v>
       </c>
@@ -11763,11 +13043,11 @@
         <v>167.08721894866764</v>
       </c>
       <c r="G10" s="22"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="54"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="73"/>
     </row>
     <row r="11" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="62"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="34" t="s">
         <v>34</v>
       </c>
@@ -11788,11 +13068,11 @@
         <v>0.18589590051781871</v>
       </c>
       <c r="G11" s="24"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="56"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="74"/>
     </row>
     <row r="12" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="77" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="31" t="s">
@@ -11811,15 +13091,15 @@
         <v>13.235013</v>
       </c>
       <c r="G12" s="22"/>
-      <c r="H12" s="58">
+      <c r="H12" s="66">
         <v>-0.28797299999999998</v>
       </c>
-      <c r="I12" s="54">
+      <c r="I12" s="73">
         <v>-0.17630399999999999</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="61"/>
+      <c r="A13" s="75"/>
       <c r="B13" s="32" t="s">
         <v>17</v>
       </c>
@@ -11836,11 +13116,11 @@
         <v>0.87222990088622854</v>
       </c>
       <c r="G13" s="22"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="54"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="73"/>
     </row>
     <row r="14" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="62"/>
+      <c r="A14" s="76"/>
       <c r="B14" s="34" t="s">
         <v>34</v>
       </c>
@@ -11861,11 +13141,11 @@
         <v>6.5903214517902514E-2</v>
       </c>
       <c r="G14" s="22"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="54"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="73"/>
     </row>
     <row r="15" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="75" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -11884,15 +13164,15 @@
         <v>246.625033</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="57">
+      <c r="H15" s="70">
         <v>0.47454000000000002</v>
       </c>
-      <c r="I15" s="55">
+      <c r="I15" s="72">
         <v>0.22032199999999999</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="61"/>
+      <c r="A16" s="75"/>
       <c r="B16" s="32" t="s">
         <v>17</v>
       </c>
@@ -11909,11 +13189,11 @@
         <v>23.474492028582855</v>
       </c>
       <c r="G16" s="22"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="54"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="73"/>
     </row>
     <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="61"/>
+      <c r="A17" s="75"/>
       <c r="B17" s="32" t="s">
         <v>34</v>
       </c>
@@ -11934,11 +13214,11 @@
         <v>9.5182925038201027E-2</v>
       </c>
       <c r="G17" s="24"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="56"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="74"/>
     </row>
     <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="77" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="31" t="s">
@@ -11957,15 +13237,15 @@
         <v>1181.0454540000001</v>
       </c>
       <c r="G18" s="22"/>
-      <c r="H18" s="58">
+      <c r="H18" s="66">
         <v>0.21635299999999999</v>
       </c>
-      <c r="I18" s="54">
+      <c r="I18" s="73">
         <v>0.36393399999999998</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="61"/>
+      <c r="A19" s="75"/>
       <c r="B19" s="32" t="s">
         <v>17</v>
       </c>
@@ -11982,11 +13262,11 @@
         <v>193.69239562512513</v>
       </c>
       <c r="G19" s="22"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="54"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="73"/>
     </row>
     <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="62"/>
+      <c r="A20" s="76"/>
       <c r="B20" s="34" t="s">
         <v>34</v>
       </c>
@@ -12007,11 +13287,11 @@
         <v>0.16400079689492214</v>
       </c>
       <c r="G20" s="22"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="54"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="73"/>
     </row>
     <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="75" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="27" t="s">
@@ -12030,15 +13310,15 @@
         <v>458.95075700000001</v>
       </c>
       <c r="G21" s="25"/>
-      <c r="H21" s="57">
+      <c r="H21" s="70">
         <v>0.400617</v>
       </c>
-      <c r="I21" s="55">
+      <c r="I21" s="72">
         <v>0.17532900000000001</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="61"/>
+      <c r="A22" s="75"/>
       <c r="B22" s="32" t="s">
         <v>17</v>
       </c>
@@ -12055,11 +13335,11 @@
         <v>25.801318861639611</v>
       </c>
       <c r="G22" s="22"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="54"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="73"/>
     </row>
     <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="61"/>
+      <c r="A23" s="75"/>
       <c r="B23" s="32" t="s">
         <v>34</v>
       </c>
@@ -12080,11 +13360,11 @@
         <v>5.6218054917903992E-2</v>
       </c>
       <c r="G23" s="24"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="56"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="74"/>
     </row>
     <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="60" t="s">
+      <c r="A24" s="77" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="31" t="s">
@@ -12103,15 +13383,15 @@
         <v>108.020082</v>
       </c>
       <c r="G24" s="22"/>
-      <c r="H24" s="58">
+      <c r="H24" s="66">
         <v>-8.9659000000000003E-2</v>
       </c>
-      <c r="I24" s="54">
+      <c r="I24" s="73">
         <v>0.55726699999999996</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="61"/>
+      <c r="A25" s="75"/>
       <c r="B25" s="32" t="s">
         <v>17</v>
       </c>
@@ -12128,11 +13408,11 @@
         <v>18.219313516156419</v>
       </c>
       <c r="G25" s="22"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="54"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="73"/>
     </row>
     <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="62"/>
+      <c r="A26" s="76"/>
       <c r="B26" s="34" t="s">
         <v>34</v>
       </c>
@@ -12153,11 +13433,11 @@
         <v>0.16866598486896556</v>
       </c>
       <c r="G26" s="22"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="54"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="73"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" s="63" t="s">
+      <c r="A27" s="67" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="31" t="s">
@@ -12176,15 +13456,15 @@
         <v>0.96243100000000004</v>
       </c>
       <c r="G27" s="25"/>
-      <c r="H27" s="57">
+      <c r="H27" s="70">
         <v>0.12556899999999999</v>
       </c>
-      <c r="I27" s="55">
+      <c r="I27" s="72">
         <v>-0.25589000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" s="64"/>
+      <c r="A28" s="68"/>
       <c r="B28" s="32" t="s">
         <v>17</v>
       </c>
@@ -12201,11 +13481,11 @@
         <v>1.0295630140987E-2</v>
       </c>
       <c r="G28" s="22"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="54"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="73"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" s="65"/>
+      <c r="A29" s="69"/>
       <c r="B29" s="34" t="s">
         <v>34</v>
       </c>
@@ -12226,14 +13506,14 @@
         <v>1.0697525475579029E-2</v>
       </c>
       <c r="G29" s="24"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="56"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="74"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30" s="59" t="s">
+      <c r="A30" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="59"/>
+      <c r="B30" s="71"/>
       <c r="C30" s="36">
         <v>0.86</v>
       </c>
@@ -12311,6 +13591,31 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:I29"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="H21:H23"/>
@@ -12318,31 +13623,6 @@
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="H24:H26"/>
     <mergeCell ref="I24:I26"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="I3:I5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C3:F3">
@@ -12603,28 +13883,28 @@
       <c r="G1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5" t="s">
         <v>10</v>
@@ -12647,18 +13927,18 @@
       <c r="AI1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="AJ1" s="53" t="s">
+      <c r="AJ1" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="53"/>
-      <c r="AN1" s="53"/>
-      <c r="AO1" s="53"/>
-      <c r="AP1" s="53"/>
-      <c r="AQ1" s="53"/>
-      <c r="AR1" s="53"/>
-      <c r="AS1" s="53"/>
+      <c r="AK1" s="65"/>
+      <c r="AL1" s="65"/>
+      <c r="AM1" s="65"/>
+      <c r="AN1" s="65"/>
+      <c r="AO1" s="65"/>
+      <c r="AP1" s="65"/>
+      <c r="AQ1" s="65"/>
+      <c r="AR1" s="65"/>
+      <c r="AS1" s="65"/>
       <c r="AU1" s="5" t="s">
         <v>10</v>
       </c>
@@ -17023,7 +18303,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:B1"/>
+      <selection pane="topRight" sqref="A1:I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -17037,27 +18317,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="66">
+      <c r="B1" s="66"/>
+      <c r="C1" s="78">
         <v>4</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
       <c r="G1" s="22"/>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="58"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="59"/>
+      <c r="B2" s="71"/>
       <c r="C2" s="26">
         <v>1</v>
       </c>
@@ -17079,7 +18359,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="75" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="27" t="s">
@@ -17098,10 +18378,10 @@
         <v>241.883015</v>
       </c>
       <c r="G3" s="25"/>
-      <c r="H3" s="57">
+      <c r="H3" s="70">
         <v>0.158581</v>
       </c>
-      <c r="I3" s="55">
+      <c r="I3" s="72">
         <v>0.58016400000000001</v>
       </c>
       <c r="K3" s="20"/>
@@ -17109,7 +18389,7 @@
       <c r="N3" s="20"/>
     </row>
     <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="61"/>
+      <c r="A4" s="75"/>
       <c r="B4" s="21" t="s">
         <v>32</v>
       </c>
@@ -17126,14 +18406,14 @@
         <v>52.414369022244273</v>
       </c>
       <c r="G4" s="22"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="54"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="73"/>
       <c r="K4" s="22"/>
       <c r="L4" s="20"/>
       <c r="N4" s="20"/>
     </row>
     <row r="5" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="62"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="23" t="s">
         <v>35</v>
       </c>
@@ -17154,14 +18434,14 @@
         <v>0.21669305313663415</v>
       </c>
       <c r="G5" s="24"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="56"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="74"/>
       <c r="K5" s="33"/>
       <c r="L5" s="20"/>
       <c r="N5" s="20"/>
     </row>
     <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="77" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="31" t="s">
@@ -17180,10 +18460,10 @@
         <v>891.89177099999995</v>
       </c>
       <c r="G6" s="22"/>
-      <c r="H6" s="58">
+      <c r="H6" s="66">
         <v>0.43204500000000001</v>
       </c>
-      <c r="I6" s="54">
+      <c r="I6" s="73">
         <v>-0.113953</v>
       </c>
       <c r="K6" s="20"/>
@@ -17191,7 +18471,7 @@
       <c r="N6" s="20"/>
     </row>
     <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="61"/>
+      <c r="A7" s="75"/>
       <c r="B7" s="32" t="s">
         <v>17</v>
       </c>
@@ -17208,12 +18488,12 @@
         <v>43.40069792065561</v>
       </c>
       <c r="G7" s="22"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="54"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="73"/>
       <c r="K7" s="22"/>
     </row>
     <row r="8" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="62"/>
+      <c r="A8" s="76"/>
       <c r="B8" s="23" t="s">
         <v>34</v>
       </c>
@@ -17234,12 +18514,12 @@
         <v>4.8661395173535703E-2</v>
       </c>
       <c r="G8" s="22"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="54"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="73"/>
       <c r="K8" s="33"/>
     </row>
     <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="77" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="31" t="s">
@@ -17258,17 +18538,17 @@
         <v>4328.2222220000003</v>
       </c>
       <c r="G9" s="25"/>
-      <c r="H9" s="57">
+      <c r="H9" s="70">
         <v>-4.8184999999999999E-2</v>
       </c>
-      <c r="I9" s="55">
+      <c r="I9" s="72">
         <v>0.60652600000000001</v>
       </c>
       <c r="K9" s="20"/>
       <c r="L9" s="40"/>
     </row>
     <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="61"/>
+      <c r="A10" s="75"/>
       <c r="B10" s="32" t="s">
         <v>17</v>
       </c>
@@ -17285,13 +18565,13 @@
         <v>741.6098704844751</v>
       </c>
       <c r="G10" s="22"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="54"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="73"/>
       <c r="K10" s="22"/>
       <c r="L10" s="40"/>
     </row>
     <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="62"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="34" t="s">
         <v>34</v>
       </c>
@@ -17312,13 +18592,13 @@
         <v>0.17134283602975203</v>
       </c>
       <c r="G11" s="24"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="56"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="74"/>
       <c r="K11" s="46"/>
       <c r="L11" s="40"/>
     </row>
     <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="77" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="31" t="s">
@@ -17337,17 +18617,17 @@
         <v>17.504460999999999</v>
       </c>
       <c r="G12" s="22"/>
-      <c r="H12" s="58">
+      <c r="H12" s="66">
         <v>-0.41503400000000001</v>
       </c>
-      <c r="I12" s="54">
+      <c r="I12" s="73">
         <v>9.3484999999999999E-2</v>
       </c>
       <c r="K12" s="20"/>
       <c r="L12" s="40"/>
     </row>
     <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="61"/>
+      <c r="A13" s="75"/>
       <c r="B13" s="32" t="s">
         <v>17</v>
       </c>
@@ -17364,8 +18644,8 @@
         <v>1.0581134154711394</v>
       </c>
       <c r="G13" s="22"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="54"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="73"/>
       <c r="K13" s="22"/>
       <c r="N13" s="20"/>
       <c r="O13" s="20"/>
@@ -17373,7 +18653,7 @@
       <c r="Q13" s="20"/>
     </row>
     <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="62"/>
+      <c r="A14" s="76"/>
       <c r="B14" s="34" t="s">
         <v>34</v>
       </c>
@@ -17394,8 +18674,8 @@
         <v>6.0448214627753426E-2</v>
       </c>
       <c r="G14" s="22"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="54"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="73"/>
       <c r="K14" s="33"/>
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
@@ -17403,7 +18683,7 @@
       <c r="Q14" s="20"/>
     </row>
     <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="75" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -17422,10 +18702,10 @@
         <v>71.379191000000006</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="57">
+      <c r="H15" s="70">
         <v>0.45529199999999997</v>
       </c>
-      <c r="I15" s="55">
+      <c r="I15" s="72">
         <v>-0.106876</v>
       </c>
       <c r="K15" s="20"/>
@@ -17435,7 +18715,7 @@
       <c r="Q15" s="20"/>
     </row>
     <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="61"/>
+      <c r="A16" s="75"/>
       <c r="B16" s="32" t="s">
         <v>17</v>
       </c>
@@ -17452,8 +18732,8 @@
         <v>6.1831602761047684</v>
       </c>
       <c r="G16" s="22"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="54"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="73"/>
       <c r="K16" s="22"/>
       <c r="N16" s="20"/>
       <c r="O16" s="20"/>
@@ -17461,7 +18741,7 @@
       <c r="Q16" s="20"/>
     </row>
     <row r="17" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="61"/>
+      <c r="A17" s="75"/>
       <c r="B17" s="32" t="s">
         <v>34</v>
       </c>
@@ -17482,8 +18762,8 @@
         <v>8.6624129378333359E-2</v>
       </c>
       <c r="G17" s="24"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="56"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="74"/>
       <c r="K17" s="33"/>
       <c r="N17" s="20"/>
       <c r="O17" s="20"/>
@@ -17491,7 +18771,7 @@
       <c r="Q17" s="20"/>
     </row>
     <row r="18" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="77" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="31" t="s">
@@ -17510,10 +18790,10 @@
         <v>1073.4092599999999</v>
       </c>
       <c r="G18" s="22"/>
-      <c r="H18" s="58">
+      <c r="H18" s="66">
         <v>0.32833499999999999</v>
       </c>
-      <c r="I18" s="54">
+      <c r="I18" s="73">
         <v>0.116808</v>
       </c>
       <c r="K18" s="20"/>
@@ -17523,7 +18803,7 @@
       <c r="Q18" s="20"/>
     </row>
     <row r="19" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="61"/>
+      <c r="A19" s="75"/>
       <c r="B19" s="32" t="s">
         <v>17</v>
       </c>
@@ -17540,12 +18820,12 @@
         <v>187.94482006429439</v>
       </c>
       <c r="G19" s="22"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="54"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="73"/>
       <c r="K19" s="22"/>
     </row>
     <row r="20" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="62"/>
+      <c r="A20" s="76"/>
       <c r="B20" s="34" t="s">
         <v>34</v>
       </c>
@@ -17566,12 +18846,12 @@
         <v>0.17509148380580805</v>
       </c>
       <c r="G20" s="22"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="54"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="73"/>
       <c r="K20" s="33"/>
     </row>
     <row r="21" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="75" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="27" t="s">
@@ -17590,16 +18870,16 @@
         <v>421.49141400000002</v>
       </c>
       <c r="G21" s="25"/>
-      <c r="H21" s="57">
+      <c r="H21" s="70">
         <v>0.37108400000000002</v>
       </c>
-      <c r="I21" s="55">
+      <c r="I21" s="72">
         <v>-0.129883</v>
       </c>
       <c r="K21" s="20"/>
     </row>
     <row r="22" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="61"/>
+      <c r="A22" s="75"/>
       <c r="B22" s="32" t="s">
         <v>17</v>
       </c>
@@ -17616,12 +18896,12 @@
         <v>24.640221386992447</v>
       </c>
       <c r="G22" s="22"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="54"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="73"/>
       <c r="K22" s="22"/>
     </row>
     <row r="23" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="61"/>
+      <c r="A23" s="75"/>
       <c r="B23" s="32" t="s">
         <v>34</v>
       </c>
@@ -17642,12 +18922,12 @@
         <v>5.8459604557905526E-2</v>
       </c>
       <c r="G23" s="24"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="56"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="74"/>
       <c r="K23" s="33"/>
     </row>
     <row r="24" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="60" t="s">
+      <c r="A24" s="77" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="31" t="s">
@@ -17666,16 +18946,16 @@
         <v>98.513227000000001</v>
       </c>
       <c r="G24" s="22"/>
-      <c r="H24" s="58">
+      <c r="H24" s="66">
         <v>0.37252299999999999</v>
       </c>
-      <c r="I24" s="54">
+      <c r="I24" s="73">
         <v>0.35465999999999998</v>
       </c>
       <c r="K24" s="20"/>
     </row>
     <row r="25" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="61"/>
+      <c r="A25" s="75"/>
       <c r="B25" s="32" t="s">
         <v>17</v>
       </c>
@@ -17692,12 +18972,12 @@
         <v>18.665223009650862</v>
       </c>
       <c r="G25" s="22"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="54"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="73"/>
       <c r="K25" s="22"/>
     </row>
     <row r="26" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="62"/>
+      <c r="A26" s="76"/>
       <c r="B26" s="34" t="s">
         <v>34</v>
       </c>
@@ -17718,12 +18998,12 @@
         <v>0.18946920711115131</v>
       </c>
       <c r="G26" s="22"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="54"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="73"/>
       <c r="K26" s="33"/>
     </row>
     <row r="27" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="63" t="s">
+      <c r="A27" s="67" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="31" t="s">
@@ -17742,16 +19022,16 @@
         <v>0.155247</v>
       </c>
       <c r="G27" s="25"/>
-      <c r="H27" s="57">
+      <c r="H27" s="70">
         <v>-0.14846799999999999</v>
       </c>
-      <c r="I27" s="55">
+      <c r="I27" s="72">
         <v>0.32571699999999998</v>
       </c>
       <c r="K27" s="20"/>
     </row>
     <row r="28" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="64"/>
+      <c r="A28" s="68"/>
       <c r="B28" s="32" t="s">
         <v>17</v>
       </c>
@@ -17768,12 +19048,12 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="G28" s="22"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="54"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="73"/>
       <c r="K28" s="22"/>
     </row>
     <row r="29" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="65"/>
+      <c r="A29" s="69"/>
       <c r="B29" s="34" t="s">
         <v>34</v>
       </c>
@@ -17794,15 +19074,15 @@
         <v>4.5089438121187528E-2</v>
       </c>
       <c r="G29" s="24"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="56"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="74"/>
       <c r="K29" s="33"/>
     </row>
     <row r="30" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="59" t="s">
+      <c r="A30" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="59"/>
+      <c r="B30" s="71"/>
       <c r="C30" s="36">
         <v>0.86</v>
       </c>
@@ -17891,6 +19171,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A24:A26"/>
@@ -17907,22 +19203,6 @@
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="H12:H14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="I3:I5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C3:F3">
@@ -18245,26 +19525,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66">
         <v>3</v>
       </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
       <c r="F1" s="22"/>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="58"/>
+      <c r="H1" s="66"/>
     </row>
     <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="59"/>
+      <c r="B2" s="71"/>
       <c r="C2" s="26">
         <v>3</v>
       </c>
@@ -18283,7 +19563,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="75" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="27" t="s">
@@ -18299,17 +19579,17 @@
         <v>118.413324</v>
       </c>
       <c r="F3" s="25"/>
-      <c r="G3" s="57">
+      <c r="G3" s="70">
         <v>-0.17044699999999999</v>
       </c>
-      <c r="H3" s="55">
+      <c r="H3" s="72">
         <v>0.55027199999999998</v>
       </c>
       <c r="K3" s="20"/>
       <c r="M3" s="20"/>
     </row>
     <row r="4" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="61"/>
+      <c r="A4" s="75"/>
       <c r="B4" s="21" t="s">
         <v>32</v>
       </c>
@@ -18323,13 +19603,13 @@
         <v>14.492490745210086</v>
       </c>
       <c r="F4" s="22"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="54"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="73"/>
       <c r="K4" s="20"/>
       <c r="M4" s="20"/>
     </row>
     <row r="5" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="62"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="23" t="s">
         <v>35</v>
       </c>
@@ -18343,13 +19623,13 @@
         <v>0.12238902055658944</v>
       </c>
       <c r="F5" s="24"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="56"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="74"/>
       <c r="K5" s="20"/>
       <c r="M5" s="20"/>
     </row>
     <row r="6" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="77" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="31" t="s">
@@ -18365,10 +19645,10 @@
         <v>969.54470800000001</v>
       </c>
       <c r="F6" s="22"/>
-      <c r="G6" s="58">
+      <c r="G6" s="66">
         <v>0.415829</v>
       </c>
-      <c r="H6" s="54">
+      <c r="H6" s="73">
         <v>0.15626599999999999</v>
       </c>
       <c r="K6" s="20"/>
@@ -18376,7 +19656,7 @@
       <c r="M6" s="20"/>
     </row>
     <row r="7" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="61"/>
+      <c r="A7" s="75"/>
       <c r="B7" s="32" t="s">
         <v>17</v>
       </c>
@@ -18390,14 +19670,14 @@
         <v>168.94439925016752</v>
       </c>
       <c r="F7" s="22"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="54"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="73"/>
       <c r="K7" s="20"/>
       <c r="L7" s="20"/>
       <c r="M7" s="20"/>
     </row>
     <row r="8" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="62"/>
+      <c r="A8" s="76"/>
       <c r="B8" s="23" t="s">
         <v>34</v>
       </c>
@@ -18411,14 +19691,14 @@
         <v>0.17425127263978374</v>
       </c>
       <c r="F8" s="22"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="54"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="73"/>
       <c r="K8" s="20"/>
       <c r="L8" s="20"/>
       <c r="M8" s="20"/>
     </row>
     <row r="9" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="77" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="31" t="s">
@@ -18434,10 +19714,10 @@
         <v>2120.166667</v>
       </c>
       <c r="F9" s="25"/>
-      <c r="G9" s="57">
+      <c r="G9" s="70">
         <v>-0.36805300000000002</v>
       </c>
-      <c r="H9" s="55">
+      <c r="H9" s="72">
         <v>0.41729500000000003</v>
       </c>
       <c r="J9" s="20"/>
@@ -18446,7 +19726,7 @@
       <c r="M9" s="20"/>
     </row>
     <row r="10" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="61"/>
+      <c r="A10" s="75"/>
       <c r="B10" s="32" t="s">
         <v>17</v>
       </c>
@@ -18460,15 +19740,15 @@
         <v>160.95019933818037</v>
       </c>
       <c r="F10" s="22"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="54"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="73"/>
       <c r="J10" s="20"/>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
     </row>
     <row r="11" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="62"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="34" t="s">
         <v>34</v>
       </c>
@@ -18482,15 +19762,15 @@
         <v>7.5913937259433559E-2</v>
       </c>
       <c r="F11" s="24"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="56"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="74"/>
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
       <c r="M11" s="20"/>
     </row>
     <row r="12" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="77" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="31" t="s">
@@ -18506,10 +19786,10 @@
         <v>17.619772999999999</v>
       </c>
       <c r="F12" s="22"/>
-      <c r="G12" s="58">
+      <c r="G12" s="66">
         <v>-0.42366399999999999</v>
       </c>
-      <c r="H12" s="54">
+      <c r="H12" s="73">
         <v>1.5441E-2</v>
       </c>
       <c r="K12" s="20"/>
@@ -18517,7 +19797,7 @@
       <c r="M12" s="20"/>
     </row>
     <row r="13" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="61"/>
+      <c r="A13" s="75"/>
       <c r="B13" s="32" t="s">
         <v>17</v>
       </c>
@@ -18531,14 +19811,14 @@
         <v>1.5841470891302991</v>
       </c>
       <c r="F13" s="22"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="54"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="73"/>
       <c r="K13" s="20"/>
       <c r="L13" s="20"/>
       <c r="M13" s="20"/>
     </row>
     <row r="14" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="62"/>
+      <c r="A14" s="76"/>
       <c r="B14" s="34" t="s">
         <v>34</v>
       </c>
@@ -18552,14 +19832,14 @@
         <v>8.9907349494814673E-2</v>
       </c>
       <c r="F14" s="22"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="54"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="73"/>
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
     </row>
     <row r="15" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="75" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -18575,10 +19855,10 @@
         <v>78.336383999999995</v>
       </c>
       <c r="F15" s="25"/>
-      <c r="G15" s="57">
+      <c r="G15" s="70">
         <v>0.48777399999999999</v>
       </c>
-      <c r="H15" s="55">
+      <c r="H15" s="72">
         <v>7.1485999999999994E-2</v>
       </c>
       <c r="M15" s="20"/>
@@ -18586,7 +19866,7 @@
       <c r="O15" s="20"/>
     </row>
     <row r="16" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="61"/>
+      <c r="A16" s="75"/>
       <c r="B16" s="32" t="s">
         <v>17</v>
       </c>
@@ -18600,14 +19880,14 @@
         <v>16.203605709841252</v>
       </c>
       <c r="F16" s="22"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="54"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="73"/>
       <c r="M16" s="20"/>
       <c r="N16" s="20"/>
       <c r="O16" s="20"/>
     </row>
     <row r="17" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="61"/>
+      <c r="A17" s="75"/>
       <c r="B17" s="32" t="s">
         <v>34</v>
       </c>
@@ -18621,14 +19901,14 @@
         <v>0.20684648540633754</v>
       </c>
       <c r="F17" s="24"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="56"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="74"/>
       <c r="M17" s="20"/>
       <c r="N17" s="20"/>
       <c r="O17" s="20"/>
     </row>
     <row r="18" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="77" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="31" t="s">
@@ -18644,10 +19924,10 @@
         <v>820.66210599999999</v>
       </c>
       <c r="F18" s="22"/>
-      <c r="G18" s="58">
+      <c r="G18" s="66">
         <v>0.300064</v>
       </c>
-      <c r="H18" s="54">
+      <c r="H18" s="73">
         <v>0.34484300000000001</v>
       </c>
       <c r="M18" s="20"/>
@@ -18656,7 +19936,7 @@
       <c r="P18" s="20"/>
     </row>
     <row r="19" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="61"/>
+      <c r="A19" s="75"/>
       <c r="B19" s="32" t="s">
         <v>17</v>
       </c>
@@ -18670,11 +19950,11 @@
         <v>184.47723291506733</v>
       </c>
       <c r="F19" s="22"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="54"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="73"/>
     </row>
     <row r="20" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="62"/>
+      <c r="A20" s="76"/>
       <c r="B20" s="34" t="s">
         <v>34</v>
       </c>
@@ -18688,11 +19968,11 @@
         <v>0.22479072881070414</v>
       </c>
       <c r="F20" s="22"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="54"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="73"/>
     </row>
     <row r="21" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="75" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="27" t="s">
@@ -18708,15 +19988,15 @@
         <v>434.23856000000001</v>
       </c>
       <c r="F21" s="25"/>
-      <c r="G21" s="57">
+      <c r="G21" s="70">
         <v>0.37579400000000002</v>
       </c>
-      <c r="H21" s="55">
+      <c r="H21" s="72">
         <v>0.27063399999999999</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="61"/>
+      <c r="A22" s="75"/>
       <c r="B22" s="32" t="s">
         <v>17</v>
       </c>
@@ -18730,11 +20010,11 @@
         <v>59.412692709554918</v>
       </c>
       <c r="F22" s="22"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="54"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="73"/>
     </row>
     <row r="23" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="61"/>
+      <c r="A23" s="75"/>
       <c r="B23" s="32" t="s">
         <v>34</v>
       </c>
@@ -18748,11 +20028,11 @@
         <v>0.13682039823813646</v>
       </c>
       <c r="F23" s="24"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="56"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="74"/>
     </row>
     <row r="24" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="60" t="s">
+      <c r="A24" s="77" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="31" t="s">
@@ -18768,15 +20048,15 @@
         <v>56.878442999999997</v>
       </c>
       <c r="F24" s="22"/>
-      <c r="G24" s="58">
+      <c r="G24" s="66">
         <v>-9.5069000000000001E-2</v>
       </c>
-      <c r="H24" s="54">
+      <c r="H24" s="73">
         <v>0.54855600000000004</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="61"/>
+      <c r="A25" s="75"/>
       <c r="B25" s="32" t="s">
         <v>17</v>
       </c>
@@ -18790,11 +20070,11 @@
         <v>11.875037178889167</v>
       </c>
       <c r="F25" s="22"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="54"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="73"/>
     </row>
     <row r="26" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="62"/>
+      <c r="A26" s="76"/>
       <c r="B26" s="34" t="s">
         <v>34</v>
       </c>
@@ -18808,11 +20088,11 @@
         <v>0.20877922377181049</v>
       </c>
       <c r="F26" s="22"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="54"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="73"/>
     </row>
     <row r="27" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="63" t="s">
+      <c r="A27" s="67" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="31" t="s">
@@ -18828,15 +20108,15 @@
         <v>0.16517000000000001</v>
       </c>
       <c r="F27" s="25"/>
-      <c r="G27" s="57">
+      <c r="G27" s="70">
         <v>6.9697999999999996E-2</v>
       </c>
-      <c r="H27" s="55">
+      <c r="H27" s="72">
         <v>1.4989000000000001E-2</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="64"/>
+      <c r="A28" s="68"/>
       <c r="B28" s="32" t="s">
         <v>17</v>
       </c>
@@ -18850,11 +20130,11 @@
         <v>1.2767145334803704E-2</v>
       </c>
       <c r="F28" s="22"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="54"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="73"/>
     </row>
     <row r="29" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="65"/>
+      <c r="A29" s="69"/>
       <c r="B29" s="34" t="s">
         <v>34</v>
       </c>
@@ -18868,14 +20148,14 @@
         <v>7.729699906038448E-2</v>
       </c>
       <c r="F29" s="24"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="56"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="74"/>
     </row>
     <row r="30" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="59" t="s">
+      <c r="A30" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="59"/>
+      <c r="B30" s="71"/>
       <c r="C30" s="36">
         <v>0.89</v>
       </c>
@@ -18957,6 +20237,31 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="H21:H23"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="G24:G26"/>
@@ -18964,31 +20269,6 @@
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="G27:G29"/>
     <mergeCell ref="H27:H29"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="H3:H5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C3:E3">
@@ -19221,25 +20501,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58">
-        <v>2</v>
-      </c>
-      <c r="D1" s="58"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66">
+        <v>2</v>
+      </c>
+      <c r="D1" s="66"/>
       <c r="E1" s="22"/>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="58"/>
+      <c r="G1" s="66"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="59"/>
+      <c r="B2" s="71"/>
       <c r="C2" s="26">
         <v>1</v>
       </c>
@@ -19255,7 +20535,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="75" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="27" t="s">
@@ -19268,17 +20548,17 @@
         <v>197.27525</v>
       </c>
       <c r="E3" s="25"/>
-      <c r="F3" s="57">
+      <c r="F3" s="70">
         <v>0.15939400000000001</v>
       </c>
-      <c r="G3" s="55">
+      <c r="G3" s="72">
         <v>0.56966499999999998</v>
       </c>
       <c r="J3" s="20"/>
       <c r="L3" s="20"/>
     </row>
     <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="61"/>
+      <c r="A4" s="75"/>
       <c r="B4" s="21" t="s">
         <v>32</v>
       </c>
@@ -19289,13 +20569,13 @@
         <v>57.231294280314856</v>
       </c>
       <c r="E4" s="22"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="73"/>
       <c r="J4" s="20"/>
       <c r="L4" s="20"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="62"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="23" t="s">
         <v>35</v>
       </c>
@@ -19306,13 +20586,13 @@
         <v>0.29010884173414991</v>
       </c>
       <c r="E5" s="24"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="56"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="74"/>
       <c r="J5" s="20"/>
       <c r="L5" s="20"/>
     </row>
     <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="77" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="31" t="s">
@@ -19325,17 +20605,17 @@
         <v>1135.6276210000001</v>
       </c>
       <c r="E6" s="22"/>
-      <c r="F6" s="58">
+      <c r="F6" s="66">
         <v>0.43130099999999999</v>
       </c>
-      <c r="G6" s="54">
+      <c r="G6" s="73">
         <v>-0.16189600000000001</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="61"/>
+      <c r="A7" s="75"/>
       <c r="B7" s="32" t="s">
         <v>17</v>
       </c>
@@ -19346,13 +20626,13 @@
         <v>111.22229129090985</v>
       </c>
       <c r="E7" s="22"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="54"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="73"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="62"/>
+      <c r="A8" s="76"/>
       <c r="B8" s="23" t="s">
         <v>34</v>
       </c>
@@ -19363,14 +20643,14 @@
         <v>9.7939050824574686E-2</v>
       </c>
       <c r="E8" s="22"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="54"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="73"/>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
       <c r="L8" s="20"/>
     </row>
     <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="77" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="31" t="s">
@@ -19383,10 +20663,10 @@
         <v>3096.3235289999998</v>
       </c>
       <c r="E9" s="25"/>
-      <c r="F9" s="57">
+      <c r="F9" s="70">
         <v>-3.9958E-2</v>
       </c>
-      <c r="G9" s="55">
+      <c r="G9" s="72">
         <v>0.60186399999999995</v>
       </c>
       <c r="I9" s="20"/>
@@ -19395,7 +20675,7 @@
       <c r="L9" s="20"/>
     </row>
     <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="61"/>
+      <c r="A10" s="75"/>
       <c r="B10" s="32" t="s">
         <v>17</v>
       </c>
@@ -19406,15 +20686,15 @@
         <v>851.37027309625978</v>
       </c>
       <c r="E10" s="22"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="54"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="73"/>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
     </row>
     <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="62"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="34" t="s">
         <v>34</v>
       </c>
@@ -19425,15 +20705,15 @@
         <v>0.27496166505934266</v>
       </c>
       <c r="E11" s="24"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="56"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="74"/>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
     </row>
     <row r="12" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="77" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="31" t="s">
@@ -19446,10 +20726,10 @@
         <v>15.448912</v>
       </c>
       <c r="E12" s="22"/>
-      <c r="F12" s="58">
+      <c r="F12" s="66">
         <v>-0.39849400000000001</v>
       </c>
-      <c r="G12" s="54">
+      <c r="G12" s="73">
         <v>0.14122599999999999</v>
       </c>
       <c r="J12" s="20"/>
@@ -19457,7 +20737,7 @@
       <c r="L12" s="20"/>
     </row>
     <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="61"/>
+      <c r="A13" s="75"/>
       <c r="B13" s="32" t="s">
         <v>17</v>
       </c>
@@ -19468,14 +20748,14 @@
         <v>1.4784468201460614</v>
       </c>
       <c r="E13" s="22"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="54"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="73"/>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
       <c r="L13" s="20"/>
     </row>
     <row r="14" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="62"/>
+      <c r="A14" s="76"/>
       <c r="B14" s="34" t="s">
         <v>34</v>
       </c>
@@ -19486,14 +20766,14 @@
         <v>9.5699090016569538E-2</v>
       </c>
       <c r="E14" s="22"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="54"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="73"/>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
     </row>
     <row r="15" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="75" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -19506,10 +20786,10 @@
         <v>103.277145</v>
       </c>
       <c r="E15" s="25"/>
-      <c r="F15" s="57">
+      <c r="F15" s="70">
         <v>0.460092</v>
       </c>
-      <c r="G15" s="55">
+      <c r="G15" s="72">
         <v>-0.196191</v>
       </c>
       <c r="L15" s="20"/>
@@ -19517,7 +20797,7 @@
       <c r="N15" s="20"/>
     </row>
     <row r="16" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="61"/>
+      <c r="A16" s="75"/>
       <c r="B16" s="32" t="s">
         <v>17</v>
       </c>
@@ -19528,14 +20808,14 @@
         <v>15.93045099801007</v>
       </c>
       <c r="E16" s="22"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="54"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="73"/>
       <c r="L16" s="20"/>
       <c r="M16" s="20"/>
       <c r="N16" s="20"/>
     </row>
     <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="61"/>
+      <c r="A17" s="75"/>
       <c r="B17" s="32" t="s">
         <v>34</v>
       </c>
@@ -19546,14 +20826,14 @@
         <v>0.15424952924492702</v>
       </c>
       <c r="E17" s="24"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="56"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="74"/>
       <c r="L17" s="20"/>
       <c r="M17" s="20"/>
       <c r="N17" s="20"/>
     </row>
     <row r="18" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="77" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="31" t="s">
@@ -19566,10 +20846,10 @@
         <v>1137.3042089999999</v>
       </c>
       <c r="E18" s="22"/>
-      <c r="F18" s="58">
+      <c r="F18" s="66">
         <v>0.378911</v>
       </c>
-      <c r="G18" s="54">
+      <c r="G18" s="73">
         <v>0.17912800000000001</v>
       </c>
       <c r="L18" s="20"/>
@@ -19578,7 +20858,7 @@
       <c r="O18" s="20"/>
     </row>
     <row r="19" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="61"/>
+      <c r="A19" s="75"/>
       <c r="B19" s="32" t="s">
         <v>17</v>
       </c>
@@ -19589,11 +20869,11 @@
         <v>170.09358980573018</v>
       </c>
       <c r="E19" s="22"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="54"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="73"/>
     </row>
     <row r="20" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="62"/>
+      <c r="A20" s="76"/>
       <c r="B20" s="34" t="s">
         <v>34</v>
       </c>
@@ -19604,11 +20884,11 @@
         <v>0.1495585688153645</v>
       </c>
       <c r="E20" s="22"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="54"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="73"/>
     </row>
     <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="75" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="27" t="s">
@@ -19621,15 +20901,15 @@
         <v>487.00357600000001</v>
       </c>
       <c r="E21" s="25"/>
-      <c r="F21" s="57">
+      <c r="F21" s="70">
         <v>0.39992100000000003</v>
       </c>
-      <c r="G21" s="55">
+      <c r="G21" s="72">
         <v>-0.13946700000000001</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="61"/>
+      <c r="A22" s="75"/>
       <c r="B22" s="32" t="s">
         <v>17</v>
       </c>
@@ -19640,11 +20920,11 @@
         <v>30.091456960406553</v>
       </c>
       <c r="E22" s="22"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="54"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="73"/>
     </row>
     <row r="23" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="61"/>
+      <c r="A23" s="75"/>
       <c r="B23" s="32" t="s">
         <v>34</v>
       </c>
@@ -19655,11 +20935,11 @@
         <v>6.178898563243107E-2</v>
       </c>
       <c r="E23" s="24"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="56"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="74"/>
     </row>
     <row r="24" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="60" t="s">
+      <c r="A24" s="77" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="31" t="s">
@@ -19672,15 +20952,15 @@
         <v>93.923160999999993</v>
       </c>
       <c r="E24" s="22"/>
-      <c r="F24" s="58">
+      <c r="F24" s="66">
         <v>0.31768800000000003</v>
       </c>
-      <c r="G24" s="54">
+      <c r="G24" s="73">
         <v>0.41881000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="61"/>
+      <c r="A25" s="75"/>
       <c r="B25" s="32" t="s">
         <v>17</v>
       </c>
@@ -19691,11 +20971,11 @@
         <v>23.873093410783614</v>
       </c>
       <c r="E25" s="22"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="54"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="73"/>
     </row>
     <row r="26" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="62"/>
+      <c r="A26" s="76"/>
       <c r="B26" s="34" t="s">
         <v>34</v>
       </c>
@@ -19706,11 +20986,11 @@
         <v>0.2541768521907351</v>
       </c>
       <c r="E26" s="22"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="54"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="73"/>
     </row>
     <row r="27" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="63" t="s">
+      <c r="A27" s="67" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="31" t="s">
@@ -19723,15 +21003,15 @@
         <v>0.15495100000000001</v>
       </c>
       <c r="E27" s="25"/>
-      <c r="F27" s="57">
+      <c r="F27" s="70">
         <v>-0.10981200000000001</v>
       </c>
-      <c r="G27" s="55">
+      <c r="G27" s="72">
         <v>-4.0695000000000002E-2</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="64"/>
+      <c r="A28" s="68"/>
       <c r="B28" s="32" t="s">
         <v>17</v>
       </c>
@@ -19742,11 +21022,11 @@
         <v>9.1651513899116792E-3</v>
       </c>
       <c r="E28" s="22"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="54"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="73"/>
     </row>
     <row r="29" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="65"/>
+      <c r="A29" s="69"/>
       <c r="B29" s="34" t="s">
         <v>34</v>
       </c>
@@ -19757,14 +21037,14 @@
         <v>5.9148707590862139E-2</v>
       </c>
       <c r="E29" s="24"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="56"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="74"/>
     </row>
     <row r="30" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="59" t="s">
+      <c r="A30" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="59"/>
+      <c r="B30" s="71"/>
       <c r="C30" s="36">
         <v>0.81</v>
       </c>
@@ -19839,6 +21119,31 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:G23"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="F24:F26"/>
@@ -19846,31 +21151,6 @@
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="F27:F29"/>
     <mergeCell ref="G27:G29"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="G3:G5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C3:D3">
@@ -20097,43 +21377,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{888AE6E2-33D2-4BB4-A165-A10ABB4CF79E}">
   <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M33" sqref="M33"/>
+      <selection pane="topRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="24.375" style="3" customWidth="1"/>
-    <col min="2" max="3" width="11.375" customWidth="1"/>
-    <col min="4" max="6" width="10" customWidth="1"/>
+    <col min="2" max="6" width="10.625" customWidth="1"/>
     <col min="7" max="7" width="2.5" customWidth="1"/>
     <col min="8" max="8" width="9.125" customWidth="1"/>
     <col min="10" max="10" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="66">
+      <c r="B1" s="66"/>
+      <c r="C1" s="78">
         <v>4</v>
       </c>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
       <c r="G1" s="22"/>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="58"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="59"/>
+      <c r="B2" s="71"/>
       <c r="C2" s="26">
         <v>3</v>
       </c>
@@ -20155,95 +21434,95 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="75" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="71">
+      <c r="C3" s="54">
         <v>90</v>
       </c>
-      <c r="D3" s="72">
+      <c r="D3" s="55">
         <v>86.25</v>
       </c>
-      <c r="E3" s="72">
+      <c r="E3" s="55">
         <v>79</v>
       </c>
-      <c r="F3" s="72">
+      <c r="F3" s="55">
         <v>61.666666999999997</v>
       </c>
-      <c r="G3" s="68"/>
-      <c r="H3" s="80">
+      <c r="G3" s="52"/>
+      <c r="H3" s="79">
         <v>-3.8743E-2</v>
       </c>
-      <c r="I3" s="81">
+      <c r="I3" s="82">
         <v>-0.23250999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="61"/>
+      <c r="A4" s="75"/>
       <c r="B4" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="73">
+      <c r="C4" s="56">
         <v>4.0824829454634592</v>
       </c>
-      <c r="D4" s="74">
+      <c r="D4" s="57">
         <v>7.5</v>
       </c>
-      <c r="E4" s="74">
+      <c r="E4" s="57">
         <v>11.937336386313323</v>
       </c>
-      <c r="F4" s="74">
+      <c r="F4" s="57">
         <v>13.693063937629153</v>
       </c>
-      <c r="G4" s="69"/>
-      <c r="H4" s="82"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="80"/>
       <c r="I4" s="83"/>
     </row>
     <row r="5" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="62"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="75">
+      <c r="C5" s="58">
         <v>4.5360921616260659E-2</v>
       </c>
-      <c r="D5" s="76">
+      <c r="D5" s="59">
         <v>8.6956521739130432E-2</v>
       </c>
-      <c r="E5" s="76">
+      <c r="E5" s="59">
         <v>0.15110552387738382</v>
       </c>
-      <c r="F5" s="77">
+      <c r="F5" s="60">
         <v>0.22204968427479879</v>
       </c>
-      <c r="G5" s="70"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="85"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="84"/>
     </row>
     <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="75" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="74">
+      <c r="C6" s="57">
         <v>190.82938899999999</v>
       </c>
-      <c r="D6" s="74">
+      <c r="D6" s="57">
         <v>263.62193400000001</v>
       </c>
-      <c r="E6" s="74">
+      <c r="E6" s="57">
         <v>362.985141</v>
       </c>
-      <c r="F6" s="74">
+      <c r="F6" s="57">
         <v>232.03920600000001</v>
       </c>
-      <c r="G6" s="67"/>
-      <c r="H6" s="82">
+      <c r="G6" s="22"/>
+      <c r="H6" s="80">
         <v>0.16178500000000001</v>
       </c>
       <c r="I6" s="86">
@@ -20251,48 +21530,48 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="61"/>
+      <c r="A7" s="75"/>
       <c r="B7" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="74">
+      <c r="C7" s="57">
         <v>30.669666659421001</v>
       </c>
-      <c r="D7" s="74">
+      <c r="D7" s="57">
         <v>48.007451359137988</v>
       </c>
-      <c r="E7" s="74">
+      <c r="E7" s="57">
         <v>80.005116336394394</v>
       </c>
-      <c r="F7" s="74">
+      <c r="F7" s="57">
         <v>43.266110456106404</v>
       </c>
       <c r="G7" s="22"/>
-      <c r="H7" s="87"/>
+      <c r="H7" s="80"/>
       <c r="I7" s="86"/>
       <c r="K7" s="22"/>
       <c r="L7" s="20"/>
       <c r="N7" s="20"/>
     </row>
     <row r="8" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="62"/>
+      <c r="A8" s="76"/>
       <c r="B8" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="78">
+      <c r="C8" s="61">
         <v>0.16071773231648823</v>
       </c>
-      <c r="D8" s="78">
+      <c r="D8" s="61">
         <v>0.18210719658531141</v>
       </c>
-      <c r="E8" s="79">
+      <c r="E8" s="62">
         <v>0.22040879170972563</v>
       </c>
-      <c r="F8" s="78">
+      <c r="F8" s="61">
         <v>0.18646034522332577</v>
       </c>
-      <c r="G8" s="67"/>
-      <c r="H8" s="82"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="80"/>
       <c r="I8" s="86"/>
       <c r="K8" s="33"/>
       <c r="L8" s="20"/>
@@ -20301,29 +21580,29 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="77" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="71">
+      <c r="C9" s="54">
         <v>1063.8218529999999</v>
       </c>
-      <c r="D9" s="72">
+      <c r="D9" s="55">
         <v>580.93112599999995</v>
       </c>
-      <c r="E9" s="72">
+      <c r="E9" s="55">
         <v>1067.473</v>
       </c>
-      <c r="F9" s="72">
+      <c r="F9" s="55">
         <v>907.28177800000003</v>
       </c>
       <c r="G9" s="25"/>
-      <c r="H9" s="80">
+      <c r="H9" s="79">
         <v>0.43143799999999999</v>
       </c>
-      <c r="I9" s="88">
+      <c r="I9" s="85">
         <v>-0.111646</v>
       </c>
       <c r="K9" s="20"/>
@@ -20333,24 +21612,24 @@
       <c r="O9" s="20"/>
     </row>
     <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="61"/>
+      <c r="A10" s="75"/>
       <c r="B10" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="73">
+      <c r="C10" s="56">
         <v>109.92774188074637</v>
       </c>
-      <c r="D10" s="74">
+      <c r="D10" s="57">
         <v>160.7876082196635</v>
       </c>
-      <c r="E10" s="74">
+      <c r="E10" s="57">
         <v>136.09373185051544</v>
       </c>
-      <c r="F10" s="74">
+      <c r="F10" s="57">
         <v>73.8296050443181</v>
       </c>
-      <c r="G10" s="67"/>
-      <c r="H10" s="82"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="80"/>
       <c r="I10" s="86"/>
       <c r="K10" s="22"/>
       <c r="L10" s="20"/>
@@ -20359,25 +21638,25 @@
       <c r="O10" s="20"/>
     </row>
     <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="62"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="75">
+      <c r="C11" s="58">
         <v>0.10333284804288222</v>
       </c>
-      <c r="D11" s="77">
+      <c r="D11" s="60">
         <v>0.27677568135618114</v>
       </c>
-      <c r="E11" s="76">
+      <c r="E11" s="59">
         <v>0.12749149800558462</v>
       </c>
-      <c r="F11" s="76">
+      <c r="F11" s="59">
         <v>8.1374504409277459E-2</v>
       </c>
       <c r="G11" s="24"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="89"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="87"/>
       <c r="K11" s="33"/>
       <c r="L11" s="20"/>
       <c r="M11" s="20"/>
@@ -20385,26 +21664,26 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="77" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="74">
+      <c r="C12" s="57">
         <v>3060.5</v>
       </c>
-      <c r="D12" s="74">
+      <c r="D12" s="57">
         <v>5535.25</v>
       </c>
-      <c r="E12" s="74">
+      <c r="E12" s="57">
         <v>5546.4</v>
       </c>
-      <c r="F12" s="74">
+      <c r="F12" s="57">
         <v>4213</v>
       </c>
-      <c r="G12" s="67"/>
-      <c r="H12" s="82">
+      <c r="G12" s="22"/>
+      <c r="H12" s="80">
         <v>-4.4269999999999997E-2</v>
       </c>
       <c r="I12" s="86">
@@ -20417,24 +21696,24 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="61"/>
+      <c r="A13" s="75"/>
       <c r="B13" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="74">
+      <c r="C13" s="57">
         <v>192.54869513969706</v>
       </c>
-      <c r="D13" s="74">
+      <c r="D13" s="57">
         <v>919.33359016191719</v>
       </c>
-      <c r="E13" s="74">
+      <c r="E13" s="57">
         <v>1599.7341341610486</v>
       </c>
-      <c r="F13" s="74">
+      <c r="F13" s="57">
         <v>720.34991497188366</v>
       </c>
       <c r="G13" s="22"/>
-      <c r="H13" s="87"/>
+      <c r="H13" s="80"/>
       <c r="I13" s="86"/>
       <c r="K13" s="22"/>
       <c r="L13" s="20"/>
@@ -20443,24 +21722,24 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="62"/>
+      <c r="A14" s="76"/>
       <c r="B14" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="78">
+      <c r="C14" s="61">
         <v>6.2914130089755618E-2</v>
       </c>
-      <c r="D14" s="78">
+      <c r="D14" s="61">
         <v>0.16608709455976103</v>
       </c>
-      <c r="E14" s="79">
+      <c r="E14" s="62">
         <v>0.28842747262387292</v>
       </c>
-      <c r="F14" s="78">
+      <c r="F14" s="61">
         <v>0.1709826524974801</v>
       </c>
-      <c r="G14" s="67"/>
-      <c r="H14" s="82"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="80"/>
       <c r="I14" s="86"/>
       <c r="K14" s="46"/>
       <c r="L14" s="20"/>
@@ -20469,29 +21748,29 @@
       <c r="O14" s="20"/>
     </row>
     <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="77" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="71">
+      <c r="C15" s="54">
         <v>15.94445</v>
       </c>
-      <c r="D15" s="72">
+      <c r="D15" s="55">
         <v>20.117663</v>
       </c>
-      <c r="E15" s="72">
+      <c r="E15" s="55">
         <v>15.313986999999999</v>
       </c>
-      <c r="F15" s="72">
+      <c r="F15" s="55">
         <v>17.616083</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="80">
+      <c r="H15" s="79">
         <v>-0.41344900000000001</v>
       </c>
-      <c r="I15" s="88">
+      <c r="I15" s="85">
         <v>0.103385</v>
       </c>
       <c r="K15" s="20"/>
@@ -20501,24 +21780,24 @@
       <c r="O15" s="20"/>
     </row>
     <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="61"/>
+      <c r="A16" s="75"/>
       <c r="B16" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="73">
+      <c r="C16" s="56">
         <v>2.490306607628868</v>
       </c>
-      <c r="D16" s="74">
+      <c r="D16" s="57">
         <v>0.76595757062646752</v>
       </c>
-      <c r="E16" s="74">
+      <c r="E16" s="57">
         <v>1.5641154049493919</v>
       </c>
-      <c r="F16" s="74">
+      <c r="F16" s="57">
         <v>0.82242324869862471</v>
       </c>
-      <c r="G16" s="67"/>
-      <c r="H16" s="82"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="80"/>
       <c r="I16" s="86"/>
       <c r="K16" s="22"/>
       <c r="L16" s="20"/>
@@ -20529,25 +21808,25 @@
       <c r="Q16" s="20"/>
     </row>
     <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="62"/>
+      <c r="A17" s="76"/>
       <c r="B17" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="75">
+      <c r="C17" s="58">
         <v>0.15618642271316152</v>
       </c>
-      <c r="D17" s="76">
+      <c r="D17" s="59">
         <v>3.8073884159729066E-2</v>
       </c>
-      <c r="E17" s="76">
+      <c r="E17" s="59">
         <v>0.10213639367392646</v>
       </c>
-      <c r="F17" s="76">
+      <c r="F17" s="59">
         <v>4.6685931753308881E-2</v>
       </c>
       <c r="G17" s="24"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="89"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="87"/>
       <c r="K17" s="33"/>
       <c r="L17" s="20"/>
       <c r="M17" s="20"/>
@@ -20555,26 +21834,26 @@
       <c r="O17" s="20"/>
     </row>
     <row r="18" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="75" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="74">
+      <c r="C18" s="57">
         <v>92.454267000000002</v>
       </c>
-      <c r="D18" s="74">
+      <c r="D18" s="57">
         <v>41.491126000000001</v>
       </c>
-      <c r="E18" s="74">
+      <c r="E18" s="57">
         <v>97.073448999999997</v>
       </c>
-      <c r="F18" s="74">
+      <c r="F18" s="57">
         <v>71.908652000000004</v>
       </c>
-      <c r="G18" s="67"/>
-      <c r="H18" s="82">
+      <c r="G18" s="22"/>
+      <c r="H18" s="80">
         <v>0.45378299999999999</v>
       </c>
       <c r="I18" s="86">
@@ -20583,73 +21862,73 @@
       <c r="K18" s="20"/>
     </row>
     <row r="19" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="61"/>
+      <c r="A19" s="75"/>
       <c r="B19" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="74">
+      <c r="C19" s="57">
         <v>10.328375816167807</v>
       </c>
-      <c r="D19" s="74">
+      <c r="D19" s="57">
         <v>11.727627381529478</v>
       </c>
-      <c r="E19" s="74">
+      <c r="E19" s="57">
         <v>16.791096658646211</v>
       </c>
-      <c r="F19" s="74">
+      <c r="F19" s="57">
         <v>7.5276394042222821</v>
       </c>
       <c r="G19" s="22"/>
-      <c r="H19" s="87"/>
+      <c r="H19" s="80"/>
       <c r="I19" s="86"/>
       <c r="K19" s="22"/>
     </row>
     <row r="20" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="61"/>
+      <c r="A20" s="75"/>
       <c r="B20" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="78">
+      <c r="C20" s="61">
         <v>0.11171334921910966</v>
       </c>
-      <c r="D20" s="79">
+      <c r="D20" s="62">
         <v>0.28265387113209406</v>
       </c>
-      <c r="E20" s="78">
+      <c r="E20" s="61">
         <v>0.1729731129533289</v>
       </c>
-      <c r="F20" s="78">
+      <c r="F20" s="61">
         <v>0.10468336138775458</v>
       </c>
-      <c r="G20" s="67"/>
-      <c r="H20" s="82"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="80"/>
       <c r="I20" s="86"/>
       <c r="K20" s="33"/>
     </row>
     <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="77" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="71">
+      <c r="C21" s="54">
         <v>971.55733299999997</v>
       </c>
-      <c r="D21" s="72">
+      <c r="D21" s="55">
         <v>764.76906899999994</v>
       </c>
-      <c r="E21" s="72">
+      <c r="E21" s="55">
         <v>1199.6913039999999</v>
       </c>
-      <c r="F21" s="72">
+      <c r="F21" s="55">
         <v>1038.939717</v>
       </c>
       <c r="G21" s="25"/>
-      <c r="H21" s="80">
+      <c r="H21" s="79">
         <v>0.33114399999999999</v>
       </c>
-      <c r="I21" s="88">
+      <c r="I21" s="85">
         <v>0.13273399999999999</v>
       </c>
       <c r="K21" s="20"/>
@@ -20659,70 +21938,70 @@
       <c r="Q21" s="20"/>
     </row>
     <row r="22" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="61"/>
+      <c r="A22" s="75"/>
       <c r="B22" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="73">
+      <c r="C22" s="56">
         <v>131.12004280429443</v>
       </c>
-      <c r="D22" s="74">
+      <c r="D22" s="57">
         <v>154.72026793216202</v>
       </c>
-      <c r="E22" s="74">
+      <c r="E22" s="57">
         <v>265.79920822681169</v>
       </c>
-      <c r="F22" s="74">
+      <c r="F22" s="57">
         <v>132.59872793507486</v>
       </c>
-      <c r="G22" s="67"/>
-      <c r="H22" s="82"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="80"/>
       <c r="I22" s="86"/>
       <c r="K22" s="22"/>
     </row>
     <row r="23" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="62"/>
+      <c r="A23" s="76"/>
       <c r="B23" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="75">
+      <c r="C23" s="58">
         <v>0.13495862606421646</v>
       </c>
-      <c r="D23" s="77">
+      <c r="D23" s="60">
         <v>0.20230978762578855</v>
       </c>
-      <c r="E23" s="77">
+      <c r="E23" s="60">
         <v>0.22155633481762046</v>
       </c>
-      <c r="F23" s="76">
+      <c r="F23" s="59">
         <v>0.12762889488714663</v>
       </c>
       <c r="G23" s="24"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="89"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="87"/>
       <c r="K23" s="33"/>
     </row>
     <row r="24" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="61" t="s">
+      <c r="A24" s="75" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="74">
+      <c r="C24" s="57">
         <v>450.27294699999999</v>
       </c>
-      <c r="D24" s="74">
+      <c r="D24" s="57">
         <v>345.80624299999999</v>
       </c>
-      <c r="E24" s="74">
+      <c r="E24" s="57">
         <v>436.86927100000003</v>
       </c>
-      <c r="F24" s="74">
+      <c r="F24" s="57">
         <v>422.738159</v>
       </c>
-      <c r="G24" s="67"/>
-      <c r="H24" s="82">
+      <c r="G24" s="22"/>
+      <c r="H24" s="80">
         <v>0.37010599999999999</v>
       </c>
       <c r="I24" s="86">
@@ -20731,198 +22010,192 @@
       <c r="K24" s="20"/>
     </row>
     <row r="25" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="61"/>
+      <c r="A25" s="75"/>
       <c r="B25" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="74">
+      <c r="C25" s="57">
         <v>16.073893305605832</v>
       </c>
-      <c r="D25" s="74">
+      <c r="D25" s="57">
         <v>36.774510737737899</v>
       </c>
-      <c r="E25" s="74">
+      <c r="E25" s="57">
         <v>25.472349243836934</v>
       </c>
-      <c r="F25" s="74">
+      <c r="F25" s="57">
         <v>24.681994510168746</v>
       </c>
       <c r="G25" s="22"/>
-      <c r="H25" s="87"/>
+      <c r="H25" s="80"/>
       <c r="I25" s="86"/>
       <c r="K25" s="22"/>
     </row>
     <row r="26" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="61"/>
+      <c r="A26" s="75"/>
       <c r="B26" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="78">
+      <c r="C26" s="61">
         <v>3.5698110252237368E-2</v>
       </c>
-      <c r="D26" s="78">
+      <c r="D26" s="61">
         <v>0.10634426498117878</v>
       </c>
-      <c r="E26" s="78">
+      <c r="E26" s="61">
         <v>5.8306571175240504E-2</v>
       </c>
-      <c r="F26" s="78">
+      <c r="F26" s="61">
         <v>5.8386010310861824E-2</v>
       </c>
-      <c r="G26" s="67"/>
-      <c r="H26" s="82"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="80"/>
       <c r="I26" s="86"/>
       <c r="K26" s="33"/>
     </row>
     <row r="27" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="60" t="s">
+      <c r="A27" s="77" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="71">
+      <c r="C27" s="54">
         <v>94.33614</v>
       </c>
-      <c r="D27" s="72">
+      <c r="D27" s="55">
         <v>71.892623</v>
       </c>
-      <c r="E27" s="72">
+      <c r="E27" s="55">
         <v>166.28830400000001</v>
       </c>
-      <c r="F27" s="72">
+      <c r="F27" s="55">
         <v>97.401615000000007</v>
       </c>
       <c r="G27" s="25"/>
-      <c r="H27" s="80">
+      <c r="H27" s="79">
         <v>0.37440600000000002</v>
       </c>
-      <c r="I27" s="88">
+      <c r="I27" s="85">
         <v>0.33322099999999999</v>
       </c>
       <c r="K27" s="20"/>
     </row>
     <row r="28" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="61"/>
+      <c r="A28" s="75"/>
       <c r="B28" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="73">
+      <c r="C28" s="56">
         <v>5.1177768610989673</v>
       </c>
-      <c r="D28" s="74">
+      <c r="D28" s="94">
         <v>34.249958248149731</v>
       </c>
-      <c r="E28" s="74">
+      <c r="E28" s="94">
         <v>24.153634716125023</v>
       </c>
-      <c r="F28" s="74">
+      <c r="F28" s="94">
         <v>16.974471862181751</v>
       </c>
-      <c r="G28" s="67"/>
-      <c r="H28" s="82"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="93"/>
       <c r="I28" s="86"/>
       <c r="K28" s="22"/>
     </row>
     <row r="29" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="62"/>
+      <c r="A29" s="76"/>
       <c r="B29" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="75">
+      <c r="C29" s="58">
         <v>5.4250437436797472E-2</v>
       </c>
-      <c r="D29" s="77">
+      <c r="D29" s="60">
         <v>0.47640434885996202</v>
       </c>
-      <c r="E29" s="76">
+      <c r="E29" s="59">
         <v>0.14525155489062549</v>
       </c>
-      <c r="F29" s="76">
+      <c r="F29" s="59">
         <v>0.1742730021692325</v>
       </c>
       <c r="G29" s="24"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="89"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="87"/>
       <c r="K29" s="33"/>
     </row>
     <row r="30" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="63" t="s">
+      <c r="A30" s="67" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="71">
+      <c r="C30" s="54">
         <v>0.13997599999999999</v>
       </c>
-      <c r="D30" s="72">
+      <c r="D30" s="55">
         <v>0.15260000000000001</v>
       </c>
-      <c r="E30" s="72">
+      <c r="E30" s="55">
         <v>0.15496699999999999</v>
       </c>
-      <c r="F30" s="72">
+      <c r="F30" s="55">
         <v>0.15324099999999999</v>
       </c>
       <c r="G30" s="25"/>
-      <c r="H30" s="80">
+      <c r="H30" s="79">
         <v>-0.14335999999999999</v>
       </c>
-      <c r="I30" s="88">
+      <c r="I30" s="85">
         <v>0.349414</v>
       </c>
       <c r="K30" s="20"/>
     </row>
     <row r="31" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="64"/>
+      <c r="A31" s="68"/>
       <c r="B31" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="73">
+      <c r="C31" s="56">
         <v>2.4494897427831783E-3</v>
       </c>
-      <c r="D31" s="74">
+      <c r="D31" s="57">
         <v>1.3190905958272919E-2</v>
       </c>
-      <c r="E31" s="74">
+      <c r="E31" s="57">
         <v>1.1661903789690601E-2</v>
       </c>
-      <c r="F31" s="74">
+      <c r="F31" s="57">
         <v>6.1644140029689766E-3</v>
       </c>
-      <c r="G31" s="67"/>
-      <c r="H31" s="82"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="80"/>
       <c r="I31" s="86"/>
-      <c r="K31" s="90"/>
-      <c r="L31" s="91"/>
-      <c r="M31" s="91"/>
-      <c r="N31" s="91"/>
+      <c r="K31" s="22"/>
     </row>
     <row r="32" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="65"/>
+      <c r="A32" s="69"/>
       <c r="B32" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="75">
+      <c r="C32" s="58">
         <v>1.7499355195056143E-2</v>
       </c>
-      <c r="D32" s="76">
+      <c r="D32" s="59">
         <v>8.6441061325510604E-2</v>
       </c>
-      <c r="E32" s="76">
+      <c r="E32" s="59">
         <v>7.5254110808692182E-2</v>
       </c>
-      <c r="F32" s="76">
+      <c r="F32" s="59">
         <v>4.022692362337088E-2</v>
       </c>
       <c r="G32" s="24"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="89"/>
-      <c r="K32" s="90"/>
-      <c r="L32" s="91"/>
-      <c r="M32" s="91"/>
-      <c r="N32" s="91"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="87"/>
+      <c r="K32" s="22"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B33" s="3"/>
@@ -21002,13 +22275,15 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="H30:H32"/>
     <mergeCell ref="I30:I32"/>
@@ -21018,6 +22293,13 @@
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="H24:H26"/>
     <mergeCell ref="I24:I26"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:I29"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="H15:H17"/>
     <mergeCell ref="I15:I17"/>
@@ -21027,17 +22309,108 @@
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="H9:H11"/>
     <mergeCell ref="I9:I11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="C3:F3">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:F6">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:F9">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:F12">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:F15">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:F18">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:F21">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:F24">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:F27">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30:F30">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G6">
     <cfRule type="colorScale" priority="25">
       <colorScale>
@@ -21108,8 +22481,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H32">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H6:H32">
     <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I32">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -21212,132 +22609,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H32">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I32">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:F3">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6:F6">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9:F9">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12:F12">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:F15">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18:F18">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21:F21">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24:F24">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27:F27">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30:F30">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Experiment-Data/Answer-Data.xlsx
+++ b/Experiment-Data/Answer-Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\eye-tracking-software\Experiment-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C04971-814A-407D-AC8F-BD3E062578EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F43EA5-E671-4DEC-8D13-F245AF1A13D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="685" activeTab="7" xr2:uid="{65F65776-174E-4145-8CCF-AA6B8A50F68A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="685" activeTab="5" xr2:uid="{65F65776-174E-4145-8CCF-AA6B8A50F68A}"/>
   </bookViews>
   <sheets>
     <sheet name="1st-Scores" sheetId="1" r:id="rId1"/>
@@ -235,7 +235,7 @@
     <numFmt numFmtId="177" formatCode="0.000_ "/>
     <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -825,16 +825,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -844,6 +841,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -858,16 +864,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -877,9 +880,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -900,11 +900,11 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1955,7 +1955,7 @@
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" kern="1200">
               <a:latin typeface="+mj-lt"/>
             </a:rPr>
-            <a:t>67.14</a:t>
+            <a:t>39.17</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" kern="1200">
@@ -2109,7 +2109,7 @@
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" kern="1200">
               <a:latin typeface="+mj-lt"/>
             </a:rPr>
-            <a:t>39.16</a:t>
+            <a:t>67.14</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" kern="1200">
@@ -3572,306 +3572,346 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>21067</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="11" name="グループ化 10">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{777546E7-D747-949D-041D-CD6A09852F65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B542BCB6-88F2-295B-23A6-42CE78B11498}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="7743264" y="627529"/>
           <a:ext cx="7772400" cy="6217920"/>
-          <a:chOff x="8258735" y="638735"/>
-          <a:chExt cx="7772400" cy="6217920"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="10" name="図 9">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B542BCB6-88F2-295B-23A6-42CE78B11498}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8258735" y="638735"/>
-            <a:ext cx="7772400" cy="6217920"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="四角形: 角を丸くする 4">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBB96263-2085-BDD8-8E67-950E74CEE09B}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9838765" y="3496234"/>
-            <a:ext cx="918882" cy="336178"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" kern="1200">
-                <a:latin typeface="+mj-lt"/>
-              </a:rPr>
-              <a:t>86.25</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" kern="1200">
-                <a:latin typeface="+mj-lt"/>
-              </a:rPr>
-              <a:t>％</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="四角形: 角を丸くする 5">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D35D760C-4689-DEAA-9014-B830DC297BA4}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="13352928" y="5183841"/>
-            <a:ext cx="806107" cy="358589"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent3"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" kern="1200">
-                <a:latin typeface="+mj-lt"/>
-              </a:rPr>
-              <a:t>90</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" kern="1200">
-                <a:latin typeface="+mj-lt"/>
-              </a:rPr>
-              <a:t>％</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="四角形: 角を丸くする 6">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00CF1CC0-DA2A-D64E-5C9A-33A0F2F8935F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="13830299" y="2960595"/>
-            <a:ext cx="727666" cy="358589"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="accent2"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" kern="1200">
-                <a:latin typeface="+mj-lt"/>
-              </a:rPr>
-              <a:t>79</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" kern="1200">
-                <a:latin typeface="+mj-lt"/>
-              </a:rPr>
-              <a:t>％</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="四角形: 角を丸くする 7">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E583BD73-5143-3260-C544-D3F068FF7A9D}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="12729882" y="4022911"/>
-            <a:ext cx="930089" cy="358588"/>
-          </a:xfrm>
-          <a:prstGeom prst="roundRect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="C00000"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="15000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" kern="1200">
-                <a:latin typeface="+mj-lt"/>
-              </a:rPr>
-              <a:t>61.67</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" kern="1200">
-                <a:latin typeface="+mj-lt"/>
-              </a:rPr>
-              <a:t>％</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>649941</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>201705</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形: 角を丸くする 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBB96263-2085-BDD8-8E67-950E74CEE09B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9323294" y="3485028"/>
+          <a:ext cx="918882" cy="336178"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" kern="1200">
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>86.25</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>％</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>62751</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>230841</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>185299</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>118783</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="四角形: 角を丸くする 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D35D760C-4689-DEAA-9014-B830DC297BA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12837457" y="5172635"/>
+          <a:ext cx="806107" cy="358589"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" kern="1200">
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>90</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>％</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>540122</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>125507</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584229</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>13449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="四角形: 角を丸くする 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00CF1CC0-DA2A-D64E-5C9A-33A0F2F8935F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13314828" y="2949389"/>
+          <a:ext cx="727666" cy="358589"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" kern="1200">
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>79</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>％</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>123264</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>369794</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>134469</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="四角形: 角を丸くする 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E583BD73-5143-3260-C544-D3F068FF7A9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12214411" y="4011705"/>
+          <a:ext cx="930089" cy="358588"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" kern="1200">
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>61.67</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" kern="1200">
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>％</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
@@ -4756,7 +4796,7 @@
       <selection activeCell="BB31" sqref="BB31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10" style="3" customWidth="1"/>
     <col min="2" max="3" width="4.25" style="3" customWidth="1"/>
@@ -4776,7 +4816,7 @@
     <col min="52" max="52" width="6.125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="8" customFormat="1" ht="22.5" customHeight="1">
+    <row r="1" spans="1:52" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -4873,7 +4913,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:52" s="8" customFormat="1" ht="12">
+    <row r="2" spans="1:52" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -4986,7 +5026,7 @@
       <c r="AY2" s="5"/>
       <c r="AZ2" s="5"/>
     </row>
-    <row r="3" spans="1:52">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -5141,7 +5181,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:52">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.4">
       <c r="C4" s="3">
         <v>2</v>
       </c>
@@ -5278,7 +5318,7 @@
         <v>0.52499999999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:52">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.4">
       <c r="F5" s="12"/>
       <c r="G5" s="16">
         <f>(COUNTIF(G3:G4,"○"))/2</f>
@@ -5373,7 +5413,7 @@
       <c r="AR5" s="1"/>
       <c r="AZ5" s="12"/>
     </row>
-    <row r="6" spans="1:52">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -5519,7 +5559,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="7" spans="1:52">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.4">
       <c r="C7" s="3">
         <v>2</v>
       </c>
@@ -5656,7 +5696,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:52">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.4">
       <c r="C8" s="3">
         <v>3</v>
       </c>
@@ -5793,7 +5833,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="9" spans="1:52">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.4">
       <c r="C9" s="3">
         <v>4</v>
       </c>
@@ -5930,7 +5970,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:52">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.4">
       <c r="C10" s="3">
         <v>5</v>
       </c>
@@ -6067,7 +6107,7 @@
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:52">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.4">
       <c r="C11" s="3">
         <v>6</v>
       </c>
@@ -6204,7 +6244,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:52">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.4">
       <c r="C12" s="3">
         <v>7</v>
       </c>
@@ -6341,7 +6381,7 @@
         <v>0.67500000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:52">
+    <row r="13" spans="1:52" x14ac:dyDescent="0.4">
       <c r="C13" s="3">
         <v>8</v>
       </c>
@@ -6478,7 +6518,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:52">
+    <row r="14" spans="1:52" x14ac:dyDescent="0.4">
       <c r="C14" s="3">
         <v>9</v>
       </c>
@@ -6615,7 +6655,7 @@
         <v>0.72500000000000009</v>
       </c>
     </row>
-    <row r="15" spans="1:52">
+    <row r="15" spans="1:52" x14ac:dyDescent="0.4">
       <c r="C15" s="3">
         <v>10</v>
       </c>
@@ -6752,7 +6792,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="16" spans="1:52">
+    <row r="16" spans="1:52" x14ac:dyDescent="0.4">
       <c r="F16" s="12"/>
       <c r="G16" s="16">
         <f>(COUNTIF(G6:G15,"○"))/10</f>
@@ -6847,7 +6887,7 @@
       <c r="AR16" s="1"/>
       <c r="AZ16" s="12"/>
     </row>
-    <row r="17" spans="1:52">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>3</v>
       </c>
@@ -6993,7 +7033,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:52">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.4">
       <c r="C18" s="3">
         <v>2</v>
       </c>
@@ -7130,7 +7170,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="19" spans="1:52">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.4">
       <c r="C19" s="3">
         <v>3</v>
       </c>
@@ -7267,7 +7307,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:52">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.4">
       <c r="C20" s="3">
         <v>4</v>
       </c>
@@ -7404,7 +7444,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="21" spans="1:52">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.4">
       <c r="C21" s="3">
         <v>5</v>
       </c>
@@ -7541,7 +7581,7 @@
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:52">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.4">
       <c r="C22" s="3">
         <v>6</v>
       </c>
@@ -7678,7 +7718,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:52">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.4">
       <c r="C23" s="3">
         <v>7</v>
       </c>
@@ -7815,7 +7855,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="24" spans="1:52">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.4">
       <c r="C24" s="3">
         <v>8</v>
       </c>
@@ -7952,7 +7992,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="25" spans="1:52">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.4">
       <c r="C25" s="3">
         <v>9</v>
       </c>
@@ -8089,7 +8129,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:52">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.4">
       <c r="C26" s="3">
         <v>10</v>
       </c>
@@ -8226,7 +8266,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:52">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.4">
       <c r="C27" s="3">
         <v>11</v>
       </c>
@@ -8363,7 +8403,7 @@
         <v>0.52500000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:52">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.4">
       <c r="C28" s="3">
         <v>12</v>
       </c>
@@ -8500,7 +8540,7 @@
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:52">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.4">
       <c r="C29" s="3">
         <v>13</v>
       </c>
@@ -8637,7 +8677,7 @@
         <v>0.39999999999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:52">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.4">
       <c r="C30" s="3">
         <v>14</v>
       </c>
@@ -8774,7 +8814,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:52">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.4">
       <c r="F31" s="5"/>
       <c r="G31" s="15">
         <f>(COUNTIF(G17:G30,"○"))/14</f>
@@ -8907,7 +8947,7 @@
       </c>
       <c r="AZ31" s="12"/>
     </row>
-    <row r="32" spans="1:52">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
         <v>19</v>
       </c>
@@ -8988,7 +9028,7 @@
       </c>
       <c r="AZ32" s="12"/>
     </row>
-    <row r="33" spans="1:51">
+    <row r="33" spans="1:51" x14ac:dyDescent="0.4">
       <c r="C33" s="3">
         <v>2</v>
       </c>
@@ -9064,7 +9104,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="34" spans="1:51">
+    <row r="34" spans="1:51" x14ac:dyDescent="0.4">
       <c r="C34" s="3">
         <v>3</v>
       </c>
@@ -9130,7 +9170,7 @@
         <v>0.66249999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:51">
+    <row r="35" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
         <v>20</v>
       </c>
@@ -9196,7 +9236,7 @@
         <v>0.65999999999999992</v>
       </c>
     </row>
-    <row r="36" spans="1:51">
+    <row r="36" spans="1:51" x14ac:dyDescent="0.4">
       <c r="AC36" s="3" t="s">
         <v>6</v>
       </c>
@@ -9250,7 +9290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:51">
+    <row r="37" spans="1:51" x14ac:dyDescent="0.4">
       <c r="AI37" s="15">
         <f>(COUNTIF(AI3:AI36,"○")/32)</f>
         <v>1</v>
@@ -9307,7 +9347,7 @@
         <v>2.1018964651000279E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:51">
+    <row r="38" spans="1:51" x14ac:dyDescent="0.4">
       <c r="AB38" s="3" t="s">
         <v>19</v>
       </c>
@@ -9327,7 +9367,7 @@
         <v>0.87000000000000011</v>
       </c>
     </row>
-    <row r="39" spans="1:51">
+    <row r="39" spans="1:51" x14ac:dyDescent="0.4">
       <c r="AD39" s="3">
         <v>2</v>
       </c>
@@ -9345,7 +9385,7 @@
       </c>
       <c r="AH39" s="12"/>
     </row>
-    <row r="40" spans="1:51">
+    <row r="40" spans="1:51" x14ac:dyDescent="0.4">
       <c r="AD40" s="3">
         <v>3</v>
       </c>
@@ -9358,7 +9398,7 @@
         <v>0.91428571428571426</v>
       </c>
     </row>
-    <row r="41" spans="1:51">
+    <row r="41" spans="1:51" x14ac:dyDescent="0.4">
       <c r="AD41" s="3">
         <v>4</v>
       </c>
@@ -9367,7 +9407,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="42" spans="1:51">
+    <row r="42" spans="1:51" x14ac:dyDescent="0.4">
       <c r="AB42" s="3" t="s">
         <v>20</v>
       </c>
@@ -9404,7 +9444,7 @@
       <selection pane="topRight" activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="24.375" style="3" customWidth="1"/>
     <col min="2" max="5" width="10" customWidth="1"/>
@@ -9413,27 +9453,27 @@
     <col min="9" max="9" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A1" s="144" t="s">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="139" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="141" t="s">
+      <c r="B1" s="139"/>
+      <c r="C1" s="142" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
       <c r="F1" s="25"/>
-      <c r="G1" s="126" t="s">
+      <c r="G1" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="133"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A2" s="137" t="s">
+      <c r="H1" s="135"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="137"/>
+      <c r="B2" s="132"/>
       <c r="C2" s="75">
         <v>3</v>
       </c>
@@ -9451,8 +9491,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A3" s="139" t="s">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="133" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="27" t="s">
@@ -9468,15 +9508,15 @@
         <v>295.16666700000002</v>
       </c>
       <c r="F3" s="25"/>
-      <c r="G3" s="129">
+      <c r="G3" s="127">
         <v>-0.188448</v>
       </c>
-      <c r="H3" s="131">
+      <c r="H3" s="130">
         <v>0.54788800000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A4" s="139"/>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="133"/>
       <c r="B4" s="21" t="s">
         <v>32</v>
       </c>
@@ -9490,10 +9530,10 @@
         <v>45.984417654244574</v>
       </c>
       <c r="F4" s="22"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="128"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1">
+      <c r="G4" s="128"/>
+      <c r="H4" s="126"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="140"/>
       <c r="B5" s="23" t="s">
         <v>34</v>
@@ -9511,11 +9551,11 @@
         <v>0.15579136398299531</v>
       </c>
       <c r="F5" s="24"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="132"/>
-    </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A6" s="138" t="s">
+      <c r="G5" s="129"/>
+      <c r="H5" s="131"/>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="141" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="28" t="s">
@@ -9531,15 +9571,15 @@
         <v>1165.094081</v>
       </c>
       <c r="F6" s="22"/>
-      <c r="G6" s="127">
+      <c r="G6" s="128">
         <v>0.503328</v>
       </c>
-      <c r="H6" s="128">
+      <c r="H6" s="126">
         <v>-4.8842999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A7" s="139"/>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="133"/>
       <c r="B7" s="29" t="s">
         <v>17</v>
       </c>
@@ -9553,10 +9593,10 @@
         <v>120.80618517691882</v>
       </c>
       <c r="F7" s="22"/>
-      <c r="G7" s="127"/>
-      <c r="H7" s="128"/>
-    </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1">
+      <c r="G7" s="128"/>
+      <c r="H7" s="126"/>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="140"/>
       <c r="B8" s="23" t="s">
         <v>33</v>
@@ -9574,11 +9614,11 @@
         <v>0.10368792284416285</v>
       </c>
       <c r="F8" s="22"/>
-      <c r="G8" s="127"/>
-      <c r="H8" s="128"/>
-    </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A9" s="138" t="s">
+      <c r="G8" s="128"/>
+      <c r="H8" s="126"/>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="141" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="28" t="s">
@@ -9594,15 +9634,15 @@
         <v>1078.5</v>
       </c>
       <c r="F9" s="25"/>
-      <c r="G9" s="129">
+      <c r="G9" s="127">
         <v>-0.221611</v>
       </c>
-      <c r="H9" s="131">
+      <c r="H9" s="130">
         <v>0.53761899999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A10" s="139"/>
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="133"/>
       <c r="B10" s="29" t="s">
         <v>17</v>
       </c>
@@ -9616,10 +9656,10 @@
         <v>258.54109924729568</v>
       </c>
       <c r="F10" s="22"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="128"/>
-    </row>
-    <row r="11" spans="1:8" ht="18.75" customHeight="1">
+      <c r="G10" s="128"/>
+      <c r="H10" s="126"/>
+    </row>
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="140"/>
       <c r="B11" s="31" t="s">
         <v>33</v>
@@ -9637,11 +9677,11 @@
         <v>0.23972285512034833</v>
       </c>
       <c r="F11" s="24"/>
-      <c r="G11" s="130"/>
-      <c r="H11" s="132"/>
-    </row>
-    <row r="12" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A12" s="138" t="s">
+      <c r="G11" s="129"/>
+      <c r="H11" s="131"/>
+    </row>
+    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="141" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="28" t="s">
@@ -9657,15 +9697,15 @@
         <v>13.026258</v>
       </c>
       <c r="F12" s="22"/>
-      <c r="G12" s="127">
+      <c r="G12" s="128">
         <v>-0.32667400000000002</v>
       </c>
-      <c r="H12" s="128">
+      <c r="H12" s="126">
         <v>-0.13261100000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A13" s="139"/>
+    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="133"/>
       <c r="B13" s="29" t="s">
         <v>17</v>
       </c>
@@ -9679,10 +9719,10 @@
         <v>1.1520512141393715</v>
       </c>
       <c r="F13" s="22"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="128"/>
-    </row>
-    <row r="14" spans="1:8" ht="18.75" customHeight="1">
+      <c r="G13" s="128"/>
+      <c r="H13" s="126"/>
+    </row>
+    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="140"/>
       <c r="B14" s="31" t="s">
         <v>33</v>
@@ -9700,11 +9740,11 @@
         <v>8.8440687581911204E-2</v>
       </c>
       <c r="F14" s="22"/>
-      <c r="G14" s="127"/>
-      <c r="H14" s="128"/>
-    </row>
-    <row r="15" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A15" s="139" t="s">
+      <c r="G14" s="128"/>
+      <c r="H14" s="126"/>
+    </row>
+    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="133" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -9720,15 +9760,15 @@
         <v>290.23841599999997</v>
       </c>
       <c r="F15" s="25"/>
-      <c r="G15" s="129">
+      <c r="G15" s="127">
         <v>0.51528499999999999</v>
       </c>
-      <c r="H15" s="131">
+      <c r="H15" s="130">
         <v>1.5509E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A16" s="139"/>
+    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="133"/>
       <c r="B16" s="29" t="s">
         <v>17</v>
       </c>
@@ -9742,11 +9782,11 @@
         <v>33.816063239235881</v>
       </c>
       <c r="F16" s="22"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="128"/>
-    </row>
-    <row r="17" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A17" s="139"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="126"/>
+    </row>
+    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="133"/>
       <c r="B17" s="29" t="s">
         <v>33</v>
       </c>
@@ -9763,11 +9803,11 @@
         <v>0.11651132784309257</v>
       </c>
       <c r="F17" s="24"/>
-      <c r="G17" s="130"/>
-      <c r="H17" s="132"/>
-    </row>
-    <row r="18" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A18" s="138" t="s">
+      <c r="G17" s="129"/>
+      <c r="H17" s="131"/>
+    </row>
+    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="141" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="28" t="s">
@@ -9783,15 +9823,15 @@
         <v>1328.2708680000001</v>
       </c>
       <c r="F18" s="22"/>
-      <c r="G18" s="127">
+      <c r="G18" s="128">
         <v>0.212811</v>
       </c>
-      <c r="H18" s="128">
+      <c r="H18" s="126">
         <v>0.184026</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A19" s="139"/>
+    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="133"/>
       <c r="B19" s="29" t="s">
         <v>17</v>
       </c>
@@ -9805,10 +9845,10 @@
         <v>185.2619838175118</v>
       </c>
       <c r="F19" s="22"/>
-      <c r="G19" s="127"/>
-      <c r="H19" s="128"/>
-    </row>
-    <row r="20" spans="1:8" ht="18.75" customHeight="1">
+      <c r="G19" s="128"/>
+      <c r="H19" s="126"/>
+    </row>
+    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="140"/>
       <c r="B20" s="31" t="s">
         <v>33</v>
@@ -9826,11 +9866,11 @@
         <v>0.13947605739216723</v>
       </c>
       <c r="F20" s="22"/>
-      <c r="G20" s="127"/>
-      <c r="H20" s="128"/>
-    </row>
-    <row r="21" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A21" s="139" t="s">
+      <c r="G20" s="128"/>
+      <c r="H20" s="126"/>
+    </row>
+    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="133" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="27" t="s">
@@ -9846,15 +9886,15 @@
         <v>436.16804999999999</v>
       </c>
       <c r="F21" s="25"/>
-      <c r="G21" s="129">
+      <c r="G21" s="127">
         <v>0.42631999999999998</v>
       </c>
-      <c r="H21" s="131">
+      <c r="H21" s="130">
         <v>3.6583999999999998E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A22" s="139"/>
+    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="133"/>
       <c r="B22" s="29" t="s">
         <v>17</v>
       </c>
@@ -9868,11 +9908,11 @@
         <v>26.527001828325794</v>
       </c>
       <c r="F22" s="22"/>
-      <c r="G22" s="127"/>
-      <c r="H22" s="128"/>
-    </row>
-    <row r="23" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A23" s="139"/>
+      <c r="G22" s="128"/>
+      <c r="H22" s="126"/>
+    </row>
+    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="133"/>
       <c r="B23" s="29" t="s">
         <v>33</v>
       </c>
@@ -9889,11 +9929,11 @@
         <v>6.0818305761565515E-2</v>
       </c>
       <c r="F23" s="24"/>
-      <c r="G23" s="130"/>
-      <c r="H23" s="132"/>
-    </row>
-    <row r="24" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A24" s="138" t="s">
+      <c r="G23" s="129"/>
+      <c r="H23" s="131"/>
+    </row>
+    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="141" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="28" t="s">
@@ -9909,15 +9949,15 @@
         <v>149.374664</v>
       </c>
       <c r="F24" s="22"/>
-      <c r="G24" s="127">
+      <c r="G24" s="128">
         <v>0.17419599999999999</v>
       </c>
-      <c r="H24" s="128">
+      <c r="H24" s="126">
         <v>0.53308299999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A25" s="139"/>
+    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="133"/>
       <c r="B25" s="29" t="s">
         <v>17</v>
       </c>
@@ -9931,10 +9971,10 @@
         <v>25.510562851493496</v>
       </c>
       <c r="F25" s="22"/>
-      <c r="G25" s="127"/>
-      <c r="H25" s="128"/>
-    </row>
-    <row r="26" spans="1:8" ht="18.75" customHeight="1">
+      <c r="G25" s="128"/>
+      <c r="H25" s="126"/>
+    </row>
+    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="140"/>
       <c r="B26" s="31" t="s">
         <v>33</v>
@@ -9952,11 +9992,11 @@
         <v>0.17078239487449826</v>
       </c>
       <c r="F26" s="22"/>
-      <c r="G26" s="127"/>
-      <c r="H26" s="128"/>
-    </row>
-    <row r="27" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A27" s="134" t="s">
+      <c r="G26" s="128"/>
+      <c r="H26" s="126"/>
+    </row>
+    <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="136" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="28" t="s">
@@ -9972,15 +10012,15 @@
         <v>0.95097100000000001</v>
       </c>
       <c r="F27" s="25"/>
-      <c r="G27" s="129">
+      <c r="G27" s="127">
         <v>-0.18006</v>
       </c>
-      <c r="H27" s="131">
+      <c r="H27" s="130">
         <v>-0.26681700000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A28" s="135"/>
+    <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="137"/>
       <c r="B28" s="29" t="s">
         <v>17</v>
       </c>
@@ -9994,11 +10034,11 @@
         <v>1.0488088481701515E-2</v>
       </c>
       <c r="F28" s="22"/>
-      <c r="G28" s="127"/>
-      <c r="H28" s="128"/>
-    </row>
-    <row r="29" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A29" s="136"/>
+      <c r="G28" s="128"/>
+      <c r="H28" s="126"/>
+    </row>
+    <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="138"/>
       <c r="B29" s="31" t="s">
         <v>33</v>
       </c>
@@ -10015,14 +10055,14 @@
         <v>1.1028820523130058E-2</v>
       </c>
       <c r="F29" s="24"/>
-      <c r="G29" s="130"/>
-      <c r="H29" s="132"/>
-    </row>
-    <row r="30" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A30" s="137" t="s">
+      <c r="G29" s="129"/>
+      <c r="H29" s="131"/>
+    </row>
+    <row r="30" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="137"/>
+      <c r="B30" s="132"/>
       <c r="C30" s="67">
         <v>0.54</v>
       </c>
@@ -10036,7 +10076,7 @@
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -10045,7 +10085,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -10054,7 +10094,7 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -10063,27 +10103,27 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="141" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A34" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="133"/>
-      <c r="C34" s="141" t="s">
+      <c r="B34" s="135"/>
+      <c r="C34" s="142" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="126"/>
-      <c r="E34" s="126"/>
+      <c r="D34" s="134"/>
+      <c r="E34" s="134"/>
       <c r="F34" s="25"/>
-      <c r="G34" s="126" t="s">
+      <c r="G34" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="H34" s="133"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="142" t="s">
+      <c r="H34" s="135"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A35" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="143"/>
+      <c r="B35" s="144"/>
       <c r="C35" s="75">
         <v>3</v>
       </c>
@@ -10101,8 +10141,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="139" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A36" s="133" t="s">
         <v>23</v>
       </c>
       <c r="B36" s="27" t="s">
@@ -10118,15 +10158,15 @@
         <v>170.75</v>
       </c>
       <c r="F36" s="25"/>
-      <c r="G36" s="129">
+      <c r="G36" s="127">
         <v>0.19814899999999999</v>
       </c>
-      <c r="H36" s="131">
+      <c r="H36" s="130">
         <v>0.554253</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="139"/>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A37" s="133"/>
       <c r="B37" s="21" t="s">
         <v>32</v>
       </c>
@@ -10140,10 +10180,10 @@
         <v>18.304956405301816</v>
       </c>
       <c r="F37" s="22"/>
-      <c r="G37" s="127"/>
-      <c r="H37" s="128"/>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="G37" s="128"/>
+      <c r="H37" s="126"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="140"/>
       <c r="B38" s="23" t="s">
         <v>34</v>
@@ -10161,11 +10201,11 @@
         <v>0.1072032585962039</v>
       </c>
       <c r="F38" s="24"/>
-      <c r="G38" s="130"/>
-      <c r="H38" s="132"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="138" t="s">
+      <c r="G38" s="129"/>
+      <c r="H38" s="131"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A39" s="141" t="s">
         <v>24</v>
       </c>
       <c r="B39" s="28" t="s">
@@ -10181,15 +10221,15 @@
         <v>1066.667138</v>
       </c>
       <c r="F39" s="22"/>
-      <c r="G39" s="127">
+      <c r="G39" s="128">
         <v>0.38675100000000001</v>
       </c>
-      <c r="H39" s="128">
+      <c r="H39" s="126">
         <v>-0.30294199999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="139"/>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A40" s="133"/>
       <c r="B40" s="29" t="s">
         <v>17</v>
       </c>
@@ -10203,10 +10243,10 @@
         <v>154.17636012048021</v>
       </c>
       <c r="F40" s="22"/>
-      <c r="G40" s="127"/>
-      <c r="H40" s="128"/>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="G40" s="128"/>
+      <c r="H40" s="126"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" s="140"/>
       <c r="B41" s="23" t="s">
         <v>33</v>
@@ -10224,11 +10264,11 @@
         <v>0.14454027374421674</v>
       </c>
       <c r="F41" s="22"/>
-      <c r="G41" s="127"/>
-      <c r="H41" s="128"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="138" t="s">
+      <c r="G41" s="128"/>
+      <c r="H41" s="126"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A42" s="141" t="s">
         <v>25</v>
       </c>
       <c r="B42" s="28" t="s">
@@ -10244,15 +10284,15 @@
         <v>613.25</v>
       </c>
       <c r="F42" s="25"/>
-      <c r="G42" s="129">
+      <c r="G42" s="127">
         <v>0.173847</v>
       </c>
-      <c r="H42" s="131">
+      <c r="H42" s="130">
         <v>0.57918999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="139"/>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A43" s="133"/>
       <c r="B43" s="29" t="s">
         <v>17</v>
       </c>
@@ -10266,10 +10306,10 @@
         <v>50.024993753123049</v>
       </c>
       <c r="F43" s="22"/>
-      <c r="G43" s="127"/>
-      <c r="H43" s="128"/>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="G43" s="128"/>
+      <c r="H43" s="126"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="140"/>
       <c r="B44" s="31" t="s">
         <v>33</v>
@@ -10287,11 +10327,11 @@
         <v>8.1573573180795833E-2</v>
       </c>
       <c r="F44" s="24"/>
-      <c r="G44" s="130"/>
-      <c r="H44" s="132"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="138" t="s">
+      <c r="G44" s="129"/>
+      <c r="H44" s="131"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A45" s="141" t="s">
         <v>26</v>
       </c>
       <c r="B45" s="28" t="s">
@@ -10307,15 +10347,15 @@
         <v>12.416684999999999</v>
       </c>
       <c r="F45" s="22"/>
-      <c r="G45" s="127">
+      <c r="G45" s="128">
         <v>-0.25663200000000003</v>
       </c>
-      <c r="H45" s="128">
+      <c r="H45" s="126">
         <v>0.23480300000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="139"/>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A46" s="133"/>
       <c r="B46" s="29" t="s">
         <v>17</v>
       </c>
@@ -10329,10 +10369,10 @@
         <v>0.62217280557735732</v>
       </c>
       <c r="F46" s="22"/>
-      <c r="G46" s="127"/>
-      <c r="H46" s="128"/>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="G46" s="128"/>
+      <c r="H46" s="126"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="140"/>
       <c r="B47" s="31" t="s">
         <v>33</v>
@@ -10350,11 +10390,11 @@
         <v>5.0107802974574726E-2</v>
       </c>
       <c r="F47" s="22"/>
-      <c r="G47" s="127"/>
-      <c r="H47" s="128"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="139" t="s">
+      <c r="G47" s="128"/>
+      <c r="H47" s="126"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A48" s="133" t="s">
         <v>27</v>
       </c>
       <c r="B48" s="27" t="s">
@@ -10370,15 +10410,15 @@
         <v>271.35037599999998</v>
       </c>
       <c r="F48" s="25"/>
-      <c r="G48" s="129">
+      <c r="G48" s="127">
         <v>0.423954</v>
       </c>
-      <c r="H48" s="131">
+      <c r="H48" s="130">
         <v>-0.33226099999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="139"/>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A49" s="133"/>
       <c r="B49" s="29" t="s">
         <v>17</v>
       </c>
@@ -10392,11 +10432,11 @@
         <v>53.314599041913468</v>
       </c>
       <c r="F49" s="22"/>
-      <c r="G49" s="127"/>
-      <c r="H49" s="128"/>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="139"/>
+      <c r="G49" s="128"/>
+      <c r="H49" s="126"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A50" s="133"/>
       <c r="B50" s="29" t="s">
         <v>33</v>
       </c>
@@ -10413,11 +10453,11 @@
         <v>0.19647881026674335</v>
       </c>
       <c r="F50" s="24"/>
-      <c r="G50" s="130"/>
-      <c r="H50" s="132"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="138" t="s">
+      <c r="G50" s="129"/>
+      <c r="H50" s="131"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A51" s="141" t="s">
         <v>30</v>
       </c>
       <c r="B51" s="28" t="s">
@@ -10433,15 +10473,15 @@
         <v>1183.321686</v>
       </c>
       <c r="F51" s="22"/>
-      <c r="G51" s="127">
+      <c r="G51" s="128">
         <v>0.415715</v>
       </c>
-      <c r="H51" s="128">
+      <c r="H51" s="126">
         <v>-1.6017E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="139"/>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A52" s="133"/>
       <c r="B52" s="29" t="s">
         <v>17</v>
       </c>
@@ -10455,10 +10495,10 @@
         <v>153.79639008117195</v>
       </c>
       <c r="F52" s="22"/>
-      <c r="G52" s="127"/>
-      <c r="H52" s="128"/>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="G52" s="128"/>
+      <c r="H52" s="126"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" s="140"/>
       <c r="B53" s="31" t="s">
         <v>33</v>
@@ -10476,11 +10516,11 @@
         <v>0.12997005962178568</v>
       </c>
       <c r="F53" s="22"/>
-      <c r="G53" s="127"/>
-      <c r="H53" s="128"/>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="139" t="s">
+      <c r="G53" s="128"/>
+      <c r="H53" s="126"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A54" s="133" t="s">
         <v>31</v>
       </c>
       <c r="B54" s="27" t="s">
@@ -10496,15 +10536,15 @@
         <v>505.92089199999998</v>
       </c>
       <c r="F54" s="25"/>
-      <c r="G54" s="129">
+      <c r="G54" s="127">
         <v>0.425207</v>
       </c>
-      <c r="H54" s="131">
+      <c r="H54" s="130">
         <v>-3.3320000000000002E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="139"/>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A55" s="133"/>
       <c r="B55" s="29" t="s">
         <v>17</v>
       </c>
@@ -10518,11 +10558,11 @@
         <v>32.017303868377176</v>
       </c>
       <c r="F55" s="22"/>
-      <c r="G55" s="127"/>
-      <c r="H55" s="128"/>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="139"/>
+      <c r="G55" s="128"/>
+      <c r="H55" s="126"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A56" s="133"/>
       <c r="B56" s="29" t="s">
         <v>33</v>
       </c>
@@ -10539,11 +10579,11 @@
         <v>6.3285198090568623E-2</v>
       </c>
       <c r="F56" s="24"/>
-      <c r="G56" s="130"/>
-      <c r="H56" s="132"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="138" t="s">
+      <c r="G56" s="129"/>
+      <c r="H56" s="131"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A57" s="141" t="s">
         <v>28</v>
       </c>
       <c r="B57" s="28" t="s">
@@ -10559,15 +10599,15 @@
         <v>86.171711999999999</v>
       </c>
       <c r="F57" s="22"/>
-      <c r="G57" s="127">
+      <c r="G57" s="128">
         <v>0.424012</v>
       </c>
-      <c r="H57" s="128">
+      <c r="H57" s="126">
         <v>0.291018</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="139"/>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A58" s="133"/>
       <c r="B58" s="29" t="s">
         <v>17</v>
       </c>
@@ -10581,10 +10621,10 @@
         <v>8.076926890841591</v>
       </c>
       <c r="F58" s="22"/>
-      <c r="G58" s="127"/>
-      <c r="H58" s="128"/>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="G58" s="128"/>
+      <c r="H58" s="126"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59" s="140"/>
       <c r="B59" s="31" t="s">
         <v>33</v>
@@ -10602,11 +10642,11 @@
         <v>9.3730607218777212E-2</v>
       </c>
       <c r="F59" s="22"/>
-      <c r="G59" s="127"/>
-      <c r="H59" s="128"/>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="134" t="s">
+      <c r="G59" s="128"/>
+      <c r="H59" s="126"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A60" s="136" t="s">
         <v>29</v>
       </c>
       <c r="B60" s="28" t="s">
@@ -10622,15 +10662,15 @@
         <v>0.96520300000000003</v>
       </c>
       <c r="F60" s="25"/>
-      <c r="G60" s="129">
+      <c r="G60" s="127">
         <v>-4.3986999999999998E-2</v>
       </c>
-      <c r="H60" s="131">
+      <c r="H60" s="130">
         <v>-0.118243</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="135"/>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A61" s="137"/>
       <c r="B61" s="29" t="s">
         <v>17</v>
       </c>
@@ -10644,11 +10684,11 @@
         <v>1.5132745950421557E-2</v>
       </c>
       <c r="F61" s="22"/>
-      <c r="G61" s="127"/>
-      <c r="H61" s="128"/>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="136"/>
+      <c r="G61" s="128"/>
+      <c r="H61" s="126"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A62" s="138"/>
       <c r="B62" s="31" t="s">
         <v>33</v>
       </c>
@@ -10665,14 +10705,14 @@
         <v>1.5678303890913681E-2</v>
       </c>
       <c r="F62" s="24"/>
-      <c r="G62" s="130"/>
-      <c r="H62" s="132"/>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="137" t="s">
+      <c r="G62" s="129"/>
+      <c r="H62" s="131"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A63" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="B63" s="137"/>
+      <c r="B63" s="132"/>
       <c r="C63" s="67">
         <v>0.91</v>
       </c>
@@ -10686,27 +10726,27 @@
       <c r="G63" s="22"/>
       <c r="H63" s="22"/>
     </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="141" t="s">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A67" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="B67" s="126"/>
-      <c r="C67" s="126" t="s">
+      <c r="B67" s="134"/>
+      <c r="C67" s="134" t="s">
         <v>39</v>
       </c>
-      <c r="D67" s="126"/>
-      <c r="E67" s="126"/>
+      <c r="D67" s="134"/>
+      <c r="E67" s="134"/>
       <c r="F67" s="25"/>
-      <c r="G67" s="126" t="s">
+      <c r="G67" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="H67" s="133"/>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="142" t="s">
+      <c r="H67" s="135"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A68" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="B68" s="137"/>
+      <c r="B68" s="132"/>
       <c r="C68" s="37">
         <v>3</v>
       </c>
@@ -10724,8 +10764,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="139" t="s">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A69" s="133" t="s">
         <v>23</v>
       </c>
       <c r="B69" s="27" t="s">
@@ -10741,15 +10781,15 @@
         <v>300.2</v>
       </c>
       <c r="F69" s="25"/>
-      <c r="G69" s="129">
+      <c r="G69" s="127">
         <v>0.116947</v>
       </c>
-      <c r="H69" s="131">
+      <c r="H69" s="130">
         <v>0.586511</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="139"/>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A70" s="133"/>
       <c r="B70" s="29" t="s">
         <v>17</v>
       </c>
@@ -10763,10 +10803,10 @@
         <v>48.41435737464662</v>
       </c>
       <c r="F70" s="22"/>
-      <c r="G70" s="127"/>
-      <c r="H70" s="128"/>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="G70" s="128"/>
+      <c r="H70" s="126"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71" s="140"/>
       <c r="B71" s="23" t="s">
         <v>34</v>
@@ -10781,11 +10821,11 @@
         <v>0.16127367546517862</v>
       </c>
       <c r="F71" s="24"/>
-      <c r="G71" s="130"/>
-      <c r="H71" s="132"/>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="138" t="s">
+      <c r="G71" s="129"/>
+      <c r="H71" s="131"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A72" s="141" t="s">
         <v>24</v>
       </c>
       <c r="B72" s="28" t="s">
@@ -10801,15 +10841,15 @@
         <v>963.53767200000004</v>
       </c>
       <c r="F72" s="22"/>
-      <c r="G72" s="127">
+      <c r="G72" s="128">
         <v>0.40754400000000002</v>
       </c>
-      <c r="H72" s="128">
+      <c r="H72" s="126">
         <v>-0.32524999999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="139"/>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A73" s="133"/>
       <c r="B73" s="29" t="s">
         <v>17</v>
       </c>
@@ -10823,10 +10863,10 @@
         <v>68.108429918769971</v>
       </c>
       <c r="F73" s="22"/>
-      <c r="G73" s="127"/>
-      <c r="H73" s="128"/>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="G73" s="128"/>
+      <c r="H73" s="126"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" s="140"/>
       <c r="B74" s="23" t="s">
         <v>33</v>
@@ -10841,11 +10881,11 @@
         <v>7.0685798695756613E-2</v>
       </c>
       <c r="F74" s="22"/>
-      <c r="G74" s="127"/>
-      <c r="H74" s="128"/>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" s="138" t="s">
+      <c r="G74" s="128"/>
+      <c r="H74" s="126"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A75" s="141" t="s">
         <v>25</v>
       </c>
       <c r="B75" s="28" t="s">
@@ -10861,15 +10901,15 @@
         <v>1046.5999999999999</v>
       </c>
       <c r="F75" s="25"/>
-      <c r="G75" s="129">
+      <c r="G75" s="127">
         <v>0.104117</v>
       </c>
-      <c r="H75" s="131">
+      <c r="H75" s="130">
         <v>0.59194800000000003</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="139"/>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A76" s="133"/>
       <c r="B76" s="29" t="s">
         <v>17</v>
       </c>
@@ -10883,10 +10923,10 @@
         <v>103.40901798199226</v>
       </c>
       <c r="F76" s="22"/>
-      <c r="G76" s="127"/>
-      <c r="H76" s="128"/>
-    </row>
-    <row r="77" spans="1:8">
+      <c r="G76" s="128"/>
+      <c r="H76" s="126"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77" s="140"/>
       <c r="B77" s="31" t="s">
         <v>33</v>
@@ -10901,11 +10941,11 @@
         <v>9.8804718117707122E-2</v>
       </c>
       <c r="F77" s="24"/>
-      <c r="G77" s="130"/>
-      <c r="H77" s="132"/>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" s="138" t="s">
+      <c r="G77" s="129"/>
+      <c r="H77" s="131"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A78" s="141" t="s">
         <v>26</v>
       </c>
       <c r="B78" s="28" t="s">
@@ -10921,15 +10961,15 @@
         <v>12.494548</v>
       </c>
       <c r="F78" s="22"/>
-      <c r="G78" s="127">
+      <c r="G78" s="128">
         <v>-0.37856800000000002</v>
       </c>
-      <c r="H78" s="128">
+      <c r="H78" s="126">
         <v>3.4442E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
-      <c r="A79" s="139"/>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A79" s="133"/>
       <c r="B79" s="29" t="s">
         <v>17</v>
       </c>
@@ -10943,10 +10983,10 @@
         <v>0.30815255961941967</v>
       </c>
       <c r="F79" s="22"/>
-      <c r="G79" s="127"/>
-      <c r="H79" s="128"/>
-    </row>
-    <row r="80" spans="1:8">
+      <c r="G79" s="128"/>
+      <c r="H79" s="126"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A80" s="140"/>
       <c r="B80" s="31" t="s">
         <v>33</v>
@@ -10961,11 +11001,11 @@
         <v>2.4662961766957852E-2</v>
       </c>
       <c r="F80" s="22"/>
-      <c r="G80" s="127"/>
-      <c r="H80" s="128"/>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" s="139" t="s">
+      <c r="G80" s="128"/>
+      <c r="H80" s="126"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A81" s="133" t="s">
         <v>27</v>
       </c>
       <c r="B81" s="27" t="s">
@@ -10981,15 +11021,15 @@
         <v>255.87422000000001</v>
       </c>
       <c r="F81" s="25"/>
-      <c r="G81" s="129">
+      <c r="G81" s="127">
         <v>0.46002700000000002</v>
       </c>
-      <c r="H81" s="131">
+      <c r="H81" s="130">
         <v>-0.24843599999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
-      <c r="A82" s="139"/>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A82" s="133"/>
       <c r="B82" s="29" t="s">
         <v>17</v>
       </c>
@@ -11003,11 +11043,11 @@
         <v>21.723481534965799</v>
       </c>
       <c r="F82" s="22"/>
-      <c r="G82" s="127"/>
-      <c r="H82" s="128"/>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" s="139"/>
+      <c r="G82" s="128"/>
+      <c r="H82" s="126"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A83" s="133"/>
       <c r="B83" s="29" t="s">
         <v>33</v>
       </c>
@@ -11021,11 +11061,11 @@
         <v>8.4899063043419529E-2</v>
       </c>
       <c r="F83" s="24"/>
-      <c r="G83" s="130"/>
-      <c r="H83" s="132"/>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" s="138" t="s">
+      <c r="G83" s="129"/>
+      <c r="H83" s="131"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A84" s="141" t="s">
         <v>30</v>
       </c>
       <c r="B84" s="28" t="s">
@@ -11041,15 +11081,15 @@
         <v>1194.846669</v>
       </c>
       <c r="F84" s="22"/>
-      <c r="G84" s="127">
+      <c r="G84" s="128">
         <v>0.34604400000000002</v>
       </c>
-      <c r="H84" s="128">
+      <c r="H84" s="126">
         <v>6.3051999999999997E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="139"/>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A85" s="133"/>
       <c r="B85" s="29" t="s">
         <v>17</v>
       </c>
@@ -11063,10 +11103,10 @@
         <v>261.5197644557673</v>
       </c>
       <c r="F85" s="22"/>
-      <c r="G85" s="127"/>
-      <c r="H85" s="128"/>
-    </row>
-    <row r="86" spans="1:8">
+      <c r="G85" s="128"/>
+      <c r="H85" s="126"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86" s="140"/>
       <c r="B86" s="31" t="s">
         <v>33</v>
@@ -11081,11 +11121,11 @@
         <v>0.21887307488134888</v>
       </c>
       <c r="F86" s="22"/>
-      <c r="G86" s="127"/>
-      <c r="H86" s="128"/>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" s="139" t="s">
+      <c r="G86" s="128"/>
+      <c r="H86" s="126"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A87" s="133" t="s">
         <v>31</v>
       </c>
       <c r="B87" s="27" t="s">
@@ -11101,15 +11141,15 @@
         <v>451.04004400000002</v>
       </c>
       <c r="F87" s="25"/>
-      <c r="G87" s="129">
+      <c r="G87" s="127">
         <v>0.377942</v>
       </c>
-      <c r="H87" s="131">
+      <c r="H87" s="130">
         <v>-0.114192</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
-      <c r="A88" s="139"/>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A88" s="133"/>
       <c r="B88" s="29" t="s">
         <v>17</v>
       </c>
@@ -11123,11 +11163,11 @@
         <v>27.061307581120317</v>
       </c>
       <c r="F88" s="22"/>
-      <c r="G88" s="127"/>
-      <c r="H88" s="128"/>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" s="139"/>
+      <c r="G88" s="128"/>
+      <c r="H88" s="126"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A89" s="133"/>
       <c r="B89" s="29" t="s">
         <v>33</v>
       </c>
@@ -11141,11 +11181,11 @@
         <v>5.9997572147098131E-2</v>
       </c>
       <c r="F89" s="24"/>
-      <c r="G89" s="130"/>
-      <c r="H89" s="132"/>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" s="138" t="s">
+      <c r="G89" s="129"/>
+      <c r="H89" s="131"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A90" s="141" t="s">
         <v>28</v>
       </c>
       <c r="B90" s="28" t="s">
@@ -11161,15 +11201,15 @@
         <v>122.930104</v>
       </c>
       <c r="F90" s="22"/>
-      <c r="G90" s="127">
+      <c r="G90" s="128">
         <v>0.41509400000000002</v>
       </c>
-      <c r="H90" s="128">
+      <c r="H90" s="126">
         <v>0.31627899999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
-      <c r="A91" s="139"/>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A91" s="133"/>
       <c r="B91" s="29" t="s">
         <v>17</v>
       </c>
@@ -11183,10 +11223,10 @@
         <v>16.131675052517018</v>
       </c>
       <c r="F91" s="22"/>
-      <c r="G91" s="127"/>
-      <c r="H91" s="128"/>
-    </row>
-    <row r="92" spans="1:8">
+      <c r="G91" s="128"/>
+      <c r="H91" s="126"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A92" s="140"/>
       <c r="B92" s="31" t="s">
         <v>33</v>
@@ -11201,11 +11241,11 @@
         <v>0.1312264004309068</v>
       </c>
       <c r="F92" s="22"/>
-      <c r="G92" s="127"/>
-      <c r="H92" s="128"/>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" s="134" t="s">
+      <c r="G92" s="128"/>
+      <c r="H92" s="126"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A93" s="136" t="s">
         <v>29</v>
       </c>
       <c r="B93" s="28" t="s">
@@ -11221,15 +11261,15 @@
         <v>0.96814999999999996</v>
       </c>
       <c r="F93" s="25"/>
-      <c r="G93" s="129">
+      <c r="G93" s="127">
         <v>-0.13986799999999999</v>
       </c>
-      <c r="H93" s="131">
+      <c r="H93" s="130">
         <v>-0.140928</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
-      <c r="A94" s="135"/>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A94" s="137"/>
       <c r="B94" s="29" t="s">
         <v>17</v>
       </c>
@@ -11243,11 +11283,11 @@
         <v>6.2449979983983982E-3</v>
       </c>
       <c r="F94" s="22"/>
-      <c r="G94" s="127"/>
-      <c r="H94" s="128"/>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" s="136"/>
+      <c r="G94" s="128"/>
+      <c r="H94" s="126"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A95" s="138"/>
       <c r="B95" s="31" t="s">
         <v>33</v>
       </c>
@@ -11261,14 +11301,14 @@
         <v>6.4504446608463547E-3</v>
       </c>
       <c r="F95" s="24"/>
-      <c r="G95" s="130"/>
-      <c r="H95" s="132"/>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="A96" s="137" t="s">
+      <c r="G95" s="129"/>
+      <c r="H95" s="131"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A96" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="B96" s="137"/>
+      <c r="B96" s="132"/>
       <c r="C96" s="32">
         <v>0.66</v>
       </c>
@@ -11284,22 +11324,70 @@
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="G72:G74"/>
+    <mergeCell ref="H72:H74"/>
+    <mergeCell ref="G75:G77"/>
+    <mergeCell ref="H75:H77"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="G69:G71"/>
+    <mergeCell ref="H69:H71"/>
+    <mergeCell ref="G84:G86"/>
+    <mergeCell ref="H84:H86"/>
+    <mergeCell ref="G93:G95"/>
+    <mergeCell ref="H93:H95"/>
+    <mergeCell ref="G78:G80"/>
+    <mergeCell ref="H78:H80"/>
+    <mergeCell ref="G81:G83"/>
+    <mergeCell ref="H81:H83"/>
+    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="G87:G89"/>
+    <mergeCell ref="H87:H89"/>
+    <mergeCell ref="G90:G92"/>
+    <mergeCell ref="H90:H92"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="H54:H56"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="H57:H59"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="H60:H62"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A42:A44"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="G27:G29"/>
@@ -11316,70 +11404,22 @@
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="H9:H11"/>
     <mergeCell ref="G18:G20"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="H54:H56"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="H57:H59"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="H60:H62"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="A93:A95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="G87:G89"/>
-    <mergeCell ref="H87:H89"/>
-    <mergeCell ref="G90:G92"/>
-    <mergeCell ref="H90:H92"/>
-    <mergeCell ref="G84:G86"/>
-    <mergeCell ref="H84:H86"/>
-    <mergeCell ref="G93:G95"/>
-    <mergeCell ref="H93:H95"/>
-    <mergeCell ref="G78:G80"/>
-    <mergeCell ref="H78:H80"/>
-    <mergeCell ref="G81:G83"/>
-    <mergeCell ref="H81:H83"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="G72:G74"/>
-    <mergeCell ref="H72:H74"/>
-    <mergeCell ref="G75:G77"/>
-    <mergeCell ref="H75:H77"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="G69:G71"/>
-    <mergeCell ref="H69:H71"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G12:G14"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C3:E3">
@@ -12004,12 +12044,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD038CC-C722-4AF5-A899-56ABC13EE8AF}">
   <dimension ref="A1:T102"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:B1"/>
+      <selection pane="topRight" activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="24.375" style="3" customWidth="1"/>
     <col min="2" max="6" width="10" customWidth="1"/>
@@ -12018,28 +12058,28 @@
     <col min="10" max="10" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="144" t="s">
+    <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="139" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144" t="s">
+      <c r="B1" s="139"/>
+      <c r="C1" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
       <c r="G1" s="22"/>
-      <c r="H1" s="144" t="s">
+      <c r="H1" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="144"/>
-    </row>
-    <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="137" t="s">
+      <c r="I1" s="139"/>
+    </row>
+    <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="137"/>
+      <c r="B2" s="132"/>
       <c r="C2" s="26">
         <v>1</v>
       </c>
@@ -12060,8 +12100,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A3" s="139" t="s">
+    <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="133" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="27" t="s">
@@ -12080,15 +12120,15 @@
         <v>21</v>
       </c>
       <c r="G3" s="36"/>
-      <c r="H3" s="129">
+      <c r="H3" s="127">
         <v>0.15187800000000001</v>
       </c>
       <c r="I3" s="145">
         <v>-0.153118</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A4" s="139"/>
+    <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="133"/>
       <c r="B4" s="21" t="s">
         <v>32</v>
       </c>
@@ -12105,10 +12145,10 @@
         <v>14.491376746189438</v>
       </c>
       <c r="G4" s="26"/>
-      <c r="H4" s="127"/>
+      <c r="H4" s="128"/>
       <c r="I4" s="146"/>
     </row>
-    <row r="5" spans="1:17" ht="18.75" customHeight="1">
+    <row r="5" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="140"/>
       <c r="B5" s="23" t="s">
         <v>34</v>
@@ -12126,11 +12166,11 @@
         <v>0.69006555934235414</v>
       </c>
       <c r="G5" s="37"/>
-      <c r="H5" s="130"/>
+      <c r="H5" s="129"/>
       <c r="I5" s="147"/>
     </row>
-    <row r="6" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A6" s="139" t="s">
+    <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="133" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="27" t="s">
@@ -12149,15 +12189,15 @@
         <v>340.4</v>
       </c>
       <c r="G6" s="22"/>
-      <c r="H6" s="127">
+      <c r="H6" s="128">
         <v>-0.20458799999999999</v>
       </c>
-      <c r="I6" s="128">
+      <c r="I6" s="126">
         <v>0.52057299999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A7" s="139"/>
+    <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="133"/>
       <c r="B7" s="21" t="s">
         <v>32</v>
       </c>
@@ -12174,15 +12214,15 @@
         <v>45.458650320923525</v>
       </c>
       <c r="G7" s="22"/>
-      <c r="H7" s="127"/>
-      <c r="I7" s="128"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="126"/>
       <c r="K7" s="22"/>
       <c r="L7" s="20"/>
       <c r="M7" s="20"/>
       <c r="N7" s="20"/>
       <c r="O7" s="20"/>
     </row>
-    <row r="8" spans="1:17" ht="18.75" customHeight="1">
+    <row r="8" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="140"/>
       <c r="B8" s="23" t="s">
         <v>34</v>
@@ -12200,16 +12240,16 @@
         <v>0.13354480117780121</v>
       </c>
       <c r="G8" s="22"/>
-      <c r="H8" s="127"/>
-      <c r="I8" s="128"/>
+      <c r="H8" s="128"/>
+      <c r="I8" s="126"/>
       <c r="K8" s="30"/>
       <c r="L8" s="20"/>
       <c r="M8" s="20"/>
       <c r="N8" s="20"/>
       <c r="O8" s="20"/>
     </row>
-    <row r="9" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A9" s="138" t="s">
+    <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="141" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="28" t="s">
@@ -12228,10 +12268,10 @@
         <v>667.33291599999995</v>
       </c>
       <c r="G9" s="25"/>
-      <c r="H9" s="129">
+      <c r="H9" s="127">
         <v>0.49703700000000001</v>
       </c>
-      <c r="I9" s="131">
+      <c r="I9" s="130">
         <v>-1.1625999999999999E-2</v>
       </c>
       <c r="K9" s="20"/>
@@ -12240,8 +12280,8 @@
       <c r="N9" s="20"/>
       <c r="O9" s="20"/>
     </row>
-    <row r="10" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A10" s="139"/>
+    <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="133"/>
       <c r="B10" s="29" t="s">
         <v>17</v>
       </c>
@@ -12258,15 +12298,15 @@
         <v>70.908484231437356</v>
       </c>
       <c r="G10" s="22"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="126"/>
       <c r="K10" s="22"/>
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
       <c r="N10" s="20"/>
       <c r="O10" s="20"/>
     </row>
-    <row r="11" spans="1:17" ht="18.75" customHeight="1">
+    <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="140"/>
       <c r="B11" s="23" t="s">
         <v>33</v>
@@ -12284,16 +12324,16 @@
         <v>0.10625653632742037</v>
       </c>
       <c r="G11" s="24"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="132"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="131"/>
       <c r="K11" s="30"/>
       <c r="L11" s="20"/>
       <c r="M11" s="20"/>
       <c r="N11" s="20"/>
       <c r="O11" s="20"/>
     </row>
-    <row r="12" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A12" s="138" t="s">
+    <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="141" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="28" t="s">
@@ -12312,10 +12352,10 @@
         <v>1281.7</v>
       </c>
       <c r="G12" s="22"/>
-      <c r="H12" s="127">
+      <c r="H12" s="128">
         <v>-0.24593400000000001</v>
       </c>
-      <c r="I12" s="128">
+      <c r="I12" s="126">
         <v>0.52121200000000001</v>
       </c>
       <c r="K12" s="20"/>
@@ -12324,8 +12364,8 @@
       <c r="N12" s="20"/>
       <c r="O12" s="20"/>
     </row>
-    <row r="13" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A13" s="139"/>
+    <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="133"/>
       <c r="B13" s="29" t="s">
         <v>17</v>
       </c>
@@ -12342,15 +12382,15 @@
         <v>192.60324792432758</v>
       </c>
       <c r="G13" s="22"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="126"/>
       <c r="K13" s="22"/>
       <c r="L13" s="20"/>
       <c r="M13" s="20"/>
       <c r="N13" s="20"/>
       <c r="O13" s="20"/>
     </row>
-    <row r="14" spans="1:17" ht="18.75" customHeight="1">
+    <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="140"/>
       <c r="B14" s="31" t="s">
         <v>33</v>
@@ -12368,16 +12408,16 @@
         <v>0.15027170782892063</v>
       </c>
       <c r="G14" s="22"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="H14" s="128"/>
+      <c r="I14" s="126"/>
       <c r="K14" s="35"/>
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
     </row>
-    <row r="15" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A15" s="138" t="s">
+    <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="141" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="28" t="s">
@@ -12396,10 +12436,10 @@
         <v>14.647451999999999</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="129">
+      <c r="H15" s="127">
         <v>-0.31905800000000001</v>
       </c>
-      <c r="I15" s="131">
+      <c r="I15" s="130">
         <v>-0.14924599999999999</v>
       </c>
       <c r="K15" s="20"/>
@@ -12408,8 +12448,8 @@
       <c r="N15" s="20"/>
       <c r="O15" s="20"/>
     </row>
-    <row r="16" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A16" s="139"/>
+    <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="133"/>
       <c r="B16" s="29" t="s">
         <v>17</v>
       </c>
@@ -12426,8 +12466,8 @@
         <v>0.84429556436120168</v>
       </c>
       <c r="G16" s="22"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="126"/>
       <c r="K16" s="22"/>
       <c r="L16" s="20"/>
       <c r="M16" s="20"/>
@@ -12436,7 +12476,7 @@
       <c r="P16" s="20"/>
       <c r="Q16" s="20"/>
     </row>
-    <row r="17" spans="1:15" ht="18.75" customHeight="1">
+    <row r="17" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="140"/>
       <c r="B17" s="31" t="s">
         <v>33</v>
@@ -12454,16 +12494,16 @@
         <v>5.7641121770612508E-2</v>
       </c>
       <c r="G17" s="24"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="132"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="131"/>
       <c r="K17" s="30"/>
       <c r="L17" s="20"/>
       <c r="M17" s="20"/>
       <c r="N17" s="20"/>
       <c r="O17" s="20"/>
     </row>
-    <row r="18" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A18" s="139" t="s">
+    <row r="18" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="133" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="27" t="s">
@@ -12482,16 +12522,16 @@
         <v>152.120767</v>
       </c>
       <c r="G18" s="22"/>
-      <c r="H18" s="127">
+      <c r="H18" s="128">
         <v>0.50593999999999995</v>
       </c>
-      <c r="I18" s="128">
+      <c r="I18" s="126">
         <v>5.2625999999999999E-2</v>
       </c>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A19" s="139"/>
+    <row r="19" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="133"/>
       <c r="B19" s="29" t="s">
         <v>17</v>
       </c>
@@ -12508,12 +12548,12 @@
         <v>23.789286664378988</v>
       </c>
       <c r="G19" s="22"/>
-      <c r="H19" s="127"/>
-      <c r="I19" s="128"/>
+      <c r="H19" s="128"/>
+      <c r="I19" s="126"/>
       <c r="K19" s="22"/>
     </row>
-    <row r="20" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A20" s="139"/>
+    <row r="20" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="133"/>
       <c r="B20" s="29" t="s">
         <v>33</v>
       </c>
@@ -12530,12 +12570,12 @@
         <v>0.15638421455223789</v>
       </c>
       <c r="G20" s="45"/>
-      <c r="H20" s="127"/>
-      <c r="I20" s="128"/>
+      <c r="H20" s="128"/>
+      <c r="I20" s="126"/>
       <c r="K20" s="30"/>
     </row>
-    <row r="21" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A21" s="138" t="s">
+    <row r="21" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="141" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="28" t="s">
@@ -12554,16 +12594,16 @@
         <v>1013.3996</v>
       </c>
       <c r="G21" s="25"/>
-      <c r="H21" s="129">
+      <c r="H21" s="127">
         <v>0.221553</v>
       </c>
-      <c r="I21" s="131">
+      <c r="I21" s="130">
         <v>0.16636100000000001</v>
       </c>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A22" s="139"/>
+    <row r="22" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="133"/>
       <c r="B22" s="29" t="s">
         <v>17</v>
       </c>
@@ -12580,11 +12620,11 @@
         <v>221.83239497422372</v>
       </c>
       <c r="G22" s="22"/>
-      <c r="H22" s="127"/>
-      <c r="I22" s="128"/>
+      <c r="H22" s="128"/>
+      <c r="I22" s="126"/>
       <c r="K22" s="22"/>
     </row>
-    <row r="23" spans="1:15" ht="18.75" customHeight="1">
+    <row r="23" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="140"/>
       <c r="B23" s="31" t="s">
         <v>33</v>
@@ -12602,12 +12642,12 @@
         <v>0.21889923281420648</v>
       </c>
       <c r="G23" s="24"/>
-      <c r="H23" s="130"/>
-      <c r="I23" s="132"/>
+      <c r="H23" s="129"/>
+      <c r="I23" s="131"/>
       <c r="K23" s="30"/>
     </row>
-    <row r="24" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A24" s="139" t="s">
+    <row r="24" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="133" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="27" t="s">
@@ -12626,16 +12666,16 @@
         <v>358.542145</v>
       </c>
       <c r="G24" s="22"/>
-      <c r="H24" s="127">
+      <c r="H24" s="128">
         <v>0.41748000000000002</v>
       </c>
-      <c r="I24" s="128">
+      <c r="I24" s="126">
         <v>6.7360000000000003E-2</v>
       </c>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A25" s="139"/>
+    <row r="25" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="133"/>
       <c r="B25" s="29" t="s">
         <v>17</v>
       </c>
@@ -12652,12 +12692,12 @@
         <v>38.483802982553584</v>
       </c>
       <c r="G25" s="22"/>
-      <c r="H25" s="127"/>
-      <c r="I25" s="128"/>
+      <c r="H25" s="128"/>
+      <c r="I25" s="126"/>
       <c r="K25" s="22"/>
     </row>
-    <row r="26" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A26" s="139"/>
+    <row r="26" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="133"/>
       <c r="B26" s="29" t="s">
         <v>33</v>
       </c>
@@ -12674,12 +12714,12 @@
         <v>0.1073341126537679</v>
       </c>
       <c r="G26" s="22"/>
-      <c r="H26" s="127"/>
-      <c r="I26" s="128"/>
+      <c r="H26" s="128"/>
+      <c r="I26" s="126"/>
       <c r="K26" s="30"/>
     </row>
-    <row r="27" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A27" s="138" t="s">
+    <row r="27" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="141" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="28" t="s">
@@ -12698,16 +12738,16 @@
         <v>113.964197</v>
       </c>
       <c r="G27" s="25"/>
-      <c r="H27" s="129">
+      <c r="H27" s="127">
         <v>0.145653</v>
       </c>
-      <c r="I27" s="131">
+      <c r="I27" s="130">
         <v>0.54261000000000004</v>
       </c>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A28" s="139"/>
+    <row r="28" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="133"/>
       <c r="B28" s="29" t="s">
         <v>17</v>
       </c>
@@ -12724,11 +12764,11 @@
         <v>19.310708065733891</v>
       </c>
       <c r="G28" s="22"/>
-      <c r="H28" s="127"/>
-      <c r="I28" s="128"/>
+      <c r="H28" s="128"/>
+      <c r="I28" s="126"/>
       <c r="K28" s="22"/>
     </row>
-    <row r="29" spans="1:15" ht="18.75" customHeight="1">
+    <row r="29" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="140"/>
       <c r="B29" s="31" t="s">
         <v>33</v>
@@ -12746,12 +12786,12 @@
         <v>0.16944539227292491</v>
       </c>
       <c r="G29" s="24"/>
-      <c r="H29" s="130"/>
-      <c r="I29" s="132"/>
+      <c r="H29" s="129"/>
+      <c r="I29" s="131"/>
       <c r="K29" s="30"/>
     </row>
-    <row r="30" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A30" s="134" t="s">
+    <row r="30" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="136" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="28" t="s">
@@ -12770,16 +12810,16 @@
         <v>0.96504199999999996</v>
       </c>
       <c r="G30" s="25"/>
-      <c r="H30" s="129">
+      <c r="H30" s="127">
         <v>-0.158694</v>
       </c>
-      <c r="I30" s="131">
+      <c r="I30" s="130">
         <v>-0.28649400000000003</v>
       </c>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A31" s="135"/>
+    <row r="31" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="137"/>
       <c r="B31" s="29" t="s">
         <v>17</v>
       </c>
@@ -12796,12 +12836,12 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="G31" s="22"/>
-      <c r="H31" s="127"/>
-      <c r="I31" s="128"/>
+      <c r="H31" s="128"/>
+      <c r="I31" s="126"/>
       <c r="K31" s="22"/>
     </row>
-    <row r="32" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A32" s="136"/>
+    <row r="32" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="138"/>
       <c r="B32" s="31" t="s">
         <v>33</v>
       </c>
@@ -12818,11 +12858,11 @@
         <v>7.2535703109294731E-3</v>
       </c>
       <c r="G32" s="24"/>
-      <c r="H32" s="130"/>
-      <c r="I32" s="132"/>
+      <c r="H32" s="129"/>
+      <c r="I32" s="131"/>
       <c r="K32" s="22"/>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -12842,7 +12882,7 @@
       <c r="S33" s="20"/>
       <c r="T33" s="20"/>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -12862,7 +12902,7 @@
       <c r="S34" s="20"/>
       <c r="T34" s="20"/>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -12872,28 +12912,28 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:20">
-      <c r="A36" s="141" t="s">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A36" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="126"/>
-      <c r="C36" s="141" t="s">
+      <c r="B36" s="134"/>
+      <c r="C36" s="142" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="126"/>
-      <c r="E36" s="133"/>
+      <c r="D36" s="134"/>
+      <c r="E36" s="135"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
-      <c r="H36" s="141" t="s">
+      <c r="H36" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="I36" s="133"/>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" s="142" t="s">
+      <c r="I36" s="135"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A37" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="137"/>
+      <c r="B37" s="132"/>
       <c r="C37" s="75">
         <v>3</v>
       </c>
@@ -12910,8 +12950,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
-      <c r="A38" s="139" t="s">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A38" s="133" t="s">
         <v>35</v>
       </c>
       <c r="B38" s="27" t="s">
@@ -12933,8 +12973,8 @@
         <v>-0.402503</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
-      <c r="A39" s="139"/>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A39" s="133"/>
       <c r="B39" s="21" t="s">
         <v>32</v>
       </c>
@@ -12950,7 +12990,7 @@
       <c r="H39" s="149"/>
       <c r="I39" s="146"/>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A40" s="140"/>
       <c r="B40" s="23" t="s">
         <v>34</v>
@@ -12967,8 +13007,8 @@
       <c r="H40" s="150"/>
       <c r="I40" s="147"/>
     </row>
-    <row r="41" spans="1:20">
-      <c r="A41" s="139" t="s">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A41" s="133" t="s">
         <v>23</v>
       </c>
       <c r="B41" s="27" t="s">
@@ -12986,12 +13026,12 @@
       <c r="H41" s="149">
         <v>0.23802200000000001</v>
       </c>
-      <c r="I41" s="128">
+      <c r="I41" s="126">
         <v>0.497639</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
-      <c r="A42" s="139"/>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A42" s="133"/>
       <c r="B42" s="21" t="s">
         <v>32</v>
       </c>
@@ -13005,9 +13045,9 @@
         <v>26.253571185650152</v>
       </c>
       <c r="H42" s="149"/>
-      <c r="I42" s="128"/>
-    </row>
-    <row r="43" spans="1:20">
+      <c r="I42" s="126"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A43" s="140"/>
       <c r="B43" s="23" t="s">
         <v>34</v>
@@ -13022,10 +13062,10 @@
         <v>0.16239322349393245</v>
       </c>
       <c r="H43" s="149"/>
-      <c r="I43" s="128"/>
-    </row>
-    <row r="44" spans="1:20">
-      <c r="A44" s="138" t="s">
+      <c r="I43" s="126"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A44" s="141" t="s">
         <v>24</v>
       </c>
       <c r="B44" s="28" t="s">
@@ -13043,12 +13083,12 @@
       <c r="H44" s="148">
         <v>0.359873</v>
       </c>
-      <c r="I44" s="131">
+      <c r="I44" s="130">
         <v>-0.33166499999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
-      <c r="A45" s="139"/>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A45" s="133"/>
       <c r="B45" s="29" t="s">
         <v>17</v>
       </c>
@@ -13062,9 +13102,9 @@
         <v>108.65392413990394</v>
       </c>
       <c r="H45" s="149"/>
-      <c r="I45" s="128"/>
-    </row>
-    <row r="46" spans="1:20">
+      <c r="I45" s="126"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A46" s="140"/>
       <c r="B46" s="23" t="s">
         <v>33</v>
@@ -13079,10 +13119,10 @@
         <v>0.10817562108788775</v>
       </c>
       <c r="H46" s="150"/>
-      <c r="I46" s="132"/>
-    </row>
-    <row r="47" spans="1:20">
-      <c r="A47" s="138" t="s">
+      <c r="I46" s="131"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A47" s="141" t="s">
         <v>25</v>
       </c>
       <c r="B47" s="28" t="s">
@@ -13100,12 +13140,12 @@
       <c r="H47" s="149">
         <v>0.21130099999999999</v>
       </c>
-      <c r="I47" s="128">
+      <c r="I47" s="126">
         <v>0.49977100000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:20">
-      <c r="A48" s="139"/>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A48" s="133"/>
       <c r="B48" s="29" t="s">
         <v>17</v>
       </c>
@@ -13119,9 +13159,9 @@
         <v>62.603913615683801</v>
       </c>
       <c r="H48" s="149"/>
-      <c r="I48" s="128"/>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="I48" s="126"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" s="140"/>
       <c r="B49" s="31" t="s">
         <v>33</v>
@@ -13136,10 +13176,10 @@
         <v>0.10640891838722964</v>
       </c>
       <c r="H49" s="149"/>
-      <c r="I49" s="128"/>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="138" t="s">
+      <c r="I49" s="126"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A50" s="141" t="s">
         <v>26</v>
       </c>
       <c r="B50" s="28" t="s">
@@ -13157,12 +13197,12 @@
       <c r="H50" s="148">
         <v>-0.24152999999999999</v>
       </c>
-      <c r="I50" s="131">
+      <c r="I50" s="130">
         <v>0.21956500000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="139"/>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A51" s="133"/>
       <c r="B51" s="29" t="s">
         <v>17</v>
       </c>
@@ -13176,9 +13216,9 @@
         <v>0.85026113635753109</v>
       </c>
       <c r="H51" s="149"/>
-      <c r="I51" s="128"/>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="I51" s="126"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" s="140"/>
       <c r="B52" s="31" t="s">
         <v>33</v>
@@ -13193,10 +13233,10 @@
         <v>6.5738202813174051E-2</v>
       </c>
       <c r="H52" s="150"/>
-      <c r="I52" s="132"/>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="139" t="s">
+      <c r="I52" s="131"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A53" s="133" t="s">
         <v>27</v>
       </c>
       <c r="B53" s="27" t="s">
@@ -13214,12 +13254,12 @@
       <c r="H53" s="149">
         <v>0.39759800000000001</v>
       </c>
-      <c r="I53" s="128">
+      <c r="I53" s="126">
         <v>-0.34539799999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="139"/>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A54" s="133"/>
       <c r="B54" s="29" t="s">
         <v>17</v>
       </c>
@@ -13233,10 +13273,10 @@
         <v>30.601004329923551</v>
       </c>
       <c r="H54" s="149"/>
-      <c r="I54" s="128"/>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="139"/>
+      <c r="I54" s="126"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A55" s="133"/>
       <c r="B55" s="29" t="s">
         <v>33</v>
       </c>
@@ -13250,10 +13290,10 @@
         <v>0.12523732699260731</v>
       </c>
       <c r="H55" s="149"/>
-      <c r="I55" s="128"/>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="138" t="s">
+      <c r="I55" s="126"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A56" s="141" t="s">
         <v>30</v>
       </c>
       <c r="B56" s="28" t="s">
@@ -13271,12 +13311,12 @@
       <c r="H56" s="148">
         <v>0.41119299999999998</v>
       </c>
-      <c r="I56" s="131">
+      <c r="I56" s="130">
         <v>-5.6468999999999998E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="139"/>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A57" s="133"/>
       <c r="B57" s="29" t="s">
         <v>17</v>
       </c>
@@ -13290,9 +13330,9 @@
         <v>183.80697746549231</v>
       </c>
       <c r="H57" s="149"/>
-      <c r="I57" s="128"/>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="I57" s="126"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58" s="140"/>
       <c r="B58" s="31" t="s">
         <v>33</v>
@@ -13307,10 +13347,10 @@
         <v>0.16757153253964546</v>
       </c>
       <c r="H58" s="150"/>
-      <c r="I58" s="132"/>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="139" t="s">
+      <c r="I58" s="131"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A59" s="133" t="s">
         <v>31</v>
       </c>
       <c r="B59" s="27" t="s">
@@ -13328,12 +13368,12 @@
       <c r="H59" s="149">
         <v>0.41719000000000001</v>
       </c>
-      <c r="I59" s="128">
+      <c r="I59" s="126">
         <v>-8.9008000000000004E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="139"/>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A60" s="133"/>
       <c r="B60" s="29" t="s">
         <v>17</v>
       </c>
@@ -13347,10 +13387,10 @@
         <v>26.376448434161865</v>
       </c>
       <c r="H60" s="149"/>
-      <c r="I60" s="128"/>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="139"/>
+      <c r="I60" s="126"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A61" s="133"/>
       <c r="B61" s="29" t="s">
         <v>33</v>
       </c>
@@ -13364,10 +13404,10 @@
         <v>5.5589137959548562E-2</v>
       </c>
       <c r="H61" s="149"/>
-      <c r="I61" s="128"/>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="138" t="s">
+      <c r="I61" s="126"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A62" s="141" t="s">
         <v>28</v>
       </c>
       <c r="B62" s="28" t="s">
@@ -13385,12 +13425,12 @@
       <c r="H62" s="148">
         <v>0.44202999999999998</v>
       </c>
-      <c r="I62" s="131">
+      <c r="I62" s="130">
         <v>0.22453999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="139"/>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A63" s="133"/>
       <c r="B63" s="29" t="s">
         <v>17</v>
       </c>
@@ -13404,9 +13444,9 @@
         <v>10.743394854514099</v>
       </c>
       <c r="H63" s="149"/>
-      <c r="I63" s="128"/>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="I63" s="126"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64" s="140"/>
       <c r="B64" s="31" t="s">
         <v>33</v>
@@ -13421,10 +13461,10 @@
         <v>0.13290801923526499</v>
       </c>
       <c r="H64" s="150"/>
-      <c r="I64" s="132"/>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="134" t="s">
+      <c r="I64" s="131"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A65" s="136" t="s">
         <v>29</v>
       </c>
       <c r="B65" s="28" t="s">
@@ -13442,12 +13482,12 @@
       <c r="H65" s="148">
         <v>-4.0677999999999999E-2</v>
       </c>
-      <c r="I65" s="131">
+      <c r="I65" s="130">
         <v>-3.9184999999999998E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="135"/>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A66" s="137"/>
       <c r="B66" s="29" t="s">
         <v>17</v>
       </c>
@@ -13461,10 +13501,10 @@
         <v>1.0630145812734649E-2</v>
       </c>
       <c r="H66" s="149"/>
-      <c r="I66" s="128"/>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="136"/>
+      <c r="I66" s="126"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A67" s="138"/>
       <c r="B67" s="31" t="s">
         <v>33</v>
       </c>
@@ -13478,30 +13518,30 @@
         <v>1.0914647001475099E-2</v>
       </c>
       <c r="H67" s="150"/>
-      <c r="I67" s="132"/>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="141" t="s">
+      <c r="I67" s="131"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A71" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="B71" s="126"/>
-      <c r="C71" s="126" t="s">
+      <c r="B71" s="134"/>
+      <c r="C71" s="134" t="s">
         <v>39</v>
       </c>
-      <c r="D71" s="126"/>
-      <c r="E71" s="126"/>
-      <c r="F71" s="126"/>
+      <c r="D71" s="134"/>
+      <c r="E71" s="134"/>
+      <c r="F71" s="134"/>
       <c r="G71" s="25"/>
-      <c r="H71" s="126" t="s">
+      <c r="H71" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="I71" s="133"/>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="142" t="s">
+      <c r="I71" s="135"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A72" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="B72" s="137"/>
+      <c r="B72" s="132"/>
       <c r="C72" s="37">
         <v>1</v>
       </c>
@@ -13522,8 +13562,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="139" t="s">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A73" s="133" t="s">
         <v>35</v>
       </c>
       <c r="B73" s="27" t="s">
@@ -13542,15 +13582,15 @@
         <v>56.125</v>
       </c>
       <c r="G73" s="36"/>
-      <c r="H73" s="129">
+      <c r="H73" s="127">
         <v>2.4947E-2</v>
       </c>
       <c r="I73" s="145">
         <v>-0.287634</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="139"/>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A74" s="133"/>
       <c r="B74" s="21" t="s">
         <v>32</v>
       </c>
@@ -13567,10 +13607,10 @@
         <v>5.938674683799408</v>
       </c>
       <c r="G74" s="26"/>
-      <c r="H74" s="127"/>
+      <c r="H74" s="128"/>
       <c r="I74" s="146"/>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A75" s="140"/>
       <c r="B75" s="23" t="s">
         <v>34</v>
@@ -13588,11 +13628,11 @@
         <v>0.10581157565789591</v>
       </c>
       <c r="G75" s="37"/>
-      <c r="H75" s="130"/>
+      <c r="H75" s="129"/>
       <c r="I75" s="147"/>
     </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="139" t="s">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A76" s="133" t="s">
         <v>23</v>
       </c>
       <c r="B76" s="27" t="s">
@@ -13611,15 +13651,15 @@
         <v>236.6875</v>
       </c>
       <c r="G76" s="22"/>
-      <c r="H76" s="127">
+      <c r="H76" s="128">
         <v>0.110678</v>
       </c>
-      <c r="I76" s="128">
+      <c r="I76" s="126">
         <v>0.55369100000000004</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="139"/>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A77" s="133"/>
       <c r="B77" s="21" t="s">
         <v>32</v>
       </c>
@@ -13636,10 +13676,10 @@
         <v>32.035624701260318</v>
       </c>
       <c r="G77" s="22"/>
-      <c r="H77" s="127"/>
-      <c r="I77" s="128"/>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="H77" s="128"/>
+      <c r="I77" s="126"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A78" s="140"/>
       <c r="B78" s="23" t="s">
         <v>34</v>
@@ -13657,11 +13697,11 @@
         <v>0.13534987991026276</v>
       </c>
       <c r="G78" s="22"/>
-      <c r="H78" s="127"/>
-      <c r="I78" s="128"/>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="138" t="s">
+      <c r="H78" s="128"/>
+      <c r="I78" s="126"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A79" s="141" t="s">
         <v>24</v>
       </c>
       <c r="B79" s="28" t="s">
@@ -13680,15 +13720,15 @@
         <v>850.80683699999997</v>
       </c>
       <c r="G79" s="25"/>
-      <c r="H79" s="129">
+      <c r="H79" s="127">
         <v>0.41037499999999999</v>
       </c>
-      <c r="I79" s="131">
+      <c r="I79" s="130">
         <v>-0.29009800000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="139"/>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A80" s="133"/>
       <c r="B80" s="29" t="s">
         <v>17</v>
       </c>
@@ -13705,10 +13745,10 @@
         <v>119.33858698258497</v>
       </c>
       <c r="G80" s="22"/>
-      <c r="H80" s="127"/>
-      <c r="I80" s="128"/>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="H80" s="128"/>
+      <c r="I80" s="126"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A81" s="140"/>
       <c r="B81" s="23" t="s">
         <v>33</v>
@@ -13726,11 +13766,11 @@
         <v>0.14026519509807955</v>
       </c>
       <c r="G81" s="24"/>
-      <c r="H81" s="130"/>
-      <c r="I81" s="132"/>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="138" t="s">
+      <c r="H81" s="129"/>
+      <c r="I81" s="131"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A82" s="141" t="s">
         <v>25</v>
       </c>
       <c r="B82" s="28" t="s">
@@ -13749,15 +13789,15 @@
         <v>897.0625</v>
       </c>
       <c r="G82" s="22"/>
-      <c r="H82" s="127">
+      <c r="H82" s="128">
         <v>9.6669000000000005E-2</v>
       </c>
-      <c r="I82" s="128">
+      <c r="I82" s="126">
         <v>0.57781199999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="139"/>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A83" s="133"/>
       <c r="B83" s="29" t="s">
         <v>17</v>
       </c>
@@ -13774,10 +13814,10 @@
         <v>122.0106662509471</v>
       </c>
       <c r="G83" s="22"/>
-      <c r="H83" s="127"/>
-      <c r="I83" s="128"/>
-    </row>
-    <row r="84" spans="1:9">
+      <c r="H83" s="128"/>
+      <c r="I83" s="126"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A84" s="140"/>
       <c r="B84" s="31" t="s">
         <v>33</v>
@@ -13795,11 +13835,11 @@
         <v>0.13601133282346223</v>
       </c>
       <c r="G84" s="22"/>
-      <c r="H84" s="127"/>
-      <c r="I84" s="128"/>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="138" t="s">
+      <c r="H84" s="128"/>
+      <c r="I84" s="126"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A85" s="141" t="s">
         <v>26</v>
       </c>
       <c r="B85" s="28" t="s">
@@ -13818,15 +13858,15 @@
         <v>13.945683000000001</v>
       </c>
       <c r="G85" s="25"/>
-      <c r="H85" s="129">
+      <c r="H85" s="127">
         <v>-0.37879099999999999</v>
       </c>
-      <c r="I85" s="131">
+      <c r="I85" s="130">
         <v>2.7404000000000001E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="139"/>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A86" s="133"/>
       <c r="B86" s="29" t="s">
         <v>17</v>
       </c>
@@ -13843,10 +13883,10 @@
         <v>0.89993277526713078</v>
       </c>
       <c r="G86" s="22"/>
-      <c r="H86" s="127"/>
-      <c r="I86" s="128"/>
-    </row>
-    <row r="87" spans="1:9">
+      <c r="H86" s="128"/>
+      <c r="I86" s="126"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A87" s="140"/>
       <c r="B87" s="31" t="s">
         <v>33</v>
@@ -13864,11 +13904,11 @@
         <v>6.4531280057572707E-2</v>
       </c>
       <c r="G87" s="24"/>
-      <c r="H87" s="130"/>
-      <c r="I87" s="132"/>
-    </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="139" t="s">
+      <c r="H87" s="129"/>
+      <c r="I87" s="131"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A88" s="133" t="s">
         <v>27</v>
       </c>
       <c r="B88" s="27" t="s">
@@ -13887,15 +13927,15 @@
         <v>203.29715400000001</v>
       </c>
       <c r="G88" s="22"/>
-      <c r="H88" s="127">
+      <c r="H88" s="128">
         <v>0.46194299999999999</v>
       </c>
-      <c r="I88" s="128">
+      <c r="I88" s="126">
         <v>-0.21692500000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="139"/>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A89" s="133"/>
       <c r="B89" s="29" t="s">
         <v>17</v>
       </c>
@@ -13912,11 +13952,11 @@
         <v>34.96012085219386</v>
       </c>
       <c r="G89" s="22"/>
-      <c r="H89" s="127"/>
-      <c r="I89" s="128"/>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="139"/>
+      <c r="H89" s="128"/>
+      <c r="I89" s="126"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A90" s="133"/>
       <c r="B90" s="29" t="s">
         <v>33</v>
       </c>
@@ -13933,11 +13973,11 @@
         <v>0.17196561862441939</v>
       </c>
       <c r="G90" s="45"/>
-      <c r="H90" s="127"/>
-      <c r="I90" s="128"/>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="138" t="s">
+      <c r="H90" s="128"/>
+      <c r="I90" s="126"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A91" s="141" t="s">
         <v>30</v>
       </c>
       <c r="B91" s="28" t="s">
@@ -13956,15 +13996,15 @@
         <v>1102.3925630000001</v>
       </c>
       <c r="G91" s="25"/>
-      <c r="H91" s="129">
+      <c r="H91" s="127">
         <v>0.34762799999999999</v>
       </c>
-      <c r="I91" s="131">
+      <c r="I91" s="130">
         <v>2.4389000000000001E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
-      <c r="A92" s="139"/>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A92" s="133"/>
       <c r="B92" s="29" t="s">
         <v>17</v>
       </c>
@@ -13981,10 +14021,10 @@
         <v>160.50829148987913</v>
       </c>
       <c r="G92" s="22"/>
-      <c r="H92" s="127"/>
-      <c r="I92" s="128"/>
-    </row>
-    <row r="93" spans="1:9">
+      <c r="H92" s="128"/>
+      <c r="I92" s="126"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A93" s="140"/>
       <c r="B93" s="31" t="s">
         <v>33</v>
@@ -14002,11 +14042,11 @@
         <v>0.14559994041784832</v>
       </c>
       <c r="G93" s="24"/>
-      <c r="H93" s="130"/>
-      <c r="I93" s="132"/>
-    </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="139" t="s">
+      <c r="H93" s="129"/>
+      <c r="I93" s="131"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A94" s="133" t="s">
         <v>31</v>
       </c>
       <c r="B94" s="27" t="s">
@@ -14025,15 +14065,15 @@
         <v>407.78009500000002</v>
       </c>
       <c r="G94" s="22"/>
-      <c r="H94" s="127">
+      <c r="H94" s="128">
         <v>0.37987799999999999</v>
       </c>
-      <c r="I94" s="128">
+      <c r="I94" s="126">
         <v>-0.114343</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
-      <c r="A95" s="139"/>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A95" s="133"/>
       <c r="B95" s="29" t="s">
         <v>17</v>
       </c>
@@ -14050,11 +14090,11 @@
         <v>43.764959590978719</v>
       </c>
       <c r="G95" s="22"/>
-      <c r="H95" s="127"/>
-      <c r="I95" s="128"/>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="A96" s="139"/>
+      <c r="H95" s="128"/>
+      <c r="I95" s="126"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A96" s="133"/>
       <c r="B96" s="29" t="s">
         <v>33</v>
       </c>
@@ -14071,11 +14111,11 @@
         <v>0.10732490410297912</v>
       </c>
       <c r="G96" s="22"/>
-      <c r="H96" s="127"/>
-      <c r="I96" s="128"/>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="A97" s="138" t="s">
+      <c r="H96" s="128"/>
+      <c r="I96" s="126"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A97" s="141" t="s">
         <v>28</v>
       </c>
       <c r="B97" s="28" t="s">
@@ -14094,15 +14134,15 @@
         <v>89.229149000000007</v>
       </c>
       <c r="G97" s="25"/>
-      <c r="H97" s="129">
+      <c r="H97" s="127">
         <v>0.41075099999999998</v>
       </c>
-      <c r="I97" s="131">
+      <c r="I97" s="130">
         <v>0.32018999999999997</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
-      <c r="A98" s="139"/>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A98" s="133"/>
       <c r="B98" s="29" t="s">
         <v>17</v>
       </c>
@@ -14119,10 +14159,10 @@
         <v>13.431839226256395</v>
       </c>
       <c r="G98" s="22"/>
-      <c r="H98" s="127"/>
-      <c r="I98" s="128"/>
-    </row>
-    <row r="99" spans="1:9">
+      <c r="H98" s="128"/>
+      <c r="I98" s="126"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A99" s="140"/>
       <c r="B99" s="31" t="s">
         <v>33</v>
@@ -14140,11 +14180,11 @@
         <v>0.15053196603114968</v>
       </c>
       <c r="G99" s="24"/>
-      <c r="H99" s="130"/>
-      <c r="I99" s="132"/>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="134" t="s">
+      <c r="H99" s="129"/>
+      <c r="I99" s="131"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A100" s="136" t="s">
         <v>29</v>
       </c>
       <c r="B100" s="28" t="s">
@@ -14163,15 +14203,15 @@
         <v>0.96753699999999998</v>
       </c>
       <c r="G100" s="25"/>
-      <c r="H100" s="129">
+      <c r="H100" s="127">
         <v>-0.13650200000000001</v>
       </c>
-      <c r="I100" s="131">
+      <c r="I100" s="130">
         <v>-0.16932800000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
-      <c r="A101" s="135"/>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A101" s="137"/>
       <c r="B101" s="29" t="s">
         <v>17</v>
       </c>
@@ -14188,11 +14228,11 @@
         <v>8.5440037453175313E-3</v>
       </c>
       <c r="G101" s="22"/>
-      <c r="H101" s="127"/>
-      <c r="I101" s="128"/>
-    </row>
-    <row r="102" spans="1:9">
-      <c r="A102" s="136"/>
+      <c r="H101" s="128"/>
+      <c r="I101" s="126"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A102" s="138"/>
       <c r="B102" s="31" t="s">
         <v>33</v>
       </c>
@@ -14209,55 +14249,45 @@
         <v>8.8306739125403287E-3</v>
       </c>
       <c r="G102" s="24"/>
-      <c r="H102" s="130"/>
-      <c r="I102" s="132"/>
+      <c r="H102" s="129"/>
+      <c r="I102" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="102">
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="I30:I32"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="H50:H52"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="H41:H43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="H100:H102"/>
+    <mergeCell ref="I100:I102"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="H94:H96"/>
+    <mergeCell ref="I94:I96"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="H97:H99"/>
+    <mergeCell ref="I97:I99"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="H88:H90"/>
+    <mergeCell ref="I88:I90"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="H91:H93"/>
+    <mergeCell ref="I91:I93"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="H82:H84"/>
+    <mergeCell ref="I82:I84"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="H85:H87"/>
+    <mergeCell ref="I85:I87"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="H76:H78"/>
+    <mergeCell ref="I76:I78"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="H79:H81"/>
+    <mergeCell ref="I79:I81"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:F71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="H73:H75"/>
+    <mergeCell ref="I73:I75"/>
     <mergeCell ref="A65:A67"/>
     <mergeCell ref="H65:H67"/>
     <mergeCell ref="H36:I36"/>
@@ -14282,40 +14312,50 @@
     <mergeCell ref="A47:A49"/>
     <mergeCell ref="H47:H49"/>
     <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="H76:H78"/>
-    <mergeCell ref="I76:I78"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="H79:H81"/>
-    <mergeCell ref="I79:I81"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:F71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="H73:H75"/>
-    <mergeCell ref="I73:I75"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="H88:H90"/>
-    <mergeCell ref="I88:I90"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="H91:H93"/>
-    <mergeCell ref="I91:I93"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="H82:H84"/>
-    <mergeCell ref="I82:I84"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="H85:H87"/>
-    <mergeCell ref="I85:I87"/>
-    <mergeCell ref="A100:A102"/>
-    <mergeCell ref="H100:H102"/>
-    <mergeCell ref="I100:I102"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="H94:H96"/>
-    <mergeCell ref="I94:I96"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="H97:H99"/>
-    <mergeCell ref="I97:I99"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:I29"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C38:E38">
@@ -14996,7 +15036,7 @@
       <selection activeCell="BC1" sqref="BC1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10" style="3" customWidth="1"/>
     <col min="2" max="3" width="4.25" style="3" customWidth="1"/>
@@ -15019,7 +15059,7 @@
     <col min="57" max="57" width="4.125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" s="8" customFormat="1" ht="22.5" customHeight="1">
+    <row r="1" spans="1:57" s="8" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -15126,7 +15166,7 @@
       </c>
       <c r="BE1" s="5"/>
     </row>
-    <row r="2" spans="1:57" s="8" customFormat="1" ht="12">
+    <row r="2" spans="1:57" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -15243,7 +15283,7 @@
       <c r="BD2" s="5"/>
       <c r="BE2" s="5"/>
     </row>
-    <row r="3" spans="1:57">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -15410,7 +15450,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:57">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.4">
       <c r="C4" s="3">
         <v>2</v>
       </c>
@@ -15470,7 +15510,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:57">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.4">
       <c r="G5" s="12"/>
       <c r="H5" s="16">
         <f>(COUNTIF(H3:H4,"○"))/2</f>
@@ -15567,7 +15607,7 @@
       <c r="BC5" s="3"/>
       <c r="BD5" s="3"/>
     </row>
-    <row r="6" spans="1:57">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -15725,7 +15765,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:57">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.4">
       <c r="C7" s="3">
         <v>2</v>
       </c>
@@ -15872,7 +15912,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:57">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.4">
       <c r="C8" s="3">
         <v>3</v>
       </c>
@@ -16019,7 +16059,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:57">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.4">
       <c r="C9" s="3">
         <v>4</v>
       </c>
@@ -16166,7 +16206,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:57">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.4">
       <c r="C10" s="3">
         <v>5</v>
       </c>
@@ -16313,7 +16353,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:57">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.4">
       <c r="C11" s="3">
         <v>6</v>
       </c>
@@ -16460,7 +16500,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:57">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.4">
       <c r="C12" s="3">
         <v>7</v>
       </c>
@@ -16607,7 +16647,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:57">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.4">
       <c r="C13" s="3">
         <v>8</v>
       </c>
@@ -16754,7 +16794,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:57">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.4">
       <c r="C14" s="3">
         <v>9</v>
       </c>
@@ -16901,7 +16941,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:57">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.4">
       <c r="C15" s="3">
         <v>10</v>
       </c>
@@ -16961,7 +17001,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:57">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.4">
       <c r="G16" s="12"/>
       <c r="H16" s="16">
         <f>(COUNTIF(H6:H15,"○"))/10</f>
@@ -17058,7 +17098,7 @@
       <c r="BC16" s="3"/>
       <c r="BD16" s="3"/>
     </row>
-    <row r="17" spans="1:57">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>3</v>
       </c>
@@ -17216,7 +17256,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:57">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.4">
       <c r="C18" s="3">
         <v>2</v>
       </c>
@@ -17363,7 +17403,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:57">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.4">
       <c r="C19" s="3">
         <v>3</v>
       </c>
@@ -17510,7 +17550,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:57">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.4">
       <c r="C20" s="3">
         <v>4</v>
       </c>
@@ -17570,7 +17610,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:57">
+    <row r="21" spans="1:57" x14ac:dyDescent="0.4">
       <c r="C21" s="3">
         <v>5</v>
       </c>
@@ -17717,7 +17757,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:57">
+    <row r="22" spans="1:57" x14ac:dyDescent="0.4">
       <c r="C22" s="3">
         <v>6</v>
       </c>
@@ -17864,7 +17904,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:57">
+    <row r="23" spans="1:57" x14ac:dyDescent="0.4">
       <c r="C23" s="3">
         <v>7</v>
       </c>
@@ -17924,7 +17964,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:57">
+    <row r="24" spans="1:57" x14ac:dyDescent="0.4">
       <c r="C24" s="3">
         <v>8</v>
       </c>
@@ -18071,7 +18111,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:57">
+    <row r="25" spans="1:57" x14ac:dyDescent="0.4">
       <c r="C25" s="3">
         <v>9</v>
       </c>
@@ -18218,7 +18258,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:57">
+    <row r="26" spans="1:57" x14ac:dyDescent="0.4">
       <c r="C26" s="3">
         <v>10</v>
       </c>
@@ -18365,7 +18405,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:57">
+    <row r="27" spans="1:57" x14ac:dyDescent="0.4">
       <c r="C27" s="3">
         <v>11</v>
       </c>
@@ -18512,7 +18552,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:57">
+    <row r="28" spans="1:57" x14ac:dyDescent="0.4">
       <c r="C28" s="3">
         <v>12</v>
       </c>
@@ -18659,7 +18699,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:57">
+    <row r="29" spans="1:57" x14ac:dyDescent="0.4">
       <c r="C29" s="3">
         <v>13</v>
       </c>
@@ -18806,7 +18846,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:57">
+    <row r="30" spans="1:57" x14ac:dyDescent="0.4">
       <c r="C30" s="3">
         <v>14</v>
       </c>
@@ -18953,7 +18993,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:57">
+    <row r="31" spans="1:57" x14ac:dyDescent="0.4">
       <c r="G31" s="5"/>
       <c r="H31" s="15">
         <f>(COUNTIF(H17:H30,"○"))/14</f>
@@ -19113,7 +19153,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:57">
+    <row r="32" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
         <v>19</v>
       </c>
@@ -19203,7 +19243,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:57">
+    <row r="33" spans="1:57" x14ac:dyDescent="0.4">
       <c r="C33" s="3">
         <v>2</v>
       </c>
@@ -19259,7 +19299,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:57">
+    <row r="34" spans="1:57" x14ac:dyDescent="0.4">
       <c r="C34" s="3">
         <v>3</v>
       </c>
@@ -19303,7 +19343,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:57">
+    <row r="35" spans="1:57" x14ac:dyDescent="0.4">
       <c r="C35" s="3">
         <v>4</v>
       </c>
@@ -19381,7 +19421,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:57">
+    <row r="36" spans="1:57" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
         <v>20</v>
       </c>
@@ -19467,7 +19507,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:57">
+    <row r="37" spans="1:57" x14ac:dyDescent="0.4">
       <c r="AD37" s="3" t="s">
         <v>6</v>
       </c>
@@ -19508,7 +19548,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:57">
+    <row r="38" spans="1:57" x14ac:dyDescent="0.4">
       <c r="AJ38" s="15">
         <f>(COUNTIF(AJ3:AJ37,"○")/32)</f>
         <v>0.8125</v>
@@ -19550,7 +19590,7 @@
         <v>0.78125</v>
       </c>
     </row>
-    <row r="39" spans="1:57">
+    <row r="39" spans="1:57" x14ac:dyDescent="0.4">
       <c r="AC39" s="3" t="s">
         <v>19</v>
       </c>
@@ -19589,7 +19629,7 @@
       </c>
       <c r="BA39" s="12"/>
     </row>
-    <row r="40" spans="1:57">
+    <row r="40" spans="1:57" x14ac:dyDescent="0.4">
       <c r="AE40" s="3">
         <v>2</v>
       </c>
@@ -19623,7 +19663,7 @@
       </c>
       <c r="BA40" s="12"/>
     </row>
-    <row r="41" spans="1:57">
+    <row r="41" spans="1:57" x14ac:dyDescent="0.4">
       <c r="AE41" s="3">
         <v>3</v>
       </c>
@@ -19648,7 +19688,7 @@
       </c>
       <c r="BA41" s="12"/>
     </row>
-    <row r="42" spans="1:57">
+    <row r="42" spans="1:57" x14ac:dyDescent="0.4">
       <c r="AE42" s="3">
         <v>4</v>
       </c>
@@ -19665,7 +19705,7 @@
       </c>
       <c r="BA42" s="12"/>
     </row>
-    <row r="43" spans="1:57">
+    <row r="43" spans="1:57" x14ac:dyDescent="0.4">
       <c r="AC43" s="3" t="s">
         <v>20</v>
       </c>
@@ -19698,7 +19738,7 @@
       </c>
       <c r="BA43" s="12"/>
     </row>
-    <row r="44" spans="1:57">
+    <row r="44" spans="1:57" x14ac:dyDescent="0.4">
       <c r="BA44" s="17"/>
     </row>
   </sheetData>
@@ -19721,7 +19761,7 @@
       <selection pane="topRight" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="24.375" style="3" customWidth="1"/>
     <col min="2" max="6" width="10" customWidth="1"/>
@@ -19730,28 +19770,28 @@
     <col min="10" max="10" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="144" t="s">
+    <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="139" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144" t="s">
+      <c r="B1" s="139"/>
+      <c r="C1" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
       <c r="G1" s="22"/>
-      <c r="H1" s="144" t="s">
+      <c r="H1" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="144"/>
-    </row>
-    <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="137" t="s">
+      <c r="I1" s="139"/>
+    </row>
+    <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="137"/>
+      <c r="B2" s="132"/>
       <c r="C2" s="26">
         <v>1</v>
       </c>
@@ -19772,8 +19812,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A3" s="139" t="s">
+    <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="133" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="27" t="s">
@@ -19792,18 +19832,18 @@
         <v>241.883015</v>
       </c>
       <c r="G3" s="25"/>
-      <c r="H3" s="129">
+      <c r="H3" s="127">
         <v>0.158581</v>
       </c>
-      <c r="I3" s="131">
+      <c r="I3" s="130">
         <v>0.58016400000000001</v>
       </c>
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
       <c r="N3" s="20"/>
     </row>
-    <row r="4" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A4" s="139"/>
+    <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="133"/>
       <c r="B4" s="21" t="s">
         <v>32</v>
       </c>
@@ -19820,13 +19860,13 @@
         <v>52.414369022244273</v>
       </c>
       <c r="G4" s="22"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="126"/>
       <c r="K4" s="22"/>
       <c r="L4" s="20"/>
       <c r="N4" s="20"/>
     </row>
-    <row r="5" spans="1:17" ht="18.75" customHeight="1">
+    <row r="5" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="140"/>
       <c r="B5" s="23" t="s">
         <v>34</v>
@@ -19848,14 +19888,14 @@
         <v>0.21669305313663415</v>
       </c>
       <c r="G5" s="24"/>
-      <c r="H5" s="130"/>
-      <c r="I5" s="132"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="131"/>
       <c r="K5" s="30"/>
       <c r="L5" s="20"/>
       <c r="N5" s="20"/>
     </row>
-    <row r="6" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A6" s="138" t="s">
+    <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="141" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="28" t="s">
@@ -19874,18 +19914,18 @@
         <v>891.89177099999995</v>
       </c>
       <c r="G6" s="22"/>
-      <c r="H6" s="127">
+      <c r="H6" s="128">
         <v>0.43204500000000001</v>
       </c>
-      <c r="I6" s="128">
+      <c r="I6" s="126">
         <v>-0.113953</v>
       </c>
       <c r="K6" s="20"/>
       <c r="L6" s="20"/>
       <c r="N6" s="20"/>
     </row>
-    <row r="7" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A7" s="139"/>
+    <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="133"/>
       <c r="B7" s="29" t="s">
         <v>17</v>
       </c>
@@ -19902,11 +19942,11 @@
         <v>43.40069792065561</v>
       </c>
       <c r="G7" s="22"/>
-      <c r="H7" s="127"/>
-      <c r="I7" s="128"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="126"/>
       <c r="K7" s="22"/>
     </row>
-    <row r="8" spans="1:17" ht="18.75" customHeight="1">
+    <row r="8" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="140"/>
       <c r="B8" s="23" t="s">
         <v>33</v>
@@ -19928,12 +19968,12 @@
         <v>4.8661395173535703E-2</v>
       </c>
       <c r="G8" s="22"/>
-      <c r="H8" s="127"/>
-      <c r="I8" s="128"/>
+      <c r="H8" s="128"/>
+      <c r="I8" s="126"/>
       <c r="K8" s="30"/>
     </row>
-    <row r="9" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A9" s="138" t="s">
+    <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="141" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="28" t="s">
@@ -19952,17 +19992,17 @@
         <v>4328.2222220000003</v>
       </c>
       <c r="G9" s="25"/>
-      <c r="H9" s="129">
+      <c r="H9" s="127">
         <v>-4.8184999999999999E-2</v>
       </c>
-      <c r="I9" s="131">
+      <c r="I9" s="130">
         <v>0.60652600000000001</v>
       </c>
       <c r="K9" s="20"/>
       <c r="L9" s="34"/>
     </row>
-    <row r="10" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A10" s="139"/>
+    <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="133"/>
       <c r="B10" s="29" t="s">
         <v>17</v>
       </c>
@@ -19979,12 +20019,12 @@
         <v>741.6098704844751</v>
       </c>
       <c r="G10" s="22"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="126"/>
       <c r="K10" s="22"/>
       <c r="L10" s="34"/>
     </row>
-    <row r="11" spans="1:17" ht="18.75" customHeight="1">
+    <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="140"/>
       <c r="B11" s="31" t="s">
         <v>33</v>
@@ -20006,13 +20046,13 @@
         <v>0.17134283602975203</v>
       </c>
       <c r="G11" s="24"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="132"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="131"/>
       <c r="K11" s="35"/>
       <c r="L11" s="34"/>
     </row>
-    <row r="12" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A12" s="138" t="s">
+    <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="141" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="28" t="s">
@@ -20031,17 +20071,17 @@
         <v>17.504460999999999</v>
       </c>
       <c r="G12" s="22"/>
-      <c r="H12" s="127">
+      <c r="H12" s="128">
         <v>-0.41503400000000001</v>
       </c>
-      <c r="I12" s="128">
+      <c r="I12" s="126">
         <v>9.3484999999999999E-2</v>
       </c>
       <c r="K12" s="20"/>
       <c r="L12" s="34"/>
     </row>
-    <row r="13" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A13" s="139"/>
+    <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="133"/>
       <c r="B13" s="29" t="s">
         <v>17</v>
       </c>
@@ -20058,15 +20098,15 @@
         <v>1.0581134154711394</v>
       </c>
       <c r="G13" s="22"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="126"/>
       <c r="K13" s="22"/>
       <c r="N13" s="20"/>
       <c r="O13" s="20"/>
       <c r="P13" s="20"/>
       <c r="Q13" s="20"/>
     </row>
-    <row r="14" spans="1:17" ht="18.75" customHeight="1">
+    <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="140"/>
       <c r="B14" s="31" t="s">
         <v>33</v>
@@ -20088,16 +20128,16 @@
         <v>6.0448214627753426E-2</v>
       </c>
       <c r="G14" s="22"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="H14" s="128"/>
+      <c r="I14" s="126"/>
       <c r="K14" s="30"/>
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
       <c r="P14" s="20"/>
       <c r="Q14" s="20"/>
     </row>
-    <row r="15" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A15" s="139" t="s">
+    <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="133" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -20116,10 +20156,10 @@
         <v>71.379191000000006</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="129">
+      <c r="H15" s="127">
         <v>0.45529199999999997</v>
       </c>
-      <c r="I15" s="131">
+      <c r="I15" s="130">
         <v>-0.106876</v>
       </c>
       <c r="K15" s="20"/>
@@ -20128,8 +20168,8 @@
       <c r="P15" s="20"/>
       <c r="Q15" s="20"/>
     </row>
-    <row r="16" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A16" s="139"/>
+    <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="133"/>
       <c r="B16" s="29" t="s">
         <v>17</v>
       </c>
@@ -20146,16 +20186,16 @@
         <v>6.1831602761047684</v>
       </c>
       <c r="G16" s="22"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="126"/>
       <c r="K16" s="22"/>
       <c r="N16" s="20"/>
       <c r="O16" s="20"/>
       <c r="P16" s="20"/>
       <c r="Q16" s="20"/>
     </row>
-    <row r="17" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A17" s="139"/>
+    <row r="17" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="133"/>
       <c r="B17" s="29" t="s">
         <v>33</v>
       </c>
@@ -20176,16 +20216,16 @@
         <v>8.6624129378333359E-2</v>
       </c>
       <c r="G17" s="24"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="132"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="131"/>
       <c r="K17" s="30"/>
       <c r="N17" s="20"/>
       <c r="O17" s="20"/>
       <c r="P17" s="20"/>
       <c r="Q17" s="20"/>
     </row>
-    <row r="18" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A18" s="138" t="s">
+    <row r="18" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="141" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="28" t="s">
@@ -20204,10 +20244,10 @@
         <v>1073.4092599999999</v>
       </c>
       <c r="G18" s="22"/>
-      <c r="H18" s="127">
+      <c r="H18" s="128">
         <v>0.32833499999999999</v>
       </c>
-      <c r="I18" s="128">
+      <c r="I18" s="126">
         <v>0.116808</v>
       </c>
       <c r="K18" s="20"/>
@@ -20216,8 +20256,8 @@
       <c r="P18" s="20"/>
       <c r="Q18" s="20"/>
     </row>
-    <row r="19" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A19" s="139"/>
+    <row r="19" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="133"/>
       <c r="B19" s="29" t="s">
         <v>17</v>
       </c>
@@ -20234,11 +20274,11 @@
         <v>187.94482006429439</v>
       </c>
       <c r="G19" s="22"/>
-      <c r="H19" s="127"/>
-      <c r="I19" s="128"/>
+      <c r="H19" s="128"/>
+      <c r="I19" s="126"/>
       <c r="K19" s="22"/>
     </row>
-    <row r="20" spans="1:19" ht="18.75" customHeight="1">
+    <row r="20" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="140"/>
       <c r="B20" s="31" t="s">
         <v>33</v>
@@ -20260,12 +20300,12 @@
         <v>0.17509148380580805</v>
       </c>
       <c r="G20" s="22"/>
-      <c r="H20" s="127"/>
-      <c r="I20" s="128"/>
+      <c r="H20" s="128"/>
+      <c r="I20" s="126"/>
       <c r="K20" s="30"/>
     </row>
-    <row r="21" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A21" s="139" t="s">
+    <row r="21" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="133" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="27" t="s">
@@ -20284,16 +20324,16 @@
         <v>421.49141400000002</v>
       </c>
       <c r="G21" s="25"/>
-      <c r="H21" s="129">
+      <c r="H21" s="127">
         <v>0.37108400000000002</v>
       </c>
-      <c r="I21" s="131">
+      <c r="I21" s="130">
         <v>-0.129883</v>
       </c>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A22" s="139"/>
+    <row r="22" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="133"/>
       <c r="B22" s="29" t="s">
         <v>17</v>
       </c>
@@ -20310,12 +20350,12 @@
         <v>24.640221386992447</v>
       </c>
       <c r="G22" s="22"/>
-      <c r="H22" s="127"/>
-      <c r="I22" s="128"/>
+      <c r="H22" s="128"/>
+      <c r="I22" s="126"/>
       <c r="K22" s="22"/>
     </row>
-    <row r="23" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A23" s="139"/>
+    <row r="23" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="133"/>
       <c r="B23" s="29" t="s">
         <v>33</v>
       </c>
@@ -20336,12 +20376,12 @@
         <v>5.8459604557905526E-2</v>
       </c>
       <c r="G23" s="24"/>
-      <c r="H23" s="130"/>
-      <c r="I23" s="132"/>
+      <c r="H23" s="129"/>
+      <c r="I23" s="131"/>
       <c r="K23" s="30"/>
     </row>
-    <row r="24" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A24" s="138" t="s">
+    <row r="24" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="141" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="28" t="s">
@@ -20360,16 +20400,16 @@
         <v>98.513227000000001</v>
       </c>
       <c r="G24" s="22"/>
-      <c r="H24" s="127">
+      <c r="H24" s="128">
         <v>0.37252299999999999</v>
       </c>
-      <c r="I24" s="128">
+      <c r="I24" s="126">
         <v>0.35465999999999998</v>
       </c>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A25" s="139"/>
+    <row r="25" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="133"/>
       <c r="B25" s="29" t="s">
         <v>17</v>
       </c>
@@ -20386,11 +20426,11 @@
         <v>18.665223009650862</v>
       </c>
       <c r="G25" s="22"/>
-      <c r="H25" s="127"/>
-      <c r="I25" s="128"/>
+      <c r="H25" s="128"/>
+      <c r="I25" s="126"/>
       <c r="K25" s="22"/>
     </row>
-    <row r="26" spans="1:19" ht="18.75" customHeight="1">
+    <row r="26" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="140"/>
       <c r="B26" s="31" t="s">
         <v>33</v>
@@ -20412,12 +20452,12 @@
         <v>0.18946920711115131</v>
       </c>
       <c r="G26" s="22"/>
-      <c r="H26" s="127"/>
-      <c r="I26" s="128"/>
+      <c r="H26" s="128"/>
+      <c r="I26" s="126"/>
       <c r="K26" s="30"/>
     </row>
-    <row r="27" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A27" s="134" t="s">
+    <row r="27" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="136" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="28" t="s">
@@ -20436,16 +20476,16 @@
         <v>0.155247</v>
       </c>
       <c r="G27" s="25"/>
-      <c r="H27" s="129">
+      <c r="H27" s="127">
         <v>-0.14846799999999999</v>
       </c>
-      <c r="I27" s="131">
+      <c r="I27" s="130">
         <v>0.32571699999999998</v>
       </c>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A28" s="135"/>
+    <row r="28" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="137"/>
       <c r="B28" s="29" t="s">
         <v>17</v>
       </c>
@@ -20462,12 +20502,12 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="G28" s="22"/>
-      <c r="H28" s="127"/>
-      <c r="I28" s="128"/>
+      <c r="H28" s="128"/>
+      <c r="I28" s="126"/>
       <c r="K28" s="22"/>
     </row>
-    <row r="29" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A29" s="136"/>
+    <row r="29" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="138"/>
       <c r="B29" s="31" t="s">
         <v>33</v>
       </c>
@@ -20488,15 +20528,15 @@
         <v>4.5089438121187528E-2</v>
       </c>
       <c r="G29" s="24"/>
-      <c r="H29" s="130"/>
-      <c r="I29" s="132"/>
+      <c r="H29" s="129"/>
+      <c r="I29" s="131"/>
       <c r="K29" s="30"/>
     </row>
-    <row r="30" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A30" s="137" t="s">
+    <row r="30" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="137"/>
+      <c r="B30" s="132"/>
       <c r="C30" s="67">
         <v>0.86</v>
       </c>
@@ -20522,7 +20562,7 @@
       <c r="R30" s="20"/>
       <c r="S30" s="20"/>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -20541,7 +20581,7 @@
       <c r="R31" s="20"/>
       <c r="S31" s="20"/>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -20551,7 +20591,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -20561,28 +20601,28 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="141" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A34" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="126"/>
-      <c r="C34" s="141" t="s">
+      <c r="B34" s="134"/>
+      <c r="C34" s="142" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="126"/>
-      <c r="E34" s="133"/>
+      <c r="D34" s="134"/>
+      <c r="E34" s="135"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
-      <c r="H34" s="141" t="s">
+      <c r="H34" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="I34" s="133"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="142" t="s">
+      <c r="I34" s="135"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A35" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="137"/>
+      <c r="B35" s="132"/>
       <c r="C35" s="75">
         <v>3</v>
       </c>
@@ -20599,8 +20639,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="139" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A36" s="133" t="s">
         <v>23</v>
       </c>
       <c r="B36" s="27" t="s">
@@ -20618,12 +20658,12 @@
       <c r="H36" s="148">
         <v>-0.17044699999999999</v>
       </c>
-      <c r="I36" s="131">
+      <c r="I36" s="130">
         <v>0.55027199999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="139"/>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A37" s="133"/>
       <c r="B37" s="21" t="s">
         <v>32</v>
       </c>
@@ -20637,9 +20677,9 @@
         <v>14.492490745210086</v>
       </c>
       <c r="H37" s="149"/>
-      <c r="I37" s="128"/>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="I37" s="126"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="140"/>
       <c r="B38" s="23" t="s">
         <v>34</v>
@@ -20654,10 +20694,10 @@
         <v>0.12238902055658944</v>
       </c>
       <c r="H38" s="150"/>
-      <c r="I38" s="132"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="138" t="s">
+      <c r="I38" s="131"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A39" s="141" t="s">
         <v>24</v>
       </c>
       <c r="B39" s="28" t="s">
@@ -20675,12 +20715,12 @@
       <c r="H39" s="149">
         <v>0.415829</v>
       </c>
-      <c r="I39" s="128">
+      <c r="I39" s="126">
         <v>0.15626599999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="139"/>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A40" s="133"/>
       <c r="B40" s="29" t="s">
         <v>17</v>
       </c>
@@ -20694,9 +20734,9 @@
         <v>168.94439925016752</v>
       </c>
       <c r="H40" s="149"/>
-      <c r="I40" s="128"/>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="I40" s="126"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="140"/>
       <c r="B41" s="23" t="s">
         <v>33</v>
@@ -20711,10 +20751,10 @@
         <v>0.17425127263978374</v>
       </c>
       <c r="H41" s="149"/>
-      <c r="I41" s="128"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="138" t="s">
+      <c r="I41" s="126"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A42" s="141" t="s">
         <v>25</v>
       </c>
       <c r="B42" s="28" t="s">
@@ -20732,12 +20772,12 @@
       <c r="H42" s="148">
         <v>-0.36805300000000002</v>
       </c>
-      <c r="I42" s="131">
+      <c r="I42" s="130">
         <v>0.41729500000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="139"/>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A43" s="133"/>
       <c r="B43" s="29" t="s">
         <v>17</v>
       </c>
@@ -20751,9 +20791,9 @@
         <v>160.95019933818037</v>
       </c>
       <c r="H43" s="149"/>
-      <c r="I43" s="128"/>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="I43" s="126"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="140"/>
       <c r="B44" s="31" t="s">
         <v>33</v>
@@ -20768,10 +20808,10 @@
         <v>7.5913937259433559E-2</v>
       </c>
       <c r="H44" s="150"/>
-      <c r="I44" s="132"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="138" t="s">
+      <c r="I44" s="131"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A45" s="141" t="s">
         <v>26</v>
       </c>
       <c r="B45" s="28" t="s">
@@ -20789,12 +20829,12 @@
       <c r="H45" s="149">
         <v>-0.42366399999999999</v>
       </c>
-      <c r="I45" s="128">
+      <c r="I45" s="126">
         <v>1.5441E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="139"/>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A46" s="133"/>
       <c r="B46" s="29" t="s">
         <v>17</v>
       </c>
@@ -20808,9 +20848,9 @@
         <v>1.5841470891302991</v>
       </c>
       <c r="H46" s="149"/>
-      <c r="I46" s="128"/>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="I46" s="126"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" s="140"/>
       <c r="B47" s="31" t="s">
         <v>33</v>
@@ -20825,10 +20865,10 @@
         <v>8.9907349494814673E-2</v>
       </c>
       <c r="H47" s="149"/>
-      <c r="I47" s="128"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="139" t="s">
+      <c r="I47" s="126"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A48" s="133" t="s">
         <v>27</v>
       </c>
       <c r="B48" s="27" t="s">
@@ -20846,12 +20886,12 @@
       <c r="H48" s="148">
         <v>0.48777399999999999</v>
       </c>
-      <c r="I48" s="131">
+      <c r="I48" s="130">
         <v>7.1485999999999994E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="139"/>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A49" s="133"/>
       <c r="B49" s="29" t="s">
         <v>17</v>
       </c>
@@ -20865,10 +20905,10 @@
         <v>16.203605709841252</v>
       </c>
       <c r="H49" s="149"/>
-      <c r="I49" s="128"/>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="139"/>
+      <c r="I49" s="126"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A50" s="133"/>
       <c r="B50" s="29" t="s">
         <v>33</v>
       </c>
@@ -20882,10 +20922,10 @@
         <v>0.20684648540633754</v>
       </c>
       <c r="H50" s="150"/>
-      <c r="I50" s="132"/>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="138" t="s">
+      <c r="I50" s="131"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A51" s="141" t="s">
         <v>30</v>
       </c>
       <c r="B51" s="28" t="s">
@@ -20903,12 +20943,12 @@
       <c r="H51" s="149">
         <v>0.300064</v>
       </c>
-      <c r="I51" s="128">
+      <c r="I51" s="126">
         <v>0.34484300000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="139"/>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A52" s="133"/>
       <c r="B52" s="29" t="s">
         <v>17</v>
       </c>
@@ -20922,9 +20962,9 @@
         <v>184.47723291506733</v>
       </c>
       <c r="H52" s="149"/>
-      <c r="I52" s="128"/>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="I52" s="126"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" s="140"/>
       <c r="B53" s="31" t="s">
         <v>33</v>
@@ -20939,10 +20979,10 @@
         <v>0.22479072881070414</v>
       </c>
       <c r="H53" s="149"/>
-      <c r="I53" s="128"/>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="139" t="s">
+      <c r="I53" s="126"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A54" s="133" t="s">
         <v>31</v>
       </c>
       <c r="B54" s="27" t="s">
@@ -20960,12 +21000,12 @@
       <c r="H54" s="148">
         <v>0.37579400000000002</v>
       </c>
-      <c r="I54" s="131">
+      <c r="I54" s="130">
         <v>0.27063399999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="139"/>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A55" s="133"/>
       <c r="B55" s="29" t="s">
         <v>17</v>
       </c>
@@ -20979,10 +21019,10 @@
         <v>59.412692709554918</v>
       </c>
       <c r="H55" s="149"/>
-      <c r="I55" s="128"/>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="139"/>
+      <c r="I55" s="126"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A56" s="133"/>
       <c r="B56" s="29" t="s">
         <v>33</v>
       </c>
@@ -20996,10 +21036,10 @@
         <v>0.13682039823813646</v>
       </c>
       <c r="H56" s="150"/>
-      <c r="I56" s="132"/>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="138" t="s">
+      <c r="I56" s="131"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A57" s="141" t="s">
         <v>28</v>
       </c>
       <c r="B57" s="28" t="s">
@@ -21017,12 +21057,12 @@
       <c r="H57" s="149">
         <v>-9.5069000000000001E-2</v>
       </c>
-      <c r="I57" s="128">
+      <c r="I57" s="126">
         <v>0.54855600000000004</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="139"/>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A58" s="133"/>
       <c r="B58" s="29" t="s">
         <v>17</v>
       </c>
@@ -21036,9 +21076,9 @@
         <v>11.875037178889167</v>
       </c>
       <c r="H58" s="149"/>
-      <c r="I58" s="128"/>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="I58" s="126"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59" s="140"/>
       <c r="B59" s="31" t="s">
         <v>33</v>
@@ -21053,10 +21093,10 @@
         <v>0.20877922377181049</v>
       </c>
       <c r="H59" s="149"/>
-      <c r="I59" s="128"/>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="134" t="s">
+      <c r="I59" s="126"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A60" s="136" t="s">
         <v>29</v>
       </c>
       <c r="B60" s="28" t="s">
@@ -21074,12 +21114,12 @@
       <c r="H60" s="148">
         <v>6.9697999999999996E-2</v>
       </c>
-      <c r="I60" s="131">
+      <c r="I60" s="130">
         <v>1.4989000000000001E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="135"/>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A61" s="137"/>
       <c r="B61" s="29" t="s">
         <v>17</v>
       </c>
@@ -21093,10 +21133,10 @@
         <v>1.2767145334803704E-2</v>
       </c>
       <c r="H61" s="149"/>
-      <c r="I61" s="128"/>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="136"/>
+      <c r="I61" s="126"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A62" s="138"/>
       <c r="B62" s="31" t="s">
         <v>33</v>
       </c>
@@ -21110,13 +21150,13 @@
         <v>7.729699906038448E-2</v>
       </c>
       <c r="H62" s="150"/>
-      <c r="I62" s="132"/>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="137" t="s">
+      <c r="I62" s="131"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A63" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="B63" s="137"/>
+      <c r="B63" s="132"/>
       <c r="C63" s="95">
         <v>0.89</v>
       </c>
@@ -21127,25 +21167,25 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="141" t="s">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A67" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="B67" s="126"/>
-      <c r="C67" s="141" t="s">
+      <c r="B67" s="134"/>
+      <c r="C67" s="142" t="s">
         <v>39</v>
       </c>
-      <c r="D67" s="133"/>
-      <c r="H67" s="141" t="s">
+      <c r="D67" s="135"/>
+      <c r="H67" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="I67" s="133"/>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="142" t="s">
+      <c r="I67" s="135"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A68" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="B68" s="137"/>
+      <c r="B68" s="132"/>
       <c r="C68" s="75">
         <v>1</v>
       </c>
@@ -21159,8 +21199,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="139" t="s">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A69" s="133" t="s">
         <v>23</v>
       </c>
       <c r="B69" s="27" t="s">
@@ -21175,12 +21215,12 @@
       <c r="H69" s="148">
         <v>0.15939400000000001</v>
       </c>
-      <c r="I69" s="131">
+      <c r="I69" s="130">
         <v>0.56966499999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="139"/>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A70" s="133"/>
       <c r="B70" s="21" t="s">
         <v>32</v>
       </c>
@@ -21191,9 +21231,9 @@
         <v>57.231294280314856</v>
       </c>
       <c r="H70" s="149"/>
-      <c r="I70" s="128"/>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="I70" s="126"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A71" s="140"/>
       <c r="B71" s="23" t="s">
         <v>34</v>
@@ -21205,10 +21245,10 @@
         <v>0.29010884173414991</v>
       </c>
       <c r="H71" s="150"/>
-      <c r="I71" s="132"/>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="138" t="s">
+      <c r="I71" s="131"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A72" s="141" t="s">
         <v>24</v>
       </c>
       <c r="B72" s="28" t="s">
@@ -21223,12 +21263,12 @@
       <c r="H72" s="149">
         <v>0.43130099999999999</v>
       </c>
-      <c r="I72" s="128">
+      <c r="I72" s="126">
         <v>-0.16189600000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="139"/>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A73" s="133"/>
       <c r="B73" s="29" t="s">
         <v>17</v>
       </c>
@@ -21239,9 +21279,9 @@
         <v>111.22229129090985</v>
       </c>
       <c r="H73" s="149"/>
-      <c r="I73" s="128"/>
-    </row>
-    <row r="74" spans="1:9">
+      <c r="I73" s="126"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A74" s="140"/>
       <c r="B74" s="23" t="s">
         <v>33</v>
@@ -21253,10 +21293,10 @@
         <v>9.7939050824574686E-2</v>
       </c>
       <c r="H74" s="149"/>
-      <c r="I74" s="128"/>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="138" t="s">
+      <c r="I74" s="126"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A75" s="141" t="s">
         <v>25</v>
       </c>
       <c r="B75" s="28" t="s">
@@ -21271,12 +21311,12 @@
       <c r="H75" s="148">
         <v>-3.9958E-2</v>
       </c>
-      <c r="I75" s="131">
+      <c r="I75" s="130">
         <v>0.60186399999999995</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="139"/>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A76" s="133"/>
       <c r="B76" s="29" t="s">
         <v>17</v>
       </c>
@@ -21287,9 +21327,9 @@
         <v>851.37027309625978</v>
       </c>
       <c r="H76" s="149"/>
-      <c r="I76" s="128"/>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="I76" s="126"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A77" s="140"/>
       <c r="B77" s="31" t="s">
         <v>33</v>
@@ -21301,10 +21341,10 @@
         <v>0.27496166505934266</v>
       </c>
       <c r="H77" s="150"/>
-      <c r="I77" s="132"/>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="138" t="s">
+      <c r="I77" s="131"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A78" s="141" t="s">
         <v>26</v>
       </c>
       <c r="B78" s="28" t="s">
@@ -21319,12 +21359,12 @@
       <c r="H78" s="149">
         <v>-0.39849400000000001</v>
       </c>
-      <c r="I78" s="128">
+      <c r="I78" s="126">
         <v>0.14122599999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="139"/>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A79" s="133"/>
       <c r="B79" s="29" t="s">
         <v>17</v>
       </c>
@@ -21335,9 +21375,9 @@
         <v>1.4784468201460614</v>
       </c>
       <c r="H79" s="149"/>
-      <c r="I79" s="128"/>
-    </row>
-    <row r="80" spans="1:9">
+      <c r="I79" s="126"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A80" s="140"/>
       <c r="B80" s="31" t="s">
         <v>33</v>
@@ -21349,10 +21389,10 @@
         <v>9.5699090016569538E-2</v>
       </c>
       <c r="H80" s="149"/>
-      <c r="I80" s="128"/>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81" s="139" t="s">
+      <c r="I80" s="126"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A81" s="133" t="s">
         <v>27</v>
       </c>
       <c r="B81" s="27" t="s">
@@ -21367,12 +21407,12 @@
       <c r="H81" s="148">
         <v>0.460092</v>
       </c>
-      <c r="I81" s="131">
+      <c r="I81" s="130">
         <v>-0.196191</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="139"/>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A82" s="133"/>
       <c r="B82" s="29" t="s">
         <v>17</v>
       </c>
@@ -21383,10 +21423,10 @@
         <v>15.93045099801007</v>
       </c>
       <c r="H82" s="149"/>
-      <c r="I82" s="128"/>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="139"/>
+      <c r="I82" s="126"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A83" s="133"/>
       <c r="B83" s="29" t="s">
         <v>33</v>
       </c>
@@ -21397,10 +21437,10 @@
         <v>0.15424952924492702</v>
       </c>
       <c r="H83" s="150"/>
-      <c r="I83" s="132"/>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="138" t="s">
+      <c r="I83" s="131"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A84" s="141" t="s">
         <v>30</v>
       </c>
       <c r="B84" s="28" t="s">
@@ -21415,12 +21455,12 @@
       <c r="H84" s="149">
         <v>0.378911</v>
       </c>
-      <c r="I84" s="128">
+      <c r="I84" s="126">
         <v>0.17912800000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="139"/>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A85" s="133"/>
       <c r="B85" s="29" t="s">
         <v>17</v>
       </c>
@@ -21431,9 +21471,9 @@
         <v>170.09358980573018</v>
       </c>
       <c r="H85" s="149"/>
-      <c r="I85" s="128"/>
-    </row>
-    <row r="86" spans="1:9">
+      <c r="I85" s="126"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A86" s="140"/>
       <c r="B86" s="31" t="s">
         <v>33</v>
@@ -21445,10 +21485,10 @@
         <v>0.1495585688153645</v>
       </c>
       <c r="H86" s="149"/>
-      <c r="I86" s="128"/>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="139" t="s">
+      <c r="I86" s="126"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A87" s="133" t="s">
         <v>31</v>
       </c>
       <c r="B87" s="27" t="s">
@@ -21463,12 +21503,12 @@
       <c r="H87" s="148">
         <v>0.39992100000000003</v>
       </c>
-      <c r="I87" s="131">
+      <c r="I87" s="130">
         <v>-0.13946700000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="139"/>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A88" s="133"/>
       <c r="B88" s="29" t="s">
         <v>17</v>
       </c>
@@ -21479,10 +21519,10 @@
         <v>30.091456960406553</v>
       </c>
       <c r="H88" s="149"/>
-      <c r="I88" s="128"/>
-    </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="139"/>
+      <c r="I88" s="126"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A89" s="133"/>
       <c r="B89" s="29" t="s">
         <v>33</v>
       </c>
@@ -21493,10 +21533,10 @@
         <v>6.178898563243107E-2</v>
       </c>
       <c r="H89" s="150"/>
-      <c r="I89" s="132"/>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="138" t="s">
+      <c r="I89" s="131"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A90" s="141" t="s">
         <v>28</v>
       </c>
       <c r="B90" s="28" t="s">
@@ -21511,12 +21551,12 @@
       <c r="H90" s="149">
         <v>0.31768800000000003</v>
       </c>
-      <c r="I90" s="128">
+      <c r="I90" s="126">
         <v>0.41881000000000002</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="139"/>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A91" s="133"/>
       <c r="B91" s="29" t="s">
         <v>17</v>
       </c>
@@ -21527,9 +21567,9 @@
         <v>23.873093410783614</v>
       </c>
       <c r="H91" s="149"/>
-      <c r="I91" s="128"/>
-    </row>
-    <row r="92" spans="1:9">
+      <c r="I91" s="126"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A92" s="140"/>
       <c r="B92" s="31" t="s">
         <v>33</v>
@@ -21541,10 +21581,10 @@
         <v>0.2541768521907351</v>
       </c>
       <c r="H92" s="149"/>
-      <c r="I92" s="128"/>
-    </row>
-    <row r="93" spans="1:9">
-      <c r="A93" s="134" t="s">
+      <c r="I92" s="126"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A93" s="136" t="s">
         <v>29</v>
       </c>
       <c r="B93" s="28" t="s">
@@ -21559,12 +21599,12 @@
       <c r="H93" s="148">
         <v>-0.10981200000000001</v>
       </c>
-      <c r="I93" s="131">
+      <c r="I93" s="130">
         <v>-4.0695000000000002E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="135"/>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A94" s="137"/>
       <c r="B94" s="29" t="s">
         <v>17</v>
       </c>
@@ -21575,10 +21615,10 @@
         <v>9.1651513899116792E-3</v>
       </c>
       <c r="H94" s="149"/>
-      <c r="I94" s="128"/>
-    </row>
-    <row r="95" spans="1:9">
-      <c r="A95" s="136"/>
+      <c r="I94" s="126"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A95" s="138"/>
       <c r="B95" s="31" t="s">
         <v>33</v>
       </c>
@@ -21589,13 +21629,13 @@
         <v>5.9148707590862139E-2</v>
       </c>
       <c r="H95" s="150"/>
-      <c r="I95" s="132"/>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="A96" s="137" t="s">
+      <c r="I95" s="131"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A96" s="132" t="s">
         <v>22</v>
       </c>
-      <c r="B96" s="137"/>
+      <c r="B96" s="132"/>
       <c r="C96" s="95">
         <v>0.81</v>
       </c>
@@ -21605,28 +21645,76 @@
       <c r="H96" s="22"/>
       <c r="I96" s="22"/>
     </row>
-    <row r="97" spans="8:9">
+    <row r="97" spans="8:9" x14ac:dyDescent="0.4">
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="H69:H71"/>
+    <mergeCell ref="I69:I71"/>
+    <mergeCell ref="H78:H80"/>
+    <mergeCell ref="I78:I80"/>
+    <mergeCell ref="H81:H83"/>
+    <mergeCell ref="I81:I83"/>
+    <mergeCell ref="H72:H74"/>
+    <mergeCell ref="I72:I74"/>
+    <mergeCell ref="H75:H77"/>
+    <mergeCell ref="I75:I77"/>
+    <mergeCell ref="H90:H92"/>
+    <mergeCell ref="I90:I92"/>
+    <mergeCell ref="H93:H95"/>
+    <mergeCell ref="I93:I95"/>
+    <mergeCell ref="H84:H86"/>
+    <mergeCell ref="I84:I86"/>
+    <mergeCell ref="H87:H89"/>
+    <mergeCell ref="I87:I89"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="A87:A89"/>
+    <mergeCell ref="I60:I62"/>
+    <mergeCell ref="I51:I53"/>
+    <mergeCell ref="I54:I56"/>
+    <mergeCell ref="I45:I47"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="H36:H38"/>
+    <mergeCell ref="I57:I59"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="I42:I44"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="I36:I38"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="H57:H59"/>
+    <mergeCell ref="H60:H62"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="H54:H56"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="A54:A56"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="A24:A26"/>
@@ -21643,70 +21731,22 @@
     <mergeCell ref="I21:I23"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="H12:H14"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="H60:H62"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="H54:H56"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="I57:I59"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="I42:I44"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="I36:I38"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="H57:H59"/>
-    <mergeCell ref="I60:I62"/>
-    <mergeCell ref="I51:I53"/>
-    <mergeCell ref="I54:I56"/>
-    <mergeCell ref="I45:I47"/>
-    <mergeCell ref="I48:I50"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A90:A92"/>
-    <mergeCell ref="A93:A95"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="A87:A89"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="A81:A83"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="H90:H92"/>
-    <mergeCell ref="I90:I92"/>
-    <mergeCell ref="H93:H95"/>
-    <mergeCell ref="I93:I95"/>
-    <mergeCell ref="H84:H86"/>
-    <mergeCell ref="I84:I86"/>
-    <mergeCell ref="H87:H89"/>
-    <mergeCell ref="I87:I89"/>
-    <mergeCell ref="H81:H83"/>
-    <mergeCell ref="I81:I83"/>
-    <mergeCell ref="H72:H74"/>
-    <mergeCell ref="I72:I74"/>
-    <mergeCell ref="H75:H77"/>
-    <mergeCell ref="I75:I77"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="H69:H71"/>
-    <mergeCell ref="I69:I71"/>
-    <mergeCell ref="H78:H80"/>
-    <mergeCell ref="I78:I80"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="I3:I5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C69:D69">
@@ -22271,12 +22311,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{888AE6E2-33D2-4BB4-A165-A10ABB4CF79E}">
   <dimension ref="A1:T102"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="24.375" style="3" customWidth="1"/>
     <col min="2" max="6" width="10" customWidth="1"/>
@@ -22285,28 +22325,28 @@
     <col min="10" max="10" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="141" t="s">
+    <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126" t="s">
+      <c r="B1" s="134"/>
+      <c r="C1" s="134" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
       <c r="G1" s="25"/>
-      <c r="H1" s="126" t="s">
+      <c r="H1" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="133"/>
-    </row>
-    <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="142" t="s">
+      <c r="I1" s="135"/>
+    </row>
+    <row r="2" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="137"/>
+      <c r="B2" s="132"/>
       <c r="C2" s="37">
         <v>3</v>
       </c>
@@ -22327,8 +22367,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A3" s="139" t="s">
+    <row r="3" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="133" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="27" t="s">
@@ -22347,15 +22387,15 @@
         <v>61.666666999999997</v>
       </c>
       <c r="G3" s="36"/>
-      <c r="H3" s="129">
+      <c r="H3" s="127">
         <v>-3.8743E-2</v>
       </c>
       <c r="I3" s="145">
         <v>-0.23250999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A4" s="139"/>
+    <row r="4" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="133"/>
       <c r="B4" s="21" t="s">
         <v>32</v>
       </c>
@@ -22372,10 +22412,10 @@
         <v>13.693063937629153</v>
       </c>
       <c r="G4" s="26"/>
-      <c r="H4" s="127"/>
+      <c r="H4" s="128"/>
       <c r="I4" s="146"/>
     </row>
-    <row r="5" spans="1:17" ht="18.75" customHeight="1">
+    <row r="5" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="140"/>
       <c r="B5" s="23" t="s">
         <v>34</v>
@@ -22393,11 +22433,11 @@
         <v>0.22204968427479879</v>
       </c>
       <c r="G5" s="37"/>
-      <c r="H5" s="130"/>
+      <c r="H5" s="129"/>
       <c r="I5" s="147"/>
     </row>
-    <row r="6" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A6" s="139" t="s">
+    <row r="6" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="133" t="s">
         <v>23</v>
       </c>
       <c r="B6" s="27" t="s">
@@ -22416,15 +22456,15 @@
         <v>232.03920600000001</v>
       </c>
       <c r="G6" s="22"/>
-      <c r="H6" s="127">
+      <c r="H6" s="128">
         <v>0.16178500000000001</v>
       </c>
-      <c r="I6" s="128">
+      <c r="I6" s="126">
         <v>0.55025000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A7" s="139"/>
+    <row r="7" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="133"/>
       <c r="B7" s="21" t="s">
         <v>32</v>
       </c>
@@ -22441,13 +22481,13 @@
         <v>43.266110456106404</v>
       </c>
       <c r="G7" s="22"/>
-      <c r="H7" s="127"/>
-      <c r="I7" s="128"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="126"/>
       <c r="K7" s="22"/>
       <c r="L7" s="20"/>
       <c r="N7" s="20"/>
     </row>
-    <row r="8" spans="1:17" ht="18.75" customHeight="1">
+    <row r="8" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="140"/>
       <c r="B8" s="23" t="s">
         <v>34</v>
@@ -22465,16 +22505,16 @@
         <v>0.18646034522332577</v>
       </c>
       <c r="G8" s="22"/>
-      <c r="H8" s="127"/>
-      <c r="I8" s="128"/>
+      <c r="H8" s="128"/>
+      <c r="I8" s="126"/>
       <c r="K8" s="30"/>
       <c r="L8" s="20"/>
       <c r="M8" s="20"/>
       <c r="N8" s="20"/>
       <c r="O8" s="20"/>
     </row>
-    <row r="9" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A9" s="138" t="s">
+    <row r="9" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="141" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="28" t="s">
@@ -22493,10 +22533,10 @@
         <v>907.28177800000003</v>
       </c>
       <c r="G9" s="25"/>
-      <c r="H9" s="129">
+      <c r="H9" s="127">
         <v>0.43143799999999999</v>
       </c>
-      <c r="I9" s="131">
+      <c r="I9" s="130">
         <v>-0.111646</v>
       </c>
       <c r="K9" s="20"/>
@@ -22505,8 +22545,8 @@
       <c r="N9" s="20"/>
       <c r="O9" s="20"/>
     </row>
-    <row r="10" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A10" s="139"/>
+    <row r="10" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="133"/>
       <c r="B10" s="29" t="s">
         <v>17</v>
       </c>
@@ -22523,15 +22563,15 @@
         <v>73.8296050443181</v>
       </c>
       <c r="G10" s="22"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="126"/>
       <c r="K10" s="22"/>
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
       <c r="N10" s="20"/>
       <c r="O10" s="20"/>
     </row>
-    <row r="11" spans="1:17" ht="18.75" customHeight="1">
+    <row r="11" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="140"/>
       <c r="B11" s="23" t="s">
         <v>33</v>
@@ -22549,16 +22589,16 @@
         <v>8.1374504409277459E-2</v>
       </c>
       <c r="G11" s="24"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="132"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="131"/>
       <c r="K11" s="30"/>
       <c r="L11" s="20"/>
       <c r="M11" s="20"/>
       <c r="N11" s="20"/>
       <c r="O11" s="20"/>
     </row>
-    <row r="12" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A12" s="138" t="s">
+    <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="141" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="28" t="s">
@@ -22577,10 +22617,10 @@
         <v>4213</v>
       </c>
       <c r="G12" s="22"/>
-      <c r="H12" s="127">
+      <c r="H12" s="128">
         <v>-4.4269999999999997E-2</v>
       </c>
-      <c r="I12" s="128">
+      <c r="I12" s="126">
         <v>0.58257099999999995</v>
       </c>
       <c r="K12" s="20"/>
@@ -22589,8 +22629,8 @@
       <c r="N12" s="20"/>
       <c r="O12" s="20"/>
     </row>
-    <row r="13" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A13" s="139"/>
+    <row r="13" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="133"/>
       <c r="B13" s="29" t="s">
         <v>17</v>
       </c>
@@ -22607,15 +22647,15 @@
         <v>720.34991497188366</v>
       </c>
       <c r="G13" s="22"/>
-      <c r="H13" s="127"/>
-      <c r="I13" s="128"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="126"/>
       <c r="K13" s="22"/>
       <c r="L13" s="20"/>
       <c r="M13" s="20"/>
       <c r="N13" s="20"/>
       <c r="O13" s="20"/>
     </row>
-    <row r="14" spans="1:17" ht="18.75" customHeight="1">
+    <row r="14" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="140"/>
       <c r="B14" s="31" t="s">
         <v>33</v>
@@ -22633,16 +22673,16 @@
         <v>0.1709826524974801</v>
       </c>
       <c r="G14" s="22"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="128"/>
+      <c r="H14" s="128"/>
+      <c r="I14" s="126"/>
       <c r="K14" s="35"/>
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
       <c r="N14" s="20"/>
       <c r="O14" s="20"/>
     </row>
-    <row r="15" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A15" s="138" t="s">
+    <row r="15" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="141" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="28" t="s">
@@ -22661,10 +22701,10 @@
         <v>17.616083</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="129">
+      <c r="H15" s="127">
         <v>-0.41344900000000001</v>
       </c>
-      <c r="I15" s="131">
+      <c r="I15" s="130">
         <v>0.103385</v>
       </c>
       <c r="K15" s="20"/>
@@ -22673,8 +22713,8 @@
       <c r="N15" s="20"/>
       <c r="O15" s="20"/>
     </row>
-    <row r="16" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A16" s="139"/>
+    <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="133"/>
       <c r="B16" s="29" t="s">
         <v>17</v>
       </c>
@@ -22691,8 +22731,8 @@
         <v>0.82242324869862471</v>
       </c>
       <c r="G16" s="22"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="128"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="126"/>
       <c r="K16" s="22"/>
       <c r="L16" s="20"/>
       <c r="M16" s="20"/>
@@ -22701,7 +22741,7 @@
       <c r="P16" s="20"/>
       <c r="Q16" s="20"/>
     </row>
-    <row r="17" spans="1:17" ht="18.75" customHeight="1">
+    <row r="17" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="140"/>
       <c r="B17" s="31" t="s">
         <v>33</v>
@@ -22719,16 +22759,16 @@
         <v>4.6685931753308881E-2</v>
       </c>
       <c r="G17" s="24"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="132"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="131"/>
       <c r="K17" s="30"/>
       <c r="L17" s="20"/>
       <c r="M17" s="20"/>
       <c r="N17" s="20"/>
       <c r="O17" s="20"/>
     </row>
-    <row r="18" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A18" s="139" t="s">
+    <row r="18" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="133" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="27" t="s">
@@ -22747,16 +22787,16 @@
         <v>71.908652000000004</v>
       </c>
       <c r="G18" s="22"/>
-      <c r="H18" s="127">
+      <c r="H18" s="128">
         <v>0.45378299999999999</v>
       </c>
-      <c r="I18" s="128">
+      <c r="I18" s="126">
         <v>-0.11502900000000001</v>
       </c>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A19" s="139"/>
+    <row r="19" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="133"/>
       <c r="B19" s="29" t="s">
         <v>17</v>
       </c>
@@ -22773,12 +22813,12 @@
         <v>7.5276394042222821</v>
       </c>
       <c r="G19" s="22"/>
-      <c r="H19" s="127"/>
-      <c r="I19" s="128"/>
+      <c r="H19" s="128"/>
+      <c r="I19" s="126"/>
       <c r="K19" s="22"/>
     </row>
-    <row r="20" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A20" s="139"/>
+    <row r="20" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="133"/>
       <c r="B20" s="29" t="s">
         <v>33</v>
       </c>
@@ -22795,12 +22835,12 @@
         <v>0.10468336138775458</v>
       </c>
       <c r="G20" s="22"/>
-      <c r="H20" s="127"/>
-      <c r="I20" s="128"/>
+      <c r="H20" s="128"/>
+      <c r="I20" s="126"/>
       <c r="K20" s="30"/>
     </row>
-    <row r="21" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A21" s="138" t="s">
+    <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="141" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="28" t="s">
@@ -22819,10 +22859,10 @@
         <v>1038.939717</v>
       </c>
       <c r="G21" s="25"/>
-      <c r="H21" s="129">
+      <c r="H21" s="127">
         <v>0.33114399999999999</v>
       </c>
-      <c r="I21" s="131">
+      <c r="I21" s="130">
         <v>0.13273399999999999</v>
       </c>
       <c r="K21" s="20"/>
@@ -22831,8 +22871,8 @@
       <c r="P21" s="20"/>
       <c r="Q21" s="20"/>
     </row>
-    <row r="22" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A22" s="139"/>
+    <row r="22" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="133"/>
       <c r="B22" s="29" t="s">
         <v>17</v>
       </c>
@@ -22849,11 +22889,11 @@
         <v>132.59872793507486</v>
       </c>
       <c r="G22" s="22"/>
-      <c r="H22" s="127"/>
-      <c r="I22" s="128"/>
+      <c r="H22" s="128"/>
+      <c r="I22" s="126"/>
       <c r="K22" s="22"/>
     </row>
-    <row r="23" spans="1:17" ht="18.75" customHeight="1">
+    <row r="23" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="140"/>
       <c r="B23" s="31" t="s">
         <v>33</v>
@@ -22871,12 +22911,12 @@
         <v>0.12762889488714663</v>
       </c>
       <c r="G23" s="24"/>
-      <c r="H23" s="130"/>
-      <c r="I23" s="132"/>
+      <c r="H23" s="129"/>
+      <c r="I23" s="131"/>
       <c r="K23" s="30"/>
     </row>
-    <row r="24" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A24" s="139" t="s">
+    <row r="24" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="133" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="27" t="s">
@@ -22895,16 +22935,16 @@
         <v>422.738159</v>
       </c>
       <c r="G24" s="22"/>
-      <c r="H24" s="127">
+      <c r="H24" s="128">
         <v>0.37010599999999999</v>
       </c>
-      <c r="I24" s="128">
+      <c r="I24" s="126">
         <v>-0.12901899999999999</v>
       </c>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A25" s="139"/>
+    <row r="25" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="133"/>
       <c r="B25" s="29" t="s">
         <v>17</v>
       </c>
@@ -22921,12 +22961,12 @@
         <v>24.681994510168746</v>
       </c>
       <c r="G25" s="22"/>
-      <c r="H25" s="127"/>
-      <c r="I25" s="128"/>
+      <c r="H25" s="128"/>
+      <c r="I25" s="126"/>
       <c r="K25" s="22"/>
     </row>
-    <row r="26" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A26" s="139"/>
+    <row r="26" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="133"/>
       <c r="B26" s="29" t="s">
         <v>33</v>
       </c>
@@ -22943,12 +22983,12 @@
         <v>5.8386010310861824E-2</v>
       </c>
       <c r="G26" s="22"/>
-      <c r="H26" s="127"/>
-      <c r="I26" s="128"/>
+      <c r="H26" s="128"/>
+      <c r="I26" s="126"/>
       <c r="K26" s="30"/>
     </row>
-    <row r="27" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A27" s="138" t="s">
+    <row r="27" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="141" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="28" t="s">
@@ -22967,16 +23007,16 @@
         <v>97.401615000000007</v>
       </c>
       <c r="G27" s="25"/>
-      <c r="H27" s="129">
+      <c r="H27" s="127">
         <v>0.37440600000000002</v>
       </c>
-      <c r="I27" s="131">
+      <c r="I27" s="130">
         <v>0.33322099999999999</v>
       </c>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A28" s="139"/>
+    <row r="28" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="133"/>
       <c r="B28" s="29" t="s">
         <v>17</v>
       </c>
@@ -22993,11 +23033,11 @@
         <v>16.974471862181751</v>
       </c>
       <c r="G28" s="22"/>
-      <c r="H28" s="127"/>
-      <c r="I28" s="128"/>
+      <c r="H28" s="128"/>
+      <c r="I28" s="126"/>
       <c r="K28" s="22"/>
     </row>
-    <row r="29" spans="1:17" ht="18.75" customHeight="1">
+    <row r="29" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="140"/>
       <c r="B29" s="31" t="s">
         <v>33</v>
@@ -23015,12 +23055,12 @@
         <v>0.1742730021692325</v>
       </c>
       <c r="G29" s="24"/>
-      <c r="H29" s="130"/>
-      <c r="I29" s="132"/>
+      <c r="H29" s="129"/>
+      <c r="I29" s="131"/>
       <c r="K29" s="30"/>
     </row>
-    <row r="30" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A30" s="134" t="s">
+    <row r="30" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="136" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="28" t="s">
@@ -23039,16 +23079,16 @@
         <v>0.15324099999999999</v>
       </c>
       <c r="G30" s="25"/>
-      <c r="H30" s="129">
+      <c r="H30" s="127">
         <v>-0.14335999999999999</v>
       </c>
-      <c r="I30" s="131">
+      <c r="I30" s="130">
         <v>0.349414</v>
       </c>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A31" s="135"/>
+    <row r="31" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="137"/>
       <c r="B31" s="29" t="s">
         <v>17</v>
       </c>
@@ -23065,12 +23105,12 @@
         <v>6.1644140029689766E-3</v>
       </c>
       <c r="G31" s="22"/>
-      <c r="H31" s="127"/>
-      <c r="I31" s="128"/>
+      <c r="H31" s="128"/>
+      <c r="I31" s="126"/>
       <c r="K31" s="22"/>
     </row>
-    <row r="32" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A32" s="136"/>
+    <row r="32" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="138"/>
       <c r="B32" s="31" t="s">
         <v>33</v>
       </c>
@@ -23087,11 +23127,11 @@
         <v>4.022692362337088E-2</v>
       </c>
       <c r="G32" s="24"/>
-      <c r="H32" s="130"/>
-      <c r="I32" s="132"/>
+      <c r="H32" s="129"/>
+      <c r="I32" s="131"/>
       <c r="K32" s="22"/>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -23111,7 +23151,7 @@
       <c r="S33" s="20"/>
       <c r="T33" s="20"/>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -23131,7 +23171,7 @@
       <c r="S34" s="20"/>
       <c r="T34" s="20"/>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -23141,28 +23181,28 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:20">
-      <c r="A36" s="141" t="s">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A36" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="126"/>
-      <c r="C36" s="126" t="s">
+      <c r="B36" s="134"/>
+      <c r="C36" s="134" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="126"/>
-      <c r="E36" s="126"/>
-      <c r="F36" s="126"/>
+      <c r="D36" s="134"/>
+      <c r="E36" s="134"/>
+      <c r="F36" s="134"/>
       <c r="G36" s="25"/>
-      <c r="H36" s="126" t="s">
+      <c r="H36" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="I36" s="133"/>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" s="142" t="s">
+      <c r="I36" s="135"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A37" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="137"/>
+      <c r="B37" s="132"/>
       <c r="C37" s="37">
         <v>2</v>
       </c>
@@ -23183,8 +23223,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
-      <c r="A38" s="139" t="s">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A38" s="133" t="s">
         <v>35</v>
       </c>
       <c r="B38" s="27" t="s">
@@ -23203,15 +23243,15 @@
         <v>78</v>
       </c>
       <c r="G38" s="36"/>
-      <c r="H38" s="129">
+      <c r="H38" s="127">
         <v>-2.8187E-2</v>
       </c>
       <c r="I38" s="145">
         <v>0.14141599999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
-      <c r="A39" s="139"/>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A39" s="133"/>
       <c r="B39" s="21" t="s">
         <v>32</v>
       </c>
@@ -23228,10 +23268,10 @@
         <v>13.038404810405298</v>
       </c>
       <c r="G39" s="26"/>
-      <c r="H39" s="127"/>
+      <c r="H39" s="128"/>
       <c r="I39" s="146"/>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A40" s="140"/>
       <c r="B40" s="23" t="s">
         <v>34</v>
@@ -23249,11 +23289,11 @@
         <v>0.16715903603083715</v>
       </c>
       <c r="G40" s="37"/>
-      <c r="H40" s="130"/>
+      <c r="H40" s="129"/>
       <c r="I40" s="147"/>
     </row>
-    <row r="41" spans="1:20">
-      <c r="A41" s="139" t="s">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A41" s="133" t="s">
         <v>23</v>
       </c>
       <c r="B41" s="27" t="s">
@@ -23272,15 +23312,15 @@
         <v>95.840238999999997</v>
       </c>
       <c r="G41" s="22"/>
-      <c r="H41" s="127">
+      <c r="H41" s="128">
         <v>-0.173153</v>
       </c>
-      <c r="I41" s="128">
+      <c r="I41" s="126">
         <v>0.53786500000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
-      <c r="A42" s="139"/>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A42" s="133"/>
       <c r="B42" s="21" t="s">
         <v>32</v>
       </c>
@@ -23297,10 +23337,10 @@
         <v>18.939287156595942</v>
       </c>
       <c r="G42" s="22"/>
-      <c r="H42" s="127"/>
-      <c r="I42" s="128"/>
-    </row>
-    <row r="43" spans="1:20">
+      <c r="H42" s="128"/>
+      <c r="I42" s="126"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A43" s="140"/>
       <c r="B43" s="23" t="s">
         <v>34</v>
@@ -23318,11 +23358,11 @@
         <v>0.19761310441427365</v>
       </c>
       <c r="G43" s="22"/>
-      <c r="H43" s="127"/>
-      <c r="I43" s="128"/>
-    </row>
-    <row r="44" spans="1:20">
-      <c r="A44" s="138" t="s">
+      <c r="H43" s="128"/>
+      <c r="I43" s="126"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A44" s="141" t="s">
         <v>24</v>
       </c>
       <c r="B44" s="28" t="s">
@@ -23341,15 +23381,15 @@
         <v>1153.2708809999999</v>
       </c>
       <c r="G44" s="25"/>
-      <c r="H44" s="129">
+      <c r="H44" s="127">
         <v>0.41355599999999998</v>
       </c>
-      <c r="I44" s="131">
+      <c r="I44" s="130">
         <v>0.167078</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
-      <c r="A45" s="139"/>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A45" s="133"/>
       <c r="B45" s="29" t="s">
         <v>17</v>
       </c>
@@ -23366,10 +23406,10 @@
         <v>110.71276122922777</v>
       </c>
       <c r="G45" s="22"/>
-      <c r="H45" s="127"/>
-      <c r="I45" s="128"/>
-    </row>
-    <row r="46" spans="1:20">
+      <c r="H45" s="128"/>
+      <c r="I45" s="126"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A46" s="140"/>
       <c r="B46" s="23" t="s">
         <v>33</v>
@@ -23387,11 +23427,11 @@
         <v>9.5998921895286957E-2</v>
       </c>
       <c r="G46" s="43"/>
-      <c r="H46" s="130"/>
-      <c r="I46" s="132"/>
-    </row>
-    <row r="47" spans="1:20">
-      <c r="A47" s="138" t="s">
+      <c r="H46" s="129"/>
+      <c r="I46" s="131"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A47" s="141" t="s">
         <v>25</v>
       </c>
       <c r="B47" s="28" t="s">
@@ -23410,15 +23450,15 @@
         <v>1283.2</v>
       </c>
       <c r="G47" s="22"/>
-      <c r="H47" s="127">
+      <c r="H47" s="128">
         <v>-0.37055300000000002</v>
       </c>
-      <c r="I47" s="128">
+      <c r="I47" s="126">
         <v>0.40938999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:20">
-      <c r="A48" s="139"/>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A48" s="133"/>
       <c r="B48" s="29" t="s">
         <v>17</v>
       </c>
@@ -23435,10 +23475,10 @@
         <v>154.08179645889388</v>
       </c>
       <c r="G48" s="22"/>
-      <c r="H48" s="127"/>
-      <c r="I48" s="128"/>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="H48" s="128"/>
+      <c r="I48" s="126"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" s="140"/>
       <c r="B49" s="31" t="s">
         <v>33</v>
@@ -23456,11 +23496,11 @@
         <v>0.12007621295113301</v>
       </c>
       <c r="G49" s="22"/>
-      <c r="H49" s="127"/>
-      <c r="I49" s="128"/>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="138" t="s">
+      <c r="H49" s="128"/>
+      <c r="I49" s="126"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A50" s="141" t="s">
         <v>26</v>
       </c>
       <c r="B50" s="28" t="s">
@@ -23479,15 +23519,15 @@
         <v>13.066091999999999</v>
       </c>
       <c r="G50" s="25"/>
-      <c r="H50" s="129">
+      <c r="H50" s="127">
         <v>-0.42402699999999999</v>
       </c>
-      <c r="I50" s="131">
+      <c r="I50" s="130">
         <v>1.4246999999999999E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="139"/>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A51" s="133"/>
       <c r="B51" s="29" t="s">
         <v>17</v>
       </c>
@@ -23504,10 +23544,10 @@
         <v>1.7486649193027233</v>
       </c>
       <c r="G51" s="22"/>
-      <c r="H51" s="127"/>
-      <c r="I51" s="128"/>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="H51" s="128"/>
+      <c r="I51" s="126"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" s="140"/>
       <c r="B52" s="31" t="s">
         <v>33</v>
@@ -23525,11 +23565,11 @@
         <v>0.13383228277458351</v>
       </c>
       <c r="G52" s="24"/>
-      <c r="H52" s="130"/>
-      <c r="I52" s="132"/>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="139" t="s">
+      <c r="H52" s="129"/>
+      <c r="I52" s="131"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A53" s="133" t="s">
         <v>27</v>
       </c>
       <c r="B53" s="27" t="s">
@@ -23548,15 +23588,15 @@
         <v>118.336457</v>
       </c>
       <c r="G53" s="22"/>
-      <c r="H53" s="127">
+      <c r="H53" s="128">
         <v>0.486929</v>
       </c>
-      <c r="I53" s="128">
+      <c r="I53" s="126">
         <v>7.7284000000000005E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="139"/>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A54" s="133"/>
       <c r="B54" s="29" t="s">
         <v>17</v>
       </c>
@@ -23573,11 +23613,11 @@
         <v>21.499348176165714</v>
       </c>
       <c r="G54" s="22"/>
-      <c r="H54" s="127"/>
-      <c r="I54" s="128"/>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="139"/>
+      <c r="H54" s="128"/>
+      <c r="I54" s="126"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A55" s="133"/>
       <c r="B55" s="29" t="s">
         <v>33</v>
       </c>
@@ -23594,11 +23634,11 @@
         <v>0.18167983663872678</v>
       </c>
       <c r="G55" s="22"/>
-      <c r="H55" s="127"/>
-      <c r="I55" s="128"/>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="138" t="s">
+      <c r="H55" s="128"/>
+      <c r="I55" s="126"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A56" s="141" t="s">
         <v>30</v>
       </c>
       <c r="B56" s="28" t="s">
@@ -23617,15 +23657,15 @@
         <v>878.05185200000005</v>
       </c>
       <c r="G56" s="25"/>
-      <c r="H56" s="129">
+      <c r="H56" s="127">
         <v>0.29672999999999999</v>
       </c>
-      <c r="I56" s="131">
+      <c r="I56" s="130">
         <v>0.35155900000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="139"/>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A57" s="133"/>
       <c r="B57" s="29" t="s">
         <v>17</v>
       </c>
@@ -23642,10 +23682,10 @@
         <v>140.42144200228111</v>
       </c>
       <c r="G57" s="22"/>
-      <c r="H57" s="127"/>
-      <c r="I57" s="128"/>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="H57" s="128"/>
+      <c r="I57" s="126"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58" s="140"/>
       <c r="B58" s="31" t="s">
         <v>33</v>
@@ -23663,11 +23703,11 @@
         <v>0.15992386062671968</v>
       </c>
       <c r="G58" s="24"/>
-      <c r="H58" s="130"/>
-      <c r="I58" s="132"/>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="139" t="s">
+      <c r="H58" s="129"/>
+      <c r="I58" s="131"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A59" s="133" t="s">
         <v>31</v>
       </c>
       <c r="B59" s="27" t="s">
@@ -23686,15 +23726,15 @@
         <v>501.741713</v>
       </c>
       <c r="G59" s="22"/>
-      <c r="H59" s="127">
+      <c r="H59" s="128">
         <v>0.375917</v>
       </c>
-      <c r="I59" s="128">
+      <c r="I59" s="126">
         <v>0.25736399999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="139"/>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A60" s="133"/>
       <c r="B60" s="29" t="s">
         <v>17</v>
       </c>
@@ -23711,11 +23751,11 @@
         <v>42.916993988395788</v>
       </c>
       <c r="G60" s="22"/>
-      <c r="H60" s="127"/>
-      <c r="I60" s="128"/>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="139"/>
+      <c r="H60" s="128"/>
+      <c r="I60" s="126"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A61" s="133"/>
       <c r="B61" s="29" t="s">
         <v>33</v>
       </c>
@@ -23732,11 +23772,11 @@
         <v>8.5536029547528938E-2</v>
       </c>
       <c r="G61" s="22"/>
-      <c r="H61" s="127"/>
-      <c r="I61" s="128"/>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="138" t="s">
+      <c r="H61" s="128"/>
+      <c r="I61" s="126"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A62" s="141" t="s">
         <v>28</v>
       </c>
       <c r="B62" s="28" t="s">
@@ -23755,15 +23795,15 @@
         <v>51.586761000000003</v>
       </c>
       <c r="G62" s="25"/>
-      <c r="H62" s="129">
+      <c r="H62" s="127">
         <v>-9.9143999999999996E-2</v>
       </c>
-      <c r="I62" s="131">
+      <c r="I62" s="130">
         <v>0.54666899999999996</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="139"/>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A63" s="133"/>
       <c r="B63" s="29" t="s">
         <v>17</v>
       </c>
@@ -23780,10 +23820,10 @@
         <v>8.6029711727983837</v>
       </c>
       <c r="G63" s="22"/>
-      <c r="H63" s="127"/>
-      <c r="I63" s="128"/>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="H63" s="128"/>
+      <c r="I63" s="126"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64" s="140"/>
       <c r="B64" s="31" t="s">
         <v>33</v>
@@ -23801,11 +23841,11 @@
         <v>0.16676703491421729</v>
       </c>
       <c r="G64" s="24"/>
-      <c r="H64" s="130"/>
-      <c r="I64" s="132"/>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="134" t="s">
+      <c r="H64" s="129"/>
+      <c r="I64" s="131"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A65" s="136" t="s">
         <v>29</v>
       </c>
       <c r="B65" s="28" t="s">
@@ -23824,15 +23864,15 @@
         <v>0.14464199999999999</v>
       </c>
       <c r="G65" s="25"/>
-      <c r="H65" s="129">
+      <c r="H65" s="127">
         <v>6.9235000000000005E-2</v>
       </c>
-      <c r="I65" s="131">
+      <c r="I65" s="130">
         <v>1.8303E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
-      <c r="A66" s="135"/>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A66" s="137"/>
       <c r="B66" s="29" t="s">
         <v>17</v>
       </c>
@@ -23849,11 +23889,11 @@
         <v>1.2165525060596439E-2</v>
       </c>
       <c r="G66" s="22"/>
-      <c r="H66" s="127"/>
-      <c r="I66" s="128"/>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="136"/>
+      <c r="H66" s="128"/>
+      <c r="I66" s="126"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A67" s="138"/>
       <c r="B67" s="31" t="s">
         <v>33</v>
       </c>
@@ -23870,28 +23910,28 @@
         <v>8.4107832169054902E-2</v>
       </c>
       <c r="G67" s="24"/>
-      <c r="H67" s="130"/>
-      <c r="I67" s="132"/>
-    </row>
-    <row r="71" spans="1:9">
-      <c r="A71" s="141" t="s">
+      <c r="H67" s="129"/>
+      <c r="I67" s="131"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A71" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="B71" s="126"/>
-      <c r="C71" s="141" t="s">
+      <c r="B71" s="134"/>
+      <c r="C71" s="142" t="s">
         <v>39</v>
       </c>
-      <c r="D71" s="133"/>
-      <c r="H71" s="141" t="s">
+      <c r="D71" s="135"/>
+      <c r="H71" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="I71" s="133"/>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="142" t="s">
+      <c r="I71" s="135"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A72" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="B72" s="137"/>
+      <c r="B72" s="132"/>
       <c r="C72" s="75">
         <v>1</v>
       </c>
@@ -23905,8 +23945,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="139" t="s">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A73" s="133" t="s">
         <v>35</v>
       </c>
       <c r="B73" s="27" t="s">
@@ -23925,8 +23965,8 @@
         <v>-0.17974899999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="139"/>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A74" s="133"/>
       <c r="B74" s="21" t="s">
         <v>32</v>
       </c>
@@ -23939,7 +23979,7 @@
       <c r="H74" s="149"/>
       <c r="I74" s="146"/>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A75" s="140"/>
       <c r="B75" s="23" t="s">
         <v>34</v>
@@ -23953,8 +23993,8 @@
       <c r="H75" s="150"/>
       <c r="I75" s="147"/>
     </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="139" t="s">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A76" s="133" t="s">
         <v>23</v>
       </c>
       <c r="B76" s="27" t="s">
@@ -23969,12 +24009,12 @@
       <c r="H76" s="149">
         <v>8.9459999999999998E-2</v>
       </c>
-      <c r="I76" s="128">
+      <c r="I76" s="126">
         <v>0.57804800000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="139"/>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A77" s="133"/>
       <c r="B77" s="21" t="s">
         <v>32</v>
       </c>
@@ -23985,9 +24025,9 @@
         <v>61.280775411216851</v>
       </c>
       <c r="H77" s="149"/>
-      <c r="I77" s="128"/>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="I77" s="126"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A78" s="140"/>
       <c r="B78" s="23" t="s">
         <v>34</v>
@@ -23999,10 +24039,10 @@
         <v>0.30745845031691776</v>
       </c>
       <c r="H78" s="149"/>
-      <c r="I78" s="128"/>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="138" t="s">
+      <c r="I78" s="126"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A79" s="141" t="s">
         <v>24</v>
       </c>
       <c r="B79" s="28" t="s">
@@ -24017,12 +24057,12 @@
       <c r="H79" s="148">
         <v>0.43120000000000003</v>
       </c>
-      <c r="I79" s="131">
+      <c r="I79" s="130">
         <v>-0.11612699999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="139"/>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A80" s="133"/>
       <c r="B80" s="29" t="s">
         <v>17</v>
       </c>
@@ -24033,9 +24073,9 @@
         <v>118.38614924897253</v>
       </c>
       <c r="H80" s="149"/>
-      <c r="I80" s="128"/>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="I80" s="126"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A81" s="140"/>
       <c r="B81" s="23" t="s">
         <v>33</v>
@@ -24047,10 +24087,10 @@
         <v>0.10433736896297363</v>
       </c>
       <c r="H81" s="150"/>
-      <c r="I81" s="132"/>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="138" t="s">
+      <c r="I81" s="131"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A82" s="141" t="s">
         <v>25</v>
       </c>
       <c r="B82" s="28" t="s">
@@ -24065,12 +24105,12 @@
       <c r="H82" s="149">
         <v>-0.133218</v>
       </c>
-      <c r="I82" s="128">
+      <c r="I82" s="126">
         <v>0.568824</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="139"/>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A83" s="133"/>
       <c r="B83" s="29" t="s">
         <v>17</v>
       </c>
@@ -24081,9 +24121,9 @@
         <v>925.7283708880268</v>
       </c>
       <c r="H83" s="149"/>
-      <c r="I83" s="128"/>
-    </row>
-    <row r="84" spans="1:9">
+      <c r="I83" s="126"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A84" s="140"/>
       <c r="B84" s="31" t="s">
         <v>33</v>
@@ -24095,10 +24135,10 @@
         <v>0.29984399999613875</v>
       </c>
       <c r="H84" s="149"/>
-      <c r="I84" s="128"/>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="138" t="s">
+      <c r="I84" s="126"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A85" s="141" t="s">
         <v>26</v>
       </c>
       <c r="B85" s="28" t="s">
@@ -24113,12 +24153,12 @@
       <c r="H85" s="148">
         <v>-0.41107500000000002</v>
       </c>
-      <c r="I85" s="131">
+      <c r="I85" s="130">
         <v>9.9495E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="139"/>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A86" s="133"/>
       <c r="B86" s="29" t="s">
         <v>17</v>
       </c>
@@ -24129,9 +24169,9 @@
         <v>1.4637469043519786</v>
       </c>
       <c r="H86" s="149"/>
-      <c r="I86" s="128"/>
-    </row>
-    <row r="87" spans="1:9">
+      <c r="I86" s="126"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A87" s="140"/>
       <c r="B87" s="31" t="s">
         <v>33</v>
@@ -24143,10 +24183,10 @@
         <v>9.6004959038145918E-2</v>
       </c>
       <c r="H87" s="150"/>
-      <c r="I87" s="132"/>
-    </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="139" t="s">
+      <c r="I87" s="131"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A88" s="133" t="s">
         <v>27</v>
       </c>
       <c r="B88" s="27" t="s">
@@ -24161,12 +24201,12 @@
       <c r="H88" s="149">
         <v>0.46244600000000002</v>
       </c>
-      <c r="I88" s="128">
+      <c r="I88" s="126">
         <v>-0.16514999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="139"/>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A89" s="133"/>
       <c r="B89" s="29" t="s">
         <v>17</v>
       </c>
@@ -24177,10 +24217,10 @@
         <v>15.849967192395068</v>
       </c>
       <c r="H89" s="149"/>
-      <c r="I89" s="128"/>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="139"/>
+      <c r="I89" s="126"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A90" s="133"/>
       <c r="B90" s="29" t="s">
         <v>33</v>
       </c>
@@ -24191,10 +24231,10 @@
         <v>0.15103500541654644</v>
       </c>
       <c r="H90" s="149"/>
-      <c r="I90" s="128"/>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="138" t="s">
+      <c r="I90" s="126"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A91" s="141" t="s">
         <v>30</v>
       </c>
       <c r="B91" s="28" t="s">
@@ -24209,12 +24249,12 @@
       <c r="H91" s="148">
         <v>0.36050900000000002</v>
       </c>
-      <c r="I91" s="131">
+      <c r="I91" s="130">
         <v>0.224194</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
-      <c r="A92" s="139"/>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A92" s="133"/>
       <c r="B92" s="29" t="s">
         <v>17</v>
       </c>
@@ -24225,9 +24265,9 @@
         <v>188.32004760778921</v>
       </c>
       <c r="H92" s="149"/>
-      <c r="I92" s="128"/>
-    </row>
-    <row r="93" spans="1:9">
+      <c r="I92" s="126"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A93" s="140"/>
       <c r="B93" s="31" t="s">
         <v>33</v>
@@ -24239,10 +24279,10 @@
         <v>0.16585421922968466</v>
       </c>
       <c r="H93" s="150"/>
-      <c r="I93" s="132"/>
-    </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="139" t="s">
+      <c r="I93" s="131"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A94" s="133" t="s">
         <v>31</v>
       </c>
       <c r="B94" s="27" t="s">
@@ -24257,12 +24297,12 @@
       <c r="H94" s="149">
         <v>0.43729000000000001</v>
       </c>
-      <c r="I94" s="128">
+      <c r="I94" s="126">
         <v>-1.1471E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
-      <c r="A95" s="139"/>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A95" s="133"/>
       <c r="B95" s="29" t="s">
         <v>17</v>
       </c>
@@ -24273,10 +24313,10 @@
         <v>31.734436657990322</v>
       </c>
       <c r="H95" s="149"/>
-      <c r="I95" s="128"/>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="A96" s="139"/>
+      <c r="I95" s="126"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A96" s="133"/>
       <c r="B96" s="29" t="s">
         <v>33</v>
       </c>
@@ -24287,10 +24327,10 @@
         <v>6.6024357838453687E-2</v>
       </c>
       <c r="H96" s="149"/>
-      <c r="I96" s="128"/>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="A97" s="138" t="s">
+      <c r="I96" s="126"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A97" s="141" t="s">
         <v>28</v>
       </c>
       <c r="B97" s="28" t="s">
@@ -24305,12 +24345,12 @@
       <c r="H97" s="148">
         <v>0.259577</v>
       </c>
-      <c r="I97" s="131">
+      <c r="I97" s="130">
         <v>0.42089199999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
-      <c r="A98" s="139"/>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A98" s="133"/>
       <c r="B98" s="29" t="s">
         <v>17</v>
       </c>
@@ -24321,9 +24361,9 @@
         <v>26.14754782001555</v>
       </c>
       <c r="H98" s="149"/>
-      <c r="I98" s="128"/>
-    </row>
-    <row r="99" spans="1:9">
+      <c r="I98" s="126"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A99" s="140"/>
       <c r="B99" s="31" t="s">
         <v>33</v>
@@ -24335,10 +24375,10 @@
         <v>0.27790199264122556</v>
       </c>
       <c r="H99" s="150"/>
-      <c r="I99" s="132"/>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="134" t="s">
+      <c r="I99" s="131"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A100" s="136" t="s">
         <v>29</v>
       </c>
       <c r="B100" s="28" t="s">
@@ -24353,12 +24393,12 @@
       <c r="H100" s="148">
         <v>-7.2921E-2</v>
       </c>
-      <c r="I100" s="131">
+      <c r="I100" s="130">
         <v>0.178288</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
-      <c r="A101" s="135"/>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A101" s="137"/>
       <c r="B101" s="29" t="s">
         <v>17</v>
       </c>
@@ -24369,10 +24409,10 @@
         <v>8.8317608663278473E-3</v>
       </c>
       <c r="H101" s="149"/>
-      <c r="I101" s="128"/>
-    </row>
-    <row r="102" spans="1:9">
-      <c r="A102" s="136"/>
+      <c r="I101" s="126"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A102" s="138"/>
       <c r="B102" s="31" t="s">
         <v>33</v>
       </c>
@@ -24383,59 +24423,39 @@
         <v>5.7693006795886174E-2</v>
       </c>
       <c r="H102" s="150"/>
-      <c r="I102" s="132"/>
+      <c r="I102" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="102">
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="I30:I32"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="H65:H67"/>
-    <mergeCell ref="I65:I67"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="H59:H61"/>
-    <mergeCell ref="I59:I61"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="H62:H64"/>
-    <mergeCell ref="I62:I64"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="H53:H55"/>
-    <mergeCell ref="I53:I55"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="H56:H58"/>
-    <mergeCell ref="I56:I58"/>
+    <mergeCell ref="H100:H102"/>
+    <mergeCell ref="I100:I102"/>
+    <mergeCell ref="H94:H96"/>
+    <mergeCell ref="I94:I96"/>
+    <mergeCell ref="H97:H99"/>
+    <mergeCell ref="I97:I99"/>
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="H73:H75"/>
+    <mergeCell ref="I73:I75"/>
+    <mergeCell ref="H76:H78"/>
+    <mergeCell ref="I76:I78"/>
+    <mergeCell ref="H79:H81"/>
+    <mergeCell ref="I79:I81"/>
+    <mergeCell ref="H82:H84"/>
+    <mergeCell ref="I82:I84"/>
+    <mergeCell ref="H85:H87"/>
+    <mergeCell ref="I85:I87"/>
+    <mergeCell ref="H88:H90"/>
+    <mergeCell ref="I88:I90"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="H91:H93"/>
+    <mergeCell ref="I91:I93"/>
     <mergeCell ref="A71:B71"/>
     <mergeCell ref="C71:D71"/>
     <mergeCell ref="A72:B72"/>
@@ -24460,35 +24480,55 @@
     <mergeCell ref="H50:H52"/>
     <mergeCell ref="I50:I52"/>
     <mergeCell ref="A65:A67"/>
-    <mergeCell ref="H85:H87"/>
-    <mergeCell ref="I85:I87"/>
-    <mergeCell ref="H88:H90"/>
-    <mergeCell ref="I88:I90"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="H91:H93"/>
-    <mergeCell ref="I91:I93"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="H73:H75"/>
-    <mergeCell ref="I73:I75"/>
-    <mergeCell ref="H76:H78"/>
-    <mergeCell ref="I76:I78"/>
-    <mergeCell ref="H79:H81"/>
-    <mergeCell ref="I79:I81"/>
-    <mergeCell ref="H82:H84"/>
-    <mergeCell ref="I82:I84"/>
-    <mergeCell ref="H100:H102"/>
-    <mergeCell ref="I100:I102"/>
-    <mergeCell ref="H94:H96"/>
-    <mergeCell ref="I94:I96"/>
-    <mergeCell ref="H97:H99"/>
-    <mergeCell ref="I97:I99"/>
-    <mergeCell ref="A100:A102"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="I65:I67"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="H59:H61"/>
+    <mergeCell ref="I59:I61"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="H62:H64"/>
+    <mergeCell ref="I62:I64"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="H53:H55"/>
+    <mergeCell ref="I53:I55"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="I56:I58"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C73:D73">
@@ -25170,7 +25210,7 @@
       <selection pane="topRight" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11.25" style="3" customWidth="1"/>
     <col min="2" max="2" width="11.25" customWidth="1"/>
@@ -25180,28 +25220,28 @@
     <col min="10" max="10" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A1" s="144" t="s">
+    <row r="1" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="139" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="141" t="s">
+      <c r="B1" s="139"/>
+      <c r="C1" s="142" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="133"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="135"/>
       <c r="G1" s="25"/>
-      <c r="H1" s="141" t="s">
+      <c r="H1" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="133"/>
-    </row>
-    <row r="2" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A2" s="144" t="s">
+      <c r="I1" s="135"/>
+    </row>
+    <row r="2" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="144"/>
+      <c r="B2" s="139"/>
       <c r="C2" s="75">
         <v>4</v>
       </c>
@@ -25222,11 +25262,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="18.75" customHeight="1">
+    <row r="3" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="153" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="138"/>
+      <c r="B3" s="141"/>
       <c r="C3" s="118">
         <v>41.875</v>
       </c>
@@ -25247,11 +25287,11 @@
         <v>-0.42074099999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A4" s="151" t="s">
+    <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="152" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="139"/>
+      <c r="B4" s="133"/>
       <c r="C4" s="118">
         <v>-120.83401499999999</v>
       </c>
@@ -25272,11 +25312,11 @@
         <v>0.56035699999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A5" s="151" t="s">
+    <row r="5" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="139"/>
+      <c r="B5" s="133"/>
       <c r="C5" s="118">
         <v>246.433888</v>
       </c>
@@ -25298,11 +25338,11 @@
       </c>
       <c r="O5" s="20"/>
     </row>
-    <row r="6" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A6" s="151" t="s">
+    <row r="6" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="152" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="139"/>
+      <c r="B6" s="133"/>
       <c r="C6" s="118">
         <v>2717.5</v>
       </c>
@@ -25324,11 +25364,11 @@
       </c>
       <c r="O6" s="20"/>
     </row>
-    <row r="7" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A7" s="151" t="s">
+    <row r="7" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="139"/>
+      <c r="B7" s="133"/>
       <c r="C7" s="118">
         <v>1.8425959999999999</v>
       </c>
@@ -25350,11 +25390,11 @@
       </c>
       <c r="O7" s="20"/>
     </row>
-    <row r="8" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A8" s="151" t="s">
+    <row r="8" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="152" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="139"/>
+      <c r="B8" s="133"/>
       <c r="C8" s="118">
         <v>-83.008726999999993</v>
       </c>
@@ -25375,11 +25415,11 @@
         <v>-3.1306E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A9" s="151" t="s">
+    <row r="9" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="152" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="139"/>
+      <c r="B9" s="133"/>
       <c r="C9" s="118">
         <v>-160.332232</v>
       </c>
@@ -25403,11 +25443,11 @@
       <c r="P9" s="20"/>
       <c r="Q9" s="20"/>
     </row>
-    <row r="10" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A10" s="151" t="s">
+    <row r="10" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="152" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="139"/>
+      <c r="B10" s="133"/>
       <c r="C10" s="118">
         <v>62.460946</v>
       </c>
@@ -25428,11 +25468,11 @@
         <v>-6.3689999999999997E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A11" s="151" t="s">
+    <row r="11" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="139"/>
+      <c r="B11" s="133"/>
       <c r="C11" s="118">
         <v>-21.914155999999998</v>
       </c>
@@ -25453,11 +25493,11 @@
         <v>0.46326499999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="18.75" customHeight="1">
-      <c r="A12" s="152" t="s">
+    <row r="12" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="151" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="136"/>
+      <c r="B12" s="138"/>
       <c r="C12" s="119">
         <v>-0.81604399999999999</v>
       </c>
@@ -25478,7 +25518,7 @@
         <v>-2.9231E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -25498,7 +25538,7 @@
       <c r="S13" s="20"/>
       <c r="T13" s="20"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -25518,7 +25558,7 @@
       <c r="S14" s="20"/>
       <c r="T14" s="20"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A15"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -25526,28 +25566,28 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="141" t="s">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A16" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="126"/>
-      <c r="C16" s="141" t="s">
+      <c r="B16" s="134"/>
+      <c r="C16" s="142" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="126"/>
-      <c r="E16" s="133"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="135"/>
       <c r="F16" s="20"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="141" t="s">
+      <c r="H16" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="133"/>
-    </row>
-    <row r="17" spans="1:30">
-      <c r="A17" s="142" t="s">
+      <c r="I16" s="135"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A17" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="137"/>
+      <c r="B17" s="132"/>
       <c r="C17" s="75">
         <v>1</v>
       </c>
@@ -25565,11 +25605,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A18" s="153" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="138"/>
+      <c r="B18" s="141"/>
       <c r="C18" s="118">
         <v>0</v>
       </c>
@@ -25597,11 +25637,11 @@
       <c r="AB18" s="20"/>
       <c r="AD18" s="20"/>
     </row>
-    <row r="19" spans="1:30">
-      <c r="A19" s="151" t="s">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A19" s="152" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="139"/>
+      <c r="B19" s="133"/>
       <c r="C19" s="118">
         <v>-38.114736000000001</v>
       </c>
@@ -25629,11 +25669,11 @@
       <c r="AB19" s="20"/>
       <c r="AD19" s="20"/>
     </row>
-    <row r="20" spans="1:30">
-      <c r="A20" s="151" t="s">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A20" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="139"/>
+      <c r="B20" s="133"/>
       <c r="C20" s="118">
         <v>292.69328200000001</v>
       </c>
@@ -25661,11 +25701,11 @@
       <c r="AB20" s="20"/>
       <c r="AD20" s="20"/>
     </row>
-    <row r="21" spans="1:30" ht="18.75" customHeight="1">
-      <c r="A21" s="151" t="s">
+    <row r="21" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="152" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="139"/>
+      <c r="B21" s="133"/>
       <c r="C21" s="118">
         <v>989.42857100000003</v>
       </c>
@@ -25683,11 +25723,11 @@
         <v>0.32163900000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
-      <c r="A22" s="151" t="s">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A22" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="139"/>
+      <c r="B22" s="133"/>
       <c r="C22" s="118">
         <v>1.6453139999999999</v>
       </c>
@@ -25705,11 +25745,11 @@
         <v>0.211587</v>
       </c>
     </row>
-    <row r="23" spans="1:30">
-      <c r="A23" s="151" t="s">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A23" s="152" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="139"/>
+      <c r="B23" s="133"/>
       <c r="C23" s="118">
         <v>-136.86982900000001</v>
       </c>
@@ -25727,11 +25767,11 @@
         <v>0.17932699999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:30" ht="18.75" customHeight="1">
-      <c r="A24" s="151" t="s">
+    <row r="24" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="152" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="139"/>
+      <c r="B24" s="133"/>
       <c r="C24" s="118">
         <v>230.83287899999999</v>
       </c>
@@ -25749,11 +25789,11 @@
         <v>0.44369599999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
-      <c r="A25" s="151" t="s">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A25" s="152" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="139"/>
+      <c r="B25" s="133"/>
       <c r="C25" s="118">
         <v>61.825879999999998</v>
       </c>
@@ -25771,11 +25811,11 @@
         <v>0.35178700000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
-      <c r="A26" s="151" t="s">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="A26" s="152" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="139"/>
+      <c r="B26" s="133"/>
       <c r="C26" s="118">
         <v>-17.936049000000001</v>
       </c>
@@ -25793,11 +25833,11 @@
         <v>0.51677700000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:30" ht="18.75" customHeight="1">
-      <c r="A27" s="152" t="s">
+    <row r="27" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="151" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="136"/>
+      <c r="B27" s="138"/>
       <c r="C27" s="119">
         <v>-0.797377</v>
    